--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -1,26 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612F19B2-7CBF-441E-8E03-1A5CCA980D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84374F17-DF4A-4386-A1F4-F96012809E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-2'!$A$3:$R$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$B$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
   <si>
     <t>Num</t>
   </si>
@@ -31,273 +49,150 @@
     <t>Nombres</t>
   </si>
   <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>Email Uao</t>
-  </si>
-  <si>
-    <t>Email Personal</t>
-  </si>
-  <si>
     <t>RODRIGUEZ VARGAS</t>
   </si>
   <si>
-    <t>VALENTINA</t>
-  </si>
-  <si>
-    <t>BM04</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>valentina.rodrigue_v@uao.edu.co</t>
   </si>
   <si>
     <t>VARGAS DELGADO</t>
   </si>
   <si>
-    <t>LAURA CAMILA</t>
-  </si>
-  <si>
     <t>laura_camila.vargas@uao.edu.co</t>
   </si>
   <si>
     <t>CASANOVA CADENA</t>
   </si>
   <si>
-    <t>CRISTIAN NICOLAS</t>
-  </si>
-  <si>
-    <t>BM03</t>
-  </si>
-  <si>
     <t>cristian.casanova@uao.edu.co</t>
   </si>
   <si>
     <t>DELGADO MATABANCHOY</t>
   </si>
   <si>
-    <t>JUAN SEBASTIAN</t>
-  </si>
-  <si>
     <t>juan_s.delgado_m@uao.edu.co</t>
   </si>
   <si>
     <t>ROMERO PEÑA</t>
   </si>
   <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
     <t>isabella.romero_pena@uao.edu.co</t>
   </si>
   <si>
     <t>DIAGO VALDERRAMA</t>
   </si>
   <si>
-    <t>MIGUEL ANDRES</t>
-  </si>
-  <si>
     <t>miguel.diago@uao.edu.co</t>
   </si>
   <si>
-    <t>miguelucho.omg@gmail.com</t>
-  </si>
-  <si>
     <t>CASTILLO SALAZAR</t>
   </si>
   <si>
-    <t>JUAN MANUEL</t>
-  </si>
-  <si>
     <t>juan_man.castillo@uao.edu.co</t>
   </si>
   <si>
     <t>ORTIZ RAMIREZ</t>
   </si>
   <si>
-    <t>JAZMIN ALEJANDRA</t>
-  </si>
-  <si>
     <t>jazmin.ortiz@uao.edu.co</t>
   </si>
   <si>
     <t>ROJAS ROJAS</t>
   </si>
   <si>
-    <t>ROSA CATHERINE</t>
-  </si>
-  <si>
     <t>rosa.rojas@uao.edu.co</t>
   </si>
   <si>
-    <t>rojasrojarosacatherine@gmail.com</t>
-  </si>
-  <si>
     <t>GUZMAN CASTIBLANCO</t>
   </si>
   <si>
-    <t>ESTEFANIA</t>
-  </si>
-  <si>
     <t>estefania.guzman@uao.edu.co</t>
   </si>
   <si>
-    <t>estefania.guzman.castiblanco@gmail.com</t>
-  </si>
-  <si>
     <t>MONZON SANDOVAL</t>
   </si>
   <si>
-    <t>ORIANA</t>
-  </si>
-  <si>
     <t>oriana.monznn@uao.edu.co</t>
   </si>
   <si>
     <t>FERNANDEZ VELASCO</t>
   </si>
   <si>
-    <t>ILSE</t>
-  </si>
-  <si>
     <t>ilse.fernandez@uao.edu.co</t>
   </si>
   <si>
-    <t>ilsefernandezvelasco@gmail.com</t>
-  </si>
-  <si>
     <t>LONDOÑO LOPEZ</t>
   </si>
   <si>
-    <t>ALLISON</t>
-  </si>
-  <si>
     <t>allison.londono@uao.edu.co</t>
   </si>
   <si>
     <t>CORREA SEGURA</t>
   </si>
   <si>
-    <t>FERNANDO ENRIQUE</t>
-  </si>
-  <si>
     <t>fernando_enr.correa@uao.edu.co</t>
   </si>
   <si>
-    <t>ferchocs1@hotmail.com</t>
-  </si>
-  <si>
     <t>GARCIA GARCIA</t>
   </si>
   <si>
-    <t>HARRISON</t>
-  </si>
-  <si>
     <t>harrison.garcia@uao.edu.co</t>
   </si>
   <si>
-    <t>garciaharry866@gmail.com</t>
-  </si>
-  <si>
     <t>JIMENEZ CARDONA</t>
   </si>
   <si>
-    <t>ANA MARIA</t>
-  </si>
-  <si>
     <t>ana.jimenez_cardona@uao.edu.co</t>
   </si>
   <si>
     <t>GARCIA BENAVIDES</t>
   </si>
   <si>
-    <t>KTALYNA</t>
-  </si>
-  <si>
     <t>ktalyna.garcia@uao.edu.co</t>
   </si>
   <si>
-    <t>ktalynagarcia@gmail.com</t>
-  </si>
-  <si>
     <t>BERMUDEZ DIAZ</t>
   </si>
   <si>
-    <t>JUAN ESTEBAN</t>
-  </si>
-  <si>
     <t>juan_est.bermudez@uao.edu.co</t>
   </si>
   <si>
-    <t>juanes232012@hotmail.com</t>
-  </si>
-  <si>
     <t>ORTEGA QUINTERO</t>
   </si>
   <si>
-    <t>DAVID</t>
-  </si>
-  <si>
     <t>david.ortega_qui@uao.edu.co</t>
   </si>
   <si>
-    <t>dortega171@misena.edu.co</t>
-  </si>
-  <si>
     <t>SANCHEZ SOLANO</t>
   </si>
   <si>
-    <t>MAYLIN</t>
-  </si>
-  <si>
     <t>maylin.sanchez@uao.edu.co</t>
   </si>
   <si>
     <t>CALVO ARCE</t>
   </si>
   <si>
-    <t>ANDRES FELIPE</t>
-  </si>
-  <si>
     <t>andres_felipe.calvo@uao.edu.co</t>
   </si>
   <si>
-    <t>andrescalvo105@gmail.com</t>
-  </si>
-  <si>
     <t>CABRERA TORO</t>
   </si>
   <si>
-    <t>NICOLAS</t>
-  </si>
-  <si>
     <t>nicolas.cabrera@uao.edu.co</t>
   </si>
   <si>
     <t>MUÑOZ BECOCHE</t>
   </si>
   <si>
-    <t>ALEJANDRA</t>
-  </si>
-  <si>
     <t>alejandra.munoz_b@uao.edu.co</t>
   </si>
   <si>
-    <t>alejandra.camayo@uao.edu.co</t>
-  </si>
-  <si>
     <t>GUERRERO GIL</t>
   </si>
   <si>
     <t>juan_m.guerrero@uao.edu.co</t>
   </si>
   <si>
-    <t>jguerrerogil85@gmail.com</t>
-  </si>
-  <si>
     <t>MUÑOZ BECERRA</t>
   </si>
   <si>
@@ -307,50 +202,302 @@
     <t>RUIZ LEDESMA</t>
   </si>
   <si>
-    <t>MARIA GRACIELA</t>
-  </si>
-  <si>
     <t>maria_graciela.ruiz@uao.edu.co</t>
   </si>
   <si>
-    <t>mariagracielaruiz10@gmail.com</t>
-  </si>
-  <si>
     <t>GUERRA CALVACHI</t>
   </si>
   <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
     <t>santiago.guerra@uao.edu.co</t>
   </si>
   <si>
-    <t>CASSANELLO KUKULKA</t>
-  </si>
-  <si>
-    <t>FLORENCIA </t>
-  </si>
-  <si>
-    <t>florkukulka@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROSA GISELLE </t>
-  </si>
-  <si>
     <t>SWAYNE LOPEZ</t>
   </si>
   <si>
-    <t>U22329171@utp.edu.pe</t>
-  </si>
-  <si>
-    <t>giselleswayne7@gmail.com</t>
+    <t>maria_p.gonzalez@uao.edu.co</t>
+  </si>
+  <si>
+    <t>santiago.moncada@uao.edu.co</t>
+  </si>
+  <si>
+    <t>valeria.mosquera@uao.edu.co</t>
+  </si>
+  <si>
+    <t>rosa_gis.swayne@uao.edu.co</t>
+  </si>
+  <si>
+    <t>maria_pau.velasquez@uao.edu.co</t>
+  </si>
+  <si>
+    <t>juliana.vivas@uao.edu.co</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>ALLISON LONDOÑO LOPEZ</t>
+  </si>
+  <si>
+    <t>ANA MARIA JIMENEZ CARDONA</t>
+  </si>
+  <si>
+    <t>ANDRES FELIPE CALVO ARCE</t>
+  </si>
+  <si>
+    <t>CRISTIAN NICOLAS CASANOVA CADENA</t>
+  </si>
+  <si>
+    <t>DAVID ORTEGA QUINTERO</t>
+  </si>
+  <si>
+    <t>ESTEFANIA GUZMAN CASTIBLANCO</t>
+  </si>
+  <si>
+    <t>FERNANDO ENRIQUE CORREA SEGURA</t>
+  </si>
+  <si>
+    <t>ISABELLA ROMERO PENA</t>
+  </si>
+  <si>
+    <t>JUAN MANUEL CASTILLO SALAZAR</t>
+  </si>
+  <si>
+    <t>JUAN MANUEL GUERRERO GIL</t>
+  </si>
+  <si>
+    <t>KTALYNA GARCIA BENAVIDES</t>
+  </si>
+  <si>
+    <t>LAURA CAMILA VARGAS DELGADO</t>
+  </si>
+  <si>
+    <t>MARIA GRACIELA RUIZ LEDESMA</t>
+  </si>
+  <si>
+    <t>MAYLIN SANCHEZ SOLANO</t>
+  </si>
+  <si>
+    <t>MIGUEL ANDRES DIAGO VALDERRAMA</t>
+  </si>
+  <si>
+    <t>NICOLAS CABRERA TORO</t>
+  </si>
+  <si>
+    <t>ORIANA MONZNN SANDOVAL</t>
+  </si>
+  <si>
+    <t>Oscar Ivan Campo Salazar</t>
+  </si>
+  <si>
+    <t>SANTIAGO GUERRA CALVACHI</t>
+  </si>
+  <si>
+    <t>VALENTINA RODRIGUEZ VARGAS</t>
+  </si>
+  <si>
+    <t>VALERIA MOSQUERA AMADOR</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Time in Call</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JUAN ESTEBAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NICOLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANDRES FELIPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CRISTIAN NICOLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JUAN MANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FERNANDO ENRIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JUAN SEBASTIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MIGUEL ANDRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ILSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KTALYNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HARRISON</t>
+  </si>
+  <si>
+    <t>GONZALEZ PARRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARIA PAULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SANTIAGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ESTEFANIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALLISON</t>
+  </si>
+  <si>
+    <t>MONCADA CASALLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ORIANA</t>
+  </si>
+  <si>
+    <t>MOSQUERA AMADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VALERIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISABELLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALEJANDRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DAVID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JAZMIN ALEJANDRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VALENTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROSA CATHERINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARIA GRACIELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAYLIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROSA GISELLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LAURA CAMILA</t>
+  </si>
+  <si>
+    <t>VELASQUEZ YEPES</t>
+  </si>
+  <si>
+    <t>VIVAS RODRIGUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JULIANA</t>
+  </si>
+  <si>
+    <t>ALEJANDRA MUÑOZ BECOCHE</t>
+  </si>
+  <si>
+    <t>ILSE FERNANDEZ VELASCO</t>
+  </si>
+  <si>
+    <t>ROSA CATHERINE ROJAS ROJAS</t>
+  </si>
+  <si>
+    <t>HARRISON GARCIA GARCIA</t>
+  </si>
+  <si>
+    <t>JAZMIN ALEJANDRA ORTIZ RAMIREZ</t>
+  </si>
+  <si>
+    <t>Giselle Swayne Lopez</t>
+  </si>
+  <si>
+    <t>Asistencia</t>
+  </si>
+  <si>
+    <t>T.Conexión</t>
+  </si>
+  <si>
+    <t>%Conexión</t>
+  </si>
+  <si>
+    <t>T.Conexión2</t>
+  </si>
+  <si>
+    <t>%Conexión3</t>
+  </si>
+  <si>
+    <t>T.Conexión4</t>
+  </si>
+  <si>
+    <t>%Conexión5</t>
+  </si>
+  <si>
+    <t>T.Conexión6</t>
+  </si>
+  <si>
+    <t>%Conexión7</t>
+  </si>
+  <si>
+    <t>T.Conexión8</t>
+  </si>
+  <si>
+    <t>%Conexión9</t>
+  </si>
+  <si>
+    <t>T.Conexión10</t>
+  </si>
+  <si>
+    <t>%Conexión11</t>
+  </si>
+  <si>
+    <t>T.Encuentro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T.Encuentro: </t>
+  </si>
+  <si>
+    <t>Semana 1:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana 2: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana 3: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana 4: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana 5: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana 6: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,24 +632,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -682,8 +813,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor theme="7" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -798,8 +941,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -842,59 +996,147 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -907,8 +1149,48 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:R36" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+  <autoFilter ref="A3:R36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:R36">
+    <sortCondition ref="B3:B36"/>
+  </sortState>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{2951ACD3-7E7C-4B15-8969-BBEC77220F09}" name="Num"/>
+    <tableColumn id="2" xr3:uid="{41C291F5-DA77-4B55-A49C-CDE28AB05F1C}" name="Apellidos"/>
+    <tableColumn id="3" xr3:uid="{4EF9A0E0-8B64-4D77-BF58-1466EBFC70F8}" name="Nombres"/>
+    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{E5E637F3-98DE-4C48-8975-E4FF30179C84}" name="email"/>
+    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="13">
+      <calculatedColumnFormula>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión3" dataDxfId="11">
+      <calculatedColumnFormula>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión4" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión5" dataDxfId="9">
+      <calculatedColumnFormula>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión6" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión7" dataDxfId="7">
+      <calculatedColumnFormula>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión8" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión9" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión10" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión11" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Asistencia" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(G4,I4,K4,M4)*5</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1224,616 +1506,2278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD2CE0-6169-477F-B8E1-2987D9E7C726}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="8">
+        <v>45898</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="8">
+        <v>45874</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="8">
+        <v>45881</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="8">
+        <v>45888</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="8">
+        <v>45895</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1.744212962962963E-2</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="9">
+        <v>3.9780092592592596E-2</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="9">
+        <v>3.5949074074074071E-2</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" s="9">
+        <v>2.2731481481481481E-2</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1005785665</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <f>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3.9085648148148147E-2</v>
+      </c>
+      <c r="I4" s="10">
+        <f>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
+        <v>0.9825429153331392</v>
+      </c>
+      <c r="J4" s="5">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K4" s="10">
+        <f>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L4" s="5">
+        <v>2.3148148148148149E-4</v>
+      </c>
+      <c r="M4" s="10">
+        <f>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
+        <v>1.0183299389002037E-2</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="6">
+        <f t="shared" ref="R4:R36" si="0">AVERAGE(G4,I4,K4,M4)*5</f>
+        <v>2.4913102152796891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1104804719</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3.4641203703703702E-2</v>
+      </c>
+      <c r="G5" s="10">
+        <f>IF(F5/$G$2&lt;=1.001,F5/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3.9178240740740743E-2</v>
+      </c>
+      <c r="I5" s="10">
+        <f>IF(H5/$I$2&lt;=1.001,H5/$I$2,0.6)</f>
+        <v>0.9848705266220541</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3.5856481481481482E-2</v>
+      </c>
+      <c r="K5" s="10">
+        <f>IF(J5/$K$2&lt;=1.001,J5/$K$2,0.6)</f>
+        <v>0.99742433998712177</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1.9652777777777779E-2</v>
+      </c>
+      <c r="M5" s="10">
+        <f>IF(L5/$M$2&lt;=1.001,L5/$M$2,0.6)</f>
+        <v>0.86456211812627304</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="6">
+        <f t="shared" si="0"/>
+        <v>4.3085712309193109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1109542109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.6481481481481482E-2</v>
+      </c>
+      <c r="G6" s="10">
+        <f>IF(F6/$G$2&lt;=1.001,F6/$G$2,0.6)</f>
+        <v>0.94492368944923688</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3.8530092592592595E-2</v>
+      </c>
+      <c r="I6" s="10">
+        <f>IF(H6/$I$2&lt;=1.001,H6/$I$2,0.6)</f>
+        <v>0.9685772475996508</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3.5821759259259262E-2</v>
+      </c>
+      <c r="K6" s="10">
+        <f>IF(J6/$K$2&lt;=1.001,J6/$K$2,0.6)</f>
+        <v>0.9964584674822925</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1.0648148148148149E-3</v>
+      </c>
+      <c r="M6" s="10">
+        <f>IF(L6/$M$2&lt;=1.001,L6/$M$2,0.6)</f>
+        <v>4.684317718940937E-2</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="6">
+        <f t="shared" si="0"/>
+        <v>3.696003227150737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1193276119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.7349537037037038E-2</v>
+      </c>
+      <c r="G7" s="10">
+        <f>IF(F7/$G$2&lt;=1.001,F7/$G$2,0.6)</f>
+        <v>0.99469143994691445</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <f>IF(H7/$I$2&lt;=1.001,H7/$I$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <f>IF(J7/$K$2&lt;=1.001,J7/$K$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <f>IF(L7/$M$2&lt;=1.001,L7/$M$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2433642999336429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1113978874</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.744212962962963E-2</v>
+      </c>
+      <c r="G8" s="10">
+        <f>IF(F8/$G$2&lt;=1.001,F8/$G$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3.9814814814814817E-2</v>
+      </c>
+      <c r="I8" s="10">
+        <f>IF(H8/$I$2&lt;=1.001,H8/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
+      </c>
+      <c r="J8" s="5">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K8" s="10">
+        <f>IF(J8/$K$2&lt;=1.001,J8/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L8" s="5">
+        <v>2.1203703703703704E-2</v>
+      </c>
+      <c r="M8" s="10">
+        <f>IF(L8/$M$2&lt;=1.001,L8/$M$2,0.6)</f>
+        <v>0.9327902240325866</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9174812947094244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1007560675</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5.2083333333333333E-4</v>
+      </c>
+      <c r="G9" s="10">
+        <f>IF(F9/$G$2&lt;=1.001,F9/$G$2,0.6)</f>
+        <v>2.98606502986065E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3.9074074074074074E-2</v>
+      </c>
+      <c r="I9" s="10">
+        <f>IF(H9/$I$2&lt;=1.001,H9/$I$2,0.6)</f>
+        <v>0.98225196392202496</v>
+      </c>
+      <c r="J9" s="5">
+        <v>3.5763888888888887E-2</v>
+      </c>
+      <c r="K9" s="10">
+        <f>IF(J9/$K$2&lt;=1.001,J9/$K$2,0.6)</f>
+        <v>0.99484867997424342</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1.8090277777777778E-2</v>
+      </c>
+      <c r="M9" s="10">
+        <f>IF(L9/$M$2&lt;=1.001,L9/$M$2,0.6)</f>
+        <v>0.79582484725050917</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="6">
+        <f t="shared" si="0"/>
+        <v>3.5034826768067298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1004189893</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <f>IF(F10/$G$2&lt;=1.001,F10/$G$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <f>IF(H10/$I$2&lt;=1.001,H10/$I$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <f>IF(J10/$K$2&lt;=1.001,J10/$K$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <f>IF(L10/$M$2&lt;=1.001,L10/$M$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1005892878</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1.744212962962963E-2</v>
+      </c>
+      <c r="G11" s="10">
+        <f>IF(F11/$G$2&lt;=1.001,F11/$G$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3.9814814814814817E-2</v>
+      </c>
+      <c r="I11" s="10">
+        <f>IF(H11/$I$2&lt;=1.001,H11/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
+      </c>
+      <c r="J11" s="5">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K11" s="10">
+        <f>IF(J11/$K$2&lt;=1.001,J11/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1.8935185185185187E-2</v>
+      </c>
+      <c r="M11" s="10">
+        <f>IF(L11/$M$2&lt;=1.001,L11/$M$2,0.6)</f>
+        <v>0.83299389002036672</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="6">
+        <f t="shared" si="0"/>
+        <v>4.7927358771941497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1107837304</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3.8090277777777778E-2</v>
+      </c>
+      <c r="G12" s="10">
+        <f>IF(F12/$G$2&lt;=1.001,F12/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3.8541666666666669E-2</v>
+      </c>
+      <c r="I12" s="10">
+        <f>IF(H12/$I$2&lt;=1.001,H12/$I$2,0.6)</f>
+        <v>0.96886819901076515</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3.3229166666666664E-2</v>
+      </c>
+      <c r="K12" s="10">
+        <f>IF(J12/$K$2&lt;=1.001,J12/$K$2,0.6)</f>
+        <v>0.92433998712169996</v>
+      </c>
+      <c r="L12" s="5">
+        <v>5.115740740740741E-3</v>
+      </c>
+      <c r="M12" s="10">
+        <f>IF(L12/$M$2&lt;=1.001,L12/$M$2,0.6)</f>
+        <v>0.22505091649694503</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="6">
+        <f t="shared" si="0"/>
+        <v>3.3978238782867627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1058932076</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3.6388888888888887E-2</v>
+      </c>
+      <c r="G13" s="10">
+        <f>IF(F13/$G$2&lt;=1.001,F13/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3.9282407407407405E-2</v>
+      </c>
+      <c r="I13" s="10">
+        <f>IF(H13/$I$2&lt;=1.001,H13/$I$2,0.6)</f>
+        <v>0.98748908932208301</v>
+      </c>
+      <c r="J13" s="5">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K13" s="10">
+        <f>IF(J13/$K$2&lt;=1.001,J13/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L13" s="5">
+        <v>2.2395833333333334E-2</v>
+      </c>
+      <c r="M13" s="10">
+        <f>IF(L13/$M$2&lt;=1.001,L13/$M$2,0.6)</f>
+        <v>0.98523421588594706</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="6">
+        <f t="shared" si="0"/>
+        <v>4.4663065783870497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1110285503</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1.7314814814814814E-2</v>
+      </c>
+      <c r="G14" s="10">
+        <f>IF(F14/$G$2&lt;=1.001,F14/$G$2,0.6)</f>
+        <v>0.9927007299270072</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3.9189814814814816E-2</v>
+      </c>
+      <c r="I14" s="10">
+        <f>IF(H14/$I$2&lt;=1.001,H14/$I$2,0.6)</f>
+        <v>0.98516147803316845</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <f>IF(J14/$K$2&lt;=1.001,J14/$K$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <f>IF(L14/$M$2&lt;=1.001,L14/$M$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4723277599502196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1107837413</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <f>IF(F15/$G$2&lt;=1.001,F15/$G$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3.7743055555555557E-2</v>
+      </c>
+      <c r="I15" s="10">
+        <f>IF(H15/$I$2&lt;=1.001,H15/$I$2,0.6)</f>
+        <v>0.94879255164387544</v>
+      </c>
+      <c r="J15" s="5">
+        <v>3.5925925925925924E-2</v>
+      </c>
+      <c r="K15" s="10">
+        <f>IF(J15/$K$2&lt;=1.001,J15/$K$2,0.6)</f>
+        <v>0.99935608499678041</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2.0636574074074075E-2</v>
+      </c>
+      <c r="M15" s="10">
+        <f>IF(L15/$M$2&lt;=1.001,L15/$M$2,0.6)</f>
+        <v>0.90784114052953158</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="6">
+        <f t="shared" si="0"/>
+        <v>3.5699872214627342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1004217163</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4.1458333333333333E-2</v>
+      </c>
+      <c r="G16" s="10">
+        <f>IF(F16/$G$2&lt;=1.001,F16/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H16" s="5">
+        <v>3.9814814814814817E-2</v>
+      </c>
+      <c r="I16" s="10">
+        <f>IF(H16/$I$2&lt;=1.001,H16/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
+      </c>
+      <c r="J16" s="5">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K16" s="10">
+        <f>IF(J16/$K$2&lt;=1.001,J16/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L16" s="5">
+        <v>2.0798611111111111E-2</v>
+      </c>
+      <c r="M16" s="10">
+        <f>IF(L16/$M$2&lt;=1.001,L16/$M$2,0.6)</f>
+        <v>0.91496945010183306</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="6">
+        <f t="shared" si="0"/>
+        <v>4.3952053272959821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1105366146</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3.8437499999999999E-2</v>
+      </c>
+      <c r="G17" s="10">
+        <f>IF(F17/$G$2&lt;=1.001,F17/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <f>IF(H17/$I$2&lt;=1.001,H17/$I$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1.3148148148148148E-2</v>
+      </c>
+      <c r="K17" s="10">
+        <f>IF(J17/$K$2&lt;=1.001,J17/$K$2,0.6)</f>
+        <v>0.36574372182871867</v>
+      </c>
+      <c r="L17" s="5">
+        <v>7.6620370370370366E-3</v>
+      </c>
+      <c r="M17" s="10">
+        <f>IF(L17/$M$2&lt;=1.001,L17/$M$2,0.6)</f>
+        <v>0.33706720977596738</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6285136645058573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1000940688</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="G18" s="10">
+        <f>IF(F18/$G$2&lt;=1.001,F18/$G$2,0.6)</f>
+        <v>0.99535500995355009</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3.9259259259259258E-2</v>
+      </c>
+      <c r="I18" s="10">
+        <f>IF(H18/$I$2&lt;=1.001,H18/$I$2,0.6)</f>
+        <v>0.98690718649985443</v>
+      </c>
+      <c r="J18" s="5">
+        <v>3.5949074074074071E-2</v>
+      </c>
+      <c r="K18" s="10">
+        <f>IF(J18/$K$2&lt;=1.001,J18/$K$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>2.2638888888888889E-2</v>
+      </c>
+      <c r="M18" s="10">
+        <f>IF(L18/$M$2&lt;=1.001,L18/$M$2,0.6)</f>
+        <v>0.99592668024439923</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9727360958722553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1112388246</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1.744212962962963E-2</v>
+      </c>
+      <c r="G19" s="10">
+        <f>IF(F19/$G$2&lt;=1.001,F19/$G$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>3.8506944444444448E-2</v>
+      </c>
+      <c r="I19" s="10">
+        <f>IF(H19/$I$2&lt;=1.001,H19/$I$2,0.6)</f>
+        <v>0.96799534477742222</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1.0486111111111111E-2</v>
+      </c>
+      <c r="K19" s="10">
+        <f>IF(J19/$K$2&lt;=1.001,J19/$K$2,0.6)</f>
+        <v>0.29169349645846748</v>
+      </c>
+      <c r="L19" s="5">
+        <v>2.2592592592592591E-2</v>
+      </c>
+      <c r="M19" s="10">
+        <f>IF(L19/$M$2&lt;=1.001,L19/$M$2,0.6)</f>
+        <v>0.99389002036659879</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="6">
+        <f t="shared" si="0"/>
+        <v>4.066973577003111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1110286885</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1.7349537037037038E-2</v>
+      </c>
+      <c r="G20" s="10">
+        <f>IF(F20/$G$2&lt;=1.001,F20/$G$2,0.6)</f>
+        <v>0.99469143994691445</v>
+      </c>
+      <c r="H20" s="5">
+        <v>3.9293981481481478E-2</v>
+      </c>
+      <c r="I20" s="10">
+        <f>IF(H20/$I$2&lt;=1.001,H20/$I$2,0.6)</f>
+        <v>0.98778004073319736</v>
+      </c>
+      <c r="J20" s="5">
+        <v>3.5925925925925924E-2</v>
+      </c>
+      <c r="K20" s="10">
+        <f>IF(J20/$K$2&lt;=1.001,J20/$K$2,0.6)</f>
+        <v>0.99935608499678041</v>
+      </c>
+      <c r="L20" s="5">
+        <v>2.2129629629629631E-2</v>
+      </c>
+      <c r="M20" s="10">
+        <f>IF(L20/$M$2&lt;=1.001,L20/$M$2,0.6)</f>
+        <v>0.97352342158859484</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9441887340818589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1094883894</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <f>IF(F21/$G$2&lt;=1.001,F21/$G$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>3.7743055555555557E-2</v>
+      </c>
+      <c r="I21" s="10">
+        <f>IF(H21/$I$2&lt;=1.001,H21/$I$2,0.6)</f>
+        <v>0.94879255164387544</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2.8715277777777777E-2</v>
+      </c>
+      <c r="K21" s="10">
+        <f>IF(J21/$K$2&lt;=1.001,J21/$K$2,0.6)</f>
+        <v>0.79877656149388288</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1.9212962962962963E-2</v>
+      </c>
+      <c r="M21" s="10">
+        <f>IF(L21/$M$2&lt;=1.001,L21/$M$2,0.6)</f>
+        <v>0.84521384928716903</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="6">
+        <f t="shared" si="0"/>
+        <v>3.2409787030311588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1005832925</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1.7314814814814814E-2</v>
+      </c>
+      <c r="G22" s="10">
+        <f>IF(F22/$G$2&lt;=1.001,F22/$G$2,0.6)</f>
+        <v>0.9927007299270072</v>
+      </c>
+      <c r="H22" s="5">
+        <v>3.9814814814814817E-2</v>
+      </c>
+      <c r="I22" s="10">
+        <f>IF(H22/$I$2&lt;=1.001,H22/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
+      </c>
+      <c r="J22" s="5">
+        <v>3.5868055555555556E-2</v>
+      </c>
+      <c r="K22" s="10">
+        <f>IF(J22/$K$2&lt;=1.001,J22/$K$2,0.6)</f>
+        <v>0.99774629748873156</v>
+      </c>
+      <c r="L22" s="5">
+        <v>2.1909722222222223E-2</v>
+      </c>
+      <c r="M22" s="10">
+        <f>IF(L22/$M$2&lt;=1.001,L22/$M$2,0.6)</f>
+        <v>0.96384928716904283</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9439614610226554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1002886235</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1.7395833333333333E-2</v>
+      </c>
+      <c r="G23" s="10">
+        <f>IF(F23/$G$2&lt;=1.001,F23/$G$2,0.6)</f>
+        <v>0.99734571997345711</v>
+      </c>
+      <c r="H23" s="5">
+        <v>3.8217592592592595E-2</v>
+      </c>
+      <c r="I23" s="10">
+        <f>IF(H23/$I$2&lt;=1.001,H23/$I$2,0.6)</f>
+        <v>0.9607215594995635</v>
+      </c>
+      <c r="J23" s="5">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K23" s="10">
+        <f>IF(J23/$K$2&lt;=1.001,J23/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L23" s="5">
+        <v>2.2662037037037036E-2</v>
+      </c>
+      <c r="M23" s="10">
+        <f>IF(L23/$M$2&lt;=1.001,L23/$M$2,0.6)</f>
+        <v>0.9969450101832994</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9441678089474124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1112388822</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1.7337962962962961E-2</v>
+      </c>
+      <c r="G24" s="10">
+        <f>IF(F24/$G$2&lt;=1.001,F24/$G$2,0.6)</f>
+        <v>0.99402786994027859</v>
+      </c>
+      <c r="H24" s="5">
+        <v>3.9224537037037037E-2</v>
+      </c>
+      <c r="I24" s="10">
+        <f>IF(H24/$I$2&lt;=1.001,H24/$I$2,0.6)</f>
+        <v>0.98603433226651138</v>
+      </c>
+      <c r="J24" s="5">
+        <v>3.5879629629629629E-2</v>
+      </c>
+      <c r="K24" s="10">
+        <f>IF(J24/$K$2&lt;=1.001,J24/$K$2,0.6)</f>
+        <v>0.99806825499034135</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="10">
+        <f>IF(L24/$M$2&lt;=1.001,L24/$M$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="6">
+        <f t="shared" si="0"/>
+        <v>3.7226630714964144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1061688602</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1.7303240740740741E-2</v>
+      </c>
+      <c r="G25" s="10">
+        <f>IF(F25/$G$2&lt;=1.001,F25/$G$2,0.6)</f>
+        <v>0.99203715992037156</v>
+      </c>
+      <c r="H25" s="5">
+        <v>3.9247685185185184E-2</v>
+      </c>
+      <c r="I25" s="10">
+        <f>IF(H25/$I$2&lt;=1.001,H25/$I$2,0.6)</f>
+        <v>0.98661623508874008</v>
+      </c>
+      <c r="J25" s="5">
+        <v>3.5891203703703703E-2</v>
+      </c>
+      <c r="K25" s="10">
+        <f>IF(J25/$K$2&lt;=1.001,J25/$K$2,0.6)</f>
+        <v>0.99839021249195115</v>
+      </c>
+      <c r="L25" s="5">
+        <v>2.162037037037037E-2</v>
+      </c>
+      <c r="M25" s="10">
+        <f>IF(L25/$M$2&lt;=1.001,L25/$M$2,0.6)</f>
+        <v>0.95112016293279023</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="6">
+        <f t="shared" si="0"/>
+        <v>4.910204713042317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1143992171</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3.4791666666666665E-2</v>
+      </c>
+      <c r="G26" s="10">
+        <f>IF(F26/$G$2&lt;=1.001,F26/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H26" s="5">
+        <v>7.1990740740740739E-3</v>
+      </c>
+      <c r="I26" s="10">
+        <f>IF(H26/$I$2&lt;=1.001,H26/$I$2,0.6)</f>
+        <v>0.1809717777131219</v>
+      </c>
+      <c r="J26" s="5">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K26" s="10">
+        <f>IF(J26/$K$2&lt;=1.001,J26/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1.9398148148148147E-2</v>
+      </c>
+      <c r="M26" s="10">
+        <f>IF(L26/$M$2&lt;=1.001,L26/$M$2,0.6)</f>
+        <v>0.85336048879837068</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="6">
+        <f t="shared" si="0"/>
+        <v>3.2933177800163782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1112041894</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="5">
+        <v>3.7592592592592594E-2</v>
+      </c>
+      <c r="G27" s="10">
+        <f>IF(F27/$G$2&lt;=1.001,F27/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2.7164351851851853E-2</v>
+      </c>
+      <c r="I27" s="10">
+        <f>IF(H27/$I$2&lt;=1.001,H27/$I$2,0.6)</f>
+        <v>0.68286296188536511</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="10">
+        <f>IF(J27/$K$2&lt;=1.001,J27/$K$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <f>IF(L27/$M$2&lt;=1.001,L27/$M$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6035787023567063</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1076904274</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1.7430555555555557E-2</v>
+      </c>
+      <c r="G28" s="10">
+        <f>IF(F28/$G$2&lt;=1.001,F28/$G$2,0.6)</f>
+        <v>0.99933642999336436</v>
+      </c>
+      <c r="H28" s="5">
+        <v>3.9814814814814817E-2</v>
+      </c>
+      <c r="I28" s="10">
+        <f>IF(H28/$I$2&lt;=1.001,H28/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
+      </c>
+      <c r="J28" s="5">
+        <v>3.5451388888888886E-2</v>
+      </c>
+      <c r="K28" s="10">
+        <f>IF(J28/$K$2&lt;=1.001,J28/$K$2,0.6)</f>
+        <v>0.98615582743077912</v>
+      </c>
+      <c r="L28" s="5">
+        <v>1.4166666666666666E-2</v>
+      </c>
+      <c r="M28" s="10">
+        <f>IF(L28/$M$2&lt;=1.001,L28/$M$2,0.6)</f>
+        <v>0.62321792260692466</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="6">
+        <f t="shared" si="0"/>
+        <v>4.5119787928305142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1006343564</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1.7337962962962961E-2</v>
+      </c>
+      <c r="G29" s="10">
+        <f>IF(F29/$G$2&lt;=1.001,F29/$G$2,0.6)</f>
+        <v>0.99402786994027859</v>
+      </c>
+      <c r="H29" s="5">
+        <v>3.9814814814814817E-2</v>
+      </c>
+      <c r="I29" s="10">
+        <f>IF(H29/$I$2&lt;=1.001,H29/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
+      </c>
+      <c r="J29" s="5">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K29" s="10">
+        <f>IF(J29/$K$2&lt;=1.001,J29/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L29" s="13">
+        <v>2.2731481481481481E-2</v>
+      </c>
+      <c r="M29" s="14">
+        <f>IF(L29/$M$2&lt;=1.001,L29/$M$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9940283520940394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1107839506</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="10">
+        <f>IF(F30/$G$2&lt;=1.001,F30/$G$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>3.9270833333333331E-2</v>
+      </c>
+      <c r="I30" s="10">
+        <f>IF(H30/$I$2&lt;=1.001,H30/$I$2,0.6)</f>
+        <v>0.98719813791096878</v>
+      </c>
+      <c r="J30" s="5">
+        <v>3.591435185185185E-2</v>
+      </c>
+      <c r="K30" s="10">
+        <f>IF(J30/$K$2&lt;=1.001,J30/$K$2,0.6)</f>
+        <v>0.99903412749517073</v>
+      </c>
+      <c r="L30" s="5">
+        <v>1.9351851851851853E-2</v>
+      </c>
+      <c r="M30" s="10">
+        <f>IF(L30/$M$2&lt;=1.001,L30/$M$2,0.6)</f>
+        <v>0.85132382892057035</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="6">
+        <f>AVERAGE(G30,I30,K30,M30)*5</f>
+        <v>3.5469451179083871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1112389849</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="5">
+        <v>4.3043981481481482E-2</v>
+      </c>
+      <c r="G31" s="10">
+        <f>IF(F31/$G$2&lt;=1.001,F31/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H31" s="5">
+        <v>3.923611111111111E-2</v>
+      </c>
+      <c r="I31" s="10">
+        <f>IF(H31/$I$2&lt;=1.001,H31/$I$2,0.6)</f>
+        <v>0.98632528367762573</v>
+      </c>
+      <c r="J31" s="5">
+        <v>3.591435185185185E-2</v>
+      </c>
+      <c r="K31" s="10">
+        <f>IF(J31/$K$2&lt;=1.001,J31/$K$2,0.6)</f>
+        <v>0.99903412749517073</v>
+      </c>
+      <c r="L31" s="5">
+        <v>2.2731481481481481E-2</v>
+      </c>
+      <c r="M31" s="10">
+        <f>IF(L31/$M$2&lt;=1.001,L31/$M$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="6">
+        <f t="shared" si="0"/>
+        <v>4.4816992639659956</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1234198199</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1.7337962962962961E-2</v>
+      </c>
+      <c r="G32" s="10">
+        <f>IF(F32/$G$2&lt;=1.001,F32/$G$2,0.6)</f>
+        <v>0.99402786994027859</v>
+      </c>
+      <c r="H32" s="5">
+        <v>3.8796296296296294E-2</v>
+      </c>
+      <c r="I32" s="10">
+        <f>IF(H32/$I$2&lt;=1.001,H32/$I$2,0.6)</f>
+        <v>0.9752691300552806</v>
+      </c>
+      <c r="J32" s="5">
+        <v>2.2928240740740742E-2</v>
+      </c>
+      <c r="K32" s="10">
+        <f>IF(J32/$K$2&lt;=1.001,J32/$K$2,0.6)</f>
+        <v>0.63779781068898911</v>
+      </c>
+      <c r="L32" s="5">
+        <v>7.1296296296296299E-3</v>
+      </c>
+      <c r="M32" s="10">
+        <f>IF(L32/$M$2&lt;=1.001,L32/$M$2,0.6)</f>
+        <v>0.31364562118126277</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="6">
+        <f t="shared" si="0"/>
+        <v>3.6509255398322638</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="1">
+        <v>73265790</v>
+      </c>
+      <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="5">
+        <v>4.3611111111111114E-2</v>
+      </c>
+      <c r="G33" s="10">
+        <f>IF(F33/$G$2&lt;=1.001,F33/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H33" s="5">
+        <v>3.9641203703703706E-2</v>
+      </c>
+      <c r="I33" s="10">
+        <f>IF(H33/$I$2&lt;=1.001,H33/$I$2,0.6)</f>
+        <v>0.99650858306662782</v>
+      </c>
+      <c r="J33" s="5">
+        <v>3.5879629629629629E-2</v>
+      </c>
+      <c r="K33" s="10">
+        <f>IF(J33/$K$2&lt;=1.001,J33/$K$2,0.6)</f>
+        <v>0.99806825499034135</v>
+      </c>
+      <c r="L33" s="5">
+        <v>2.1238425925925924E-2</v>
+      </c>
+      <c r="M33" s="10">
+        <f>IF(L33/$M$2&lt;=1.001,L33/$M$2,0.6)</f>
+        <v>0.93431771894093685</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="6">
+        <f t="shared" si="0"/>
+        <v>4.411118196247382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1113362057</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1.7326388888888888E-2</v>
+      </c>
+      <c r="G34" s="10">
+        <f>IF(F34/$G$2&lt;=1.001,F34/$G$2,0.6)</f>
+        <v>0.99336429993364284</v>
+      </c>
+      <c r="H34" s="5">
+        <v>3.9212962962962963E-2</v>
+      </c>
+      <c r="I34" s="10">
+        <f>IF(H34/$I$2&lt;=1.001,H34/$I$2,0.6)</f>
+        <v>0.98574338085539703</v>
+      </c>
+      <c r="J34" s="5">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K34" s="10">
+        <f>IF(J34/$K$2&lt;=1.001,J34/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L34" s="5">
+        <v>2.2268518518518517E-2</v>
+      </c>
+      <c r="M34" s="10">
+        <f>IF(L34/$M$2&lt;=1.001,L34/$M$2,0.6)</f>
+        <v>0.97963340122199594</v>
+      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9488287993908067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1036925847</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
+        <f>IF(F35/$G$2&lt;=1.001,F35/$G$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>3.9178240740740743E-2</v>
+      </c>
+      <c r="I35" s="10">
+        <f>IF(H35/$I$2&lt;=1.001,H35/$I$2,0.6)</f>
+        <v>0.9848705266220541</v>
+      </c>
+      <c r="J35" s="5">
+        <v>3.5844907407407409E-2</v>
+      </c>
+      <c r="K35" s="10">
+        <f>IF(J35/$K$2&lt;=1.001,J35/$K$2,0.6)</f>
+        <v>0.99710238248551208</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+      <c r="M35" s="10">
+        <f>IF(L35/$M$2&lt;=1.001,L35/$M$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4774661363844577</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1062276579</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10">
+        <f>IF(F36/$G$2&lt;=1.001,F36/$G$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>3.9016203703703706E-2</v>
+      </c>
+      <c r="I36" s="10">
+        <f>IF(H36/$I$2&lt;=1.001,H36/$I$2,0.6)</f>
+        <v>0.98079720686645322</v>
+      </c>
+      <c r="J36" s="5">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K36" s="10">
+        <f>IF(J36/$K$2&lt;=1.001,J36/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L36" s="5">
+        <v>2.2650462962962963E-2</v>
+      </c>
+      <c r="M36" s="10">
+        <f>IF(L36/$M$2&lt;=1.001,L36/$M$2,0.6)</f>
+        <v>0.99643584521384931</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="6">
+        <f t="shared" si="0"/>
+        <v>3.721943761977391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M38" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356CA008-BCEA-4A99-A79F-FCC884D6E8C1}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.7303240740740741E-2</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.7349537037037038E-2</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.744212962962963E-2</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.6481481481481482E-2</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.7349537037037038E-2</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.4791666666666665E-2</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5.2083333333333333E-4</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.3611111111111114E-2</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.7314814814814814E-2</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3.8090277777777778E-2</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.7337962962962961E-2</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.7592592592592594E-2</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.744212962962963E-2</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3.8437499999999999E-2</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.6388888888888887E-2</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.7326388888888888E-2</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4.3043981481481482E-2</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.7337962962962961E-2</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.744212962962963E-2</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3.4641203703703702E-2</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.7314814814814814E-2</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1.744212962962963E-2</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.7337962962962961E-2</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4.1458333333333333E-2</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.7430555555555557E-2</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.7395833333333333E-2</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="E29" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="E30" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="E31" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="E32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="E33" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E32" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E30" r:id="rId1" xr:uid="{323C000C-450A-45A1-AF19-B5EF6A9A9CD8}"/>
-  </hyperlinks>
+  <autoFilter ref="A1:B1" xr:uid="{356CA008-BCEA-4A99-A79F-FCC884D6E8C1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B33">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84374F17-DF4A-4386-A1F4-F96012809E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B68B060-A34D-4B59-B0F8-C37A60D95651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
@@ -495,7 +495,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -997,9 +997,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1022,15 +1021,15 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1096,13 +1095,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1110,7 +1103,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1118,7 +1111,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1126,7 +1119,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1135,6 +1128,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1150,7 +1149,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:R36" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:R36" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A3:R36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:R36">
     <sortCondition ref="B3:B36"/>
@@ -1159,28 +1158,28 @@
     <tableColumn id="1" xr3:uid="{2951ACD3-7E7C-4B15-8969-BBEC77220F09}" name="Num"/>
     <tableColumn id="2" xr3:uid="{41C291F5-DA77-4B55-A49C-CDE28AB05F1C}" name="Apellidos"/>
     <tableColumn id="3" xr3:uid="{4EF9A0E0-8B64-4D77-BF58-1466EBFC70F8}" name="Nombres"/>
-    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="13"/>
     <tableColumn id="5" xr3:uid="{E5E637F3-98DE-4C48-8975-E4FF30179C84}" name="email"/>
-    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="13">
+    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="11">
       <calculatedColumnFormula>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión3" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión3" dataDxfId="9">
       <calculatedColumnFormula>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión4" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión5" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión4" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión5" dataDxfId="7">
       <calculatedColumnFormula>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión6" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión7" dataDxfId="7">
+    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión6" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión7" dataDxfId="5">
       <calculatedColumnFormula>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión8" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión9" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión10" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión11" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión8" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión9" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión10" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión11" dataDxfId="1"/>
     <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Asistencia" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(G4,I4,K4,M4)*5</calculatedColumnFormula>
     </tableColumn>
@@ -1508,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD2CE0-6169-477F-B8E1-2987D9E7C726}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,80 +1523,80 @@
     <col min="12" max="14" width="13.85546875" customWidth="1"/>
     <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="8">
-        <v>45898</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="7">
+        <v>45867</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="7">
         <v>45874</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="7">
         <v>45881</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="8">
+      <c r="M1" s="7">
         <v>45888</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="O1" s="8">
+      <c r="O1" s="7">
         <v>45895</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="Q1" s="7">
         <v>45902</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>1.744212962962963E-2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>3.9780092592592596E-2</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>3.5949074074074071E-2</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>2.2731481481481481E-2</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="7" t="s">
+      <c r="O2" s="8"/>
+      <c r="P2" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1615,43 +1614,43 @@
       <c r="E3" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1665,46 +1664,46 @@
       <c r="C4" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>1005785665</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <f>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G36" si="0">IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <v>3.9085648148148147E-2</v>
       </c>
-      <c r="I4" s="10">
-        <f>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I36" si="1">IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
         <v>0.9825429153331392</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
-      <c r="K4" s="10">
-        <f>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
+      <c r="K4" s="9">
+        <f t="shared" ref="K4:K36" si="2">IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>2.3148148148148149E-4</v>
       </c>
-      <c r="M4" s="10">
-        <f>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
+      <c r="M4" s="9">
+        <f t="shared" ref="M4:M36" si="3">IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
         <v>1.0183299389002037E-2</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="6">
-        <f t="shared" ref="R4:R36" si="0">AVERAGE(G4,I4,K4,M4)*5</f>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="5">
+        <f t="shared" ref="R4:R36" si="4">AVERAGE(G4,I4,K4,M4)*5</f>
         <v>2.4913102152796891</v>
       </c>
     </row>
@@ -1718,46 +1717,46 @@
       <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>1104804719</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>3.4641203703703702E-2</v>
       </c>
-      <c r="G5" s="10">
-        <f>IF(F5/$G$2&lt;=1.001,F5/$G$2,0.6)</f>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>3.9178240740740743E-2</v>
       </c>
-      <c r="I5" s="10">
-        <f>IF(H5/$I$2&lt;=1.001,H5/$I$2,0.6)</f>
+      <c r="I5" s="9">
+        <f t="shared" si="1"/>
         <v>0.9848705266220541</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>3.5856481481481482E-2</v>
       </c>
-      <c r="K5" s="10">
-        <f>IF(J5/$K$2&lt;=1.001,J5/$K$2,0.6)</f>
+      <c r="K5" s="9">
+        <f t="shared" si="2"/>
         <v>0.99742433998712177</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>1.9652777777777779E-2</v>
       </c>
-      <c r="M5" s="10">
-        <f>IF(L5/$M$2&lt;=1.001,L5/$M$2,0.6)</f>
+      <c r="M5" s="9">
+        <f t="shared" si="3"/>
         <v>0.86456211812627304</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="6">
-        <f t="shared" si="0"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="5">
+        <f t="shared" si="4"/>
         <v>4.3085712309193109</v>
       </c>
     </row>
@@ -1771,46 +1770,46 @@
       <c r="C6" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>1109542109</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>1.6481481481481482E-2</v>
       </c>
-      <c r="G6" s="10">
-        <f>IF(F6/$G$2&lt;=1.001,F6/$G$2,0.6)</f>
+      <c r="G6" s="9">
+        <f t="shared" si="0"/>
         <v>0.94492368944923688</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>3.8530092592592595E-2</v>
       </c>
-      <c r="I6" s="10">
-        <f>IF(H6/$I$2&lt;=1.001,H6/$I$2,0.6)</f>
+      <c r="I6" s="9">
+        <f t="shared" si="1"/>
         <v>0.9685772475996508</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>3.5821759259259262E-2</v>
       </c>
-      <c r="K6" s="10">
-        <f>IF(J6/$K$2&lt;=1.001,J6/$K$2,0.6)</f>
+      <c r="K6" s="9">
+        <f t="shared" si="2"/>
         <v>0.9964584674822925</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>1.0648148148148149E-3</v>
       </c>
-      <c r="M6" s="10">
-        <f>IF(L6/$M$2&lt;=1.001,L6/$M$2,0.6)</f>
+      <c r="M6" s="9">
+        <f t="shared" si="3"/>
         <v>4.684317718940937E-2</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="6">
-        <f t="shared" si="0"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="5">
+        <f t="shared" si="4"/>
         <v>3.696003227150737</v>
       </c>
     </row>
@@ -1824,46 +1823,46 @@
       <c r="C7" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>1193276119</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>1.7349537037037038E-2</v>
       </c>
-      <c r="G7" s="10">
-        <f>IF(F7/$G$2&lt;=1.001,F7/$G$2,0.6)</f>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
         <v>0.99469143994691445</v>
       </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <f>IF(H7/$I$2&lt;=1.001,H7/$I$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <f>IF(J7/$K$2&lt;=1.001,J7/$K$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="10">
-        <f>IF(L7/$M$2&lt;=1.001,L7/$M$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="6">
-        <f t="shared" si="0"/>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="5">
+        <f t="shared" si="4"/>
         <v>1.2433642999336429</v>
       </c>
     </row>
@@ -1877,46 +1876,46 @@
       <c r="C8" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>1113978874</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>1.744212962962963E-2</v>
       </c>
-      <c r="G8" s="10">
-        <f>IF(F8/$G$2&lt;=1.001,F8/$G$2,0.6)</f>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>3.9814814814814817E-2</v>
       </c>
-      <c r="I8" s="10">
-        <f>IF(H8/$I$2&lt;=1.001,H8/$I$2,0.6)</f>
+      <c r="I8" s="9">
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
-      <c r="K8" s="10">
-        <f>IF(J8/$K$2&lt;=1.001,J8/$K$2,0.6)</f>
+      <c r="K8" s="9">
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>2.1203703703703704E-2</v>
       </c>
-      <c r="M8" s="10">
-        <f>IF(L8/$M$2&lt;=1.001,L8/$M$2,0.6)</f>
+      <c r="M8" s="9">
+        <f t="shared" si="3"/>
         <v>0.9327902240325866</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="6">
-        <f t="shared" si="0"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="5">
+        <f t="shared" si="4"/>
         <v>4.9174812947094244</v>
       </c>
     </row>
@@ -1930,46 +1929,46 @@
       <c r="C9" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>1007560675</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>5.2083333333333333E-4</v>
       </c>
-      <c r="G9" s="10">
-        <f>IF(F9/$G$2&lt;=1.001,F9/$G$2,0.6)</f>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
         <v>2.98606502986065E-2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>3.9074074074074074E-2</v>
       </c>
-      <c r="I9" s="10">
-        <f>IF(H9/$I$2&lt;=1.001,H9/$I$2,0.6)</f>
+      <c r="I9" s="9">
+        <f t="shared" si="1"/>
         <v>0.98225196392202496</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>3.5763888888888887E-2</v>
       </c>
-      <c r="K9" s="10">
-        <f>IF(J9/$K$2&lt;=1.001,J9/$K$2,0.6)</f>
+      <c r="K9" s="9">
+        <f t="shared" si="2"/>
         <v>0.99484867997424342</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>1.8090277777777778E-2</v>
       </c>
-      <c r="M9" s="10">
-        <f>IF(L9/$M$2&lt;=1.001,L9/$M$2,0.6)</f>
+      <c r="M9" s="9">
+        <f t="shared" si="3"/>
         <v>0.79582484725050917</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="6">
-        <f t="shared" si="0"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="5">
+        <f t="shared" si="4"/>
         <v>3.5034826768067298</v>
       </c>
     </row>
@@ -1983,46 +1982,46 @@
       <c r="C10" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>1004189893</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
-        <f>IF(F10/$G$2&lt;=1.001,F10/$G$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10">
-        <f>IF(H10/$I$2&lt;=1.001,H10/$I$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="10">
-        <f>IF(J10/$K$2&lt;=1.001,J10/$K$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="10">
-        <f>IF(L10/$M$2&lt;=1.001,L10/$M$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="6">
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="5">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2036,46 +2035,46 @@
       <c r="C11" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>1005892878</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>1.744212962962963E-2</v>
       </c>
-      <c r="G11" s="10">
-        <f>IF(F11/$G$2&lt;=1.001,F11/$G$2,0.6)</f>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>3.9814814814814817E-2</v>
       </c>
-      <c r="I11" s="10">
-        <f>IF(H11/$I$2&lt;=1.001,H11/$I$2,0.6)</f>
+      <c r="I11" s="9">
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
-      <c r="K11" s="10">
-        <f>IF(J11/$K$2&lt;=1.001,J11/$K$2,0.6)</f>
+      <c r="K11" s="9">
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>1.8935185185185187E-2</v>
       </c>
-      <c r="M11" s="10">
-        <f>IF(L11/$M$2&lt;=1.001,L11/$M$2,0.6)</f>
+      <c r="M11" s="9">
+        <f t="shared" si="3"/>
         <v>0.83299389002036672</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="6">
-        <f t="shared" si="0"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="5">
+        <f t="shared" si="4"/>
         <v>4.7927358771941497</v>
       </c>
     </row>
@@ -2089,46 +2088,46 @@
       <c r="C12" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>1107837304</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>3.8090277777777778E-2</v>
       </c>
-      <c r="G12" s="10">
-        <f>IF(F12/$G$2&lt;=1.001,F12/$G$2,0.6)</f>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>3.8541666666666669E-2</v>
       </c>
-      <c r="I12" s="10">
-        <f>IF(H12/$I$2&lt;=1.001,H12/$I$2,0.6)</f>
+      <c r="I12" s="9">
+        <f t="shared" si="1"/>
         <v>0.96886819901076515</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>3.3229166666666664E-2</v>
       </c>
-      <c r="K12" s="10">
-        <f>IF(J12/$K$2&lt;=1.001,J12/$K$2,0.6)</f>
+      <c r="K12" s="9">
+        <f t="shared" si="2"/>
         <v>0.92433998712169996</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>5.115740740740741E-3</v>
       </c>
-      <c r="M12" s="10">
-        <f>IF(L12/$M$2&lt;=1.001,L12/$M$2,0.6)</f>
+      <c r="M12" s="9">
+        <f t="shared" si="3"/>
         <v>0.22505091649694503</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="6">
-        <f t="shared" si="0"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="5">
+        <f t="shared" si="4"/>
         <v>3.3978238782867627</v>
       </c>
     </row>
@@ -2142,46 +2141,46 @@
       <c r="C13" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>1058932076</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>3.6388888888888887E-2</v>
       </c>
-      <c r="G13" s="10">
-        <f>IF(F13/$G$2&lt;=1.001,F13/$G$2,0.6)</f>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>3.9282407407407405E-2</v>
       </c>
-      <c r="I13" s="10">
-        <f>IF(H13/$I$2&lt;=1.001,H13/$I$2,0.6)</f>
+      <c r="I13" s="9">
+        <f t="shared" si="1"/>
         <v>0.98748908932208301</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
-      <c r="K13" s="10">
-        <f>IF(J13/$K$2&lt;=1.001,J13/$K$2,0.6)</f>
+      <c r="K13" s="9">
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>2.2395833333333334E-2</v>
       </c>
-      <c r="M13" s="10">
-        <f>IF(L13/$M$2&lt;=1.001,L13/$M$2,0.6)</f>
+      <c r="M13" s="9">
+        <f t="shared" si="3"/>
         <v>0.98523421588594706</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="6">
-        <f t="shared" si="0"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="5">
+        <f t="shared" si="4"/>
         <v>4.4663065783870497</v>
       </c>
     </row>
@@ -2195,46 +2194,46 @@
       <c r="C14" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>1110285503</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>1.7314814814814814E-2</v>
       </c>
-      <c r="G14" s="10">
-        <f>IF(F14/$G$2&lt;=1.001,F14/$G$2,0.6)</f>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
         <v>0.9927007299270072</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>3.9189814814814816E-2</v>
       </c>
-      <c r="I14" s="10">
-        <f>IF(H14/$I$2&lt;=1.001,H14/$I$2,0.6)</f>
+      <c r="I14" s="9">
+        <f t="shared" si="1"/>
         <v>0.98516147803316845</v>
       </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="10">
-        <f>IF(J14/$K$2&lt;=1.001,J14/$K$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
-        <f>IF(L14/$M$2&lt;=1.001,L14/$M$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="6">
-        <f t="shared" si="0"/>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="5">
+        <f t="shared" si="4"/>
         <v>2.4723277599502196</v>
       </c>
     </row>
@@ -2248,46 +2247,46 @@
       <c r="C15" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>1107837413</v>
       </c>
       <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <f>IF(F15/$G$2&lt;=1.001,F15/$G$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
         <v>3.7743055555555557E-2</v>
       </c>
-      <c r="I15" s="10">
-        <f>IF(H15/$I$2&lt;=1.001,H15/$I$2,0.6)</f>
+      <c r="I15" s="9">
+        <f t="shared" si="1"/>
         <v>0.94879255164387544</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>3.5925925925925924E-2</v>
       </c>
-      <c r="K15" s="10">
-        <f>IF(J15/$K$2&lt;=1.001,J15/$K$2,0.6)</f>
+      <c r="K15" s="9">
+        <f t="shared" si="2"/>
         <v>0.99935608499678041</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>2.0636574074074075E-2</v>
       </c>
-      <c r="M15" s="10">
-        <f>IF(L15/$M$2&lt;=1.001,L15/$M$2,0.6)</f>
+      <c r="M15" s="9">
+        <f t="shared" si="3"/>
         <v>0.90784114052953158</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="6">
-        <f t="shared" si="0"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="5">
+        <f t="shared" si="4"/>
         <v>3.5699872214627342</v>
       </c>
     </row>
@@ -2301,46 +2300,46 @@
       <c r="C16" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>1004217163</v>
       </c>
       <c r="E16" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>4.1458333333333333E-2</v>
       </c>
-      <c r="G16" s="10">
-        <f>IF(F16/$G$2&lt;=1.001,F16/$G$2,0.6)</f>
+      <c r="G16" s="9">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>3.9814814814814817E-2</v>
       </c>
-      <c r="I16" s="10">
-        <f>IF(H16/$I$2&lt;=1.001,H16/$I$2,0.6)</f>
+      <c r="I16" s="9">
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
-      <c r="K16" s="10">
-        <f>IF(J16/$K$2&lt;=1.001,J16/$K$2,0.6)</f>
+      <c r="K16" s="9">
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>2.0798611111111111E-2</v>
       </c>
-      <c r="M16" s="10">
-        <f>IF(L16/$M$2&lt;=1.001,L16/$M$2,0.6)</f>
+      <c r="M16" s="9">
+        <f t="shared" si="3"/>
         <v>0.91496945010183306</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="6">
-        <f t="shared" si="0"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="5">
+        <f t="shared" si="4"/>
         <v>4.3952053272959821</v>
       </c>
     </row>
@@ -2354,46 +2353,46 @@
       <c r="C17" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>1105366146</v>
       </c>
       <c r="E17" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>3.8437499999999999E-2</v>
       </c>
-      <c r="G17" s="10">
-        <f>IF(F17/$G$2&lt;=1.001,F17/$G$2,0.6)</f>
+      <c r="G17" s="9">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10">
-        <f>IF(H17/$I$2&lt;=1.001,H17/$I$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="5">
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
         <v>1.3148148148148148E-2</v>
       </c>
-      <c r="K17" s="10">
-        <f>IF(J17/$K$2&lt;=1.001,J17/$K$2,0.6)</f>
+      <c r="K17" s="9">
+        <f t="shared" si="2"/>
         <v>0.36574372182871867</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>7.6620370370370366E-3</v>
       </c>
-      <c r="M17" s="10">
-        <f>IF(L17/$M$2&lt;=1.001,L17/$M$2,0.6)</f>
+      <c r="M17" s="9">
+        <f t="shared" si="3"/>
         <v>0.33706720977596738</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="6">
-        <f t="shared" si="0"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="5">
+        <f t="shared" si="4"/>
         <v>1.6285136645058573</v>
       </c>
     </row>
@@ -2407,46 +2406,46 @@
       <c r="C18" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>1000940688</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="G18" s="10">
-        <f>IF(F18/$G$2&lt;=1.001,F18/$G$2,0.6)</f>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
         <v>0.99535500995355009</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>3.9259259259259258E-2</v>
       </c>
-      <c r="I18" s="10">
-        <f>IF(H18/$I$2&lt;=1.001,H18/$I$2,0.6)</f>
+      <c r="I18" s="9">
+        <f t="shared" si="1"/>
         <v>0.98690718649985443</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>3.5949074074074071E-2</v>
       </c>
-      <c r="K18" s="10">
-        <f>IF(J18/$K$2&lt;=1.001,J18/$K$2,0.6)</f>
+      <c r="K18" s="9">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>2.2638888888888889E-2</v>
       </c>
-      <c r="M18" s="10">
-        <f>IF(L18/$M$2&lt;=1.001,L18/$M$2,0.6)</f>
+      <c r="M18" s="9">
+        <f t="shared" si="3"/>
         <v>0.99592668024439923</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="6">
-        <f t="shared" si="0"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="5">
+        <f t="shared" si="4"/>
         <v>4.9727360958722553</v>
       </c>
     </row>
@@ -2460,46 +2459,46 @@
       <c r="C19" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>1112388246</v>
       </c>
       <c r="E19" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>1.744212962962963E-2</v>
       </c>
-      <c r="G19" s="10">
-        <f>IF(F19/$G$2&lt;=1.001,F19/$G$2,0.6)</f>
+      <c r="G19" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>3.8506944444444448E-2</v>
       </c>
-      <c r="I19" s="10">
-        <f>IF(H19/$I$2&lt;=1.001,H19/$I$2,0.6)</f>
+      <c r="I19" s="9">
+        <f t="shared" si="1"/>
         <v>0.96799534477742222</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>1.0486111111111111E-2</v>
       </c>
-      <c r="K19" s="10">
-        <f>IF(J19/$K$2&lt;=1.001,J19/$K$2,0.6)</f>
+      <c r="K19" s="9">
+        <f t="shared" si="2"/>
         <v>0.29169349645846748</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>2.2592592592592591E-2</v>
       </c>
-      <c r="M19" s="10">
-        <f>IF(L19/$M$2&lt;=1.001,L19/$M$2,0.6)</f>
+      <c r="M19" s="9">
+        <f t="shared" si="3"/>
         <v>0.99389002036659879</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="6">
-        <f t="shared" si="0"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="5">
+        <f t="shared" si="4"/>
         <v>4.066973577003111</v>
       </c>
     </row>
@@ -2513,46 +2512,46 @@
       <c r="C20" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>1110286885</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>1.7349537037037038E-2</v>
       </c>
-      <c r="G20" s="10">
-        <f>IF(F20/$G$2&lt;=1.001,F20/$G$2,0.6)</f>
+      <c r="G20" s="9">
+        <f t="shared" si="0"/>
         <v>0.99469143994691445</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>3.9293981481481478E-2</v>
       </c>
-      <c r="I20" s="10">
-        <f>IF(H20/$I$2&lt;=1.001,H20/$I$2,0.6)</f>
+      <c r="I20" s="9">
+        <f t="shared" si="1"/>
         <v>0.98778004073319736</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>3.5925925925925924E-2</v>
       </c>
-      <c r="K20" s="10">
-        <f>IF(J20/$K$2&lt;=1.001,J20/$K$2,0.6)</f>
+      <c r="K20" s="9">
+        <f t="shared" si="2"/>
         <v>0.99935608499678041</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>2.2129629629629631E-2</v>
       </c>
-      <c r="M20" s="10">
-        <f>IF(L20/$M$2&lt;=1.001,L20/$M$2,0.6)</f>
+      <c r="M20" s="9">
+        <f t="shared" si="3"/>
         <v>0.97352342158859484</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="6">
-        <f t="shared" si="0"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="5">
+        <f t="shared" si="4"/>
         <v>4.9441887340818589</v>
       </c>
     </row>
@@ -2566,46 +2565,46 @@
       <c r="C21" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>1094883894</v>
       </c>
       <c r="E21" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <f>IF(F21/$G$2&lt;=1.001,F21/$G$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
         <v>3.7743055555555557E-2</v>
       </c>
-      <c r="I21" s="10">
-        <f>IF(H21/$I$2&lt;=1.001,H21/$I$2,0.6)</f>
+      <c r="I21" s="9">
+        <f t="shared" si="1"/>
         <v>0.94879255164387544</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>2.8715277777777777E-2</v>
       </c>
-      <c r="K21" s="10">
-        <f>IF(J21/$K$2&lt;=1.001,J21/$K$2,0.6)</f>
+      <c r="K21" s="9">
+        <f t="shared" si="2"/>
         <v>0.79877656149388288</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>1.9212962962962963E-2</v>
       </c>
-      <c r="M21" s="10">
-        <f>IF(L21/$M$2&lt;=1.001,L21/$M$2,0.6)</f>
+      <c r="M21" s="9">
+        <f t="shared" si="3"/>
         <v>0.84521384928716903</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="6">
-        <f t="shared" si="0"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="5">
+        <f t="shared" si="4"/>
         <v>3.2409787030311588</v>
       </c>
     </row>
@@ -2619,46 +2618,46 @@
       <c r="C22" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>1005832925</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>1.7314814814814814E-2</v>
       </c>
-      <c r="G22" s="10">
-        <f>IF(F22/$G$2&lt;=1.001,F22/$G$2,0.6)</f>
+      <c r="G22" s="9">
+        <f t="shared" si="0"/>
         <v>0.9927007299270072</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>3.9814814814814817E-2</v>
       </c>
-      <c r="I22" s="10">
-        <f>IF(H22/$I$2&lt;=1.001,H22/$I$2,0.6)</f>
+      <c r="I22" s="9">
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>3.5868055555555556E-2</v>
       </c>
-      <c r="K22" s="10">
-        <f>IF(J22/$K$2&lt;=1.001,J22/$K$2,0.6)</f>
+      <c r="K22" s="9">
+        <f t="shared" si="2"/>
         <v>0.99774629748873156</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <v>2.1909722222222223E-2</v>
       </c>
-      <c r="M22" s="10">
-        <f>IF(L22/$M$2&lt;=1.001,L22/$M$2,0.6)</f>
+      <c r="M22" s="9">
+        <f t="shared" si="3"/>
         <v>0.96384928716904283</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="6">
-        <f t="shared" si="0"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="5">
+        <f t="shared" si="4"/>
         <v>4.9439614610226554</v>
       </c>
     </row>
@@ -2672,46 +2671,46 @@
       <c r="C23" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>1002886235</v>
       </c>
       <c r="E23" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>1.7395833333333333E-2</v>
       </c>
-      <c r="G23" s="10">
-        <f>IF(F23/$G$2&lt;=1.001,F23/$G$2,0.6)</f>
+      <c r="G23" s="9">
+        <f t="shared" si="0"/>
         <v>0.99734571997345711</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>3.8217592592592595E-2</v>
       </c>
-      <c r="I23" s="10">
-        <f>IF(H23/$I$2&lt;=1.001,H23/$I$2,0.6)</f>
+      <c r="I23" s="9">
+        <f t="shared" si="1"/>
         <v>0.9607215594995635</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
-      <c r="K23" s="10">
-        <f>IF(J23/$K$2&lt;=1.001,J23/$K$2,0.6)</f>
+      <c r="K23" s="9">
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <v>2.2662037037037036E-2</v>
       </c>
-      <c r="M23" s="10">
-        <f>IF(L23/$M$2&lt;=1.001,L23/$M$2,0.6)</f>
+      <c r="M23" s="9">
+        <f t="shared" si="3"/>
         <v>0.9969450101832994</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="6">
-        <f t="shared" si="0"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="5">
+        <f t="shared" si="4"/>
         <v>4.9441678089474124</v>
       </c>
     </row>
@@ -2725,46 +2724,46 @@
       <c r="C24" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>1112388822</v>
       </c>
       <c r="E24" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>1.7337962962962961E-2</v>
       </c>
-      <c r="G24" s="10">
-        <f>IF(F24/$G$2&lt;=1.001,F24/$G$2,0.6)</f>
+      <c r="G24" s="9">
+        <f t="shared" si="0"/>
         <v>0.99402786994027859</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>3.9224537037037037E-2</v>
       </c>
-      <c r="I24" s="10">
-        <f>IF(H24/$I$2&lt;=1.001,H24/$I$2,0.6)</f>
+      <c r="I24" s="9">
+        <f t="shared" si="1"/>
         <v>0.98603433226651138</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>3.5879629629629629E-2</v>
       </c>
-      <c r="K24" s="10">
-        <f>IF(J24/$K$2&lt;=1.001,J24/$K$2,0.6)</f>
+      <c r="K24" s="9">
+        <f t="shared" si="2"/>
         <v>0.99806825499034135</v>
       </c>
-      <c r="L24" s="5">
-        <v>0</v>
-      </c>
-      <c r="M24" s="10">
-        <f>IF(L24/$M$2&lt;=1.001,L24/$M$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="6">
-        <f t="shared" si="0"/>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="5">
+        <f t="shared" si="4"/>
         <v>3.7226630714964144</v>
       </c>
     </row>
@@ -2778,46 +2777,46 @@
       <c r="C25" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>1061688602</v>
       </c>
       <c r="E25" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>1.7303240740740741E-2</v>
       </c>
-      <c r="G25" s="10">
-        <f>IF(F25/$G$2&lt;=1.001,F25/$G$2,0.6)</f>
+      <c r="G25" s="9">
+        <f t="shared" si="0"/>
         <v>0.99203715992037156</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>3.9247685185185184E-2</v>
       </c>
-      <c r="I25" s="10">
-        <f>IF(H25/$I$2&lt;=1.001,H25/$I$2,0.6)</f>
+      <c r="I25" s="9">
+        <f t="shared" si="1"/>
         <v>0.98661623508874008</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>3.5891203703703703E-2</v>
       </c>
-      <c r="K25" s="10">
-        <f>IF(J25/$K$2&lt;=1.001,J25/$K$2,0.6)</f>
+      <c r="K25" s="9">
+        <f t="shared" si="2"/>
         <v>0.99839021249195115</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <v>2.162037037037037E-2</v>
       </c>
-      <c r="M25" s="10">
-        <f>IF(L25/$M$2&lt;=1.001,L25/$M$2,0.6)</f>
+      <c r="M25" s="9">
+        <f t="shared" si="3"/>
         <v>0.95112016293279023</v>
       </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="6">
-        <f t="shared" si="0"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="5">
+        <f t="shared" si="4"/>
         <v>4.910204713042317</v>
       </c>
     </row>
@@ -2831,46 +2830,46 @@
       <c r="C26" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>1143992171</v>
       </c>
       <c r="E26" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>3.4791666666666665E-2</v>
       </c>
-      <c r="G26" s="10">
-        <f>IF(F26/$G$2&lt;=1.001,F26/$G$2,0.6)</f>
+      <c r="G26" s="9">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>7.1990740740740739E-3</v>
       </c>
-      <c r="I26" s="10">
-        <f>IF(H26/$I$2&lt;=1.001,H26/$I$2,0.6)</f>
+      <c r="I26" s="9">
+        <f t="shared" si="1"/>
         <v>0.1809717777131219</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
-      <c r="K26" s="10">
-        <f>IF(J26/$K$2&lt;=1.001,J26/$K$2,0.6)</f>
+      <c r="K26" s="9">
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <v>1.9398148148148147E-2</v>
       </c>
-      <c r="M26" s="10">
-        <f>IF(L26/$M$2&lt;=1.001,L26/$M$2,0.6)</f>
+      <c r="M26" s="9">
+        <f t="shared" si="3"/>
         <v>0.85336048879837068</v>
       </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="6">
-        <f t="shared" si="0"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="5">
+        <f t="shared" si="4"/>
         <v>3.2933177800163782</v>
       </c>
     </row>
@@ -2884,46 +2883,46 @@
       <c r="C27" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>1112041894</v>
       </c>
       <c r="E27" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>3.7592592592592594E-2</v>
       </c>
-      <c r="G27" s="10">
-        <f>IF(F27/$G$2&lt;=1.001,F27/$G$2,0.6)</f>
+      <c r="G27" s="9">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>2.7164351851851853E-2</v>
       </c>
-      <c r="I27" s="10">
-        <f>IF(H27/$I$2&lt;=1.001,H27/$I$2,0.6)</f>
+      <c r="I27" s="9">
+        <f t="shared" si="1"/>
         <v>0.68286296188536511</v>
       </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
-      <c r="K27" s="10">
-        <f>IF(J27/$K$2&lt;=1.001,J27/$K$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="5">
-        <v>0</v>
-      </c>
-      <c r="M27" s="10">
-        <f>IF(L27/$M$2&lt;=1.001,L27/$M$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="6">
-        <f t="shared" si="0"/>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="5">
+        <f t="shared" si="4"/>
         <v>1.6035787023567063</v>
       </c>
     </row>
@@ -2937,46 +2936,46 @@
       <c r="C28" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>1076904274</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>1.7430555555555557E-2</v>
       </c>
-      <c r="G28" s="10">
-        <f>IF(F28/$G$2&lt;=1.001,F28/$G$2,0.6)</f>
+      <c r="G28" s="9">
+        <f t="shared" si="0"/>
         <v>0.99933642999336436</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <v>3.9814814814814817E-2</v>
       </c>
-      <c r="I28" s="10">
-        <f>IF(H28/$I$2&lt;=1.001,H28/$I$2,0.6)</f>
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="4">
         <v>3.5451388888888886E-2</v>
       </c>
-      <c r="K28" s="10">
-        <f>IF(J28/$K$2&lt;=1.001,J28/$K$2,0.6)</f>
+      <c r="K28" s="9">
+        <f t="shared" si="2"/>
         <v>0.98615582743077912</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="4">
         <v>1.4166666666666666E-2</v>
       </c>
-      <c r="M28" s="10">
-        <f>IF(L28/$M$2&lt;=1.001,L28/$M$2,0.6)</f>
+      <c r="M28" s="9">
+        <f t="shared" si="3"/>
         <v>0.62321792260692466</v>
       </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="6">
-        <f t="shared" si="0"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="5">
+        <f t="shared" si="4"/>
         <v>4.5119787928305142</v>
       </c>
     </row>
@@ -2990,46 +2989,46 @@
       <c r="C29" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>1006343564</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>1.7337962962962961E-2</v>
       </c>
-      <c r="G29" s="10">
-        <f>IF(F29/$G$2&lt;=1.001,F29/$G$2,0.6)</f>
+      <c r="G29" s="9">
+        <f t="shared" si="0"/>
         <v>0.99402786994027859</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>3.9814814814814817E-2</v>
       </c>
-      <c r="I29" s="10">
-        <f>IF(H29/$I$2&lt;=1.001,H29/$I$2,0.6)</f>
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
-      <c r="K29" s="10">
-        <f>IF(J29/$K$2&lt;=1.001,J29/$K$2,0.6)</f>
+      <c r="K29" s="9">
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="12">
         <v>2.2731481481481481E-2</v>
       </c>
-      <c r="M29" s="14">
-        <f>IF(L29/$M$2&lt;=1.001,L29/$M$2,0.6)</f>
+      <c r="M29" s="13">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="6">
-        <f t="shared" si="0"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="5">
+        <f t="shared" si="4"/>
         <v>4.9940283520940394</v>
       </c>
     </row>
@@ -3043,45 +3042,45 @@
       <c r="C30" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>1107839506</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="10">
-        <f>IF(F30/$G$2&lt;=1.001,F30/$G$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
         <v>3.9270833333333331E-2</v>
       </c>
-      <c r="I30" s="10">
-        <f>IF(H30/$I$2&lt;=1.001,H30/$I$2,0.6)</f>
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
         <v>0.98719813791096878</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <v>3.591435185185185E-2</v>
       </c>
-      <c r="K30" s="10">
-        <f>IF(J30/$K$2&lt;=1.001,J30/$K$2,0.6)</f>
+      <c r="K30" s="9">
+        <f t="shared" si="2"/>
         <v>0.99903412749517073</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="4">
         <v>1.9351851851851853E-2</v>
       </c>
-      <c r="M30" s="10">
-        <f>IF(L30/$M$2&lt;=1.001,L30/$M$2,0.6)</f>
+      <c r="M30" s="9">
+        <f t="shared" si="3"/>
         <v>0.85132382892057035</v>
       </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="6">
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="5">
         <f>AVERAGE(G30,I30,K30,M30)*5</f>
         <v>3.5469451179083871</v>
       </c>
@@ -3096,46 +3095,46 @@
       <c r="C31" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>1112389849</v>
       </c>
       <c r="E31" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>4.3043981481481482E-2</v>
       </c>
-      <c r="G31" s="10">
-        <f>IF(F31/$G$2&lt;=1.001,F31/$G$2,0.6)</f>
+      <c r="G31" s="9">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <v>3.923611111111111E-2</v>
       </c>
-      <c r="I31" s="10">
-        <f>IF(H31/$I$2&lt;=1.001,H31/$I$2,0.6)</f>
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
         <v>0.98632528367762573</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <v>3.591435185185185E-2</v>
       </c>
-      <c r="K31" s="10">
-        <f>IF(J31/$K$2&lt;=1.001,J31/$K$2,0.6)</f>
+      <c r="K31" s="9">
+        <f t="shared" si="2"/>
         <v>0.99903412749517073</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="4">
         <v>2.2731481481481481E-2</v>
       </c>
-      <c r="M31" s="10">
-        <f>IF(L31/$M$2&lt;=1.001,L31/$M$2,0.6)</f>
+      <c r="M31" s="9">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="6">
-        <f t="shared" si="0"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="5">
+        <f t="shared" si="4"/>
         <v>4.4816992639659956</v>
       </c>
     </row>
@@ -3149,46 +3148,46 @@
       <c r="C32" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>1234198199</v>
       </c>
       <c r="E32" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>1.7337962962962961E-2</v>
       </c>
-      <c r="G32" s="10">
-        <f>IF(F32/$G$2&lt;=1.001,F32/$G$2,0.6)</f>
+      <c r="G32" s="9">
+        <f t="shared" si="0"/>
         <v>0.99402786994027859</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <v>3.8796296296296294E-2</v>
       </c>
-      <c r="I32" s="10">
-        <f>IF(H32/$I$2&lt;=1.001,H32/$I$2,0.6)</f>
+      <c r="I32" s="9">
+        <f t="shared" si="1"/>
         <v>0.9752691300552806</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <v>2.2928240740740742E-2</v>
       </c>
-      <c r="K32" s="10">
-        <f>IF(J32/$K$2&lt;=1.001,J32/$K$2,0.6)</f>
+      <c r="K32" s="9">
+        <f t="shared" si="2"/>
         <v>0.63779781068898911</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <v>7.1296296296296299E-3</v>
       </c>
-      <c r="M32" s="10">
-        <f>IF(L32/$M$2&lt;=1.001,L32/$M$2,0.6)</f>
+      <c r="M32" s="9">
+        <f t="shared" si="3"/>
         <v>0.31364562118126277</v>
       </c>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="6">
-        <f t="shared" si="0"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="5">
+        <f t="shared" si="4"/>
         <v>3.6509255398322638</v>
       </c>
     </row>
@@ -3202,46 +3201,46 @@
       <c r="C33" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>73265790</v>
       </c>
       <c r="E33" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>4.3611111111111114E-2</v>
       </c>
-      <c r="G33" s="10">
-        <f>IF(F33/$G$2&lt;=1.001,F33/$G$2,0.6)</f>
+      <c r="G33" s="9">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>3.9641203703703706E-2</v>
       </c>
-      <c r="I33" s="10">
-        <f>IF(H33/$I$2&lt;=1.001,H33/$I$2,0.6)</f>
+      <c r="I33" s="9">
+        <f t="shared" si="1"/>
         <v>0.99650858306662782</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="4">
         <v>3.5879629629629629E-2</v>
       </c>
-      <c r="K33" s="10">
-        <f>IF(J33/$K$2&lt;=1.001,J33/$K$2,0.6)</f>
+      <c r="K33" s="9">
+        <f t="shared" si="2"/>
         <v>0.99806825499034135</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="4">
         <v>2.1238425925925924E-2</v>
       </c>
-      <c r="M33" s="10">
-        <f>IF(L33/$M$2&lt;=1.001,L33/$M$2,0.6)</f>
+      <c r="M33" s="9">
+        <f t="shared" si="3"/>
         <v>0.93431771894093685</v>
       </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="6">
-        <f t="shared" si="0"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="5">
+        <f t="shared" si="4"/>
         <v>4.411118196247382</v>
       </c>
     </row>
@@ -3255,46 +3254,46 @@
       <c r="C34" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>1113362057</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>1.7326388888888888E-2</v>
       </c>
-      <c r="G34" s="10">
-        <f>IF(F34/$G$2&lt;=1.001,F34/$G$2,0.6)</f>
+      <c r="G34" s="9">
+        <f t="shared" si="0"/>
         <v>0.99336429993364284</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <v>3.9212962962962963E-2</v>
       </c>
-      <c r="I34" s="10">
-        <f>IF(H34/$I$2&lt;=1.001,H34/$I$2,0.6)</f>
+      <c r="I34" s="9">
+        <f t="shared" si="1"/>
         <v>0.98574338085539703</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
-      <c r="K34" s="10">
-        <f>IF(J34/$K$2&lt;=1.001,J34/$K$2,0.6)</f>
+      <c r="K34" s="9">
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="4">
         <v>2.2268518518518517E-2</v>
       </c>
-      <c r="M34" s="10">
-        <f>IF(L34/$M$2&lt;=1.001,L34/$M$2,0.6)</f>
+      <c r="M34" s="9">
+        <f t="shared" si="3"/>
         <v>0.97963340122199594</v>
       </c>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="6">
-        <f t="shared" si="0"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="5">
+        <f t="shared" si="4"/>
         <v>4.9488287993908067</v>
       </c>
     </row>
@@ -3308,46 +3307,46 @@
       <c r="C35" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>1036925847</v>
       </c>
       <c r="E35" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="5">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10">
-        <f>IF(F35/$G$2&lt;=1.001,F35/$G$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
         <v>3.9178240740740743E-2</v>
       </c>
-      <c r="I35" s="10">
-        <f>IF(H35/$I$2&lt;=1.001,H35/$I$2,0.6)</f>
+      <c r="I35" s="9">
+        <f t="shared" si="1"/>
         <v>0.9848705266220541</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <v>3.5844907407407409E-2</v>
       </c>
-      <c r="K35" s="10">
-        <f>IF(J35/$K$2&lt;=1.001,J35/$K$2,0.6)</f>
+      <c r="K35" s="9">
+        <f t="shared" si="2"/>
         <v>0.99710238248551208</v>
       </c>
-      <c r="L35" s="5">
-        <v>0</v>
-      </c>
-      <c r="M35" s="10">
-        <f>IF(L35/$M$2&lt;=1.001,L35/$M$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="6">
-        <f t="shared" si="0"/>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="5">
+        <f t="shared" si="4"/>
         <v>2.4774661363844577</v>
       </c>
     </row>
@@ -3361,54 +3360,54 @@
       <c r="C36" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>1062276579</v>
       </c>
       <c r="E36" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="10">
-        <f>IF(F36/$G$2&lt;=1.001,F36/$G$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="5">
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
         <v>3.9016203703703706E-2</v>
       </c>
-      <c r="I36" s="10">
-        <f>IF(H36/$I$2&lt;=1.001,H36/$I$2,0.6)</f>
+      <c r="I36" s="9">
+        <f t="shared" si="1"/>
         <v>0.98079720686645322</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
-      <c r="K36" s="10">
-        <f>IF(J36/$K$2&lt;=1.001,J36/$K$2,0.6)</f>
+      <c r="K36" s="9">
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="4">
         <v>2.2650462962962963E-2</v>
       </c>
-      <c r="M36" s="10">
-        <f>IF(L36/$M$2&lt;=1.001,L36/$M$2,0.6)</f>
+      <c r="M36" s="9">
+        <f t="shared" si="3"/>
         <v>0.99643584521384931</v>
       </c>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="6">
-        <f t="shared" si="0"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="5">
+        <f t="shared" si="4"/>
         <v>3.721943761977391</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M37" s="2"/>
+      <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M38" s="2"/>
+      <c r="M38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3444,10 +3443,10 @@
       <c r="A2" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1.7303240740740741E-2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3455,10 +3454,10 @@
       <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1.7349537037037038E-2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3466,10 +3465,10 @@
       <c r="A4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1.744212962962963E-2</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3477,10 +3476,10 @@
       <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1.6481481481481482E-2</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3488,10 +3487,10 @@
       <c r="A6" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1.7349537037037038E-2</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3499,10 +3498,10 @@
       <c r="A7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>3.4791666666666665E-2</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3510,10 +3509,10 @@
       <c r="A8" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3521,10 +3520,10 @@
       <c r="A9" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>5.2083333333333333E-4</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3532,10 +3531,10 @@
       <c r="A10" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>4.3611111111111114E-2</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3543,10 +3542,10 @@
       <c r="A11" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>1.7314814814814814E-2</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3554,10 +3553,10 @@
       <c r="A12" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>3.8090277777777778E-2</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3565,10 +3564,10 @@
       <c r="A13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>1.7337962962962961E-2</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3576,10 +3575,10 @@
       <c r="A14" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>3.7592592592592594E-2</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3587,10 +3586,10 @@
       <c r="A15" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>1.744212962962963E-2</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3598,10 +3597,10 @@
       <c r="A16" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>3.8437499999999999E-2</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3609,10 +3608,10 @@
       <c r="A17" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>3.6388888888888887E-2</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3620,10 +3619,10 @@
       <c r="A18" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>1.7326388888888888E-2</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3631,10 +3630,10 @@
       <c r="A19" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>4.3043981481481482E-2</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3642,10 +3641,10 @@
       <c r="A20" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>1.7337962962962961E-2</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3653,10 +3652,10 @@
       <c r="A21" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>1.744212962962963E-2</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3664,10 +3663,10 @@
       <c r="A22" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>3.4641203703703702E-2</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3675,10 +3674,10 @@
       <c r="A23" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>1.7314814814814814E-2</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3686,10 +3685,10 @@
       <c r="A24" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>1.744212962962963E-2</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3697,10 +3696,10 @@
       <c r="A25" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>1.7337962962962961E-2</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3708,10 +3707,10 @@
       <c r="A26" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>4.1458333333333333E-2</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3719,10 +3718,10 @@
       <c r="A27" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>1.7430555555555557E-2</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3730,45 +3729,45 @@
       <c r="A28" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>1.7395833333333333E-2</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="E29" s="12" t="s">
+      <c r="B29" s="1"/>
+      <c r="E29" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="E30" s="11" t="s">
+      <c r="B30" s="1"/>
+      <c r="E30" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="E31" s="12" t="s">
+      <c r="B31" s="1"/>
+      <c r="E31" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="E32" s="11" t="s">
+      <c r="B32" s="1"/>
+      <c r="E32" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="E33" s="12" t="s">
+      <c r="B33" s="1"/>
+      <c r="E33" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>63</v>
       </c>
     </row>

--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B68B060-A34D-4B59-B0F8-C37A60D95651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B1FEA3-332E-4A4B-B799-66B1D6BDF749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="150">
   <si>
     <t>Num</t>
   </si>
@@ -1507,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD2CE0-6169-477F-B8E1-2987D9E7C726}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3049,11 +3049,11 @@
         <v>12</v>
       </c>
       <c r="F30" s="4">
-        <v>0</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G30" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="4">
         <v>3.9270833333333331E-2</v>
@@ -3082,7 +3082,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="5">
         <f>AVERAGE(G30,I30,K30,M30)*5</f>
-        <v>3.5469451179083871</v>
+        <v>4.7969451179083871</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">

--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B1FEA3-332E-4A4B-B799-66B1D6BDF749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893B6CA9-9209-47E0-9A50-2AF829135D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-2" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-2'!$A$3:$R$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-2'!$A$3:$T$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="159">
   <si>
     <t>Num</t>
   </si>
@@ -488,6 +511,33 @@
   </si>
   <si>
     <t xml:space="preserve">Semana 6: </t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Gesto Asignado</t>
+  </si>
+  <si>
+    <t>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</t>
+  </si>
+  <si>
+    <t>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</t>
+  </si>
+  <si>
+    <t>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</t>
+  </si>
+  <si>
+    <t>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</t>
+  </si>
+  <si>
+    <t>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</t>
+  </si>
+  <si>
+    <t>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</t>
+  </si>
+  <si>
+    <t>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</t>
   </si>
 </sst>
 </file>
@@ -497,7 +547,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,6 +678,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -953,7 +1017,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -996,8 +1060,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1032,8 +1097,14 @@
     <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1067,6 +1138,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1077,7 +1149,15 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1149,39 +1229,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:R36" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A3:R36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:R36">
-    <sortCondition ref="B3:B36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:T36" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A3:T36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:T36">
+    <sortCondition ref="S3:S36"/>
   </sortState>
-  <tableColumns count="18">
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{2951ACD3-7E7C-4B15-8969-BBEC77220F09}" name="Num"/>
     <tableColumn id="2" xr3:uid="{41C291F5-DA77-4B55-A49C-CDE28AB05F1C}" name="Apellidos"/>
     <tableColumn id="3" xr3:uid="{4EF9A0E0-8B64-4D77-BF58-1466EBFC70F8}" name="Nombres"/>
-    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="15"/>
     <tableColumn id="5" xr3:uid="{E5E637F3-98DE-4C48-8975-E4FF30179C84}" name="email"/>
-    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="13">
       <calculatedColumnFormula>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión3" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión3" dataDxfId="11">
       <calculatedColumnFormula>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión4" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión5" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión4" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión5" dataDxfId="9">
       <calculatedColumnFormula>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión6" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión7" dataDxfId="5">
+    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión6" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión7" dataDxfId="7">
       <calculatedColumnFormula>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión8" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión9" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión10" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión11" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Asistencia" dataDxfId="0">
-      <calculatedColumnFormula>AVERAGE(G4,I4,K4,M4)*5</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión8" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión9" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión10" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión11" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{5430F0E6-F861-44B2-B1CA-6E2A24842801}" name="Asistencia" dataDxfId="2">
+      <calculatedColumnFormula>AVERAGE(F4,H4,J4,L4)*5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{5E18873E-0421-4811-A7ED-EFE7A5B09CB1}" name="Grupo" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Gesto Asignado" dataDxfId="0">
+      <calculatedColumnFormula array="1">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1505,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD2CE0-6169-477F-B8E1-2987D9E7C726}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,17 +1600,18 @@
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="11" width="16.85546875" customWidth="1"/>
     <col min="12" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1"/>
+    <col min="16" max="18" width="18" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="74.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F1" s="6" t="s">
         <v>144</v>
       </c>
@@ -1563,8 +1648,10 @@
       <c r="Q1" s="7">
         <v>45902</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F2" s="6" t="s">
         <v>143</v>
       </c>
@@ -1597,8 +1684,10 @@
         <v>142</v>
       </c>
       <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1653,1771 +1742,2052 @@
       <c r="R3" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D4">
-        <v>1005785665</v>
+        <v>1110286885</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>1.7349537037037038E-2</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" ref="G4:G36" si="0">IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
-        <v>0</v>
+        <f>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
+        <v>0.99469143994691445</v>
       </c>
       <c r="H4" s="4">
-        <v>3.9085648148148147E-2</v>
+        <v>3.9293981481481478E-2</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" ref="I4:I36" si="1">IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
-        <v>0.9825429153331392</v>
+        <f>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
+        <v>0.98778004073319736</v>
       </c>
       <c r="J4" s="4">
-        <v>3.5960648148148151E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="K4" s="9">
-        <f t="shared" ref="K4:K36" si="2">IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
+        <f>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
+        <v>0.99935608499678041</v>
       </c>
       <c r="L4" s="4">
-        <v>2.3148148148148149E-4</v>
+        <v>2.2129629629629631E-2</v>
       </c>
       <c r="M4" s="9">
-        <f t="shared" ref="M4:M36" si="3">IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
-        <v>1.0183299389002037E-2</v>
+        <f>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
+        <v>0.97352342158859484</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="5">
-        <f t="shared" ref="R4:R36" si="4">AVERAGE(G4,I4,K4,M4)*5</f>
-        <v>2.4913102152796891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F4,H4,J4,L4)*5</f>
+        <v>0.14337384259259259</v>
+      </c>
+      <c r="S4" s="16">
+        <v>1</v>
+      </c>
+      <c r="T4" s="5" t="str" cm="1">
+        <f t="array" ref="T4">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>1104804719</v>
+        <v>1109542109</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="4">
-        <v>3.4641203703703702E-2</v>
+        <v>1.6481481481481482E-2</v>
       </c>
       <c r="G5" s="9">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F5/$G$2&lt;=1.001,F5/$G$2,0.6)</f>
+        <v>0.94492368944923688</v>
       </c>
       <c r="H5" s="4">
-        <v>3.9178240740740743E-2</v>
+        <v>3.8530092592592595E-2</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" si="1"/>
-        <v>0.9848705266220541</v>
+        <f>IF(H5/$I$2&lt;=1.001,H5/$I$2,0.6)</f>
+        <v>0.9685772475996508</v>
       </c>
       <c r="J5" s="4">
-        <v>3.5856481481481482E-2</v>
+        <v>3.5821759259259262E-2</v>
       </c>
       <c r="K5" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99742433998712177</v>
+        <f>IF(J5/$K$2&lt;=1.001,J5/$K$2,0.6)</f>
+        <v>0.9964584674822925</v>
       </c>
       <c r="L5" s="4">
-        <v>1.9652777777777779E-2</v>
+        <v>1.0648148148148149E-3</v>
       </c>
       <c r="M5" s="9">
-        <f t="shared" si="3"/>
-        <v>0.86456211812627304</v>
+        <f>IF(L5/$M$2&lt;=1.001,L5/$M$2,0.6)</f>
+        <v>4.684317718940937E-2</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="5">
-        <f t="shared" si="4"/>
-        <v>4.3085712309193109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F5,H5,J5,L5)*5</f>
+        <v>0.11487268518518517</v>
+      </c>
+      <c r="S5" s="16">
+        <v>1</v>
+      </c>
+      <c r="T5" s="5" t="str" cm="1">
+        <f t="array" ref="T5">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D6">
-        <v>1109542109</v>
+        <v>1036925847</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F6" s="4">
-        <v>1.6481481481481482E-2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="0"/>
-        <v>0.94492368944923688</v>
+        <f>IF(F6/$G$2&lt;=1.001,F6/$G$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>3.8530092592592595E-2</v>
+        <v>3.9178240740740743E-2</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="1"/>
-        <v>0.9685772475996508</v>
+        <f>IF(H6/$I$2&lt;=1.001,H6/$I$2,0.6)</f>
+        <v>0.9848705266220541</v>
       </c>
       <c r="J6" s="4">
-        <v>3.5821759259259262E-2</v>
+        <v>3.5844907407407409E-2</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="2"/>
-        <v>0.9964584674822925</v>
+        <f>IF(J6/$K$2&lt;=1.001,J6/$K$2,0.6)</f>
+        <v>0.99710238248551208</v>
       </c>
       <c r="L6" s="4">
-        <v>1.0648148148148149E-3</v>
+        <v>0</v>
       </c>
       <c r="M6" s="9">
-        <f t="shared" si="3"/>
-        <v>4.684317718940937E-2</v>
+        <f>IF(L6/$M$2&lt;=1.001,L6/$M$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="5">
-        <f t="shared" si="4"/>
-        <v>3.696003227150737</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F6,H6,J6,L6)*5</f>
+        <v>9.377893518518518E-2</v>
+      </c>
+      <c r="S6" s="16">
+        <v>1</v>
+      </c>
+      <c r="T6" s="5" t="str" cm="1">
+        <f t="array" ref="T6">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D7">
-        <v>1193276119</v>
+        <v>1005785665</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4">
-        <v>1.7349537037037038E-2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99469143994691445</v>
+        <f>IF(F7/$G$2&lt;=1.001,F7/$G$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>0</v>
+        <v>3.9085648148148147E-2</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(H7/$I$2&lt;=1.001,H7/$I$2,0.6)</f>
+        <v>0.9825429153331392</v>
       </c>
       <c r="J7" s="4">
-        <v>0</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K7" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(J7/$K$2&lt;=1.001,J7/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
       </c>
       <c r="L7" s="4">
-        <v>0</v>
+        <v>2.3148148148148149E-4</v>
       </c>
       <c r="M7" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(L7/$M$2&lt;=1.001,L7/$M$2,0.6)</f>
+        <v>1.0183299389002037E-2</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="5">
-        <f t="shared" si="4"/>
-        <v>1.2433642999336429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F7,H7,J7,L7)*5</f>
+        <v>9.4097222222222235E-2</v>
+      </c>
+      <c r="S7" s="16">
+        <v>1</v>
+      </c>
+      <c r="T7" s="5" t="str" cm="1">
+        <f t="array" ref="T7">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D8">
-        <v>1113978874</v>
+        <v>1112388246</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4">
         <v>1.744212962962963E-2</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(F8/$G$2&lt;=1.001,F8/$G$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>3.9814814814814817E-2</v>
+        <v>3.8506944444444448E-2</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
+        <f>IF(H8/$I$2&lt;=1.001,H8/$I$2,0.6)</f>
+        <v>0.96799534477742222</v>
       </c>
       <c r="J8" s="4">
-        <v>3.5960648148148151E-2</v>
+        <v>1.0486111111111111E-2</v>
       </c>
       <c r="K8" s="9">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
+        <f>IF(J8/$K$2&lt;=1.001,J8/$K$2,0.6)</f>
+        <v>0.29169349645846748</v>
       </c>
       <c r="L8" s="4">
-        <v>2.1203703703703704E-2</v>
+        <v>2.2592592592592591E-2</v>
       </c>
       <c r="M8" s="9">
-        <f t="shared" si="3"/>
-        <v>0.9327902240325866</v>
+        <f>IF(L8/$M$2&lt;=1.001,L8/$M$2,0.6)</f>
+        <v>0.99389002036659879</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="5">
-        <f t="shared" si="4"/>
-        <v>4.9174812947094244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F8,H8,J8,L8)*5</f>
+        <v>0.11128472222222224</v>
+      </c>
+      <c r="S8" s="16">
+        <v>2</v>
+      </c>
+      <c r="T8" s="5" t="str" cm="1">
+        <f t="array" ref="T8">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D9">
-        <v>1007560675</v>
+        <v>1000940688</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F9" s="4">
-        <v>5.2083333333333333E-4</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" si="0"/>
-        <v>2.98606502986065E-2</v>
+        <f>IF(F9/$G$2&lt;=1.001,F9/$G$2,0.6)</f>
+        <v>0.99535500995355009</v>
       </c>
       <c r="H9" s="4">
-        <v>3.9074074074074074E-2</v>
+        <v>3.9259259259259258E-2</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" si="1"/>
-        <v>0.98225196392202496</v>
+        <f>IF(H9/$I$2&lt;=1.001,H9/$I$2,0.6)</f>
+        <v>0.98690718649985443</v>
       </c>
       <c r="J9" s="4">
-        <v>3.5763888888888887E-2</v>
+        <v>3.5949074074074071E-2</v>
       </c>
       <c r="K9" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99484867997424342</v>
+        <f>IF(J9/$K$2&lt;=1.001,J9/$K$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="L9" s="4">
-        <v>1.8090277777777778E-2</v>
+        <v>2.2638888888888889E-2</v>
       </c>
       <c r="M9" s="9">
-        <f t="shared" si="3"/>
-        <v>0.79582484725050917</v>
+        <f>IF(L9/$M$2&lt;=1.001,L9/$M$2,0.6)</f>
+        <v>0.99592668024439923</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="5">
-        <f t="shared" si="4"/>
-        <v>3.5034826768067298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F9,H9,J9,L9)*5</f>
+        <v>0.14401041666666667</v>
+      </c>
+      <c r="S9" s="16">
+        <v>2</v>
+      </c>
+      <c r="T9" s="5" t="str" cm="1">
+        <f t="array" ref="T9">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D10">
-        <v>1004189893</v>
+        <v>1107837413</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(F10/$G$2&lt;=1.001,F10/$G$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>0</v>
+        <v>3.7743055555555557E-2</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(H10/$I$2&lt;=1.001,H10/$I$2,0.6)</f>
+        <v>0.94879255164387544</v>
       </c>
       <c r="J10" s="4">
-        <v>0</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="K10" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(J10/$K$2&lt;=1.001,J10/$K$2,0.6)</f>
+        <v>0.99935608499678041</v>
       </c>
       <c r="L10" s="4">
-        <v>0</v>
+        <v>2.0636574074074075E-2</v>
       </c>
       <c r="M10" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(L10/$M$2&lt;=1.001,L10/$M$2,0.6)</f>
+        <v>0.90784114052953158</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F10,H10,J10,L10)*5</f>
+        <v>0.11788194444444444</v>
+      </c>
+      <c r="S10" s="16">
+        <v>2</v>
+      </c>
+      <c r="T10" s="5" t="str" cm="1">
+        <f t="array" ref="T10">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D11">
-        <v>1005892878</v>
+        <v>1007560675</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F11" s="4">
-        <v>1.744212962962963E-2</v>
+        <v>5.2083333333333333E-4</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(F11/$G$2&lt;=1.001,F11/$G$2,0.6)</f>
+        <v>2.98606502986065E-2</v>
       </c>
       <c r="H11" s="4">
-        <v>3.9814814814814817E-2</v>
+        <v>3.9074074074074074E-2</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
+        <f>IF(H11/$I$2&lt;=1.001,H11/$I$2,0.6)</f>
+        <v>0.98225196392202496</v>
       </c>
       <c r="J11" s="4">
-        <v>3.5960648148148151E-2</v>
+        <v>3.5763888888888887E-2</v>
       </c>
       <c r="K11" s="9">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
+        <f>IF(J11/$K$2&lt;=1.001,J11/$K$2,0.6)</f>
+        <v>0.99484867997424342</v>
       </c>
       <c r="L11" s="4">
-        <v>1.8935185185185187E-2</v>
+        <v>1.8090277777777778E-2</v>
       </c>
       <c r="M11" s="9">
-        <f t="shared" si="3"/>
-        <v>0.83299389002036672</v>
+        <f>IF(L11/$M$2&lt;=1.001,L11/$M$2,0.6)</f>
+        <v>0.79582484725050917</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="5">
-        <f t="shared" si="4"/>
-        <v>4.7927358771941497</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F11,H11,J11,L11)*5</f>
+        <v>0.1168113425925926</v>
+      </c>
+      <c r="S11" s="16">
+        <v>3</v>
+      </c>
+      <c r="T11" s="5" t="str" cm="1">
+        <f t="array" ref="T11">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D12">
-        <v>1107837304</v>
+        <v>1005832925</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" s="4">
-        <v>3.8090277777777778E-2</v>
+        <v>1.7314814814814814E-2</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F12/$G$2&lt;=1.001,F12/$G$2,0.6)</f>
+        <v>0.9927007299270072</v>
       </c>
       <c r="H12" s="4">
-        <v>3.8541666666666669E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="1"/>
-        <v>0.96886819901076515</v>
+        <f>IF(H12/$I$2&lt;=1.001,H12/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J12" s="4">
-        <v>3.3229166666666664E-2</v>
+        <v>3.5868055555555556E-2</v>
       </c>
       <c r="K12" s="9">
-        <f t="shared" si="2"/>
-        <v>0.92433998712169996</v>
+        <f>IF(J12/$K$2&lt;=1.001,J12/$K$2,0.6)</f>
+        <v>0.99774629748873156</v>
       </c>
       <c r="L12" s="4">
-        <v>5.115740740740741E-3</v>
+        <v>2.1909722222222223E-2</v>
       </c>
       <c r="M12" s="9">
-        <f t="shared" si="3"/>
-        <v>0.22505091649694503</v>
+        <f>IF(L12/$M$2&lt;=1.001,L12/$M$2,0.6)</f>
+        <v>0.96384928716904283</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="5">
-        <f t="shared" si="4"/>
-        <v>3.3978238782867627</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F12,H12,J12,L12)*5</f>
+        <v>0.14363425925925927</v>
+      </c>
+      <c r="S12" s="16">
+        <v>3</v>
+      </c>
+      <c r="T12" s="5" t="str" cm="1">
+        <f t="array" ref="T12">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
+        <v>30</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="D13">
-        <v>1058932076</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
+        <v>73265790</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="F13" s="4">
-        <v>3.6388888888888887E-2</v>
+        <v>4.3611111111111114E-2</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(F13/$G$2&lt;=1.001,F13/$G$2,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="H13" s="4">
-        <v>3.9282407407407405E-2</v>
+        <v>3.9641203703703706E-2</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="1"/>
-        <v>0.98748908932208301</v>
+        <f>IF(H13/$I$2&lt;=1.001,H13/$I$2,0.6)</f>
+        <v>0.99650858306662782</v>
       </c>
       <c r="J13" s="4">
-        <v>3.5960648148148151E-2</v>
+        <v>3.5879629629629629E-2</v>
       </c>
       <c r="K13" s="9">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
+        <f>IF(J13/$K$2&lt;=1.001,J13/$K$2,0.6)</f>
+        <v>0.99806825499034135</v>
       </c>
       <c r="L13" s="4">
-        <v>2.2395833333333334E-2</v>
+        <v>2.1238425925925924E-2</v>
       </c>
       <c r="M13" s="9">
-        <f t="shared" si="3"/>
-        <v>0.98523421588594706</v>
+        <f>IF(L13/$M$2&lt;=1.001,L13/$M$2,0.6)</f>
+        <v>0.93431771894093685</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="5">
-        <f t="shared" si="4"/>
-        <v>4.4663065783870497</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F13,H13,J13,L13)*5</f>
+        <v>0.17546296296296296</v>
+      </c>
+      <c r="S13" s="16">
+        <v>3</v>
+      </c>
+      <c r="T13" s="5" t="str" cm="1">
+        <f t="array" ref="T13">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D14">
-        <v>1110285503</v>
+        <v>1006343564</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F14" s="4">
-        <v>1.7314814814814814E-2</v>
+        <v>1.7337962962962961E-2</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" si="0"/>
-        <v>0.9927007299270072</v>
+        <f>IF(F14/$G$2&lt;=1.001,F14/$G$2,0.6)</f>
+        <v>0.99402786994027859</v>
       </c>
       <c r="H14" s="4">
-        <v>3.9189814814814816E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="1"/>
-        <v>0.98516147803316845</v>
+        <f>IF(H14/$I$2&lt;=1.001,H14/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J14" s="4">
-        <v>0</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K14" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(J14/$K$2&lt;=1.001,J14/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L14" s="12">
+        <v>2.2731481481481481E-2</v>
+      </c>
+      <c r="M14" s="13">
+        <f>IF(L14/$M$2&lt;=1.001,L14/$M$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="5">
-        <f t="shared" si="4"/>
-        <v>2.4723277599502196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F14,H14,J14,L14)*5</f>
+        <v>0.14480613425925926</v>
+      </c>
+      <c r="S14" s="16">
+        <v>3</v>
+      </c>
+      <c r="T14" s="5" t="str" cm="1">
+        <f t="array" ref="T14">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D15">
-        <v>1107837413</v>
+        <v>1110285503</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F15" s="4">
+        <v>1.7314814814814814E-2</v>
+      </c>
+      <c r="G15" s="9">
+        <f>IF(F15/$G$2&lt;=1.001,F15/$G$2,0.6)</f>
+        <v>0.9927007299270072</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3.9189814814814816E-2</v>
+      </c>
+      <c r="I15" s="9">
+        <f>IF(H15/$I$2&lt;=1.001,H15/$I$2,0.6)</f>
+        <v>0.98516147803316845</v>
+      </c>
+      <c r="J15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="9">
-        <f t="shared" si="0"/>
+      <c r="K15" s="9">
+        <f>IF(J15/$K$2&lt;=1.001,J15/$K$2,0.6)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="4">
-        <v>3.7743055555555557E-2</v>
-      </c>
-      <c r="I15" s="9">
-        <f t="shared" si="1"/>
-        <v>0.94879255164387544</v>
-      </c>
-      <c r="J15" s="4">
-        <v>3.5925925925925924E-2</v>
-      </c>
-      <c r="K15" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99935608499678041</v>
-      </c>
       <c r="L15" s="4">
-        <v>2.0636574074074075E-2</v>
+        <v>0</v>
       </c>
       <c r="M15" s="9">
-        <f t="shared" si="3"/>
-        <v>0.90784114052953158</v>
+        <f>IF(L15/$M$2&lt;=1.001,L15/$M$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="5">
-        <f t="shared" si="4"/>
-        <v>3.5699872214627342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F15,H15,J15,L15)*5</f>
+        <v>7.0630787037037041E-2</v>
+      </c>
+      <c r="S15" s="16">
+        <v>4</v>
+      </c>
+      <c r="T15" s="5" t="str" cm="1">
+        <f t="array" ref="T15">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D16">
-        <v>1004217163</v>
+        <v>1113978874</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F16" s="4">
-        <v>4.1458333333333333E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F16/$G$2&lt;=1.001,F16/$G$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="H16" s="4">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="1"/>
+        <f>IF(H16/$I$2&lt;=1.001,H16/$I$2,0.6)</f>
         <v>1.0008728542333429</v>
       </c>
       <c r="J16" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K16" s="9">
-        <f t="shared" si="2"/>
+        <f>IF(J16/$K$2&lt;=1.001,J16/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
       <c r="L16" s="4">
-        <v>2.0798611111111111E-2</v>
+        <v>2.1203703703703704E-2</v>
       </c>
       <c r="M16" s="9">
-        <f t="shared" si="3"/>
-        <v>0.91496945010183306</v>
+        <f>IF(L16/$M$2&lt;=1.001,L16/$M$2,0.6)</f>
+        <v>0.9327902240325866</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="5">
-        <f t="shared" si="4"/>
-        <v>4.3952053272959821</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F16,H16,J16,L16)*5</f>
+        <v>0.14302662037037037</v>
+      </c>
+      <c r="S16" s="16">
+        <v>4</v>
+      </c>
+      <c r="T16" s="5" t="str" cm="1">
+        <f t="array" ref="T16">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D17">
-        <v>1105366146</v>
+        <v>1104804719</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F17" s="4">
-        <v>3.8437499999999999E-2</v>
+        <v>3.4641203703703702E-2</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(F17/$G$2&lt;=1.001,F17/$G$2,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="H17" s="4">
-        <v>0</v>
+        <v>3.9178240740740743E-2</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(H17/$I$2&lt;=1.001,H17/$I$2,0.6)</f>
+        <v>0.9848705266220541</v>
       </c>
       <c r="J17" s="4">
-        <v>1.3148148148148148E-2</v>
+        <v>3.5856481481481482E-2</v>
       </c>
       <c r="K17" s="9">
-        <f t="shared" si="2"/>
-        <v>0.36574372182871867</v>
+        <f>IF(J17/$K$2&lt;=1.001,J17/$K$2,0.6)</f>
+        <v>0.99742433998712177</v>
       </c>
       <c r="L17" s="4">
-        <v>7.6620370370370366E-3</v>
+        <v>1.9652777777777779E-2</v>
       </c>
       <c r="M17" s="9">
-        <f t="shared" si="3"/>
-        <v>0.33706720977596738</v>
+        <f>IF(L17/$M$2&lt;=1.001,L17/$M$2,0.6)</f>
+        <v>0.86456211812627304</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6285136645058573</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F17,H17,J17,L17)*5</f>
+        <v>0.16166087962962961</v>
+      </c>
+      <c r="S17" s="16">
+        <v>4</v>
+      </c>
+      <c r="T17" s="5" t="str" cm="1">
+        <f t="array" ref="T17">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18">
-        <v>1000940688</v>
+        <v>1004217163</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F18" s="4">
-        <v>1.7361111111111112E-2</v>
+        <v>4.1458333333333333E-2</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99535500995355009</v>
+        <f>IF(F18/$G$2&lt;=1.001,F18/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H18" s="4">
-        <v>3.9259259259259258E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="1"/>
-        <v>0.98690718649985443</v>
+        <f>IF(H18/$I$2&lt;=1.001,H18/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J18" s="4">
-        <v>3.5949074074074071E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K18" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(J18/$K$2&lt;=1.001,J18/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
       </c>
       <c r="L18" s="4">
-        <v>2.2638888888888889E-2</v>
+        <v>2.0798611111111111E-2</v>
       </c>
       <c r="M18" s="9">
-        <f t="shared" si="3"/>
-        <v>0.99592668024439923</v>
+        <f>IF(L18/$M$2&lt;=1.001,L18/$M$2,0.6)</f>
+        <v>0.91496945010183306</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="5">
-        <f t="shared" si="4"/>
-        <v>4.9727360958722553</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F18,H18,J18,L18)*5</f>
+        <v>0.17254050925925926</v>
+      </c>
+      <c r="S18" s="16">
+        <v>4</v>
+      </c>
+      <c r="T18" s="5" t="str" cm="1">
+        <f t="array" ref="T18">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D19">
-        <v>1112388246</v>
+        <v>1112388822</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F19" s="4">
-        <v>1.744212962962963E-2</v>
+        <v>1.7337962962962961E-2</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(F19/$G$2&lt;=1.001,F19/$G$2,0.6)</f>
+        <v>0.99402786994027859</v>
       </c>
       <c r="H19" s="4">
-        <v>3.8506944444444448E-2</v>
+        <v>3.9224537037037037E-2</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="1"/>
-        <v>0.96799534477742222</v>
+        <f>IF(H19/$I$2&lt;=1.001,H19/$I$2,0.6)</f>
+        <v>0.98603433226651138</v>
       </c>
       <c r="J19" s="4">
-        <v>1.0486111111111111E-2</v>
+        <v>3.5879629629629629E-2</v>
       </c>
       <c r="K19" s="9">
-        <f t="shared" si="2"/>
-        <v>0.29169349645846748</v>
+        <f>IF(J19/$K$2&lt;=1.001,J19/$K$2,0.6)</f>
+        <v>0.99806825499034135</v>
       </c>
       <c r="L19" s="4">
-        <v>2.2592592592592591E-2</v>
+        <v>0</v>
       </c>
       <c r="M19" s="9">
-        <f t="shared" si="3"/>
-        <v>0.99389002036659879</v>
+        <f>IF(L19/$M$2&lt;=1.001,L19/$M$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="5">
-        <f t="shared" si="4"/>
-        <v>4.066973577003111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F19,H19,J19,L19)*5</f>
+        <v>0.11555266203703704</v>
+      </c>
+      <c r="S19" s="16">
+        <v>4</v>
+      </c>
+      <c r="T19" s="5" t="str" cm="1">
+        <f t="array" ref="T19">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D20">
-        <v>1110286885</v>
+        <v>1107837304</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F20" s="4">
-        <v>1.7349537037037038E-2</v>
+        <v>3.8090277777777778E-2</v>
       </c>
       <c r="G20" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99469143994691445</v>
+        <f>IF(F20/$G$2&lt;=1.001,F20/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H20" s="4">
-        <v>3.9293981481481478E-2</v>
+        <v>3.8541666666666669E-2</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="1"/>
-        <v>0.98778004073319736</v>
+        <f>IF(H20/$I$2&lt;=1.001,H20/$I$2,0.6)</f>
+        <v>0.96886819901076515</v>
       </c>
       <c r="J20" s="4">
-        <v>3.5925925925925924E-2</v>
+        <v>3.3229166666666664E-2</v>
       </c>
       <c r="K20" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99935608499678041</v>
+        <f>IF(J20/$K$2&lt;=1.001,J20/$K$2,0.6)</f>
+        <v>0.92433998712169996</v>
       </c>
       <c r="L20" s="4">
-        <v>2.2129629629629631E-2</v>
+        <v>5.115740740740741E-3</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" si="3"/>
-        <v>0.97352342158859484</v>
+        <f>IF(L20/$M$2&lt;=1.001,L20/$M$2,0.6)</f>
+        <v>0.22505091649694503</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="5">
-        <f t="shared" si="4"/>
-        <v>4.9441887340818589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F20,H20,J20,L20)*5</f>
+        <v>0.14372106481481481</v>
+      </c>
+      <c r="S20" s="16">
+        <v>5</v>
+      </c>
+      <c r="T20" s="5" t="str" cm="1">
+        <f t="array" ref="T20">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21">
+        <v>1112041894</v>
+      </c>
+      <c r="E21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21">
-        <v>1094883894</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
       <c r="F21" s="4">
+        <v>3.7592592592592594E-2</v>
+      </c>
+      <c r="G21" s="9">
+        <f>IF(F21/$G$2&lt;=1.001,F21/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2.7164351851851853E-2</v>
+      </c>
+      <c r="I21" s="9">
+        <f>IF(H21/$I$2&lt;=1.001,H21/$I$2,0.6)</f>
+        <v>0.68286296188536511</v>
+      </c>
+      <c r="J21" s="4">
         <v>0</v>
       </c>
-      <c r="G21" s="9">
-        <f t="shared" si="0"/>
+      <c r="K21" s="9">
+        <f>IF(J21/$K$2&lt;=1.001,J21/$K$2,0.6)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="4">
-        <v>3.7743055555555557E-2</v>
-      </c>
-      <c r="I21" s="9">
-        <f t="shared" si="1"/>
-        <v>0.94879255164387544</v>
-      </c>
-      <c r="J21" s="4">
-        <v>2.8715277777777777E-2</v>
-      </c>
-      <c r="K21" s="9">
-        <f t="shared" si="2"/>
-        <v>0.79877656149388288</v>
-      </c>
       <c r="L21" s="4">
-        <v>1.9212962962962963E-2</v>
+        <v>0</v>
       </c>
       <c r="M21" s="9">
-        <f t="shared" si="3"/>
-        <v>0.84521384928716903</v>
+        <f>IF(L21/$M$2&lt;=1.001,L21/$M$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="5">
-        <f t="shared" si="4"/>
-        <v>3.2409787030311588</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F21,H21,J21,L21)*5</f>
+        <v>8.0946180555555566E-2</v>
+      </c>
+      <c r="S21" s="16">
+        <v>5</v>
+      </c>
+      <c r="T21" s="5" t="str" cm="1">
+        <f t="array" ref="T21">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D22">
-        <v>1005832925</v>
+        <v>1105366146</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F22" s="4">
-        <v>1.7314814814814814E-2</v>
+        <v>3.8437499999999999E-2</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="0"/>
-        <v>0.9927007299270072</v>
+        <f>IF(F22/$G$2&lt;=1.001,F22/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H22" s="4">
-        <v>3.9814814814814817E-2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
+        <f>IF(H22/$I$2&lt;=1.001,H22/$I$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="J22" s="4">
-        <v>3.5868055555555556E-2</v>
+        <v>1.3148148148148148E-2</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99774629748873156</v>
+        <f>IF(J22/$K$2&lt;=1.001,J22/$K$2,0.6)</f>
+        <v>0.36574372182871867</v>
       </c>
       <c r="L22" s="4">
-        <v>2.1909722222222223E-2</v>
+        <v>7.6620370370370366E-3</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="3"/>
-        <v>0.96384928716904283</v>
+        <f>IF(L22/$M$2&lt;=1.001,L22/$M$2,0.6)</f>
+        <v>0.33706720977596738</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="5">
-        <f t="shared" si="4"/>
-        <v>4.9439614610226554</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F22,H22,J22,L22)*5</f>
+        <v>7.405960648148148E-2</v>
+      </c>
+      <c r="S22" s="16">
+        <v>5</v>
+      </c>
+      <c r="T22" s="5" t="str" cm="1">
+        <f t="array" ref="T22">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D23">
-        <v>1002886235</v>
+        <v>1005892878</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F23" s="4">
-        <v>1.7395833333333333E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99734571997345711</v>
+        <f>IF(F23/$G$2&lt;=1.001,F23/$G$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
-        <v>3.8217592592592595E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="1"/>
-        <v>0.9607215594995635</v>
+        <f>IF(H23/$I$2&lt;=1.001,H23/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J23" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="2"/>
+        <f>IF(J23/$K$2&lt;=1.001,J23/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
       <c r="L23" s="4">
-        <v>2.2662037037037036E-2</v>
+        <v>1.8935185185185187E-2</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="3"/>
-        <v>0.9969450101832994</v>
+        <f>IF(L23/$M$2&lt;=1.001,L23/$M$2,0.6)</f>
+        <v>0.83299389002036672</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="5">
-        <f t="shared" si="4"/>
-        <v>4.9441678089474124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F23,H23,J23,L23)*5</f>
+        <v>0.14019097222222224</v>
+      </c>
+      <c r="S23" s="16">
+        <v>5</v>
+      </c>
+      <c r="T23" s="5" t="str" cm="1">
+        <f t="array" ref="T23">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>110</v>
       </c>
       <c r="D24">
-        <v>1112388822</v>
+        <v>1107839506</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F24" s="4">
-        <v>1.7337962962962961E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99402786994027859</v>
+        <f>IF(F24/$G$2&lt;=1.001,F24/$G$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="H24" s="4">
-        <v>3.9224537037037037E-2</v>
+        <v>3.9270833333333331E-2</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="1"/>
-        <v>0.98603433226651138</v>
+        <f>IF(H24/$I$2&lt;=1.001,H24/$I$2,0.6)</f>
+        <v>0.98719813791096878</v>
       </c>
       <c r="J24" s="4">
-        <v>3.5879629629629629E-2</v>
+        <v>3.591435185185185E-2</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99806825499034135</v>
+        <f>IF(J24/$K$2&lt;=1.001,J24/$K$2,0.6)</f>
+        <v>0.99903412749517073</v>
       </c>
       <c r="L24" s="4">
-        <v>0</v>
+        <v>1.9351851851851853E-2</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(L24/$M$2&lt;=1.001,L24/$M$2,0.6)</f>
+        <v>0.85132382892057035</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="5">
-        <f t="shared" si="4"/>
-        <v>3.7226630714964144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F24,H24,J24,L24)*5</f>
+        <v>0.13997395833333334</v>
+      </c>
+      <c r="S24" s="16">
+        <v>6</v>
+      </c>
+      <c r="T24" s="5" t="str" cm="1">
+        <f t="array" ref="T24">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D25">
-        <v>1061688602</v>
+        <v>1112389849</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F25" s="4">
-        <v>1.7303240740740741E-2</v>
+        <v>4.3043981481481482E-2</v>
       </c>
       <c r="G25" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99203715992037156</v>
+        <f>IF(F25/$G$2&lt;=1.001,F25/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H25" s="4">
-        <v>3.9247685185185184E-2</v>
+        <v>3.923611111111111E-2</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="1"/>
-        <v>0.98661623508874008</v>
+        <f>IF(H25/$I$2&lt;=1.001,H25/$I$2,0.6)</f>
+        <v>0.98632528367762573</v>
       </c>
       <c r="J25" s="4">
-        <v>3.5891203703703703E-2</v>
+        <v>3.591435185185185E-2</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99839021249195115</v>
+        <f>IF(J25/$K$2&lt;=1.001,J25/$K$2,0.6)</f>
+        <v>0.99903412749517073</v>
       </c>
       <c r="L25" s="4">
-        <v>2.162037037037037E-2</v>
+        <v>2.2731481481481481E-2</v>
       </c>
       <c r="M25" s="9">
-        <f t="shared" si="3"/>
-        <v>0.95112016293279023</v>
+        <f>IF(L25/$M$2&lt;=1.001,L25/$M$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="5">
-        <f t="shared" si="4"/>
-        <v>4.910204713042317</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F25,H25,J25,L25)*5</f>
+        <v>0.1761574074074074</v>
+      </c>
+      <c r="S25" s="16">
+        <v>6</v>
+      </c>
+      <c r="T25" s="5" t="str" cm="1">
+        <f t="array" ref="T25">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D26">
-        <v>1143992171</v>
+        <v>1076904274</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F26" s="4">
-        <v>3.4791666666666665E-2</v>
+        <v>1.7430555555555557E-2</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F26/$G$2&lt;=1.001,F26/$G$2,0.6)</f>
+        <v>0.99933642999336436</v>
       </c>
       <c r="H26" s="4">
-        <v>7.1990740740740739E-3</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="1"/>
-        <v>0.1809717777131219</v>
+        <f>IF(H26/$I$2&lt;=1.001,H26/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J26" s="4">
-        <v>3.5960648148148151E-2</v>
+        <v>3.5451388888888886E-2</v>
       </c>
       <c r="K26" s="9">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
+        <f>IF(J26/$K$2&lt;=1.001,J26/$K$2,0.6)</f>
+        <v>0.98615582743077912</v>
       </c>
       <c r="L26" s="4">
-        <v>1.9398148148148147E-2</v>
+        <v>1.4166666666666666E-2</v>
       </c>
       <c r="M26" s="9">
-        <f t="shared" si="3"/>
-        <v>0.85336048879837068</v>
+        <f>IF(L26/$M$2&lt;=1.001,L26/$M$2,0.6)</f>
+        <v>0.62321792260692466</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="5">
-        <f t="shared" si="4"/>
-        <v>3.2933177800163782</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F26,H26,J26,L26)*5</f>
+        <v>0.13357928240740741</v>
+      </c>
+      <c r="S26" s="16">
+        <v>6</v>
+      </c>
+      <c r="T26" s="5" t="str" cm="1">
+        <f t="array" ref="T26">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D27">
-        <v>1112041894</v>
+        <v>1058932076</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F27" s="4">
-        <v>3.7592592592592594E-2</v>
+        <v>3.6388888888888887E-2</v>
       </c>
       <c r="G27" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(F27/$G$2&lt;=1.001,F27/$G$2,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="H27" s="4">
-        <v>2.7164351851851853E-2</v>
+        <v>3.9282407407407405E-2</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="1"/>
-        <v>0.68286296188536511</v>
+        <f>IF(H27/$I$2&lt;=1.001,H27/$I$2,0.6)</f>
+        <v>0.98748908932208301</v>
       </c>
       <c r="J27" s="4">
-        <v>0</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(J27/$K$2&lt;=1.001,J27/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
       </c>
       <c r="L27" s="4">
-        <v>0</v>
+        <v>2.2395833333333334E-2</v>
       </c>
       <c r="M27" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(L27/$M$2&lt;=1.001,L27/$M$2,0.6)</f>
+        <v>0.98523421588594706</v>
       </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6035787023567063</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F27,H27,J27,L27)*5</f>
+        <v>0.16753472222222221</v>
+      </c>
+      <c r="S27" s="16">
+        <v>7</v>
+      </c>
+      <c r="T27" s="5" t="str" cm="1">
+        <f t="array" ref="T27">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D28">
-        <v>1076904274</v>
+        <v>1113362057</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F28" s="4">
-        <v>1.7430555555555557E-2</v>
+        <v>1.7326388888888888E-2</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99933642999336436</v>
+        <f>IF(F28/$G$2&lt;=1.001,F28/$G$2,0.6)</f>
+        <v>0.99336429993364284</v>
       </c>
       <c r="H28" s="4">
-        <v>3.9814814814814817E-2</v>
+        <v>3.9212962962962963E-2</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
+        <f>IF(H28/$I$2&lt;=1.001,H28/$I$2,0.6)</f>
+        <v>0.98574338085539703</v>
       </c>
       <c r="J28" s="4">
-        <v>3.5451388888888886E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K28" s="9">
-        <f t="shared" si="2"/>
-        <v>0.98615582743077912</v>
+        <f>IF(J28/$K$2&lt;=1.001,J28/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
       </c>
       <c r="L28" s="4">
-        <v>1.4166666666666666E-2</v>
+        <v>2.2268518518518517E-2</v>
       </c>
       <c r="M28" s="9">
-        <f t="shared" si="3"/>
-        <v>0.62321792260692466</v>
+        <f>IF(L28/$M$2&lt;=1.001,L28/$M$2,0.6)</f>
+        <v>0.97963340122199594</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="5">
-        <f t="shared" si="4"/>
-        <v>4.5119787928305142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F28,H28,J28,L28)*5</f>
+        <v>0.14346064814814816</v>
+      </c>
+      <c r="S28" s="16">
+        <v>7</v>
+      </c>
+      <c r="T28" s="5" t="str" cm="1">
+        <f t="array" ref="T28">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D29">
-        <v>1006343564</v>
+        <v>1002886235</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F29" s="4">
-        <v>1.7337962962962961E-2</v>
+        <v>1.7395833333333333E-2</v>
       </c>
       <c r="G29" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99402786994027859</v>
+        <f>IF(F29/$G$2&lt;=1.001,F29/$G$2,0.6)</f>
+        <v>0.99734571997345711</v>
       </c>
       <c r="H29" s="4">
-        <v>3.9814814814814817E-2</v>
+        <v>3.8217592592592595E-2</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
+        <f>IF(H29/$I$2&lt;=1.001,H29/$I$2,0.6)</f>
+        <v>0.9607215594995635</v>
       </c>
       <c r="J29" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K29" s="9">
-        <f t="shared" si="2"/>
+        <f>IF(J29/$K$2&lt;=1.001,J29/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
-      <c r="L29" s="12">
-        <v>2.2731481481481481E-2</v>
-      </c>
-      <c r="M29" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="L29" s="4">
+        <v>2.2662037037037036E-2</v>
+      </c>
+      <c r="M29" s="9">
+        <f>IF(L29/$M$2&lt;=1.001,L29/$M$2,0.6)</f>
+        <v>0.9969450101832994</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="5">
-        <f t="shared" si="4"/>
-        <v>4.9940283520940394</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F29,H29,J29,L29)*5</f>
+        <v>0.1427951388888889</v>
+      </c>
+      <c r="S29" s="16">
+        <v>7</v>
+      </c>
+      <c r="T29" s="5" t="str" cm="1">
+        <f t="array" ref="T29">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D30">
-        <v>1107839506</v>
+        <v>1061688602</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F30" s="4">
-        <v>1.744212962962963E-2</v>
+        <v>1.7303240740740741E-2</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(F30/$G$2&lt;=1.001,F30/$G$2,0.6)</f>
+        <v>0.99203715992037156</v>
       </c>
       <c r="H30" s="4">
-        <v>3.9270833333333331E-2</v>
+        <v>3.9247685185185184E-2</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="1"/>
-        <v>0.98719813791096878</v>
+        <f>IF(H30/$I$2&lt;=1.001,H30/$I$2,0.6)</f>
+        <v>0.98661623508874008</v>
       </c>
       <c r="J30" s="4">
-        <v>3.591435185185185E-2</v>
+        <v>3.5891203703703703E-2</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99903412749517073</v>
+        <f>IF(J30/$K$2&lt;=1.001,J30/$K$2,0.6)</f>
+        <v>0.99839021249195115</v>
       </c>
       <c r="L30" s="4">
-        <v>1.9351851851851853E-2</v>
+        <v>2.162037037037037E-2</v>
       </c>
       <c r="M30" s="9">
-        <f t="shared" si="3"/>
-        <v>0.85132382892057035</v>
+        <f>IF(L30/$M$2&lt;=1.001,L30/$M$2,0.6)</f>
+        <v>0.95112016293279023</v>
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="5">
-        <f>AVERAGE(G30,I30,K30,M30)*5</f>
-        <v>4.7969451179083871</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F30,H30,J30,L30)*5</f>
+        <v>0.142578125</v>
+      </c>
+      <c r="S30" s="16"/>
+      <c r="T30" s="5" t="str" cm="1">
+        <f t="array" ref="T30">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
+        <v>4</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="D31">
-        <v>1112389849</v>
+        <v>1193276119</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="F31" s="4">
-        <v>4.3043981481481482E-2</v>
+        <v>1.7349537037037038E-2</v>
       </c>
       <c r="G31" s="9">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F31/$G$2&lt;=1.001,F31/$G$2,0.6)</f>
+        <v>0.99469143994691445</v>
       </c>
       <c r="H31" s="4">
-        <v>3.923611111111111E-2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="1"/>
-        <v>0.98632528367762573</v>
+        <f>IF(H31/$I$2&lt;=1.001,H31/$I$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="J31" s="4">
-        <v>3.591435185185185E-2</v>
+        <v>0</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99903412749517073</v>
+        <f>IF(J31/$K$2&lt;=1.001,J31/$K$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="L31" s="4">
-        <v>2.2731481481481481E-2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>IF(L31/$M$2&lt;=1.001,L31/$M$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="5">
-        <f t="shared" si="4"/>
-        <v>4.4816992639659956</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F31,H31,J31,L31)*5</f>
+        <v>2.1686921296296298E-2</v>
+      </c>
+      <c r="S31" s="16"/>
+      <c r="T31" s="5" t="str" cm="1">
+        <f t="array" ref="T31">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
+        <v>23</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="D32">
-        <v>1234198199</v>
+        <v>1143992171</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F32" s="4">
-        <v>1.7337962962962961E-2</v>
+        <v>3.4791666666666665E-2</v>
       </c>
       <c r="G32" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99402786994027859</v>
+        <f>IF(F32/$G$2&lt;=1.001,F32/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H32" s="4">
-        <v>3.8796296296296294E-2</v>
+        <v>7.1990740740740739E-3</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" si="1"/>
-        <v>0.9752691300552806</v>
+        <f>IF(H32/$I$2&lt;=1.001,H32/$I$2,0.6)</f>
+        <v>0.1809717777131219</v>
       </c>
       <c r="J32" s="4">
-        <v>2.2928240740740742E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K32" s="9">
-        <f t="shared" si="2"/>
-        <v>0.63779781068898911</v>
+        <f>IF(J32/$K$2&lt;=1.001,J32/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
       </c>
       <c r="L32" s="4">
-        <v>7.1296296296296299E-3</v>
+        <v>1.9398148148148147E-2</v>
       </c>
       <c r="M32" s="9">
-        <f t="shared" si="3"/>
-        <v>0.31364562118126277</v>
+        <f>IF(L32/$M$2&lt;=1.001,L32/$M$2,0.6)</f>
+        <v>0.85336048879837068</v>
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="5">
-        <f t="shared" si="4"/>
-        <v>3.6509255398322638</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F32,H32,J32,L32)*5</f>
+        <v>0.1216869212962963</v>
+      </c>
+      <c r="S32" s="16"/>
+      <c r="T32" s="5" t="str" cm="1">
+        <f t="array" ref="T32">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
+        <v>7</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="D33">
-        <v>73265790</v>
+        <v>1004189893</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F33" s="4">
-        <v>4.3611111111111114E-2</v>
+        <v>0</v>
       </c>
       <c r="G33" s="9">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F33/$G$2&lt;=1.001,F33/$G$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="H33" s="4">
-        <v>3.9641203703703706E-2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="1"/>
-        <v>0.99650858306662782</v>
+        <f>IF(H33/$I$2&lt;=1.001,H33/$I$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="J33" s="4">
-        <v>3.5879629629629629E-2</v>
+        <v>0</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99806825499034135</v>
+        <f>IF(J33/$K$2&lt;=1.001,J33/$K$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="L33" s="4">
-        <v>2.1238425925925924E-2</v>
+        <v>0</v>
       </c>
       <c r="M33" s="9">
-        <f t="shared" si="3"/>
-        <v>0.93431771894093685</v>
+        <f>IF(L33/$M$2&lt;=1.001,L33/$M$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="5">
-        <f t="shared" si="4"/>
-        <v>4.411118196247382</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F33,H33,J33,L33)*5</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="16"/>
+      <c r="T33" s="5" t="str" cm="1">
+        <f t="array" ref="T33">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D34">
-        <v>1113362057</v>
+        <v>1062276579</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="F34" s="4">
-        <v>1.7326388888888888E-2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99336429993364284</v>
+        <f>IF(F34/$G$2&lt;=1.001,F34/$G$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="H34" s="4">
-        <v>3.9212962962962963E-2</v>
+        <v>3.9016203703703706E-2</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" si="1"/>
-        <v>0.98574338085539703</v>
+        <f>IF(H34/$I$2&lt;=1.001,H34/$I$2,0.6)</f>
+        <v>0.98079720686645322</v>
       </c>
       <c r="J34" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K34" s="9">
-        <f t="shared" si="2"/>
+        <f>IF(J34/$K$2&lt;=1.001,J34/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
       <c r="L34" s="4">
-        <v>2.2268518518518517E-2</v>
+        <v>2.2650462962962963E-2</v>
       </c>
       <c r="M34" s="9">
-        <f t="shared" si="3"/>
-        <v>0.97963340122199594</v>
+        <f>IF(L34/$M$2&lt;=1.001,L34/$M$2,0.6)</f>
+        <v>0.99643584521384931</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="5">
-        <f t="shared" si="4"/>
-        <v>4.9488287993908067</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F34,H34,J34,L34)*5</f>
+        <v>0.12203414351851852</v>
+      </c>
+      <c r="S34" s="16"/>
+      <c r="T34" s="5" t="str" cm="1">
+        <f t="array" ref="T34">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" t="s">
-        <v>101</v>
+        <v>29</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="D35">
-        <v>1036925847</v>
+        <v>1234198199</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F35" s="4">
-        <v>0</v>
+        <v>1.7337962962962961E-2</v>
       </c>
       <c r="G35" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(F35/$G$2&lt;=1.001,F35/$G$2,0.6)</f>
+        <v>0.99402786994027859</v>
       </c>
       <c r="H35" s="4">
-        <v>3.9178240740740743E-2</v>
+        <v>3.8796296296296294E-2</v>
       </c>
       <c r="I35" s="9">
-        <f t="shared" si="1"/>
-        <v>0.9848705266220541</v>
+        <f>IF(H35/$I$2&lt;=1.001,H35/$I$2,0.6)</f>
+        <v>0.9752691300552806</v>
       </c>
       <c r="J35" s="4">
-        <v>3.5844907407407409E-2</v>
+        <v>2.2928240740740742E-2</v>
       </c>
       <c r="K35" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99710238248551208</v>
+        <f>IF(J35/$K$2&lt;=1.001,J35/$K$2,0.6)</f>
+        <v>0.63779781068898911</v>
       </c>
       <c r="L35" s="4">
-        <v>0</v>
+        <v>7.1296296296296299E-3</v>
       </c>
       <c r="M35" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(L35/$M$2&lt;=1.001,L35/$M$2,0.6)</f>
+        <v>0.31364562118126277</v>
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="5">
-        <f t="shared" si="4"/>
-        <v>2.4774661363844577</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F35,H35,J35,L35)*5</f>
+        <v>0.10774016203703704</v>
+      </c>
+      <c r="S35" s="16"/>
+      <c r="T35" s="5" t="str" cm="1">
+        <f t="array" ref="T35">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" t="s">
-        <v>122</v>
+        <v>18</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="D36">
-        <v>1062276579</v>
+        <v>1094883894</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
       </c>
       <c r="G36" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(F36/$G$2&lt;=1.001,F36/$G$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="H36" s="4">
-        <v>3.9016203703703706E-2</v>
+        <v>3.7743055555555557E-2</v>
       </c>
       <c r="I36" s="9">
-        <f t="shared" si="1"/>
-        <v>0.98079720686645322</v>
+        <f>IF(H36/$I$2&lt;=1.001,H36/$I$2,0.6)</f>
+        <v>0.94879255164387544</v>
       </c>
       <c r="J36" s="4">
-        <v>3.5960648148148151E-2</v>
+        <v>2.8715277777777777E-2</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
+        <f>IF(J36/$K$2&lt;=1.001,J36/$K$2,0.6)</f>
+        <v>0.79877656149388288</v>
       </c>
       <c r="L36" s="4">
-        <v>2.2650462962962963E-2</v>
+        <v>1.9212962962962963E-2</v>
       </c>
       <c r="M36" s="9">
-        <f t="shared" si="3"/>
-        <v>0.99643584521384931</v>
+        <f>IF(L36/$M$2&lt;=1.001,L36/$M$2,0.6)</f>
+        <v>0.84521384928716903</v>
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="5">
-        <f t="shared" si="4"/>
-        <v>3.721943761977391</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <f>AVERAGE(F36,H36,J36,L36)*5</f>
+        <v>0.10708912037037038</v>
+      </c>
+      <c r="S36" s="16"/>
+      <c r="T36" s="5" t="str" cm="1">
+        <f t="array" ref="T36">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M38" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E13" r:id="rId1" xr:uid="{6ABD49C4-C1FA-45A2-AD96-9D7E301F893E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F41974-3F33-4A2F-868D-4FBA97A033D8}">
+  <dimension ref="B1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="75.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356CA008-BCEA-4A99-A79F-FCC884D6E8C1}">
   <dimension ref="A1:E34"/>
   <sheetViews>

--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893B6CA9-9209-47E0-9A50-2AF829135D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B06695-0CFC-43ED-8587-F4FA000B0AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-2" sheetId="1" r:id="rId1"/>
@@ -1105,49 +1105,49 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -1273,7 +1273,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1589,13 +1589,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD2CE0-6169-477F-B8E1-2987D9E7C726}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
@@ -1769,28 +1769,28 @@
         <v>1.7349537037037038E-2</v>
       </c>
       <c r="G4" s="9">
-        <f>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
+        <f t="shared" ref="G4:G36" si="0">IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
         <v>0.99469143994691445</v>
       </c>
       <c r="H4" s="4">
         <v>3.9293981481481478E-2</v>
       </c>
       <c r="I4" s="9">
-        <f>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
+        <f t="shared" ref="I4:I36" si="1">IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
         <v>0.98778004073319736</v>
       </c>
       <c r="J4" s="4">
         <v>3.5925925925925924E-2</v>
       </c>
       <c r="K4" s="9">
-        <f>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
+        <f t="shared" ref="K4:K36" si="2">IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
         <v>0.99935608499678041</v>
       </c>
       <c r="L4" s="4">
         <v>2.2129629629629631E-2</v>
       </c>
       <c r="M4" s="9">
-        <f>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
+        <f t="shared" ref="M4:M36" si="3">IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
         <v>0.97352342158859484</v>
       </c>
       <c r="N4" s="3"/>
@@ -1798,7 +1798,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="5">
-        <f>AVERAGE(F4,H4,J4,L4)*5</f>
+        <f t="shared" ref="R4:R36" si="4">AVERAGE(F4,H4,J4,L4)*5</f>
         <v>0.14337384259259259</v>
       </c>
       <c r="S4" s="16">
@@ -1829,28 +1829,28 @@
         <v>1.6481481481481482E-2</v>
       </c>
       <c r="G5" s="9">
-        <f>IF(F5/$G$2&lt;=1.001,F5/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.94492368944923688</v>
       </c>
       <c r="H5" s="4">
         <v>3.8530092592592595E-2</v>
       </c>
       <c r="I5" s="9">
-        <f>IF(H5/$I$2&lt;=1.001,H5/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.9685772475996508</v>
       </c>
       <c r="J5" s="4">
         <v>3.5821759259259262E-2</v>
       </c>
       <c r="K5" s="9">
-        <f>IF(J5/$K$2&lt;=1.001,J5/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.9964584674822925</v>
       </c>
       <c r="L5" s="4">
         <v>1.0648148148148149E-3</v>
       </c>
       <c r="M5" s="9">
-        <f>IF(L5/$M$2&lt;=1.001,L5/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>4.684317718940937E-2</v>
       </c>
       <c r="N5" s="3"/>
@@ -1858,7 +1858,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="5">
-        <f>AVERAGE(F5,H5,J5,L5)*5</f>
+        <f t="shared" si="4"/>
         <v>0.11487268518518517</v>
       </c>
       <c r="S5" s="16">
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <f>IF(F6/$G$2&lt;=1.001,F6/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="4">
         <v>3.9178240740740743E-2</v>
       </c>
       <c r="I6" s="9">
-        <f>IF(H6/$I$2&lt;=1.001,H6/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.9848705266220541</v>
       </c>
       <c r="J6" s="4">
         <v>3.5844907407407409E-2</v>
       </c>
       <c r="K6" s="9">
-        <f>IF(J6/$K$2&lt;=1.001,J6/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99710238248551208</v>
       </c>
       <c r="L6" s="4">
         <v>0</v>
       </c>
       <c r="M6" s="9">
-        <f>IF(L6/$M$2&lt;=1.001,L6/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N6" s="3"/>
@@ -1918,7 +1918,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="5">
-        <f>AVERAGE(F6,H6,J6,L6)*5</f>
+        <f t="shared" si="4"/>
         <v>9.377893518518518E-2</v>
       </c>
       <c r="S6" s="16">
@@ -1949,28 +1949,28 @@
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <f>IF(F7/$G$2&lt;=1.001,F7/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="4">
         <v>3.9085648148148147E-2</v>
       </c>
       <c r="I7" s="9">
-        <f>IF(H7/$I$2&lt;=1.001,H7/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.9825429153331392</v>
       </c>
       <c r="J7" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K7" s="9">
-        <f>IF(J7/$K$2&lt;=1.001,J7/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L7" s="4">
         <v>2.3148148148148149E-4</v>
       </c>
       <c r="M7" s="9">
-        <f>IF(L7/$M$2&lt;=1.001,L7/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>1.0183299389002037E-2</v>
       </c>
       <c r="N7" s="3"/>
@@ -1978,7 +1978,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="5">
-        <f>AVERAGE(F7,H7,J7,L7)*5</f>
+        <f t="shared" si="4"/>
         <v>9.4097222222222235E-2</v>
       </c>
       <c r="S7" s="16">
@@ -2009,28 +2009,28 @@
         <v>1.744212962962963E-2</v>
       </c>
       <c r="G8" s="9">
-        <f>IF(F8/$G$2&lt;=1.001,F8/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H8" s="4">
         <v>3.8506944444444448E-2</v>
       </c>
       <c r="I8" s="9">
-        <f>IF(H8/$I$2&lt;=1.001,H8/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.96799534477742222</v>
       </c>
       <c r="J8" s="4">
         <v>1.0486111111111111E-2</v>
       </c>
       <c r="K8" s="9">
-        <f>IF(J8/$K$2&lt;=1.001,J8/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.29169349645846748</v>
       </c>
       <c r="L8" s="4">
         <v>2.2592592592592591E-2</v>
       </c>
       <c r="M8" s="9">
-        <f>IF(L8/$M$2&lt;=1.001,L8/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.99389002036659879</v>
       </c>
       <c r="N8" s="3"/>
@@ -2038,7 +2038,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="5">
-        <f>AVERAGE(F8,H8,J8,L8)*5</f>
+        <f t="shared" si="4"/>
         <v>0.11128472222222224</v>
       </c>
       <c r="S8" s="16">
@@ -2069,28 +2069,28 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="G9" s="9">
-        <f>IF(F9/$G$2&lt;=1.001,F9/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99535500995355009</v>
       </c>
       <c r="H9" s="4">
         <v>3.9259259259259258E-2</v>
       </c>
       <c r="I9" s="9">
-        <f>IF(H9/$I$2&lt;=1.001,H9/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98690718649985443</v>
       </c>
       <c r="J9" s="4">
         <v>3.5949074074074071E-2</v>
       </c>
       <c r="K9" s="9">
-        <f>IF(J9/$K$2&lt;=1.001,J9/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L9" s="4">
         <v>2.2638888888888889E-2</v>
       </c>
       <c r="M9" s="9">
-        <f>IF(L9/$M$2&lt;=1.001,L9/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.99592668024439923</v>
       </c>
       <c r="N9" s="3"/>
@@ -2098,7 +2098,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="5">
-        <f>AVERAGE(F9,H9,J9,L9)*5</f>
+        <f t="shared" si="4"/>
         <v>0.14401041666666667</v>
       </c>
       <c r="S9" s="16">
@@ -2129,28 +2129,28 @@
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <f>IF(F10/$G$2&lt;=1.001,F10/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="4">
         <v>3.7743055555555557E-2</v>
       </c>
       <c r="I10" s="9">
-        <f>IF(H10/$I$2&lt;=1.001,H10/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.94879255164387544</v>
       </c>
       <c r="J10" s="4">
         <v>3.5925925925925924E-2</v>
       </c>
       <c r="K10" s="9">
-        <f>IF(J10/$K$2&lt;=1.001,J10/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99935608499678041</v>
       </c>
       <c r="L10" s="4">
         <v>2.0636574074074075E-2</v>
       </c>
       <c r="M10" s="9">
-        <f>IF(L10/$M$2&lt;=1.001,L10/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.90784114052953158</v>
       </c>
       <c r="N10" s="3"/>
@@ -2158,7 +2158,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="5">
-        <f>AVERAGE(F10,H10,J10,L10)*5</f>
+        <f t="shared" si="4"/>
         <v>0.11788194444444444</v>
       </c>
       <c r="S10" s="16">
@@ -2189,28 +2189,28 @@
         <v>5.2083333333333333E-4</v>
       </c>
       <c r="G11" s="9">
-        <f>IF(F11/$G$2&lt;=1.001,F11/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>2.98606502986065E-2</v>
       </c>
       <c r="H11" s="4">
         <v>3.9074074074074074E-2</v>
       </c>
       <c r="I11" s="9">
-        <f>IF(H11/$I$2&lt;=1.001,H11/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98225196392202496</v>
       </c>
       <c r="J11" s="4">
         <v>3.5763888888888887E-2</v>
       </c>
       <c r="K11" s="9">
-        <f>IF(J11/$K$2&lt;=1.001,J11/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99484867997424342</v>
       </c>
       <c r="L11" s="4">
         <v>1.8090277777777778E-2</v>
       </c>
       <c r="M11" s="9">
-        <f>IF(L11/$M$2&lt;=1.001,L11/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.79582484725050917</v>
       </c>
       <c r="N11" s="3"/>
@@ -2218,7 +2218,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="5">
-        <f>AVERAGE(F11,H11,J11,L11)*5</f>
+        <f t="shared" si="4"/>
         <v>0.1168113425925926</v>
       </c>
       <c r="S11" s="16">
@@ -2249,28 +2249,28 @@
         <v>1.7314814814814814E-2</v>
       </c>
       <c r="G12" s="9">
-        <f>IF(F12/$G$2&lt;=1.001,F12/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.9927007299270072</v>
       </c>
       <c r="H12" s="4">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I12" s="9">
-        <f>IF(H12/$I$2&lt;=1.001,H12/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
       <c r="J12" s="4">
         <v>3.5868055555555556E-2</v>
       </c>
       <c r="K12" s="9">
-        <f>IF(J12/$K$2&lt;=1.001,J12/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99774629748873156</v>
       </c>
       <c r="L12" s="4">
         <v>2.1909722222222223E-2</v>
       </c>
       <c r="M12" s="9">
-        <f>IF(L12/$M$2&lt;=1.001,L12/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.96384928716904283</v>
       </c>
       <c r="N12" s="3"/>
@@ -2278,7 +2278,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="5">
-        <f>AVERAGE(F12,H12,J12,L12)*5</f>
+        <f t="shared" si="4"/>
         <v>0.14363425925925927</v>
       </c>
       <c r="S12" s="16">
@@ -2309,28 +2309,28 @@
         <v>4.3611111111111114E-2</v>
       </c>
       <c r="G13" s="9">
-        <f>IF(F13/$G$2&lt;=1.001,F13/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H13" s="4">
         <v>3.9641203703703706E-2</v>
       </c>
       <c r="I13" s="9">
-        <f>IF(H13/$I$2&lt;=1.001,H13/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.99650858306662782</v>
       </c>
       <c r="J13" s="4">
         <v>3.5879629629629629E-2</v>
       </c>
       <c r="K13" s="9">
-        <f>IF(J13/$K$2&lt;=1.001,J13/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99806825499034135</v>
       </c>
       <c r="L13" s="4">
         <v>2.1238425925925924E-2</v>
       </c>
       <c r="M13" s="9">
-        <f>IF(L13/$M$2&lt;=1.001,L13/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.93431771894093685</v>
       </c>
       <c r="N13" s="3"/>
@@ -2338,7 +2338,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="5">
-        <f>AVERAGE(F13,H13,J13,L13)*5</f>
+        <f t="shared" si="4"/>
         <v>0.17546296296296296</v>
       </c>
       <c r="S13" s="16">
@@ -2369,28 +2369,28 @@
         <v>1.7337962962962961E-2</v>
       </c>
       <c r="G14" s="9">
-        <f>IF(F14/$G$2&lt;=1.001,F14/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99402786994027859</v>
       </c>
       <c r="H14" s="4">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I14" s="9">
-        <f>IF(H14/$I$2&lt;=1.001,H14/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
       <c r="J14" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K14" s="9">
-        <f>IF(J14/$K$2&lt;=1.001,J14/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L14" s="12">
         <v>2.2731481481481481E-2</v>
       </c>
       <c r="M14" s="13">
-        <f>IF(L14/$M$2&lt;=1.001,L14/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N14" s="3"/>
@@ -2398,7 +2398,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="5">
-        <f>AVERAGE(F14,H14,J14,L14)*5</f>
+        <f t="shared" si="4"/>
         <v>0.14480613425925926</v>
       </c>
       <c r="S14" s="16">
@@ -2429,28 +2429,28 @@
         <v>1.7314814814814814E-2</v>
       </c>
       <c r="G15" s="9">
-        <f>IF(F15/$G$2&lt;=1.001,F15/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.9927007299270072</v>
       </c>
       <c r="H15" s="4">
         <v>3.9189814814814816E-2</v>
       </c>
       <c r="I15" s="9">
-        <f>IF(H15/$I$2&lt;=1.001,H15/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98516147803316845</v>
       </c>
       <c r="J15" s="4">
         <v>0</v>
       </c>
       <c r="K15" s="9">
-        <f>IF(J15/$K$2&lt;=1.001,J15/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="4">
         <v>0</v>
       </c>
       <c r="M15" s="9">
-        <f>IF(L15/$M$2&lt;=1.001,L15/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N15" s="3"/>
@@ -2458,7 +2458,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="5">
-        <f>AVERAGE(F15,H15,J15,L15)*5</f>
+        <f t="shared" si="4"/>
         <v>7.0630787037037041E-2</v>
       </c>
       <c r="S15" s="16">
@@ -2489,28 +2489,28 @@
         <v>1.744212962962963E-2</v>
       </c>
       <c r="G16" s="9">
-        <f>IF(F16/$G$2&lt;=1.001,F16/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H16" s="4">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I16" s="9">
-        <f>IF(H16/$I$2&lt;=1.001,H16/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
       <c r="J16" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K16" s="9">
-        <f>IF(J16/$K$2&lt;=1.001,J16/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L16" s="4">
         <v>2.1203703703703704E-2</v>
       </c>
       <c r="M16" s="9">
-        <f>IF(L16/$M$2&lt;=1.001,L16/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.9327902240325866</v>
       </c>
       <c r="N16" s="3"/>
@@ -2518,7 +2518,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="5">
-        <f>AVERAGE(F16,H16,J16,L16)*5</f>
+        <f t="shared" si="4"/>
         <v>0.14302662037037037</v>
       </c>
       <c r="S16" s="16">
@@ -2549,28 +2549,28 @@
         <v>3.4641203703703702E-2</v>
       </c>
       <c r="G17" s="9">
-        <f>IF(F17/$G$2&lt;=1.001,F17/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H17" s="4">
         <v>3.9178240740740743E-2</v>
       </c>
       <c r="I17" s="9">
-        <f>IF(H17/$I$2&lt;=1.001,H17/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.9848705266220541</v>
       </c>
       <c r="J17" s="4">
         <v>3.5856481481481482E-2</v>
       </c>
       <c r="K17" s="9">
-        <f>IF(J17/$K$2&lt;=1.001,J17/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99742433998712177</v>
       </c>
       <c r="L17" s="4">
         <v>1.9652777777777779E-2</v>
       </c>
       <c r="M17" s="9">
-        <f>IF(L17/$M$2&lt;=1.001,L17/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.86456211812627304</v>
       </c>
       <c r="N17" s="3"/>
@@ -2578,7 +2578,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="5">
-        <f>AVERAGE(F17,H17,J17,L17)*5</f>
+        <f t="shared" si="4"/>
         <v>0.16166087962962961</v>
       </c>
       <c r="S17" s="16">
@@ -2609,28 +2609,28 @@
         <v>4.1458333333333333E-2</v>
       </c>
       <c r="G18" s="9">
-        <f>IF(F18/$G$2&lt;=1.001,F18/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H18" s="4">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I18" s="9">
-        <f>IF(H18/$I$2&lt;=1.001,H18/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
       <c r="J18" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K18" s="9">
-        <f>IF(J18/$K$2&lt;=1.001,J18/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L18" s="4">
         <v>2.0798611111111111E-2</v>
       </c>
       <c r="M18" s="9">
-        <f>IF(L18/$M$2&lt;=1.001,L18/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.91496945010183306</v>
       </c>
       <c r="N18" s="3"/>
@@ -2638,7 +2638,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="5">
-        <f>AVERAGE(F18,H18,J18,L18)*5</f>
+        <f t="shared" si="4"/>
         <v>0.17254050925925926</v>
       </c>
       <c r="S18" s="16">
@@ -2669,28 +2669,28 @@
         <v>1.7337962962962961E-2</v>
       </c>
       <c r="G19" s="9">
-        <f>IF(F19/$G$2&lt;=1.001,F19/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99402786994027859</v>
       </c>
       <c r="H19" s="4">
         <v>3.9224537037037037E-2</v>
       </c>
       <c r="I19" s="9">
-        <f>IF(H19/$I$2&lt;=1.001,H19/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98603433226651138</v>
       </c>
       <c r="J19" s="4">
         <v>3.5879629629629629E-2</v>
       </c>
       <c r="K19" s="9">
-        <f>IF(J19/$K$2&lt;=1.001,J19/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99806825499034135</v>
       </c>
       <c r="L19" s="4">
         <v>0</v>
       </c>
       <c r="M19" s="9">
-        <f>IF(L19/$M$2&lt;=1.001,L19/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N19" s="3"/>
@@ -2698,7 +2698,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="5">
-        <f>AVERAGE(F19,H19,J19,L19)*5</f>
+        <f t="shared" si="4"/>
         <v>0.11555266203703704</v>
       </c>
       <c r="S19" s="16">
@@ -2729,28 +2729,28 @@
         <v>3.8090277777777778E-2</v>
       </c>
       <c r="G20" s="9">
-        <f>IF(F20/$G$2&lt;=1.001,F20/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H20" s="4">
         <v>3.8541666666666669E-2</v>
       </c>
       <c r="I20" s="9">
-        <f>IF(H20/$I$2&lt;=1.001,H20/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.96886819901076515</v>
       </c>
       <c r="J20" s="4">
         <v>3.3229166666666664E-2</v>
       </c>
       <c r="K20" s="9">
-        <f>IF(J20/$K$2&lt;=1.001,J20/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.92433998712169996</v>
       </c>
       <c r="L20" s="4">
         <v>5.115740740740741E-3</v>
       </c>
       <c r="M20" s="9">
-        <f>IF(L20/$M$2&lt;=1.001,L20/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.22505091649694503</v>
       </c>
       <c r="N20" s="3"/>
@@ -2758,7 +2758,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="5">
-        <f>AVERAGE(F20,H20,J20,L20)*5</f>
+        <f t="shared" si="4"/>
         <v>0.14372106481481481</v>
       </c>
       <c r="S20" s="16">
@@ -2789,28 +2789,28 @@
         <v>3.7592592592592594E-2</v>
       </c>
       <c r="G21" s="9">
-        <f>IF(F21/$G$2&lt;=1.001,F21/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H21" s="4">
         <v>2.7164351851851853E-2</v>
       </c>
       <c r="I21" s="9">
-        <f>IF(H21/$I$2&lt;=1.001,H21/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.68286296188536511</v>
       </c>
       <c r="J21" s="4">
         <v>0</v>
       </c>
       <c r="K21" s="9">
-        <f>IF(J21/$K$2&lt;=1.001,J21/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21" s="4">
         <v>0</v>
       </c>
       <c r="M21" s="9">
-        <f>IF(L21/$M$2&lt;=1.001,L21/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N21" s="3"/>
@@ -2818,7 +2818,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="5">
-        <f>AVERAGE(F21,H21,J21,L21)*5</f>
+        <f t="shared" si="4"/>
         <v>8.0946180555555566E-2</v>
       </c>
       <c r="S21" s="16">
@@ -2849,28 +2849,28 @@
         <v>3.8437499999999999E-2</v>
       </c>
       <c r="G22" s="9">
-        <f>IF(F22/$G$2&lt;=1.001,F22/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
       </c>
       <c r="I22" s="9">
-        <f>IF(H22/$I$2&lt;=1.001,H22/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22" s="4">
         <v>1.3148148148148148E-2</v>
       </c>
       <c r="K22" s="9">
-        <f>IF(J22/$K$2&lt;=1.001,J22/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.36574372182871867</v>
       </c>
       <c r="L22" s="4">
         <v>7.6620370370370366E-3</v>
       </c>
       <c r="M22" s="9">
-        <f>IF(L22/$M$2&lt;=1.001,L22/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.33706720977596738</v>
       </c>
       <c r="N22" s="3"/>
@@ -2878,7 +2878,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="5">
-        <f>AVERAGE(F22,H22,J22,L22)*5</f>
+        <f t="shared" si="4"/>
         <v>7.405960648148148E-2</v>
       </c>
       <c r="S22" s="16">
@@ -2909,28 +2909,28 @@
         <v>1.744212962962963E-2</v>
       </c>
       <c r="G23" s="9">
-        <f>IF(F23/$G$2&lt;=1.001,F23/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H23" s="4">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I23" s="9">
-        <f>IF(H23/$I$2&lt;=1.001,H23/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
       <c r="J23" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K23" s="9">
-        <f>IF(J23/$K$2&lt;=1.001,J23/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L23" s="4">
         <v>1.8935185185185187E-2</v>
       </c>
       <c r="M23" s="9">
-        <f>IF(L23/$M$2&lt;=1.001,L23/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.83299389002036672</v>
       </c>
       <c r="N23" s="3"/>
@@ -2938,7 +2938,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="5">
-        <f>AVERAGE(F23,H23,J23,L23)*5</f>
+        <f t="shared" si="4"/>
         <v>0.14019097222222224</v>
       </c>
       <c r="S23" s="16">
@@ -2969,28 +2969,28 @@
         <v>1.744212962962963E-2</v>
       </c>
       <c r="G24" s="9">
-        <f>IF(F24/$G$2&lt;=1.001,F24/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H24" s="4">
         <v>3.9270833333333331E-2</v>
       </c>
       <c r="I24" s="9">
-        <f>IF(H24/$I$2&lt;=1.001,H24/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98719813791096878</v>
       </c>
       <c r="J24" s="4">
         <v>3.591435185185185E-2</v>
       </c>
       <c r="K24" s="9">
-        <f>IF(J24/$K$2&lt;=1.001,J24/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99903412749517073</v>
       </c>
       <c r="L24" s="4">
         <v>1.9351851851851853E-2</v>
       </c>
       <c r="M24" s="9">
-        <f>IF(L24/$M$2&lt;=1.001,L24/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.85132382892057035</v>
       </c>
       <c r="N24" s="3"/>
@@ -2998,7 +2998,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="5">
-        <f>AVERAGE(F24,H24,J24,L24)*5</f>
+        <f t="shared" si="4"/>
         <v>0.13997395833333334</v>
       </c>
       <c r="S24" s="16">
@@ -3029,28 +3029,28 @@
         <v>4.3043981481481482E-2</v>
       </c>
       <c r="G25" s="9">
-        <f>IF(F25/$G$2&lt;=1.001,F25/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H25" s="4">
         <v>3.923611111111111E-2</v>
       </c>
       <c r="I25" s="9">
-        <f>IF(H25/$I$2&lt;=1.001,H25/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98632528367762573</v>
       </c>
       <c r="J25" s="4">
         <v>3.591435185185185E-2</v>
       </c>
       <c r="K25" s="9">
-        <f>IF(J25/$K$2&lt;=1.001,J25/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99903412749517073</v>
       </c>
       <c r="L25" s="4">
         <v>2.2731481481481481E-2</v>
       </c>
       <c r="M25" s="9">
-        <f>IF(L25/$M$2&lt;=1.001,L25/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N25" s="3"/>
@@ -3058,7 +3058,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="5">
-        <f>AVERAGE(F25,H25,J25,L25)*5</f>
+        <f t="shared" si="4"/>
         <v>0.1761574074074074</v>
       </c>
       <c r="S25" s="16">
@@ -3089,28 +3089,28 @@
         <v>1.7430555555555557E-2</v>
       </c>
       <c r="G26" s="9">
-        <f>IF(F26/$G$2&lt;=1.001,F26/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99933642999336436</v>
       </c>
       <c r="H26" s="4">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I26" s="9">
-        <f>IF(H26/$I$2&lt;=1.001,H26/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
       <c r="J26" s="4">
         <v>3.5451388888888886E-2</v>
       </c>
       <c r="K26" s="9">
-        <f>IF(J26/$K$2&lt;=1.001,J26/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.98615582743077912</v>
       </c>
       <c r="L26" s="4">
         <v>1.4166666666666666E-2</v>
       </c>
       <c r="M26" s="9">
-        <f>IF(L26/$M$2&lt;=1.001,L26/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.62321792260692466</v>
       </c>
       <c r="N26" s="3"/>
@@ -3118,7 +3118,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="5">
-        <f>AVERAGE(F26,H26,J26,L26)*5</f>
+        <f t="shared" si="4"/>
         <v>0.13357928240740741</v>
       </c>
       <c r="S26" s="16">
@@ -3149,28 +3149,28 @@
         <v>3.6388888888888887E-2</v>
       </c>
       <c r="G27" s="9">
-        <f>IF(F27/$G$2&lt;=1.001,F27/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H27" s="4">
         <v>3.9282407407407405E-2</v>
       </c>
       <c r="I27" s="9">
-        <f>IF(H27/$I$2&lt;=1.001,H27/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98748908932208301</v>
       </c>
       <c r="J27" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K27" s="9">
-        <f>IF(J27/$K$2&lt;=1.001,J27/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L27" s="4">
         <v>2.2395833333333334E-2</v>
       </c>
       <c r="M27" s="9">
-        <f>IF(L27/$M$2&lt;=1.001,L27/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.98523421588594706</v>
       </c>
       <c r="N27" s="3"/>
@@ -3178,7 +3178,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="5">
-        <f>AVERAGE(F27,H27,J27,L27)*5</f>
+        <f t="shared" si="4"/>
         <v>0.16753472222222221</v>
       </c>
       <c r="S27" s="16">
@@ -3209,28 +3209,28 @@
         <v>1.7326388888888888E-2</v>
       </c>
       <c r="G28" s="9">
-        <f>IF(F28/$G$2&lt;=1.001,F28/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99336429993364284</v>
       </c>
       <c r="H28" s="4">
         <v>3.9212962962962963E-2</v>
       </c>
       <c r="I28" s="9">
-        <f>IF(H28/$I$2&lt;=1.001,H28/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98574338085539703</v>
       </c>
       <c r="J28" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K28" s="9">
-        <f>IF(J28/$K$2&lt;=1.001,J28/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L28" s="4">
         <v>2.2268518518518517E-2</v>
       </c>
       <c r="M28" s="9">
-        <f>IF(L28/$M$2&lt;=1.001,L28/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.97963340122199594</v>
       </c>
       <c r="N28" s="3"/>
@@ -3238,7 +3238,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="5">
-        <f>AVERAGE(F28,H28,J28,L28)*5</f>
+        <f t="shared" si="4"/>
         <v>0.14346064814814816</v>
       </c>
       <c r="S28" s="16">
@@ -3269,28 +3269,28 @@
         <v>1.7395833333333333E-2</v>
       </c>
       <c r="G29" s="9">
-        <f>IF(F29/$G$2&lt;=1.001,F29/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99734571997345711</v>
       </c>
       <c r="H29" s="4">
         <v>3.8217592592592595E-2</v>
       </c>
       <c r="I29" s="9">
-        <f>IF(H29/$I$2&lt;=1.001,H29/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.9607215594995635</v>
       </c>
       <c r="J29" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K29" s="9">
-        <f>IF(J29/$K$2&lt;=1.001,J29/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L29" s="4">
         <v>2.2662037037037036E-2</v>
       </c>
       <c r="M29" s="9">
-        <f>IF(L29/$M$2&lt;=1.001,L29/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.9969450101832994</v>
       </c>
       <c r="N29" s="3"/>
@@ -3298,7 +3298,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="5">
-        <f>AVERAGE(F29,H29,J29,L29)*5</f>
+        <f t="shared" si="4"/>
         <v>0.1427951388888889</v>
       </c>
       <c r="S29" s="16">
@@ -3329,28 +3329,28 @@
         <v>1.7303240740740741E-2</v>
       </c>
       <c r="G30" s="9">
-        <f>IF(F30/$G$2&lt;=1.001,F30/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99203715992037156</v>
       </c>
       <c r="H30" s="4">
         <v>3.9247685185185184E-2</v>
       </c>
       <c r="I30" s="9">
-        <f>IF(H30/$I$2&lt;=1.001,H30/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98661623508874008</v>
       </c>
       <c r="J30" s="4">
         <v>3.5891203703703703E-2</v>
       </c>
       <c r="K30" s="9">
-        <f>IF(J30/$K$2&lt;=1.001,J30/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99839021249195115</v>
       </c>
       <c r="L30" s="4">
         <v>2.162037037037037E-2</v>
       </c>
       <c r="M30" s="9">
-        <f>IF(L30/$M$2&lt;=1.001,L30/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.95112016293279023</v>
       </c>
       <c r="N30" s="3"/>
@@ -3358,7 +3358,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="5">
-        <f>AVERAGE(F30,H30,J30,L30)*5</f>
+        <f t="shared" si="4"/>
         <v>0.142578125</v>
       </c>
       <c r="S30" s="16"/>
@@ -3387,28 +3387,28 @@
         <v>1.7349537037037038E-2</v>
       </c>
       <c r="G31" s="9">
-        <f>IF(F31/$G$2&lt;=1.001,F31/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99469143994691445</v>
       </c>
       <c r="H31" s="4">
         <v>0</v>
       </c>
       <c r="I31" s="9">
-        <f>IF(H31/$I$2&lt;=1.001,H31/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31" s="4">
         <v>0</v>
       </c>
       <c r="K31" s="9">
-        <f>IF(J31/$K$2&lt;=1.001,J31/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L31" s="4">
         <v>0</v>
       </c>
       <c r="M31" s="9">
-        <f>IF(L31/$M$2&lt;=1.001,L31/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N31" s="3"/>
@@ -3416,7 +3416,7 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="5">
-        <f>AVERAGE(F31,H31,J31,L31)*5</f>
+        <f t="shared" si="4"/>
         <v>2.1686921296296298E-2</v>
       </c>
       <c r="S31" s="16"/>
@@ -3445,28 +3445,28 @@
         <v>3.4791666666666665E-2</v>
       </c>
       <c r="G32" s="9">
-        <f>IF(F32/$G$2&lt;=1.001,F32/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H32" s="4">
         <v>7.1990740740740739E-3</v>
       </c>
       <c r="I32" s="9">
-        <f>IF(H32/$I$2&lt;=1.001,H32/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.1809717777131219</v>
       </c>
       <c r="J32" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K32" s="9">
-        <f>IF(J32/$K$2&lt;=1.001,J32/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L32" s="4">
         <v>1.9398148148148147E-2</v>
       </c>
       <c r="M32" s="9">
-        <f>IF(L32/$M$2&lt;=1.001,L32/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.85336048879837068</v>
       </c>
       <c r="N32" s="3"/>
@@ -3474,7 +3474,7 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="5">
-        <f>AVERAGE(F32,H32,J32,L32)*5</f>
+        <f t="shared" si="4"/>
         <v>0.1216869212962963</v>
       </c>
       <c r="S32" s="16"/>
@@ -3503,28 +3503,28 @@
         <v>0</v>
       </c>
       <c r="G33" s="9">
-        <f>IF(F33/$G$2&lt;=1.001,F33/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33" s="4">
         <v>0</v>
       </c>
       <c r="I33" s="9">
-        <f>IF(H33/$I$2&lt;=1.001,H33/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J33" s="4">
         <v>0</v>
       </c>
       <c r="K33" s="9">
-        <f>IF(J33/$K$2&lt;=1.001,J33/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L33" s="4">
         <v>0</v>
       </c>
       <c r="M33" s="9">
-        <f>IF(L33/$M$2&lt;=1.001,L33/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N33" s="3"/>
@@ -3532,7 +3532,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="5">
-        <f>AVERAGE(F33,H33,J33,L33)*5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S33" s="16"/>
@@ -3561,28 +3561,28 @@
         <v>0</v>
       </c>
       <c r="G34" s="9">
-        <f>IF(F34/$G$2&lt;=1.001,F34/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H34" s="4">
         <v>3.9016203703703706E-2</v>
       </c>
       <c r="I34" s="9">
-        <f>IF(H34/$I$2&lt;=1.001,H34/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98079720686645322</v>
       </c>
       <c r="J34" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K34" s="9">
-        <f>IF(J34/$K$2&lt;=1.001,J34/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L34" s="4">
         <v>2.2650462962962963E-2</v>
       </c>
       <c r="M34" s="9">
-        <f>IF(L34/$M$2&lt;=1.001,L34/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.99643584521384931</v>
       </c>
       <c r="N34" s="3"/>
@@ -3590,7 +3590,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="5">
-        <f>AVERAGE(F34,H34,J34,L34)*5</f>
+        <f t="shared" si="4"/>
         <v>0.12203414351851852</v>
       </c>
       <c r="S34" s="16"/>
@@ -3619,28 +3619,28 @@
         <v>1.7337962962962961E-2</v>
       </c>
       <c r="G35" s="9">
-        <f>IF(F35/$G$2&lt;=1.001,F35/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99402786994027859</v>
       </c>
       <c r="H35" s="4">
         <v>3.8796296296296294E-2</v>
       </c>
       <c r="I35" s="9">
-        <f>IF(H35/$I$2&lt;=1.001,H35/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.9752691300552806</v>
       </c>
       <c r="J35" s="4">
         <v>2.2928240740740742E-2</v>
       </c>
       <c r="K35" s="9">
-        <f>IF(J35/$K$2&lt;=1.001,J35/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.63779781068898911</v>
       </c>
       <c r="L35" s="4">
         <v>7.1296296296296299E-3</v>
       </c>
       <c r="M35" s="9">
-        <f>IF(L35/$M$2&lt;=1.001,L35/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.31364562118126277</v>
       </c>
       <c r="N35" s="3"/>
@@ -3648,7 +3648,7 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="5">
-        <f>AVERAGE(F35,H35,J35,L35)*5</f>
+        <f t="shared" si="4"/>
         <v>0.10774016203703704</v>
       </c>
       <c r="S35" s="16"/>
@@ -3677,28 +3677,28 @@
         <v>0</v>
       </c>
       <c r="G36" s="9">
-        <f>IF(F36/$G$2&lt;=1.001,F36/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H36" s="4">
         <v>3.7743055555555557E-2</v>
       </c>
       <c r="I36" s="9">
-        <f>IF(H36/$I$2&lt;=1.001,H36/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.94879255164387544</v>
       </c>
       <c r="J36" s="4">
         <v>2.8715277777777777E-2</v>
       </c>
       <c r="K36" s="9">
-        <f>IF(J36/$K$2&lt;=1.001,J36/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.79877656149388288</v>
       </c>
       <c r="L36" s="4">
         <v>1.9212962962962963E-2</v>
       </c>
       <c r="M36" s="9">
-        <f>IF(L36/$M$2&lt;=1.001,L36/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.84521384928716903</v>
       </c>
       <c r="N36" s="3"/>
@@ -3706,7 +3706,7 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="5">
-        <f>AVERAGE(F36,H36,J36,L36)*5</f>
+        <f t="shared" si="4"/>
         <v>0.10708912037037038</v>
       </c>
       <c r="S36" s="16"/>
@@ -3742,7 +3742,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="75.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3795,7 +3795,7 @@
       <selection activeCell="E2" sqref="E2:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>

--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B06695-0CFC-43ED-8587-F4FA000B0AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40624F42-E1B3-4BAE-ADC2-7C6DA6B6CA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-2'!$A$3:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet3!$A$1:$E$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="194">
   <si>
     <t>Num</t>
   </si>
@@ -270,12 +272,6 @@
     <t>ANDRES FELIPE CALVO ARCE</t>
   </si>
   <si>
-    <t>CRISTIAN NICOLAS CASANOVA CADENA</t>
-  </si>
-  <si>
-    <t>DAVID ORTEGA QUINTERO</t>
-  </si>
-  <si>
     <t>ESTEFANIA GUZMAN CASTIBLANCO</t>
   </si>
   <si>
@@ -300,9 +296,6 @@
     <t>MARIA GRACIELA RUIZ LEDESMA</t>
   </si>
   <si>
-    <t>MAYLIN SANCHEZ SOLANO</t>
-  </si>
-  <si>
     <t>MIGUEL ANDRES DIAGO VALDERRAMA</t>
   </si>
   <si>
@@ -432,9 +425,6 @@
     <t xml:space="preserve"> JULIANA</t>
   </si>
   <si>
-    <t>ALEJANDRA MUÑOZ BECOCHE</t>
-  </si>
-  <si>
     <t>ILSE FERNANDEZ VELASCO</t>
   </si>
   <si>
@@ -447,9 +437,6 @@
     <t>JAZMIN ALEJANDRA ORTIZ RAMIREZ</t>
   </si>
   <si>
-    <t>Giselle Swayne Lopez</t>
-  </si>
-  <si>
     <t>Asistencia</t>
   </si>
   <si>
@@ -477,18 +464,6 @@
     <t>%Conexión7</t>
   </si>
   <si>
-    <t>T.Conexión8</t>
-  </si>
-  <si>
-    <t>%Conexión9</t>
-  </si>
-  <si>
-    <t>T.Conexión10</t>
-  </si>
-  <si>
-    <t>%Conexión11</t>
-  </si>
-  <si>
     <t>T.Encuentro</t>
   </si>
   <si>
@@ -538,6 +513,138 @@
   </si>
   <si>
     <t>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</t>
+  </si>
+  <si>
+    <t>DICOM craneal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apellidos </t>
+  </si>
+  <si>
+    <t>Archivo</t>
+  </si>
+  <si>
+    <t>CRANEAL 01.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 02.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 03.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 04.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 05.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 06.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 07.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 08.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 09.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 10.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 11.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 12.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 13.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 15.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 14.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 16.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 17.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 18.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 19.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 20.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 21.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 22.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 23.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 24.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 25.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 26.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 27.zip</t>
+  </si>
+  <si>
+    <t>CRANEAL 28.zip</t>
+  </si>
+  <si>
+    <t>ISABELLA MUNOZ BECERRA</t>
+  </si>
+  <si>
+    <t>JUAN ESTEBAN BERMUDEZ DIAZ</t>
+  </si>
+  <si>
+    <t>MARIA PAULA GONZALEZ PARRA</t>
+  </si>
+  <si>
+    <t>MARIA PAULA VELASQUEZ YEPES</t>
+  </si>
+  <si>
+    <t>ROSA GISELLE SWAYNE LOPEZ</t>
+  </si>
+  <si>
+    <t>%Conexión2</t>
+  </si>
+  <si>
+    <t>T.Conexión3</t>
+  </si>
+  <si>
+    <t>%Conexión4</t>
+  </si>
+  <si>
+    <t>T.Conexión5</t>
+  </si>
+  <si>
+    <t>%Conexión6</t>
+  </si>
+  <si>
+    <t>1er Corte</t>
+  </si>
+  <si>
+    <t>T.Conexión7</t>
+  </si>
+  <si>
+    <t>JULIANA VIVAS RODRIGUEZ</t>
   </si>
 </sst>
 </file>
@@ -890,7 +997,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1016,6 +1123,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1062,7 +1204,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1089,8 +1231,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1103,59 +1243,100 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="22">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1163,19 +1344,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1229,51 +1410,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:T36" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A3:T36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:T36">
-    <sortCondition ref="S3:S36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:X36" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A3:X36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:X36">
+    <sortCondition ref="C3:C36"/>
   </sortState>
-  <tableColumns count="20">
+  <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{2951ACD3-7E7C-4B15-8969-BBEC77220F09}" name="Num"/>
     <tableColumn id="2" xr3:uid="{41C291F5-DA77-4B55-A49C-CDE28AB05F1C}" name="Apellidos"/>
     <tableColumn id="3" xr3:uid="{4EF9A0E0-8B64-4D77-BF58-1466EBFC70F8}" name="Nombres"/>
-    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="19"/>
     <tableColumn id="5" xr3:uid="{E5E637F3-98DE-4C48-8975-E4FF30179C84}" name="email"/>
-    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="13">
+    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="17">
       <calculatedColumnFormula>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión3" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión2" dataDxfId="15">
       <calculatedColumnFormula>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión4" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión5" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión3" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión3" dataDxfId="13">
       <calculatedColumnFormula>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión6" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión7" dataDxfId="7">
+    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión4" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión4" dataDxfId="8">
       <calculatedColumnFormula>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión8" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión9" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión10" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión11" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{5430F0E6-F861-44B2-B1CA-6E2A24842801}" name="Asistencia" dataDxfId="2">
-      <calculatedColumnFormula>AVERAGE(F4,H4,J4,L4)*5</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión5" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión5" dataDxfId="3">
+      <calculatedColumnFormula>IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{5E18873E-0421-4811-A7ED-EFE7A5B09CB1}" name="Grupo" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Gesto Asignado" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión6" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión6" dataDxfId="1">
+      <calculatedColumnFormula>IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{5430F0E6-F861-44B2-B1CA-6E2A24842801}" name="Asistencia" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(G4,I4,K4,M4,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{5E18873E-0421-4811-A7ED-EFE7A5B09CB1}" name="Grupo" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Gesto Asignado" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="24" xr3:uid="{D2AC9EBA-9E21-4D91-B98D-BEC9F52C6380}" name="1er Corte" dataDxfId="7"/>
+    <tableColumn id="23" xr3:uid="{85803527-97A7-4D57-A5D2-AF49B49DFBB6}" name="T.Conexión7" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{3C385566-1188-4AA7-B618-44B1F28F2C3E}" name="%Conexión7" dataDxfId="5">
+      <calculatedColumnFormula>IF(V4/$W$2&lt;=1.01,V4/$W$2,0.6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="DICOM craneal" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1589,13 +1780,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD2CE0-6169-477F-B8E1-2987D9E7C726}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
@@ -1609,85 +1800,103 @@
     <col min="16" max="18" width="18" customWidth="1"/>
     <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="74.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F1" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G1" s="7">
         <v>45867</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="I1" s="7">
         <v>45874</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K1" s="7">
         <v>45881</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M1" s="7">
         <v>45888</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="O1" s="7">
         <v>45895</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="Q1" s="7">
         <v>45902</v>
       </c>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="W1" s="7">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F2" s="6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G2" s="8">
         <v>1.744212962962963E-2</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I2" s="8">
         <v>3.9780092592592596E-2</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K2" s="8">
         <v>3.5949074074074071E-2</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="M2" s="8">
         <v>2.2731481481481481E-2</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="O2" s="8"/>
+        <v>133</v>
+      </c>
+      <c r="O2" s="1">
+        <v>4.6655092592592595E-2</v>
+      </c>
       <c r="P2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q2" s="8"/>
+        <v>133</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>4.3206018518518519E-2</v>
+      </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="W2" s="1">
+        <v>4.1157407407407406E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1704,472 +1913,613 @@
         <v>65</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="S3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4">
+        <v>1061688602</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.7303240740740741E-2</v>
+      </c>
+      <c r="G4" s="9">
+        <f>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
+        <v>0.99203715992037156</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3.9247685185185184E-2</v>
+      </c>
+      <c r="I4" s="9">
+        <f>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
+        <v>0.98661623508874008</v>
+      </c>
+      <c r="J4" s="4">
+        <v>3.5891203703703703E-2</v>
+      </c>
+      <c r="K4" s="9">
+        <f>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
+        <v>0.99839021249195115</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2.162037037037037E-2</v>
+      </c>
+      <c r="M4" s="9">
+        <f>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
+        <v>0.95112016293279023</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4.6122685185185183E-2</v>
+      </c>
+      <c r="O4" s="9">
+        <f t="shared" ref="O4:Q36" si="0">IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</f>
+        <v>0.98858843959315301</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <f t="shared" ref="Q4:Q36" si="1">IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <f>AVERAGE(G4,I4,K4,M4,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.0972935083558388</v>
+      </c>
+      <c r="S4" s="14">
+        <v>8</v>
+      </c>
+      <c r="T4" s="5" t="e" cm="1">
+        <f t="array" ref="T4">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U4" s="5"/>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" ref="W4:W36" si="2">IF(V4/$W$2&lt;=1.01,V4/$W$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="5"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4">
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5">
         <v>1110286885</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F5" s="4">
         <v>1.7349537037037038E-2</v>
       </c>
-      <c r="G4" s="9">
-        <f t="shared" ref="G4:G36" si="0">IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
+      <c r="G5" s="9">
+        <f>IF(F5/$G$2&lt;=1.001,F5/$G$2,0.6)</f>
         <v>0.99469143994691445</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H5" s="4">
         <v>3.9293981481481478E-2</v>
       </c>
-      <c r="I4" s="9">
-        <f t="shared" ref="I4:I36" si="1">IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
+      <c r="I5" s="9">
+        <f>IF(H5/$I$2&lt;=1.001,H5/$I$2,0.6)</f>
         <v>0.98778004073319736</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J5" s="4">
         <v>3.5925925925925924E-2</v>
       </c>
-      <c r="K4" s="9">
-        <f t="shared" ref="K4:K36" si="2">IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
+      <c r="K5" s="9">
+        <f>IF(J5/$K$2&lt;=1.001,J5/$K$2,0.6)</f>
         <v>0.99935608499678041</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L5" s="4">
         <v>2.2129629629629631E-2</v>
       </c>
-      <c r="M4" s="9">
-        <f t="shared" ref="M4:M36" si="3">IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
+      <c r="M5" s="9">
+        <f>IF(L5/$M$2&lt;=1.001,L5/$M$2,0.6)</f>
         <v>0.97352342158859484</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="5">
-        <f t="shared" ref="R4:R36" si="4">AVERAGE(F4,H4,J4,L4)*5</f>
-        <v>0.14337384259259259</v>
-      </c>
-      <c r="S4" s="16">
+      <c r="N5" s="1">
+        <v>4.5590277777777778E-2</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97717687918630614</v>
+      </c>
+      <c r="P5" s="1">
+        <v>4.3206018518518519E-2</v>
+      </c>
+      <c r="Q5" s="9">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T4" s="5" t="str" cm="1">
-        <f t="array" ref="T4">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5">
-        <v>1109542109</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1.6481481481481482E-2</v>
-      </c>
-      <c r="G5" s="9">
-        <f t="shared" si="0"/>
-        <v>0.94492368944923688</v>
-      </c>
-      <c r="H5" s="4">
-        <v>3.8530092592592595E-2</v>
-      </c>
-      <c r="I5" s="9">
-        <f t="shared" si="1"/>
-        <v>0.9685772475996508</v>
-      </c>
-      <c r="J5" s="4">
-        <v>3.5821759259259262E-2</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="2"/>
-        <v>0.9964584674822925</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1.0648148148148149E-3</v>
-      </c>
-      <c r="M5" s="9">
-        <f t="shared" si="3"/>
-        <v>4.684317718940937E-2</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
       <c r="R5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.11487268518518517</v>
-      </c>
-      <c r="S5" s="16">
+        <f>AVERAGE(G5,I5,K5,M5,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.9437732220431609</v>
+      </c>
+      <c r="S5" s="14">
         <v>1</v>
       </c>
       <c r="T5" s="5" t="str" cm="1">
         <f t="array" ref="T5">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
         <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="5"/>
+      <c r="V5" s="1">
+        <v>4.1203703703703701E-2</v>
+      </c>
+      <c r="W5" s="9">
+        <f>IF(V5/$W$2&lt;=1.01,V5/$W$2,0.6)</f>
+        <v>1.0011248593925759</v>
+      </c>
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>101</v>
       </c>
       <c r="D6">
-        <v>1036925847</v>
+        <v>1112388246</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G6" s="9">
+        <f>IF(F6/$G$2&lt;=1.001,F6/$G$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3.8506944444444448E-2</v>
+      </c>
+      <c r="I6" s="9">
+        <f>IF(H6/$I$2&lt;=1.001,H6/$I$2,0.6)</f>
+        <v>0.96799534477742222</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1.0486111111111111E-2</v>
+      </c>
+      <c r="K6" s="9">
+        <f>IF(J6/$K$2&lt;=1.001,J6/$K$2,0.6)</f>
+        <v>0.29169349645846748</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2.2592592592592591E-2</v>
+      </c>
+      <c r="M6" s="9">
+        <f>IF(L6/$M$2&lt;=1.001,L6/$M$2,0.6)</f>
+        <v>0.99389002036659879</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3.7476851851851851E-2</v>
+      </c>
+      <c r="O6" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3.9178240740740743E-2</v>
-      </c>
-      <c r="I6" s="9">
+        <v>0.80327462168196473</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3.8391203703703705E-2</v>
+      </c>
+      <c r="Q6" s="9">
         <f t="shared" si="1"/>
-        <v>0.9848705266220541</v>
-      </c>
-      <c r="J6" s="4">
-        <v>3.5844907407407409E-2</v>
-      </c>
-      <c r="K6" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99710238248551208</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+        <v>0.8885614787034557</v>
+      </c>
       <c r="R6" s="5">
-        <f t="shared" si="4"/>
-        <v>9.377893518518518E-2</v>
-      </c>
-      <c r="S6" s="16">
-        <v>1</v>
+        <f>AVERAGE(G6,I6,K6,M6,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.1211791349899247</v>
+      </c>
+      <c r="S6" s="14">
+        <v>2</v>
       </c>
       <c r="T6" s="5" t="str" cm="1">
         <f t="array" ref="T6">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="1">
+        <v>3.2685185185185185E-2</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="2"/>
+        <v>0.79415073115860524</v>
+      </c>
+      <c r="X6" s="5"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>1005785665</v>
+        <v>1109542109</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>1.6481481481481482E-2</v>
       </c>
       <c r="G7" s="9">
+        <f>IF(F7/$G$2&lt;=1.001,F7/$G$2,0.6)</f>
+        <v>0.94492368944923688</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3.8530092592592595E-2</v>
+      </c>
+      <c r="I7" s="9">
+        <f>IF(H7/$I$2&lt;=1.001,H7/$I$2,0.6)</f>
+        <v>0.9685772475996508</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3.5821759259259262E-2</v>
+      </c>
+      <c r="K7" s="9">
+        <f>IF(J7/$K$2&lt;=1.001,J7/$K$2,0.6)</f>
+        <v>0.9964584674822925</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1.0648148148148149E-3</v>
+      </c>
+      <c r="M7" s="9">
+        <f>IF(L7/$M$2&lt;=1.001,L7/$M$2,0.6)</f>
+        <v>4.684317718940937E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4.4270833333333336E-2</v>
+      </c>
+      <c r="O7" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>3.9085648148148147E-2</v>
-      </c>
-      <c r="I7" s="9">
+        <v>0.94889605556933765</v>
+      </c>
+      <c r="P7" s="1">
+        <v>3.9861111111111111E-2</v>
+      </c>
+      <c r="Q7" s="9">
         <f t="shared" si="1"/>
-        <v>0.9825429153331392</v>
-      </c>
-      <c r="J7" s="4">
-        <v>3.5960648148148151E-2</v>
-      </c>
-      <c r="K7" s="9">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
-      </c>
-      <c r="L7" s="4">
-        <v>2.3148148148148149E-4</v>
-      </c>
-      <c r="M7" s="9">
-        <f t="shared" si="3"/>
-        <v>1.0183299389002037E-2</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+        <v>0.92258237342619875</v>
+      </c>
       <c r="R7" s="5">
-        <f t="shared" si="4"/>
-        <v>9.4097222222222235E-2</v>
-      </c>
-      <c r="S7" s="16">
+        <f>AVERAGE(G7,I7,K7,M7,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.0235675089301051</v>
+      </c>
+      <c r="S7" s="14">
         <v>1</v>
       </c>
       <c r="T7" s="5" t="str" cm="1">
         <f t="array" ref="T7">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
         <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="5"/>
+      <c r="V7" s="1">
+        <v>3.8101851851851852E-2</v>
+      </c>
+      <c r="W7" s="9">
+        <f t="shared" si="2"/>
+        <v>0.92575928008998876</v>
+      </c>
+      <c r="X7" s="5"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="D8">
-        <v>1112388246</v>
+        <v>1193276119</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F8" s="4">
-        <v>1.744212962962963E-2</v>
+        <v>1.7349537037037038E-2</v>
       </c>
       <c r="G8" s="9">
+        <f>IF(F8/$G$2&lt;=1.001,F8/$G$2,0.6)</f>
+        <v>0.99469143994691445</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <f>IF(H8/$I$2&lt;=1.001,H8/$I$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <f>IF(J8/$K$2&lt;=1.001,J8/$K$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <f>IF(L8/$M$2&lt;=1.001,L8/$M$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.5972222222222223E-3</v>
+      </c>
+      <c r="O8" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>3.8506944444444448E-2</v>
-      </c>
-      <c r="I8" s="9">
+        <v>3.4234681220540811E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
         <f t="shared" si="1"/>
-        <v>0.96799534477742222</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1.0486111111111111E-2</v>
-      </c>
-      <c r="K8" s="9">
-        <f t="shared" si="2"/>
-        <v>0.29169349645846748</v>
-      </c>
-      <c r="L8" s="4">
-        <v>2.2592592592592591E-2</v>
-      </c>
-      <c r="M8" s="9">
-        <f t="shared" si="3"/>
-        <v>0.99389002036659879</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+        <v>0</v>
+      </c>
       <c r="R8" s="5">
-        <f t="shared" si="4"/>
-        <v>0.11128472222222224</v>
-      </c>
-      <c r="S8" s="16">
-        <v>2</v>
-      </c>
+        <f>AVERAGE(G8,I8,K8,M8,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>0.85743843430621258</v>
+      </c>
+      <c r="S8" s="14"/>
       <c r="T8" s="5" t="str" cm="1">
         <f t="array" ref="T8">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>--</v>
+      </c>
+      <c r="U8" s="5"/>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="D9">
-        <v>1000940688</v>
+        <v>1143992171</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F9" s="4">
-        <v>1.7361111111111112E-2</v>
+        <v>3.4791666666666665E-2</v>
       </c>
       <c r="G9" s="9">
+        <f>IF(F9/$G$2&lt;=1.001,F9/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="4">
+        <v>7.1990740740740739E-3</v>
+      </c>
+      <c r="I9" s="9">
+        <f>IF(H9/$I$2&lt;=1.001,H9/$I$2,0.6)</f>
+        <v>0.1809717777131219</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K9" s="9">
+        <f>IF(J9/$K$2&lt;=1.001,J9/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1.9398148148148147E-2</v>
+      </c>
+      <c r="M9" s="9">
+        <f>IF(L9/$M$2&lt;=1.001,L9/$M$2,0.6)</f>
+        <v>0.85336048879837068</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4.5810185185185183E-2</v>
+      </c>
+      <c r="O9" s="9">
         <f t="shared" si="0"/>
-        <v>0.99535500995355009</v>
-      </c>
-      <c r="H9" s="4">
-        <v>3.9259259259259258E-2</v>
-      </c>
-      <c r="I9" s="9">
+        <v>0.98189034978913414</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
         <f t="shared" si="1"/>
-        <v>0.98690718649985443</v>
-      </c>
-      <c r="J9" s="4">
-        <v>3.5949074074074071E-2</v>
-      </c>
-      <c r="K9" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L9" s="4">
-        <v>2.2638888888888889E-2</v>
-      </c>
-      <c r="M9" s="9">
-        <f t="shared" si="3"/>
-        <v>0.99592668024439923</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+        <v>0</v>
+      </c>
       <c r="R9" s="5">
-        <f t="shared" si="4"/>
-        <v>0.14401041666666667</v>
-      </c>
-      <c r="S9" s="16">
-        <v>2</v>
-      </c>
+        <f>AVERAGE(G9,I9,K9,M9,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>3.0137871448351969</v>
+      </c>
+      <c r="S9" s="14"/>
       <c r="T9" s="5" t="str" cm="1">
         <f t="array" ref="T9">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>--</v>
+      </c>
+      <c r="U9" s="5"/>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>100</v>
       </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
       <c r="D10">
-        <v>1107837413</v>
+        <v>1000940688</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="G10" s="9">
+        <f>IF(F10/$G$2&lt;=1.001,F10/$G$2,0.6)</f>
+        <v>0.99535500995355009</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3.9259259259259258E-2</v>
+      </c>
+      <c r="I10" s="9">
+        <f>IF(H10/$I$2&lt;=1.001,H10/$I$2,0.6)</f>
+        <v>0.98690718649985443</v>
+      </c>
+      <c r="J10" s="4">
+        <v>3.5949074074074071E-2</v>
+      </c>
+      <c r="K10" s="9">
+        <f>IF(J10/$K$2&lt;=1.001,J10/$K$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2.2638888888888889E-2</v>
+      </c>
+      <c r="M10" s="9">
+        <f>IF(L10/$M$2&lt;=1.001,L10/$M$2,0.6)</f>
+        <v>0.99592668024439923</v>
+      </c>
+      <c r="N10" s="1">
+        <v>4.4965277777777778E-2</v>
+      </c>
+      <c r="O10" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3.7743055555555557E-2</v>
-      </c>
-      <c r="I10" s="9">
+        <v>0.9637806995782684</v>
+      </c>
+      <c r="P10" s="1">
+        <v>4.1863425925925929E-2</v>
+      </c>
+      <c r="Q10" s="9">
         <f t="shared" si="1"/>
-        <v>0.94879255164387544</v>
-      </c>
-      <c r="J10" s="4">
-        <v>3.5925925925925924E-2</v>
-      </c>
-      <c r="K10" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99935608499678041</v>
-      </c>
-      <c r="L10" s="4">
-        <v>2.0636574074074075E-2</v>
-      </c>
-      <c r="M10" s="9">
-        <f t="shared" si="3"/>
-        <v>0.90784114052953158</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+        <v>0.96892579694615599</v>
+      </c>
       <c r="R10" s="5">
-        <f t="shared" si="4"/>
-        <v>0.11788194444444444</v>
-      </c>
-      <c r="S10" s="16">
+        <f>AVERAGE(G10,I10,K10,M10,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.9257461443518569</v>
+      </c>
+      <c r="S10" s="14">
         <v>2</v>
       </c>
       <c r="T10" s="5" t="str" cm="1">
         <f t="array" ref="T10">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
         <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="5"/>
+      <c r="V10" s="1">
+        <v>3.8182870370370367E-2</v>
+      </c>
+      <c r="W10" s="9">
+        <f t="shared" si="2"/>
+        <v>0.92772778402699652</v>
+      </c>
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2177,7 +2527,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>1007560675</v>
@@ -2189,1542 +2539,2044 @@
         <v>5.2083333333333333E-4</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" si="0"/>
+        <f>IF(F11/$G$2&lt;=1.001,F11/$G$2,0.6)</f>
         <v>2.98606502986065E-2</v>
       </c>
       <c r="H11" s="4">
         <v>3.9074074074074074E-2</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="1"/>
+        <f>IF(H11/$I$2&lt;=1.001,H11/$I$2,0.6)</f>
         <v>0.98225196392202496</v>
       </c>
       <c r="J11" s="4">
         <v>3.5763888888888887E-2</v>
       </c>
       <c r="K11" s="9">
-        <f t="shared" si="2"/>
+        <f>IF(J11/$K$2&lt;=1.001,J11/$K$2,0.6)</f>
         <v>0.99484867997424342</v>
       </c>
       <c r="L11" s="4">
         <v>1.8090277777777778E-2</v>
       </c>
       <c r="M11" s="9">
-        <f t="shared" si="3"/>
+        <f>IF(L11/$M$2&lt;=1.001,L11/$M$2,0.6)</f>
         <v>0.79582484725050917</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="N11" s="1">
+        <v>4.6388888888888889E-2</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99429421979657651</v>
+      </c>
+      <c r="P11" s="1">
+        <v>4.1805555555555554E-2</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.96758639164211091</v>
+      </c>
       <c r="R11" s="5">
-        <f t="shared" si="4"/>
-        <v>0.1168113425925926</v>
-      </c>
-      <c r="S11" s="16">
+        <f>AVERAGE(G11,I11,K11,M11,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>3.970555627403392</v>
+      </c>
+      <c r="S11" s="14">
         <v>3</v>
       </c>
       <c r="T11" s="5" t="str" cm="1">
         <f t="array" ref="T11">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
         <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="5"/>
+      <c r="V11" s="1">
+        <v>3.6736111111111108E-2</v>
+      </c>
+      <c r="W11" s="9">
+        <f t="shared" si="2"/>
+        <v>0.89257592800899888</v>
+      </c>
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D12">
-        <v>1005832925</v>
+        <v>1110285503</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F12" s="4">
         <v>1.7314814814814814E-2</v>
       </c>
       <c r="G12" s="9">
+        <f>IF(F12/$G$2&lt;=1.001,F12/$G$2,0.6)</f>
+        <v>0.9927007299270072</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3.9189814814814816E-2</v>
+      </c>
+      <c r="I12" s="9">
+        <f>IF(H12/$I$2&lt;=1.001,H12/$I$2,0.6)</f>
+        <v>0.98516147803316845</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <f>IF(J12/$K$2&lt;=1.001,J12/$K$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <f>IF(L12/$M$2&lt;=1.001,L12/$M$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>4.327546296296296E-2</v>
+      </c>
+      <c r="O12" s="9">
         <f t="shared" si="0"/>
-        <v>0.9927007299270072</v>
-      </c>
-      <c r="H12" s="4">
-        <v>3.9814814814814817E-2</v>
-      </c>
-      <c r="I12" s="9">
+        <v>0.92756139915653668</v>
+      </c>
+      <c r="P12" s="1">
+        <v>4.3182870370370371E-2</v>
+      </c>
+      <c r="Q12" s="9">
         <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
-      </c>
-      <c r="J12" s="4">
-        <v>3.5868055555555556E-2</v>
-      </c>
-      <c r="K12" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99774629748873156</v>
-      </c>
-      <c r="L12" s="4">
-        <v>2.1909722222222223E-2</v>
-      </c>
-      <c r="M12" s="9">
-        <f t="shared" si="3"/>
-        <v>0.96384928716904283</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+        <v>0.99946423787838201</v>
+      </c>
       <c r="R12" s="5">
-        <f t="shared" si="4"/>
-        <v>0.14363425925925927</v>
-      </c>
-      <c r="S12" s="16">
-        <v>3</v>
+        <f>AVERAGE(G12,I12,K12,M12,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>3.2540732041625784</v>
+      </c>
+      <c r="S12" s="14">
+        <v>4</v>
       </c>
       <c r="T12" s="5" t="str" cm="1">
         <f t="array" ref="T12">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U12" s="5"/>
+      <c r="V12" s="1">
+        <v>3.7256944444444447E-2</v>
+      </c>
+      <c r="W12" s="9">
+        <f t="shared" si="2"/>
+        <v>0.90523059617547819</v>
+      </c>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>30</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>118</v>
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
       </c>
       <c r="D13">
-        <v>73265790</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>61</v>
+        <v>1107837304</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
       </c>
       <c r="F13" s="4">
-        <v>4.3611111111111114E-2</v>
+        <v>3.8090277777777778E-2</v>
       </c>
       <c r="G13" s="9">
+        <f>IF(F13/$G$2&lt;=1.001,F13/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H13" s="4">
+        <v>3.8541666666666669E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <f>IF(H13/$I$2&lt;=1.001,H13/$I$2,0.6)</f>
+        <v>0.96886819901076515</v>
+      </c>
+      <c r="J13" s="4">
+        <v>3.3229166666666664E-2</v>
+      </c>
+      <c r="K13" s="9">
+        <f>IF(J13/$K$2&lt;=1.001,J13/$K$2,0.6)</f>
+        <v>0.92433998712169996</v>
+      </c>
+      <c r="L13" s="4">
+        <v>5.115740740740741E-3</v>
+      </c>
+      <c r="M13" s="9">
+        <f>IF(L13/$M$2&lt;=1.001,L13/$M$2,0.6)</f>
+        <v>0.22505091649694503</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4.4849537037037035E-2</v>
+      </c>
+      <c r="O13" s="9">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="H13" s="4">
-        <v>3.9641203703703706E-2</v>
-      </c>
-      <c r="I13" s="9">
+        <v>0.9612999255767799</v>
+      </c>
+      <c r="P13" s="1">
+        <v>3.9386574074074074E-2</v>
+      </c>
+      <c r="Q13" s="9">
         <f t="shared" si="1"/>
-        <v>0.99650858306662782</v>
-      </c>
-      <c r="J13" s="4">
-        <v>3.5879629629629629E-2</v>
-      </c>
-      <c r="K13" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99806825499034135</v>
-      </c>
-      <c r="L13" s="4">
-        <v>2.1238425925925924E-2</v>
-      </c>
-      <c r="M13" s="9">
-        <f t="shared" si="3"/>
-        <v>0.93431771894093685</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+        <v>0.91159924993302976</v>
+      </c>
       <c r="R13" s="5">
-        <f t="shared" si="4"/>
-        <v>0.17546296296296296</v>
-      </c>
-      <c r="S13" s="16">
-        <v>3</v>
+        <f>AVERAGE(G13,I13,K13,M13,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>3.8259652317826838</v>
+      </c>
+      <c r="S13" s="14">
+        <v>5</v>
       </c>
       <c r="T13" s="5" t="str" cm="1">
         <f t="array" ref="T13">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U13" s="5"/>
+      <c r="V13" s="1">
+        <v>3.8101851851851852E-2</v>
+      </c>
+      <c r="W13" s="9">
+        <f t="shared" si="2"/>
+        <v>0.92575928008998876</v>
+      </c>
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D14">
-        <v>1006343564</v>
+        <v>1112388822</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F14" s="4">
         <v>1.7337962962962961E-2</v>
       </c>
       <c r="G14" s="9">
+        <f>IF(F14/$G$2&lt;=1.001,F14/$G$2,0.6)</f>
+        <v>0.99402786994027859</v>
+      </c>
+      <c r="H14" s="4">
+        <v>3.9224537037037037E-2</v>
+      </c>
+      <c r="I14" s="9">
+        <f>IF(H14/$I$2&lt;=1.001,H14/$I$2,0.6)</f>
+        <v>0.98603433226651138</v>
+      </c>
+      <c r="J14" s="4">
+        <v>3.5879629629629629E-2</v>
+      </c>
+      <c r="K14" s="9">
+        <f>IF(J14/$K$2&lt;=1.001,J14/$K$2,0.6)</f>
+        <v>0.99806825499034135</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <f>IF(L14/$M$2&lt;=1.001,L14/$M$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>3.2685185185185185E-2</v>
+      </c>
+      <c r="O14" s="9">
         <f t="shared" si="0"/>
-        <v>0.99402786994027859</v>
-      </c>
-      <c r="H14" s="4">
-        <v>3.9814814814814817E-2</v>
-      </c>
-      <c r="I14" s="9">
+        <v>0.70057057802034228</v>
+      </c>
+      <c r="P14" s="1">
+        <v>3.3252314814814818E-2</v>
+      </c>
+      <c r="Q14" s="9">
         <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
-      </c>
-      <c r="J14" s="4">
-        <v>3.5960648148148151E-2</v>
-      </c>
-      <c r="K14" s="9">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
-      </c>
-      <c r="L14" s="12">
-        <v>2.2731481481481481E-2</v>
-      </c>
-      <c r="M14" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+        <v>0.76962228770425933</v>
+      </c>
       <c r="R14" s="5">
-        <f t="shared" si="4"/>
-        <v>0.14480613425925926</v>
-      </c>
-      <c r="S14" s="16">
-        <v>3</v>
+        <f>AVERAGE(G14,I14,K14,M14,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>3.7069361024347773</v>
+      </c>
+      <c r="S14" s="14">
+        <v>4</v>
       </c>
       <c r="T14" s="5" t="str" cm="1">
         <f t="array" ref="T14">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U14" s="5"/>
+      <c r="V14" s="1">
+        <v>3.2615740740740744E-2</v>
+      </c>
+      <c r="W14" s="9">
+        <f t="shared" si="2"/>
+        <v>0.7924634420697414</v>
+      </c>
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D15">
-        <v>1110285503</v>
+        <v>1107839506</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F15" s="4">
-        <v>1.7314814814814814E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G15" s="9">
+        <f>IF(F15/$G$2&lt;=1.001,F15/$G$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3.9270833333333331E-2</v>
+      </c>
+      <c r="I15" s="9">
+        <f>IF(H15/$I$2&lt;=1.001,H15/$I$2,0.6)</f>
+        <v>0.98719813791096878</v>
+      </c>
+      <c r="J15" s="4">
+        <v>3.591435185185185E-2</v>
+      </c>
+      <c r="K15" s="9">
+        <f>IF(J15/$K$2&lt;=1.001,J15/$K$2,0.6)</f>
+        <v>0.99903412749517073</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1.9351851851851853E-2</v>
+      </c>
+      <c r="M15" s="9">
+        <f>IF(L15/$M$2&lt;=1.001,L15/$M$2,0.6)</f>
+        <v>0.85132382892057035</v>
+      </c>
+      <c r="N15" s="1">
+        <v>4.2256944444444444E-2</v>
+      </c>
+      <c r="O15" s="9">
         <f t="shared" si="0"/>
-        <v>0.9927007299270072</v>
-      </c>
-      <c r="H15" s="4">
-        <v>3.9189814814814816E-2</v>
-      </c>
-      <c r="I15" s="9">
+        <v>0.9057305879434383</v>
+      </c>
+      <c r="P15" s="1">
+        <v>3.9687500000000001E-2</v>
+      </c>
+      <c r="Q15" s="9">
         <f t="shared" si="1"/>
-        <v>0.98516147803316845</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+        <v>0.91856415751406373</v>
+      </c>
       <c r="R15" s="5">
-        <f t="shared" si="4"/>
-        <v>7.0630787037037041E-2</v>
-      </c>
-      <c r="S15" s="16">
-        <v>4</v>
+        <f>AVERAGE(G15,I15,K15,M15,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.71820903315351</v>
+      </c>
+      <c r="S15" s="14">
+        <v>6</v>
       </c>
       <c r="T15" s="5" t="str" cm="1">
         <f t="array" ref="T15">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U15" s="5"/>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="5"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16">
+        <v>1112041894</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3.7592592592592594E-2</v>
+      </c>
+      <c r="G16" s="9">
+        <f>IF(F16/$G$2&lt;=1.001,F16/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2.7164351851851853E-2</v>
+      </c>
+      <c r="I16" s="9">
+        <f>IF(H16/$I$2&lt;=1.001,H16/$I$2,0.6)</f>
+        <v>0.68286296188536511</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <f>IF(J16/$K$2&lt;=1.001,J16/$K$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <f>IF(L16/$M$2&lt;=1.001,L16/$M$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>4.1226851851851855E-2</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.88365169933019105</v>
+      </c>
+      <c r="P16" s="1">
+        <v>4.2858796296296298E-2</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="1"/>
+        <v>0.99196356817573006</v>
+      </c>
+      <c r="R16" s="5">
+        <f>AVERAGE(G16,I16,K16,M16,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>2.6320651911594055</v>
+      </c>
+      <c r="S16" s="14">
         <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16">
-        <v>1113978874</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1.744212962962963E-2</v>
-      </c>
-      <c r="G16" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>3.9814814814814817E-2</v>
-      </c>
-      <c r="I16" s="9">
-        <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
-      </c>
-      <c r="J16" s="4">
-        <v>3.5960648148148151E-2</v>
-      </c>
-      <c r="K16" s="9">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
-      </c>
-      <c r="L16" s="4">
-        <v>2.1203703703703704E-2</v>
-      </c>
-      <c r="M16" s="9">
-        <f t="shared" si="3"/>
-        <v>0.9327902240325866</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="5">
-        <f t="shared" si="4"/>
-        <v>0.14302662037037037</v>
-      </c>
-      <c r="S16" s="16">
-        <v>4</v>
       </c>
       <c r="T16" s="5" t="str" cm="1">
         <f t="array" ref="T16">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U16" s="5"/>
+      <c r="V16" s="1">
+        <v>4.0208333333333332E-2</v>
+      </c>
+      <c r="W16" s="9">
+        <f t="shared" si="2"/>
+        <v>0.9769403824521935</v>
+      </c>
+      <c r="X16" s="5"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D17">
-        <v>1104804719</v>
+        <v>1005785665</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F17" s="4">
-        <v>3.4641203703703702E-2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="9">
+        <f>IF(F17/$G$2&lt;=1.001,F17/$G$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3.9085648148148147E-2</v>
+      </c>
+      <c r="I17" s="9">
+        <f>IF(H17/$I$2&lt;=1.001,H17/$I$2,0.6)</f>
+        <v>0.9825429153331392</v>
+      </c>
+      <c r="J17" s="4">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K17" s="9">
+        <f>IF(J17/$K$2&lt;=1.001,J17/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L17" s="4">
+        <v>2.3148148148148149E-4</v>
+      </c>
+      <c r="M17" s="9">
+        <f>IF(L17/$M$2&lt;=1.001,L17/$M$2,0.6)</f>
+        <v>1.0183299389002037E-2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="O17" s="9">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="H17" s="4">
-        <v>3.9178240740740743E-2</v>
-      </c>
-      <c r="I17" s="9">
+        <v>0.99727114859836263</v>
+      </c>
+      <c r="P17" s="1">
+        <v>4.3206018518518519E-2</v>
+      </c>
+      <c r="Q17" s="9">
         <f t="shared" si="1"/>
-        <v>0.9848705266220541</v>
-      </c>
-      <c r="J17" s="4">
-        <v>3.5856481481481482E-2</v>
-      </c>
-      <c r="K17" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99742433998712177</v>
-      </c>
-      <c r="L17" s="4">
-        <v>1.9652777777777779E-2</v>
-      </c>
-      <c r="M17" s="9">
-        <f t="shared" si="3"/>
-        <v>0.86456211812627304</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+        <v>1</v>
+      </c>
       <c r="R17" s="5">
-        <f t="shared" si="4"/>
-        <v>0.16166087962962961</v>
-      </c>
-      <c r="S17" s="16">
-        <v>4</v>
+        <f>AVERAGE(G17,I17,K17,M17,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>3.325266100685095</v>
+      </c>
+      <c r="S17" s="14">
+        <v>1</v>
       </c>
       <c r="T17" s="5" t="str" cm="1">
         <f t="array" ref="T17">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U17" s="5"/>
+      <c r="V17" s="1">
+        <v>4.1157407407407406E-2</v>
+      </c>
+      <c r="W17" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X17" s="5"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D18">
-        <v>1004217163</v>
+        <v>1113978874</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F18" s="4">
-        <v>4.1458333333333333E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F18/$G$2&lt;=1.001,F18/$G$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="H18" s="4">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="1"/>
+        <f>IF(H18/$I$2&lt;=1.001,H18/$I$2,0.6)</f>
         <v>1.0008728542333429</v>
       </c>
       <c r="J18" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K18" s="9">
-        <f t="shared" si="2"/>
+        <f>IF(J18/$K$2&lt;=1.001,J18/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
       <c r="L18" s="4">
-        <v>2.0798611111111111E-2</v>
+        <v>2.1203703703703704E-2</v>
       </c>
       <c r="M18" s="9">
-        <f t="shared" si="3"/>
-        <v>0.91496945010183306</v>
-      </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+        <f>IF(L18/$M$2&lt;=1.001,L18/$M$2,0.6)</f>
+        <v>0.9327902240325866</v>
+      </c>
+      <c r="N18" s="1">
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0002480774001488</v>
+      </c>
+      <c r="P18" s="1">
+        <v>4.3206018518518519E-2</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="R18" s="5">
-        <f t="shared" si="4"/>
-        <v>0.17254050925925926</v>
-      </c>
-      <c r="S18" s="16">
+        <f>AVERAGE(G18,I18,K18,M18,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.9451942609730732</v>
+      </c>
+      <c r="S18" s="14">
         <v>4</v>
       </c>
       <c r="T18" s="5" t="str" cm="1">
         <f t="array" ref="T18">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
         <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="5"/>
+      <c r="V18" s="1">
+        <v>3.9328703703703706E-2</v>
+      </c>
+      <c r="W18" s="9">
+        <f t="shared" si="2"/>
+        <v>0.95556805399325095</v>
+      </c>
+      <c r="X18" s="5"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D19">
-        <v>1112388822</v>
+        <v>1105366146</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F19" s="4">
-        <v>1.7337962962962961E-2</v>
+        <v>3.8437499999999999E-2</v>
       </c>
       <c r="G19" s="9">
+        <f>IF(F19/$G$2&lt;=1.001,F19/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <f>IF(H19/$I$2&lt;=1.001,H19/$I$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1.3148148148148148E-2</v>
+      </c>
+      <c r="K19" s="9">
+        <f>IF(J19/$K$2&lt;=1.001,J19/$K$2,0.6)</f>
+        <v>0.36574372182871867</v>
+      </c>
+      <c r="L19" s="4">
+        <v>7.6620370370370366E-3</v>
+      </c>
+      <c r="M19" s="9">
+        <f>IF(L19/$M$2&lt;=1.001,L19/$M$2,0.6)</f>
+        <v>0.33706720977596738</v>
+      </c>
+      <c r="N19" s="1">
+        <v>4.6215277777777779E-2</v>
+      </c>
+      <c r="O19" s="9">
         <f t="shared" si="0"/>
-        <v>0.99402786994027859</v>
-      </c>
-      <c r="H19" s="4">
-        <v>3.9224537037037037E-2</v>
-      </c>
-      <c r="I19" s="9">
+        <v>0.99057305879434376</v>
+      </c>
+      <c r="P19" s="1">
+        <v>4.3206018518518519E-2</v>
+      </c>
+      <c r="Q19" s="9">
         <f t="shared" si="1"/>
-        <v>0.98603433226651138</v>
-      </c>
-      <c r="J19" s="4">
-        <v>3.5879629629629629E-2</v>
-      </c>
-      <c r="K19" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99806825499034135</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+        <v>1</v>
+      </c>
       <c r="R19" s="5">
-        <f t="shared" si="4"/>
-        <v>0.11555266203703704</v>
-      </c>
-      <c r="S19" s="16">
-        <v>4</v>
+        <f>AVERAGE(G19,I19,K19,M19,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>2.7444866586658585</v>
+      </c>
+      <c r="S19" s="14">
+        <v>5</v>
       </c>
       <c r="T19" s="5" t="str" cm="1">
         <f t="array" ref="T19">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U19" s="5"/>
+      <c r="V19" s="1">
+        <v>3.3819444444444444E-2</v>
+      </c>
+      <c r="W19" s="9">
+        <f t="shared" si="2"/>
+        <v>0.82170978627671543</v>
+      </c>
+      <c r="X19" s="5"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
+      <c r="C20" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="D20">
-        <v>1107837304</v>
+        <v>1004189893</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4">
-        <v>3.8090277777777778E-2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="9">
+        <f>IF(F20/$G$2&lt;=1.001,F20/$G$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <f>IF(H20/$I$2&lt;=1.001,H20/$I$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <f>IF(J20/$K$2&lt;=1.001,J20/$K$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <f>IF(L20/$M$2&lt;=1.001,L20/$M$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="H20" s="4">
-        <v>3.8541666666666669E-2</v>
-      </c>
-      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
         <f t="shared" si="1"/>
-        <v>0.96886819901076515</v>
-      </c>
-      <c r="J20" s="4">
-        <v>3.3229166666666664E-2</v>
-      </c>
-      <c r="K20" s="9">
-        <f t="shared" si="2"/>
-        <v>0.92433998712169996</v>
-      </c>
-      <c r="L20" s="4">
-        <v>5.115740740740741E-3</v>
-      </c>
-      <c r="M20" s="9">
-        <f t="shared" si="3"/>
-        <v>0.22505091649694503</v>
-      </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+        <v>0</v>
+      </c>
       <c r="R20" s="5">
-        <f t="shared" si="4"/>
-        <v>0.14372106481481481</v>
-      </c>
-      <c r="S20" s="16">
-        <v>5</v>
-      </c>
+        <f>AVERAGE(G20,I20,K20,M20,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="14"/>
       <c r="T20" s="5" t="str" cm="1">
         <f t="array" ref="T20">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>--</v>
+      </c>
+      <c r="U20" s="5"/>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D21">
-        <v>1112041894</v>
+        <v>1062276579</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F21" s="4">
-        <v>3.7592592592592594E-2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="9">
+        <f>IF(F21/$G$2&lt;=1.001,F21/$G$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>3.9016203703703706E-2</v>
+      </c>
+      <c r="I21" s="9">
+        <f>IF(H21/$I$2&lt;=1.001,H21/$I$2,0.6)</f>
+        <v>0.98079720686645322</v>
+      </c>
+      <c r="J21" s="4">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K21" s="9">
+        <f>IF(J21/$K$2&lt;=1.001,J21/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L21" s="4">
+        <v>2.2650462962962963E-2</v>
+      </c>
+      <c r="M21" s="9">
+        <f>IF(L21/$M$2&lt;=1.001,L21/$M$2,0.6)</f>
+        <v>0.99643584521384931</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>7.8240740740740736E-3</v>
+      </c>
+      <c r="Q21" s="9">
+        <f t="shared" si="1"/>
+        <v>0.18108759710688452</v>
+      </c>
+      <c r="R21" s="5">
+        <f>AVERAGE(G21,I21,K21,M21,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>2.6322021722406648</v>
+      </c>
+      <c r="S21" s="14">
+        <v>8</v>
+      </c>
+      <c r="T21" s="5" t="e" cm="1">
+        <f t="array" ref="T21">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U21" s="5"/>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="5"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22">
+        <v>1058932076</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3.6388888888888887E-2</v>
+      </c>
+      <c r="G22" s="9">
+        <f>IF(F22/$G$2&lt;=1.001,F22/$G$2,0.6)</f>
         <v>0.6</v>
       </c>
-      <c r="H21" s="4">
-        <v>2.7164351851851853E-2</v>
-      </c>
-      <c r="I21" s="9">
+      <c r="H22" s="4">
+        <v>3.9282407407407405E-2</v>
+      </c>
+      <c r="I22" s="9">
+        <f>IF(H22/$I$2&lt;=1.001,H22/$I$2,0.6)</f>
+        <v>0.98748908932208301</v>
+      </c>
+      <c r="J22" s="4">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K22" s="9">
+        <f>IF(J22/$K$2&lt;=1.001,J22/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L22" s="4">
+        <v>2.2395833333333334E-2</v>
+      </c>
+      <c r="M22" s="9">
+        <f>IF(L22/$M$2&lt;=1.001,L22/$M$2,0.6)</f>
+        <v>0.98523421588594706</v>
+      </c>
+      <c r="N22" s="1">
+        <v>4.6608796296296294E-2</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99900769039940451</v>
+      </c>
+      <c r="P22" s="1">
+        <v>4.3206018518518519E-2</v>
+      </c>
+      <c r="Q22" s="9">
         <f t="shared" si="1"/>
-        <v>0.68286296188536511</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="5">
-        <f t="shared" si="4"/>
-        <v>8.0946180555555566E-2</v>
-      </c>
-      <c r="S21" s="16">
-        <v>5</v>
-      </c>
-      <c r="T21" s="5" t="str" cm="1">
-        <f t="array" ref="T21">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22">
-        <v>1105366146</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="4">
-        <v>3.8437499999999999E-2</v>
-      </c>
-      <c r="G22" s="9">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
-        <v>1.3148148148148148E-2</v>
-      </c>
-      <c r="K22" s="9">
-        <f t="shared" si="2"/>
-        <v>0.36574372182871867</v>
-      </c>
-      <c r="L22" s="4">
-        <v>7.6620370370370366E-3</v>
-      </c>
-      <c r="M22" s="9">
-        <f t="shared" si="3"/>
-        <v>0.33706720977596738</v>
-      </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+        <v>1</v>
+      </c>
       <c r="R22" s="5">
-        <f t="shared" si="4"/>
-        <v>7.405960648148148E-2</v>
-      </c>
-      <c r="S22" s="16">
-        <v>5</v>
+        <f>AVERAGE(G22,I22,K22,M22,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.6433774609242038</v>
+      </c>
+      <c r="S22" s="14">
+        <v>7</v>
       </c>
       <c r="T22" s="5" t="str" cm="1">
         <f t="array" ref="T22">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U22" s="5"/>
+      <c r="V22" s="1">
+        <v>3.6574074074074071E-2</v>
+      </c>
+      <c r="W22" s="9">
+        <f t="shared" si="2"/>
+        <v>0.88863892013498313</v>
+      </c>
+      <c r="X22" s="5"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D23">
-        <v>1005892878</v>
+        <v>1113362057</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F23" s="4">
-        <v>1.744212962962963E-2</v>
+        <v>1.7326388888888888E-2</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(F23/$G$2&lt;=1.001,F23/$G$2,0.6)</f>
+        <v>0.99336429993364284</v>
       </c>
       <c r="H23" s="4">
-        <v>3.9814814814814817E-2</v>
+        <v>3.9212962962962963E-2</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
+        <f>IF(H23/$I$2&lt;=1.001,H23/$I$2,0.6)</f>
+        <v>0.98574338085539703</v>
       </c>
       <c r="J23" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="2"/>
+        <f>IF(J23/$K$2&lt;=1.001,J23/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
       <c r="L23" s="4">
-        <v>1.8935185185185187E-2</v>
+        <v>2.2268518518518517E-2</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="3"/>
-        <v>0.83299389002036672</v>
-      </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+        <f>IF(L23/$M$2&lt;=1.001,L23/$M$2,0.6)</f>
+        <v>0.97963340122199594</v>
+      </c>
+      <c r="N23" s="1">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99727114859836263</v>
+      </c>
+      <c r="P23" s="1">
+        <v>3.2187500000000001E-2</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" si="1"/>
+        <v>0.7449772301098313</v>
+      </c>
       <c r="R23" s="5">
-        <f t="shared" si="4"/>
-        <v>0.14019097222222224</v>
-      </c>
-      <c r="S23" s="16">
-        <v>5</v>
+        <f>AVERAGE(G23,I23,K23,M23,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.7510928485173665</v>
+      </c>
+      <c r="S23" s="14">
+        <v>7</v>
       </c>
       <c r="T23" s="5" t="str" cm="1">
         <f t="array" ref="T23">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U23" s="5"/>
+      <c r="V23" s="1">
+        <v>3.8055555555555558E-2</v>
+      </c>
+      <c r="W23" s="9">
+        <f t="shared" si="2"/>
+        <v>0.92463442069741286</v>
+      </c>
+      <c r="X23" s="5"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D24">
-        <v>1107839506</v>
+        <v>1112389849</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F24" s="4">
-        <v>1.744212962962963E-2</v>
+        <v>4.3043981481481482E-2</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(F24/$G$2&lt;=1.001,F24/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H24" s="4">
-        <v>3.9270833333333331E-2</v>
+        <v>3.923611111111111E-2</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="1"/>
-        <v>0.98719813791096878</v>
+        <f>IF(H24/$I$2&lt;=1.001,H24/$I$2,0.6)</f>
+        <v>0.98632528367762573</v>
       </c>
       <c r="J24" s="4">
         <v>3.591435185185185E-2</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="2"/>
+        <f>IF(J24/$K$2&lt;=1.001,J24/$K$2,0.6)</f>
         <v>0.99903412749517073</v>
       </c>
       <c r="L24" s="4">
-        <v>1.9351851851851853E-2</v>
+        <v>2.2731481481481481E-2</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" si="3"/>
-        <v>0.85132382892057035</v>
-      </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+        <f>IF(L24/$M$2&lt;=1.001,L24/$M$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>4.659722222222222E-2</v>
+      </c>
+      <c r="O24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99875961299925564</v>
+      </c>
+      <c r="P24" s="1">
+        <v>4.189814814814815E-2</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" si="1"/>
+        <v>0.96972944012858298</v>
+      </c>
       <c r="R24" s="5">
-        <f t="shared" si="4"/>
-        <v>0.13997395833333334</v>
-      </c>
-      <c r="S24" s="16">
+        <f>AVERAGE(G24,I24,K24,M24,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.6282070535838633</v>
+      </c>
+      <c r="S24" s="14">
         <v>6</v>
       </c>
       <c r="T24" s="5" t="str" cm="1">
         <f t="array" ref="T24">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
         <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" s="5"/>
+      <c r="V24" s="1">
+        <v>3.7615740740740741E-2</v>
+      </c>
+      <c r="W24" s="9">
+        <f t="shared" si="2"/>
+        <v>0.91394825646794153</v>
+      </c>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D25">
-        <v>1112389849</v>
+        <v>1036925847</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F25" s="4">
-        <v>4.3043981481481482E-2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="9">
+        <f>IF(F25/$G$2&lt;=1.001,F25/$G$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>3.9178240740740743E-2</v>
+      </c>
+      <c r="I25" s="9">
+        <f>IF(H25/$I$2&lt;=1.001,H25/$I$2,0.6)</f>
+        <v>0.9848705266220541</v>
+      </c>
+      <c r="J25" s="4">
+        <v>3.5844907407407409E-2</v>
+      </c>
+      <c r="K25" s="9">
+        <f>IF(J25/$K$2&lt;=1.001,J25/$K$2,0.6)</f>
+        <v>0.99710238248551208</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <f>IF(L25/$M$2&lt;=1.001,L25/$M$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>3.7858796296296293E-2</v>
+      </c>
+      <c r="O25" s="9">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="H25" s="4">
-        <v>3.923611111111111E-2</v>
-      </c>
-      <c r="I25" s="9">
+        <v>0.81146117588687661</v>
+      </c>
+      <c r="P25" s="1">
+        <v>3.1886574074074074E-2</v>
+      </c>
+      <c r="Q25" s="9">
         <f t="shared" si="1"/>
-        <v>0.98632528367762573</v>
-      </c>
-      <c r="J25" s="4">
-        <v>3.591435185185185E-2</v>
-      </c>
-      <c r="K25" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99903412749517073</v>
-      </c>
-      <c r="L25" s="4">
-        <v>2.2731481481481481E-2</v>
-      </c>
-      <c r="M25" s="9">
-        <f t="shared" si="3"/>
+        <v>0.73801232252879723</v>
+      </c>
+      <c r="R25" s="5">
+        <f>AVERAGE(G25,I25,K25,M25,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>2.9428720062693667</v>
+      </c>
+      <c r="S25" s="14">
         <v>1</v>
-      </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="5">
-        <f t="shared" si="4"/>
-        <v>0.1761574074074074</v>
-      </c>
-      <c r="S25" s="16">
-        <v>6</v>
       </c>
       <c r="T25" s="5" t="str" cm="1">
         <f t="array" ref="T25">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U25" s="5"/>
+      <c r="V25" s="1">
+        <v>4.1157407407407406E-2</v>
+      </c>
+      <c r="W25" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D26">
-        <v>1076904274</v>
+        <v>1107837413</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F26" s="4">
-        <v>1.7430555555555557E-2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="9">
+        <f>IF(F26/$G$2&lt;=1.001,F26/$G$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3.7743055555555557E-2</v>
+      </c>
+      <c r="I26" s="9">
+        <f>IF(H26/$I$2&lt;=1.001,H26/$I$2,0.6)</f>
+        <v>0.94879255164387544</v>
+      </c>
+      <c r="J26" s="4">
+        <v>3.5925925925925924E-2</v>
+      </c>
+      <c r="K26" s="9">
+        <f>IF(J26/$K$2&lt;=1.001,J26/$K$2,0.6)</f>
+        <v>0.99935608499678041</v>
+      </c>
+      <c r="L26" s="4">
+        <v>2.0636574074074075E-2</v>
+      </c>
+      <c r="M26" s="9">
+        <f>IF(L26/$M$2&lt;=1.001,L26/$M$2,0.6)</f>
+        <v>0.90784114052953158</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
         <f t="shared" si="0"/>
-        <v>0.99933642999336436</v>
-      </c>
-      <c r="H26" s="4">
-        <v>3.9814814814814817E-2</v>
-      </c>
-      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>3.9016203703703706E-2</v>
+      </c>
+      <c r="Q26" s="9">
         <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
-      </c>
-      <c r="J26" s="4">
-        <v>3.5451388888888886E-2</v>
-      </c>
-      <c r="K26" s="9">
-        <f t="shared" si="2"/>
-        <v>0.98615582743077912</v>
-      </c>
-      <c r="L26" s="4">
-        <v>1.4166666666666666E-2</v>
-      </c>
-      <c r="M26" s="9">
-        <f t="shared" si="3"/>
-        <v>0.62321792260692466</v>
-      </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+        <v>0.90302705598714172</v>
+      </c>
       <c r="R26" s="5">
-        <f t="shared" si="4"/>
-        <v>0.13357928240740741</v>
-      </c>
-      <c r="S26" s="16">
-        <v>6</v>
+        <f>AVERAGE(G26,I26,K26,M26,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>3.1325140276311076</v>
+      </c>
+      <c r="S26" s="14">
+        <v>2</v>
       </c>
       <c r="T26" s="5" t="str" cm="1">
         <f t="array" ref="T26">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U26" s="5"/>
+      <c r="V26" s="1">
+        <v>3.8090277777777778E-2</v>
+      </c>
+      <c r="W26" s="9">
+        <f t="shared" si="2"/>
+        <v>0.92547806524184484</v>
+      </c>
+      <c r="X26" s="5"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>98</v>
+        <v>29</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="D27">
-        <v>1058932076</v>
+        <v>1234198199</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F27" s="4">
-        <v>3.6388888888888887E-2</v>
+        <v>1.7337962962962961E-2</v>
       </c>
       <c r="G27" s="9">
+        <f>IF(F27/$G$2&lt;=1.001,F27/$G$2,0.6)</f>
+        <v>0.99402786994027859</v>
+      </c>
+      <c r="H27" s="4">
+        <v>3.8796296296296294E-2</v>
+      </c>
+      <c r="I27" s="9">
+        <f>IF(H27/$I$2&lt;=1.001,H27/$I$2,0.6)</f>
+        <v>0.9752691300552806</v>
+      </c>
+      <c r="J27" s="4">
+        <v>2.2928240740740742E-2</v>
+      </c>
+      <c r="K27" s="9">
+        <f>IF(J27/$K$2&lt;=1.001,J27/$K$2,0.6)</f>
+        <v>0.63779781068898911</v>
+      </c>
+      <c r="L27" s="4">
+        <v>7.1296296296296299E-3</v>
+      </c>
+      <c r="M27" s="9">
+        <f>IF(L27/$M$2&lt;=1.001,L27/$M$2,0.6)</f>
+        <v>0.31364562118126277</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="H27" s="4">
-        <v>3.9282407407407405E-2</v>
-      </c>
-      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
         <f t="shared" si="1"/>
-        <v>0.98748908932208301</v>
-      </c>
-      <c r="J27" s="4">
-        <v>3.5960648148148151E-2</v>
-      </c>
-      <c r="K27" s="9">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
-      </c>
-      <c r="L27" s="4">
-        <v>2.2395833333333334E-2</v>
-      </c>
-      <c r="M27" s="9">
-        <f t="shared" si="3"/>
-        <v>0.98523421588594706</v>
-      </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+        <v>0</v>
+      </c>
       <c r="R27" s="5">
-        <f t="shared" si="4"/>
-        <v>0.16753472222222221</v>
-      </c>
-      <c r="S27" s="16">
-        <v>7</v>
-      </c>
+        <f>AVERAGE(G27,I27,K27,M27,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>2.433950359888176</v>
+      </c>
+      <c r="S27" s="14"/>
       <c r="T27" s="5" t="str" cm="1">
         <f t="array" ref="T27">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+        <v>--</v>
+      </c>
+      <c r="U27" s="5"/>
+      <c r="V27" s="1">
+        <v>3.8101851851851852E-2</v>
+      </c>
+      <c r="W27" s="9">
+        <f t="shared" si="2"/>
+        <v>0.92575928008998876</v>
+      </c>
+      <c r="X27" s="5"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D28">
-        <v>1113362057</v>
+        <v>1005892878</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F28" s="4">
-        <v>1.7326388888888888E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99336429993364284</v>
+        <f>IF(F28/$G$2&lt;=1.001,F28/$G$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="H28" s="4">
-        <v>3.9212962962962963E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="1"/>
-        <v>0.98574338085539703</v>
+        <f>IF(H28/$I$2&lt;=1.001,H28/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J28" s="4">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K28" s="9">
-        <f t="shared" si="2"/>
+        <f>IF(J28/$K$2&lt;=1.001,J28/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
       <c r="L28" s="4">
-        <v>2.2268518518518517E-2</v>
+        <v>1.8935185185185187E-2</v>
       </c>
       <c r="M28" s="9">
-        <f t="shared" si="3"/>
-        <v>0.97963340122199594</v>
-      </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+        <f>IF(L28/$M$2&lt;=1.001,L28/$M$2,0.6)</f>
+        <v>0.83299389002036672</v>
+      </c>
+      <c r="N28" s="1">
+        <v>4.5497685185185183E-2</v>
+      </c>
+      <c r="O28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97519225998511527</v>
+      </c>
+      <c r="P28" s="1">
+        <v>4.1145833333333333E-2</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" si="1"/>
+        <v>0.95231717117599779</v>
+      </c>
       <c r="R28" s="5">
-        <f t="shared" si="4"/>
-        <v>0.14346064814814816</v>
-      </c>
-      <c r="S28" s="16">
-        <v>7</v>
+        <f>AVERAGE(G28,I28,K28,M28,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.8014151107636938</v>
+      </c>
+      <c r="S28" s="14">
+        <v>5</v>
       </c>
       <c r="T28" s="5" t="str" cm="1">
         <f t="array" ref="T28">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U28" s="5"/>
+      <c r="V28" s="1">
+        <v>3.9305555555555559E-2</v>
+      </c>
+      <c r="W28" s="9">
+        <f t="shared" si="2"/>
+        <v>0.95500562429696301</v>
+      </c>
+      <c r="X28" s="5"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D29">
-        <v>1002886235</v>
+        <v>1104804719</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F29" s="4">
-        <v>1.7395833333333333E-2</v>
+        <v>3.4641203703703702E-2</v>
       </c>
       <c r="G29" s="9">
+        <f>IF(F29/$G$2&lt;=1.001,F29/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H29" s="4">
+        <v>3.9178240740740743E-2</v>
+      </c>
+      <c r="I29" s="9">
+        <f>IF(H29/$I$2&lt;=1.001,H29/$I$2,0.6)</f>
+        <v>0.9848705266220541</v>
+      </c>
+      <c r="J29" s="4">
+        <v>3.5856481481481482E-2</v>
+      </c>
+      <c r="K29" s="9">
+        <f>IF(J29/$K$2&lt;=1.001,J29/$K$2,0.6)</f>
+        <v>0.99742433998712177</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1.9652777777777779E-2</v>
+      </c>
+      <c r="M29" s="9">
+        <f>IF(L29/$M$2&lt;=1.001,L29/$M$2,0.6)</f>
+        <v>0.86456211812627304</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
         <f t="shared" si="0"/>
-        <v>0.99734571997345711</v>
-      </c>
-      <c r="H29" s="4">
-        <v>3.8217592592592595E-2</v>
-      </c>
-      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>3.9768518518518516E-2</v>
+      </c>
+      <c r="Q29" s="9">
         <f t="shared" si="1"/>
-        <v>0.9607215594995635</v>
-      </c>
-      <c r="J29" s="4">
-        <v>3.5960648148148151E-2</v>
-      </c>
-      <c r="K29" s="9">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
-      </c>
-      <c r="L29" s="4">
-        <v>2.2662037037037036E-2</v>
-      </c>
-      <c r="M29" s="9">
-        <f t="shared" si="3"/>
-        <v>0.9969450101832994</v>
-      </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+        <v>0.92043932493972669</v>
+      </c>
       <c r="R29" s="5">
-        <f t="shared" si="4"/>
-        <v>0.1427951388888889</v>
-      </c>
-      <c r="S29" s="16">
-        <v>7</v>
+        <f>AVERAGE(G29,I29,K29,M29,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>3.6394135913959795</v>
+      </c>
+      <c r="S29" s="14">
+        <v>4</v>
       </c>
       <c r="T29" s="5" t="str" cm="1">
         <f t="array" ref="T29">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U29" s="5"/>
+      <c r="V29" s="1">
+        <v>4.0914351851851855E-2</v>
+      </c>
+      <c r="W29" s="9">
+        <f t="shared" si="2"/>
+        <v>0.9940944881889765</v>
+      </c>
+      <c r="X29" s="5"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D30">
-        <v>1061688602</v>
+        <v>1005832925</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F30" s="4">
-        <v>1.7303240740740741E-2</v>
+        <v>1.7314814814814814E-2</v>
       </c>
       <c r="G30" s="9">
+        <f>IF(F30/$G$2&lt;=1.001,F30/$G$2,0.6)</f>
+        <v>0.9927007299270072</v>
+      </c>
+      <c r="H30" s="4">
+        <v>3.9814814814814817E-2</v>
+      </c>
+      <c r="I30" s="9">
+        <f>IF(H30/$I$2&lt;=1.001,H30/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
+      </c>
+      <c r="J30" s="4">
+        <v>3.5868055555555556E-2</v>
+      </c>
+      <c r="K30" s="9">
+        <f>IF(J30/$K$2&lt;=1.001,J30/$K$2,0.6)</f>
+        <v>0.99774629748873156</v>
+      </c>
+      <c r="L30" s="4">
+        <v>2.1909722222222223E-2</v>
+      </c>
+      <c r="M30" s="9">
+        <f>IF(L30/$M$2&lt;=1.001,L30/$M$2,0.6)</f>
+        <v>0.96384928716904283</v>
+      </c>
+      <c r="N30" s="1">
+        <v>4.6631944444444441E-2</v>
+      </c>
+      <c r="O30" s="9">
         <f t="shared" si="0"/>
-        <v>0.99203715992037156</v>
-      </c>
-      <c r="H30" s="4">
-        <v>3.9247685185185184E-2</v>
-      </c>
-      <c r="I30" s="9">
+        <v>0.99950384519970215</v>
+      </c>
+      <c r="P30" s="1">
+        <v>4.2488425925925923E-2</v>
+      </c>
+      <c r="Q30" s="9">
         <f t="shared" si="1"/>
-        <v>0.98661623508874008</v>
-      </c>
-      <c r="J30" s="4">
-        <v>3.5891203703703703E-2</v>
-      </c>
-      <c r="K30" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99839021249195115</v>
-      </c>
-      <c r="L30" s="4">
-        <v>2.162037037037037E-2</v>
-      </c>
-      <c r="M30" s="9">
-        <f t="shared" si="3"/>
-        <v>0.95112016293279023</v>
-      </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
+        <v>0.98339137422984191</v>
+      </c>
       <c r="R30" s="5">
-        <f t="shared" si="4"/>
-        <v>0.142578125</v>
-      </c>
-      <c r="S30" s="16"/>
+        <f>AVERAGE(G30,I30,K30,M30,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.9483869902063908</v>
+      </c>
+      <c r="S30" s="14">
+        <v>3</v>
+      </c>
       <c r="T30" s="5" t="str" cm="1">
         <f t="array" ref="T30">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U30" s="5"/>
+      <c r="V30" s="1">
+        <v>3.8379629629629632E-2</v>
+      </c>
+      <c r="W30" s="9">
+        <f t="shared" si="2"/>
+        <v>0.93250843644544434</v>
+      </c>
+      <c r="X30" s="5"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>92</v>
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
       </c>
       <c r="D31">
-        <v>1193276119</v>
+        <v>1006343564</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F31" s="4">
-        <v>1.7349537037037038E-2</v>
+        <v>1.7337962962962961E-2</v>
       </c>
       <c r="G31" s="9">
+        <f>IF(F31/$G$2&lt;=1.001,F31/$G$2,0.6)</f>
+        <v>0.99402786994027859</v>
+      </c>
+      <c r="H31" s="4">
+        <v>3.9814814814814817E-2</v>
+      </c>
+      <c r="I31" s="9">
+        <f>IF(H31/$I$2&lt;=1.001,H31/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
+      </c>
+      <c r="J31" s="4">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K31" s="9">
+        <f>IF(J31/$K$2&lt;=1.001,J31/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L31" s="10">
+        <v>2.2731481481481481E-2</v>
+      </c>
+      <c r="M31" s="11">
+        <f>IF(L31/$M$2&lt;=1.001,L31/$M$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2.9768518518518517E-2</v>
+      </c>
+      <c r="O31" s="9">
         <f t="shared" si="0"/>
-        <v>0.99469143994691445</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
-      <c r="I31" s="9">
+        <v>0.63805507318283294</v>
+      </c>
+      <c r="P31" s="1">
+        <v>4.1909722222222223E-2</v>
+      </c>
+      <c r="Q31" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0</v>
-      </c>
-      <c r="K31" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="4">
-        <v>0</v>
-      </c>
-      <c r="M31" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
+        <v>0.96999732118939197</v>
+      </c>
       <c r="R31" s="5">
-        <f t="shared" si="4"/>
-        <v>2.1686921296296298E-2</v>
-      </c>
-      <c r="S31" s="16"/>
+        <f>AVERAGE(G31,I31,K31,M31,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.6693958967062139</v>
+      </c>
+      <c r="S31" s="14">
+        <v>3</v>
+      </c>
       <c r="T31" s="5" t="str" cm="1">
         <f t="array" ref="T31">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U31" s="5"/>
+      <c r="V31" s="1">
+        <v>3.8124999999999999E-2</v>
+      </c>
+      <c r="W31" s="9">
+        <f t="shared" si="2"/>
+        <v>0.9263217097862767</v>
+      </c>
+      <c r="X31" s="5"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>23</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>112</v>
+        <v>30</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="D32">
-        <v>1143992171</v>
-      </c>
-      <c r="E32" t="s">
-        <v>40</v>
+        <v>73265790</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="F32" s="4">
-        <v>3.4791666666666665E-2</v>
+        <v>4.3611111111111114E-2</v>
       </c>
       <c r="G32" s="9">
+        <f>IF(F32/$G$2&lt;=1.001,F32/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H32" s="4">
+        <v>3.9641203703703706E-2</v>
+      </c>
+      <c r="I32" s="9">
+        <f>IF(H32/$I$2&lt;=1.001,H32/$I$2,0.6)</f>
+        <v>0.99650858306662782</v>
+      </c>
+      <c r="J32" s="4">
+        <v>3.5879629629629629E-2</v>
+      </c>
+      <c r="K32" s="9">
+        <f>IF(J32/$K$2&lt;=1.001,J32/$K$2,0.6)</f>
+        <v>0.99806825499034135</v>
+      </c>
+      <c r="L32" s="4">
+        <v>2.1238425925925924E-2</v>
+      </c>
+      <c r="M32" s="9">
+        <f>IF(L32/$M$2&lt;=1.001,L32/$M$2,0.6)</f>
+        <v>0.93431771894093685</v>
+      </c>
+      <c r="N32" s="1">
+        <v>4.659722222222222E-2</v>
+      </c>
+      <c r="O32" s="9">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="H32" s="4">
-        <v>7.1990740740740739E-3</v>
-      </c>
-      <c r="I32" s="9">
+        <v>0.99875961299925564</v>
+      </c>
+      <c r="P32" s="1">
+        <v>4.1886574074074076E-2</v>
+      </c>
+      <c r="Q32" s="9">
         <f t="shared" si="1"/>
-        <v>0.1809717777131219</v>
-      </c>
-      <c r="J32" s="4">
-        <v>3.5960648148148151E-2</v>
-      </c>
-      <c r="K32" s="9">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
-      </c>
-      <c r="L32" s="4">
-        <v>1.9398148148148147E-2</v>
-      </c>
-      <c r="M32" s="9">
-        <f t="shared" si="3"/>
-        <v>0.85336048879837068</v>
-      </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+        <v>0.96946155906777398</v>
+      </c>
       <c r="R32" s="5">
-        <f t="shared" si="4"/>
-        <v>0.1216869212962963</v>
-      </c>
-      <c r="S32" s="16"/>
+        <f>AVERAGE(G32,I32,K32,M32,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.5809297742207793</v>
+      </c>
+      <c r="S32" s="14">
+        <v>3</v>
+      </c>
       <c r="T32" s="5" t="str" cm="1">
         <f t="array" ref="T32">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U32" s="5"/>
+      <c r="V32" s="1">
+        <v>3.8425925925925926E-2</v>
+      </c>
+      <c r="W32" s="9">
+        <f t="shared" si="2"/>
+        <v>0.93363329583802024</v>
+      </c>
+      <c r="X32" s="5"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
       </c>
       <c r="D33">
-        <v>1004189893</v>
+        <v>1004217163</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F33" s="4">
-        <v>0</v>
+        <v>4.1458333333333333E-2</v>
       </c>
       <c r="G33" s="9">
+        <f>IF(F33/$G$2&lt;=1.001,F33/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H33" s="4">
+        <v>3.9814814814814817E-2</v>
+      </c>
+      <c r="I33" s="9">
+        <f>IF(H33/$I$2&lt;=1.001,H33/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
+      </c>
+      <c r="J33" s="4">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K33" s="9">
+        <f>IF(J33/$K$2&lt;=1.001,J33/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L33" s="4">
+        <v>2.0798611111111111E-2</v>
+      </c>
+      <c r="M33" s="9">
+        <f>IF(L33/$M$2&lt;=1.001,L33/$M$2,0.6)</f>
+        <v>0.91496945010183306</v>
+      </c>
+      <c r="N33" s="1">
+        <v>4.2013888888888892E-2</v>
+      </c>
+      <c r="O33" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0</v>
-      </c>
-      <c r="I33" s="9">
+        <v>0.90052096254031255</v>
+      </c>
+      <c r="P33" s="1">
+        <v>3.8773148148148147E-2</v>
+      </c>
+      <c r="Q33" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="4">
-        <v>0</v>
-      </c>
-      <c r="K33" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="4">
-        <v>0</v>
-      </c>
-      <c r="M33" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
+        <v>0.89740155371015262</v>
+      </c>
       <c r="R33" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="16"/>
+        <f>AVERAGE(G33,I33,K33,M33,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.4284056484060423</v>
+      </c>
+      <c r="S33" s="14">
+        <v>4</v>
+      </c>
       <c r="T33" s="5" t="str" cm="1">
         <f t="array" ref="T33">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U33" s="5"/>
+      <c r="V33" s="1">
+        <v>4.1076388888888891E-2</v>
+      </c>
+      <c r="W33" s="9">
+        <f t="shared" si="2"/>
+        <v>0.99803149606299224</v>
+      </c>
+      <c r="X33" s="5"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" t="s">
-        <v>122</v>
+        <v>18</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="D34">
-        <v>1062276579</v>
+        <v>1094883894</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
       </c>
       <c r="G34" s="9">
+        <f>IF(F34/$G$2&lt;=1.001,F34/$G$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>3.7743055555555557E-2</v>
+      </c>
+      <c r="I34" s="9">
+        <f>IF(H34/$I$2&lt;=1.001,H34/$I$2,0.6)</f>
+        <v>0.94879255164387544</v>
+      </c>
+      <c r="J34" s="4">
+        <v>2.8715277777777777E-2</v>
+      </c>
+      <c r="K34" s="9">
+        <f>IF(J34/$K$2&lt;=1.001,J34/$K$2,0.6)</f>
+        <v>0.79877656149388288</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1.9212962962962963E-2</v>
+      </c>
+      <c r="M34" s="9">
+        <f>IF(L34/$M$2&lt;=1.001,L34/$M$2,0.6)</f>
+        <v>0.84521384928716903</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H34" s="4">
-        <v>3.9016203703703706E-2</v>
-      </c>
-      <c r="I34" s="9">
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
         <f t="shared" si="1"/>
-        <v>0.98079720686645322</v>
-      </c>
-      <c r="J34" s="4">
-        <v>3.5960648148148151E-2</v>
-      </c>
-      <c r="K34" s="9">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
-      </c>
-      <c r="L34" s="4">
-        <v>2.2650462962962963E-2</v>
-      </c>
-      <c r="M34" s="9">
-        <f t="shared" si="3"/>
-        <v>0.99643584521384931</v>
-      </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
+        <v>0</v>
+      </c>
       <c r="R34" s="5">
-        <f t="shared" si="4"/>
-        <v>0.12203414351851852</v>
-      </c>
-      <c r="S34" s="16"/>
+        <f>AVERAGE(G34,I34,K34,M34,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>2.1606524686874393</v>
+      </c>
+      <c r="S34" s="14"/>
       <c r="T34" s="5" t="str" cm="1">
         <f t="array" ref="T34">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
         <v>--</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34" s="5"/>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="5"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>29</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>117</v>
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
       </c>
       <c r="D35">
-        <v>1234198199</v>
+        <v>1076904274</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F35" s="4">
-        <v>1.7337962962962961E-2</v>
+        <v>1.7430555555555557E-2</v>
       </c>
       <c r="G35" s="9">
+        <f>IF(F35/$G$2&lt;=1.001,F35/$G$2,0.6)</f>
+        <v>0.99933642999336436</v>
+      </c>
+      <c r="H35" s="4">
+        <v>3.9814814814814817E-2</v>
+      </c>
+      <c r="I35" s="9">
+        <f>IF(H35/$I$2&lt;=1.001,H35/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
+      </c>
+      <c r="J35" s="4">
+        <v>3.5451388888888886E-2</v>
+      </c>
+      <c r="K35" s="9">
+        <f>IF(J35/$K$2&lt;=1.001,J35/$K$2,0.6)</f>
+        <v>0.98615582743077912</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1.4166666666666666E-2</v>
+      </c>
+      <c r="M35" s="9">
+        <f>IF(L35/$M$2&lt;=1.001,L35/$M$2,0.6)</f>
+        <v>0.62321792260692466</v>
+      </c>
+      <c r="N35" s="1">
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="O35" s="9">
         <f t="shared" si="0"/>
-        <v>0.99402786994027859</v>
-      </c>
-      <c r="H35" s="4">
-        <v>3.8796296296296294E-2</v>
-      </c>
-      <c r="I35" s="9">
+        <v>1.0002480774001488</v>
+      </c>
+      <c r="P35" s="1">
+        <v>4.3159722222222224E-2</v>
+      </c>
+      <c r="Q35" s="9">
         <f t="shared" si="1"/>
-        <v>0.9752691300552806</v>
-      </c>
-      <c r="J35" s="4">
-        <v>2.2928240740740742E-2</v>
-      </c>
-      <c r="K35" s="9">
-        <f t="shared" si="2"/>
-        <v>0.63779781068898911</v>
-      </c>
-      <c r="L35" s="4">
-        <v>7.1296296296296299E-3</v>
-      </c>
-      <c r="M35" s="9">
-        <f t="shared" si="3"/>
-        <v>0.31364562118126277</v>
-      </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
+        <v>0.99892847575676402</v>
+      </c>
       <c r="R35" s="5">
-        <f t="shared" si="4"/>
-        <v>0.10774016203703704</v>
-      </c>
-      <c r="S35" s="16"/>
+        <f>AVERAGE(G35,I35,K35,M35,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.6739663228511033</v>
+      </c>
+      <c r="S35" s="14">
+        <v>6</v>
+      </c>
       <c r="T35" s="5" t="str" cm="1">
         <f t="array" ref="T35">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U35" s="5"/>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="5"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>18</v>
-      </c>
-      <c r="B36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>102</v>
-      </c>
       <c r="D36">
-        <v>1094883894</v>
+        <v>1002886235</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F36" s="4">
-        <v>0</v>
+        <v>1.7395833333333333E-2</v>
       </c>
       <c r="G36" s="9">
+        <f>IF(F36/$G$2&lt;=1.001,F36/$G$2,0.6)</f>
+        <v>0.99734571997345711</v>
+      </c>
+      <c r="H36" s="4">
+        <v>3.8217592592592595E-2</v>
+      </c>
+      <c r="I36" s="9">
+        <f>IF(H36/$I$2&lt;=1.001,H36/$I$2,0.6)</f>
+        <v>0.9607215594995635</v>
+      </c>
+      <c r="J36" s="4">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K36" s="9">
+        <f>IF(J36/$K$2&lt;=1.001,J36/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L36" s="4">
+        <v>2.2662037037037036E-2</v>
+      </c>
+      <c r="M36" s="9">
+        <f>IF(L36/$M$2&lt;=1.001,L36/$M$2,0.6)</f>
+        <v>0.9969450101832994</v>
+      </c>
+      <c r="N36" s="1">
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="O36" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
-        <v>3.7743055555555557E-2</v>
-      </c>
-      <c r="I36" s="9">
+        <v>1.0002480774001488</v>
+      </c>
+      <c r="P36" s="1">
+        <v>4.3206018518518519E-2</v>
+      </c>
+      <c r="Q36" s="9">
         <f t="shared" si="1"/>
-        <v>0.94879255164387544</v>
-      </c>
-      <c r="J36" s="4">
-        <v>2.8715277777777777E-2</v>
-      </c>
-      <c r="K36" s="9">
-        <f t="shared" si="2"/>
-        <v>0.79877656149388288</v>
-      </c>
-      <c r="L36" s="4">
-        <v>1.9212962962962963E-2</v>
-      </c>
-      <c r="M36" s="9">
-        <f t="shared" si="3"/>
-        <v>0.84521384928716903</v>
-      </c>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+        <v>1</v>
+      </c>
       <c r="R36" s="5">
-        <f t="shared" si="4"/>
-        <v>0.10708912037037038</v>
-      </c>
-      <c r="S36" s="16"/>
+        <f>AVERAGE(G36,I36,K36,M36,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.9629852704650652</v>
+      </c>
+      <c r="S36" s="14">
+        <v>7</v>
+      </c>
       <c r="T36" s="5" t="str" cm="1">
         <f t="array" ref="T36">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U36" s="5"/>
+      <c r="V36" s="1">
+        <v>4.1157407407407406E-2</v>
+      </c>
+      <c r="W36" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X36" s="5"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1" xr:uid="{6ABD49C4-C1FA-45A2-AD96-9D7E301F893E}"/>
+    <hyperlink ref="E32" r:id="rId1" xr:uid="{6ABD49C4-C1FA-45A2-AD96-9D7E301F893E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3742,44 +4594,44 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="75.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3789,35 +4641,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356CA008-BCEA-4A99-A79F-FCC884D6E8C1}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E34"/>
+      <selection activeCell="B2" sqref="B2:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>123</v>
-      </c>
       <c r="B2" s="1">
-        <v>1.7303240740740741E-2</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3825,10 +4678,13 @@
         <v>66</v>
       </c>
       <c r="B3" s="1">
-        <v>1.7349537037037038E-2</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>46</v>
+        <v>4.3206018518518519E-2</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3836,10 +4692,13 @@
         <v>67</v>
       </c>
       <c r="B4" s="1">
-        <v>1.744212962962963E-2</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>44</v>
+        <v>3.8391203703703705E-2</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3847,298 +4706,411 @@
         <v>68</v>
       </c>
       <c r="B5" s="1">
-        <v>1.6481481481481482E-2</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>8</v>
+        <v>3.9861111111111111E-2</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>69</v>
-      </c>
       <c r="B6" s="1">
-        <v>1.7349537037037038E-2</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
       <c r="B7" s="1">
-        <v>3.4791666666666665E-2</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1">
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>10</v>
+        <v>4.1863425925925929E-2</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1">
-        <v>5.2083333333333333E-4</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>14</v>
+        <v>4.1805555555555554E-2</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1">
-        <v>4.3611111111111114E-2</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>26</v>
+        <v>4.3182870370370371E-2</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B11" s="1">
-        <v>1.7314814814814814E-2</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>36</v>
+        <v>3.9386574074074074E-2</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="B12" s="1">
-        <v>3.8090277777777778E-2</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>32</v>
+        <v>3.3252314814814818E-2</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1">
-        <v>1.7337962962962961E-2</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>58</v>
+        <v>3.9687500000000001E-2</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B14" s="1">
-        <v>3.7592592592592594E-2</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>56</v>
+        <v>4.2858796296296298E-2</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="B15" s="1">
-        <v>1.744212962962963E-2</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>50</v>
+        <v>4.3206018518518519E-2</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4.3206018518518519E-2</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4.3206018518518519E-2</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7.8240740740740736E-3</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4.3206018518518519E-2</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="1">
-        <v>3.8437499999999999E-2</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B21" s="1">
+        <v>3.2187500000000001E-2</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="1">
-        <v>3.6388888888888887E-2</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B22" s="1">
+        <v>4.189814814814815E-2</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.1886574074074074E-2</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3.9016203703703706E-2</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="1">
+        <v>4.3206018518518519E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="1">
-        <v>1.7326388888888888E-2</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B26" s="1">
+        <v>4.1145833333333333E-2</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="1">
-        <v>4.3043981481481482E-2</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B27" s="1">
+        <v>3.9768518518518516E-2</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="1">
-        <v>1.7337962962962961E-2</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.744212962962963E-2</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B28" s="1">
+        <v>4.2488425925925923E-2</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4.1909722222222223E-2</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4.1886574074074076E-2</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="1">
-        <v>3.4641203703703702E-2</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B31" s="1">
+        <v>3.8773148148148147E-2</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="1">
-        <v>1.7314814814814814E-2</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B33" s="1">
+        <v>4.3159722222222224E-2</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="1">
-        <v>1.744212962962963E-2</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1.7337962962962961E-2</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="1">
-        <v>4.1458333333333333E-2</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1.7430555555555557E-2</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1.7395833333333333E-2</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="E29" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="E30" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="E31" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="E32" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="E33" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="10" t="s">
-        <v>63</v>
+      <c r="B34" s="1">
+        <v>4.3206018518518519E-2</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4149,4 +5121,525 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1633F340-5B77-4BB3-B5D5-C1FFFC050A5C}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="20">
+        <v>8</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="20">
+        <v>2</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="21">
+        <v>2</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="21">
+        <v>3</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="21">
+        <v>4</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="20">
+        <v>5</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="21">
+        <v>4</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="20">
+        <v>6</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="21">
+        <v>5</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="21">
+        <v>1</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="20">
+        <v>4</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="20">
+        <v>5</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="21">
+        <v>8</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="21">
+        <v>7</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="20">
+        <v>7</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="21">
+        <v>6</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="20">
+        <v>2</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="21">
+        <v>5</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="21">
+        <v>4</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="20">
+        <v>3</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="20">
+        <v>3</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="21">
+        <v>3</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="20">
+        <v>4</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="20">
+        <v>6</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="21">
+        <v>7</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="25"/>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="20"/>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="20"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E34" xr:uid="{1633F340-5B77-4BB3-B5D5-C1FFFC050A5C}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E29">
+      <sortCondition ref="C1:C34"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{830FA8C8-0B69-41E9-93D8-38F9CCECCAE8}"/>
+    <hyperlink ref="E5" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{E29BB367-97C0-4920-BBFA-46523E5A3E30}"/>
+    <hyperlink ref="E20" r:id="rId3" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{7785FB78-9B79-420D-B2C5-45F3130124D8}"/>
+    <hyperlink ref="E13" r:id="rId4" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{BCA06653-7E9F-465A-BF10-3FCACAD5091A}"/>
+    <hyperlink ref="E4" r:id="rId5" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{2CD096BF-8F98-4306-82BC-1E0A79E8CDF3}"/>
+    <hyperlink ref="E6" r:id="rId6" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYnFW6Vai6VFvpeEtI7cf6IBl-Xd3lhGCeVy-7E65bPiAg?e=gZymTU" xr:uid="{0676F713-7C8C-4D63-BA65-876794B63B2E}"/>
+    <hyperlink ref="E21" r:id="rId7" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{CFD9CE00-7A03-45DE-979B-82ECDC2C07A4}"/>
+    <hyperlink ref="E7" r:id="rId8" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{0DD50A91-E37A-4AE8-8605-C320C26EA1A9}"/>
+    <hyperlink ref="E24" r:id="rId9" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{1D4B919D-1CC1-4DDD-AC80-A2B3BE53CEA9}"/>
+    <hyperlink ref="E26" r:id="rId10" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{DCF8380B-DCC4-4BA9-9B2F-1E06B6F8F194}"/>
+    <hyperlink ref="E25" r:id="rId11" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{2D02EFA2-9768-4B4E-B49F-FC8A651D7785}"/>
+    <hyperlink ref="E8" r:id="rId12" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYnFW6Vai6VFvpeEtI7cf6IBl-Xd3lhGCeVy-7E65bPiAg?e=gZymTU" xr:uid="{2DDE7F74-FC38-4035-9766-38E9FFB4D90D}"/>
+    <hyperlink ref="E14" r:id="rId13" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{DBB9DEFC-1403-404C-871C-E47EAA5E9BBF}"/>
+    <hyperlink ref="E23" r:id="rId14" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{2990DD93-5F38-4F9A-B509-EE5C9D99202D}"/>
+    <hyperlink ref="E27" r:id="rId15" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{45AF076F-A222-4B0A-8142-08496153568B}"/>
+    <hyperlink ref="E10" r:id="rId16" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{3247383A-8BEE-43CE-90D5-532FDCB8A4B7}"/>
+    <hyperlink ref="E9" r:id="rId17" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{8C2C9EDE-3148-4C5A-966D-4B8B28D9F830}"/>
+    <hyperlink ref="E12" r:id="rId18" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYnFW6Vai6VFvpeEtI7cf6IBl-Xd3lhGCeVy-7E65bPiAg?e=gZymTU" xr:uid="{09D17668-862C-42B9-9A72-00AE0960A28A}"/>
+    <hyperlink ref="E15" r:id="rId19" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{93C2A2DE-01BD-4753-8B41-F8FC4AE0E537}"/>
+    <hyperlink ref="E22" r:id="rId20" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{CBD8B369-C704-4BC4-AD50-D3DA8608066A}"/>
+    <hyperlink ref="E11" r:id="rId21" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{9569A324-BB9D-4C20-A17A-E2290D83A870}"/>
+    <hyperlink ref="E19" r:id="rId22" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{BF686717-F8BC-49EF-9565-EE1546BEE1D5}"/>
+    <hyperlink ref="E28" r:id="rId23" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYN7zW8Sc7ZMg-EpBYNO4asBxd6gaN2WatTXVv4JJLUmMg?e=ntlGW3" xr:uid="{2AB26690-32CD-4FC6-B190-89C353D6DEFF}"/>
+    <hyperlink ref="E17" r:id="rId24" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EYnFW6Vai6VFvpeEtI7cf6IBl-Xd3lhGCeVy-7E65bPiAg?e=gZymTU" xr:uid="{E7A35ABE-B51A-4DC0-9577-04D2CE83FEED}"/>
+    <hyperlink ref="E18" r:id="rId25" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{9CA613C9-C5F8-44B3-9FFF-C1BEE176D8DC}"/>
+    <hyperlink ref="E29" r:id="rId26" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{5EC5C912-1012-4FB8-9761-129950FC98AE}"/>
+    <hyperlink ref="E2" r:id="rId27" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EUuR8OS5_ypLv55gMNbs_VEB0YK9DTeBAKx0lpeZmGIeJw?e=8HgIh5" xr:uid="{088933A8-E656-4925-961C-BD059F85C264}"/>
+    <hyperlink ref="E16" r:id="rId28" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EcZ8r75bpS5MpBJfTFFEy-gBVhWrdbBe601C0Z8Go9e_KQ?e=ms2D9T" xr:uid="{D33719F4-06EF-49EE-8A31-1C7B854B0ECE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40624F42-E1B3-4BAE-ADC2-7C6DA6B6CA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765FF968-1FC9-486B-A19A-919561C4D341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="202">
   <si>
     <t>Num</t>
   </si>
@@ -638,13 +638,40 @@
     <t>%Conexión6</t>
   </si>
   <si>
-    <t>1er Corte</t>
-  </si>
-  <si>
     <t>T.Conexión7</t>
   </si>
   <si>
     <t>JULIANA VIVAS RODRIGUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceptos fundamentales (Semana 1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operaciones sobre piezas (Semana 2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escaneo de partes anatómicas (Semana 6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operaciones básicas para Modelado de Superficies 
+(Semana 3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelado avanzado y reparación de Superficies 
+(Semana 4) </t>
+  </si>
+  <si>
+    <t>Nota 1er Corte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelado a partir de datos de scanner 
+(Semana 5) </t>
+  </si>
+  <si>
+    <t>Promedio tareas: 70%</t>
+  </si>
+  <si>
+    <t>Asistencia: 30%</t>
   </si>
 </sst>
 </file>
@@ -1204,12 +1231,9 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1243,14 +1267,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
@@ -1259,11 +1283,28 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1310,7 +1351,58 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="28">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1333,30 +1425,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1393,9 +1461,6 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1410,52 +1475,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:X36" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A3:X36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:X36">
-    <sortCondition ref="C3:C36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:AD36" totalsRowShown="0" headerRowDxfId="0" dataDxfId="27">
+  <autoFilter ref="A3:AD36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AD36">
+    <sortCondition ref="B3:B36"/>
   </sortState>
-  <tableColumns count="24">
+  <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{2951ACD3-7E7C-4B15-8969-BBEC77220F09}" name="Num"/>
     <tableColumn id="2" xr3:uid="{41C291F5-DA77-4B55-A49C-CDE28AB05F1C}" name="Apellidos"/>
     <tableColumn id="3" xr3:uid="{4EF9A0E0-8B64-4D77-BF58-1466EBFC70F8}" name="Nombres"/>
-    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="26"/>
     <tableColumn id="5" xr3:uid="{E5E637F3-98DE-4C48-8975-E4FF30179C84}" name="email"/>
-    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="17">
+    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="24">
       <calculatedColumnFormula>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión2" dataDxfId="15">
+    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión2" dataDxfId="22">
       <calculatedColumnFormula>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión3" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión3" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión3" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión3" dataDxfId="20">
       <calculatedColumnFormula>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión4" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión4" dataDxfId="8">
+    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión4" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión4" dataDxfId="18">
       <calculatedColumnFormula>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión5" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión5" dataDxfId="3">
+    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión5" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión5" dataDxfId="16">
       <calculatedColumnFormula>IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión6" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión6" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión6" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión6" dataDxfId="14">
       <calculatedColumnFormula>IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{5430F0E6-F861-44B2-B1CA-6E2A24842801}" name="Asistencia" dataDxfId="0">
+    <tableColumn id="21" xr3:uid="{5430F0E6-F861-44B2-B1CA-6E2A24842801}" name="Asistencia" dataDxfId="13">
       <calculatedColumnFormula>AVERAGE(G4,I4,K4,M4,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{5E18873E-0421-4811-A7ED-EFE7A5B09CB1}" name="Grupo" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Gesto Asignado" dataDxfId="10">
+    <tableColumn id="22" xr3:uid="{5E18873E-0421-4811-A7ED-EFE7A5B09CB1}" name="Grupo" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Gesto Asignado" dataDxfId="8">
       <calculatedColumnFormula array="1">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{D2AC9EBA-9E21-4D91-B98D-BEC9F52C6380}" name="1er Corte" dataDxfId="7"/>
-    <tableColumn id="23" xr3:uid="{85803527-97A7-4D57-A5D2-AF49B49DFBB6}" name="T.Conexión7" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{3C385566-1188-4AA7-B618-44B1F28F2C3E}" name="%Conexión7" dataDxfId="5">
-      <calculatedColumnFormula>IF(V4/$W$2&lt;=1.01,V4/$W$2,0.6)</calculatedColumnFormula>
+    <tableColumn id="30" xr3:uid="{9680D2F4-FF61-42C8-B8B8-A6D565F1061F}" name="Conceptos fundamentales (Semana 1) " dataDxfId="7"/>
+    <tableColumn id="29" xr3:uid="{2C8549F9-6C7C-4C18-8BD8-913F1238E3A1}" name="Operaciones sobre piezas (Semana 2) " dataDxfId="6"/>
+    <tableColumn id="28" xr3:uid="{01B7F4FF-718E-4142-B28F-3C5C6E213A9D}" name="Operaciones básicas para Modelado de Superficies _x000a_(Semana 3) " dataDxfId="5"/>
+    <tableColumn id="27" xr3:uid="{FB3D7617-43A2-4406-8A1B-342CC431D360}" name="Modelado avanzado y reparación de Superficies _x000a_(Semana 4) " dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{15CC947B-1D11-40C4-BDF3-E97BFC12F776}" name="Modelado a partir de datos de scanner _x000a_(Semana 5) " dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{7ECFE038-AA59-4517-90E9-2B3566EA5DBF}" name="Escaneo de partes anatómicas (Semana 6) " dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{D2AC9EBA-9E21-4D91-B98D-BEC9F52C6380}" name="Nota 1er Corte" dataDxfId="1">
+      <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{85803527-97A7-4D57-A5D2-AF49B49DFBB6}" name="T.Conexión7" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{3C385566-1188-4AA7-B618-44B1F28F2C3E}" name="%Conexión7" dataDxfId="10">
+      <calculatedColumnFormula>IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="DICOM craneal" dataDxfId="9"/>
   </tableColumns>
@@ -1780,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD2CE0-6169-477F-B8E1-2987D9E7C726}">
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,2785 +1871,3509 @@
     <col min="12" max="14" width="13.85546875" customWidth="1"/>
     <col min="15" max="15" width="16.85546875" customWidth="1"/>
     <col min="16" max="18" width="18" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="74.7109375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="74.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" style="27" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" style="27" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="2" customWidth="1"/>
+    <col min="28" max="29" width="16.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F1" s="6" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="F1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="6">
         <v>45867</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="6">
         <v>45874</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K1" s="6">
         <v>45881</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="7">
+      <c r="M1" s="6">
         <v>45888</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="7">
+      <c r="O1" s="6">
         <v>45895</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Q1" s="7">
+      <c r="Q1" s="6">
         <v>45902</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="V1" s="6" t="s">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="AA1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W1" s="7">
+      <c r="AC1" s="6">
         <v>45902</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F2" s="6" t="s">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="F2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>1.744212962962963E-2</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>3.9780092592592596E-2</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>3.5949074074074071E-2</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>2.2731481481481481E-2</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>133</v>
       </c>
       <c r="O2" s="1">
         <v>4.6655092592592595E-2</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>133</v>
       </c>
       <c r="Q2" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="V2" s="6" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="AA2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="W2" s="1">
+      <c r="AC2" s="1">
         <v>4.1157407407407406E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:30" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="X3" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y3" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z3" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA3" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB3" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="W3" s="3" t="s">
+      <c r="AC3" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="AD3" s="32" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D4">
-        <v>1061688602</v>
+        <v>1005785665</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1.7303240740740741E-2</v>
-      </c>
-      <c r="G4" s="9">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
         <f>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
-        <v>0.99203715992037156</v>
-      </c>
-      <c r="H4" s="4">
-        <v>3.9247685185185184E-2</v>
-      </c>
-      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3.9085648148148147E-2</v>
+      </c>
+      <c r="I4" s="8">
         <f>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
-        <v>0.98661623508874008</v>
-      </c>
-      <c r="J4" s="4">
-        <v>3.5891203703703703E-2</v>
-      </c>
-      <c r="K4" s="9">
+        <v>0.9825429153331392</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K4" s="8">
         <f>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
-        <v>0.99839021249195115</v>
-      </c>
-      <c r="L4" s="4">
-        <v>2.162037037037037E-2</v>
-      </c>
-      <c r="M4" s="9">
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2.3148148148148149E-4</v>
+      </c>
+      <c r="M4" s="8">
         <f>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
-        <v>0.95112016293279023</v>
+        <v>1.0183299389002037E-2</v>
       </c>
       <c r="N4" s="1">
-        <v>4.6122685185185183E-2</v>
-      </c>
-      <c r="O4" s="9">
-        <f t="shared" ref="O4:Q36" si="0">IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</f>
-        <v>0.98858843959315301</v>
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="O4" s="8">
+        <f>IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</f>
+        <v>0.99727114859836263</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="9">
-        <f t="shared" ref="Q4:Q36" si="1">IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="5">
+        <v>4.3206018518518519E-2</v>
+      </c>
+      <c r="Q4" s="8">
+        <f>IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="R4" s="4">
         <f>AVERAGE(G4,I4,K4,M4,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.0972935083558388</v>
-      </c>
-      <c r="S4" s="14">
+        <v>3.325266100685095</v>
+      </c>
+      <c r="S4" s="13">
+        <v>1</v>
+      </c>
+      <c r="T4" s="4" t="str" cm="1">
+        <f t="array" ref="T4">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U4" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V4" s="29">
+        <v>3.6</v>
+      </c>
+      <c r="W4" s="29">
+        <v>3</v>
+      </c>
+      <c r="X4" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="Y4" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>2.5235798302055281</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>4.1157407407407406E-2</v>
+      </c>
+      <c r="AC4" s="8">
+        <f>IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="AD4" s="4"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5">
+        <v>1104804719</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.4641203703703702E-2</v>
+      </c>
+      <c r="G5" s="8">
+        <f>IF(F5/$G$2&lt;=1.001,F5/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3.9178240740740743E-2</v>
+      </c>
+      <c r="I5" s="8">
+        <f>IF(H5/$I$2&lt;=1.001,H5/$I$2,0.6)</f>
+        <v>0.9848705266220541</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3.5856481481481482E-2</v>
+      </c>
+      <c r="K5" s="8">
+        <f>IF(J5/$K$2&lt;=1.001,J5/$K$2,0.6)</f>
+        <v>0.99742433998712177</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.9652777777777779E-2</v>
+      </c>
+      <c r="M5" s="8">
+        <f>IF(L5/$M$2&lt;=1.001,L5/$M$2,0.6)</f>
+        <v>0.86456211812627304</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <f>IF(N5/$O$2&lt;=1.001,N5/$O$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3.9768518518518516E-2</v>
+      </c>
+      <c r="Q5" s="8">
+        <f>IF(P5/$Q$2&lt;=1.001,P5/$Q$2,0.6)</f>
+        <v>0.92043932493972669</v>
+      </c>
+      <c r="R5" s="4">
+        <f>AVERAGE(G5,I5,K5,M5,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>3.6394135913959795</v>
+      </c>
+      <c r="S5" s="13">
+        <v>4</v>
+      </c>
+      <c r="T5" s="4" t="str" cm="1">
+        <f t="array" ref="T5">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U5" s="29">
+        <v>5</v>
+      </c>
+      <c r="V5" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W5" s="29">
+        <v>5</v>
+      </c>
+      <c r="X5" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="Y5" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA5" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>4.2698240774187939</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>4.0914351851851855E-2</v>
+      </c>
+      <c r="AC5" s="8">
+        <f>IF(AB5/$AC$2&lt;=1.01,AB5/$AC$2,0.6)</f>
+        <v>0.9940944881889765</v>
+      </c>
+      <c r="AD5" s="4"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6">
+        <v>1109542109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.6481481481481482E-2</v>
+      </c>
+      <c r="G6" s="8">
+        <f>IF(F6/$G$2&lt;=1.001,F6/$G$2,0.6)</f>
+        <v>0.94492368944923688</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3.8530092592592595E-2</v>
+      </c>
+      <c r="I6" s="8">
+        <f>IF(H6/$I$2&lt;=1.001,H6/$I$2,0.6)</f>
+        <v>0.9685772475996508</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.5821759259259262E-2</v>
+      </c>
+      <c r="K6" s="8">
+        <f>IF(J6/$K$2&lt;=1.001,J6/$K$2,0.6)</f>
+        <v>0.9964584674822925</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.0648148148148149E-3</v>
+      </c>
+      <c r="M6" s="8">
+        <f>IF(L6/$M$2&lt;=1.001,L6/$M$2,0.6)</f>
+        <v>4.684317718940937E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4.4270833333333336E-2</v>
+      </c>
+      <c r="O6" s="8">
+        <f>IF(N6/$O$2&lt;=1.001,N6/$O$2,0.6)</f>
+        <v>0.94889605556933765</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3.9861111111111111E-2</v>
+      </c>
+      <c r="Q6" s="8">
+        <f>IF(P6/$Q$2&lt;=1.001,P6/$Q$2,0.6)</f>
+        <v>0.92258237342619875</v>
+      </c>
+      <c r="R6" s="4">
+        <f>AVERAGE(G6,I6,K6,M6,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.0235675089301051</v>
+      </c>
+      <c r="S6" s="13">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4" t="str" cm="1">
+        <f t="array" ref="T6">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U6" s="29">
+        <v>0</v>
+      </c>
+      <c r="V6" s="29">
+        <v>3.9</v>
+      </c>
+      <c r="W6" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="X6" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>2.8590702526790315</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>3.8101851851851852E-2</v>
+      </c>
+      <c r="AC6" s="8">
+        <f>IF(AB6/$AC$2&lt;=1.01,AB6/$AC$2,0.6)</f>
+        <v>0.92575928008998876</v>
+      </c>
+      <c r="AD6" s="4"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7">
+        <v>1193276119</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="5" t="e" cm="1">
-        <f t="array" ref="T4">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="9">
-        <f t="shared" ref="W4:W36" si="2">IF(V4/$W$2&lt;=1.01,V4/$W$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="X4" s="5"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5">
-        <v>1110286885</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="F7" s="3">
         <v>1.7349537037037038E-2</v>
       </c>
-      <c r="G5" s="9">
-        <f>IF(F5/$G$2&lt;=1.001,F5/$G$2,0.6)</f>
+      <c r="G7" s="8">
+        <f>IF(F7/$G$2&lt;=1.001,F7/$G$2,0.6)</f>
         <v>0.99469143994691445</v>
       </c>
-      <c r="H5" s="4">
-        <v>3.9293981481481478E-2</v>
-      </c>
-      <c r="I5" s="9">
-        <f>IF(H5/$I$2&lt;=1.001,H5/$I$2,0.6)</f>
-        <v>0.98778004073319736</v>
-      </c>
-      <c r="J5" s="4">
-        <v>3.5925925925925924E-2</v>
-      </c>
-      <c r="K5" s="9">
-        <f>IF(J5/$K$2&lt;=1.001,J5/$K$2,0.6)</f>
-        <v>0.99935608499678041</v>
-      </c>
-      <c r="L5" s="4">
-        <v>2.2129629629629631E-2</v>
-      </c>
-      <c r="M5" s="9">
-        <f>IF(L5/$M$2&lt;=1.001,L5/$M$2,0.6)</f>
-        <v>0.97352342158859484</v>
-      </c>
-      <c r="N5" s="1">
-        <v>4.5590277777777778E-2</v>
-      </c>
-      <c r="O5" s="9">
-        <f t="shared" si="0"/>
-        <v>0.97717687918630614</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <f>IF(H7/$I$2&lt;=1.001,H7/$I$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <f>IF(J7/$K$2&lt;=1.001,J7/$K$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <f>IF(L7/$M$2&lt;=1.001,L7/$M$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.5972222222222223E-3</v>
+      </c>
+      <c r="O7" s="8">
+        <f>IF(N7/$O$2&lt;=1.001,N7/$O$2,0.6)</f>
+        <v>3.4234681220540811E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <f>IF(P7/$Q$2&lt;=1.001,P7/$Q$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <f>AVERAGE(G7,I7,K7,M7,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>0.85743843430621258</v>
+      </c>
+      <c r="S7" s="13"/>
+      <c r="T7" s="4" t="str" cm="1">
+        <f t="array" ref="T7">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>--</v>
+      </c>
+      <c r="U7" s="29">
+        <v>0</v>
+      </c>
+      <c r="V7" s="29">
+        <v>0</v>
+      </c>
+      <c r="W7" s="29">
+        <v>0</v>
+      </c>
+      <c r="X7" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>0.25723153029186374</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="8">
+        <f>IF(AB7/$AC$2&lt;=1.01,AB7/$AC$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>1113978874</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.744212962962963E-2</v>
+      </c>
+      <c r="G8" s="8">
+        <f>IF(F8/$G$2&lt;=1.001,F8/$G$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3.9814814814814817E-2</v>
+      </c>
+      <c r="I8" s="8">
+        <f>IF(H8/$I$2&lt;=1.001,H8/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K8" s="8">
+        <f>IF(J8/$K$2&lt;=1.001,J8/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2.1203703703703704E-2</v>
+      </c>
+      <c r="M8" s="8">
+        <f>IF(L8/$M$2&lt;=1.001,L8/$M$2,0.6)</f>
+        <v>0.9327902240325866</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="O8" s="8">
+        <f>IF(N8/$O$2&lt;=1.001,N8/$O$2,0.6)</f>
+        <v>1.0002480774001488</v>
+      </c>
+      <c r="P8" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
-      <c r="Q5" s="9">
-        <f t="shared" si="1"/>
+      <c r="Q8" s="8">
+        <f>IF(P8/$Q$2&lt;=1.001,P8/$Q$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="R5" s="5">
-        <f>AVERAGE(G5,I5,K5,M5,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9437732220431609</v>
-      </c>
-      <c r="S5" s="14">
+      <c r="R8" s="4">
+        <f>AVERAGE(G8,I8,K8,M8,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.9451942609730732</v>
+      </c>
+      <c r="S8" s="13">
+        <v>4</v>
+      </c>
+      <c r="T8" s="4" t="str" cm="1">
+        <f t="array" ref="T8">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U8" s="29">
+        <v>5</v>
+      </c>
+      <c r="V8" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W8" s="29">
+        <v>5</v>
+      </c>
+      <c r="X8" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>4.8995582782919218</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>3.9328703703703706E-2</v>
+      </c>
+      <c r="AC8" s="8">
+        <f>IF(AB8/$AC$2&lt;=1.01,AB8/$AC$2,0.6)</f>
+        <v>0.95556805399325095</v>
+      </c>
+      <c r="AD8" s="4"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9">
+        <v>1007560675</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5.2083333333333333E-4</v>
+      </c>
+      <c r="G9" s="8">
+        <f>IF(F9/$G$2&lt;=1.001,F9/$G$2,0.6)</f>
+        <v>2.98606502986065E-2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3.9074074074074074E-2</v>
+      </c>
+      <c r="I9" s="8">
+        <f>IF(H9/$I$2&lt;=1.001,H9/$I$2,0.6)</f>
+        <v>0.98225196392202496</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3.5763888888888887E-2</v>
+      </c>
+      <c r="K9" s="8">
+        <f>IF(J9/$K$2&lt;=1.001,J9/$K$2,0.6)</f>
+        <v>0.99484867997424342</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.8090277777777778E-2</v>
+      </c>
+      <c r="M9" s="8">
+        <f>IF(L9/$M$2&lt;=1.001,L9/$M$2,0.6)</f>
+        <v>0.79582484725050917</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4.6388888888888889E-2</v>
+      </c>
+      <c r="O9" s="8">
+        <f>IF(N9/$O$2&lt;=1.001,N9/$O$2,0.6)</f>
+        <v>0.99429421979657651</v>
+      </c>
+      <c r="P9" s="1">
+        <v>4.1805555555555554E-2</v>
+      </c>
+      <c r="Q9" s="8">
+        <f>IF(P9/$Q$2&lt;=1.001,P9/$Q$2,0.6)</f>
+        <v>0.96758639164211091</v>
+      </c>
+      <c r="R9" s="4">
+        <f>AVERAGE(G9,I9,K9,M9,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>3.970555627403392</v>
+      </c>
+      <c r="S9" s="13">
+        <v>3</v>
+      </c>
+      <c r="T9" s="4" t="str" cm="1">
+        <f t="array" ref="T9">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U9" s="29">
+        <v>5</v>
+      </c>
+      <c r="V9" s="29">
+        <v>5</v>
+      </c>
+      <c r="W9" s="29">
+        <v>4</v>
+      </c>
+      <c r="X9" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA9" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>4.4811666882210179</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>3.6736111111111108E-2</v>
+      </c>
+      <c r="AC9" s="8">
+        <f>IF(AB9/$AC$2&lt;=1.01,AB9/$AC$2,0.6)</f>
+        <v>0.89257592800899888</v>
+      </c>
+      <c r="AD9" s="4"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10">
+        <v>1004189893</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <f>IF(F10/$G$2&lt;=1.001,F10/$G$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <f>IF(H10/$I$2&lt;=1.001,H10/$I$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <f>IF(J10/$K$2&lt;=1.001,J10/$K$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <f>IF(L10/$M$2&lt;=1.001,L10/$M$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <f>IF(N10/$O$2&lt;=1.001,N10/$O$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
+        <f>IF(P10/$Q$2&lt;=1.001,P10/$Q$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <f>AVERAGE(G10,I10,K10,M10,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="13"/>
+      <c r="T10" s="4" t="str" cm="1">
+        <f t="array" ref="T10">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>--</v>
+      </c>
+      <c r="U10" s="29">
+        <v>0</v>
+      </c>
+      <c r="V10" s="29">
+        <v>0</v>
+      </c>
+      <c r="W10" s="29">
+        <v>0</v>
+      </c>
+      <c r="X10" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="8">
+        <f>IF(AB10/$AC$2&lt;=1.01,AB10/$AC$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11">
+        <v>1005892878</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.744212962962963E-2</v>
+      </c>
+      <c r="G11" s="8">
+        <f>IF(F11/$G$2&lt;=1.001,F11/$G$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="T5" s="5" t="str" cm="1">
-        <f t="array" ref="T5">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="1">
-        <v>4.1203703703703701E-2</v>
-      </c>
-      <c r="W5" s="9">
-        <f>IF(V5/$W$2&lt;=1.01,V5/$W$2,0.6)</f>
-        <v>1.0011248593925759</v>
-      </c>
-      <c r="X5" s="5"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6">
-        <v>1112388246</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1.744212962962963E-2</v>
-      </c>
-      <c r="G6" s="9">
-        <f>IF(F6/$G$2&lt;=1.001,F6/$G$2,0.6)</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3.8506944444444448E-2</v>
-      </c>
-      <c r="I6" s="9">
-        <f>IF(H6/$I$2&lt;=1.001,H6/$I$2,0.6)</f>
-        <v>0.96799534477742222</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1.0486111111111111E-2</v>
-      </c>
-      <c r="K6" s="9">
-        <f>IF(J6/$K$2&lt;=1.001,J6/$K$2,0.6)</f>
-        <v>0.29169349645846748</v>
-      </c>
-      <c r="L6" s="4">
-        <v>2.2592592592592591E-2</v>
-      </c>
-      <c r="M6" s="9">
-        <f>IF(L6/$M$2&lt;=1.001,L6/$M$2,0.6)</f>
-        <v>0.99389002036659879</v>
-      </c>
-      <c r="N6" s="1">
-        <v>3.7476851851851851E-2</v>
-      </c>
-      <c r="O6" s="9">
-        <f t="shared" si="0"/>
-        <v>0.80327462168196473</v>
-      </c>
-      <c r="P6" s="1">
-        <v>3.8391203703703705E-2</v>
-      </c>
-      <c r="Q6" s="9">
-        <f t="shared" si="1"/>
-        <v>0.8885614787034557</v>
-      </c>
-      <c r="R6" s="5">
-        <f>AVERAGE(G6,I6,K6,M6,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.1211791349899247</v>
-      </c>
-      <c r="S6" s="14">
-        <v>2</v>
-      </c>
-      <c r="T6" s="5" t="str" cm="1">
-        <f t="array" ref="T6">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="1">
-        <v>3.2685185185185185E-2</v>
-      </c>
-      <c r="W6" s="9">
-        <f t="shared" si="2"/>
-        <v>0.79415073115860524</v>
-      </c>
-      <c r="X6" s="5"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7">
-        <v>1109542109</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1.6481481481481482E-2</v>
-      </c>
-      <c r="G7" s="9">
-        <f>IF(F7/$G$2&lt;=1.001,F7/$G$2,0.6)</f>
-        <v>0.94492368944923688</v>
-      </c>
-      <c r="H7" s="4">
-        <v>3.8530092592592595E-2</v>
-      </c>
-      <c r="I7" s="9">
-        <f>IF(H7/$I$2&lt;=1.001,H7/$I$2,0.6)</f>
-        <v>0.9685772475996508</v>
-      </c>
-      <c r="J7" s="4">
-        <v>3.5821759259259262E-2</v>
-      </c>
-      <c r="K7" s="9">
-        <f>IF(J7/$K$2&lt;=1.001,J7/$K$2,0.6)</f>
-        <v>0.9964584674822925</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1.0648148148148149E-3</v>
-      </c>
-      <c r="M7" s="9">
-        <f>IF(L7/$M$2&lt;=1.001,L7/$M$2,0.6)</f>
-        <v>4.684317718940937E-2</v>
-      </c>
-      <c r="N7" s="1">
-        <v>4.4270833333333336E-2</v>
-      </c>
-      <c r="O7" s="9">
-        <f t="shared" si="0"/>
-        <v>0.94889605556933765</v>
-      </c>
-      <c r="P7" s="1">
-        <v>3.9861111111111111E-2</v>
-      </c>
-      <c r="Q7" s="9">
-        <f t="shared" si="1"/>
-        <v>0.92258237342619875</v>
-      </c>
-      <c r="R7" s="5">
-        <f>AVERAGE(G7,I7,K7,M7,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.0235675089301051</v>
-      </c>
-      <c r="S7" s="14">
-        <v>1</v>
-      </c>
-      <c r="T7" s="5" t="str" cm="1">
-        <f t="array" ref="T7">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U7" s="5"/>
-      <c r="V7" s="1">
+      <c r="H11" s="3">
+        <v>3.9814814814814817E-2</v>
+      </c>
+      <c r="I11" s="8">
+        <f>IF(H11/$I$2&lt;=1.001,H11/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K11" s="8">
+        <f>IF(J11/$K$2&lt;=1.001,J11/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.8935185185185187E-2</v>
+      </c>
+      <c r="M11" s="8">
+        <f>IF(L11/$M$2&lt;=1.001,L11/$M$2,0.6)</f>
+        <v>0.83299389002036672</v>
+      </c>
+      <c r="N11" s="1">
+        <v>4.5497685185185183E-2</v>
+      </c>
+      <c r="O11" s="8">
+        <f>IF(N11/$O$2&lt;=1.001,N11/$O$2,0.6)</f>
+        <v>0.97519225998511527</v>
+      </c>
+      <c r="P11" s="1">
+        <v>4.1145833333333333E-2</v>
+      </c>
+      <c r="Q11" s="8">
+        <f>IF(P11/$Q$2&lt;=1.001,P11/$Q$2,0.6)</f>
+        <v>0.95231717117599779</v>
+      </c>
+      <c r="R11" s="4">
+        <f>AVERAGE(G11,I11,K11,M11,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.8014151107636938</v>
+      </c>
+      <c r="S11" s="13">
+        <v>5</v>
+      </c>
+      <c r="T11" s="4" t="str" cm="1">
+        <f t="array" ref="T11">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U11" s="29">
+        <v>5</v>
+      </c>
+      <c r="V11" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="W11" s="29">
+        <v>5</v>
+      </c>
+      <c r="X11" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="Y11" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA11" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>4.562424533229108</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>3.9305555555555559E-2</v>
+      </c>
+      <c r="AC11" s="8">
+        <f>IF(AB11/$AC$2&lt;=1.01,AB11/$AC$2,0.6)</f>
+        <v>0.95500562429696301</v>
+      </c>
+      <c r="AD11" s="4"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12">
+        <v>1107837304</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3.8090277777777778E-2</v>
+      </c>
+      <c r="G12" s="8">
+        <f>IF(F12/$G$2&lt;=1.001,F12/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3.8541666666666669E-2</v>
+      </c>
+      <c r="I12" s="8">
+        <f>IF(H12/$I$2&lt;=1.001,H12/$I$2,0.6)</f>
+        <v>0.96886819901076515</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3.3229166666666664E-2</v>
+      </c>
+      <c r="K12" s="8">
+        <f>IF(J12/$K$2&lt;=1.001,J12/$K$2,0.6)</f>
+        <v>0.92433998712169996</v>
+      </c>
+      <c r="L12" s="3">
+        <v>5.115740740740741E-3</v>
+      </c>
+      <c r="M12" s="8">
+        <f>IF(L12/$M$2&lt;=1.001,L12/$M$2,0.6)</f>
+        <v>0.22505091649694503</v>
+      </c>
+      <c r="N12" s="1">
+        <v>4.4849537037037035E-2</v>
+      </c>
+      <c r="O12" s="8">
+        <f>IF(N12/$O$2&lt;=1.001,N12/$O$2,0.6)</f>
+        <v>0.9612999255767799</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3.9386574074074074E-2</v>
+      </c>
+      <c r="Q12" s="8">
+        <f>IF(P12/$Q$2&lt;=1.001,P12/$Q$2,0.6)</f>
+        <v>0.91159924993302976</v>
+      </c>
+      <c r="R12" s="4">
+        <f>AVERAGE(G12,I12,K12,M12,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>3.8259652317826838</v>
+      </c>
+      <c r="S12" s="13">
+        <v>5</v>
+      </c>
+      <c r="T12" s="4" t="str" cm="1">
+        <f t="array" ref="T12">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U12" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="V12" s="29">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W12" s="29">
+        <v>5</v>
+      </c>
+      <c r="X12" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="Y12" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA12" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>4.2137895695348053</v>
+      </c>
+      <c r="AB12" s="1">
         <v>3.8101851851851852E-2</v>
       </c>
-      <c r="W7" s="9">
-        <f t="shared" si="2"/>
+      <c r="AC12" s="8">
+        <f>IF(AB12/$AC$2&lt;=1.01,AB12/$AC$2,0.6)</f>
         <v>0.92575928008998876</v>
       </c>
-      <c r="X7" s="5"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8">
-        <v>1193276119</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1.7349537037037038E-2</v>
-      </c>
-      <c r="G8" s="9">
-        <f>IF(F8/$G$2&lt;=1.001,F8/$G$2,0.6)</f>
-        <v>0.99469143994691445</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <f>IF(H8/$I$2&lt;=1.001,H8/$I$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <f>IF(J8/$K$2&lt;=1.001,J8/$K$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <f>IF(L8/$M$2&lt;=1.001,L8/$M$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1.5972222222222223E-3</v>
-      </c>
-      <c r="O8" s="9">
-        <f t="shared" si="0"/>
-        <v>3.4234681220540811E-2</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="5">
-        <f>AVERAGE(G8,I8,K8,M8,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>0.85743843430621258</v>
-      </c>
-      <c r="S8" s="14"/>
-      <c r="T8" s="5" t="str" cm="1">
-        <f t="array" ref="T8">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
-      </c>
-      <c r="U8" s="5"/>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="5"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>23</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9">
-        <v>1143992171</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3.4791666666666665E-2</v>
-      </c>
-      <c r="G9" s="9">
-        <f>IF(F9/$G$2&lt;=1.001,F9/$G$2,0.6)</f>
-        <v>0.6</v>
-      </c>
-      <c r="H9" s="4">
-        <v>7.1990740740740739E-3</v>
-      </c>
-      <c r="I9" s="9">
-        <f>IF(H9/$I$2&lt;=1.001,H9/$I$2,0.6)</f>
-        <v>0.1809717777131219</v>
-      </c>
-      <c r="J9" s="4">
-        <v>3.5960648148148151E-2</v>
-      </c>
-      <c r="K9" s="9">
-        <f>IF(J9/$K$2&lt;=1.001,J9/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
-      </c>
-      <c r="L9" s="4">
-        <v>1.9398148148148147E-2</v>
-      </c>
-      <c r="M9" s="9">
-        <f>IF(L9/$M$2&lt;=1.001,L9/$M$2,0.6)</f>
-        <v>0.85336048879837068</v>
-      </c>
-      <c r="N9" s="1">
-        <v>4.5810185185185183E-2</v>
-      </c>
-      <c r="O9" s="9">
-        <f t="shared" si="0"/>
-        <v>0.98189034978913414</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
-        <f>AVERAGE(G9,I9,K9,M9,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.0137871448351969</v>
-      </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="5" t="str" cm="1">
-        <f t="array" ref="T9">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
-      </c>
-      <c r="U9" s="5"/>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="5"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <v>1000940688</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="G10" s="9">
-        <f>IF(F10/$G$2&lt;=1.001,F10/$G$2,0.6)</f>
-        <v>0.99535500995355009</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3.9259259259259258E-2</v>
-      </c>
-      <c r="I10" s="9">
-        <f>IF(H10/$I$2&lt;=1.001,H10/$I$2,0.6)</f>
-        <v>0.98690718649985443</v>
-      </c>
-      <c r="J10" s="4">
-        <v>3.5949074074074071E-2</v>
-      </c>
-      <c r="K10" s="9">
-        <f>IF(J10/$K$2&lt;=1.001,J10/$K$2,0.6)</f>
-        <v>1</v>
-      </c>
-      <c r="L10" s="4">
-        <v>2.2638888888888889E-2</v>
-      </c>
-      <c r="M10" s="9">
-        <f>IF(L10/$M$2&lt;=1.001,L10/$M$2,0.6)</f>
-        <v>0.99592668024439923</v>
-      </c>
-      <c r="N10" s="1">
-        <v>4.4965277777777778E-2</v>
-      </c>
-      <c r="O10" s="9">
-        <f t="shared" si="0"/>
-        <v>0.9637806995782684</v>
-      </c>
-      <c r="P10" s="1">
-        <v>4.1863425925925929E-2</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="shared" si="1"/>
-        <v>0.96892579694615599</v>
-      </c>
-      <c r="R10" s="5">
-        <f>AVERAGE(G10,I10,K10,M10,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9257461443518569</v>
-      </c>
-      <c r="S10" s="14">
-        <v>2</v>
-      </c>
-      <c r="T10" s="5" t="str" cm="1">
-        <f t="array" ref="T10">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U10" s="5"/>
-      <c r="V10" s="1">
-        <v>3.8182870370370367E-2</v>
-      </c>
-      <c r="W10" s="9">
-        <f t="shared" si="2"/>
-        <v>0.92772778402699652</v>
-      </c>
-      <c r="X10" s="5"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11">
-        <v>1007560675</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="4">
-        <v>5.2083333333333333E-4</v>
-      </c>
-      <c r="G11" s="9">
-        <f>IF(F11/$G$2&lt;=1.001,F11/$G$2,0.6)</f>
-        <v>2.98606502986065E-2</v>
-      </c>
-      <c r="H11" s="4">
-        <v>3.9074074074074074E-2</v>
-      </c>
-      <c r="I11" s="9">
-        <f>IF(H11/$I$2&lt;=1.001,H11/$I$2,0.6)</f>
-        <v>0.98225196392202496</v>
-      </c>
-      <c r="J11" s="4">
-        <v>3.5763888888888887E-2</v>
-      </c>
-      <c r="K11" s="9">
-        <f>IF(J11/$K$2&lt;=1.001,J11/$K$2,0.6)</f>
-        <v>0.99484867997424342</v>
-      </c>
-      <c r="L11" s="4">
-        <v>1.8090277777777778E-2</v>
-      </c>
-      <c r="M11" s="9">
-        <f>IF(L11/$M$2&lt;=1.001,L11/$M$2,0.6)</f>
-        <v>0.79582484725050917</v>
-      </c>
-      <c r="N11" s="1">
-        <v>4.6388888888888889E-2</v>
-      </c>
-      <c r="O11" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99429421979657651</v>
-      </c>
-      <c r="P11" s="1">
-        <v>4.1805555555555554E-2</v>
-      </c>
-      <c r="Q11" s="9">
-        <f t="shared" si="1"/>
-        <v>0.96758639164211091</v>
-      </c>
-      <c r="R11" s="5">
-        <f>AVERAGE(G11,I11,K11,M11,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.970555627403392</v>
-      </c>
-      <c r="S11" s="14">
-        <v>3</v>
-      </c>
-      <c r="T11" s="5" t="str" cm="1">
-        <f t="array" ref="T11">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U11" s="5"/>
-      <c r="V11" s="1">
-        <v>3.6736111111111108E-2</v>
-      </c>
-      <c r="W11" s="9">
-        <f t="shared" si="2"/>
-        <v>0.89257592800899888</v>
-      </c>
-      <c r="X11" s="5"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12">
-        <v>1110285503</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1.7314814814814814E-2</v>
-      </c>
-      <c r="G12" s="9">
-        <f>IF(F12/$G$2&lt;=1.001,F12/$G$2,0.6)</f>
-        <v>0.9927007299270072</v>
-      </c>
-      <c r="H12" s="4">
-        <v>3.9189814814814816E-2</v>
-      </c>
-      <c r="I12" s="9">
-        <f>IF(H12/$I$2&lt;=1.001,H12/$I$2,0.6)</f>
-        <v>0.98516147803316845</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <f>IF(J12/$K$2&lt;=1.001,J12/$K$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <f>IF(L12/$M$2&lt;=1.001,L12/$M$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>4.327546296296296E-2</v>
-      </c>
-      <c r="O12" s="9">
-        <f t="shared" si="0"/>
-        <v>0.92756139915653668</v>
-      </c>
-      <c r="P12" s="1">
-        <v>4.3182870370370371E-2</v>
-      </c>
-      <c r="Q12" s="9">
-        <f t="shared" si="1"/>
-        <v>0.99946423787838201</v>
-      </c>
-      <c r="R12" s="5">
-        <f>AVERAGE(G12,I12,K12,M12,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.2540732041625784</v>
-      </c>
-      <c r="S12" s="14">
-        <v>4</v>
-      </c>
-      <c r="T12" s="5" t="str" cm="1">
-        <f t="array" ref="T12">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U12" s="5"/>
-      <c r="V12" s="1">
-        <v>3.7256944444444447E-2</v>
-      </c>
-      <c r="W12" s="9">
-        <f t="shared" si="2"/>
-        <v>0.90523059617547819</v>
-      </c>
-      <c r="X12" s="5"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AD12" s="4"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D13">
-        <v>1107837304</v>
+        <v>1058932076</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="4">
-        <v>3.8090277777777778E-2</v>
-      </c>
-      <c r="G13" s="9">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3.6388888888888887E-2</v>
+      </c>
+      <c r="G13" s="8">
         <f>IF(F13/$G$2&lt;=1.001,F13/$G$2,0.6)</f>
         <v>0.6</v>
       </c>
-      <c r="H13" s="4">
-        <v>3.8541666666666669E-2</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="H13" s="3">
+        <v>3.9282407407407405E-2</v>
+      </c>
+      <c r="I13" s="8">
         <f>IF(H13/$I$2&lt;=1.001,H13/$I$2,0.6)</f>
-        <v>0.96886819901076515</v>
-      </c>
-      <c r="J13" s="4">
-        <v>3.3229166666666664E-2</v>
-      </c>
-      <c r="K13" s="9">
+        <v>0.98748908932208301</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K13" s="8">
         <f>IF(J13/$K$2&lt;=1.001,J13/$K$2,0.6)</f>
-        <v>0.92433998712169996</v>
-      </c>
-      <c r="L13" s="4">
-        <v>5.115740740740741E-3</v>
-      </c>
-      <c r="M13" s="9">
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2.2395833333333334E-2</v>
+      </c>
+      <c r="M13" s="8">
         <f>IF(L13/$M$2&lt;=1.001,L13/$M$2,0.6)</f>
-        <v>0.22505091649694503</v>
+        <v>0.98523421588594706</v>
       </c>
       <c r="N13" s="1">
-        <v>4.4849537037037035E-2</v>
-      </c>
-      <c r="O13" s="9">
-        <f t="shared" si="0"/>
-        <v>0.9612999255767799</v>
+        <v>4.6608796296296294E-2</v>
+      </c>
+      <c r="O13" s="8">
+        <f>IF(N13/$O$2&lt;=1.001,N13/$O$2,0.6)</f>
+        <v>0.99900769039940451</v>
       </c>
       <c r="P13" s="1">
-        <v>3.9386574074074074E-2</v>
-      </c>
-      <c r="Q13" s="9">
-        <f t="shared" si="1"/>
-        <v>0.91159924993302976</v>
-      </c>
-      <c r="R13" s="5">
+        <v>4.3206018518518519E-2</v>
+      </c>
+      <c r="Q13" s="8">
+        <f>IF(P13/$Q$2&lt;=1.001,P13/$Q$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="R13" s="4">
         <f>AVERAGE(G13,I13,K13,M13,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.8259652317826838</v>
-      </c>
-      <c r="S13" s="14">
+        <v>4.6433774609242038</v>
+      </c>
+      <c r="S13" s="13">
+        <v>7</v>
+      </c>
+      <c r="T13" s="4" t="str" cm="1">
+        <f t="array" ref="T13">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U13" s="29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="V13" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="W13" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="X13" s="29">
+        <v>1.7</v>
+      </c>
+      <c r="Y13" s="29">
         <v>5</v>
       </c>
-      <c r="T13" s="5" t="str" cm="1">
-        <f t="array" ref="T13">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U13" s="5"/>
-      <c r="V13" s="1">
-        <v>3.8101851851851852E-2</v>
-      </c>
-      <c r="W13" s="9">
-        <f t="shared" si="2"/>
-        <v>0.92575928008998876</v>
-      </c>
-      <c r="X13" s="5"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z13" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA13" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>4.263013238277261</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>3.6574074074074071E-2</v>
+      </c>
+      <c r="AC13" s="8">
+        <f>IF(AB13/$AC$2&lt;=1.01,AB13/$AC$2,0.6)</f>
+        <v>0.88863892013498313</v>
+      </c>
+      <c r="AD13" s="4"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D14">
-        <v>1112388822</v>
+        <v>1110285503</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1.7337962962962961E-2</v>
-      </c>
-      <c r="G14" s="9">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.7314814814814814E-2</v>
+      </c>
+      <c r="G14" s="8">
         <f>IF(F14/$G$2&lt;=1.001,F14/$G$2,0.6)</f>
-        <v>0.99402786994027859</v>
-      </c>
-      <c r="H14" s="4">
-        <v>3.9224537037037037E-2</v>
-      </c>
-      <c r="I14" s="9">
+        <v>0.9927007299270072</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3.9189814814814816E-2</v>
+      </c>
+      <c r="I14" s="8">
         <f>IF(H14/$I$2&lt;=1.001,H14/$I$2,0.6)</f>
-        <v>0.98603433226651138</v>
-      </c>
-      <c r="J14" s="4">
-        <v>3.5879629629629629E-2</v>
-      </c>
-      <c r="K14" s="9">
+        <v>0.98516147803316845</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
         <f>IF(J14/$K$2&lt;=1.001,J14/$K$2,0.6)</f>
-        <v>0.99806825499034135</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
         <f>IF(L14/$M$2&lt;=1.001,L14/$M$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>3.2685185185185185E-2</v>
-      </c>
-      <c r="O14" s="9">
-        <f t="shared" si="0"/>
-        <v>0.70057057802034228</v>
+        <v>4.327546296296296E-2</v>
+      </c>
+      <c r="O14" s="8">
+        <f>IF(N14/$O$2&lt;=1.001,N14/$O$2,0.6)</f>
+        <v>0.92756139915653668</v>
       </c>
       <c r="P14" s="1">
-        <v>3.3252314814814818E-2</v>
-      </c>
-      <c r="Q14" s="9">
-        <f t="shared" si="1"/>
-        <v>0.76962228770425933</v>
-      </c>
-      <c r="R14" s="5">
+        <v>4.3182870370370371E-2</v>
+      </c>
+      <c r="Q14" s="8">
+        <f>IF(P14/$Q$2&lt;=1.001,P14/$Q$2,0.6)</f>
+        <v>0.99946423787838201</v>
+      </c>
+      <c r="R14" s="4">
         <f>AVERAGE(G14,I14,K14,M14,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.7069361024347773</v>
-      </c>
-      <c r="S14" s="14">
+        <v>3.2540732041625784</v>
+      </c>
+      <c r="S14" s="13">
         <v>4</v>
       </c>
-      <c r="T14" s="5" t="str" cm="1">
+      <c r="T14" s="4" t="str" cm="1">
         <f t="array" ref="T14">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
         <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
       </c>
-      <c r="U14" s="5"/>
-      <c r="V14" s="1">
-        <v>3.2615740740740744E-2</v>
-      </c>
-      <c r="W14" s="9">
-        <f t="shared" si="2"/>
-        <v>0.7924634420697414</v>
-      </c>
-      <c r="X14" s="5"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U14" s="29">
+        <v>5</v>
+      </c>
+      <c r="V14" s="29">
+        <v>4</v>
+      </c>
+      <c r="W14" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="X14" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA14" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>3.6502219612487732</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>3.7256944444444447E-2</v>
+      </c>
+      <c r="AC14" s="8">
+        <f>IF(AB14/$AC$2&lt;=1.01,AB14/$AC$2,0.6)</f>
+        <v>0.90523059617547819</v>
+      </c>
+      <c r="AD14" s="4"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D15">
-        <v>1107839506</v>
+        <v>1107837413</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1.744212962962963E-2</v>
-      </c>
-      <c r="G15" s="9">
+        <v>58</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
         <f>IF(F15/$G$2&lt;=1.001,F15/$G$2,0.6)</f>
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>3.9270833333333331E-2</v>
-      </c>
-      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3.7743055555555557E-2</v>
+      </c>
+      <c r="I15" s="8">
         <f>IF(H15/$I$2&lt;=1.001,H15/$I$2,0.6)</f>
-        <v>0.98719813791096878</v>
-      </c>
-      <c r="J15" s="4">
-        <v>3.591435185185185E-2</v>
-      </c>
-      <c r="K15" s="9">
+        <v>0.94879255164387544</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3.5925925925925924E-2</v>
+      </c>
+      <c r="K15" s="8">
         <f>IF(J15/$K$2&lt;=1.001,J15/$K$2,0.6)</f>
-        <v>0.99903412749517073</v>
-      </c>
-      <c r="L15" s="4">
-        <v>1.9351851851851853E-2</v>
-      </c>
-      <c r="M15" s="9">
+        <v>0.99935608499678041</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2.0636574074074075E-2</v>
+      </c>
+      <c r="M15" s="8">
         <f>IF(L15/$M$2&lt;=1.001,L15/$M$2,0.6)</f>
-        <v>0.85132382892057035</v>
+        <v>0.90784114052953158</v>
       </c>
       <c r="N15" s="1">
-        <v>4.2256944444444444E-2</v>
-      </c>
-      <c r="O15" s="9">
-        <f t="shared" si="0"/>
-        <v>0.9057305879434383</v>
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <f>IF(N15/$O$2&lt;=1.001,N15/$O$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>3.9687500000000001E-2</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="shared" si="1"/>
-        <v>0.91856415751406373</v>
-      </c>
-      <c r="R15" s="5">
+        <v>3.9016203703703706E-2</v>
+      </c>
+      <c r="Q15" s="8">
+        <f>IF(P15/$Q$2&lt;=1.001,P15/$Q$2,0.6)</f>
+        <v>0.90302705598714172</v>
+      </c>
+      <c r="R15" s="4">
         <f>AVERAGE(G15,I15,K15,M15,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.71820903315351</v>
-      </c>
-      <c r="S15" s="14">
-        <v>6</v>
-      </c>
-      <c r="T15" s="5" t="str" cm="1">
+        <v>3.1325140276311076</v>
+      </c>
+      <c r="S15" s="13">
+        <v>2</v>
+      </c>
+      <c r="T15" s="4" t="str" cm="1">
         <f t="array" ref="T15">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U15" s="5"/>
-      <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="5"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U15" s="29">
+        <v>0</v>
+      </c>
+      <c r="V15" s="29">
+        <v>3.9</v>
+      </c>
+      <c r="W15" s="29">
+        <v>5</v>
+      </c>
+      <c r="X15" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="Y15" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA15" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>3.977754208289332</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>3.8090277777777778E-2</v>
+      </c>
+      <c r="AC15" s="8">
+        <f>IF(AB15/$AC$2&lt;=1.01,AB15/$AC$2,0.6)</f>
+        <v>0.92547806524184484</v>
+      </c>
+      <c r="AD15" s="4"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D16">
-        <v>1112041894</v>
+        <v>1004217163</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="4">
-        <v>3.7592592592592594E-2</v>
-      </c>
-      <c r="G16" s="9">
+        <v>56</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.1458333333333333E-2</v>
+      </c>
+      <c r="G16" s="8">
         <f>IF(F16/$G$2&lt;=1.001,F16/$G$2,0.6)</f>
         <v>0.6</v>
       </c>
-      <c r="H16" s="4">
-        <v>2.7164351851851853E-2</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="H16" s="3">
+        <v>3.9814814814814817E-2</v>
+      </c>
+      <c r="I16" s="8">
         <f>IF(H16/$I$2&lt;=1.001,H16/$I$2,0.6)</f>
-        <v>0.68286296188536511</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
+        <v>1.0008728542333429</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K16" s="8">
         <f>IF(J16/$K$2&lt;=1.001,J16/$K$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2.0798611111111111E-2</v>
+      </c>
+      <c r="M16" s="8">
         <f>IF(L16/$M$2&lt;=1.001,L16/$M$2,0.6)</f>
-        <v>0</v>
+        <v>0.91496945010183306</v>
       </c>
       <c r="N16" s="1">
-        <v>4.1226851851851855E-2</v>
-      </c>
-      <c r="O16" s="9">
-        <f t="shared" si="0"/>
-        <v>0.88365169933019105</v>
+        <v>4.2013888888888892E-2</v>
+      </c>
+      <c r="O16" s="8">
+        <f>IF(N16/$O$2&lt;=1.001,N16/$O$2,0.6)</f>
+        <v>0.90052096254031255</v>
       </c>
       <c r="P16" s="1">
-        <v>4.2858796296296298E-2</v>
-      </c>
-      <c r="Q16" s="9">
-        <f t="shared" si="1"/>
-        <v>0.99196356817573006</v>
-      </c>
-      <c r="R16" s="5">
+        <v>3.8773148148148147E-2</v>
+      </c>
+      <c r="Q16" s="8">
+        <f>IF(P16/$Q$2&lt;=1.001,P16/$Q$2,0.6)</f>
+        <v>0.89740155371015262</v>
+      </c>
+      <c r="R16" s="4">
         <f>AVERAGE(G16,I16,K16,M16,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.6320651911594055</v>
-      </c>
-      <c r="S16" s="14">
+        <v>4.4284056484060423</v>
+      </c>
+      <c r="S16" s="13">
+        <v>4</v>
+      </c>
+      <c r="T16" s="4" t="str" cm="1">
+        <f t="array" ref="T16">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U16" s="29">
         <v>5</v>
       </c>
-      <c r="T16" s="5" t="str" cm="1">
-        <f t="array" ref="T16">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U16" s="5"/>
-      <c r="V16" s="1">
-        <v>4.0208333333333332E-2</v>
-      </c>
-      <c r="W16" s="9">
-        <f t="shared" si="2"/>
-        <v>0.9769403824521935</v>
-      </c>
-      <c r="X16" s="5"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V16" s="29">
+        <v>5</v>
+      </c>
+      <c r="W16" s="29">
+        <v>5</v>
+      </c>
+      <c r="X16" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y16" s="29">
+        <v>4.3</v>
+      </c>
+      <c r="Z16" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA16" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>4.6605216945218126</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>4.1076388888888891E-2</v>
+      </c>
+      <c r="AC16" s="8">
+        <f>IF(AB16/$AC$2&lt;=1.01,AB16/$AC$2,0.6)</f>
+        <v>0.99803149606299224</v>
+      </c>
+      <c r="AD16" s="4"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D17">
-        <v>1005785665</v>
+        <v>1105366146</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
+        <v>50</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3.8437499999999999E-2</v>
+      </c>
+      <c r="G17" s="8">
         <f>IF(F17/$G$2&lt;=1.001,F17/$G$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>3.9085648148148147E-2</v>
-      </c>
-      <c r="I17" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
         <f>IF(H17/$I$2&lt;=1.001,H17/$I$2,0.6)</f>
-        <v>0.9825429153331392</v>
-      </c>
-      <c r="J17" s="4">
-        <v>3.5960648148148151E-2</v>
-      </c>
-      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1.3148148148148148E-2</v>
+      </c>
+      <c r="K17" s="8">
         <f>IF(J17/$K$2&lt;=1.001,J17/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
-      </c>
-      <c r="L17" s="4">
-        <v>2.3148148148148149E-4</v>
-      </c>
-      <c r="M17" s="9">
+        <v>0.36574372182871867</v>
+      </c>
+      <c r="L17" s="3">
+        <v>7.6620370370370366E-3</v>
+      </c>
+      <c r="M17" s="8">
         <f>IF(L17/$M$2&lt;=1.001,L17/$M$2,0.6)</f>
-        <v>1.0183299389002037E-2</v>
+        <v>0.33706720977596738</v>
       </c>
       <c r="N17" s="1">
-        <v>4.6527777777777779E-2</v>
-      </c>
-      <c r="O17" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99727114859836263</v>
+        <v>4.6215277777777779E-2</v>
+      </c>
+      <c r="O17" s="8">
+        <f>IF(N17/$O$2&lt;=1.001,N17/$O$2,0.6)</f>
+        <v>0.99057305879434376</v>
       </c>
       <c r="P17" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
-      <c r="Q17" s="9">
-        <f t="shared" si="1"/>
+      <c r="Q17" s="8">
+        <f>IF(P17/$Q$2&lt;=1.001,P17/$Q$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="4">
         <f>AVERAGE(G17,I17,K17,M17,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.325266100685095</v>
-      </c>
-      <c r="S17" s="14">
+        <v>2.7444866586658585</v>
+      </c>
+      <c r="S17" s="13">
+        <v>5</v>
+      </c>
+      <c r="T17" s="4" t="str" cm="1">
+        <f t="array" ref="T17">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U17" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="V17" s="29">
+        <v>4</v>
+      </c>
+      <c r="W17" s="29">
+        <v>5</v>
+      </c>
+      <c r="X17" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="Y17" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA17" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>3.8753459975997577</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>3.3819444444444444E-2</v>
+      </c>
+      <c r="AC17" s="8">
+        <f>IF(AB17/$AC$2&lt;=1.01,AB17/$AC$2,0.6)</f>
+        <v>0.82170978627671543</v>
+      </c>
+      <c r="AD17" s="4"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>1000940688</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="G18" s="8">
+        <f>IF(F18/$G$2&lt;=1.001,F18/$G$2,0.6)</f>
+        <v>0.99535500995355009</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3.9259259259259258E-2</v>
+      </c>
+      <c r="I18" s="8">
+        <f>IF(H18/$I$2&lt;=1.001,H18/$I$2,0.6)</f>
+        <v>0.98690718649985443</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3.5949074074074071E-2</v>
+      </c>
+      <c r="K18" s="8">
+        <f>IF(J18/$K$2&lt;=1.001,J18/$K$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="T17" s="5" t="str" cm="1">
-        <f t="array" ref="T17">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+      <c r="L18" s="3">
+        <v>2.2638888888888889E-2</v>
+      </c>
+      <c r="M18" s="8">
+        <f>IF(L18/$M$2&lt;=1.001,L18/$M$2,0.6)</f>
+        <v>0.99592668024439923</v>
+      </c>
+      <c r="N18" s="1">
+        <v>4.4965277777777778E-2</v>
+      </c>
+      <c r="O18" s="8">
+        <f>IF(N18/$O$2&lt;=1.001,N18/$O$2,0.6)</f>
+        <v>0.9637806995782684</v>
+      </c>
+      <c r="P18" s="1">
+        <v>4.1863425925925929E-2</v>
+      </c>
+      <c r="Q18" s="8">
+        <f>IF(P18/$Q$2&lt;=1.001,P18/$Q$2,0.6)</f>
+        <v>0.96892579694615599</v>
+      </c>
+      <c r="R18" s="4">
+        <f>AVERAGE(G18,I18,K18,M18,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.9257461443518569</v>
+      </c>
+      <c r="S18" s="13">
+        <v>2</v>
+      </c>
+      <c r="T18" s="4" t="str" cm="1">
+        <f t="array" ref="T18">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U18" s="29">
+        <v>5</v>
+      </c>
+      <c r="V18" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W18" s="29">
+        <v>5</v>
+      </c>
+      <c r="X18" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="29">
+        <v>4.3</v>
+      </c>
+      <c r="Z18" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA18" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>4.7957238433055576</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>3.8182870370370367E-2</v>
+      </c>
+      <c r="AC18" s="8">
+        <f>IF(AB18/$AC$2&lt;=1.01,AB18/$AC$2,0.6)</f>
+        <v>0.92772778402699652</v>
+      </c>
+      <c r="AD18" s="4"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19">
+        <v>1112388246</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.744212962962963E-2</v>
+      </c>
+      <c r="G19" s="8">
+        <f>IF(F19/$G$2&lt;=1.001,F19/$G$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3.8506944444444448E-2</v>
+      </c>
+      <c r="I19" s="8">
+        <f>IF(H19/$I$2&lt;=1.001,H19/$I$2,0.6)</f>
+        <v>0.96799534477742222</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1.0486111111111111E-2</v>
+      </c>
+      <c r="K19" s="8">
+        <f>IF(J19/$K$2&lt;=1.001,J19/$K$2,0.6)</f>
+        <v>0.29169349645846748</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2.2592592592592591E-2</v>
+      </c>
+      <c r="M19" s="8">
+        <f>IF(L19/$M$2&lt;=1.001,L19/$M$2,0.6)</f>
+        <v>0.99389002036659879</v>
+      </c>
+      <c r="N19" s="1">
+        <v>3.7476851851851851E-2</v>
+      </c>
+      <c r="O19" s="8">
+        <f>IF(N19/$O$2&lt;=1.001,N19/$O$2,0.6)</f>
+        <v>0.80327462168196473</v>
+      </c>
+      <c r="P19" s="1">
+        <v>3.8391203703703705E-2</v>
+      </c>
+      <c r="Q19" s="8">
+        <f>IF(P19/$Q$2&lt;=1.001,P19/$Q$2,0.6)</f>
+        <v>0.8885614787034557</v>
+      </c>
+      <c r="R19" s="4">
+        <f>AVERAGE(G19,I19,K19,M19,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.1211791349899247</v>
+      </c>
+      <c r="S19" s="13">
+        <v>2</v>
+      </c>
+      <c r="T19" s="4" t="str" cm="1">
+        <f t="array" ref="T19">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U19" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="V19" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="W19" s="29">
+        <v>5</v>
+      </c>
+      <c r="X19" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA19" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>4.4283537404969771</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>3.2685185185185185E-2</v>
+      </c>
+      <c r="AC19" s="8">
+        <f>IF(AB19/$AC$2&lt;=1.01,AB19/$AC$2,0.6)</f>
+        <v>0.79415073115860524</v>
+      </c>
+      <c r="AD19" s="4"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20">
+        <v>1110286885</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.7349537037037038E-2</v>
+      </c>
+      <c r="G20" s="8">
+        <f>IF(F20/$G$2&lt;=1.001,F20/$G$2,0.6)</f>
+        <v>0.99469143994691445</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3.9293981481481478E-2</v>
+      </c>
+      <c r="I20" s="8">
+        <f>IF(H20/$I$2&lt;=1.001,H20/$I$2,0.6)</f>
+        <v>0.98778004073319736</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3.5925925925925924E-2</v>
+      </c>
+      <c r="K20" s="8">
+        <f>IF(J20/$K$2&lt;=1.001,J20/$K$2,0.6)</f>
+        <v>0.99935608499678041</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2.2129629629629631E-2</v>
+      </c>
+      <c r="M20" s="8">
+        <f>IF(L20/$M$2&lt;=1.001,L20/$M$2,0.6)</f>
+        <v>0.97352342158859484</v>
+      </c>
+      <c r="N20" s="1">
+        <v>4.5590277777777778E-2</v>
+      </c>
+      <c r="O20" s="8">
+        <f>IF(N20/$O$2&lt;=1.001,N20/$O$2,0.6)</f>
+        <v>0.97717687918630614</v>
+      </c>
+      <c r="P20" s="1">
+        <v>4.3206018518518519E-2</v>
+      </c>
+      <c r="Q20" s="8">
+        <f>IF(P20/$Q$2&lt;=1.001,P20/$Q$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="R20" s="4">
+        <f>AVERAGE(G20,I20,K20,M20,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.9437732220431609</v>
+      </c>
+      <c r="S20" s="13">
+        <v>1</v>
+      </c>
+      <c r="T20" s="4" t="str" cm="1">
+        <f t="array" ref="T20">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
         <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
       </c>
-      <c r="U17" s="5"/>
-      <c r="V17" s="1">
-        <v>4.1157407407407406E-2</v>
-      </c>
-      <c r="W17" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X17" s="5"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="U20" s="29">
+        <v>4</v>
+      </c>
+      <c r="V20" s="29">
+        <v>0</v>
+      </c>
+      <c r="W20" s="29">
+        <v>2.1</v>
+      </c>
+      <c r="X20" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y20" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>1.9311319666129483</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>4.1203703703703701E-2</v>
+      </c>
+      <c r="AC20" s="8">
+        <f>IF(AB20/$AC$2&lt;=1.01,AB20/$AC$2,0.6)</f>
+        <v>1.0011248593925759</v>
+      </c>
+      <c r="AD20" s="4"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21">
+        <v>1094883894</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <f>IF(F21/$G$2&lt;=1.001,F21/$G$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3.7743055555555557E-2</v>
+      </c>
+      <c r="I21" s="8">
+        <f>IF(H21/$I$2&lt;=1.001,H21/$I$2,0.6)</f>
+        <v>0.94879255164387544</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2.8715277777777777E-2</v>
+      </c>
+      <c r="K21" s="8">
+        <f>IF(J21/$K$2&lt;=1.001,J21/$K$2,0.6)</f>
+        <v>0.79877656149388288</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1.9212962962962963E-2</v>
+      </c>
+      <c r="M21" s="8">
+        <f>IF(L21/$M$2&lt;=1.001,L21/$M$2,0.6)</f>
+        <v>0.84521384928716903</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <f>IF(N21/$O$2&lt;=1.001,N21/$O$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="8">
+        <f>IF(P21/$Q$2&lt;=1.001,P21/$Q$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <f>AVERAGE(G21,I21,K21,M21,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>2.1606524686874393</v>
+      </c>
+      <c r="S21" s="13"/>
+      <c r="T21" s="4" t="str" cm="1">
+        <f t="array" ref="T21">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>--</v>
+      </c>
+      <c r="U21" s="29">
+        <v>0</v>
+      </c>
+      <c r="V21" s="29">
+        <v>0</v>
+      </c>
+      <c r="W21" s="29">
+        <v>0</v>
+      </c>
+      <c r="X21" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>0.64819574060623175</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="8">
+        <f>IF(AB21/$AC$2&lt;=1.01,AB21/$AC$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="4"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22">
+        <v>1005832925</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1.7314814814814814E-2</v>
+      </c>
+      <c r="G22" s="8">
+        <f>IF(F22/$G$2&lt;=1.001,F22/$G$2,0.6)</f>
+        <v>0.9927007299270072</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3.9814814814814817E-2</v>
+      </c>
+      <c r="I22" s="8">
+        <f>IF(H22/$I$2&lt;=1.001,H22/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3.5868055555555556E-2</v>
+      </c>
+      <c r="K22" s="8">
+        <f>IF(J22/$K$2&lt;=1.001,J22/$K$2,0.6)</f>
+        <v>0.99774629748873156</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2.1909722222222223E-2</v>
+      </c>
+      <c r="M22" s="8">
+        <f>IF(L22/$M$2&lt;=1.001,L22/$M$2,0.6)</f>
+        <v>0.96384928716904283</v>
+      </c>
+      <c r="N22" s="1">
+        <v>4.6631944444444441E-2</v>
+      </c>
+      <c r="O22" s="8">
+        <f>IF(N22/$O$2&lt;=1.001,N22/$O$2,0.6)</f>
+        <v>0.99950384519970215</v>
+      </c>
+      <c r="P22" s="1">
+        <v>4.2488425925925923E-2</v>
+      </c>
+      <c r="Q22" s="8">
+        <f>IF(P22/$Q$2&lt;=1.001,P22/$Q$2,0.6)</f>
+        <v>0.98339137422984191</v>
+      </c>
+      <c r="R22" s="4">
+        <f>AVERAGE(G22,I22,K22,M22,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.9483869902063908</v>
+      </c>
+      <c r="S22" s="13">
+        <v>3</v>
+      </c>
+      <c r="T22" s="4" t="str" cm="1">
+        <f t="array" ref="T22">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U22" s="29">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18">
-        <v>1113978874</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1.744212962962963E-2</v>
-      </c>
-      <c r="G18" s="9">
-        <f>IF(F18/$G$2&lt;=1.001,F18/$G$2,0.6)</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="4">
-        <v>3.9814814814814817E-2</v>
-      </c>
-      <c r="I18" s="9">
-        <f>IF(H18/$I$2&lt;=1.001,H18/$I$2,0.6)</f>
-        <v>1.0008728542333429</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="V22" s="29">
+        <v>5</v>
+      </c>
+      <c r="W22" s="29">
+        <v>5</v>
+      </c>
+      <c r="X22" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA22" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>4.9145160970619175</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>3.8379629629629632E-2</v>
+      </c>
+      <c r="AC22" s="8">
+        <f>IF(AB22/$AC$2&lt;=1.01,AB22/$AC$2,0.6)</f>
+        <v>0.93250843644544434</v>
+      </c>
+      <c r="AD22" s="4"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23">
+        <v>1002886235</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.7395833333333333E-2</v>
+      </c>
+      <c r="G23" s="8">
+        <f>IF(F23/$G$2&lt;=1.001,F23/$G$2,0.6)</f>
+        <v>0.99734571997345711</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3.8217592592592595E-2</v>
+      </c>
+      <c r="I23" s="8">
+        <f>IF(H23/$I$2&lt;=1.001,H23/$I$2,0.6)</f>
+        <v>0.9607215594995635</v>
+      </c>
+      <c r="J23" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
-      <c r="K18" s="9">
-        <f>IF(J18/$K$2&lt;=1.001,J18/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
-      </c>
-      <c r="L18" s="4">
-        <v>2.1203703703703704E-2</v>
-      </c>
-      <c r="M18" s="9">
-        <f>IF(L18/$M$2&lt;=1.001,L18/$M$2,0.6)</f>
-        <v>0.9327902240325866</v>
-      </c>
-      <c r="N18" s="1">
-        <v>4.6666666666666669E-2</v>
-      </c>
-      <c r="O18" s="9">
-        <f t="shared" si="0"/>
-        <v>1.0002480774001488</v>
-      </c>
-      <c r="P18" s="1">
-        <v>4.3206018518518519E-2</v>
-      </c>
-      <c r="Q18" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R18" s="5">
-        <f>AVERAGE(G18,I18,K18,M18,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9451942609730732</v>
-      </c>
-      <c r="S18" s="14">
-        <v>4</v>
-      </c>
-      <c r="T18" s="5" t="str" cm="1">
-        <f t="array" ref="T18">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U18" s="5"/>
-      <c r="V18" s="1">
-        <v>3.9328703703703706E-2</v>
-      </c>
-      <c r="W18" s="9">
-        <f t="shared" si="2"/>
-        <v>0.95556805399325095</v>
-      </c>
-      <c r="X18" s="5"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19">
-        <v>1105366146</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="4">
-        <v>3.8437499999999999E-2</v>
-      </c>
-      <c r="G19" s="9">
-        <f>IF(F19/$G$2&lt;=1.001,F19/$G$2,0.6)</f>
-        <v>0.6</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
-        <f>IF(H19/$I$2&lt;=1.001,H19/$I$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1.3148148148148148E-2</v>
-      </c>
-      <c r="K19" s="9">
-        <f>IF(J19/$K$2&lt;=1.001,J19/$K$2,0.6)</f>
-        <v>0.36574372182871867</v>
-      </c>
-      <c r="L19" s="4">
-        <v>7.6620370370370366E-3</v>
-      </c>
-      <c r="M19" s="9">
-        <f>IF(L19/$M$2&lt;=1.001,L19/$M$2,0.6)</f>
-        <v>0.33706720977596738</v>
-      </c>
-      <c r="N19" s="1">
-        <v>4.6215277777777779E-2</v>
-      </c>
-      <c r="O19" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99057305879434376</v>
-      </c>
-      <c r="P19" s="1">
-        <v>4.3206018518518519E-2</v>
-      </c>
-      <c r="Q19" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R19" s="5">
-        <f>AVERAGE(G19,I19,K19,M19,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.7444866586658585</v>
-      </c>
-      <c r="S19" s="14">
-        <v>5</v>
-      </c>
-      <c r="T19" s="5" t="str" cm="1">
-        <f t="array" ref="T19">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U19" s="5"/>
-      <c r="V19" s="1">
-        <v>3.3819444444444444E-2</v>
-      </c>
-      <c r="W19" s="9">
-        <f t="shared" si="2"/>
-        <v>0.82170978627671543</v>
-      </c>
-      <c r="X19" s="5"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20">
-        <v>1004189893</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <f>IF(F20/$G$2&lt;=1.001,F20/$G$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <f>IF(H20/$I$2&lt;=1.001,H20/$I$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
-        <f>IF(J20/$K$2&lt;=1.001,J20/$K$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9">
-        <f>IF(L20/$M$2&lt;=1.001,L20/$M$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="5">
-        <f>AVERAGE(G20,I20,K20,M20,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="14"/>
-      <c r="T20" s="5" t="str" cm="1">
-        <f t="array" ref="T20">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
-      </c>
-      <c r="U20" s="5"/>
-      <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="5"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21">
-        <v>1062276579</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <f>IF(F21/$G$2&lt;=1.001,F21/$G$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>3.9016203703703706E-2</v>
-      </c>
-      <c r="I21" s="9">
-        <f>IF(H21/$I$2&lt;=1.001,H21/$I$2,0.6)</f>
-        <v>0.98079720686645322</v>
-      </c>
-      <c r="J21" s="4">
-        <v>3.5960648148148151E-2</v>
-      </c>
-      <c r="K21" s="9">
-        <f>IF(J21/$K$2&lt;=1.001,J21/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
-      </c>
-      <c r="L21" s="4">
-        <v>2.2650462962962963E-2</v>
-      </c>
-      <c r="M21" s="9">
-        <f>IF(L21/$M$2&lt;=1.001,L21/$M$2,0.6)</f>
-        <v>0.99643584521384931</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="1">
-        <v>7.8240740740740736E-3</v>
-      </c>
-      <c r="Q21" s="9">
-        <f t="shared" si="1"/>
-        <v>0.18108759710688452</v>
-      </c>
-      <c r="R21" s="5">
-        <f>AVERAGE(G21,I21,K21,M21,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.6322021722406648</v>
-      </c>
-      <c r="S21" s="14">
-        <v>8</v>
-      </c>
-      <c r="T21" s="5" t="e" cm="1">
-        <f t="array" ref="T21">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U21" s="5"/>
-      <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="5"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22">
-        <v>1058932076</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="4">
-        <v>3.6388888888888887E-2</v>
-      </c>
-      <c r="G22" s="9">
-        <f>IF(F22/$G$2&lt;=1.001,F22/$G$2,0.6)</f>
-        <v>0.6</v>
-      </c>
-      <c r="H22" s="4">
-        <v>3.9282407407407405E-2</v>
-      </c>
-      <c r="I22" s="9">
-        <f>IF(H22/$I$2&lt;=1.001,H22/$I$2,0.6)</f>
-        <v>0.98748908932208301</v>
-      </c>
-      <c r="J22" s="4">
-        <v>3.5960648148148151E-2</v>
-      </c>
-      <c r="K22" s="9">
-        <f>IF(J22/$K$2&lt;=1.001,J22/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
-      </c>
-      <c r="L22" s="4">
-        <v>2.2395833333333334E-2</v>
-      </c>
-      <c r="M22" s="9">
-        <f>IF(L22/$M$2&lt;=1.001,L22/$M$2,0.6)</f>
-        <v>0.98523421588594706</v>
-      </c>
-      <c r="N22" s="1">
-        <v>4.6608796296296294E-2</v>
-      </c>
-      <c r="O22" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99900769039940451</v>
-      </c>
-      <c r="P22" s="1">
-        <v>4.3206018518518519E-2</v>
-      </c>
-      <c r="Q22" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R22" s="5">
-        <f>AVERAGE(G22,I22,K22,M22,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6433774609242038</v>
-      </c>
-      <c r="S22" s="14">
-        <v>7</v>
-      </c>
-      <c r="T22" s="5" t="str" cm="1">
-        <f t="array" ref="T22">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U22" s="5"/>
-      <c r="V22" s="1">
-        <v>3.6574074074074071E-2</v>
-      </c>
-      <c r="W22" s="9">
-        <f t="shared" si="2"/>
-        <v>0.88863892013498313</v>
-      </c>
-      <c r="X22" s="5"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23">
-        <v>1113362057</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1.7326388888888888E-2</v>
-      </c>
-      <c r="G23" s="9">
-        <f>IF(F23/$G$2&lt;=1.001,F23/$G$2,0.6)</f>
-        <v>0.99336429993364284</v>
-      </c>
-      <c r="H23" s="4">
-        <v>3.9212962962962963E-2</v>
-      </c>
-      <c r="I23" s="9">
-        <f>IF(H23/$I$2&lt;=1.001,H23/$I$2,0.6)</f>
-        <v>0.98574338085539703</v>
-      </c>
-      <c r="J23" s="4">
-        <v>3.5960648148148151E-2</v>
-      </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <f>IF(J23/$K$2&lt;=1.001,J23/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
-      <c r="L23" s="4">
-        <v>2.2268518518518517E-2</v>
-      </c>
-      <c r="M23" s="9">
+      <c r="L23" s="3">
+        <v>2.2662037037037036E-2</v>
+      </c>
+      <c r="M23" s="8">
         <f>IF(L23/$M$2&lt;=1.001,L23/$M$2,0.6)</f>
-        <v>0.97963340122199594</v>
+        <v>0.9969450101832994</v>
       </c>
       <c r="N23" s="1">
-        <v>4.6527777777777779E-2</v>
-      </c>
-      <c r="O23" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99727114859836263</v>
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="O23" s="8">
+        <f>IF(N23/$O$2&lt;=1.001,N23/$O$2,0.6)</f>
+        <v>1.0002480774001488</v>
       </c>
       <c r="P23" s="1">
-        <v>3.2187500000000001E-2</v>
-      </c>
-      <c r="Q23" s="9">
-        <f t="shared" si="1"/>
-        <v>0.7449772301098313</v>
-      </c>
-      <c r="R23" s="5">
+        <v>4.3206018518518519E-2</v>
+      </c>
+      <c r="Q23" s="8">
+        <f>IF(P23/$Q$2&lt;=1.001,P23/$Q$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="R23" s="4">
         <f>AVERAGE(G23,I23,K23,M23,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.7510928485173665</v>
-      </c>
-      <c r="S23" s="14">
+        <v>4.9629852704650652</v>
+      </c>
+      <c r="S23" s="13">
         <v>7</v>
       </c>
-      <c r="T23" s="5" t="str" cm="1">
+      <c r="T23" s="4" t="str" cm="1">
         <f t="array" ref="T23">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
         <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
       </c>
-      <c r="U23" s="5"/>
-      <c r="V23" s="1">
-        <v>3.8055555555555558E-2</v>
-      </c>
-      <c r="W23" s="9">
-        <f t="shared" si="2"/>
-        <v>0.92463442069741286</v>
-      </c>
-      <c r="X23" s="5"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U23" s="29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V23" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="W23" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="X23" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="Y23" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="Z23" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA23" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>4.5548955811395198</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>4.1157407407407406E-2</v>
+      </c>
+      <c r="AC23" s="8">
+        <f>IF(AB23/$AC$2&lt;=1.01,AB23/$AC$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="AD23" s="4"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D24">
-        <v>1112389849</v>
+        <v>1112388822</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="4">
-        <v>4.3043981481481482E-2</v>
-      </c>
-      <c r="G24" s="9">
+        <v>52</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.7337962962962961E-2</v>
+      </c>
+      <c r="G24" s="8">
         <f>IF(F24/$G$2&lt;=1.001,F24/$G$2,0.6)</f>
+        <v>0.99402786994027859</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3.9224537037037037E-2</v>
+      </c>
+      <c r="I24" s="8">
+        <f>IF(H24/$I$2&lt;=1.001,H24/$I$2,0.6)</f>
+        <v>0.98603433226651138</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3.5879629629629629E-2</v>
+      </c>
+      <c r="K24" s="8">
+        <f>IF(J24/$K$2&lt;=1.001,J24/$K$2,0.6)</f>
+        <v>0.99806825499034135</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8">
+        <f>IF(L24/$M$2&lt;=1.001,L24/$M$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>3.2685185185185185E-2</v>
+      </c>
+      <c r="O24" s="8">
+        <f>IF(N24/$O$2&lt;=1.001,N24/$O$2,0.6)</f>
+        <v>0.70057057802034228</v>
+      </c>
+      <c r="P24" s="1">
+        <v>3.3252314814814818E-2</v>
+      </c>
+      <c r="Q24" s="8">
+        <f>IF(P24/$Q$2&lt;=1.001,P24/$Q$2,0.6)</f>
+        <v>0.76962228770425933</v>
+      </c>
+      <c r="R24" s="4">
+        <f>AVERAGE(G24,I24,K24,M24,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>3.7069361024347773</v>
+      </c>
+      <c r="S24" s="13">
+        <v>4</v>
+      </c>
+      <c r="T24" s="4" t="str" cm="1">
+        <f t="array" ref="T24">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U24" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="V24" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="W24" s="29">
+        <v>4</v>
+      </c>
+      <c r="X24" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="Y24" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA24" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>4.1360808307304335</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>3.2615740740740744E-2</v>
+      </c>
+      <c r="AC24" s="8">
+        <f>IF(AB24/$AC$2&lt;=1.01,AB24/$AC$2,0.6)</f>
+        <v>0.7924634420697414</v>
+      </c>
+      <c r="AD24" s="4"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25">
+        <v>1061688602</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1.7303240740740741E-2</v>
+      </c>
+      <c r="G25" s="8">
+        <f>IF(F25/$G$2&lt;=1.001,F25/$G$2,0.6)</f>
+        <v>0.99203715992037156</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3.9247685185185184E-2</v>
+      </c>
+      <c r="I25" s="8">
+        <f>IF(H25/$I$2&lt;=1.001,H25/$I$2,0.6)</f>
+        <v>0.98661623508874008</v>
+      </c>
+      <c r="J25" s="3">
+        <v>3.5891203703703703E-2</v>
+      </c>
+      <c r="K25" s="8">
+        <f>IF(J25/$K$2&lt;=1.001,J25/$K$2,0.6)</f>
+        <v>0.99839021249195115</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2.162037037037037E-2</v>
+      </c>
+      <c r="M25" s="8">
+        <f>IF(L25/$M$2&lt;=1.001,L25/$M$2,0.6)</f>
+        <v>0.95112016293279023</v>
+      </c>
+      <c r="N25" s="1">
+        <v>4.6122685185185183E-2</v>
+      </c>
+      <c r="O25" s="8">
+        <f>IF(N25/$O$2&lt;=1.001,N25/$O$2,0.6)</f>
+        <v>0.98858843959315301</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="8">
+        <f>IF(P25/$Q$2&lt;=1.001,P25/$Q$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <f>AVERAGE(G25,I25,K25,M25,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.0972935083558388</v>
+      </c>
+      <c r="S25" s="13">
+        <v>8</v>
+      </c>
+      <c r="T25" s="4" t="e" cm="1">
+        <f t="array" ref="T25">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U25" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V25" s="29">
+        <v>0</v>
+      </c>
+      <c r="W25" s="29">
+        <v>0</v>
+      </c>
+      <c r="X25" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="Y25" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>1.6911880525067515</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="8">
+        <f>IF(AB25/$AC$2&lt;=1.01,AB25/$AC$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="4"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26">
+        <v>1143992171</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3.4791666666666665E-2</v>
+      </c>
+      <c r="G26" s="8">
+        <f>IF(F26/$G$2&lt;=1.001,F26/$G$2,0.6)</f>
         <v>0.6</v>
       </c>
-      <c r="H24" s="4">
-        <v>3.923611111111111E-2</v>
-      </c>
-      <c r="I24" s="9">
-        <f>IF(H24/$I$2&lt;=1.001,H24/$I$2,0.6)</f>
-        <v>0.98632528367762573</v>
-      </c>
-      <c r="J24" s="4">
-        <v>3.591435185185185E-2</v>
-      </c>
-      <c r="K24" s="9">
-        <f>IF(J24/$K$2&lt;=1.001,J24/$K$2,0.6)</f>
-        <v>0.99903412749517073</v>
-      </c>
-      <c r="L24" s="4">
-        <v>2.2731481481481481E-2</v>
-      </c>
-      <c r="M24" s="9">
-        <f>IF(L24/$M$2&lt;=1.001,L24/$M$2,0.6)</f>
+      <c r="H26" s="3">
+        <v>7.1990740740740739E-3</v>
+      </c>
+      <c r="I26" s="8">
+        <f>IF(H26/$I$2&lt;=1.001,H26/$I$2,0.6)</f>
+        <v>0.1809717777131219</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K26" s="8">
+        <f>IF(J26/$K$2&lt;=1.001,J26/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1.9398148148148147E-2</v>
+      </c>
+      <c r="M26" s="8">
+        <f>IF(L26/$M$2&lt;=1.001,L26/$M$2,0.6)</f>
+        <v>0.85336048879837068</v>
+      </c>
+      <c r="N26" s="1">
+        <v>4.5810185185185183E-2</v>
+      </c>
+      <c r="O26" s="8">
+        <f>IF(N26/$O$2&lt;=1.001,N26/$O$2,0.6)</f>
+        <v>0.98189034978913414</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="8">
+        <f>IF(P26/$Q$2&lt;=1.001,P26/$Q$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <f>AVERAGE(G26,I26,K26,M26,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>3.0137871448351969</v>
+      </c>
+      <c r="S26" s="13"/>
+      <c r="T26" s="4" t="str" cm="1">
+        <f t="array" ref="T26">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>--</v>
+      </c>
+      <c r="U26" s="29">
+        <v>0</v>
+      </c>
+      <c r="V26" s="29">
+        <v>0</v>
+      </c>
+      <c r="W26" s="29">
+        <v>0</v>
+      </c>
+      <c r="X26" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>0.90413614345055904</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="8">
+        <f>IF(AB26/$AC$2&lt;=1.01,AB26/$AC$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="4"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27">
+        <v>1112041894</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3.7592592592592594E-2</v>
+      </c>
+      <c r="G27" s="8">
+        <f>IF(F27/$G$2&lt;=1.001,F27/$G$2,0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2.7164351851851853E-2</v>
+      </c>
+      <c r="I27" s="8">
+        <f>IF(H27/$I$2&lt;=1.001,H27/$I$2,0.6)</f>
+        <v>0.68286296188536511</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8">
+        <f>IF(J27/$K$2&lt;=1.001,J27/$K$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8">
+        <f>IF(L27/$M$2&lt;=1.001,L27/$M$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>4.1226851851851855E-2</v>
+      </c>
+      <c r="O27" s="8">
+        <f>IF(N27/$O$2&lt;=1.001,N27/$O$2,0.6)</f>
+        <v>0.88365169933019105</v>
+      </c>
+      <c r="P27" s="1">
+        <v>4.2858796296296298E-2</v>
+      </c>
+      <c r="Q27" s="8">
+        <f>IF(P27/$Q$2&lt;=1.001,P27/$Q$2,0.6)</f>
+        <v>0.99196356817573006</v>
+      </c>
+      <c r="R27" s="4">
+        <f>AVERAGE(G27,I27,K27,M27,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>2.6320651911594055</v>
+      </c>
+      <c r="S27" s="13">
+        <v>5</v>
+      </c>
+      <c r="T27" s="4" t="str" cm="1">
+        <f t="array" ref="T27">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U27" s="29">
         <v>1</v>
       </c>
-      <c r="N24" s="1">
-        <v>4.659722222222222E-2</v>
-      </c>
-      <c r="O24" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99875961299925564</v>
-      </c>
-      <c r="P24" s="1">
-        <v>4.189814814814815E-2</v>
-      </c>
-      <c r="Q24" s="9">
-        <f t="shared" si="1"/>
-        <v>0.96972944012858298</v>
-      </c>
-      <c r="R24" s="5">
-        <f>AVERAGE(G24,I24,K24,M24,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6282070535838633</v>
-      </c>
-      <c r="S24" s="14">
-        <v>6</v>
-      </c>
-      <c r="T24" s="5" t="str" cm="1">
-        <f t="array" ref="T24">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U24" s="5"/>
-      <c r="V24" s="1">
-        <v>3.7615740740740741E-2</v>
-      </c>
-      <c r="W24" s="9">
-        <f t="shared" si="2"/>
-        <v>0.91394825646794153</v>
-      </c>
-      <c r="X24" s="5"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25">
-        <v>1036925847</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
-        <f>IF(F25/$G$2&lt;=1.001,F25/$G$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>3.9178240740740743E-2</v>
-      </c>
-      <c r="I25" s="9">
-        <f>IF(H25/$I$2&lt;=1.001,H25/$I$2,0.6)</f>
-        <v>0.9848705266220541</v>
-      </c>
-      <c r="J25" s="4">
-        <v>3.5844907407407409E-2</v>
-      </c>
-      <c r="K25" s="9">
-        <f>IF(J25/$K$2&lt;=1.001,J25/$K$2,0.6)</f>
-        <v>0.99710238248551208</v>
-      </c>
-      <c r="L25" s="4">
-        <v>0</v>
-      </c>
-      <c r="M25" s="9">
-        <f>IF(L25/$M$2&lt;=1.001,L25/$M$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>3.7858796296296293E-2</v>
-      </c>
-      <c r="O25" s="9">
-        <f t="shared" si="0"/>
-        <v>0.81146117588687661</v>
-      </c>
-      <c r="P25" s="1">
-        <v>3.1886574074074074E-2</v>
-      </c>
-      <c r="Q25" s="9">
-        <f t="shared" si="1"/>
-        <v>0.73801232252879723</v>
-      </c>
-      <c r="R25" s="5">
-        <f>AVERAGE(G25,I25,K25,M25,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.9428720062693667</v>
-      </c>
-      <c r="S25" s="14">
-        <v>1</v>
-      </c>
-      <c r="T25" s="5" t="str" cm="1">
-        <f t="array" ref="T25">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U25" s="5"/>
-      <c r="V25" s="1">
-        <v>4.1157407407407406E-2</v>
-      </c>
-      <c r="W25" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X25" s="5"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26">
-        <v>1107837413</v>
-      </c>
-      <c r="E26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
-        <f>IF(F26/$G$2&lt;=1.001,F26/$G$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>3.7743055555555557E-2</v>
-      </c>
-      <c r="I26" s="9">
-        <f>IF(H26/$I$2&lt;=1.001,H26/$I$2,0.6)</f>
-        <v>0.94879255164387544</v>
-      </c>
-      <c r="J26" s="4">
-        <v>3.5925925925925924E-2</v>
-      </c>
-      <c r="K26" s="9">
-        <f>IF(J26/$K$2&lt;=1.001,J26/$K$2,0.6)</f>
-        <v>0.99935608499678041</v>
-      </c>
-      <c r="L26" s="4">
-        <v>2.0636574074074075E-2</v>
-      </c>
-      <c r="M26" s="9">
-        <f>IF(L26/$M$2&lt;=1.001,L26/$M$2,0.6)</f>
-        <v>0.90784114052953158</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
-      <c r="O26" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="1">
-        <v>3.9016203703703706E-2</v>
-      </c>
-      <c r="Q26" s="9">
-        <f t="shared" si="1"/>
-        <v>0.90302705598714172</v>
-      </c>
-      <c r="R26" s="5">
-        <f>AVERAGE(G26,I26,K26,M26,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.1325140276311076</v>
-      </c>
-      <c r="S26" s="14">
-        <v>2</v>
-      </c>
-      <c r="T26" s="5" t="str" cm="1">
-        <f t="array" ref="T26">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U26" s="5"/>
-      <c r="V26" s="1">
-        <v>3.8090277777777778E-2</v>
-      </c>
-      <c r="W26" s="9">
-        <f t="shared" si="2"/>
-        <v>0.92547806524184484</v>
-      </c>
-      <c r="X26" s="5"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>29</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27">
-        <v>1234198199</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1.7337962962962961E-2</v>
-      </c>
-      <c r="G27" s="9">
-        <f>IF(F27/$G$2&lt;=1.001,F27/$G$2,0.6)</f>
-        <v>0.99402786994027859</v>
-      </c>
-      <c r="H27" s="4">
-        <v>3.8796296296296294E-2</v>
-      </c>
-      <c r="I27" s="9">
-        <f>IF(H27/$I$2&lt;=1.001,H27/$I$2,0.6)</f>
-        <v>0.9752691300552806</v>
-      </c>
-      <c r="J27" s="4">
-        <v>2.2928240740740742E-2</v>
-      </c>
-      <c r="K27" s="9">
-        <f>IF(J27/$K$2&lt;=1.001,J27/$K$2,0.6)</f>
-        <v>0.63779781068898911</v>
-      </c>
-      <c r="L27" s="4">
-        <v>7.1296296296296299E-3</v>
-      </c>
-      <c r="M27" s="9">
-        <f>IF(L27/$M$2&lt;=1.001,L27/$M$2,0.6)</f>
-        <v>0.31364562118126277</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
-      <c r="O27" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="5">
-        <f>AVERAGE(G27,I27,K27,M27,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.433950359888176</v>
-      </c>
-      <c r="S27" s="14"/>
-      <c r="T27" s="5" t="str" cm="1">
-        <f t="array" ref="T27">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
-      </c>
-      <c r="U27" s="5"/>
-      <c r="V27" s="1">
-        <v>3.8101851851851852E-2</v>
-      </c>
-      <c r="W27" s="9">
-        <f t="shared" si="2"/>
-        <v>0.92575928008998876</v>
-      </c>
-      <c r="X27" s="5"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V27" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="W27" s="29">
+        <v>2.8</v>
+      </c>
+      <c r="X27" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="Y27" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA27" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>2.6236195573478214</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>4.0208333333333332E-2</v>
+      </c>
+      <c r="AC27" s="8">
+        <f>IF(AB27/$AC$2&lt;=1.01,AB27/$AC$2,0.6)</f>
+        <v>0.9769403824521935</v>
+      </c>
+      <c r="AD27" s="4"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D28">
-        <v>1005892878</v>
+        <v>1076904274</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1.744212962962963E-2</v>
-      </c>
-      <c r="G28" s="9">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1.7430555555555557E-2</v>
+      </c>
+      <c r="G28" s="8">
         <f>IF(F28/$G$2&lt;=1.001,F28/$G$2,0.6)</f>
-        <v>1</v>
-      </c>
-      <c r="H28" s="4">
+        <v>0.99933642999336436</v>
+      </c>
+      <c r="H28" s="3">
         <v>3.9814814814814817E-2</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <f>IF(H28/$I$2&lt;=1.001,H28/$I$2,0.6)</f>
         <v>1.0008728542333429</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
+        <v>3.5451388888888886E-2</v>
+      </c>
+      <c r="K28" s="8">
+        <f>IF(J28/$K$2&lt;=1.001,J28/$K$2,0.6)</f>
+        <v>0.98615582743077912</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1.4166666666666666E-2</v>
+      </c>
+      <c r="M28" s="8">
+        <f>IF(L28/$M$2&lt;=1.001,L28/$M$2,0.6)</f>
+        <v>0.62321792260692466</v>
+      </c>
+      <c r="N28" s="1">
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="O28" s="8">
+        <f>IF(N28/$O$2&lt;=1.001,N28/$O$2,0.6)</f>
+        <v>1.0002480774001488</v>
+      </c>
+      <c r="P28" s="1">
+        <v>4.3159722222222224E-2</v>
+      </c>
+      <c r="Q28" s="8">
+        <f>IF(P28/$Q$2&lt;=1.001,P28/$Q$2,0.6)</f>
+        <v>0.99892847575676402</v>
+      </c>
+      <c r="R28" s="4">
+        <f>AVERAGE(G28,I28,K28,M28,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.6739663228511033</v>
+      </c>
+      <c r="S28" s="13">
+        <v>6</v>
+      </c>
+      <c r="T28" s="4" t="str" cm="1">
+        <f t="array" ref="T28">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U28" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="V28" s="29">
+        <v>4</v>
+      </c>
+      <c r="W28" s="29">
+        <v>5</v>
+      </c>
+      <c r="X28" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="Y28" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="AA28" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>3.7541898968553307</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="8">
+        <f>IF(AB28/$AC$2&lt;=1.01,AB28/$AC$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="4"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29">
+        <v>1006343564</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1.7337962962962961E-2</v>
+      </c>
+      <c r="G29" s="8">
+        <f>IF(F29/$G$2&lt;=1.001,F29/$G$2,0.6)</f>
+        <v>0.99402786994027859</v>
+      </c>
+      <c r="H29" s="3">
+        <v>3.9814814814814817E-2</v>
+      </c>
+      <c r="I29" s="8">
+        <f>IF(H29/$I$2&lt;=1.001,H29/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
+      </c>
+      <c r="J29" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
-      <c r="K28" s="9">
-        <f>IF(J28/$K$2&lt;=1.001,J28/$K$2,0.6)</f>
+      <c r="K29" s="8">
+        <f>IF(J29/$K$2&lt;=1.001,J29/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
-      <c r="L28" s="4">
-        <v>1.8935185185185187E-2</v>
-      </c>
-      <c r="M28" s="9">
-        <f>IF(L28/$M$2&lt;=1.001,L28/$M$2,0.6)</f>
-        <v>0.83299389002036672</v>
-      </c>
-      <c r="N28" s="1">
-        <v>4.5497685185185183E-2</v>
-      </c>
-      <c r="O28" s="9">
-        <f t="shared" si="0"/>
-        <v>0.97519225998511527</v>
-      </c>
-      <c r="P28" s="1">
-        <v>4.1145833333333333E-2</v>
-      </c>
-      <c r="Q28" s="9">
-        <f t="shared" si="1"/>
-        <v>0.95231717117599779</v>
-      </c>
-      <c r="R28" s="5">
-        <f>AVERAGE(G28,I28,K28,M28,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.8014151107636938</v>
-      </c>
-      <c r="S28" s="14">
+      <c r="L29" s="9">
+        <v>2.2731481481481481E-2</v>
+      </c>
+      <c r="M29" s="10">
+        <f>IF(L29/$M$2&lt;=1.001,L29/$M$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2.9768518518518517E-2</v>
+      </c>
+      <c r="O29" s="8">
+        <f>IF(N29/$O$2&lt;=1.001,N29/$O$2,0.6)</f>
+        <v>0.63805507318283294</v>
+      </c>
+      <c r="P29" s="1">
+        <v>4.1909722222222223E-2</v>
+      </c>
+      <c r="Q29" s="8">
+        <f>IF(P29/$Q$2&lt;=1.001,P29/$Q$2,0.6)</f>
+        <v>0.96999732118939197</v>
+      </c>
+      <c r="R29" s="4">
+        <f>AVERAGE(G29,I29,K29,M29,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.6693958967062139</v>
+      </c>
+      <c r="S29" s="13">
+        <v>3</v>
+      </c>
+      <c r="T29" s="4" t="str" cm="1">
+        <f t="array" ref="T29">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U29" s="29">
         <v>5</v>
       </c>
-      <c r="T28" s="5" t="str" cm="1">
-        <f t="array" ref="T28">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U28" s="5"/>
-      <c r="V28" s="1">
-        <v>3.9305555555555559E-2</v>
-      </c>
-      <c r="W28" s="9">
-        <f t="shared" si="2"/>
-        <v>0.95500562429696301</v>
-      </c>
-      <c r="X28" s="5"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29">
-        <v>1104804719</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="4">
-        <v>3.4641203703703702E-2</v>
-      </c>
-      <c r="G29" s="9">
-        <f>IF(F29/$G$2&lt;=1.001,F29/$G$2,0.6)</f>
+      <c r="V29" s="29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W29" s="29">
+        <v>4</v>
+      </c>
+      <c r="X29" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="Y29" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA29" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>4.3968187690118636</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>3.8124999999999999E-2</v>
+      </c>
+      <c r="AC29" s="8">
+        <f>IF(AB29/$AC$2&lt;=1.01,AB29/$AC$2,0.6)</f>
+        <v>0.9263217097862767</v>
+      </c>
+      <c r="AD29" s="4"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30">
+        <v>1107839506</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1.744212962962963E-2</v>
+      </c>
+      <c r="G30" s="8">
+        <f>IF(F30/$G$2&lt;=1.001,F30/$G$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3.9270833333333331E-2</v>
+      </c>
+      <c r="I30" s="8">
+        <f>IF(H30/$I$2&lt;=1.001,H30/$I$2,0.6)</f>
+        <v>0.98719813791096878</v>
+      </c>
+      <c r="J30" s="3">
+        <v>3.591435185185185E-2</v>
+      </c>
+      <c r="K30" s="8">
+        <f>IF(J30/$K$2&lt;=1.001,J30/$K$2,0.6)</f>
+        <v>0.99903412749517073</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1.9351851851851853E-2</v>
+      </c>
+      <c r="M30" s="8">
+        <f>IF(L30/$M$2&lt;=1.001,L30/$M$2,0.6)</f>
+        <v>0.85132382892057035</v>
+      </c>
+      <c r="N30" s="1">
+        <v>4.2256944444444444E-2</v>
+      </c>
+      <c r="O30" s="8">
+        <f>IF(N30/$O$2&lt;=1.001,N30/$O$2,0.6)</f>
+        <v>0.9057305879434383</v>
+      </c>
+      <c r="P30" s="1">
+        <v>3.9687500000000001E-2</v>
+      </c>
+      <c r="Q30" s="8">
+        <f>IF(P30/$Q$2&lt;=1.001,P30/$Q$2,0.6)</f>
+        <v>0.91856415751406373</v>
+      </c>
+      <c r="R30" s="4">
+        <f>AVERAGE(G30,I30,K30,M30,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.71820903315351</v>
+      </c>
+      <c r="S30" s="13">
+        <v>6</v>
+      </c>
+      <c r="T30" s="4" t="str" cm="1">
+        <f t="array" ref="T30">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U30" s="29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V30" s="29">
+        <v>4.7</v>
+      </c>
+      <c r="W30" s="29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X30" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="Y30" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="AA30" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>4.341462709946053</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="8">
+        <f>IF(AB30/$AC$2&lt;=1.01,AB30/$AC$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="4"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31">
+        <v>1112389849</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="3">
+        <v>4.3043981481481482E-2</v>
+      </c>
+      <c r="G31" s="8">
+        <f>IF(F31/$G$2&lt;=1.001,F31/$G$2,0.6)</f>
         <v>0.6</v>
       </c>
-      <c r="H29" s="4">
-        <v>3.9178240740740743E-2</v>
-      </c>
-      <c r="I29" s="9">
-        <f>IF(H29/$I$2&lt;=1.001,H29/$I$2,0.6)</f>
-        <v>0.9848705266220541</v>
-      </c>
-      <c r="J29" s="4">
-        <v>3.5856481481481482E-2</v>
-      </c>
-      <c r="K29" s="9">
-        <f>IF(J29/$K$2&lt;=1.001,J29/$K$2,0.6)</f>
-        <v>0.99742433998712177</v>
-      </c>
-      <c r="L29" s="4">
-        <v>1.9652777777777779E-2</v>
-      </c>
-      <c r="M29" s="9">
-        <f>IF(L29/$M$2&lt;=1.001,L29/$M$2,0.6)</f>
-        <v>0.86456211812627304</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0</v>
-      </c>
-      <c r="O29" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="1">
-        <v>3.9768518518518516E-2</v>
-      </c>
-      <c r="Q29" s="9">
-        <f t="shared" si="1"/>
-        <v>0.92043932493972669</v>
-      </c>
-      <c r="R29" s="5">
-        <f>AVERAGE(G29,I29,K29,M29,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.6394135913959795</v>
-      </c>
-      <c r="S29" s="14">
-        <v>4</v>
-      </c>
-      <c r="T29" s="5" t="str" cm="1">
-        <f t="array" ref="T29">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U29" s="5"/>
-      <c r="V29" s="1">
-        <v>4.0914351851851855E-2</v>
-      </c>
-      <c r="W29" s="9">
-        <f t="shared" si="2"/>
-        <v>0.9940944881889765</v>
-      </c>
-      <c r="X29" s="5"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30">
-        <v>1005832925</v>
-      </c>
-      <c r="E30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1.7314814814814814E-2</v>
-      </c>
-      <c r="G30" s="9">
-        <f>IF(F30/$G$2&lt;=1.001,F30/$G$2,0.6)</f>
-        <v>0.9927007299270072</v>
-      </c>
-      <c r="H30" s="4">
-        <v>3.9814814814814817E-2</v>
-      </c>
-      <c r="I30" s="9">
-        <f>IF(H30/$I$2&lt;=1.001,H30/$I$2,0.6)</f>
-        <v>1.0008728542333429</v>
-      </c>
-      <c r="J30" s="4">
-        <v>3.5868055555555556E-2</v>
-      </c>
-      <c r="K30" s="9">
-        <f>IF(J30/$K$2&lt;=1.001,J30/$K$2,0.6)</f>
-        <v>0.99774629748873156</v>
-      </c>
-      <c r="L30" s="4">
-        <v>2.1909722222222223E-2</v>
-      </c>
-      <c r="M30" s="9">
-        <f>IF(L30/$M$2&lt;=1.001,L30/$M$2,0.6)</f>
-        <v>0.96384928716904283</v>
-      </c>
-      <c r="N30" s="1">
-        <v>4.6631944444444441E-2</v>
-      </c>
-      <c r="O30" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99950384519970215</v>
-      </c>
-      <c r="P30" s="1">
-        <v>4.2488425925925923E-2</v>
-      </c>
-      <c r="Q30" s="9">
-        <f t="shared" si="1"/>
-        <v>0.98339137422984191</v>
-      </c>
-      <c r="R30" s="5">
-        <f>AVERAGE(G30,I30,K30,M30,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9483869902063908</v>
-      </c>
-      <c r="S30" s="14">
-        <v>3</v>
-      </c>
-      <c r="T30" s="5" t="str" cm="1">
-        <f t="array" ref="T30">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U30" s="5"/>
-      <c r="V30" s="1">
-        <v>3.8379629629629632E-2</v>
-      </c>
-      <c r="W30" s="9">
-        <f t="shared" si="2"/>
-        <v>0.93250843644544434</v>
-      </c>
-      <c r="X30" s="5"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31">
-        <v>1006343564</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1.7337962962962961E-2</v>
-      </c>
-      <c r="G31" s="9">
-        <f>IF(F31/$G$2&lt;=1.001,F31/$G$2,0.6)</f>
-        <v>0.99402786994027859</v>
-      </c>
-      <c r="H31" s="4">
-        <v>3.9814814814814817E-2</v>
-      </c>
-      <c r="I31" s="9">
+      <c r="H31" s="3">
+        <v>3.923611111111111E-2</v>
+      </c>
+      <c r="I31" s="8">
         <f>IF(H31/$I$2&lt;=1.001,H31/$I$2,0.6)</f>
-        <v>1.0008728542333429</v>
-      </c>
-      <c r="J31" s="4">
-        <v>3.5960648148148151E-2</v>
-      </c>
-      <c r="K31" s="9">
+        <v>0.98632528367762573</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3.591435185185185E-2</v>
+      </c>
+      <c r="K31" s="8">
         <f>IF(J31/$K$2&lt;=1.001,J31/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
-      </c>
-      <c r="L31" s="10">
+        <v>0.99903412749517073</v>
+      </c>
+      <c r="L31" s="3">
         <v>2.2731481481481481E-2</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="8">
         <f>IF(L31/$M$2&lt;=1.001,L31/$M$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="N31" s="1">
-        <v>2.9768518518518517E-2</v>
-      </c>
-      <c r="O31" s="9">
-        <f t="shared" si="0"/>
-        <v>0.63805507318283294</v>
+        <v>4.659722222222222E-2</v>
+      </c>
+      <c r="O31" s="8">
+        <f>IF(N31/$O$2&lt;=1.001,N31/$O$2,0.6)</f>
+        <v>0.99875961299925564</v>
       </c>
       <c r="P31" s="1">
-        <v>4.1909722222222223E-2</v>
-      </c>
-      <c r="Q31" s="9">
-        <f t="shared" si="1"/>
-        <v>0.96999732118939197</v>
-      </c>
-      <c r="R31" s="5">
+        <v>4.189814814814815E-2</v>
+      </c>
+      <c r="Q31" s="8">
+        <f>IF(P31/$Q$2&lt;=1.001,P31/$Q$2,0.6)</f>
+        <v>0.96972944012858298</v>
+      </c>
+      <c r="R31" s="4">
         <f>AVERAGE(G31,I31,K31,M31,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6693958967062139</v>
-      </c>
-      <c r="S31" s="14">
-        <v>3</v>
-      </c>
-      <c r="T31" s="5" t="str" cm="1">
+        <v>4.6282070535838633</v>
+      </c>
+      <c r="S31" s="13">
+        <v>6</v>
+      </c>
+      <c r="T31" s="4" t="str" cm="1">
         <f t="array" ref="T31">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U31" s="5"/>
-      <c r="V31" s="1">
-        <v>3.8124999999999999E-2</v>
-      </c>
-      <c r="W31" s="9">
-        <f t="shared" si="2"/>
-        <v>0.9263217097862767</v>
-      </c>
-      <c r="X31" s="5"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U31" s="29">
+        <v>5</v>
+      </c>
+      <c r="V31" s="29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W31" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="X31" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="Y31" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="AA31" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>4.3564621160751589</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>3.7615740740740741E-2</v>
+      </c>
+      <c r="AC31" s="8">
+        <f>IF(AB31/$AC$2&lt;=1.01,AB31/$AC$2,0.6)</f>
+        <v>0.91394825646794153</v>
+      </c>
+      <c r="AD31" s="4"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32">
+        <v>1234198199</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1.7337962962962961E-2</v>
+      </c>
+      <c r="G32" s="8">
+        <f>IF(F32/$G$2&lt;=1.001,F32/$G$2,0.6)</f>
+        <v>0.99402786994027859</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3.8796296296296294E-2</v>
+      </c>
+      <c r="I32" s="8">
+        <f>IF(H32/$I$2&lt;=1.001,H32/$I$2,0.6)</f>
+        <v>0.9752691300552806</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2.2928240740740742E-2</v>
+      </c>
+      <c r="K32" s="8">
+        <f>IF(J32/$K$2&lt;=1.001,J32/$K$2,0.6)</f>
+        <v>0.63779781068898911</v>
+      </c>
+      <c r="L32" s="3">
+        <v>7.1296296296296299E-3</v>
+      </c>
+      <c r="M32" s="8">
+        <f>IF(L32/$M$2&lt;=1.001,L32/$M$2,0.6)</f>
+        <v>0.31364562118126277</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="8">
+        <f>IF(N32/$O$2&lt;=1.001,N32/$O$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="8">
+        <f>IF(P32/$Q$2&lt;=1.001,P32/$Q$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="4">
+        <f>AVERAGE(G32,I32,K32,M32,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>2.433950359888176</v>
+      </c>
+      <c r="S32" s="13"/>
+      <c r="T32" s="4" t="str" cm="1">
+        <f t="array" ref="T32">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>--</v>
+      </c>
+      <c r="U32" s="29">
+        <v>0</v>
+      </c>
+      <c r="V32" s="29">
+        <v>0</v>
+      </c>
+      <c r="W32" s="29">
+        <v>0</v>
+      </c>
+      <c r="X32" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>0.73018510796645275</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>3.8101851851851852E-2</v>
+      </c>
+      <c r="AC32" s="8">
+        <f>IF(AB32/$AC$2&lt;=1.01,AB32/$AC$2,0.6)</f>
+        <v>0.92575928008998876</v>
+      </c>
+      <c r="AD32" s="4"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>30</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>73265790</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F33" s="3">
         <v>4.3611111111111114E-2</v>
       </c>
-      <c r="G32" s="9">
-        <f>IF(F32/$G$2&lt;=1.001,F32/$G$2,0.6)</f>
-        <v>0.6</v>
-      </c>
-      <c r="H32" s="4">
-        <v>3.9641203703703706E-2</v>
-      </c>
-      <c r="I32" s="9">
-        <f>IF(H32/$I$2&lt;=1.001,H32/$I$2,0.6)</f>
-        <v>0.99650858306662782</v>
-      </c>
-      <c r="J32" s="4">
-        <v>3.5879629629629629E-2</v>
-      </c>
-      <c r="K32" s="9">
-        <f>IF(J32/$K$2&lt;=1.001,J32/$K$2,0.6)</f>
-        <v>0.99806825499034135</v>
-      </c>
-      <c r="L32" s="4">
-        <v>2.1238425925925924E-2</v>
-      </c>
-      <c r="M32" s="9">
-        <f>IF(L32/$M$2&lt;=1.001,L32/$M$2,0.6)</f>
-        <v>0.93431771894093685</v>
-      </c>
-      <c r="N32" s="1">
-        <v>4.659722222222222E-2</v>
-      </c>
-      <c r="O32" s="9">
-        <f t="shared" si="0"/>
-        <v>0.99875961299925564</v>
-      </c>
-      <c r="P32" s="1">
-        <v>4.1886574074074076E-2</v>
-      </c>
-      <c r="Q32" s="9">
-        <f t="shared" si="1"/>
-        <v>0.96946155906777398</v>
-      </c>
-      <c r="R32" s="5">
-        <f>AVERAGE(G32,I32,K32,M32,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.5809297742207793</v>
-      </c>
-      <c r="S32" s="14">
-        <v>3</v>
-      </c>
-      <c r="T32" s="5" t="str" cm="1">
-        <f t="array" ref="T32">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U32" s="5"/>
-      <c r="V32" s="1">
-        <v>3.8425925925925926E-2</v>
-      </c>
-      <c r="W32" s="9">
-        <f t="shared" si="2"/>
-        <v>0.93363329583802024</v>
-      </c>
-      <c r="X32" s="5"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33">
-        <v>1004217163</v>
-      </c>
-      <c r="E33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="4">
-        <v>4.1458333333333333E-2</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <f>IF(F33/$G$2&lt;=1.001,F33/$G$2,0.6)</f>
         <v>0.6</v>
       </c>
-      <c r="H33" s="4">
-        <v>3.9814814814814817E-2</v>
-      </c>
-      <c r="I33" s="9">
+      <c r="H33" s="3">
+        <v>3.9641203703703706E-2</v>
+      </c>
+      <c r="I33" s="8">
         <f>IF(H33/$I$2&lt;=1.001,H33/$I$2,0.6)</f>
-        <v>1.0008728542333429</v>
-      </c>
-      <c r="J33" s="4">
+        <v>0.99650858306662782</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3.5879629629629629E-2</v>
+      </c>
+      <c r="K33" s="8">
+        <f>IF(J33/$K$2&lt;=1.001,J33/$K$2,0.6)</f>
+        <v>0.99806825499034135</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2.1238425925925924E-2</v>
+      </c>
+      <c r="M33" s="8">
+        <f>IF(L33/$M$2&lt;=1.001,L33/$M$2,0.6)</f>
+        <v>0.93431771894093685</v>
+      </c>
+      <c r="N33" s="1">
+        <v>4.659722222222222E-2</v>
+      </c>
+      <c r="O33" s="8">
+        <f>IF(N33/$O$2&lt;=1.001,N33/$O$2,0.6)</f>
+        <v>0.99875961299925564</v>
+      </c>
+      <c r="P33" s="1">
+        <v>4.1886574074074076E-2</v>
+      </c>
+      <c r="Q33" s="8">
+        <f>IF(P33/$Q$2&lt;=1.001,P33/$Q$2,0.6)</f>
+        <v>0.96946155906777398</v>
+      </c>
+      <c r="R33" s="4">
+        <f>AVERAGE(G33,I33,K33,M33,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
+        <v>4.5809297742207793</v>
+      </c>
+      <c r="S33" s="13">
+        <v>3</v>
+      </c>
+      <c r="T33" s="4" t="str" cm="1">
+        <f t="array" ref="T33">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U33" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V33" s="29">
+        <v>3.9</v>
+      </c>
+      <c r="W33" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="X33" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA33" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>4.5802789322662338</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>3.8425925925925926E-2</v>
+      </c>
+      <c r="AC33" s="8">
+        <f>IF(AB33/$AC$2&lt;=1.01,AB33/$AC$2,0.6)</f>
+        <v>0.93363329583802024</v>
+      </c>
+      <c r="AD33" s="4"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34">
+        <v>1113362057</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1.7326388888888888E-2</v>
+      </c>
+      <c r="G34" s="8">
+        <f>IF(F34/$G$2&lt;=1.001,F34/$G$2,0.6)</f>
+        <v>0.99336429993364284</v>
+      </c>
+      <c r="H34" s="3">
+        <v>3.9212962962962963E-2</v>
+      </c>
+      <c r="I34" s="8">
+        <f>IF(H34/$I$2&lt;=1.001,H34/$I$2,0.6)</f>
+        <v>0.98574338085539703</v>
+      </c>
+      <c r="J34" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
-      <c r="K33" s="9">
-        <f>IF(J33/$K$2&lt;=1.001,J33/$K$2,0.6)</f>
+      <c r="K34" s="8">
+        <f>IF(J34/$K$2&lt;=1.001,J34/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
-      <c r="L33" s="4">
-        <v>2.0798611111111111E-2</v>
-      </c>
-      <c r="M33" s="9">
-        <f>IF(L33/$M$2&lt;=1.001,L33/$M$2,0.6)</f>
-        <v>0.91496945010183306</v>
-      </c>
-      <c r="N33" s="1">
-        <v>4.2013888888888892E-2</v>
-      </c>
-      <c r="O33" s="9">
-        <f t="shared" si="0"/>
-        <v>0.90052096254031255</v>
-      </c>
-      <c r="P33" s="1">
-        <v>3.8773148148148147E-2</v>
-      </c>
-      <c r="Q33" s="9">
-        <f t="shared" si="1"/>
-        <v>0.89740155371015262</v>
-      </c>
-      <c r="R33" s="5">
-        <f>AVERAGE(G33,I33,K33,M33,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.4284056484060423</v>
-      </c>
-      <c r="S33" s="14">
-        <v>4</v>
-      </c>
-      <c r="T33" s="5" t="str" cm="1">
-        <f t="array" ref="T33">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U33" s="5"/>
-      <c r="V33" s="1">
-        <v>4.1076388888888891E-2</v>
-      </c>
-      <c r="W33" s="9">
-        <f t="shared" si="2"/>
-        <v>0.99803149606299224</v>
-      </c>
-      <c r="X33" s="5"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>18</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34">
-        <v>1094883894</v>
-      </c>
-      <c r="E34" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
-        <f>IF(F34/$G$2&lt;=1.001,F34/$G$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="4">
-        <v>3.7743055555555557E-2</v>
-      </c>
-      <c r="I34" s="9">
-        <f>IF(H34/$I$2&lt;=1.001,H34/$I$2,0.6)</f>
-        <v>0.94879255164387544</v>
-      </c>
-      <c r="J34" s="4">
-        <v>2.8715277777777777E-2</v>
-      </c>
-      <c r="K34" s="9">
-        <f>IF(J34/$K$2&lt;=1.001,J34/$K$2,0.6)</f>
-        <v>0.79877656149388288</v>
-      </c>
-      <c r="L34" s="4">
-        <v>1.9212962962962963E-2</v>
-      </c>
-      <c r="M34" s="9">
+      <c r="L34" s="3">
+        <v>2.2268518518518517E-2</v>
+      </c>
+      <c r="M34" s="8">
         <f>IF(L34/$M$2&lt;=1.001,L34/$M$2,0.6)</f>
-        <v>0.84521384928716903</v>
+        <v>0.97963340122199594</v>
       </c>
       <c r="N34" s="1">
-        <v>0</v>
-      </c>
-      <c r="O34" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="O34" s="8">
+        <f>IF(N34/$O$2&lt;=1.001,N34/$O$2,0.6)</f>
+        <v>0.99727114859836263</v>
       </c>
       <c r="P34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="5">
+        <v>3.2187500000000001E-2</v>
+      </c>
+      <c r="Q34" s="8">
+        <f>IF(P34/$Q$2&lt;=1.001,P34/$Q$2,0.6)</f>
+        <v>0.7449772301098313</v>
+      </c>
+      <c r="R34" s="4">
         <f>AVERAGE(G34,I34,K34,M34,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.1606524686874393</v>
-      </c>
-      <c r="S34" s="14"/>
-      <c r="T34" s="5" t="str" cm="1">
+        <v>4.7510928485173665</v>
+      </c>
+      <c r="S34" s="13">
+        <v>7</v>
+      </c>
+      <c r="T34" s="4" t="str" cm="1">
         <f t="array" ref="T34">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
-      </c>
-      <c r="U34" s="5"/>
-      <c r="V34" s="1">
-        <v>0</v>
-      </c>
-      <c r="W34" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X34" s="5"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U34" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V34" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W34" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="X34" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="Y34" s="29">
+        <v>4.3</v>
+      </c>
+      <c r="Z34" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA34" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>4.4773278545552095</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>3.8055555555555558E-2</v>
+      </c>
+      <c r="AC34" s="8">
+        <f>IF(AB34/$AC$2&lt;=1.01,AB34/$AC$2,0.6)</f>
+        <v>0.92463442069741286</v>
+      </c>
+      <c r="AD34" s="4"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D35">
-        <v>1076904274</v>
+        <v>1036925847</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1.7430555555555557E-2</v>
-      </c>
-      <c r="G35" s="9">
+        <v>62</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
         <f>IF(F35/$G$2&lt;=1.001,F35/$G$2,0.6)</f>
-        <v>0.99933642999336436</v>
-      </c>
-      <c r="H35" s="4">
-        <v>3.9814814814814817E-2</v>
-      </c>
-      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3.9178240740740743E-2</v>
+      </c>
+      <c r="I35" s="8">
         <f>IF(H35/$I$2&lt;=1.001,H35/$I$2,0.6)</f>
-        <v>1.0008728542333429</v>
-      </c>
-      <c r="J35" s="4">
-        <v>3.5451388888888886E-2</v>
-      </c>
-      <c r="K35" s="9">
+        <v>0.9848705266220541</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3.5844907407407409E-2</v>
+      </c>
+      <c r="K35" s="8">
         <f>IF(J35/$K$2&lt;=1.001,J35/$K$2,0.6)</f>
-        <v>0.98615582743077912</v>
-      </c>
-      <c r="L35" s="4">
-        <v>1.4166666666666666E-2</v>
-      </c>
-      <c r="M35" s="9">
+        <v>0.99710238248551208</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8">
         <f>IF(L35/$M$2&lt;=1.001,L35/$M$2,0.6)</f>
-        <v>0.62321792260692466</v>
+        <v>0</v>
       </c>
       <c r="N35" s="1">
-        <v>4.6666666666666669E-2</v>
-      </c>
-      <c r="O35" s="9">
-        <f t="shared" si="0"/>
-        <v>1.0002480774001488</v>
+        <v>3.7858796296296293E-2</v>
+      </c>
+      <c r="O35" s="8">
+        <f>IF(N35/$O$2&lt;=1.001,N35/$O$2,0.6)</f>
+        <v>0.81146117588687661</v>
       </c>
       <c r="P35" s="1">
-        <v>4.3159722222222224E-2</v>
-      </c>
-      <c r="Q35" s="9">
-        <f t="shared" si="1"/>
-        <v>0.99892847575676402</v>
-      </c>
-      <c r="R35" s="5">
+        <v>3.1886574074074074E-2</v>
+      </c>
+      <c r="Q35" s="8">
+        <f>IF(P35/$Q$2&lt;=1.001,P35/$Q$2,0.6)</f>
+        <v>0.73801232252879723</v>
+      </c>
+      <c r="R35" s="4">
         <f>AVERAGE(G35,I35,K35,M35,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6739663228511033</v>
-      </c>
-      <c r="S35" s="14">
-        <v>6</v>
-      </c>
-      <c r="T35" s="5" t="str" cm="1">
+        <v>2.9428720062693667</v>
+      </c>
+      <c r="S35" s="13">
+        <v>1</v>
+      </c>
+      <c r="T35" s="4" t="str" cm="1">
         <f t="array" ref="T35">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U35" s="5"/>
-      <c r="V35" s="1">
-        <v>0</v>
-      </c>
-      <c r="W35" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X35" s="5"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
+      </c>
+      <c r="U35" s="29">
+        <v>0</v>
+      </c>
+      <c r="V35" s="29">
+        <v>1.9</v>
+      </c>
+      <c r="W35" s="29">
+        <v>1.8</v>
+      </c>
+      <c r="X35" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y35" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>1.5548616018808099</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>4.1157407407407406E-2</v>
+      </c>
+      <c r="AC35" s="8">
+        <f>IF(AB35/$AC$2&lt;=1.01,AB35/$AC$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="AD35" s="4"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D36">
-        <v>1002886235</v>
+        <v>1062276579</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1.7395833333333333E-2</v>
-      </c>
-      <c r="G36" s="9">
+        <v>63</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
         <f>IF(F36/$G$2&lt;=1.001,F36/$G$2,0.6)</f>
-        <v>0.99734571997345711</v>
-      </c>
-      <c r="H36" s="4">
-        <v>3.8217592592592595E-2</v>
-      </c>
-      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>3.9016203703703706E-2</v>
+      </c>
+      <c r="I36" s="8">
         <f>IF(H36/$I$2&lt;=1.001,H36/$I$2,0.6)</f>
-        <v>0.9607215594995635</v>
-      </c>
-      <c r="J36" s="4">
+        <v>0.98079720686645322</v>
+      </c>
+      <c r="J36" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="8">
         <f>IF(J36/$K$2&lt;=1.001,J36/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
-      <c r="L36" s="4">
-        <v>2.2662037037037036E-2</v>
-      </c>
-      <c r="M36" s="9">
+      <c r="L36" s="3">
+        <v>2.2650462962962963E-2</v>
+      </c>
+      <c r="M36" s="8">
         <f>IF(L36/$M$2&lt;=1.001,L36/$M$2,0.6)</f>
-        <v>0.9969450101832994</v>
+        <v>0.99643584521384931</v>
       </c>
       <c r="N36" s="1">
-        <v>4.6666666666666669E-2</v>
-      </c>
-      <c r="O36" s="9">
-        <f t="shared" si="0"/>
-        <v>1.0002480774001488</v>
+        <v>0</v>
+      </c>
+      <c r="O36" s="8">
+        <f>IF(N36/$O$2&lt;=1.001,N36/$O$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>4.3206018518518519E-2</v>
-      </c>
-      <c r="Q36" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R36" s="5">
+        <v>7.8240740740740736E-3</v>
+      </c>
+      <c r="Q36" s="8">
+        <f>IF(P36/$Q$2&lt;=1.001,P36/$Q$2,0.6)</f>
+        <v>0.18108759710688452</v>
+      </c>
+      <c r="R36" s="4">
         <f>AVERAGE(G36,I36,K36,M36,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9629852704650652</v>
-      </c>
-      <c r="S36" s="14">
-        <v>7</v>
-      </c>
-      <c r="T36" s="5" t="str" cm="1">
+        <v>2.6322021722406648</v>
+      </c>
+      <c r="S36" s="13">
+        <v>8</v>
+      </c>
+      <c r="T36" s="4" t="e" cm="1">
         <f t="array" ref="T36">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
-      </c>
-      <c r="U36" s="5"/>
-      <c r="V36" s="1">
-        <v>4.1157407407407406E-2</v>
-      </c>
-      <c r="W36" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X36" s="5"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="U36" s="29">
+        <v>0</v>
+      </c>
+      <c r="V36" s="29">
+        <v>2.7</v>
+      </c>
+      <c r="W36" s="29">
+        <v>1.6</v>
+      </c>
+      <c r="X36" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="4">
+        <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
+        <v>1.3916606516721994</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="8">
+        <f>IF(AB36/$AC$2&lt;=1.01,AB36/$AC$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="4"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="M38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E32" r:id="rId1" xr:uid="{6ABD49C4-C1FA-45A2-AD96-9D7E301F893E}"/>
+    <hyperlink ref="E33" r:id="rId1" xr:uid="{6ABD49C4-C1FA-45A2-AD96-9D7E301F893E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4666,10 +5463,10 @@
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4680,10 +5477,10 @@
       <c r="B3" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4694,10 +5491,10 @@
       <c r="B4" s="1">
         <v>3.8391203703703705E-2</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4708,10 +5505,10 @@
       <c r="B5" s="1">
         <v>3.9861111111111111E-2</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4719,10 +5516,10 @@
       <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4730,10 +5527,10 @@
       <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4744,10 +5541,10 @@
       <c r="B8" s="1">
         <v>4.1863425925925929E-2</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4758,10 +5555,10 @@
       <c r="B9" s="1">
         <v>4.1805555555555554E-2</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4772,10 +5569,10 @@
       <c r="B10" s="1">
         <v>4.3182870370370371E-2</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4786,10 +5583,10 @@
       <c r="B11" s="1">
         <v>3.9386574074074074E-2</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4800,10 +5597,10 @@
       <c r="B12" s="1">
         <v>3.3252314814814818E-2</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4814,10 +5611,10 @@
       <c r="B13" s="1">
         <v>3.9687500000000001E-2</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4828,10 +5625,10 @@
       <c r="B14" s="1">
         <v>4.2858796296296298E-2</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4842,10 +5639,10 @@
       <c r="B15" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4856,10 +5653,10 @@
       <c r="B16" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4870,10 +5667,10 @@
       <c r="B17" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4881,24 +5678,24 @@
       <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" s="1">
         <v>7.8240740740740736E-3</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4909,10 +5706,10 @@
       <c r="B20" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4923,10 +5720,10 @@
       <c r="B21" s="1">
         <v>3.2187500000000001E-2</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4937,10 +5734,10 @@
       <c r="B22" s="1">
         <v>4.189814814814815E-2</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4951,10 +5748,10 @@
       <c r="B23" s="1">
         <v>3.1886574074074074E-2</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4965,10 +5762,10 @@
       <c r="B24" s="1">
         <v>3.9016203703703706E-2</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4976,10 +5773,10 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>41</v>
       </c>
       <c r="H25" t="s">
@@ -4996,10 +5793,10 @@
       <c r="B26" s="1">
         <v>4.1145833333333333E-2</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5010,10 +5807,10 @@
       <c r="B27" s="1">
         <v>3.9768518518518516E-2</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>45</v>
       </c>
       <c r="I27" s="1"/>
@@ -5025,10 +5822,10 @@
       <c r="B28" s="1">
         <v>4.2488425925925923E-2</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5039,10 +5836,10 @@
       <c r="B29" s="1">
         <v>4.1909722222222223E-2</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5053,10 +5850,10 @@
       <c r="B30" s="1">
         <v>4.1886574074074076E-2</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="26" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5067,10 +5864,10 @@
       <c r="B31" s="1">
         <v>3.8773148148148147E-2</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5078,10 +5875,10 @@
       <c r="B32" s="1">
         <v>0</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5092,10 +5889,10 @@
       <c r="B33" s="1">
         <v>4.3159722222222224E-2</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5106,10 +5903,10 @@
       <c r="B34" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5142,462 +5939,462 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>8</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>1</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>2</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>1</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>2</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>3</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>4</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>5</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
+      <c r="B10" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>4</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
+      <c r="B11" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>6</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>5</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>1</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+      <c r="B14" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>4</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
+      <c r="B15" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>5</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="B16" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>8</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
+      <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>7</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
+      <c r="B18" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>7</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
+      <c r="B19" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <v>6</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="27" t="s">
+      <c r="B20" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>1</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
+      <c r="B21" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>2</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
+      <c r="B22" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <v>5</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
+      <c r="B23" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="20">
         <v>4</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
+      <c r="B24" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <v>3</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
+      <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <v>3</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
+      <c r="B26" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="20">
         <v>3</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
+      <c r="B27" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="19">
         <v>4</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
+      <c r="B28" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="19">
         <v>6</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
+      <c r="B29" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="20">
         <v>7</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="25"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="15"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="20"/>
+      <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18" t="s">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="21"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="20"/>
+      <c r="D34" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E34" xr:uid="{1633F340-5B77-4BB3-B5D5-C1FFFC050A5C}">

--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765FF968-1FC9-486B-A19A-919561C4D341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE86814-22F3-46EB-A550-0D6820B81C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
@@ -678,8 +678,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1231,7 +1232,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1305,6 +1306,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1353,10 +1357,23 @@
   </cellStyles>
   <dxfs count="28">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1381,22 +1398,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1461,6 +1462,9 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1475,7 +1479,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:AD36" totalsRowShown="0" headerRowDxfId="0" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:AD36" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A3:AD36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AD36">
     <sortCondition ref="B3:B36"/>
@@ -1484,53 +1488,53 @@
     <tableColumn id="1" xr3:uid="{2951ACD3-7E7C-4B15-8969-BBEC77220F09}" name="Num"/>
     <tableColumn id="2" xr3:uid="{41C291F5-DA77-4B55-A49C-CDE28AB05F1C}" name="Apellidos"/>
     <tableColumn id="3" xr3:uid="{4EF9A0E0-8B64-4D77-BF58-1466EBFC70F8}" name="Nombres"/>
-    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="25"/>
     <tableColumn id="5" xr3:uid="{E5E637F3-98DE-4C48-8975-E4FF30179C84}" name="email"/>
-    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="24">
+    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="23">
       <calculatedColumnFormula>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión2" dataDxfId="22">
+    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión2" dataDxfId="21">
       <calculatedColumnFormula>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión3" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión3" dataDxfId="20">
+    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión3" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión3" dataDxfId="19">
       <calculatedColumnFormula>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión4" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión4" dataDxfId="18">
+    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión4" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión4" dataDxfId="17">
       <calculatedColumnFormula>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión5" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión5" dataDxfId="16">
+    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión5" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión5" dataDxfId="15">
       <calculatedColumnFormula>IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión6" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión6" dataDxfId="14">
+    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión6" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión6" dataDxfId="13">
       <calculatedColumnFormula>IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{5430F0E6-F861-44B2-B1CA-6E2A24842801}" name="Asistencia" dataDxfId="13">
+    <tableColumn id="21" xr3:uid="{5430F0E6-F861-44B2-B1CA-6E2A24842801}" name="Asistencia" dataDxfId="12">
       <calculatedColumnFormula>AVERAGE(G4,I4,K4,M4,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{5E18873E-0421-4811-A7ED-EFE7A5B09CB1}" name="Grupo" dataDxfId="12"/>
-    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Gesto Asignado" dataDxfId="8">
+    <tableColumn id="22" xr3:uid="{5E18873E-0421-4811-A7ED-EFE7A5B09CB1}" name="Grupo" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Gesto Asignado" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{9680D2F4-FF61-42C8-B8B8-A6D565F1061F}" name="Conceptos fundamentales (Semana 1) " dataDxfId="7"/>
-    <tableColumn id="29" xr3:uid="{2C8549F9-6C7C-4C18-8BD8-913F1238E3A1}" name="Operaciones sobre piezas (Semana 2) " dataDxfId="6"/>
-    <tableColumn id="28" xr3:uid="{01B7F4FF-718E-4142-B28F-3C5C6E213A9D}" name="Operaciones básicas para Modelado de Superficies _x000a_(Semana 3) " dataDxfId="5"/>
-    <tableColumn id="27" xr3:uid="{FB3D7617-43A2-4406-8A1B-342CC431D360}" name="Modelado avanzado y reparación de Superficies _x000a_(Semana 4) " dataDxfId="4"/>
-    <tableColumn id="26" xr3:uid="{15CC947B-1D11-40C4-BDF3-E97BFC12F776}" name="Modelado a partir de datos de scanner _x000a_(Semana 5) " dataDxfId="3"/>
+    <tableColumn id="30" xr3:uid="{9680D2F4-FF61-42C8-B8B8-A6D565F1061F}" name="Conceptos fundamentales (Semana 1) " dataDxfId="9"/>
+    <tableColumn id="29" xr3:uid="{2C8549F9-6C7C-4C18-8BD8-913F1238E3A1}" name="Operaciones sobre piezas (Semana 2) " dataDxfId="8"/>
+    <tableColumn id="28" xr3:uid="{01B7F4FF-718E-4142-B28F-3C5C6E213A9D}" name="Operaciones básicas para Modelado de Superficies _x000a_(Semana 3) " dataDxfId="7"/>
+    <tableColumn id="27" xr3:uid="{FB3D7617-43A2-4406-8A1B-342CC431D360}" name="Modelado avanzado y reparación de Superficies _x000a_(Semana 4) " dataDxfId="6"/>
+    <tableColumn id="26" xr3:uid="{15CC947B-1D11-40C4-BDF3-E97BFC12F776}" name="Modelado a partir de datos de scanner _x000a_(Semana 5) " dataDxfId="5"/>
     <tableColumn id="25" xr3:uid="{7ECFE038-AA59-4517-90E9-2B3566EA5DBF}" name="Escaneo de partes anatómicas (Semana 6) " dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{D2AC9EBA-9E21-4D91-B98D-BEC9F52C6380}" name="Nota 1er Corte" dataDxfId="1">
+    <tableColumn id="24" xr3:uid="{D2AC9EBA-9E21-4D91-B98D-BEC9F52C6380}" name="Nota 1er Corte" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{85803527-97A7-4D57-A5D2-AF49B49DFBB6}" name="T.Conexión7" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{3C385566-1188-4AA7-B618-44B1F28F2C3E}" name="%Conexión7" dataDxfId="10">
+    <tableColumn id="23" xr3:uid="{85803527-97A7-4D57-A5D2-AF49B49DFBB6}" name="T.Conexión7" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{3C385566-1188-4AA7-B618-44B1F28F2C3E}" name="%Conexión7" dataDxfId="4">
       <calculatedColumnFormula>IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="DICOM craneal" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="DICOM craneal" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1855,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD2CE0-6169-477F-B8E1-2987D9E7C726}">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,20 +1869,20 @@
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1"/>
-    <col min="16" max="18" width="18" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="11" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="18" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="11.140625" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="74.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17" style="27" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.85546875" style="27" customWidth="1"/>
-    <col min="26" max="26" width="15.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" style="27" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="17" style="27" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="24.42578125" style="27" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="24.85546875" style="27" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" style="27" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" style="27" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="12.28515625" style="2" customWidth="1"/>
     <col min="28" max="29" width="16.85546875" style="2" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
@@ -2161,7 +2165,7 @@
       <c r="Z4" s="29">
         <v>0</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>2.5235798302055281</v>
       </c>
@@ -2261,7 +2265,7 @@
       <c r="Z5" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>4.2698240774187939</v>
       </c>
@@ -2361,7 +2365,7 @@
       <c r="Z6" s="29">
         <v>0</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA6" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>2.8590702526790315</v>
       </c>
@@ -2459,7 +2463,7 @@
       <c r="Z7" s="29">
         <v>0</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA7" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>0.25723153029186374</v>
       </c>
@@ -2559,7 +2563,7 @@
       <c r="Z8" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AA8" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>4.8995582782919218</v>
       </c>
@@ -2659,7 +2663,7 @@
       <c r="Z9" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AA9" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>4.4811666882210179</v>
       </c>
@@ -2757,7 +2761,7 @@
       <c r="Z10" s="29">
         <v>0</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AA10" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>0</v>
       </c>
@@ -2857,7 +2861,7 @@
       <c r="Z11" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AA11" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>4.562424533229108</v>
       </c>
@@ -2957,7 +2961,7 @@
       <c r="Z12" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AA12" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>4.2137895695348053</v>
       </c>
@@ -3057,7 +3061,7 @@
       <c r="Z13" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AA13" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>4.263013238277261</v>
       </c>
@@ -3157,7 +3161,7 @@
       <c r="Z14" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA14" s="4">
+      <c r="AA14" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>3.6502219612487732</v>
       </c>
@@ -3257,7 +3261,7 @@
       <c r="Z15" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA15" s="4">
+      <c r="AA15" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>3.977754208289332</v>
       </c>
@@ -3357,7 +3361,7 @@
       <c r="Z16" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AA16" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>4.6605216945218126</v>
       </c>
@@ -3457,7 +3461,7 @@
       <c r="Z17" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AA17" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>3.8753459975997577</v>
       </c>
@@ -3557,7 +3561,7 @@
       <c r="Z18" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA18" s="4">
+      <c r="AA18" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>4.7957238433055576</v>
       </c>
@@ -3657,7 +3661,7 @@
       <c r="Z19" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA19" s="4">
+      <c r="AA19" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>4.4283537404969771</v>
       </c>
@@ -3757,7 +3761,7 @@
       <c r="Z20" s="29">
         <v>0</v>
       </c>
-      <c r="AA20" s="4">
+      <c r="AA20" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>1.9311319666129483</v>
       </c>
@@ -3855,7 +3859,7 @@
       <c r="Z21" s="29">
         <v>0</v>
       </c>
-      <c r="AA21" s="4">
+      <c r="AA21" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>0.64819574060623175</v>
       </c>
@@ -3955,7 +3959,7 @@
       <c r="Z22" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AA22" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>4.9145160970619175</v>
       </c>
@@ -4055,7 +4059,7 @@
       <c r="Z23" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA23" s="4">
+      <c r="AA23" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>4.5548955811395198</v>
       </c>
@@ -4155,7 +4159,7 @@
       <c r="Z24" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA24" s="4">
+      <c r="AA24" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>4.1360808307304335</v>
       </c>
@@ -4255,7 +4259,7 @@
       <c r="Z25" s="29">
         <v>0</v>
       </c>
-      <c r="AA25" s="4">
+      <c r="AA25" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>1.6911880525067515</v>
       </c>
@@ -4353,7 +4357,7 @@
       <c r="Z26" s="29">
         <v>0</v>
       </c>
-      <c r="AA26" s="4">
+      <c r="AA26" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>0.90413614345055904</v>
       </c>
@@ -4453,7 +4457,7 @@
       <c r="Z27" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA27" s="4">
+      <c r="AA27" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>2.6236195573478214</v>
       </c>
@@ -4553,7 +4557,7 @@
       <c r="Z28" s="29">
         <v>3.5</v>
       </c>
-      <c r="AA28" s="4">
+      <c r="AA28" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>3.7541898968553307</v>
       </c>
@@ -4653,7 +4657,7 @@
       <c r="Z29" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA29" s="4">
+      <c r="AA29" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>4.3968187690118636</v>
       </c>
@@ -4753,7 +4757,7 @@
       <c r="Z30" s="29">
         <v>3.5</v>
       </c>
-      <c r="AA30" s="4">
+      <c r="AA30" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>4.341462709946053</v>
       </c>
@@ -4853,7 +4857,7 @@
       <c r="Z31" s="29">
         <v>3.5</v>
       </c>
-      <c r="AA31" s="4">
+      <c r="AA31" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>4.3564621160751589</v>
       </c>
@@ -4951,7 +4955,7 @@
       <c r="Z32" s="29">
         <v>0</v>
       </c>
-      <c r="AA32" s="4">
+      <c r="AA32" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>0.73018510796645275</v>
       </c>
@@ -5051,7 +5055,7 @@
       <c r="Z33" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA33" s="4">
+      <c r="AA33" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>4.5802789322662338</v>
       </c>
@@ -5151,7 +5155,7 @@
       <c r="Z34" s="29">
         <v>4.5</v>
       </c>
-      <c r="AA34" s="4">
+      <c r="AA34" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>4.4773278545552095</v>
       </c>
@@ -5251,7 +5255,7 @@
       <c r="Z35" s="29">
         <v>0</v>
       </c>
-      <c r="AA35" s="4">
+      <c r="AA35" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>1.5548616018808099</v>
       </c>
@@ -5351,7 +5355,7 @@
       <c r="Z36" s="29">
         <v>0</v>
       </c>
-      <c r="AA36" s="4">
+      <c r="AA36" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
         <v>1.3916606516721994</v>
       </c>

--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE86814-22F3-46EB-A550-0D6820B81C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7115072-3667-4F0B-AEA4-3A03C7797065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
@@ -1357,7 +1357,11 @@
   </cellStyles>
   <dxfs count="28">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1365,16 +1369,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1526,15 +1526,15 @@
     <tableColumn id="28" xr3:uid="{01B7F4FF-718E-4142-B28F-3C5C6E213A9D}" name="Operaciones básicas para Modelado de Superficies _x000a_(Semana 3) " dataDxfId="7"/>
     <tableColumn id="27" xr3:uid="{FB3D7617-43A2-4406-8A1B-342CC431D360}" name="Modelado avanzado y reparación de Superficies _x000a_(Semana 4) " dataDxfId="6"/>
     <tableColumn id="26" xr3:uid="{15CC947B-1D11-40C4-BDF3-E97BFC12F776}" name="Modelado a partir de datos de scanner _x000a_(Semana 5) " dataDxfId="5"/>
-    <tableColumn id="25" xr3:uid="{7ECFE038-AA59-4517-90E9-2B3566EA5DBF}" name="Escaneo de partes anatómicas (Semana 6) " dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{D2AC9EBA-9E21-4D91-B98D-BEC9F52C6380}" name="Nota 1er Corte" dataDxfId="0">
+    <tableColumn id="25" xr3:uid="{7ECFE038-AA59-4517-90E9-2B3566EA5DBF}" name="Escaneo de partes anatómicas (Semana 6) " dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{D2AC9EBA-9E21-4D91-B98D-BEC9F52C6380}" name="Nota 1er Corte" dataDxfId="3">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{85803527-97A7-4D57-A5D2-AF49B49DFBB6}" name="T.Conexión7" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{3C385566-1188-4AA7-B618-44B1F28F2C3E}" name="%Conexión7" dataDxfId="4">
+    <tableColumn id="23" xr3:uid="{85803527-97A7-4D57-A5D2-AF49B49DFBB6}" name="T.Conexión7" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{3C385566-1188-4AA7-B618-44B1F28F2C3E}" name="%Conexión7" dataDxfId="1">
       <calculatedColumnFormula>IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="DICOM craneal" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="DICOM craneal" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1860,7 +1860,7 @@
   <dimension ref="A1:AD38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA36" sqref="AA36"/>
+      <selection activeCell="E14" sqref="E14:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1869,20 +1869,18 @@
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="11" width="16.85546875" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="18" width="18" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="74.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" style="27" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="17" style="27" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="24.42578125" style="27" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="24.85546875" style="27" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="17.85546875" style="27" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="15.85546875" style="27" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="75.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" style="27" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" style="27" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" style="27" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.28515625" style="2" customWidth="1"/>
     <col min="28" max="29" width="16.85546875" style="2" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
@@ -2098,42 +2096,42 @@
         <v>0</v>
       </c>
       <c r="G4" s="8">
-        <f>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
+        <f t="shared" ref="G4:G36" si="0">IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>3.9085648148148147E-2</v>
       </c>
       <c r="I4" s="8">
-        <f>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
+        <f t="shared" ref="I4:I36" si="1">IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
         <v>0.9825429153331392</v>
       </c>
       <c r="J4" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K4" s="8">
-        <f>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
+        <f t="shared" ref="K4:K36" si="2">IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
       <c r="L4" s="3">
         <v>2.3148148148148149E-4</v>
       </c>
       <c r="M4" s="8">
-        <f>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
+        <f t="shared" ref="M4:M36" si="3">IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
         <v>1.0183299389002037E-2</v>
       </c>
       <c r="N4" s="1">
         <v>4.6527777777777779E-2</v>
       </c>
       <c r="O4" s="8">
-        <f>IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</f>
+        <f t="shared" ref="O4:O36" si="4">IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</f>
         <v>0.99727114859836263</v>
       </c>
       <c r="P4" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q4" s="8">
-        <f>IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</f>
+        <f t="shared" ref="Q4:Q36" si="5">IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="R4" s="4">
@@ -2173,7 +2171,7 @@
         <v>4.1157407407407406E-2</v>
       </c>
       <c r="AC4" s="8">
-        <f>IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</f>
+        <f t="shared" ref="AC4:AC36" si="6">IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="AD4" s="4"/>
@@ -2198,42 +2196,42 @@
         <v>3.4641203703703702E-2</v>
       </c>
       <c r="G5" s="8">
-        <f>IF(F5/$G$2&lt;=1.001,F5/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H5" s="3">
         <v>3.9178240740740743E-2</v>
       </c>
       <c r="I5" s="8">
-        <f>IF(H5/$I$2&lt;=1.001,H5/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.9848705266220541</v>
       </c>
       <c r="J5" s="3">
         <v>3.5856481481481482E-2</v>
       </c>
       <c r="K5" s="8">
-        <f>IF(J5/$K$2&lt;=1.001,J5/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99742433998712177</v>
       </c>
       <c r="L5" s="3">
         <v>1.9652777777777779E-2</v>
       </c>
       <c r="M5" s="8">
-        <f>IF(L5/$M$2&lt;=1.001,L5/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.86456211812627304</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
       </c>
       <c r="O5" s="8">
-        <f>IF(N5/$O$2&lt;=1.001,N5/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>3.9768518518518516E-2</v>
       </c>
       <c r="Q5" s="8">
-        <f>IF(P5/$Q$2&lt;=1.001,P5/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.92043932493972669</v>
       </c>
       <c r="R5" s="4">
@@ -2273,7 +2271,7 @@
         <v>4.0914351851851855E-2</v>
       </c>
       <c r="AC5" s="8">
-        <f>IF(AB5/$AC$2&lt;=1.01,AB5/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.9940944881889765</v>
       </c>
       <c r="AD5" s="4"/>
@@ -2298,42 +2296,42 @@
         <v>1.6481481481481482E-2</v>
       </c>
       <c r="G6" s="8">
-        <f>IF(F6/$G$2&lt;=1.001,F6/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.94492368944923688</v>
       </c>
       <c r="H6" s="3">
         <v>3.8530092592592595E-2</v>
       </c>
       <c r="I6" s="8">
-        <f>IF(H6/$I$2&lt;=1.001,H6/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.9685772475996508</v>
       </c>
       <c r="J6" s="3">
         <v>3.5821759259259262E-2</v>
       </c>
       <c r="K6" s="8">
-        <f>IF(J6/$K$2&lt;=1.001,J6/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.9964584674822925</v>
       </c>
       <c r="L6" s="3">
         <v>1.0648148148148149E-3</v>
       </c>
       <c r="M6" s="8">
-        <f>IF(L6/$M$2&lt;=1.001,L6/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>4.684317718940937E-2</v>
       </c>
       <c r="N6" s="1">
         <v>4.4270833333333336E-2</v>
       </c>
       <c r="O6" s="8">
-        <f>IF(N6/$O$2&lt;=1.001,N6/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.94889605556933765</v>
       </c>
       <c r="P6" s="1">
         <v>3.9861111111111111E-2</v>
       </c>
       <c r="Q6" s="8">
-        <f>IF(P6/$Q$2&lt;=1.001,P6/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.92258237342619875</v>
       </c>
       <c r="R6" s="4">
@@ -2373,7 +2371,7 @@
         <v>3.8101851851851852E-2</v>
       </c>
       <c r="AC6" s="8">
-        <f>IF(AB6/$AC$2&lt;=1.01,AB6/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.92575928008998876</v>
       </c>
       <c r="AD6" s="4"/>
@@ -2398,42 +2396,42 @@
         <v>1.7349537037037038E-2</v>
       </c>
       <c r="G7" s="8">
-        <f>IF(F7/$G$2&lt;=1.001,F7/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99469143994691445</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <f>IF(H7/$I$2&lt;=1.001,H7/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f>IF(J7/$K$2&lt;=1.001,J7/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
       </c>
       <c r="M7" s="8">
-        <f>IF(L7/$M$2&lt;=1.001,L7/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N7" s="1">
         <v>1.5972222222222223E-3</v>
       </c>
       <c r="O7" s="8">
-        <f>IF(N7/$O$2&lt;=1.001,N7/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>3.4234681220540811E-2</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
       </c>
       <c r="Q7" s="8">
-        <f>IF(P7/$Q$2&lt;=1.001,P7/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R7" s="4">
@@ -2471,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="8">
-        <f>IF(AB7/$AC$2&lt;=1.01,AB7/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD7" s="4"/>
@@ -2496,42 +2494,42 @@
         <v>1.744212962962963E-2</v>
       </c>
       <c r="G8" s="8">
-        <f>IF(F8/$G$2&lt;=1.001,F8/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H8" s="3">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I8" s="8">
-        <f>IF(H8/$I$2&lt;=1.001,H8/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
       <c r="J8" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K8" s="8">
-        <f>IF(J8/$K$2&lt;=1.001,J8/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L8" s="3">
         <v>2.1203703703703704E-2</v>
       </c>
       <c r="M8" s="8">
-        <f>IF(L8/$M$2&lt;=1.001,L8/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.9327902240325866</v>
       </c>
       <c r="N8" s="1">
         <v>4.6666666666666669E-2</v>
       </c>
       <c r="O8" s="8">
-        <f>IF(N8/$O$2&lt;=1.001,N8/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>1.0002480774001488</v>
       </c>
       <c r="P8" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q8" s="8">
-        <f>IF(P8/$Q$2&lt;=1.001,P8/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R8" s="4">
@@ -2571,7 +2569,7 @@
         <v>3.9328703703703706E-2</v>
       </c>
       <c r="AC8" s="8">
-        <f>IF(AB8/$AC$2&lt;=1.01,AB8/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.95556805399325095</v>
       </c>
       <c r="AD8" s="4"/>
@@ -2596,42 +2594,42 @@
         <v>5.2083333333333333E-4</v>
       </c>
       <c r="G9" s="8">
-        <f>IF(F9/$G$2&lt;=1.001,F9/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>2.98606502986065E-2</v>
       </c>
       <c r="H9" s="3">
         <v>3.9074074074074074E-2</v>
       </c>
       <c r="I9" s="8">
-        <f>IF(H9/$I$2&lt;=1.001,H9/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98225196392202496</v>
       </c>
       <c r="J9" s="3">
         <v>3.5763888888888887E-2</v>
       </c>
       <c r="K9" s="8">
-        <f>IF(J9/$K$2&lt;=1.001,J9/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99484867997424342</v>
       </c>
       <c r="L9" s="3">
         <v>1.8090277777777778E-2</v>
       </c>
       <c r="M9" s="8">
-        <f>IF(L9/$M$2&lt;=1.001,L9/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.79582484725050917</v>
       </c>
       <c r="N9" s="1">
         <v>4.6388888888888889E-2</v>
       </c>
       <c r="O9" s="8">
-        <f>IF(N9/$O$2&lt;=1.001,N9/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.99429421979657651</v>
       </c>
       <c r="P9" s="1">
         <v>4.1805555555555554E-2</v>
       </c>
       <c r="Q9" s="8">
-        <f>IF(P9/$Q$2&lt;=1.001,P9/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.96758639164211091</v>
       </c>
       <c r="R9" s="4">
@@ -2671,7 +2669,7 @@
         <v>3.6736111111111108E-2</v>
       </c>
       <c r="AC9" s="8">
-        <f>IF(AB9/$AC$2&lt;=1.01,AB9/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.89257592800899888</v>
       </c>
       <c r="AD9" s="4"/>
@@ -2696,42 +2694,42 @@
         <v>0</v>
       </c>
       <c r="G10" s="8">
-        <f>IF(F10/$G$2&lt;=1.001,F10/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <f>IF(H10/$I$2&lt;=1.001,H10/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="8">
-        <f>IF(J10/$K$2&lt;=1.001,J10/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="8">
-        <f>IF(L10/$M$2&lt;=1.001,L10/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
       </c>
       <c r="O10" s="8">
-        <f>IF(N10/$O$2&lt;=1.001,N10/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
       </c>
       <c r="Q10" s="8">
-        <f>IF(P10/$Q$2&lt;=1.001,P10/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R10" s="4">
@@ -2769,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="8">
-        <f>IF(AB10/$AC$2&lt;=1.01,AB10/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD10" s="4"/>
@@ -2794,42 +2792,42 @@
         <v>1.744212962962963E-2</v>
       </c>
       <c r="G11" s="8">
-        <f>IF(F11/$G$2&lt;=1.001,F11/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H11" s="3">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I11" s="8">
-        <f>IF(H11/$I$2&lt;=1.001,H11/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
       <c r="J11" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K11" s="8">
-        <f>IF(J11/$K$2&lt;=1.001,J11/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L11" s="3">
         <v>1.8935185185185187E-2</v>
       </c>
       <c r="M11" s="8">
-        <f>IF(L11/$M$2&lt;=1.001,L11/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.83299389002036672</v>
       </c>
       <c r="N11" s="1">
         <v>4.5497685185185183E-2</v>
       </c>
       <c r="O11" s="8">
-        <f>IF(N11/$O$2&lt;=1.001,N11/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.97519225998511527</v>
       </c>
       <c r="P11" s="1">
         <v>4.1145833333333333E-2</v>
       </c>
       <c r="Q11" s="8">
-        <f>IF(P11/$Q$2&lt;=1.001,P11/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.95231717117599779</v>
       </c>
       <c r="R11" s="4">
@@ -2869,7 +2867,7 @@
         <v>3.9305555555555559E-2</v>
       </c>
       <c r="AC11" s="8">
-        <f>IF(AB11/$AC$2&lt;=1.01,AB11/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.95500562429696301</v>
       </c>
       <c r="AD11" s="4"/>
@@ -2894,42 +2892,42 @@
         <v>3.8090277777777778E-2</v>
       </c>
       <c r="G12" s="8">
-        <f>IF(F12/$G$2&lt;=1.001,F12/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H12" s="3">
         <v>3.8541666666666669E-2</v>
       </c>
       <c r="I12" s="8">
-        <f>IF(H12/$I$2&lt;=1.001,H12/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.96886819901076515</v>
       </c>
       <c r="J12" s="3">
         <v>3.3229166666666664E-2</v>
       </c>
       <c r="K12" s="8">
-        <f>IF(J12/$K$2&lt;=1.001,J12/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.92433998712169996</v>
       </c>
       <c r="L12" s="3">
         <v>5.115740740740741E-3</v>
       </c>
       <c r="M12" s="8">
-        <f>IF(L12/$M$2&lt;=1.001,L12/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.22505091649694503</v>
       </c>
       <c r="N12" s="1">
         <v>4.4849537037037035E-2</v>
       </c>
       <c r="O12" s="8">
-        <f>IF(N12/$O$2&lt;=1.001,N12/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.9612999255767799</v>
       </c>
       <c r="P12" s="1">
         <v>3.9386574074074074E-2</v>
       </c>
       <c r="Q12" s="8">
-        <f>IF(P12/$Q$2&lt;=1.001,P12/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.91159924993302976</v>
       </c>
       <c r="R12" s="4">
@@ -2969,7 +2967,7 @@
         <v>3.8101851851851852E-2</v>
       </c>
       <c r="AC12" s="8">
-        <f>IF(AB12/$AC$2&lt;=1.01,AB12/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.92575928008998876</v>
       </c>
       <c r="AD12" s="4"/>
@@ -2994,42 +2992,42 @@
         <v>3.6388888888888887E-2</v>
       </c>
       <c r="G13" s="8">
-        <f>IF(F13/$G$2&lt;=1.001,F13/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H13" s="3">
         <v>3.9282407407407405E-2</v>
       </c>
       <c r="I13" s="8">
-        <f>IF(H13/$I$2&lt;=1.001,H13/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98748908932208301</v>
       </c>
       <c r="J13" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K13" s="8">
-        <f>IF(J13/$K$2&lt;=1.001,J13/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L13" s="3">
         <v>2.2395833333333334E-2</v>
       </c>
       <c r="M13" s="8">
-        <f>IF(L13/$M$2&lt;=1.001,L13/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.98523421588594706</v>
       </c>
       <c r="N13" s="1">
         <v>4.6608796296296294E-2</v>
       </c>
       <c r="O13" s="8">
-        <f>IF(N13/$O$2&lt;=1.001,N13/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.99900769039940451</v>
       </c>
       <c r="P13" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q13" s="8">
-        <f>IF(P13/$Q$2&lt;=1.001,P13/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R13" s="4">
@@ -3069,7 +3067,7 @@
         <v>3.6574074074074071E-2</v>
       </c>
       <c r="AC13" s="8">
-        <f>IF(AB13/$AC$2&lt;=1.01,AB13/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.88863892013498313</v>
       </c>
       <c r="AD13" s="4"/>
@@ -3094,42 +3092,42 @@
         <v>1.7314814814814814E-2</v>
       </c>
       <c r="G14" s="8">
-        <f>IF(F14/$G$2&lt;=1.001,F14/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.9927007299270072</v>
       </c>
       <c r="H14" s="3">
         <v>3.9189814814814816E-2</v>
       </c>
       <c r="I14" s="8">
-        <f>IF(H14/$I$2&lt;=1.001,H14/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98516147803316845</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="8">
-        <f>IF(J14/$K$2&lt;=1.001,J14/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="8">
-        <f>IF(L14/$M$2&lt;=1.001,L14/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N14" s="1">
         <v>4.327546296296296E-2</v>
       </c>
       <c r="O14" s="8">
-        <f>IF(N14/$O$2&lt;=1.001,N14/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.92756139915653668</v>
       </c>
       <c r="P14" s="1">
         <v>4.3182870370370371E-2</v>
       </c>
       <c r="Q14" s="8">
-        <f>IF(P14/$Q$2&lt;=1.001,P14/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.99946423787838201</v>
       </c>
       <c r="R14" s="4">
@@ -3169,7 +3167,7 @@
         <v>3.7256944444444447E-2</v>
       </c>
       <c r="AC14" s="8">
-        <f>IF(AB14/$AC$2&lt;=1.01,AB14/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.90523059617547819</v>
       </c>
       <c r="AD14" s="4"/>
@@ -3194,42 +3192,42 @@
         <v>0</v>
       </c>
       <c r="G15" s="8">
-        <f>IF(F15/$G$2&lt;=1.001,F15/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>3.7743055555555557E-2</v>
       </c>
       <c r="I15" s="8">
-        <f>IF(H15/$I$2&lt;=1.001,H15/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.94879255164387544</v>
       </c>
       <c r="J15" s="3">
         <v>3.5925925925925924E-2</v>
       </c>
       <c r="K15" s="8">
-        <f>IF(J15/$K$2&lt;=1.001,J15/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99935608499678041</v>
       </c>
       <c r="L15" s="3">
         <v>2.0636574074074075E-2</v>
       </c>
       <c r="M15" s="8">
-        <f>IF(L15/$M$2&lt;=1.001,L15/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.90784114052953158</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
       </c>
       <c r="O15" s="8">
-        <f>IF(N15/$O$2&lt;=1.001,N15/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>3.9016203703703706E-2</v>
       </c>
       <c r="Q15" s="8">
-        <f>IF(P15/$Q$2&lt;=1.001,P15/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.90302705598714172</v>
       </c>
       <c r="R15" s="4">
@@ -3269,7 +3267,7 @@
         <v>3.8090277777777778E-2</v>
       </c>
       <c r="AC15" s="8">
-        <f>IF(AB15/$AC$2&lt;=1.01,AB15/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.92547806524184484</v>
       </c>
       <c r="AD15" s="4"/>
@@ -3294,42 +3292,42 @@
         <v>4.1458333333333333E-2</v>
       </c>
       <c r="G16" s="8">
-        <f>IF(F16/$G$2&lt;=1.001,F16/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H16" s="3">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I16" s="8">
-        <f>IF(H16/$I$2&lt;=1.001,H16/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
       <c r="J16" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K16" s="8">
-        <f>IF(J16/$K$2&lt;=1.001,J16/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L16" s="3">
         <v>2.0798611111111111E-2</v>
       </c>
       <c r="M16" s="8">
-        <f>IF(L16/$M$2&lt;=1.001,L16/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.91496945010183306</v>
       </c>
       <c r="N16" s="1">
         <v>4.2013888888888892E-2</v>
       </c>
       <c r="O16" s="8">
-        <f>IF(N16/$O$2&lt;=1.001,N16/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.90052096254031255</v>
       </c>
       <c r="P16" s="1">
         <v>3.8773148148148147E-2</v>
       </c>
       <c r="Q16" s="8">
-        <f>IF(P16/$Q$2&lt;=1.001,P16/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.89740155371015262</v>
       </c>
       <c r="R16" s="4">
@@ -3369,7 +3367,7 @@
         <v>4.1076388888888891E-2</v>
       </c>
       <c r="AC16" s="8">
-        <f>IF(AB16/$AC$2&lt;=1.01,AB16/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.99803149606299224</v>
       </c>
       <c r="AD16" s="4"/>
@@ -3394,42 +3392,42 @@
         <v>3.8437499999999999E-2</v>
       </c>
       <c r="G17" s="8">
-        <f>IF(F17/$G$2&lt;=1.001,F17/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="8">
-        <f>IF(H17/$I$2&lt;=1.001,H17/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>1.3148148148148148E-2</v>
       </c>
       <c r="K17" s="8">
-        <f>IF(J17/$K$2&lt;=1.001,J17/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.36574372182871867</v>
       </c>
       <c r="L17" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
       <c r="M17" s="8">
-        <f>IF(L17/$M$2&lt;=1.001,L17/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.33706720977596738</v>
       </c>
       <c r="N17" s="1">
         <v>4.6215277777777779E-2</v>
       </c>
       <c r="O17" s="8">
-        <f>IF(N17/$O$2&lt;=1.001,N17/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.99057305879434376</v>
       </c>
       <c r="P17" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q17" s="8">
-        <f>IF(P17/$Q$2&lt;=1.001,P17/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R17" s="4">
@@ -3469,7 +3467,7 @@
         <v>3.3819444444444444E-2</v>
       </c>
       <c r="AC17" s="8">
-        <f>IF(AB17/$AC$2&lt;=1.01,AB17/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.82170978627671543</v>
       </c>
       <c r="AD17" s="4"/>
@@ -3494,42 +3492,42 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="G18" s="8">
-        <f>IF(F18/$G$2&lt;=1.001,F18/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99535500995355009</v>
       </c>
       <c r="H18" s="3">
         <v>3.9259259259259258E-2</v>
       </c>
       <c r="I18" s="8">
-        <f>IF(H18/$I$2&lt;=1.001,H18/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98690718649985443</v>
       </c>
       <c r="J18" s="3">
         <v>3.5949074074074071E-2</v>
       </c>
       <c r="K18" s="8">
-        <f>IF(J18/$K$2&lt;=1.001,J18/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L18" s="3">
         <v>2.2638888888888889E-2</v>
       </c>
       <c r="M18" s="8">
-        <f>IF(L18/$M$2&lt;=1.001,L18/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.99592668024439923</v>
       </c>
       <c r="N18" s="1">
         <v>4.4965277777777778E-2</v>
       </c>
       <c r="O18" s="8">
-        <f>IF(N18/$O$2&lt;=1.001,N18/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.9637806995782684</v>
       </c>
       <c r="P18" s="1">
         <v>4.1863425925925929E-2</v>
       </c>
       <c r="Q18" s="8">
-        <f>IF(P18/$Q$2&lt;=1.001,P18/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.96892579694615599</v>
       </c>
       <c r="R18" s="4">
@@ -3569,7 +3567,7 @@
         <v>3.8182870370370367E-2</v>
       </c>
       <c r="AC18" s="8">
-        <f>IF(AB18/$AC$2&lt;=1.01,AB18/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.92772778402699652</v>
       </c>
       <c r="AD18" s="4"/>
@@ -3594,42 +3592,42 @@
         <v>1.744212962962963E-2</v>
       </c>
       <c r="G19" s="8">
-        <f>IF(F19/$G$2&lt;=1.001,F19/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H19" s="3">
         <v>3.8506944444444448E-2</v>
       </c>
       <c r="I19" s="8">
-        <f>IF(H19/$I$2&lt;=1.001,H19/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.96799534477742222</v>
       </c>
       <c r="J19" s="3">
         <v>1.0486111111111111E-2</v>
       </c>
       <c r="K19" s="8">
-        <f>IF(J19/$K$2&lt;=1.001,J19/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.29169349645846748</v>
       </c>
       <c r="L19" s="3">
         <v>2.2592592592592591E-2</v>
       </c>
       <c r="M19" s="8">
-        <f>IF(L19/$M$2&lt;=1.001,L19/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.99389002036659879</v>
       </c>
       <c r="N19" s="1">
         <v>3.7476851851851851E-2</v>
       </c>
       <c r="O19" s="8">
-        <f>IF(N19/$O$2&lt;=1.001,N19/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.80327462168196473</v>
       </c>
       <c r="P19" s="1">
         <v>3.8391203703703705E-2</v>
       </c>
       <c r="Q19" s="8">
-        <f>IF(P19/$Q$2&lt;=1.001,P19/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.8885614787034557</v>
       </c>
       <c r="R19" s="4">
@@ -3669,7 +3667,7 @@
         <v>3.2685185185185185E-2</v>
       </c>
       <c r="AC19" s="8">
-        <f>IF(AB19/$AC$2&lt;=1.01,AB19/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.79415073115860524</v>
       </c>
       <c r="AD19" s="4"/>
@@ -3694,42 +3692,42 @@
         <v>1.7349537037037038E-2</v>
       </c>
       <c r="G20" s="8">
-        <f>IF(F20/$G$2&lt;=1.001,F20/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99469143994691445</v>
       </c>
       <c r="H20" s="3">
         <v>3.9293981481481478E-2</v>
       </c>
       <c r="I20" s="8">
-        <f>IF(H20/$I$2&lt;=1.001,H20/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98778004073319736</v>
       </c>
       <c r="J20" s="3">
         <v>3.5925925925925924E-2</v>
       </c>
       <c r="K20" s="8">
-        <f>IF(J20/$K$2&lt;=1.001,J20/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99935608499678041</v>
       </c>
       <c r="L20" s="3">
         <v>2.2129629629629631E-2</v>
       </c>
       <c r="M20" s="8">
-        <f>IF(L20/$M$2&lt;=1.001,L20/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.97352342158859484</v>
       </c>
       <c r="N20" s="1">
         <v>4.5590277777777778E-2</v>
       </c>
       <c r="O20" s="8">
-        <f>IF(N20/$O$2&lt;=1.001,N20/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.97717687918630614</v>
       </c>
       <c r="P20" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q20" s="8">
-        <f>IF(P20/$Q$2&lt;=1.001,P20/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R20" s="4">
@@ -3769,7 +3767,7 @@
         <v>4.1203703703703701E-2</v>
       </c>
       <c r="AC20" s="8">
-        <f>IF(AB20/$AC$2&lt;=1.01,AB20/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>1.0011248593925759</v>
       </c>
       <c r="AD20" s="4"/>
@@ -3794,42 +3792,42 @@
         <v>0</v>
       </c>
       <c r="G21" s="8">
-        <f>IF(F21/$G$2&lt;=1.001,F21/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>3.7743055555555557E-2</v>
       </c>
       <c r="I21" s="8">
-        <f>IF(H21/$I$2&lt;=1.001,H21/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.94879255164387544</v>
       </c>
       <c r="J21" s="3">
         <v>2.8715277777777777E-2</v>
       </c>
       <c r="K21" s="8">
-        <f>IF(J21/$K$2&lt;=1.001,J21/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.79877656149388288</v>
       </c>
       <c r="L21" s="3">
         <v>1.9212962962962963E-2</v>
       </c>
       <c r="M21" s="8">
-        <f>IF(L21/$M$2&lt;=1.001,L21/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.84521384928716903</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
       </c>
       <c r="O21" s="8">
-        <f>IF(N21/$O$2&lt;=1.001,N21/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>0</v>
       </c>
       <c r="Q21" s="8">
-        <f>IF(P21/$Q$2&lt;=1.001,P21/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R21" s="4">
@@ -3867,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="8">
-        <f>IF(AB21/$AC$2&lt;=1.01,AB21/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD21" s="4"/>
@@ -3892,42 +3890,42 @@
         <v>1.7314814814814814E-2</v>
       </c>
       <c r="G22" s="8">
-        <f>IF(F22/$G$2&lt;=1.001,F22/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.9927007299270072</v>
       </c>
       <c r="H22" s="3">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I22" s="8">
-        <f>IF(H22/$I$2&lt;=1.001,H22/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
       <c r="J22" s="3">
         <v>3.5868055555555556E-2</v>
       </c>
       <c r="K22" s="8">
-        <f>IF(J22/$K$2&lt;=1.001,J22/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99774629748873156</v>
       </c>
       <c r="L22" s="3">
         <v>2.1909722222222223E-2</v>
       </c>
       <c r="M22" s="8">
-        <f>IF(L22/$M$2&lt;=1.001,L22/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.96384928716904283</v>
       </c>
       <c r="N22" s="1">
         <v>4.6631944444444441E-2</v>
       </c>
       <c r="O22" s="8">
-        <f>IF(N22/$O$2&lt;=1.001,N22/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.99950384519970215</v>
       </c>
       <c r="P22" s="1">
         <v>4.2488425925925923E-2</v>
       </c>
       <c r="Q22" s="8">
-        <f>IF(P22/$Q$2&lt;=1.001,P22/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.98339137422984191</v>
       </c>
       <c r="R22" s="4">
@@ -3967,7 +3965,7 @@
         <v>3.8379629629629632E-2</v>
       </c>
       <c r="AC22" s="8">
-        <f>IF(AB22/$AC$2&lt;=1.01,AB22/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.93250843644544434</v>
       </c>
       <c r="AD22" s="4"/>
@@ -3992,42 +3990,42 @@
         <v>1.7395833333333333E-2</v>
       </c>
       <c r="G23" s="8">
-        <f>IF(F23/$G$2&lt;=1.001,F23/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99734571997345711</v>
       </c>
       <c r="H23" s="3">
         <v>3.8217592592592595E-2</v>
       </c>
       <c r="I23" s="8">
-        <f>IF(H23/$I$2&lt;=1.001,H23/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.9607215594995635</v>
       </c>
       <c r="J23" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K23" s="8">
-        <f>IF(J23/$K$2&lt;=1.001,J23/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L23" s="3">
         <v>2.2662037037037036E-2</v>
       </c>
       <c r="M23" s="8">
-        <f>IF(L23/$M$2&lt;=1.001,L23/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.9969450101832994</v>
       </c>
       <c r="N23" s="1">
         <v>4.6666666666666669E-2</v>
       </c>
       <c r="O23" s="8">
-        <f>IF(N23/$O$2&lt;=1.001,N23/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>1.0002480774001488</v>
       </c>
       <c r="P23" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q23" s="8">
-        <f>IF(P23/$Q$2&lt;=1.001,P23/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R23" s="4">
@@ -4067,7 +4065,7 @@
         <v>4.1157407407407406E-2</v>
       </c>
       <c r="AC23" s="8">
-        <f>IF(AB23/$AC$2&lt;=1.01,AB23/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD23" s="4"/>
@@ -4092,42 +4090,42 @@
         <v>1.7337962962962961E-2</v>
       </c>
       <c r="G24" s="8">
-        <f>IF(F24/$G$2&lt;=1.001,F24/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99402786994027859</v>
       </c>
       <c r="H24" s="3">
         <v>3.9224537037037037E-2</v>
       </c>
       <c r="I24" s="8">
-        <f>IF(H24/$I$2&lt;=1.001,H24/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98603433226651138</v>
       </c>
       <c r="J24" s="3">
         <v>3.5879629629629629E-2</v>
       </c>
       <c r="K24" s="8">
-        <f>IF(J24/$K$2&lt;=1.001,J24/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99806825499034135</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="8">
-        <f>IF(L24/$M$2&lt;=1.001,L24/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N24" s="1">
         <v>3.2685185185185185E-2</v>
       </c>
       <c r="O24" s="8">
-        <f>IF(N24/$O$2&lt;=1.001,N24/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.70057057802034228</v>
       </c>
       <c r="P24" s="1">
         <v>3.3252314814814818E-2</v>
       </c>
       <c r="Q24" s="8">
-        <f>IF(P24/$Q$2&lt;=1.001,P24/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.76962228770425933</v>
       </c>
       <c r="R24" s="4">
@@ -4167,7 +4165,7 @@
         <v>3.2615740740740744E-2</v>
       </c>
       <c r="AC24" s="8">
-        <f>IF(AB24/$AC$2&lt;=1.01,AB24/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.7924634420697414</v>
       </c>
       <c r="AD24" s="4"/>
@@ -4192,42 +4190,42 @@
         <v>1.7303240740740741E-2</v>
       </c>
       <c r="G25" s="8">
-        <f>IF(F25/$G$2&lt;=1.001,F25/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99203715992037156</v>
       </c>
       <c r="H25" s="3">
         <v>3.9247685185185184E-2</v>
       </c>
       <c r="I25" s="8">
-        <f>IF(H25/$I$2&lt;=1.001,H25/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98661623508874008</v>
       </c>
       <c r="J25" s="3">
         <v>3.5891203703703703E-2</v>
       </c>
       <c r="K25" s="8">
-        <f>IF(J25/$K$2&lt;=1.001,J25/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99839021249195115</v>
       </c>
       <c r="L25" s="3">
         <v>2.162037037037037E-2</v>
       </c>
       <c r="M25" s="8">
-        <f>IF(L25/$M$2&lt;=1.001,L25/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.95112016293279023</v>
       </c>
       <c r="N25" s="1">
         <v>4.6122685185185183E-2</v>
       </c>
       <c r="O25" s="8">
-        <f>IF(N25/$O$2&lt;=1.001,N25/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.98858843959315301</v>
       </c>
       <c r="P25" s="1">
         <v>0</v>
       </c>
       <c r="Q25" s="8">
-        <f>IF(P25/$Q$2&lt;=1.001,P25/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R25" s="4">
@@ -4267,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="8">
-        <f>IF(AB25/$AC$2&lt;=1.01,AB25/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD25" s="4"/>
@@ -4292,42 +4290,42 @@
         <v>3.4791666666666665E-2</v>
       </c>
       <c r="G26" s="8">
-        <f>IF(F26/$G$2&lt;=1.001,F26/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H26" s="3">
         <v>7.1990740740740739E-3</v>
       </c>
       <c r="I26" s="8">
-        <f>IF(H26/$I$2&lt;=1.001,H26/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.1809717777131219</v>
       </c>
       <c r="J26" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K26" s="8">
-        <f>IF(J26/$K$2&lt;=1.001,J26/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L26" s="3">
         <v>1.9398148148148147E-2</v>
       </c>
       <c r="M26" s="8">
-        <f>IF(L26/$M$2&lt;=1.001,L26/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.85336048879837068</v>
       </c>
       <c r="N26" s="1">
         <v>4.5810185185185183E-2</v>
       </c>
       <c r="O26" s="8">
-        <f>IF(N26/$O$2&lt;=1.001,N26/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.98189034978913414</v>
       </c>
       <c r="P26" s="1">
         <v>0</v>
       </c>
       <c r="Q26" s="8">
-        <f>IF(P26/$Q$2&lt;=1.001,P26/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R26" s="4">
@@ -4365,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="8">
-        <f>IF(AB26/$AC$2&lt;=1.01,AB26/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD26" s="4"/>
@@ -4390,42 +4388,42 @@
         <v>3.7592592592592594E-2</v>
       </c>
       <c r="G27" s="8">
-        <f>IF(F27/$G$2&lt;=1.001,F27/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H27" s="3">
         <v>2.7164351851851853E-2</v>
       </c>
       <c r="I27" s="8">
-        <f>IF(H27/$I$2&lt;=1.001,H27/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.68286296188536511</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="8">
-        <f>IF(J27/$K$2&lt;=1.001,J27/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="8">
-        <f>IF(L27/$M$2&lt;=1.001,L27/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N27" s="1">
         <v>4.1226851851851855E-2</v>
       </c>
       <c r="O27" s="8">
-        <f>IF(N27/$O$2&lt;=1.001,N27/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.88365169933019105</v>
       </c>
       <c r="P27" s="1">
         <v>4.2858796296296298E-2</v>
       </c>
       <c r="Q27" s="8">
-        <f>IF(P27/$Q$2&lt;=1.001,P27/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.99196356817573006</v>
       </c>
       <c r="R27" s="4">
@@ -4465,7 +4463,7 @@
         <v>4.0208333333333332E-2</v>
       </c>
       <c r="AC27" s="8">
-        <f>IF(AB27/$AC$2&lt;=1.01,AB27/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.9769403824521935</v>
       </c>
       <c r="AD27" s="4"/>
@@ -4490,42 +4488,42 @@
         <v>1.7430555555555557E-2</v>
       </c>
       <c r="G28" s="8">
-        <f>IF(F28/$G$2&lt;=1.001,F28/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99933642999336436</v>
       </c>
       <c r="H28" s="3">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I28" s="8">
-        <f>IF(H28/$I$2&lt;=1.001,H28/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
       <c r="J28" s="3">
         <v>3.5451388888888886E-2</v>
       </c>
       <c r="K28" s="8">
-        <f>IF(J28/$K$2&lt;=1.001,J28/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.98615582743077912</v>
       </c>
       <c r="L28" s="3">
         <v>1.4166666666666666E-2</v>
       </c>
       <c r="M28" s="8">
-        <f>IF(L28/$M$2&lt;=1.001,L28/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.62321792260692466</v>
       </c>
       <c r="N28" s="1">
         <v>4.6666666666666669E-2</v>
       </c>
       <c r="O28" s="8">
-        <f>IF(N28/$O$2&lt;=1.001,N28/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>1.0002480774001488</v>
       </c>
       <c r="P28" s="1">
         <v>4.3159722222222224E-2</v>
       </c>
       <c r="Q28" s="8">
-        <f>IF(P28/$Q$2&lt;=1.001,P28/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.99892847575676402</v>
       </c>
       <c r="R28" s="4">
@@ -4565,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="8">
-        <f>IF(AB28/$AC$2&lt;=1.01,AB28/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD28" s="4"/>
@@ -4590,42 +4588,42 @@
         <v>1.7337962962962961E-2</v>
       </c>
       <c r="G29" s="8">
-        <f>IF(F29/$G$2&lt;=1.001,F29/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99402786994027859</v>
       </c>
       <c r="H29" s="3">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I29" s="8">
-        <f>IF(H29/$I$2&lt;=1.001,H29/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
       <c r="J29" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K29" s="8">
-        <f>IF(J29/$K$2&lt;=1.001,J29/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L29" s="9">
         <v>2.2731481481481481E-2</v>
       </c>
       <c r="M29" s="10">
-        <f>IF(L29/$M$2&lt;=1.001,L29/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N29" s="1">
         <v>2.9768518518518517E-2</v>
       </c>
       <c r="O29" s="8">
-        <f>IF(N29/$O$2&lt;=1.001,N29/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.63805507318283294</v>
       </c>
       <c r="P29" s="1">
         <v>4.1909722222222223E-2</v>
       </c>
       <c r="Q29" s="8">
-        <f>IF(P29/$Q$2&lt;=1.001,P29/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.96999732118939197</v>
       </c>
       <c r="R29" s="4">
@@ -4665,7 +4663,7 @@
         <v>3.8124999999999999E-2</v>
       </c>
       <c r="AC29" s="8">
-        <f>IF(AB29/$AC$2&lt;=1.01,AB29/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.9263217097862767</v>
       </c>
       <c r="AD29" s="4"/>
@@ -4690,42 +4688,42 @@
         <v>1.744212962962963E-2</v>
       </c>
       <c r="G30" s="8">
-        <f>IF(F30/$G$2&lt;=1.001,F30/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H30" s="3">
         <v>3.9270833333333331E-2</v>
       </c>
       <c r="I30" s="8">
-        <f>IF(H30/$I$2&lt;=1.001,H30/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98719813791096878</v>
       </c>
       <c r="J30" s="3">
         <v>3.591435185185185E-2</v>
       </c>
       <c r="K30" s="8">
-        <f>IF(J30/$K$2&lt;=1.001,J30/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99903412749517073</v>
       </c>
       <c r="L30" s="3">
         <v>1.9351851851851853E-2</v>
       </c>
       <c r="M30" s="8">
-        <f>IF(L30/$M$2&lt;=1.001,L30/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.85132382892057035</v>
       </c>
       <c r="N30" s="1">
         <v>4.2256944444444444E-2</v>
       </c>
       <c r="O30" s="8">
-        <f>IF(N30/$O$2&lt;=1.001,N30/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.9057305879434383</v>
       </c>
       <c r="P30" s="1">
         <v>3.9687500000000001E-2</v>
       </c>
       <c r="Q30" s="8">
-        <f>IF(P30/$Q$2&lt;=1.001,P30/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.91856415751406373</v>
       </c>
       <c r="R30" s="4">
@@ -4765,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="8">
-        <f>IF(AB30/$AC$2&lt;=1.01,AB30/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD30" s="4"/>
@@ -4790,42 +4788,42 @@
         <v>4.3043981481481482E-2</v>
       </c>
       <c r="G31" s="8">
-        <f>IF(F31/$G$2&lt;=1.001,F31/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H31" s="3">
         <v>3.923611111111111E-2</v>
       </c>
       <c r="I31" s="8">
-        <f>IF(H31/$I$2&lt;=1.001,H31/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98632528367762573</v>
       </c>
       <c r="J31" s="3">
         <v>3.591435185185185E-2</v>
       </c>
       <c r="K31" s="8">
-        <f>IF(J31/$K$2&lt;=1.001,J31/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99903412749517073</v>
       </c>
       <c r="L31" s="3">
         <v>2.2731481481481481E-2</v>
       </c>
       <c r="M31" s="8">
-        <f>IF(L31/$M$2&lt;=1.001,L31/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N31" s="1">
         <v>4.659722222222222E-2</v>
       </c>
       <c r="O31" s="8">
-        <f>IF(N31/$O$2&lt;=1.001,N31/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.99875961299925564</v>
       </c>
       <c r="P31" s="1">
         <v>4.189814814814815E-2</v>
       </c>
       <c r="Q31" s="8">
-        <f>IF(P31/$Q$2&lt;=1.001,P31/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.96972944012858298</v>
       </c>
       <c r="R31" s="4">
@@ -4865,7 +4863,7 @@
         <v>3.7615740740740741E-2</v>
       </c>
       <c r="AC31" s="8">
-        <f>IF(AB31/$AC$2&lt;=1.01,AB31/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.91394825646794153</v>
       </c>
       <c r="AD31" s="4"/>
@@ -4890,42 +4888,42 @@
         <v>1.7337962962962961E-2</v>
       </c>
       <c r="G32" s="8">
-        <f>IF(F32/$G$2&lt;=1.001,F32/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99402786994027859</v>
       </c>
       <c r="H32" s="3">
         <v>3.8796296296296294E-2</v>
       </c>
       <c r="I32" s="8">
-        <f>IF(H32/$I$2&lt;=1.001,H32/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.9752691300552806</v>
       </c>
       <c r="J32" s="3">
         <v>2.2928240740740742E-2</v>
       </c>
       <c r="K32" s="8">
-        <f>IF(J32/$K$2&lt;=1.001,J32/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.63779781068898911</v>
       </c>
       <c r="L32" s="3">
         <v>7.1296296296296299E-3</v>
       </c>
       <c r="M32" s="8">
-        <f>IF(L32/$M$2&lt;=1.001,L32/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.31364562118126277</v>
       </c>
       <c r="N32" s="1">
         <v>0</v>
       </c>
       <c r="O32" s="8">
-        <f>IF(N32/$O$2&lt;=1.001,N32/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P32" s="1">
         <v>0</v>
       </c>
       <c r="Q32" s="8">
-        <f>IF(P32/$Q$2&lt;=1.001,P32/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R32" s="4">
@@ -4963,7 +4961,7 @@
         <v>3.8101851851851852E-2</v>
       </c>
       <c r="AC32" s="8">
-        <f>IF(AB32/$AC$2&lt;=1.01,AB32/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.92575928008998876</v>
       </c>
       <c r="AD32" s="4"/>
@@ -4988,42 +4986,42 @@
         <v>4.3611111111111114E-2</v>
       </c>
       <c r="G33" s="8">
-        <f>IF(F33/$G$2&lt;=1.001,F33/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H33" s="3">
         <v>3.9641203703703706E-2</v>
       </c>
       <c r="I33" s="8">
-        <f>IF(H33/$I$2&lt;=1.001,H33/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.99650858306662782</v>
       </c>
       <c r="J33" s="3">
         <v>3.5879629629629629E-2</v>
       </c>
       <c r="K33" s="8">
-        <f>IF(J33/$K$2&lt;=1.001,J33/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99806825499034135</v>
       </c>
       <c r="L33" s="3">
         <v>2.1238425925925924E-2</v>
       </c>
       <c r="M33" s="8">
-        <f>IF(L33/$M$2&lt;=1.001,L33/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.93431771894093685</v>
       </c>
       <c r="N33" s="1">
         <v>4.659722222222222E-2</v>
       </c>
       <c r="O33" s="8">
-        <f>IF(N33/$O$2&lt;=1.001,N33/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.99875961299925564</v>
       </c>
       <c r="P33" s="1">
         <v>4.1886574074074076E-2</v>
       </c>
       <c r="Q33" s="8">
-        <f>IF(P33/$Q$2&lt;=1.001,P33/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.96946155906777398</v>
       </c>
       <c r="R33" s="4">
@@ -5063,7 +5061,7 @@
         <v>3.8425925925925926E-2</v>
       </c>
       <c r="AC33" s="8">
-        <f>IF(AB33/$AC$2&lt;=1.01,AB33/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.93363329583802024</v>
       </c>
       <c r="AD33" s="4"/>
@@ -5088,42 +5086,42 @@
         <v>1.7326388888888888E-2</v>
       </c>
       <c r="G34" s="8">
-        <f>IF(F34/$G$2&lt;=1.001,F34/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99336429993364284</v>
       </c>
       <c r="H34" s="3">
         <v>3.9212962962962963E-2</v>
       </c>
       <c r="I34" s="8">
-        <f>IF(H34/$I$2&lt;=1.001,H34/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98574338085539703</v>
       </c>
       <c r="J34" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K34" s="8">
-        <f>IF(J34/$K$2&lt;=1.001,J34/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L34" s="3">
         <v>2.2268518518518517E-2</v>
       </c>
       <c r="M34" s="8">
-        <f>IF(L34/$M$2&lt;=1.001,L34/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.97963340122199594</v>
       </c>
       <c r="N34" s="1">
         <v>4.6527777777777779E-2</v>
       </c>
       <c r="O34" s="8">
-        <f>IF(N34/$O$2&lt;=1.001,N34/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.99727114859836263</v>
       </c>
       <c r="P34" s="1">
         <v>3.2187500000000001E-2</v>
       </c>
       <c r="Q34" s="8">
-        <f>IF(P34/$Q$2&lt;=1.001,P34/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.7449772301098313</v>
       </c>
       <c r="R34" s="4">
@@ -5163,7 +5161,7 @@
         <v>3.8055555555555558E-2</v>
       </c>
       <c r="AC34" s="8">
-        <f>IF(AB34/$AC$2&lt;=1.01,AB34/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.92463442069741286</v>
       </c>
       <c r="AD34" s="4"/>
@@ -5188,42 +5186,42 @@
         <v>0</v>
       </c>
       <c r="G35" s="8">
-        <f>IF(F35/$G$2&lt;=1.001,F35/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>3.9178240740740743E-2</v>
       </c>
       <c r="I35" s="8">
-        <f>IF(H35/$I$2&lt;=1.001,H35/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.9848705266220541</v>
       </c>
       <c r="J35" s="3">
         <v>3.5844907407407409E-2</v>
       </c>
       <c r="K35" s="8">
-        <f>IF(J35/$K$2&lt;=1.001,J35/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99710238248551208</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="8">
-        <f>IF(L35/$M$2&lt;=1.001,L35/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N35" s="1">
         <v>3.7858796296296293E-2</v>
       </c>
       <c r="O35" s="8">
-        <f>IF(N35/$O$2&lt;=1.001,N35/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.81146117588687661</v>
       </c>
       <c r="P35" s="1">
         <v>3.1886574074074074E-2</v>
       </c>
       <c r="Q35" s="8">
-        <f>IF(P35/$Q$2&lt;=1.001,P35/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.73801232252879723</v>
       </c>
       <c r="R35" s="4">
@@ -5263,7 +5261,7 @@
         <v>4.1157407407407406E-2</v>
       </c>
       <c r="AC35" s="8">
-        <f>IF(AB35/$AC$2&lt;=1.01,AB35/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD35" s="4"/>
@@ -5288,42 +5286,42 @@
         <v>0</v>
       </c>
       <c r="G36" s="8">
-        <f>IF(F36/$G$2&lt;=1.001,F36/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H36" s="3">
         <v>3.9016203703703706E-2</v>
       </c>
       <c r="I36" s="8">
-        <f>IF(H36/$I$2&lt;=1.001,H36/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98079720686645322</v>
       </c>
       <c r="J36" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K36" s="8">
-        <f>IF(J36/$K$2&lt;=1.001,J36/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L36" s="3">
         <v>2.2650462962962963E-2</v>
       </c>
       <c r="M36" s="8">
-        <f>IF(L36/$M$2&lt;=1.001,L36/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.99643584521384931</v>
       </c>
       <c r="N36" s="1">
         <v>0</v>
       </c>
       <c r="O36" s="8">
-        <f>IF(N36/$O$2&lt;=1.001,N36/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P36" s="1">
         <v>7.8240740740740736E-3</v>
       </c>
       <c r="Q36" s="8">
-        <f>IF(P36/$Q$2&lt;=1.001,P36/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.18108759710688452</v>
       </c>
       <c r="R36" s="4">
@@ -5363,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="8">
-        <f>IF(AB36/$AC$2&lt;=1.01,AB36/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD36" s="4"/>

--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7115072-3667-4F0B-AEA4-3A03C7797065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303584F4-8570-463E-8F2E-9E149BEC6FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-2" sheetId="1" r:id="rId1"/>
@@ -682,7 +682,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,6 +827,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1232,7 +1240,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1309,51 +1317,54 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="28">
     <dxf>
@@ -1482,7 +1493,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:AD36" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A3:AD36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AD36">
-    <sortCondition ref="B3:B36"/>
+    <sortCondition ref="S3:S36"/>
   </sortState>
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{2951ACD3-7E7C-4B15-8969-BBEC77220F09}" name="Num"/>
@@ -1541,7 +1552,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1857,33 +1868,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD2CE0-6169-477F-B8E1-2987D9E7C726}">
-  <dimension ref="A1:AD38"/>
+  <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E36"/>
+    <sheetView tabSelected="1" topLeftCell="H3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AG44" sqref="AG44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="75.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17" style="27" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29" style="27" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="17" width="16.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" customWidth="1"/>
+    <col min="20" max="20" width="75.5703125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" style="27" customWidth="1"/>
+    <col min="22" max="22" width="17" style="27" customWidth="1"/>
+    <col min="23" max="23" width="28.85546875" style="27" customWidth="1"/>
+    <col min="24" max="24" width="29" style="27" customWidth="1"/>
+    <col min="25" max="25" width="21.28515625" style="27" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" style="27" customWidth="1"/>
     <col min="27" max="27" width="12.28515625" style="2" customWidth="1"/>
-    <col min="28" max="29" width="16.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="28" max="29" width="16.85546875" style="2" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -2096,42 +2107,42 @@
         <v>0</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" ref="G4:G36" si="0">IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
+        <f>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>3.9085648148148147E-2</v>
       </c>
       <c r="I4" s="8">
-        <f t="shared" ref="I4:I36" si="1">IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
+        <f>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
         <v>0.9825429153331392</v>
       </c>
       <c r="J4" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:K36" si="2">IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
+        <f>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
       <c r="L4" s="3">
         <v>2.3148148148148149E-4</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" ref="M4:M36" si="3">IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
+        <f>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
         <v>1.0183299389002037E-2</v>
       </c>
       <c r="N4" s="1">
         <v>4.6527777777777779E-2</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" ref="O4:O36" si="4">IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</f>
+        <f>IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</f>
         <v>0.99727114859836263</v>
       </c>
       <c r="P4" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q4" s="8">
-        <f t="shared" ref="Q4:Q36" si="5">IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</f>
+        <f>IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="R4" s="4">
@@ -2161,182 +2172,182 @@
         <v>1</v>
       </c>
       <c r="Z4" s="29">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AA4" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>2.5235798302055281</v>
+        <v>2.7615798302055281</v>
       </c>
       <c r="AB4" s="1">
         <v>4.1157407407407406E-2</v>
       </c>
       <c r="AC4" s="8">
-        <f t="shared" ref="AC4:AC36" si="6">IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</f>
+        <f>IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="AD4" s="4"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>1104804719</v>
+        <v>1109542109</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3">
-        <v>3.4641203703703702E-2</v>
+        <v>1.6481481481481482E-2</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F5/$G$2&lt;=1.001,F5/$G$2,0.6)</f>
+        <v>0.94492368944923688</v>
       </c>
       <c r="H5" s="3">
-        <v>3.9178240740740743E-2</v>
+        <v>3.8530092592592595E-2</v>
       </c>
       <c r="I5" s="8">
-        <f t="shared" si="1"/>
-        <v>0.9848705266220541</v>
+        <f>IF(H5/$I$2&lt;=1.001,H5/$I$2,0.6)</f>
+        <v>0.9685772475996508</v>
       </c>
       <c r="J5" s="3">
-        <v>3.5856481481481482E-2</v>
+        <v>3.5821759259259262E-2</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="2"/>
-        <v>0.99742433998712177</v>
+        <f>IF(J5/$K$2&lt;=1.001,J5/$K$2,0.6)</f>
+        <v>0.9964584674822925</v>
       </c>
       <c r="L5" s="3">
-        <v>1.9652777777777779E-2</v>
+        <v>1.0648148148148149E-3</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" si="3"/>
-        <v>0.86456211812627304</v>
+        <f>IF(L5/$M$2&lt;=1.001,L5/$M$2,0.6)</f>
+        <v>4.684317718940937E-2</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>4.4270833333333336E-2</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(N5/$O$2&lt;=1.001,N5/$O$2,0.6)</f>
+        <v>0.94889605556933765</v>
       </c>
       <c r="P5" s="1">
-        <v>3.9768518518518516E-2</v>
+        <v>3.9861111111111111E-2</v>
       </c>
       <c r="Q5" s="8">
-        <f t="shared" si="5"/>
-        <v>0.92043932493972669</v>
+        <f>IF(P5/$Q$2&lt;=1.001,P5/$Q$2,0.6)</f>
+        <v>0.92258237342619875</v>
       </c>
       <c r="R5" s="4">
         <f>AVERAGE(G5,I5,K5,M5,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.6394135913959795</v>
+        <v>4.0235675089301051</v>
       </c>
       <c r="S5" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T5" s="4" t="str" cm="1">
         <f t="array" ref="T5">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U5" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V5" s="29">
-        <v>4.9000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="W5" s="29">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="X5" s="29">
-        <v>3.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y5" s="29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z5" s="29">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="AA5" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.2698240774187939</v>
+        <v>3.097070252679031</v>
       </c>
       <c r="AB5" s="1">
-        <v>4.0914351851851855E-2</v>
+        <v>3.8101851851851852E-2</v>
       </c>
       <c r="AC5" s="8">
-        <f t="shared" si="6"/>
-        <v>0.9940944881889765</v>
+        <f>IF(AB5/$AC$2&lt;=1.01,AB5/$AC$2,0.6)</f>
+        <v>0.92575928008998876</v>
       </c>
       <c r="AD5" s="4"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D6">
-        <v>1109542109</v>
+        <v>1110286885</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3">
-        <v>1.6481481481481482E-2</v>
+        <v>1.7349537037037038E-2</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>0.94492368944923688</v>
+        <f>IF(F6/$G$2&lt;=1.001,F6/$G$2,0.6)</f>
+        <v>0.99469143994691445</v>
       </c>
       <c r="H6" s="3">
-        <v>3.8530092592592595E-2</v>
+        <v>3.9293981481481478E-2</v>
       </c>
       <c r="I6" s="8">
-        <f t="shared" si="1"/>
-        <v>0.9685772475996508</v>
+        <f>IF(H6/$I$2&lt;=1.001,H6/$I$2,0.6)</f>
+        <v>0.98778004073319736</v>
       </c>
       <c r="J6" s="3">
-        <v>3.5821759259259262E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" si="2"/>
-        <v>0.9964584674822925</v>
+        <f>IF(J6/$K$2&lt;=1.001,J6/$K$2,0.6)</f>
+        <v>0.99935608499678041</v>
       </c>
       <c r="L6" s="3">
-        <v>1.0648148148148149E-3</v>
+        <v>2.2129629629629631E-2</v>
       </c>
       <c r="M6" s="8">
-        <f t="shared" si="3"/>
-        <v>4.684317718940937E-2</v>
+        <f>IF(L6/$M$2&lt;=1.001,L6/$M$2,0.6)</f>
+        <v>0.97352342158859484</v>
       </c>
       <c r="N6" s="1">
-        <v>4.4270833333333336E-2</v>
+        <v>4.5590277777777778E-2</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" si="4"/>
-        <v>0.94889605556933765</v>
+        <f>IF(N6/$O$2&lt;=1.001,N6/$O$2,0.6)</f>
+        <v>0.97717687918630614</v>
       </c>
       <c r="P6" s="1">
-        <v>3.9861111111111111E-2</v>
+        <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q6" s="8">
-        <f t="shared" si="5"/>
-        <v>0.92258237342619875</v>
+        <f>IF(P6/$Q$2&lt;=1.001,P6/$Q$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="R6" s="4">
         <f>AVERAGE(G6,I6,K6,M6,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.0235675089301051</v>
+        <v>4.9437732220431609</v>
       </c>
       <c r="S6" s="13">
         <v>1</v>
@@ -2346,214 +2357,216 @@
         <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U6" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V6" s="29">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="W6" s="29">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="X6" s="29">
         <v>1.1000000000000001</v>
       </c>
       <c r="Y6" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="29">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AA6" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>2.8590702526790315</v>
+        <v>2.1691319666129485</v>
       </c>
       <c r="AB6" s="1">
-        <v>3.8101851851851852E-2</v>
+        <v>4.1203703703703701E-2</v>
       </c>
       <c r="AC6" s="8">
-        <f t="shared" si="6"/>
-        <v>0.92575928008998876</v>
+        <f>IF(AB6/$AC$2&lt;=1.01,AB6/$AC$2,0.6)</f>
+        <v>1.0011248593925759</v>
       </c>
       <c r="AD6" s="4"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>89</v>
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
       </c>
       <c r="D7">
-        <v>1193276119</v>
+        <v>1036925847</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3">
-        <v>1.7349537037037038E-2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99469143994691445</v>
+        <f>IF(F7/$G$2&lt;=1.001,F7/$G$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>3.9178240740740743E-2</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(H7/$I$2&lt;=1.001,H7/$I$2,0.6)</f>
+        <v>0.9848705266220541</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>3.5844907407407409E-2</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(J7/$K$2&lt;=1.001,J7/$K$2,0.6)</f>
+        <v>0.99710238248551208</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(L7/$M$2&lt;=1.001,L7/$M$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>1.5972222222222223E-3</v>
+        <v>3.7858796296296293E-2</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="4"/>
-        <v>3.4234681220540811E-2</v>
+        <f>IF(N7/$O$2&lt;=1.001,N7/$O$2,0.6)</f>
+        <v>0.81146117588687661</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>3.1886574074074074E-2</v>
       </c>
       <c r="Q7" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(P7/$Q$2&lt;=1.001,P7/$Q$2,0.6)</f>
+        <v>0.73801232252879723</v>
       </c>
       <c r="R7" s="4">
         <f>AVERAGE(G7,I7,K7,M7,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>0.85743843430621258</v>
-      </c>
-      <c r="S7" s="13"/>
+        <v>2.9428720062693667</v>
+      </c>
+      <c r="S7" s="13">
+        <v>1</v>
+      </c>
       <c r="T7" s="4" t="str" cm="1">
         <f t="array" ref="T7">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
+        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U7" s="29">
         <v>0</v>
       </c>
       <c r="V7" s="29">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W7" s="29">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X7" s="29">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y7" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z7" s="29">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AA7" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0.25723153029186374</v>
+        <v>2.0728616018808097</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>4.1157407407407406E-2</v>
       </c>
       <c r="AC7" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(AB7/$AC$2&lt;=1.01,AB7/$AC$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="AD7" s="4"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>1113978874</v>
+        <v>1107837413</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3">
-        <v>1.744212962962963E-2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(F8/$G$2&lt;=1.001,F8/$G$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>3.7743055555555557E-2</v>
       </c>
       <c r="I8" s="8">
-        <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
+        <f>IF(H8/$I$2&lt;=1.001,H8/$I$2,0.6)</f>
+        <v>0.94879255164387544</v>
       </c>
       <c r="J8" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
+        <f>IF(J8/$K$2&lt;=1.001,J8/$K$2,0.6)</f>
+        <v>0.99935608499678041</v>
       </c>
       <c r="L8" s="3">
-        <v>2.1203703703703704E-2</v>
+        <v>2.0636574074074075E-2</v>
       </c>
       <c r="M8" s="8">
-        <f t="shared" si="3"/>
-        <v>0.9327902240325866</v>
+        <f>IF(L8/$M$2&lt;=1.001,L8/$M$2,0.6)</f>
+        <v>0.90784114052953158</v>
       </c>
       <c r="N8" s="1">
-        <v>4.6666666666666669E-2</v>
+        <v>0</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" si="4"/>
-        <v>1.0002480774001488</v>
+        <f>IF(N8/$O$2&lt;=1.001,N8/$O$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>3.9016203703703706E-2</v>
       </c>
       <c r="Q8" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(P8/$Q$2&lt;=1.001,P8/$Q$2,0.6)</f>
+        <v>0.90302705598714172</v>
       </c>
       <c r="R8" s="4">
         <f>AVERAGE(G8,I8,K8,M8,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9451942609730732</v>
+        <v>3.1325140276311076</v>
       </c>
       <c r="S8" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T8" s="4" t="str" cm="1">
         <f t="array" ref="T8">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U8" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V8" s="29">
-        <v>4.9000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="W8" s="29">
         <v>5</v>
       </c>
       <c r="X8" s="29">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Y8" s="29">
         <v>5</v>
@@ -2563,295 +2576,297 @@
       </c>
       <c r="AA8" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.8995582782919218</v>
+        <v>3.977754208289332</v>
       </c>
       <c r="AB8" s="1">
-        <v>3.9328703703703706E-2</v>
+        <v>3.8090277777777778E-2</v>
       </c>
       <c r="AC8" s="8">
-        <f t="shared" si="6"/>
-        <v>0.95556805399325095</v>
+        <f>IF(AB8/$AC$2&lt;=1.01,AB8/$AC$2,0.6)</f>
+        <v>0.92547806524184484</v>
       </c>
       <c r="AD8" s="4"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D9">
-        <v>1007560675</v>
+        <v>1000940688</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3">
-        <v>5.2083333333333333E-4</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>2.98606502986065E-2</v>
+        <f>IF(F9/$G$2&lt;=1.001,F9/$G$2,0.6)</f>
+        <v>0.99535500995355009</v>
       </c>
       <c r="H9" s="3">
-        <v>3.9074074074074074E-2</v>
+        <v>3.9259259259259258E-2</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98225196392202496</v>
+        <f>IF(H9/$I$2&lt;=1.001,H9/$I$2,0.6)</f>
+        <v>0.98690718649985443</v>
       </c>
       <c r="J9" s="3">
-        <v>3.5763888888888887E-2</v>
+        <v>3.5949074074074071E-2</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="2"/>
-        <v>0.99484867997424342</v>
+        <f>IF(J9/$K$2&lt;=1.001,J9/$K$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="L9" s="3">
-        <v>1.8090277777777778E-2</v>
+        <v>2.2638888888888889E-2</v>
       </c>
       <c r="M9" s="8">
-        <f t="shared" si="3"/>
-        <v>0.79582484725050917</v>
+        <f>IF(L9/$M$2&lt;=1.001,L9/$M$2,0.6)</f>
+        <v>0.99592668024439923</v>
       </c>
       <c r="N9" s="1">
-        <v>4.6388888888888889E-2</v>
+        <v>4.4965277777777778E-2</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="4"/>
-        <v>0.99429421979657651</v>
+        <f>IF(N9/$O$2&lt;=1.001,N9/$O$2,0.6)</f>
+        <v>0.9637806995782684</v>
       </c>
       <c r="P9" s="1">
-        <v>4.1805555555555554E-2</v>
+        <v>4.1863425925925929E-2</v>
       </c>
       <c r="Q9" s="8">
-        <f t="shared" si="5"/>
-        <v>0.96758639164211091</v>
+        <f>IF(P9/$Q$2&lt;=1.001,P9/$Q$2,0.6)</f>
+        <v>0.96892579694615599</v>
       </c>
       <c r="R9" s="4">
         <f>AVERAGE(G9,I9,K9,M9,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.970555627403392</v>
+        <v>4.9257461443518569</v>
       </c>
       <c r="S9" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9" s="4" t="str" cm="1">
         <f t="array" ref="T9">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U9" s="29">
         <v>5</v>
       </c>
       <c r="V9" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W9" s="29">
         <v>5</v>
-      </c>
-      <c r="W9" s="29">
-        <v>4</v>
       </c>
       <c r="X9" s="29">
         <v>5</v>
       </c>
       <c r="Y9" s="29">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="Z9" s="29">
         <v>4.5</v>
       </c>
       <c r="AA9" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.4811666882210179</v>
+        <v>4.7957238433055576</v>
       </c>
       <c r="AB9" s="1">
-        <v>3.6736111111111108E-2</v>
+        <v>3.8182870370370367E-2</v>
       </c>
       <c r="AC9" s="8">
-        <f t="shared" si="6"/>
-        <v>0.89257592800899888</v>
+        <f>IF(AB9/$AC$2&lt;=1.01,AB9/$AC$2,0.6)</f>
+        <v>0.92772778402699652</v>
       </c>
       <c r="AD9" s="4"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>92</v>
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
       </c>
       <c r="D10">
-        <v>1004189893</v>
+        <v>1112388246</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(F10/$G$2&lt;=1.001,F10/$G$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>3.8506944444444448E-2</v>
       </c>
       <c r="I10" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(H10/$I$2&lt;=1.001,H10/$I$2,0.6)</f>
+        <v>0.96799534477742222</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>1.0486111111111111E-2</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(J10/$K$2&lt;=1.001,J10/$K$2,0.6)</f>
+        <v>0.29169349645846748</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>2.2592592592592591E-2</v>
       </c>
       <c r="M10" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(L10/$M$2&lt;=1.001,L10/$M$2,0.6)</f>
+        <v>0.99389002036659879</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>3.7476851851851851E-2</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(N10/$O$2&lt;=1.001,N10/$O$2,0.6)</f>
+        <v>0.80327462168196473</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>3.8391203703703705E-2</v>
       </c>
       <c r="Q10" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(P10/$Q$2&lt;=1.001,P10/$Q$2,0.6)</f>
+        <v>0.8885614787034557</v>
       </c>
       <c r="R10" s="4">
         <f>AVERAGE(G10,I10,K10,M10,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="13"/>
+        <v>4.1211791349899247</v>
+      </c>
+      <c r="S10" s="13">
+        <v>2</v>
+      </c>
       <c r="T10" s="4" t="str" cm="1">
         <f t="array" ref="T10">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
+        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U10" s="29">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="V10" s="29">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="W10" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X10" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y10" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z10" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA10" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0</v>
+        <v>4.4283537404969771</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>3.2685185185185185E-2</v>
       </c>
       <c r="AC10" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(AB10/$AC$2&lt;=1.01,AB10/$AC$2,0.6)</f>
+        <v>0.79415073115860524</v>
       </c>
       <c r="AD10" s="4"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11">
-        <v>1005892878</v>
+        <v>1007560675</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3">
-        <v>1.744212962962963E-2</v>
+        <v>5.2083333333333333E-4</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(F11/$G$2&lt;=1.001,F11/$G$2,0.6)</f>
+        <v>2.98606502986065E-2</v>
       </c>
       <c r="H11" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>3.9074074074074074E-2</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
+        <f>IF(H11/$I$2&lt;=1.001,H11/$I$2,0.6)</f>
+        <v>0.98225196392202496</v>
       </c>
       <c r="J11" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>3.5763888888888887E-2</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
+        <f>IF(J11/$K$2&lt;=1.001,J11/$K$2,0.6)</f>
+        <v>0.99484867997424342</v>
       </c>
       <c r="L11" s="3">
-        <v>1.8935185185185187E-2</v>
+        <v>1.8090277777777778E-2</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" si="3"/>
-        <v>0.83299389002036672</v>
+        <f>IF(L11/$M$2&lt;=1.001,L11/$M$2,0.6)</f>
+        <v>0.79582484725050917</v>
       </c>
       <c r="N11" s="1">
-        <v>4.5497685185185183E-2</v>
+        <v>4.6388888888888889E-2</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="4"/>
-        <v>0.97519225998511527</v>
+        <f>IF(N11/$O$2&lt;=1.001,N11/$O$2,0.6)</f>
+        <v>0.99429421979657651</v>
       </c>
       <c r="P11" s="1">
-        <v>4.1145833333333333E-2</v>
+        <v>4.1805555555555554E-2</v>
       </c>
       <c r="Q11" s="8">
-        <f t="shared" si="5"/>
-        <v>0.95231717117599779</v>
+        <f>IF(P11/$Q$2&lt;=1.001,P11/$Q$2,0.6)</f>
+        <v>0.96758639164211091</v>
       </c>
       <c r="R11" s="4">
         <f>AVERAGE(G11,I11,K11,M11,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.8014151107636938</v>
+        <v>3.970555627403392</v>
       </c>
       <c r="S11" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T11" s="4" t="str" cm="1">
         <f t="array" ref="T11">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U11" s="29">
         <v>5</v>
       </c>
       <c r="V11" s="29">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="W11" s="29">
+        <v>4</v>
+      </c>
+      <c r="X11" s="29">
         <v>5</v>
-      </c>
-      <c r="X11" s="29">
-        <v>3.3</v>
       </c>
       <c r="Y11" s="29">
         <v>5</v>
@@ -2861,97 +2876,97 @@
       </c>
       <c r="AA11" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.562424533229108</v>
+        <v>4.4811666882210179</v>
       </c>
       <c r="AB11" s="1">
-        <v>3.9305555555555559E-2</v>
+        <v>3.6736111111111108E-2</v>
       </c>
       <c r="AC11" s="8">
-        <f t="shared" si="6"/>
-        <v>0.95500562429696301</v>
+        <f>IF(AB11/$AC$2&lt;=1.01,AB11/$AC$2,0.6)</f>
+        <v>0.89257592800899888</v>
       </c>
       <c r="AD11" s="4"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D12">
-        <v>1107837304</v>
+        <v>1005832925</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" s="3">
-        <v>3.8090277777777778E-2</v>
+        <v>1.7314814814814814E-2</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F12/$G$2&lt;=1.001,F12/$G$2,0.6)</f>
+        <v>0.9927007299270072</v>
       </c>
       <c r="H12" s="3">
-        <v>3.8541666666666669E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I12" s="8">
-        <f t="shared" si="1"/>
-        <v>0.96886819901076515</v>
+        <f>IF(H12/$I$2&lt;=1.001,H12/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J12" s="3">
-        <v>3.3229166666666664E-2</v>
+        <v>3.5868055555555556E-2</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" si="2"/>
-        <v>0.92433998712169996</v>
+        <f>IF(J12/$K$2&lt;=1.001,J12/$K$2,0.6)</f>
+        <v>0.99774629748873156</v>
       </c>
       <c r="L12" s="3">
-        <v>5.115740740740741E-3</v>
+        <v>2.1909722222222223E-2</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" si="3"/>
-        <v>0.22505091649694503</v>
+        <f>IF(L12/$M$2&lt;=1.001,L12/$M$2,0.6)</f>
+        <v>0.96384928716904283</v>
       </c>
       <c r="N12" s="1">
-        <v>4.4849537037037035E-2</v>
+        <v>4.6631944444444441E-2</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" si="4"/>
-        <v>0.9612999255767799</v>
+        <f>IF(N12/$O$2&lt;=1.001,N12/$O$2,0.6)</f>
+        <v>0.99950384519970215</v>
       </c>
       <c r="P12" s="1">
-        <v>3.9386574074074074E-2</v>
+        <v>4.2488425925925923E-2</v>
       </c>
       <c r="Q12" s="8">
-        <f t="shared" si="5"/>
-        <v>0.91159924993302976</v>
+        <f>IF(P12/$Q$2&lt;=1.001,P12/$Q$2,0.6)</f>
+        <v>0.98339137422984191</v>
       </c>
       <c r="R12" s="4">
         <f>AVERAGE(G12,I12,K12,M12,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.8259652317826838</v>
+        <v>4.9483869902063908</v>
       </c>
       <c r="S12" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T12" s="4" t="str" cm="1">
         <f t="array" ref="T12">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U12" s="29">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="V12" s="29">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="W12" s="29">
         <v>5</v>
       </c>
       <c r="X12" s="29">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Y12" s="29">
         <v>5</v>
@@ -2961,97 +2976,97 @@
       </c>
       <c r="AA12" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.2137895695348053</v>
+        <v>4.9145160970619175</v>
       </c>
       <c r="AB12" s="1">
-        <v>3.8101851851851852E-2</v>
+        <v>3.8379629629629632E-2</v>
       </c>
       <c r="AC12" s="8">
-        <f t="shared" si="6"/>
-        <v>0.92575928008998876</v>
+        <f>IF(AB12/$AC$2&lt;=1.01,AB12/$AC$2,0.6)</f>
+        <v>0.93250843644544434</v>
       </c>
       <c r="AD12" s="4"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D13">
-        <v>1058932076</v>
+        <v>1006343564</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3">
-        <v>3.6388888888888887E-2</v>
+        <v>1.7337962962962961E-2</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F13/$G$2&lt;=1.001,F13/$G$2,0.6)</f>
+        <v>0.99402786994027859</v>
       </c>
       <c r="H13" s="3">
-        <v>3.9282407407407405E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98748908932208301</v>
+        <f>IF(H13/$I$2&lt;=1.001,H13/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J13" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(J13/$K$2&lt;=1.001,J13/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
-      <c r="L13" s="3">
-        <v>2.2395833333333334E-2</v>
-      </c>
-      <c r="M13" s="8">
-        <f t="shared" si="3"/>
-        <v>0.98523421588594706</v>
+      <c r="L13" s="9">
+        <v>2.2731481481481481E-2</v>
+      </c>
+      <c r="M13" s="10">
+        <f>IF(L13/$M$2&lt;=1.001,L13/$M$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>4.6608796296296294E-2</v>
+        <v>2.9768518518518517E-2</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" si="4"/>
-        <v>0.99900769039940451</v>
+        <f>IF(N13/$O$2&lt;=1.001,N13/$O$2,0.6)</f>
+        <v>0.63805507318283294</v>
       </c>
       <c r="P13" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>4.1909722222222223E-2</v>
       </c>
       <c r="Q13" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(P13/$Q$2&lt;=1.001,P13/$Q$2,0.6)</f>
+        <v>0.96999732118939197</v>
       </c>
       <c r="R13" s="4">
         <f>AVERAGE(G13,I13,K13,M13,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6433774609242038</v>
+        <v>4.6693958967062139</v>
       </c>
       <c r="S13" s="13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T13" s="4" t="str" cm="1">
         <f t="array" ref="T13">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U13" s="29">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="V13" s="29">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W13" s="29">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="X13" s="29">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="Y13" s="29">
         <v>5</v>
@@ -3061,94 +3076,94 @@
       </c>
       <c r="AA13" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.263013238277261</v>
+        <v>4.3968187690118636</v>
       </c>
       <c r="AB13" s="1">
-        <v>3.6574074074074071E-2</v>
+        <v>3.8124999999999999E-2</v>
       </c>
       <c r="AC13" s="8">
-        <f t="shared" si="6"/>
-        <v>0.88863892013498313</v>
+        <f>IF(AB13/$AC$2&lt;=1.01,AB13/$AC$2,0.6)</f>
+        <v>0.9263217097862767</v>
       </c>
       <c r="AD13" s="4"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D14">
-        <v>1110285503</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
+        <v>73265790</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F14" s="3">
-        <v>1.7314814814814814E-2</v>
+        <v>4.3611111111111114E-2</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="0"/>
-        <v>0.9927007299270072</v>
+        <f>IF(F14/$G$2&lt;=1.001,F14/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H14" s="3">
-        <v>3.9189814814814816E-2</v>
+        <v>3.9641203703703706E-2</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98516147803316845</v>
+        <f>IF(H14/$I$2&lt;=1.001,H14/$I$2,0.6)</f>
+        <v>0.99650858306662782</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>3.5879629629629629E-2</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(J14/$K$2&lt;=1.001,J14/$K$2,0.6)</f>
+        <v>0.99806825499034135</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>2.1238425925925924E-2</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(L14/$M$2&lt;=1.001,L14/$M$2,0.6)</f>
+        <v>0.93431771894093685</v>
       </c>
       <c r="N14" s="1">
-        <v>4.327546296296296E-2</v>
+        <v>4.659722222222222E-2</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" si="4"/>
-        <v>0.92756139915653668</v>
+        <f>IF(N14/$O$2&lt;=1.001,N14/$O$2,0.6)</f>
+        <v>0.99875961299925564</v>
       </c>
       <c r="P14" s="1">
-        <v>4.3182870370370371E-2</v>
+        <v>4.1886574074074076E-2</v>
       </c>
       <c r="Q14" s="8">
-        <f t="shared" si="5"/>
-        <v>0.99946423787838201</v>
+        <f>IF(P14/$Q$2&lt;=1.001,P14/$Q$2,0.6)</f>
+        <v>0.96946155906777398</v>
       </c>
       <c r="R14" s="4">
         <f>AVERAGE(G14,I14,K14,M14,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.2540732041625784</v>
+        <v>4.5809297742207793</v>
       </c>
       <c r="S14" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T14" s="4" t="str" cm="1">
         <f t="array" ref="T14">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U14" s="29">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V14" s="29">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="W14" s="29">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="X14" s="29">
         <v>5</v>
@@ -3161,91 +3176,91 @@
       </c>
       <c r="AA14" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.6502219612487732</v>
+        <v>4.5802789322662338</v>
       </c>
       <c r="AB14" s="1">
-        <v>3.7256944444444447E-2</v>
+        <v>3.8425925925925926E-2</v>
       </c>
       <c r="AC14" s="8">
-        <f t="shared" si="6"/>
-        <v>0.90523059617547819</v>
+        <f>IF(AB14/$AC$2&lt;=1.01,AB14/$AC$2,0.6)</f>
+        <v>0.93363329583802024</v>
       </c>
       <c r="AD14" s="4"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D15">
-        <v>1107837413</v>
+        <v>1104804719</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>3.4641203703703702E-2</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(F15/$G$2&lt;=1.001,F15/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H15" s="3">
-        <v>3.7743055555555557E-2</v>
+        <v>3.9178240740740743E-2</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="1"/>
-        <v>0.94879255164387544</v>
+        <f>IF(H15/$I$2&lt;=1.001,H15/$I$2,0.6)</f>
+        <v>0.9848705266220541</v>
       </c>
       <c r="J15" s="3">
-        <v>3.5925925925925924E-2</v>
+        <v>3.5856481481481482E-2</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="2"/>
-        <v>0.99935608499678041</v>
+        <f>IF(J15/$K$2&lt;=1.001,J15/$K$2,0.6)</f>
+        <v>0.99742433998712177</v>
       </c>
       <c r="L15" s="3">
-        <v>2.0636574074074075E-2</v>
+        <v>1.9652777777777779E-2</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="3"/>
-        <v>0.90784114052953158</v>
+        <f>IF(L15/$M$2&lt;=1.001,L15/$M$2,0.6)</f>
+        <v>0.86456211812627304</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(N15/$O$2&lt;=1.001,N15/$O$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>3.9016203703703706E-2</v>
+        <v>3.9768518518518516E-2</v>
       </c>
       <c r="Q15" s="8">
-        <f t="shared" si="5"/>
-        <v>0.90302705598714172</v>
+        <f>IF(P15/$Q$2&lt;=1.001,P15/$Q$2,0.6)</f>
+        <v>0.92043932493972669</v>
       </c>
       <c r="R15" s="4">
         <f>AVERAGE(G15,I15,K15,M15,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.1325140276311076</v>
+        <v>3.6394135913959795</v>
       </c>
       <c r="S15" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T15" s="4" t="str" cm="1">
         <f t="array" ref="T15">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U15" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V15" s="29">
-        <v>3.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W15" s="29">
         <v>5</v>
@@ -3261,78 +3276,78 @@
       </c>
       <c r="AA15" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.977754208289332</v>
+        <v>4.2698240774187939</v>
       </c>
       <c r="AB15" s="1">
-        <v>3.8090277777777778E-2</v>
+        <v>4.0914351851851855E-2</v>
       </c>
       <c r="AC15" s="8">
-        <f t="shared" si="6"/>
-        <v>0.92547806524184484</v>
+        <f>IF(AB15/$AC$2&lt;=1.01,AB15/$AC$2,0.6)</f>
+        <v>0.9940944881889765</v>
       </c>
       <c r="AD15" s="4"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D16">
-        <v>1004217163</v>
+        <v>1113978874</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F16" s="3">
-        <v>4.1458333333333333E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F16/$G$2&lt;=1.001,F16/$G$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(H16/$I$2&lt;=1.001,H16/$I$2,0.6)</f>
         <v>1.0008728542333429</v>
       </c>
       <c r="J16" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(J16/$K$2&lt;=1.001,J16/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
       <c r="L16" s="3">
-        <v>2.0798611111111111E-2</v>
+        <v>2.1203703703703704E-2</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="3"/>
-        <v>0.91496945010183306</v>
+        <f>IF(L16/$M$2&lt;=1.001,L16/$M$2,0.6)</f>
+        <v>0.9327902240325866</v>
       </c>
       <c r="N16" s="1">
-        <v>4.2013888888888892E-2</v>
+        <v>4.6666666666666669E-2</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" si="4"/>
-        <v>0.90052096254031255</v>
+        <f>IF(N16/$O$2&lt;=1.001,N16/$O$2,0.6)</f>
+        <v>1.0002480774001488</v>
       </c>
       <c r="P16" s="1">
-        <v>3.8773148148148147E-2</v>
+        <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q16" s="8">
-        <f t="shared" si="5"/>
-        <v>0.89740155371015262</v>
+        <f>IF(P16/$Q$2&lt;=1.001,P16/$Q$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="R16" s="4">
         <f>AVERAGE(G16,I16,K16,M16,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.4284056484060423</v>
+        <v>4.9451942609730732</v>
       </c>
       <c r="S16" s="13">
         <v>4</v>
@@ -3345,7 +3360,7 @@
         <v>5</v>
       </c>
       <c r="V16" s="29">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W16" s="29">
         <v>5</v>
@@ -3354,104 +3369,104 @@
         <v>5</v>
       </c>
       <c r="Y16" s="29">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="Z16" s="29">
         <v>4.5</v>
       </c>
       <c r="AA16" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.6605216945218126</v>
+        <v>4.8995582782919218</v>
       </c>
       <c r="AB16" s="1">
-        <v>4.1076388888888891E-2</v>
+        <v>3.9328703703703706E-2</v>
       </c>
       <c r="AC16" s="8">
-        <f t="shared" si="6"/>
-        <v>0.99803149606299224</v>
+        <f>IF(AB16/$AC$2&lt;=1.01,AB16/$AC$2,0.6)</f>
+        <v>0.95556805399325095</v>
       </c>
       <c r="AD16" s="4"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D17">
-        <v>1105366146</v>
+        <v>1110285503</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F17" s="3">
-        <v>3.8437499999999999E-2</v>
+        <v>1.7314814814814814E-2</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F17/$G$2&lt;=1.001,F17/$G$2,0.6)</f>
+        <v>0.9927007299270072</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>3.9189814814814816E-2</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(H17/$I$2&lt;=1.001,H17/$I$2,0.6)</f>
+        <v>0.98516147803316845</v>
       </c>
       <c r="J17" s="3">
-        <v>1.3148148148148148E-2</v>
+        <v>0</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="2"/>
-        <v>0.36574372182871867</v>
+        <f>IF(J17/$K$2&lt;=1.001,J17/$K$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>7.6620370370370366E-3</v>
+        <v>0</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="3"/>
-        <v>0.33706720977596738</v>
+        <f>IF(L17/$M$2&lt;=1.001,L17/$M$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="N17" s="1">
-        <v>4.6215277777777779E-2</v>
+        <v>4.327546296296296E-2</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="4"/>
-        <v>0.99057305879434376</v>
+        <f>IF(N17/$O$2&lt;=1.001,N17/$O$2,0.6)</f>
+        <v>0.92756139915653668</v>
       </c>
       <c r="P17" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>4.3182870370370371E-2</v>
       </c>
       <c r="Q17" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(P17/$Q$2&lt;=1.001,P17/$Q$2,0.6)</f>
+        <v>0.99946423787838201</v>
       </c>
       <c r="R17" s="4">
         <f>AVERAGE(G17,I17,K17,M17,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.7444866586658585</v>
+        <v>3.2540732041625784</v>
       </c>
       <c r="S17" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T17" s="4" t="str" cm="1">
         <f t="array" ref="T17">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U17" s="29">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V17" s="29">
         <v>4</v>
       </c>
       <c r="W17" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="X17" s="29">
         <v>5</v>
-      </c>
-      <c r="X17" s="29">
-        <v>3.3</v>
       </c>
       <c r="Y17" s="29">
         <v>5</v>
@@ -3461,91 +3476,91 @@
       </c>
       <c r="AA17" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.8753459975997577</v>
+        <v>3.6502219612487732</v>
       </c>
       <c r="AB17" s="1">
-        <v>3.3819444444444444E-2</v>
+        <v>3.7256944444444447E-2</v>
       </c>
       <c r="AC17" s="8">
-        <f t="shared" si="6"/>
-        <v>0.82170978627671543</v>
+        <f>IF(AB17/$AC$2&lt;=1.01,AB17/$AC$2,0.6)</f>
+        <v>0.90523059617547819</v>
       </c>
       <c r="AD17" s="4"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18">
-        <v>1000940688</v>
+        <v>1004217163</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F18" s="3">
-        <v>1.7361111111111112E-2</v>
+        <v>4.1458333333333333E-2</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99535500995355009</v>
+        <f>IF(F18/$G$2&lt;=1.001,F18/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H18" s="3">
-        <v>3.9259259259259258E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98690718649985443</v>
+        <f>IF(H18/$I$2&lt;=1.001,H18/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J18" s="3">
-        <v>3.5949074074074071E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(J18/$K$2&lt;=1.001,J18/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
       </c>
       <c r="L18" s="3">
-        <v>2.2638888888888889E-2</v>
+        <v>2.0798611111111111E-2</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="3"/>
-        <v>0.99592668024439923</v>
+        <f>IF(L18/$M$2&lt;=1.001,L18/$M$2,0.6)</f>
+        <v>0.91496945010183306</v>
       </c>
       <c r="N18" s="1">
-        <v>4.4965277777777778E-2</v>
+        <v>4.2013888888888892E-2</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="4"/>
-        <v>0.9637806995782684</v>
+        <f>IF(N18/$O$2&lt;=1.001,N18/$O$2,0.6)</f>
+        <v>0.90052096254031255</v>
       </c>
       <c r="P18" s="1">
-        <v>4.1863425925925929E-2</v>
+        <v>3.8773148148148147E-2</v>
       </c>
       <c r="Q18" s="8">
-        <f t="shared" si="5"/>
-        <v>0.96892579694615599</v>
+        <f>IF(P18/$Q$2&lt;=1.001,P18/$Q$2,0.6)</f>
+        <v>0.89740155371015262</v>
       </c>
       <c r="R18" s="4">
         <f>AVERAGE(G18,I18,K18,M18,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9257461443518569</v>
+        <v>4.4284056484060423</v>
       </c>
       <c r="S18" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T18" s="4" t="str" cm="1">
         <f t="array" ref="T18">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U18" s="29">
         <v>5</v>
       </c>
       <c r="V18" s="29">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="W18" s="29">
         <v>5</v>
@@ -3561,97 +3576,97 @@
       </c>
       <c r="AA18" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.7957238433055576</v>
+        <v>4.6605216945218126</v>
       </c>
       <c r="AB18" s="1">
-        <v>3.8182870370370367E-2</v>
+        <v>4.1076388888888891E-2</v>
       </c>
       <c r="AC18" s="8">
-        <f t="shared" si="6"/>
-        <v>0.92772778402699652</v>
+        <f>IF(AB18/$AC$2&lt;=1.01,AB18/$AC$2,0.6)</f>
+        <v>0.99803149606299224</v>
       </c>
       <c r="AD18" s="4"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D19">
-        <v>1112388246</v>
+        <v>1112388822</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F19" s="3">
-        <v>1.744212962962963E-2</v>
+        <v>1.7337962962962961E-2</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(F19/$G$2&lt;=1.001,F19/$G$2,0.6)</f>
+        <v>0.99402786994027859</v>
       </c>
       <c r="H19" s="3">
-        <v>3.8506944444444448E-2</v>
+        <v>3.9224537037037037E-2</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="1"/>
-        <v>0.96799534477742222</v>
+        <f>IF(H19/$I$2&lt;=1.001,H19/$I$2,0.6)</f>
+        <v>0.98603433226651138</v>
       </c>
       <c r="J19" s="3">
-        <v>1.0486111111111111E-2</v>
+        <v>3.5879629629629629E-2</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="2"/>
-        <v>0.29169349645846748</v>
+        <f>IF(J19/$K$2&lt;=1.001,J19/$K$2,0.6)</f>
+        <v>0.99806825499034135</v>
       </c>
       <c r="L19" s="3">
-        <v>2.2592592592592591E-2</v>
+        <v>0</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="3"/>
-        <v>0.99389002036659879</v>
+        <f>IF(L19/$M$2&lt;=1.001,L19/$M$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>3.7476851851851851E-2</v>
+        <v>3.2685185185185185E-2</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="4"/>
-        <v>0.80327462168196473</v>
+        <f>IF(N19/$O$2&lt;=1.001,N19/$O$2,0.6)</f>
+        <v>0.70057057802034228</v>
       </c>
       <c r="P19" s="1">
-        <v>3.8391203703703705E-2</v>
+        <v>3.3252314814814818E-2</v>
       </c>
       <c r="Q19" s="8">
-        <f t="shared" si="5"/>
-        <v>0.8885614787034557</v>
+        <f>IF(P19/$Q$2&lt;=1.001,P19/$Q$2,0.6)</f>
+        <v>0.76962228770425933</v>
       </c>
       <c r="R19" s="4">
         <f>AVERAGE(G19,I19,K19,M19,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.1211791349899247</v>
+        <v>3.7069361024347773</v>
       </c>
       <c r="S19" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T19" s="4" t="str" cm="1">
         <f t="array" ref="T19">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U19" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="V19" s="29">
         <v>4.8</v>
       </c>
-      <c r="V19" s="29">
+      <c r="W19" s="29">
+        <v>4</v>
+      </c>
+      <c r="X19" s="29">
         <v>3.3</v>
-      </c>
-      <c r="W19" s="29">
-        <v>5</v>
-      </c>
-      <c r="X19" s="29">
-        <v>5</v>
       </c>
       <c r="Y19" s="29">
         <v>5</v>
@@ -3661,295 +3676,297 @@
       </c>
       <c r="AA19" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.4283537404969771</v>
+        <v>4.1360808307304335</v>
       </c>
       <c r="AB19" s="1">
-        <v>3.2685185185185185E-2</v>
+        <v>3.2615740740740744E-2</v>
       </c>
       <c r="AC19" s="8">
-        <f t="shared" si="6"/>
-        <v>0.79415073115860524</v>
+        <f>IF(AB19/$AC$2&lt;=1.01,AB19/$AC$2,0.6)</f>
+        <v>0.7924634420697414</v>
       </c>
       <c r="AD19" s="4"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D20">
-        <v>1110286885</v>
+        <v>1005892878</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F20" s="3">
-        <v>1.7349537037037038E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99469143994691445</v>
+        <f>IF(F20/$G$2&lt;=1.001,F20/$G$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
-        <v>3.9293981481481478E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I20" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98778004073319736</v>
+        <f>IF(H20/$I$2&lt;=1.001,H20/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J20" s="3">
-        <v>3.5925925925925924E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" si="2"/>
-        <v>0.99935608499678041</v>
+        <f>IF(J20/$K$2&lt;=1.001,J20/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
       </c>
       <c r="L20" s="3">
-        <v>2.2129629629629631E-2</v>
+        <v>1.8935185185185187E-2</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="3"/>
-        <v>0.97352342158859484</v>
+        <f>IF(L20/$M$2&lt;=1.001,L20/$M$2,0.6)</f>
+        <v>0.83299389002036672</v>
       </c>
       <c r="N20" s="1">
-        <v>4.5590277777777778E-2</v>
+        <v>4.5497685185185183E-2</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="4"/>
-        <v>0.97717687918630614</v>
+        <f>IF(N20/$O$2&lt;=1.001,N20/$O$2,0.6)</f>
+        <v>0.97519225998511527</v>
       </c>
       <c r="P20" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>4.1145833333333333E-2</v>
       </c>
       <c r="Q20" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(P20/$Q$2&lt;=1.001,P20/$Q$2,0.6)</f>
+        <v>0.95231717117599779</v>
       </c>
       <c r="R20" s="4">
         <f>AVERAGE(G20,I20,K20,M20,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9437732220431609</v>
+        <v>4.8014151107636938</v>
       </c>
       <c r="S20" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T20" s="4" t="str" cm="1">
         <f t="array" ref="T20">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U20" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="W20" s="29">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="X20" s="29">
-        <v>1.1000000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="Y20" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z20" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA20" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>1.9311319666129483</v>
+        <v>4.562424533229108</v>
       </c>
       <c r="AB20" s="1">
-        <v>4.1203703703703701E-2</v>
+        <v>3.9305555555555559E-2</v>
       </c>
       <c r="AC20" s="8">
-        <f t="shared" si="6"/>
-        <v>1.0011248593925759</v>
+        <f>IF(AB20/$AC$2&lt;=1.01,AB20/$AC$2,0.6)</f>
+        <v>0.95500562429696301</v>
       </c>
       <c r="AD20" s="4"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>99</v>
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
       </c>
       <c r="D21">
-        <v>1094883894</v>
+        <v>1107837304</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>3.8090277777777778E-2</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(F21/$G$2&lt;=1.001,F21/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H21" s="3">
-        <v>3.7743055555555557E-2</v>
+        <v>3.8541666666666669E-2</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="1"/>
-        <v>0.94879255164387544</v>
+        <f>IF(H21/$I$2&lt;=1.001,H21/$I$2,0.6)</f>
+        <v>0.96886819901076515</v>
       </c>
       <c r="J21" s="3">
-        <v>2.8715277777777777E-2</v>
+        <v>3.3229166666666664E-2</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="2"/>
-        <v>0.79877656149388288</v>
+        <f>IF(J21/$K$2&lt;=1.001,J21/$K$2,0.6)</f>
+        <v>0.92433998712169996</v>
       </c>
       <c r="L21" s="3">
-        <v>1.9212962962962963E-2</v>
+        <v>5.115740740740741E-3</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="3"/>
-        <v>0.84521384928716903</v>
+        <f>IF(L21/$M$2&lt;=1.001,L21/$M$2,0.6)</f>
+        <v>0.22505091649694503</v>
       </c>
       <c r="N21" s="1">
-        <v>0</v>
+        <v>4.4849537037037035E-2</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(N21/$O$2&lt;=1.001,N21/$O$2,0.6)</f>
+        <v>0.9612999255767799</v>
       </c>
       <c r="P21" s="1">
-        <v>0</v>
+        <v>3.9386574074074074E-2</v>
       </c>
       <c r="Q21" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(P21/$Q$2&lt;=1.001,P21/$Q$2,0.6)</f>
+        <v>0.91159924993302976</v>
       </c>
       <c r="R21" s="4">
         <f>AVERAGE(G21,I21,K21,M21,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.1606524686874393</v>
-      </c>
-      <c r="S21" s="13"/>
+        <v>3.8259652317826838</v>
+      </c>
+      <c r="S21" s="13">
+        <v>5</v>
+      </c>
       <c r="T21" s="4" t="str" cm="1">
         <f t="array" ref="T21">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U21" s="29">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="V21" s="29">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W21" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X21" s="29">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Y21" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z21" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA21" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0.64819574060623175</v>
+        <v>4.2137895695348053</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>3.8101851851851852E-2</v>
       </c>
       <c r="AC21" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(AB21/$AC$2&lt;=1.01,AB21/$AC$2,0.6)</f>
+        <v>0.92575928008998876</v>
       </c>
       <c r="AD21" s="4"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D22">
-        <v>1005832925</v>
+        <v>1105366146</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F22" s="3">
-        <v>1.7314814814814814E-2</v>
+        <v>3.8437499999999999E-2</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="0"/>
-        <v>0.9927007299270072</v>
+        <f>IF(F22/$G$2&lt;=1.001,F22/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H22" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
+        <f>IF(H22/$I$2&lt;=1.001,H22/$I$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>3.5868055555555556E-2</v>
+        <v>1.3148148148148148E-2</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="2"/>
-        <v>0.99774629748873156</v>
+        <f>IF(J22/$K$2&lt;=1.001,J22/$K$2,0.6)</f>
+        <v>0.36574372182871867</v>
       </c>
       <c r="L22" s="3">
-        <v>2.1909722222222223E-2</v>
+        <v>7.6620370370370366E-3</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="3"/>
-        <v>0.96384928716904283</v>
+        <f>IF(L22/$M$2&lt;=1.001,L22/$M$2,0.6)</f>
+        <v>0.33706720977596738</v>
       </c>
       <c r="N22" s="1">
-        <v>4.6631944444444441E-2</v>
+        <v>4.6215277777777779E-2</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="4"/>
-        <v>0.99950384519970215</v>
+        <f>IF(N22/$O$2&lt;=1.001,N22/$O$2,0.6)</f>
+        <v>0.99057305879434376</v>
       </c>
       <c r="P22" s="1">
-        <v>4.2488425925925923E-2</v>
+        <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="5"/>
-        <v>0.98339137422984191</v>
+        <f>IF(P22/$Q$2&lt;=1.001,P22/$Q$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="R22" s="4">
         <f>AVERAGE(G22,I22,K22,M22,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9483869902063908</v>
+        <v>2.7444866586658585</v>
       </c>
       <c r="S22" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T22" s="4" t="str" cm="1">
         <f t="array" ref="T22">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U22" s="29">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V22" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W22" s="29">
         <v>5</v>
       </c>
       <c r="X22" s="29">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Y22" s="29">
         <v>5</v>
@@ -3959,976 +3976,978 @@
       </c>
       <c r="AA22" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.9145160970619175</v>
+        <v>3.8753459975997577</v>
       </c>
       <c r="AB22" s="1">
-        <v>3.8379629629629632E-2</v>
+        <v>3.3819444444444444E-2</v>
       </c>
       <c r="AC22" s="8">
-        <f t="shared" si="6"/>
-        <v>0.93250843644544434</v>
+        <f>IF(AB22/$AC$2&lt;=1.01,AB22/$AC$2,0.6)</f>
+        <v>0.82170978627671543</v>
       </c>
       <c r="AD22" s="4"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D23">
-        <v>1002886235</v>
+        <v>1112041894</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F23" s="3">
-        <v>1.7395833333333333E-2</v>
+        <v>3.7592592592592594E-2</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99734571997345711</v>
+        <f>IF(F23/$G$2&lt;=1.001,F23/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H23" s="3">
-        <v>3.8217592592592595E-2</v>
+        <v>2.7164351851851853E-2</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="1"/>
-        <v>0.9607215594995635</v>
+        <f>IF(H23/$I$2&lt;=1.001,H23/$I$2,0.6)</f>
+        <v>0.68286296188536511</v>
       </c>
       <c r="J23" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>0</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
+        <f>IF(J23/$K$2&lt;=1.001,J23/$K$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>2.2662037037037036E-2</v>
+        <v>0</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="3"/>
-        <v>0.9969450101832994</v>
+        <f>IF(L23/$M$2&lt;=1.001,L23/$M$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="N23" s="1">
-        <v>4.6666666666666669E-2</v>
+        <v>4.1226851851851855E-2</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="4"/>
-        <v>1.0002480774001488</v>
+        <f>IF(N23/$O$2&lt;=1.001,N23/$O$2,0.6)</f>
+        <v>0.88365169933019105</v>
       </c>
       <c r="P23" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>4.2858796296296298E-2</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(P23/$Q$2&lt;=1.001,P23/$Q$2,0.6)</f>
+        <v>0.99196356817573006</v>
       </c>
       <c r="R23" s="4">
         <f>AVERAGE(G23,I23,K23,M23,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9629852704650652</v>
+        <v>2.6320651911594055</v>
       </c>
       <c r="S23" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T23" s="4" t="str" cm="1">
         <f t="array" ref="T23">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U23" s="29">
-        <v>4.5999999999999996</v>
+        <v>1</v>
       </c>
       <c r="V23" s="29">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="W23" s="29">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="X23" s="29">
         <v>3.3</v>
       </c>
       <c r="Y23" s="29">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="29">
         <v>4.5</v>
       </c>
       <c r="AA23" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.5548955811395198</v>
+        <v>2.6236195573478214</v>
       </c>
       <c r="AB23" s="1">
-        <v>4.1157407407407406E-2</v>
+        <v>4.0208333333333332E-2</v>
       </c>
       <c r="AC23" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>IF(AB23/$AC$2&lt;=1.01,AB23/$AC$2,0.6)</f>
+        <v>0.9769403824521935</v>
       </c>
       <c r="AD23" s="4"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D24">
-        <v>1112388822</v>
+        <v>1076904274</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3">
-        <v>1.7337962962962961E-2</v>
+        <v>1.7430555555555557E-2</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99402786994027859</v>
+        <f>IF(F24/$G$2&lt;=1.001,F24/$G$2,0.6)</f>
+        <v>0.99933642999336436</v>
       </c>
       <c r="H24" s="3">
-        <v>3.9224537037037037E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98603433226651138</v>
+        <f>IF(H24/$I$2&lt;=1.001,H24/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J24" s="3">
-        <v>3.5879629629629629E-2</v>
+        <v>3.5451388888888886E-2</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="2"/>
-        <v>0.99806825499034135</v>
+        <f>IF(J24/$K$2&lt;=1.001,J24/$K$2,0.6)</f>
+        <v>0.98615582743077912</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>1.4166666666666666E-2</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(L24/$M$2&lt;=1.001,L24/$M$2,0.6)</f>
+        <v>0.62321792260692466</v>
       </c>
       <c r="N24" s="1">
-        <v>3.2685185185185185E-2</v>
+        <v>4.6666666666666669E-2</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="4"/>
-        <v>0.70057057802034228</v>
+        <f>IF(N24/$O$2&lt;=1.001,N24/$O$2,0.6)</f>
+        <v>1.0002480774001488</v>
       </c>
       <c r="P24" s="1">
-        <v>3.3252314814814818E-2</v>
+        <v>4.3159722222222224E-2</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" si="5"/>
-        <v>0.76962228770425933</v>
+        <f>IF(P24/$Q$2&lt;=1.001,P24/$Q$2,0.6)</f>
+        <v>0.99892847575676402</v>
       </c>
       <c r="R24" s="4">
         <f>AVERAGE(G24,I24,K24,M24,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.7069361024347773</v>
+        <v>4.6739663228511033</v>
       </c>
       <c r="S24" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T24" s="4" t="str" cm="1">
         <f t="array" ref="T24">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U24" s="29">
         <v>4.5</v>
       </c>
       <c r="V24" s="29">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="W24" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X24" s="29">
         <v>3.3</v>
       </c>
       <c r="Y24" s="29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="29">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="AA24" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.1360808307304335</v>
+        <v>3.7541898968553307</v>
       </c>
       <c r="AB24" s="1">
-        <v>3.2615740740740744E-2</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="8">
-        <f t="shared" si="6"/>
-        <v>0.7924634420697414</v>
+        <f>IF(AB24/$AC$2&lt;=1.01,AB24/$AC$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AD24" s="4"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25">
-        <v>1061688602</v>
+        <v>1107839506</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F25" s="3">
-        <v>1.7303240740740741E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99203715992037156</v>
+        <f>IF(F25/$G$2&lt;=1.001,F25/$G$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="H25" s="3">
-        <v>3.9247685185185184E-2</v>
+        <v>3.9270833333333331E-2</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98661623508874008</v>
+        <f>IF(H25/$I$2&lt;=1.001,H25/$I$2,0.6)</f>
+        <v>0.98719813791096878</v>
       </c>
       <c r="J25" s="3">
-        <v>3.5891203703703703E-2</v>
+        <v>3.591435185185185E-2</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="2"/>
-        <v>0.99839021249195115</v>
+        <f>IF(J25/$K$2&lt;=1.001,J25/$K$2,0.6)</f>
+        <v>0.99903412749517073</v>
       </c>
       <c r="L25" s="3">
-        <v>2.162037037037037E-2</v>
+        <v>1.9351851851851853E-2</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="3"/>
-        <v>0.95112016293279023</v>
+        <f>IF(L25/$M$2&lt;=1.001,L25/$M$2,0.6)</f>
+        <v>0.85132382892057035</v>
       </c>
       <c r="N25" s="1">
-        <v>4.6122685185185183E-2</v>
+        <v>4.2256944444444444E-2</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="4"/>
-        <v>0.98858843959315301</v>
+        <f>IF(N25/$O$2&lt;=1.001,N25/$O$2,0.6)</f>
+        <v>0.9057305879434383</v>
       </c>
       <c r="P25" s="1">
-        <v>0</v>
+        <v>3.9687500000000001E-2</v>
       </c>
       <c r="Q25" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(P25/$Q$2&lt;=1.001,P25/$Q$2,0.6)</f>
+        <v>0.91856415751406373</v>
       </c>
       <c r="R25" s="4">
         <f>AVERAGE(G25,I25,K25,M25,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.0972935083558388</v>
+        <v>4.71820903315351</v>
       </c>
       <c r="S25" s="13">
-        <v>8</v>
-      </c>
-      <c r="T25" s="4" t="e" cm="1">
+        <v>6</v>
+      </c>
+      <c r="T25" s="4" t="str" cm="1">
         <f t="array" ref="T25">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>#N/A</v>
+        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U25" s="29">
-        <v>4.9000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="V25" s="29">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="W25" s="29">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X25" s="29">
         <v>3.3</v>
       </c>
       <c r="Y25" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z25" s="29">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AA25" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>1.6911880525067515</v>
+        <v>4.341462709946053</v>
       </c>
       <c r="AB25" s="1">
         <v>0</v>
       </c>
       <c r="AC25" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(AB25/$AC$2&lt;=1.01,AB25/$AC$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="AD25" s="4"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>109</v>
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>113</v>
       </c>
       <c r="D26">
-        <v>1143992171</v>
+        <v>1112389849</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F26" s="3">
-        <v>3.4791666666666665E-2</v>
+        <v>4.3043981481481482E-2</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(F26/$G$2&lt;=1.001,F26/$G$2,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="H26" s="3">
-        <v>7.1990740740740739E-3</v>
+        <v>3.923611111111111E-2</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="1"/>
-        <v>0.1809717777131219</v>
+        <f>IF(H26/$I$2&lt;=1.001,H26/$I$2,0.6)</f>
+        <v>0.98632528367762573</v>
       </c>
       <c r="J26" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>3.591435185185185E-2</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
+        <f>IF(J26/$K$2&lt;=1.001,J26/$K$2,0.6)</f>
+        <v>0.99903412749517073</v>
       </c>
       <c r="L26" s="3">
-        <v>1.9398148148148147E-2</v>
+        <v>2.2731481481481481E-2</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" si="3"/>
-        <v>0.85336048879837068</v>
+        <f>IF(L26/$M$2&lt;=1.001,L26/$M$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="N26" s="1">
-        <v>4.5810185185185183E-2</v>
+        <v>4.659722222222222E-2</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="4"/>
-        <v>0.98189034978913414</v>
+        <f>IF(N26/$O$2&lt;=1.001,N26/$O$2,0.6)</f>
+        <v>0.99875961299925564</v>
       </c>
       <c r="P26" s="1">
-        <v>0</v>
+        <v>4.189814814814815E-2</v>
       </c>
       <c r="Q26" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(P26/$Q$2&lt;=1.001,P26/$Q$2,0.6)</f>
+        <v>0.96972944012858298</v>
       </c>
       <c r="R26" s="4">
         <f>AVERAGE(G26,I26,K26,M26,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.0137871448351969</v>
-      </c>
-      <c r="S26" s="13"/>
+        <v>4.6282070535838633</v>
+      </c>
+      <c r="S26" s="13">
+        <v>6</v>
+      </c>
       <c r="T26" s="4" t="str" cm="1">
         <f t="array" ref="T26">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
+        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U26" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V26" s="29">
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W26" s="29">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="X26" s="29">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Y26" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z26" s="29">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AA26" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0.90413614345055904</v>
+        <v>4.3564621160751589</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>3.7615740740740741E-2</v>
       </c>
       <c r="AC26" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(AB26/$AC$2&lt;=1.01,AB26/$AC$2,0.6)</f>
+        <v>0.91394825646794153</v>
       </c>
       <c r="AD26" s="4"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D27">
-        <v>1112041894</v>
+        <v>1058932076</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F27" s="3">
-        <v>3.7592592592592594E-2</v>
+        <v>3.6388888888888887E-2</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(F27/$G$2&lt;=1.001,F27/$G$2,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="H27" s="3">
-        <v>2.7164351851851853E-2</v>
+        <v>3.9282407407407405E-2</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" si="1"/>
-        <v>0.68286296188536511</v>
+        <f>IF(H27/$I$2&lt;=1.001,H27/$I$2,0.6)</f>
+        <v>0.98748908932208301</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(J27/$K$2&lt;=1.001,J27/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>2.2395833333333334E-2</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(L27/$M$2&lt;=1.001,L27/$M$2,0.6)</f>
+        <v>0.98523421588594706</v>
       </c>
       <c r="N27" s="1">
-        <v>4.1226851851851855E-2</v>
+        <v>4.6608796296296294E-2</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" si="4"/>
-        <v>0.88365169933019105</v>
+        <f>IF(N27/$O$2&lt;=1.001,N27/$O$2,0.6)</f>
+        <v>0.99900769039940451</v>
       </c>
       <c r="P27" s="1">
-        <v>4.2858796296296298E-2</v>
+        <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q27" s="8">
-        <f t="shared" si="5"/>
-        <v>0.99196356817573006</v>
+        <f>IF(P27/$Q$2&lt;=1.001,P27/$Q$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="R27" s="4">
         <f>AVERAGE(G27,I27,K27,M27,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.6320651911594055</v>
+        <v>4.6433774609242038</v>
       </c>
       <c r="S27" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T27" s="4" t="str" cm="1">
         <f t="array" ref="T27">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U27" s="29">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="V27" s="29">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="W27" s="29">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="X27" s="29">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="Y27" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z27" s="29">
         <v>4.5</v>
       </c>
       <c r="AA27" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>2.6236195573478214</v>
+        <v>4.263013238277261</v>
       </c>
       <c r="AB27" s="1">
-        <v>4.0208333333333332E-2</v>
+        <v>3.6574074074074071E-2</v>
       </c>
       <c r="AC27" s="8">
-        <f t="shared" si="6"/>
-        <v>0.9769403824521935</v>
+        <f>IF(AB27/$AC$2&lt;=1.01,AB27/$AC$2,0.6)</f>
+        <v>0.88863892013498313</v>
       </c>
       <c r="AD27" s="4"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D28">
-        <v>1076904274</v>
+        <v>1002886235</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="F28" s="3">
-        <v>1.7430555555555557E-2</v>
+        <v>1.7395833333333333E-2</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99933642999336436</v>
+        <f>IF(F28/$G$2&lt;=1.001,F28/$G$2,0.6)</f>
+        <v>0.99734571997345711</v>
       </c>
       <c r="H28" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>3.8217592592592595E-2</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
+        <f>IF(H28/$I$2&lt;=1.001,H28/$I$2,0.6)</f>
+        <v>0.9607215594995635</v>
       </c>
       <c r="J28" s="3">
-        <v>3.5451388888888886E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K28" s="8">
-        <f t="shared" si="2"/>
-        <v>0.98615582743077912</v>
+        <f>IF(J28/$K$2&lt;=1.001,J28/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
       </c>
       <c r="L28" s="3">
-        <v>1.4166666666666666E-2</v>
+        <v>2.2662037037037036E-2</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" si="3"/>
-        <v>0.62321792260692466</v>
+        <f>IF(L28/$M$2&lt;=1.001,L28/$M$2,0.6)</f>
+        <v>0.9969450101832994</v>
       </c>
       <c r="N28" s="1">
         <v>4.6666666666666669E-2</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(N28/$O$2&lt;=1.001,N28/$O$2,0.6)</f>
         <v>1.0002480774001488</v>
       </c>
       <c r="P28" s="1">
-        <v>4.3159722222222224E-2</v>
+        <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q28" s="8">
-        <f t="shared" si="5"/>
-        <v>0.99892847575676402</v>
+        <f>IF(P28/$Q$2&lt;=1.001,P28/$Q$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="R28" s="4">
         <f>AVERAGE(G28,I28,K28,M28,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6739663228511033</v>
+        <v>4.9629852704650652</v>
       </c>
       <c r="S28" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T28" s="4" t="str" cm="1">
         <f t="array" ref="T28">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U28" s="29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V28" s="29">
         <v>4.5</v>
       </c>
-      <c r="V28" s="29">
-        <v>4</v>
-      </c>
       <c r="W28" s="29">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="X28" s="29">
         <v>3.3</v>
       </c>
       <c r="Y28" s="29">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="Z28" s="29">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AA28" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.7541898968553307</v>
+        <v>4.5548955811395198</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>4.1157407407407406E-2</v>
       </c>
       <c r="AC28" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(AB28/$AC$2&lt;=1.01,AB28/$AC$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="AD28" s="4"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D29">
-        <v>1006343564</v>
+        <v>1113362057</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F29" s="3">
-        <v>1.7337962962962961E-2</v>
+        <v>1.7326388888888888E-2</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99402786994027859</v>
+        <f>IF(F29/$G$2&lt;=1.001,F29/$G$2,0.6)</f>
+        <v>0.99336429993364284</v>
       </c>
       <c r="H29" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>3.9212962962962963E-2</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
+        <f>IF(H29/$I$2&lt;=1.001,H29/$I$2,0.6)</f>
+        <v>0.98574338085539703</v>
       </c>
       <c r="J29" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(J29/$K$2&lt;=1.001,J29/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
-      <c r="L29" s="9">
-        <v>2.2731481481481481E-2</v>
-      </c>
-      <c r="M29" s="10">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="L29" s="3">
+        <v>2.2268518518518517E-2</v>
+      </c>
+      <c r="M29" s="8">
+        <f>IF(L29/$M$2&lt;=1.001,L29/$M$2,0.6)</f>
+        <v>0.97963340122199594</v>
       </c>
       <c r="N29" s="1">
-        <v>2.9768518518518517E-2</v>
+        <v>4.6527777777777779E-2</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="4"/>
-        <v>0.63805507318283294</v>
+        <f>IF(N29/$O$2&lt;=1.001,N29/$O$2,0.6)</f>
+        <v>0.99727114859836263</v>
       </c>
       <c r="P29" s="1">
-        <v>4.1909722222222223E-2</v>
+        <v>3.2187500000000001E-2</v>
       </c>
       <c r="Q29" s="8">
-        <f t="shared" si="5"/>
-        <v>0.96999732118939197</v>
+        <f>IF(P29/$Q$2&lt;=1.001,P29/$Q$2,0.6)</f>
+        <v>0.7449772301098313</v>
       </c>
       <c r="R29" s="4">
         <f>AVERAGE(G29,I29,K29,M29,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6693958967062139</v>
+        <v>4.7510928485173665</v>
       </c>
       <c r="S29" s="13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T29" s="4" t="str" cm="1">
         <f t="array" ref="T29">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U29" s="29">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V29" s="29">
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W29" s="29">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="X29" s="29">
         <v>3.3</v>
       </c>
       <c r="Y29" s="29">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="Z29" s="29">
         <v>4.5</v>
       </c>
       <c r="AA29" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.3968187690118636</v>
+        <v>4.4773278545552095</v>
       </c>
       <c r="AB29" s="1">
-        <v>3.8124999999999999E-2</v>
+        <v>3.8055555555555558E-2</v>
       </c>
       <c r="AC29" s="8">
-        <f t="shared" si="6"/>
-        <v>0.9263217097862767</v>
+        <f>IF(AB29/$AC$2&lt;=1.01,AB29/$AC$2,0.6)</f>
+        <v>0.92463442069741286</v>
       </c>
       <c r="AD29" s="4"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D30">
-        <v>1107839506</v>
+        <v>1061688602</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F30" s="3">
-        <v>1.744212962962963E-2</v>
+        <v>1.7303240740740741E-2</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(F30/$G$2&lt;=1.001,F30/$G$2,0.6)</f>
+        <v>0.99203715992037156</v>
       </c>
       <c r="H30" s="3">
-        <v>3.9270833333333331E-2</v>
+        <v>3.9247685185185184E-2</v>
       </c>
       <c r="I30" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98719813791096878</v>
+        <f>IF(H30/$I$2&lt;=1.001,H30/$I$2,0.6)</f>
+        <v>0.98661623508874008</v>
       </c>
       <c r="J30" s="3">
-        <v>3.591435185185185E-2</v>
+        <v>3.5891203703703703E-2</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" si="2"/>
-        <v>0.99903412749517073</v>
+        <f>IF(J30/$K$2&lt;=1.001,J30/$K$2,0.6)</f>
+        <v>0.99839021249195115</v>
       </c>
       <c r="L30" s="3">
-        <v>1.9351851851851853E-2</v>
+        <v>2.162037037037037E-2</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="3"/>
-        <v>0.85132382892057035</v>
+        <f>IF(L30/$M$2&lt;=1.001,L30/$M$2,0.6)</f>
+        <v>0.95112016293279023</v>
       </c>
       <c r="N30" s="1">
-        <v>4.2256944444444444E-2</v>
+        <v>4.6122685185185183E-2</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="4"/>
-        <v>0.9057305879434383</v>
+        <f>IF(N30/$O$2&lt;=1.001,N30/$O$2,0.6)</f>
+        <v>0.98858843959315301</v>
       </c>
       <c r="P30" s="1">
-        <v>3.9687500000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="8">
-        <f t="shared" si="5"/>
-        <v>0.91856415751406373</v>
+        <f>IF(P30/$Q$2&lt;=1.001,P30/$Q$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="R30" s="4">
         <f>AVERAGE(G30,I30,K30,M30,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.71820903315351</v>
+        <v>4.0972935083558388</v>
       </c>
       <c r="S30" s="13">
-        <v>6</v>
-      </c>
-      <c r="T30" s="4" t="str" cm="1">
+        <v>8</v>
+      </c>
+      <c r="T30" s="4" t="e" cm="1">
         <f t="array" ref="T30">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
+        <v>#N/A</v>
       </c>
       <c r="U30" s="29">
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V30" s="29">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="W30" s="29">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="X30" s="29">
         <v>3.3</v>
       </c>
       <c r="Y30" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="29">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.341462709946053</v>
+        <v>1.6911880525067515</v>
       </c>
       <c r="AB30" s="1">
         <v>0</v>
       </c>
       <c r="AC30" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(AB30/$AC$2&lt;=1.01,AB30/$AC$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="AD30" s="4"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D31">
-        <v>1112389849</v>
+        <v>1062276579</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F31" s="3">
-        <v>4.3043981481481482E-2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F31/$G$2&lt;=1.001,F31/$G$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="H31" s="3">
-        <v>3.923611111111111E-2</v>
+        <v>3.9016203703703706E-2</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98632528367762573</v>
+        <f>IF(H31/$I$2&lt;=1.001,H31/$I$2,0.6)</f>
+        <v>0.98079720686645322</v>
       </c>
       <c r="J31" s="3">
-        <v>3.591435185185185E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="2"/>
-        <v>0.99903412749517073</v>
+        <f>IF(J31/$K$2&lt;=1.001,J31/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
       </c>
       <c r="L31" s="3">
-        <v>2.2731481481481481E-2</v>
+        <v>2.2650462962962963E-2</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>IF(L31/$M$2&lt;=1.001,L31/$M$2,0.6)</f>
+        <v>0.99643584521384931</v>
       </c>
       <c r="N31" s="1">
-        <v>4.659722222222222E-2</v>
+        <v>0</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="4"/>
-        <v>0.99875961299925564</v>
+        <f>IF(N31/$O$2&lt;=1.001,N31/$O$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>4.189814814814815E-2</v>
+        <v>7.8240740740740736E-3</v>
       </c>
       <c r="Q31" s="8">
-        <f t="shared" si="5"/>
-        <v>0.96972944012858298</v>
+        <f>IF(P31/$Q$2&lt;=1.001,P31/$Q$2,0.6)</f>
+        <v>0.18108759710688452</v>
       </c>
       <c r="R31" s="4">
         <f>AVERAGE(G31,I31,K31,M31,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6282070535838633</v>
+        <v>2.6322021722406648</v>
       </c>
       <c r="S31" s="13">
-        <v>6</v>
-      </c>
-      <c r="T31" s="4" t="str" cm="1">
+        <v>8</v>
+      </c>
+      <c r="T31" s="4" t="e" cm="1">
         <f t="array" ref="T31">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
+        <v>#N/A</v>
       </c>
       <c r="U31" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V31" s="29">
-        <v>4.5999999999999996</v>
+        <v>2.7</v>
       </c>
       <c r="W31" s="29">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="X31" s="29">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="29">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.3564621160751589</v>
+        <v>1.3916606516721994</v>
       </c>
       <c r="AB31" s="1">
-        <v>3.7615740740740741E-2</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="8">
-        <f t="shared" si="6"/>
-        <v>0.91394825646794153</v>
+        <f>IF(AB31/$AC$2&lt;=1.01,AB31/$AC$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AD31" s="4"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D32">
-        <v>1234198199</v>
+        <v>1193276119</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="F32" s="3">
-        <v>1.7337962962962961E-2</v>
+        <v>1.7349537037037038E-2</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99402786994027859</v>
+        <f>IF(F32/$G$2&lt;=1.001,F32/$G$2,0.6)</f>
+        <v>0.99469143994691445</v>
       </c>
       <c r="H32" s="3">
-        <v>3.8796296296296294E-2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="1"/>
-        <v>0.9752691300552806</v>
+        <f>IF(H32/$I$2&lt;=1.001,H32/$I$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>2.2928240740740742E-2</v>
+        <v>0</v>
       </c>
       <c r="K32" s="8">
-        <f t="shared" si="2"/>
-        <v>0.63779781068898911</v>
+        <f>IF(J32/$K$2&lt;=1.001,J32/$K$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>7.1296296296296299E-3</v>
+        <v>0</v>
       </c>
       <c r="M32" s="8">
-        <f t="shared" si="3"/>
-        <v>0.31364562118126277</v>
+        <f>IF(L32/$M$2&lt;=1.001,L32/$M$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="N32" s="1">
-        <v>0</v>
+        <v>1.5972222222222223E-3</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(N32/$O$2&lt;=1.001,N32/$O$2,0.6)</f>
+        <v>3.4234681220540811E-2</v>
       </c>
       <c r="P32" s="1">
         <v>0</v>
       </c>
       <c r="Q32" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(P32/$Q$2&lt;=1.001,P32/$Q$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="R32" s="4">
         <f>AVERAGE(G32,I32,K32,M32,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.433950359888176</v>
+        <v>0.85743843430621258</v>
       </c>
       <c r="S32" s="13"/>
       <c r="T32" s="4" t="str" cm="1">
@@ -4955,297 +4974,291 @@
       </c>
       <c r="AA32" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0.73018510796645275</v>
+        <v>0.25723153029186374</v>
       </c>
       <c r="AB32" s="1">
-        <v>3.8101851851851852E-2</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="8">
-        <f t="shared" si="6"/>
-        <v>0.92575928008998876</v>
+        <f>IF(AB32/$AC$2&lt;=1.01,AB32/$AC$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AD32" s="4"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>115</v>
+        <v>7</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="D33">
-        <v>73265790</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>61</v>
+        <v>1004189893</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
       </c>
       <c r="F33" s="3">
-        <v>4.3611111111111114E-2</v>
+        <v>0</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F33/$G$2&lt;=1.001,F33/$G$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>3.9641203703703706E-2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="1"/>
-        <v>0.99650858306662782</v>
+        <f>IF(H33/$I$2&lt;=1.001,H33/$I$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>3.5879629629629629E-2</v>
+        <v>0</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="2"/>
-        <v>0.99806825499034135</v>
+        <f>IF(J33/$K$2&lt;=1.001,J33/$K$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>2.1238425925925924E-2</v>
+        <v>0</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" si="3"/>
-        <v>0.93431771894093685</v>
+        <f>IF(L33/$M$2&lt;=1.001,L33/$M$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="N33" s="1">
-        <v>4.659722222222222E-2</v>
+        <v>0</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="4"/>
-        <v>0.99875961299925564</v>
+        <f>IF(N33/$O$2&lt;=1.001,N33/$O$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="P33" s="1">
-        <v>4.1886574074074076E-2</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="8">
-        <f t="shared" si="5"/>
-        <v>0.96946155906777398</v>
+        <f>IF(P33/$Q$2&lt;=1.001,P33/$Q$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="R33" s="4">
         <f>AVERAGE(G33,I33,K33,M33,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.5809297742207793</v>
-      </c>
-      <c r="S33" s="13">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S33" s="13"/>
       <c r="T33" s="4" t="str" cm="1">
         <f t="array" ref="T33">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+        <v>--</v>
       </c>
       <c r="U33" s="29">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="V33" s="29">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="W33" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="X33" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.5802789322662338</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="1">
-        <v>3.8425925925925926E-2</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="8">
-        <f t="shared" si="6"/>
-        <v>0.93363329583802024</v>
+        <f>IF(AB33/$AC$2&lt;=1.01,AB33/$AC$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AD33" s="4"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>116</v>
+        <v>18</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="D34">
-        <v>1113362057</v>
+        <v>1094883894</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="F34" s="3">
-        <v>1.7326388888888888E-2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99336429993364284</v>
+        <f>IF(F34/$G$2&lt;=1.001,F34/$G$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="H34" s="3">
-        <v>3.9212962962962963E-2</v>
+        <v>3.7743055555555557E-2</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98574338085539703</v>
+        <f>IF(H34/$I$2&lt;=1.001,H34/$I$2,0.6)</f>
+        <v>0.94879255164387544</v>
       </c>
       <c r="J34" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>2.8715277777777777E-2</v>
       </c>
       <c r="K34" s="8">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
+        <f>IF(J34/$K$2&lt;=1.001,J34/$K$2,0.6)</f>
+        <v>0.79877656149388288</v>
       </c>
       <c r="L34" s="3">
-        <v>2.2268518518518517E-2</v>
+        <v>1.9212962962962963E-2</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" si="3"/>
-        <v>0.97963340122199594</v>
+        <f>IF(L34/$M$2&lt;=1.001,L34/$M$2,0.6)</f>
+        <v>0.84521384928716903</v>
       </c>
       <c r="N34" s="1">
-        <v>4.6527777777777779E-2</v>
+        <v>0</v>
       </c>
       <c r="O34" s="8">
-        <f t="shared" si="4"/>
-        <v>0.99727114859836263</v>
+        <f>IF(N34/$O$2&lt;=1.001,N34/$O$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="P34" s="1">
-        <v>3.2187500000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="8">
-        <f t="shared" si="5"/>
-        <v>0.7449772301098313</v>
+        <f>IF(P34/$Q$2&lt;=1.001,P34/$Q$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="R34" s="4">
         <f>AVERAGE(G34,I34,K34,M34,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.7510928485173665</v>
-      </c>
-      <c r="S34" s="13">
-        <v>7</v>
-      </c>
+        <v>2.1606524686874393</v>
+      </c>
+      <c r="S34" s="13"/>
       <c r="T34" s="4" t="str" cm="1">
         <f t="array" ref="T34">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+        <v>--</v>
       </c>
       <c r="U34" s="29">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="V34" s="29">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="W34" s="29">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="X34" s="29">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="29">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.4773278545552095</v>
+        <v>0.64819574060623175</v>
       </c>
       <c r="AB34" s="1">
-        <v>3.8055555555555558E-2</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="8">
-        <f t="shared" si="6"/>
-        <v>0.92463442069741286</v>
+        <f>IF(AB34/$AC$2&lt;=1.01,AB34/$AC$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AD34" s="4"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" t="s">
-        <v>98</v>
+        <v>23</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="D35">
-        <v>1036925847</v>
+        <v>1143992171</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>3.4791666666666665E-2</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(F35/$G$2&lt;=1.001,F35/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H35" s="3">
-        <v>3.9178240740740743E-2</v>
+        <v>7.1990740740740739E-3</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="1"/>
-        <v>0.9848705266220541</v>
+        <f>IF(H35/$I$2&lt;=1.001,H35/$I$2,0.6)</f>
+        <v>0.1809717777131219</v>
       </c>
       <c r="J35" s="3">
-        <v>3.5844907407407409E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="2"/>
-        <v>0.99710238248551208</v>
+        <f>IF(J35/$K$2&lt;=1.001,J35/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>1.9398148148148147E-2</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(L35/$M$2&lt;=1.001,L35/$M$2,0.6)</f>
+        <v>0.85336048879837068</v>
       </c>
       <c r="N35" s="1">
-        <v>3.7858796296296293E-2</v>
+        <v>4.5810185185185183E-2</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" si="4"/>
-        <v>0.81146117588687661</v>
+        <f>IF(N35/$O$2&lt;=1.001,N35/$O$2,0.6)</f>
+        <v>0.98189034978913414</v>
       </c>
       <c r="P35" s="1">
-        <v>3.1886574074074074E-2</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="8">
-        <f t="shared" si="5"/>
-        <v>0.73801232252879723</v>
+        <f>IF(P35/$Q$2&lt;=1.001,P35/$Q$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="R35" s="4">
         <f>AVERAGE(G35,I35,K35,M35,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.9428720062693667</v>
-      </c>
-      <c r="S35" s="13">
-        <v>1</v>
-      </c>
+        <v>3.0137871448351969</v>
+      </c>
+      <c r="S35" s="13"/>
       <c r="T35" s="4" t="str" cm="1">
         <f t="array" ref="T35">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
+        <v>--</v>
       </c>
       <c r="U35" s="29">
         <v>0</v>
       </c>
       <c r="V35" s="29">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="W35" s="29">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="X35" s="29">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="29">
         <v>0</v>
@@ -5255,94 +5268,92 @@
       </c>
       <c r="AA35" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>1.5548616018808099</v>
+        <v>0.90413614345055904</v>
       </c>
       <c r="AB35" s="1">
-        <v>4.1157407407407406E-2</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>IF(AB35/$AC$2&lt;=1.01,AB35/$AC$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AD35" s="4"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" t="s">
-        <v>119</v>
+        <v>29</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="D36">
-        <v>1062276579</v>
+        <v>1234198199</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F36" s="3">
-        <v>0</v>
+        <v>1.7337962962962961E-2</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(F36/$G$2&lt;=1.001,F36/$G$2,0.6)</f>
+        <v>0.99402786994027859</v>
       </c>
       <c r="H36" s="3">
-        <v>3.9016203703703706E-2</v>
+        <v>3.8796296296296294E-2</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98079720686645322</v>
+        <f>IF(H36/$I$2&lt;=1.001,H36/$I$2,0.6)</f>
+        <v>0.9752691300552806</v>
       </c>
       <c r="J36" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>2.2928240740740742E-2</v>
       </c>
       <c r="K36" s="8">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
+        <f>IF(J36/$K$2&lt;=1.001,J36/$K$2,0.6)</f>
+        <v>0.63779781068898911</v>
       </c>
       <c r="L36" s="3">
-        <v>2.2650462962962963E-2</v>
+        <v>7.1296296296296299E-3</v>
       </c>
       <c r="M36" s="8">
-        <f t="shared" si="3"/>
-        <v>0.99643584521384931</v>
+        <f>IF(L36/$M$2&lt;=1.001,L36/$M$2,0.6)</f>
+        <v>0.31364562118126277</v>
       </c>
       <c r="N36" s="1">
         <v>0</v>
       </c>
       <c r="O36" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(N36/$O$2&lt;=1.001,N36/$O$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>7.8240740740740736E-3</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="8">
-        <f t="shared" si="5"/>
-        <v>0.18108759710688452</v>
+        <f>IF(P36/$Q$2&lt;=1.001,P36/$Q$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="R36" s="4">
         <f>AVERAGE(G36,I36,K36,M36,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.6322021722406648</v>
-      </c>
-      <c r="S36" s="13">
-        <v>8</v>
-      </c>
-      <c r="T36" s="4" t="e" cm="1">
+        <v>2.433950359888176</v>
+      </c>
+      <c r="S36" s="13"/>
+      <c r="T36" s="4" t="str" cm="1">
         <f t="array" ref="T36">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>#N/A</v>
+        <v>--</v>
       </c>
       <c r="U36" s="29">
         <v>0</v>
       </c>
       <c r="V36" s="29">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="W36" s="29">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="X36" s="29">
         <v>0</v>
@@ -5355,14 +5366,14 @@
       </c>
       <c r="AA36" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>1.3916606516721994</v>
+        <v>0.73018510796645275</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>3.8101851851851852E-2</v>
       </c>
       <c r="AC36" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(AB36/$AC$2&lt;=1.01,AB36/$AC$2,0.6)</f>
+        <v>0.92575928008998876</v>
       </c>
       <c r="AD36" s="4"/>
     </row>
@@ -5371,11 +5382,14 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z39" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E33" r:id="rId1" xr:uid="{6ABD49C4-C1FA-45A2-AD96-9D7E301F893E}"/>
+    <hyperlink ref="E14" r:id="rId1" xr:uid="{6ABD49C4-C1FA-45A2-AD96-9D7E301F893E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5393,7 +5407,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="75.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -5446,7 +5460,7 @@
       <selection activeCell="B2" sqref="B2:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -5931,7 +5945,7 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>

--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303584F4-8570-463E-8F2E-9E149BEC6FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1B5EE6-1CE4-4BFD-BBBD-3A18B292B808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-2" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="202">
   <si>
     <t>Num</t>
   </si>
@@ -269,9 +269,6 @@
     <t>ANA MARIA JIMENEZ CARDONA</t>
   </si>
   <si>
-    <t>ANDRES FELIPE CALVO ARCE</t>
-  </si>
-  <si>
     <t>ESTEFANIA GUZMAN CASTIBLANCO</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
     <t>LAURA CAMILA VARGAS DELGADO</t>
   </si>
   <si>
-    <t>MARIA GRACIELA RUIZ LEDESMA</t>
-  </si>
-  <si>
     <t>MIGUEL ANDRES DIAGO VALDERRAMA</t>
   </si>
   <si>
@@ -308,9 +302,6 @@
     <t>Oscar Ivan Campo Salazar</t>
   </si>
   <si>
-    <t>SANTIAGO GUERRA CALVACHI</t>
-  </si>
-  <si>
     <t>VALENTINA RODRIGUEZ VARGAS</t>
   </si>
   <si>
@@ -431,9 +422,6 @@
     <t>ROSA CATHERINE ROJAS ROJAS</t>
   </si>
   <si>
-    <t>HARRISON GARCIA GARCIA</t>
-  </si>
-  <si>
     <t>JAZMIN ALEJANDRA ORTIZ RAMIREZ</t>
   </si>
   <si>
@@ -639,9 +627,6 @@
   </si>
   <si>
     <t>T.Conexión7</t>
-  </si>
-  <si>
-    <t>JULIANA VIVAS RODRIGUEZ</t>
   </si>
   <si>
     <t xml:space="preserve">Conceptos fundamentales (Semana 1) </t>
@@ -672,6 +657,21 @@
   </si>
   <si>
     <t>Asistencia: 30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana 7: </t>
+  </si>
+  <si>
+    <t>%Conexión8</t>
+  </si>
+  <si>
+    <t>T.Conexión8</t>
+  </si>
+  <si>
+    <t>Maria Ruiz</t>
+  </si>
+  <si>
+    <t>Oscar Campo</t>
   </si>
 </sst>
 </file>
@@ -1322,51 +1322,59 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="30">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1490,69 +1498,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:AD36" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A3:AD36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AD36">
-    <sortCondition ref="S3:S36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:AF36" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A3:AF36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AF36">
+    <sortCondition ref="C3:C36"/>
   </sortState>
-  <tableColumns count="30">
+  <tableColumns count="32">
     <tableColumn id="1" xr3:uid="{2951ACD3-7E7C-4B15-8969-BBEC77220F09}" name="Num"/>
     <tableColumn id="2" xr3:uid="{41C291F5-DA77-4B55-A49C-CDE28AB05F1C}" name="Apellidos"/>
     <tableColumn id="3" xr3:uid="{4EF9A0E0-8B64-4D77-BF58-1466EBFC70F8}" name="Nombres"/>
-    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="27"/>
     <tableColumn id="5" xr3:uid="{E5E637F3-98DE-4C48-8975-E4FF30179C84}" name="email"/>
-    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="23">
+    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="25">
       <calculatedColumnFormula>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión2" dataDxfId="21">
+    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión2" dataDxfId="23">
       <calculatedColumnFormula>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión3" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión3" dataDxfId="19">
+    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión3" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión3" dataDxfId="21">
       <calculatedColumnFormula>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión4" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión4" dataDxfId="17">
+    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión4" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión4" dataDxfId="19">
       <calculatedColumnFormula>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión5" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión5" dataDxfId="15">
+    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión5" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión5" dataDxfId="17">
       <calculatedColumnFormula>IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión6" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión6" dataDxfId="13">
+    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión6" dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión6" dataDxfId="15">
       <calculatedColumnFormula>IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{5430F0E6-F861-44B2-B1CA-6E2A24842801}" name="Asistencia" dataDxfId="12">
+    <tableColumn id="21" xr3:uid="{5430F0E6-F861-44B2-B1CA-6E2A24842801}" name="Asistencia" dataDxfId="14">
       <calculatedColumnFormula>AVERAGE(G4,I4,K4,M4,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{5E18873E-0421-4811-A7ED-EFE7A5B09CB1}" name="Grupo" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Gesto Asignado" dataDxfId="10">
+    <tableColumn id="22" xr3:uid="{5E18873E-0421-4811-A7ED-EFE7A5B09CB1}" name="Grupo" dataDxfId="13"/>
+    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Gesto Asignado" dataDxfId="12">
       <calculatedColumnFormula array="1">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{9680D2F4-FF61-42C8-B8B8-A6D565F1061F}" name="Conceptos fundamentales (Semana 1) " dataDxfId="9"/>
-    <tableColumn id="29" xr3:uid="{2C8549F9-6C7C-4C18-8BD8-913F1238E3A1}" name="Operaciones sobre piezas (Semana 2) " dataDxfId="8"/>
-    <tableColumn id="28" xr3:uid="{01B7F4FF-718E-4142-B28F-3C5C6E213A9D}" name="Operaciones básicas para Modelado de Superficies _x000a_(Semana 3) " dataDxfId="7"/>
-    <tableColumn id="27" xr3:uid="{FB3D7617-43A2-4406-8A1B-342CC431D360}" name="Modelado avanzado y reparación de Superficies _x000a_(Semana 4) " dataDxfId="6"/>
-    <tableColumn id="26" xr3:uid="{15CC947B-1D11-40C4-BDF3-E97BFC12F776}" name="Modelado a partir de datos de scanner _x000a_(Semana 5) " dataDxfId="5"/>
-    <tableColumn id="25" xr3:uid="{7ECFE038-AA59-4517-90E9-2B3566EA5DBF}" name="Escaneo de partes anatómicas (Semana 6) " dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{D2AC9EBA-9E21-4D91-B98D-BEC9F52C6380}" name="Nota 1er Corte" dataDxfId="3">
+    <tableColumn id="30" xr3:uid="{9680D2F4-FF61-42C8-B8B8-A6D565F1061F}" name="Conceptos fundamentales (Semana 1) " dataDxfId="11"/>
+    <tableColumn id="29" xr3:uid="{2C8549F9-6C7C-4C18-8BD8-913F1238E3A1}" name="Operaciones sobre piezas (Semana 2) " dataDxfId="10"/>
+    <tableColumn id="28" xr3:uid="{01B7F4FF-718E-4142-B28F-3C5C6E213A9D}" name="Operaciones básicas para Modelado de Superficies _x000a_(Semana 3) " dataDxfId="9"/>
+    <tableColumn id="27" xr3:uid="{FB3D7617-43A2-4406-8A1B-342CC431D360}" name="Modelado avanzado y reparación de Superficies _x000a_(Semana 4) " dataDxfId="8"/>
+    <tableColumn id="26" xr3:uid="{15CC947B-1D11-40C4-BDF3-E97BFC12F776}" name="Modelado a partir de datos de scanner _x000a_(Semana 5) " dataDxfId="7"/>
+    <tableColumn id="25" xr3:uid="{7ECFE038-AA59-4517-90E9-2B3566EA5DBF}" name="Escaneo de partes anatómicas (Semana 6) " dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{D2AC9EBA-9E21-4D91-B98D-BEC9F52C6380}" name="Nota 1er Corte" dataDxfId="5">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{85803527-97A7-4D57-A5D2-AF49B49DFBB6}" name="T.Conexión7" dataDxfId="2"/>
-    <tableColumn id="20" xr3:uid="{3C385566-1188-4AA7-B618-44B1F28F2C3E}" name="%Conexión7" dataDxfId="1">
+    <tableColumn id="23" xr3:uid="{85803527-97A7-4D57-A5D2-AF49B49DFBB6}" name="T.Conexión7" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{3C385566-1188-4AA7-B618-44B1F28F2C3E}" name="%Conexión7" dataDxfId="3">
       <calculatedColumnFormula>IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="DICOM craneal" dataDxfId="0"/>
+    <tableColumn id="32" xr3:uid="{DA39C125-36F8-4764-B8CE-ED2AA2E45580}" name="T.Conexión8" dataDxfId="1"/>
+    <tableColumn id="31" xr3:uid="{16616376-8A06-4C29-A128-6431F97D4DD9}" name="%Conexión8" dataDxfId="0">
+      <calculatedColumnFormula>IF(AD4/$AE$2&lt;=1.01,AD4/$AE$2,0.6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="DICOM craneal" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1868,13 +1880,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD2CE0-6169-477F-B8E1-2987D9E7C726}">
-  <dimension ref="A1:AD39"/>
+  <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AG44" sqref="AG44"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
@@ -1892,44 +1904,44 @@
     <col min="24" max="24" width="29" style="27" customWidth="1"/>
     <col min="25" max="25" width="21.28515625" style="27" customWidth="1"/>
     <col min="26" max="26" width="15.85546875" style="27" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" style="2" customWidth="1"/>
-    <col min="28" max="29" width="16.85546875" style="2" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" customWidth="1"/>
+    <col min="27" max="27" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="16.85546875" style="2" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F1" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G1" s="6">
         <v>45867</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I1" s="6">
         <v>45874</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K1" s="6">
         <v>45881</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M1" s="6">
         <v>45888</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O1" s="6">
         <v>45895</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q1" s="6">
         <v>45902</v>
@@ -1937,48 +1949,54 @@
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="AA1" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="AC1" s="6">
         <v>45902</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE1" s="6">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F2" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G2" s="7">
         <v>1.744212962962963E-2</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I2" s="7">
         <v>3.9780092592592596E-2</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K2" s="7">
         <v>3.5949074074074071E-2</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M2" s="7">
         <v>2.2731481481481481E-2</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O2" s="1">
         <v>4.6655092592592595E-2</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q2" s="1">
         <v>4.3206018518518519E-2</v>
@@ -1986,16 +2004,22 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="AA2" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AC2" s="1">
         <v>4.1157407407407406E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="AD2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>3.7534722222222219E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
@@ -2012,242 +2036,255 @@
         <v>65</v>
       </c>
       <c r="F3" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="M3" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="O3" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="P3" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="Q3" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="R3" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="T3" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="U3" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="X3" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y3" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z3" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA3" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB3" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="AC3" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="T3" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="U3" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="V3" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="W3" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="X3" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y3" s="28" t="s">
+      <c r="AD3" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="Z3" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA3" s="32" t="s">
+      <c r="AE3" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AB3" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC3" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD3" s="32" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AF3" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D4">
-        <v>1005785665</v>
+        <v>1061688602</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>1.7303240740740741E-2</v>
       </c>
       <c r="G4" s="8">
         <f>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
-        <v>0</v>
+        <v>0.99203715992037156</v>
       </c>
       <c r="H4" s="3">
-        <v>3.9085648148148147E-2</v>
+        <v>3.9247685185185184E-2</v>
       </c>
       <c r="I4" s="8">
         <f>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
-        <v>0.9825429153331392</v>
+        <v>0.98661623508874008</v>
       </c>
       <c r="J4" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>3.5891203703703703E-2</v>
       </c>
       <c r="K4" s="8">
         <f>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
+        <v>0.99839021249195115</v>
       </c>
       <c r="L4" s="3">
-        <v>2.3148148148148149E-4</v>
+        <v>2.162037037037037E-2</v>
       </c>
       <c r="M4" s="8">
         <f>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
-        <v>1.0183299389002037E-2</v>
+        <v>0.95112016293279023</v>
       </c>
       <c r="N4" s="1">
-        <v>4.6527777777777779E-2</v>
+        <v>4.6122685185185183E-2</v>
       </c>
       <c r="O4" s="8">
         <f>IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</f>
-        <v>0.99727114859836263</v>
+        <v>0.98858843959315301</v>
       </c>
       <c r="P4" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="8">
         <f>IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4">
         <f>AVERAGE(G4,I4,K4,M4,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.325266100685095</v>
+        <v>4.0972935083558388</v>
       </c>
       <c r="S4" s="13">
-        <v>1</v>
-      </c>
-      <c r="T4" s="4" t="str" cm="1">
+        <v>8</v>
+      </c>
+      <c r="T4" s="4" t="e" cm="1">
         <f t="array" ref="T4">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
+        <v>#N/A</v>
       </c>
       <c r="U4" s="29">
         <v>4.9000000000000004</v>
       </c>
       <c r="V4" s="29">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="W4" s="29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X4" s="29">
         <v>3.3</v>
       </c>
       <c r="Y4" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="29">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>2.7615798302055281</v>
+        <v>1.6911880525067515</v>
       </c>
       <c r="AB4" s="1">
-        <v>4.1157407407407406E-2</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="8">
         <f>IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</f>
-        <v>1</v>
-      </c>
-      <c r="AD4" s="4"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="8">
+        <f t="shared" ref="AE4:AE36" si="0">IF(AD4/$AE$2&lt;=1.01,AD4/$AE$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>1109542109</v>
+        <v>1110286885</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3">
-        <v>1.6481481481481482E-2</v>
+        <v>1.7349537037037038E-2</v>
       </c>
       <c r="G5" s="8">
         <f>IF(F5/$G$2&lt;=1.001,F5/$G$2,0.6)</f>
-        <v>0.94492368944923688</v>
+        <v>0.99469143994691445</v>
       </c>
       <c r="H5" s="3">
-        <v>3.8530092592592595E-2</v>
+        <v>3.9293981481481478E-2</v>
       </c>
       <c r="I5" s="8">
         <f>IF(H5/$I$2&lt;=1.001,H5/$I$2,0.6)</f>
-        <v>0.9685772475996508</v>
+        <v>0.98778004073319736</v>
       </c>
       <c r="J5" s="3">
-        <v>3.5821759259259262E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="K5" s="8">
         <f>IF(J5/$K$2&lt;=1.001,J5/$K$2,0.6)</f>
-        <v>0.9964584674822925</v>
+        <v>0.99935608499678041</v>
       </c>
       <c r="L5" s="3">
-        <v>1.0648148148148149E-3</v>
+        <v>2.2129629629629631E-2</v>
       </c>
       <c r="M5" s="8">
         <f>IF(L5/$M$2&lt;=1.001,L5/$M$2,0.6)</f>
-        <v>4.684317718940937E-2</v>
+        <v>0.97352342158859484</v>
       </c>
       <c r="N5" s="1">
-        <v>4.4270833333333336E-2</v>
+        <v>4.5590277777777778E-2</v>
       </c>
       <c r="O5" s="8">
         <f>IF(N5/$O$2&lt;=1.001,N5/$O$2,0.6)</f>
-        <v>0.94889605556933765</v>
+        <v>0.97717687918630614</v>
       </c>
       <c r="P5" s="1">
-        <v>3.9861111111111111E-2</v>
+        <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q5" s="8">
         <f>IF(P5/$Q$2&lt;=1.001,P5/$Q$2,0.6)</f>
-        <v>0.92258237342619875</v>
+        <v>1</v>
       </c>
       <c r="R5" s="4">
         <f>AVERAGE(G5,I5,K5,M5,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.0235675089301051</v>
+        <v>4.9437732220431609</v>
       </c>
       <c r="S5" s="13">
         <v>1</v>
@@ -2257,197 +2294,211 @@
         <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U5" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V5" s="29">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="W5" s="29">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="X5" s="29">
         <v>1.1000000000000001</v>
       </c>
       <c r="Y5" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="29">
         <v>1.7</v>
       </c>
       <c r="AA5" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.097070252679031</v>
+        <v>2.1691319666129485</v>
       </c>
       <c r="AB5" s="1">
-        <v>3.8101851851851852E-2</v>
+        <v>4.1203703703703701E-2</v>
       </c>
       <c r="AC5" s="8">
         <f>IF(AB5/$AC$2&lt;=1.01,AB5/$AC$2,0.6)</f>
-        <v>0.92575928008998876</v>
-      </c>
-      <c r="AD5" s="4"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1.0011248593925759</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>3.7314814814814815E-2</v>
+      </c>
+      <c r="AE5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.99414122725871112</v>
+      </c>
+      <c r="AF5" s="4"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>1110286885</v>
+        <v>1112388246</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3">
-        <v>1.7349537037037038E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G6" s="8">
         <f>IF(F6/$G$2&lt;=1.001,F6/$G$2,0.6)</f>
-        <v>0.99469143994691445</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
-        <v>3.9293981481481478E-2</v>
+        <v>3.8506944444444448E-2</v>
       </c>
       <c r="I6" s="8">
         <f>IF(H6/$I$2&lt;=1.001,H6/$I$2,0.6)</f>
-        <v>0.98778004073319736</v>
+        <v>0.96799534477742222</v>
       </c>
       <c r="J6" s="3">
-        <v>3.5925925925925924E-2</v>
+        <v>1.0486111111111111E-2</v>
       </c>
       <c r="K6" s="8">
         <f>IF(J6/$K$2&lt;=1.001,J6/$K$2,0.6)</f>
-        <v>0.99935608499678041</v>
+        <v>0.29169349645846748</v>
       </c>
       <c r="L6" s="3">
-        <v>2.2129629629629631E-2</v>
+        <v>2.2592592592592591E-2</v>
       </c>
       <c r="M6" s="8">
         <f>IF(L6/$M$2&lt;=1.001,L6/$M$2,0.6)</f>
-        <v>0.97352342158859484</v>
+        <v>0.99389002036659879</v>
       </c>
       <c r="N6" s="1">
-        <v>4.5590277777777778E-2</v>
+        <v>3.7476851851851851E-2</v>
       </c>
       <c r="O6" s="8">
         <f>IF(N6/$O$2&lt;=1.001,N6/$O$2,0.6)</f>
-        <v>0.97717687918630614</v>
+        <v>0.80327462168196473</v>
       </c>
       <c r="P6" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>3.8391203703703705E-2</v>
       </c>
       <c r="Q6" s="8">
         <f>IF(P6/$Q$2&lt;=1.001,P6/$Q$2,0.6)</f>
-        <v>1</v>
+        <v>0.8885614787034557</v>
       </c>
       <c r="R6" s="4">
         <f>AVERAGE(G6,I6,K6,M6,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9437732220431609</v>
+        <v>4.1211791349899247</v>
       </c>
       <c r="S6" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" s="4" t="str" cm="1">
         <f t="array" ref="T6">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U6" s="29">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="V6" s="29">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="W6" s="29">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="X6" s="29">
-        <v>1.1000000000000001</v>
+        <v>5</v>
       </c>
       <c r="Y6" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z6" s="29">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="AA6" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>2.1691319666129485</v>
+        <v>4.4283537404969771</v>
       </c>
       <c r="AB6" s="1">
-        <v>4.1203703703703701E-2</v>
+        <v>3.2685185185185185E-2</v>
       </c>
       <c r="AC6" s="8">
         <f>IF(AB6/$AC$2&lt;=1.01,AB6/$AC$2,0.6)</f>
-        <v>1.0011248593925759</v>
-      </c>
-      <c r="AD6" s="4"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.79415073115860524</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>2.2129629629629631E-2</v>
+      </c>
+      <c r="AE6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.58957755164970715</v>
+      </c>
+      <c r="AF6" s="4"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>1036925847</v>
+        <v>1109542109</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>1.6481481481481482E-2</v>
       </c>
       <c r="G7" s="8">
         <f>IF(F7/$G$2&lt;=1.001,F7/$G$2,0.6)</f>
-        <v>0</v>
+        <v>0.94492368944923688</v>
       </c>
       <c r="H7" s="3">
-        <v>3.9178240740740743E-2</v>
+        <v>3.8530092592592595E-2</v>
       </c>
       <c r="I7" s="8">
         <f>IF(H7/$I$2&lt;=1.001,H7/$I$2,0.6)</f>
-        <v>0.9848705266220541</v>
+        <v>0.9685772475996508</v>
       </c>
       <c r="J7" s="3">
-        <v>3.5844907407407409E-2</v>
+        <v>3.5821759259259262E-2</v>
       </c>
       <c r="K7" s="8">
         <f>IF(J7/$K$2&lt;=1.001,J7/$K$2,0.6)</f>
-        <v>0.99710238248551208</v>
+        <v>0.9964584674822925</v>
       </c>
       <c r="L7" s="3">
-        <v>0</v>
+        <v>1.0648148148148149E-3</v>
       </c>
       <c r="M7" s="8">
         <f>IF(L7/$M$2&lt;=1.001,L7/$M$2,0.6)</f>
-        <v>0</v>
+        <v>4.684317718940937E-2</v>
       </c>
       <c r="N7" s="1">
-        <v>3.7858796296296293E-2</v>
+        <v>4.4270833333333336E-2</v>
       </c>
       <c r="O7" s="8">
         <f>IF(N7/$O$2&lt;=1.001,N7/$O$2,0.6)</f>
-        <v>0.81146117588687661</v>
+        <v>0.94889605556933765</v>
       </c>
       <c r="P7" s="1">
-        <v>3.1886574074074074E-2</v>
+        <v>3.9861111111111111E-2</v>
       </c>
       <c r="Q7" s="8">
         <f>IF(P7/$Q$2&lt;=1.001,P7/$Q$2,0.6)</f>
-        <v>0.73801232252879723</v>
+        <v>0.92258237342619875</v>
       </c>
       <c r="R7" s="4">
         <f>AVERAGE(G7,I7,K7,M7,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.9428720062693667</v>
+        <v>4.0235675089301051</v>
       </c>
       <c r="S7" s="13">
         <v>1</v>
@@ -2460,10 +2511,10 @@
         <v>0</v>
       </c>
       <c r="V7" s="29">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="W7" s="29">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="X7" s="29">
         <v>1.1000000000000001</v>
@@ -2476,278 +2527,295 @@
       </c>
       <c r="AA7" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>2.0728616018808097</v>
+        <v>3.097070252679031</v>
       </c>
       <c r="AB7" s="1">
-        <v>4.1157407407407406E-2</v>
+        <v>3.8101851851851852E-2</v>
       </c>
       <c r="AC7" s="8">
         <f>IF(AB7/$AC$2&lt;=1.01,AB7/$AC$2,0.6)</f>
-        <v>1</v>
-      </c>
-      <c r="AD7" s="4"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.92575928008998876</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="D8">
-        <v>1107837413</v>
+        <v>1193276119</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1.7349537037037038E-2</v>
       </c>
       <c r="G8" s="8">
         <f>IF(F8/$G$2&lt;=1.001,F8/$G$2,0.6)</f>
-        <v>0</v>
+        <v>0.99469143994691445</v>
       </c>
       <c r="H8" s="3">
-        <v>3.7743055555555557E-2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="8">
         <f>IF(H8/$I$2&lt;=1.001,H8/$I$2,0.6)</f>
-        <v>0.94879255164387544</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>3.5925925925925924E-2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="8">
         <f>IF(J8/$K$2&lt;=1.001,J8/$K$2,0.6)</f>
-        <v>0.99935608499678041</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>2.0636574074074075E-2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="8">
         <f>IF(L8/$M$2&lt;=1.001,L8/$M$2,0.6)</f>
-        <v>0.90784114052953158</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>1.5972222222222223E-3</v>
       </c>
       <c r="O8" s="8">
         <f>IF(N8/$O$2&lt;=1.001,N8/$O$2,0.6)</f>
-        <v>0</v>
+        <v>3.4234681220540811E-2</v>
       </c>
       <c r="P8" s="1">
-        <v>3.9016203703703706E-2</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="8">
         <f>IF(P8/$Q$2&lt;=1.001,P8/$Q$2,0.6)</f>
-        <v>0.90302705598714172</v>
+        <v>0</v>
       </c>
       <c r="R8" s="4">
         <f>AVERAGE(G8,I8,K8,M8,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.1325140276311076</v>
-      </c>
-      <c r="S8" s="13">
-        <v>2</v>
-      </c>
+        <v>0.85743843430621258</v>
+      </c>
+      <c r="S8" s="13"/>
       <c r="T8" s="4" t="str" cm="1">
         <f t="array" ref="T8">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
+        <v>--</v>
       </c>
       <c r="U8" s="29">
         <v>0</v>
       </c>
       <c r="V8" s="29">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="W8" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X8" s="29">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.977754208289332</v>
+        <v>0.25723153029186374</v>
       </c>
       <c r="AB8" s="1">
-        <v>3.8090277777777778E-2</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="8">
         <f>IF(AB8/$AC$2&lt;=1.01,AB8/$AC$2,0.6)</f>
-        <v>0.92547806524184484</v>
-      </c>
-      <c r="AD8" s="4"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="D9">
-        <v>1000940688</v>
+        <v>1143992171</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F9" s="3">
-        <v>1.7361111111111112E-2</v>
+        <v>3.4791666666666665E-2</v>
       </c>
       <c r="G9" s="8">
         <f>IF(F9/$G$2&lt;=1.001,F9/$G$2,0.6)</f>
-        <v>0.99535500995355009</v>
+        <v>0.6</v>
       </c>
       <c r="H9" s="3">
-        <v>3.9259259259259258E-2</v>
+        <v>7.1990740740740739E-3</v>
       </c>
       <c r="I9" s="8">
         <f>IF(H9/$I$2&lt;=1.001,H9/$I$2,0.6)</f>
-        <v>0.98690718649985443</v>
+        <v>0.1809717777131219</v>
       </c>
       <c r="J9" s="3">
-        <v>3.5949074074074071E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K9" s="8">
         <f>IF(J9/$K$2&lt;=1.001,J9/$K$2,0.6)</f>
-        <v>1</v>
+        <v>1.00032195750161</v>
       </c>
       <c r="L9" s="3">
-        <v>2.2638888888888889E-2</v>
+        <v>1.9398148148148147E-2</v>
       </c>
       <c r="M9" s="8">
         <f>IF(L9/$M$2&lt;=1.001,L9/$M$2,0.6)</f>
-        <v>0.99592668024439923</v>
+        <v>0.85336048879837068</v>
       </c>
       <c r="N9" s="1">
-        <v>4.4965277777777778E-2</v>
+        <v>4.5810185185185183E-2</v>
       </c>
       <c r="O9" s="8">
         <f>IF(N9/$O$2&lt;=1.001,N9/$O$2,0.6)</f>
-        <v>0.9637806995782684</v>
+        <v>0.98189034978913414</v>
       </c>
       <c r="P9" s="1">
-        <v>4.1863425925925929E-2</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="8">
         <f>IF(P9/$Q$2&lt;=1.001,P9/$Q$2,0.6)</f>
-        <v>0.96892579694615599</v>
+        <v>0</v>
       </c>
       <c r="R9" s="4">
         <f>AVERAGE(G9,I9,K9,M9,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9257461443518569</v>
-      </c>
-      <c r="S9" s="13">
-        <v>2</v>
-      </c>
+        <v>3.0137871448351969</v>
+      </c>
+      <c r="S9" s="13"/>
       <c r="T9" s="4" t="str" cm="1">
         <f t="array" ref="T9">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
+        <v>--</v>
       </c>
       <c r="U9" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V9" s="29">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="W9" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X9" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="29">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.7957238433055576</v>
+        <v>0.90413614345055904</v>
       </c>
       <c r="AB9" s="1">
-        <v>3.8182870370370367E-2</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="8">
         <f>IF(AB9/$AC$2&lt;=1.01,AB9/$AC$2,0.6)</f>
-        <v>0.92772778402699652</v>
-      </c>
-      <c r="AD9" s="4"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10">
-        <v>1112388246</v>
+        <v>1000940688</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3">
-        <v>1.744212962962963E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="G10" s="8">
         <f>IF(F10/$G$2&lt;=1.001,F10/$G$2,0.6)</f>
-        <v>1</v>
+        <v>0.99535500995355009</v>
       </c>
       <c r="H10" s="3">
-        <v>3.8506944444444448E-2</v>
+        <v>3.9259259259259258E-2</v>
       </c>
       <c r="I10" s="8">
         <f>IF(H10/$I$2&lt;=1.001,H10/$I$2,0.6)</f>
-        <v>0.96799534477742222</v>
+        <v>0.98690718649985443</v>
       </c>
       <c r="J10" s="3">
-        <v>1.0486111111111111E-2</v>
+        <v>3.5949074074074071E-2</v>
       </c>
       <c r="K10" s="8">
         <f>IF(J10/$K$2&lt;=1.001,J10/$K$2,0.6)</f>
-        <v>0.29169349645846748</v>
+        <v>1</v>
       </c>
       <c r="L10" s="3">
-        <v>2.2592592592592591E-2</v>
+        <v>2.2638888888888889E-2</v>
       </c>
       <c r="M10" s="8">
         <f>IF(L10/$M$2&lt;=1.001,L10/$M$2,0.6)</f>
-        <v>0.99389002036659879</v>
+        <v>0.99592668024439923</v>
       </c>
       <c r="N10" s="1">
-        <v>3.7476851851851851E-2</v>
+        <v>4.4965277777777778E-2</v>
       </c>
       <c r="O10" s="8">
         <f>IF(N10/$O$2&lt;=1.001,N10/$O$2,0.6)</f>
-        <v>0.80327462168196473</v>
+        <v>0.9637806995782684</v>
       </c>
       <c r="P10" s="1">
-        <v>3.8391203703703705E-2</v>
+        <v>4.1863425925925929E-2</v>
       </c>
       <c r="Q10" s="8">
         <f>IF(P10/$Q$2&lt;=1.001,P10/$Q$2,0.6)</f>
-        <v>0.8885614787034557</v>
+        <v>0.96892579694615599</v>
       </c>
       <c r="R10" s="4">
         <f>AVERAGE(G10,I10,K10,M10,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.1211791349899247</v>
+        <v>4.9257461443518569</v>
       </c>
       <c r="S10" s="13">
         <v>2</v>
@@ -2757,10 +2825,10 @@
         <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U10" s="29">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="V10" s="29">
-        <v>3.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W10" s="29">
         <v>5</v>
@@ -2769,25 +2837,32 @@
         <v>5</v>
       </c>
       <c r="Y10" s="29">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="Z10" s="29">
         <v>4.5</v>
       </c>
       <c r="AA10" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.4283537404969771</v>
+        <v>4.7957238433055576</v>
       </c>
       <c r="AB10" s="1">
-        <v>3.2685185185185185E-2</v>
+        <v>3.8182870370370367E-2</v>
       </c>
       <c r="AC10" s="8">
         <f>IF(AB10/$AC$2&lt;=1.01,AB10/$AC$2,0.6)</f>
-        <v>0.79415073115860524</v>
-      </c>
-      <c r="AD10" s="4"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.92772778402699652</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>3.7303240740740741E-2</v>
+      </c>
+      <c r="AE10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.99383287079864335</v>
+      </c>
+      <c r="AF10" s="4"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2795,7 +2870,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D11">
         <v>1007560675</v>
@@ -2885,23 +2960,30 @@
         <f>IF(AB11/$AC$2&lt;=1.01,AB11/$AC$2,0.6)</f>
         <v>0.89257592800899888</v>
       </c>
-      <c r="AD11" s="4"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD11" s="1">
+        <v>3.2986111111111112E-2</v>
+      </c>
+      <c r="AE11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.87881591119333957</v>
+      </c>
+      <c r="AF11" s="4"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D12">
-        <v>1005832925</v>
+        <v>1110285503</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3">
         <v>1.7314814814814814E-2</v>
@@ -2911,59 +2993,59 @@
         <v>0.9927007299270072</v>
       </c>
       <c r="H12" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>3.9189814814814816E-2</v>
       </c>
       <c r="I12" s="8">
         <f>IF(H12/$I$2&lt;=1.001,H12/$I$2,0.6)</f>
-        <v>1.0008728542333429</v>
+        <v>0.98516147803316845</v>
       </c>
       <c r="J12" s="3">
-        <v>3.5868055555555556E-2</v>
+        <v>0</v>
       </c>
       <c r="K12" s="8">
         <f>IF(J12/$K$2&lt;=1.001,J12/$K$2,0.6)</f>
-        <v>0.99774629748873156</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>2.1909722222222223E-2</v>
+        <v>0</v>
       </c>
       <c r="M12" s="8">
         <f>IF(L12/$M$2&lt;=1.001,L12/$M$2,0.6)</f>
-        <v>0.96384928716904283</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>4.6631944444444441E-2</v>
+        <v>4.327546296296296E-2</v>
       </c>
       <c r="O12" s="8">
         <f>IF(N12/$O$2&lt;=1.001,N12/$O$2,0.6)</f>
-        <v>0.99950384519970215</v>
+        <v>0.92756139915653668</v>
       </c>
       <c r="P12" s="1">
-        <v>4.2488425925925923E-2</v>
+        <v>4.3182870370370371E-2</v>
       </c>
       <c r="Q12" s="8">
         <f>IF(P12/$Q$2&lt;=1.001,P12/$Q$2,0.6)</f>
-        <v>0.98339137422984191</v>
+        <v>0.99946423787838201</v>
       </c>
       <c r="R12" s="4">
         <f>AVERAGE(G12,I12,K12,M12,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9483869902063908</v>
+        <v>3.2540732041625784</v>
       </c>
       <c r="S12" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T12" s="4" t="str" cm="1">
         <f t="array" ref="T12">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U12" s="29">
         <v>5</v>
       </c>
       <c r="V12" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W12" s="29">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="X12" s="29">
         <v>5</v>
@@ -2976,94 +3058,101 @@
       </c>
       <c r="AA12" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.9145160970619175</v>
+        <v>3.6502219612487732</v>
       </c>
       <c r="AB12" s="1">
-        <v>3.8379629629629632E-2</v>
+        <v>3.7256944444444447E-2</v>
       </c>
       <c r="AC12" s="8">
         <f>IF(AB12/$AC$2&lt;=1.01,AB12/$AC$2,0.6)</f>
-        <v>0.93250843644544434</v>
-      </c>
-      <c r="AD12" s="4"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.90523059617547819</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13">
+        <v>1107837304</v>
+      </c>
+      <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13">
-        <v>1006343564</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
       <c r="F13" s="3">
-        <v>1.7337962962962961E-2</v>
+        <v>3.8090277777777778E-2</v>
       </c>
       <c r="G13" s="8">
         <f>IF(F13/$G$2&lt;=1.001,F13/$G$2,0.6)</f>
-        <v>0.99402786994027859</v>
+        <v>0.6</v>
       </c>
       <c r="H13" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>3.8541666666666669E-2</v>
       </c>
       <c r="I13" s="8">
         <f>IF(H13/$I$2&lt;=1.001,H13/$I$2,0.6)</f>
-        <v>1.0008728542333429</v>
+        <v>0.96886819901076515</v>
       </c>
       <c r="J13" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>3.3229166666666664E-2</v>
       </c>
       <c r="K13" s="8">
         <f>IF(J13/$K$2&lt;=1.001,J13/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
-      </c>
-      <c r="L13" s="9">
-        <v>2.2731481481481481E-2</v>
-      </c>
-      <c r="M13" s="10">
+        <v>0.92433998712169996</v>
+      </c>
+      <c r="L13" s="3">
+        <v>5.115740740740741E-3</v>
+      </c>
+      <c r="M13" s="8">
         <f>IF(L13/$M$2&lt;=1.001,L13/$M$2,0.6)</f>
-        <v>1</v>
+        <v>0.22505091649694503</v>
       </c>
       <c r="N13" s="1">
-        <v>2.9768518518518517E-2</v>
+        <v>4.4849537037037035E-2</v>
       </c>
       <c r="O13" s="8">
         <f>IF(N13/$O$2&lt;=1.001,N13/$O$2,0.6)</f>
-        <v>0.63805507318283294</v>
+        <v>0.9612999255767799</v>
       </c>
       <c r="P13" s="1">
-        <v>4.1909722222222223E-2</v>
+        <v>3.9386574074074074E-2</v>
       </c>
       <c r="Q13" s="8">
         <f>IF(P13/$Q$2&lt;=1.001,P13/$Q$2,0.6)</f>
-        <v>0.96999732118939197</v>
+        <v>0.91159924993302976</v>
       </c>
       <c r="R13" s="4">
         <f>AVERAGE(G13,I13,K13,M13,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6693958967062139</v>
+        <v>3.8259652317826838</v>
       </c>
       <c r="S13" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T13" s="4" t="str" cm="1">
         <f t="array" ref="T13">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U13" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="V13" s="29">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W13" s="29">
         <v>5</v>
-      </c>
-      <c r="V13" s="29">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="W13" s="29">
-        <v>4</v>
       </c>
       <c r="X13" s="29">
         <v>3.3</v>
@@ -3076,46 +3165,53 @@
       </c>
       <c r="AA13" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.3968187690118636</v>
+        <v>4.2137895695348053</v>
       </c>
       <c r="AB13" s="1">
-        <v>3.8124999999999999E-2</v>
+        <v>3.8101851851851852E-2</v>
       </c>
       <c r="AC13" s="8">
         <f>IF(AB13/$AC$2&lt;=1.01,AB13/$AC$2,0.6)</f>
-        <v>0.9263217097862767</v>
-      </c>
-      <c r="AD13" s="4"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.92575928008998876</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>3.7384259259259256E-2</v>
+      </c>
+      <c r="AE13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.99599136601911809</v>
+      </c>
+      <c r="AF13" s="4"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>30</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>115</v>
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
       </c>
       <c r="D14">
-        <v>73265790</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>61</v>
+        <v>1112388822</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
       </c>
       <c r="F14" s="3">
-        <v>4.3611111111111114E-2</v>
+        <v>1.7337962962962961E-2</v>
       </c>
       <c r="G14" s="8">
         <f>IF(F14/$G$2&lt;=1.001,F14/$G$2,0.6)</f>
-        <v>0.6</v>
+        <v>0.99402786994027859</v>
       </c>
       <c r="H14" s="3">
-        <v>3.9641203703703706E-2</v>
+        <v>3.9224537037037037E-2</v>
       </c>
       <c r="I14" s="8">
         <f>IF(H14/$I$2&lt;=1.001,H14/$I$2,0.6)</f>
-        <v>0.99650858306662782</v>
+        <v>0.98603433226651138</v>
       </c>
       <c r="J14" s="3">
         <v>3.5879629629629629E-2</v>
@@ -3125,48 +3221,48 @@
         <v>0.99806825499034135</v>
       </c>
       <c r="L14" s="3">
-        <v>2.1238425925925924E-2</v>
+        <v>0</v>
       </c>
       <c r="M14" s="8">
         <f>IF(L14/$M$2&lt;=1.001,L14/$M$2,0.6)</f>
-        <v>0.93431771894093685</v>
+        <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>4.659722222222222E-2</v>
+        <v>3.2685185185185185E-2</v>
       </c>
       <c r="O14" s="8">
         <f>IF(N14/$O$2&lt;=1.001,N14/$O$2,0.6)</f>
-        <v>0.99875961299925564</v>
+        <v>0.70057057802034228</v>
       </c>
       <c r="P14" s="1">
-        <v>4.1886574074074076E-2</v>
+        <v>3.3252314814814818E-2</v>
       </c>
       <c r="Q14" s="8">
         <f>IF(P14/$Q$2&lt;=1.001,P14/$Q$2,0.6)</f>
-        <v>0.96946155906777398</v>
+        <v>0.76962228770425933</v>
       </c>
       <c r="R14" s="4">
         <f>AVERAGE(G14,I14,K14,M14,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.5809297742207793</v>
+        <v>3.7069361024347773</v>
       </c>
       <c r="S14" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T14" s="4" t="str" cm="1">
         <f t="array" ref="T14">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U14" s="29">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="V14" s="29">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="W14" s="29">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="X14" s="29">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Y14" s="29">
         <v>5</v>
@@ -3176,94 +3272,101 @@
       </c>
       <c r="AA14" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.5802789322662338</v>
+        <v>4.1360808307304335</v>
       </c>
       <c r="AB14" s="1">
-        <v>3.8425925925925926E-2</v>
+        <v>3.2615740740740744E-2</v>
       </c>
       <c r="AC14" s="8">
         <f>IF(AB14/$AC$2&lt;=1.01,AB14/$AC$2,0.6)</f>
-        <v>0.93363329583802024</v>
-      </c>
-      <c r="AD14" s="4"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.7924634420697414</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>2.9525462962962962E-2</v>
+      </c>
+      <c r="AE14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.78661732963305586</v>
+      </c>
+      <c r="AF14" s="4"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D15">
-        <v>1104804719</v>
+        <v>1107839506</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F15" s="3">
-        <v>3.4641203703703702E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G15" s="8">
         <f>IF(F15/$G$2&lt;=1.001,F15/$G$2,0.6)</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3">
-        <v>3.9178240740740743E-2</v>
+        <v>3.9270833333333331E-2</v>
       </c>
       <c r="I15" s="8">
         <f>IF(H15/$I$2&lt;=1.001,H15/$I$2,0.6)</f>
-        <v>0.9848705266220541</v>
+        <v>0.98719813791096878</v>
       </c>
       <c r="J15" s="3">
-        <v>3.5856481481481482E-2</v>
+        <v>3.591435185185185E-2</v>
       </c>
       <c r="K15" s="8">
         <f>IF(J15/$K$2&lt;=1.001,J15/$K$2,0.6)</f>
-        <v>0.99742433998712177</v>
+        <v>0.99903412749517073</v>
       </c>
       <c r="L15" s="3">
-        <v>1.9652777777777779E-2</v>
+        <v>1.9351851851851853E-2</v>
       </c>
       <c r="M15" s="8">
         <f>IF(L15/$M$2&lt;=1.001,L15/$M$2,0.6)</f>
-        <v>0.86456211812627304</v>
+        <v>0.85132382892057035</v>
       </c>
       <c r="N15" s="1">
-        <v>0</v>
+        <v>4.2256944444444444E-2</v>
       </c>
       <c r="O15" s="8">
         <f>IF(N15/$O$2&lt;=1.001,N15/$O$2,0.6)</f>
-        <v>0</v>
+        <v>0.9057305879434383</v>
       </c>
       <c r="P15" s="1">
-        <v>3.9768518518518516E-2</v>
+        <v>3.9687500000000001E-2</v>
       </c>
       <c r="Q15" s="8">
         <f>IF(P15/$Q$2&lt;=1.001,P15/$Q$2,0.6)</f>
-        <v>0.92043932493972669</v>
+        <v>0.91856415751406373</v>
       </c>
       <c r="R15" s="4">
         <f>AVERAGE(G15,I15,K15,M15,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.6394135913959795</v>
+        <v>4.71820903315351</v>
       </c>
       <c r="S15" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T15" s="4" t="str" cm="1">
         <f t="array" ref="T15">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U15" s="29">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="V15" s="29">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="W15" s="29">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X15" s="29">
         <v>3.3</v>
@@ -3272,243 +3375,264 @@
         <v>5</v>
       </c>
       <c r="Z15" s="29">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="AA15" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.2698240774187939</v>
+        <v>4.341462709946053</v>
       </c>
       <c r="AB15" s="1">
-        <v>4.0914351851851855E-2</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="8">
         <f>IF(AB15/$AC$2&lt;=1.01,AB15/$AC$2,0.6)</f>
-        <v>0.9940944881889765</v>
-      </c>
-      <c r="AD15" s="4"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>3.712962962962963E-2</v>
+      </c>
+      <c r="AE15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.98920752389762578</v>
+      </c>
+      <c r="AF15" s="4"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D16">
-        <v>1113978874</v>
+        <v>1112041894</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F16" s="3">
-        <v>1.744212962962963E-2</v>
+        <v>3.7592592592592594E-2</v>
       </c>
       <c r="G16" s="8">
         <f>IF(F16/$G$2&lt;=1.001,F16/$G$2,0.6)</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H16" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>2.7164351851851853E-2</v>
       </c>
       <c r="I16" s="8">
         <f>IF(H16/$I$2&lt;=1.001,H16/$I$2,0.6)</f>
-        <v>1.0008728542333429</v>
+        <v>0.68286296188536511</v>
       </c>
       <c r="J16" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>0</v>
       </c>
       <c r="K16" s="8">
         <f>IF(J16/$K$2&lt;=1.001,J16/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
+        <v>0</v>
       </c>
       <c r="L16" s="3">
-        <v>2.1203703703703704E-2</v>
+        <v>0</v>
       </c>
       <c r="M16" s="8">
         <f>IF(L16/$M$2&lt;=1.001,L16/$M$2,0.6)</f>
-        <v>0.9327902240325866</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>4.6666666666666669E-2</v>
+        <v>4.1226851851851855E-2</v>
       </c>
       <c r="O16" s="8">
         <f>IF(N16/$O$2&lt;=1.001,N16/$O$2,0.6)</f>
-        <v>1.0002480774001488</v>
+        <v>0.88365169933019105</v>
       </c>
       <c r="P16" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>4.2858796296296298E-2</v>
       </c>
       <c r="Q16" s="8">
         <f>IF(P16/$Q$2&lt;=1.001,P16/$Q$2,0.6)</f>
-        <v>1</v>
+        <v>0.99196356817573006</v>
       </c>
       <c r="R16" s="4">
         <f>AVERAGE(G16,I16,K16,M16,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9451942609730732</v>
+        <v>2.6320651911594055</v>
       </c>
       <c r="S16" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16" s="4" t="str" cm="1">
         <f t="array" ref="T16">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U16" s="29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V16" s="29">
-        <v>4.9000000000000004</v>
+        <v>2.5</v>
       </c>
       <c r="W16" s="29">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="X16" s="29">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Y16" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="29">
         <v>4.5</v>
       </c>
       <c r="AA16" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.8995582782919218</v>
+        <v>2.6236195573478214</v>
       </c>
       <c r="AB16" s="1">
-        <v>3.9328703703703706E-2</v>
+        <v>4.0208333333333332E-2</v>
       </c>
       <c r="AC16" s="8">
         <f>IF(AB16/$AC$2&lt;=1.01,AB16/$AC$2,0.6)</f>
-        <v>0.95556805399325095</v>
-      </c>
-      <c r="AD16" s="4"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.9769403824521935</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>3.6712962962962961E-2</v>
+      </c>
+      <c r="AE16" s="8">
+        <f t="shared" si="0"/>
+        <v>0.97810669133518346</v>
+      </c>
+      <c r="AF16" s="4"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D17">
-        <v>1110285503</v>
+        <v>1005785665</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F17" s="3">
-        <v>1.7314814814814814E-2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8">
         <f>IF(F17/$G$2&lt;=1.001,F17/$G$2,0.6)</f>
-        <v>0.9927007299270072</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>3.9189814814814816E-2</v>
+        <v>3.9085648148148147E-2</v>
       </c>
       <c r="I17" s="8">
         <f>IF(H17/$I$2&lt;=1.001,H17/$I$2,0.6)</f>
-        <v>0.98516147803316845</v>
+        <v>0.9825429153331392</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K17" s="8">
         <f>IF(J17/$K$2&lt;=1.001,J17/$K$2,0.6)</f>
-        <v>0</v>
+        <v>1.00032195750161</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>2.3148148148148149E-4</v>
       </c>
       <c r="M17" s="8">
         <f>IF(L17/$M$2&lt;=1.001,L17/$M$2,0.6)</f>
-        <v>0</v>
+        <v>1.0183299389002037E-2</v>
       </c>
       <c r="N17" s="1">
-        <v>4.327546296296296E-2</v>
+        <v>4.6527777777777779E-2</v>
       </c>
       <c r="O17" s="8">
         <f>IF(N17/$O$2&lt;=1.001,N17/$O$2,0.6)</f>
-        <v>0.92756139915653668</v>
+        <v>0.99727114859836263</v>
       </c>
       <c r="P17" s="1">
-        <v>4.3182870370370371E-2</v>
+        <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q17" s="8">
         <f>IF(P17/$Q$2&lt;=1.001,P17/$Q$2,0.6)</f>
-        <v>0.99946423787838201</v>
+        <v>1</v>
       </c>
       <c r="R17" s="4">
         <f>AVERAGE(G17,I17,K17,M17,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.2540732041625784</v>
+        <v>3.325266100685095</v>
       </c>
       <c r="S17" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T17" s="4" t="str" cm="1">
         <f t="array" ref="T17">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U17" s="29">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V17" s="29">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="W17" s="29">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="X17" s="29">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Y17" s="29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="29">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="AA17" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.6502219612487732</v>
+        <v>2.7615798302055281</v>
       </c>
       <c r="AB17" s="1">
-        <v>3.7256944444444447E-2</v>
+        <v>4.1157407407407406E-2</v>
       </c>
       <c r="AC17" s="8">
         <f>IF(AB17/$AC$2&lt;=1.01,AB17/$AC$2,0.6)</f>
-        <v>0.90523059617547819</v>
-      </c>
-      <c r="AD17" s="4"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>3.7384259259259256E-2</v>
+      </c>
+      <c r="AE17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.99599136601911809</v>
+      </c>
+      <c r="AF17" s="4"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D18">
-        <v>1004217163</v>
+        <v>1113978874</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F18" s="3">
-        <v>4.1458333333333333E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G18" s="8">
         <f>IF(F18/$G$2&lt;=1.001,F18/$G$2,0.6)</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
         <v>3.9814814814814817E-2</v>
@@ -3525,29 +3649,29 @@
         <v>1.00032195750161</v>
       </c>
       <c r="L18" s="3">
-        <v>2.0798611111111111E-2</v>
+        <v>2.1203703703703704E-2</v>
       </c>
       <c r="M18" s="8">
         <f>IF(L18/$M$2&lt;=1.001,L18/$M$2,0.6)</f>
-        <v>0.91496945010183306</v>
+        <v>0.9327902240325866</v>
       </c>
       <c r="N18" s="1">
-        <v>4.2013888888888892E-2</v>
+        <v>4.6666666666666669E-2</v>
       </c>
       <c r="O18" s="8">
         <f>IF(N18/$O$2&lt;=1.001,N18/$O$2,0.6)</f>
-        <v>0.90052096254031255</v>
+        <v>1.0002480774001488</v>
       </c>
       <c r="P18" s="1">
-        <v>3.8773148148148147E-2</v>
+        <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q18" s="8">
         <f>IF(P18/$Q$2&lt;=1.001,P18/$Q$2,0.6)</f>
-        <v>0.89740155371015262</v>
+        <v>1</v>
       </c>
       <c r="R18" s="4">
         <f>AVERAGE(G18,I18,K18,M18,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.4284056484060423</v>
+        <v>4.9451942609730732</v>
       </c>
       <c r="S18" s="13">
         <v>4</v>
@@ -3560,7 +3684,7 @@
         <v>5</v>
       </c>
       <c r="V18" s="29">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W18" s="29">
         <v>5</v>
@@ -3569,101 +3693,108 @@
         <v>5</v>
       </c>
       <c r="Y18" s="29">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="Z18" s="29">
         <v>4.5</v>
       </c>
       <c r="AA18" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.6605216945218126</v>
+        <v>4.8995582782919218</v>
       </c>
       <c r="AB18" s="1">
-        <v>4.1076388888888891E-2</v>
+        <v>3.9328703703703706E-2</v>
       </c>
       <c r="AC18" s="8">
         <f>IF(AB18/$AC$2&lt;=1.01,AB18/$AC$2,0.6)</f>
-        <v>0.99803149606299224</v>
-      </c>
-      <c r="AD18" s="4"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.95556805399325095</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>3.7384259259259256E-2</v>
+      </c>
+      <c r="AE18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.99599136601911809</v>
+      </c>
+      <c r="AF18" s="4"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D19">
-        <v>1112388822</v>
+        <v>1105366146</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F19" s="3">
-        <v>1.7337962962962961E-2</v>
+        <v>3.8437499999999999E-2</v>
       </c>
       <c r="G19" s="8">
         <f>IF(F19/$G$2&lt;=1.001,F19/$G$2,0.6)</f>
-        <v>0.99402786994027859</v>
+        <v>0.6</v>
       </c>
       <c r="H19" s="3">
-        <v>3.9224537037037037E-2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="8">
         <f>IF(H19/$I$2&lt;=1.001,H19/$I$2,0.6)</f>
-        <v>0.98603433226651138</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3">
-        <v>3.5879629629629629E-2</v>
+        <v>1.3148148148148148E-2</v>
       </c>
       <c r="K19" s="8">
         <f>IF(J19/$K$2&lt;=1.001,J19/$K$2,0.6)</f>
-        <v>0.99806825499034135</v>
+        <v>0.36574372182871867</v>
       </c>
       <c r="L19" s="3">
-        <v>0</v>
+        <v>7.6620370370370366E-3</v>
       </c>
       <c r="M19" s="8">
         <f>IF(L19/$M$2&lt;=1.001,L19/$M$2,0.6)</f>
-        <v>0</v>
+        <v>0.33706720977596738</v>
       </c>
       <c r="N19" s="1">
-        <v>3.2685185185185185E-2</v>
+        <v>4.6215277777777779E-2</v>
       </c>
       <c r="O19" s="8">
         <f>IF(N19/$O$2&lt;=1.001,N19/$O$2,0.6)</f>
-        <v>0.70057057802034228</v>
+        <v>0.99057305879434376</v>
       </c>
       <c r="P19" s="1">
-        <v>3.3252314814814818E-2</v>
+        <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q19" s="8">
         <f>IF(P19/$Q$2&lt;=1.001,P19/$Q$2,0.6)</f>
-        <v>0.76962228770425933</v>
+        <v>1</v>
       </c>
       <c r="R19" s="4">
         <f>AVERAGE(G19,I19,K19,M19,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.7069361024347773</v>
+        <v>2.7444866586658585</v>
       </c>
       <c r="S19" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19" s="4" t="str" cm="1">
         <f t="array" ref="T19">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U19" s="29">
         <v>4.5</v>
       </c>
       <c r="V19" s="29">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="W19" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X19" s="29">
         <v>3.3</v>
@@ -3676,267 +3807,286 @@
       </c>
       <c r="AA19" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.1360808307304335</v>
+        <v>3.8753459975997577</v>
       </c>
       <c r="AB19" s="1">
-        <v>3.2615740740740744E-2</v>
+        <v>3.3819444444444444E-2</v>
       </c>
       <c r="AC19" s="8">
         <f>IF(AB19/$AC$2&lt;=1.01,AB19/$AC$2,0.6)</f>
-        <v>0.7924634420697414</v>
-      </c>
-      <c r="AD19" s="4"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.82170978627671543</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>3.7384259259259256E-2</v>
+      </c>
+      <c r="AE19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.99599136601911809</v>
+      </c>
+      <c r="AF19" s="4"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>93</v>
+        <v>7</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="D20">
-        <v>1005892878</v>
+        <v>1004189893</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F20" s="3">
-        <v>1.744212962962963E-2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="8">
         <f>IF(F20/$G$2&lt;=1.001,F20/$G$2,0.6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="8">
         <f>IF(H20/$I$2&lt;=1.001,H20/$I$2,0.6)</f>
-        <v>1.0008728542333429</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="8">
         <f>IF(J20/$K$2&lt;=1.001,J20/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>1.8935185185185187E-2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="8">
         <f>IF(L20/$M$2&lt;=1.001,L20/$M$2,0.6)</f>
-        <v>0.83299389002036672</v>
+        <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>4.5497685185185183E-2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="8">
         <f>IF(N20/$O$2&lt;=1.001,N20/$O$2,0.6)</f>
-        <v>0.97519225998511527</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>4.1145833333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="8">
         <f>IF(P20/$Q$2&lt;=1.001,P20/$Q$2,0.6)</f>
-        <v>0.95231717117599779</v>
+        <v>0</v>
       </c>
       <c r="R20" s="4">
         <f>AVERAGE(G20,I20,K20,M20,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.8014151107636938</v>
-      </c>
-      <c r="S20" s="13">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S20" s="13"/>
       <c r="T20" s="4" t="str" cm="1">
         <f t="array" ref="T20">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+        <v>--</v>
       </c>
       <c r="U20" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V20" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="W20" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X20" s="29">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.562424533229108</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="1">
-        <v>3.9305555555555559E-2</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="8">
         <f>IF(AB20/$AC$2&lt;=1.01,AB20/$AC$2,0.6)</f>
-        <v>0.95500562429696301</v>
-      </c>
-      <c r="AD20" s="4"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="4"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D21">
-        <v>1107837304</v>
+        <v>1062276579</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F21" s="3">
-        <v>3.8090277777777778E-2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="8">
         <f>IF(F21/$G$2&lt;=1.001,F21/$G$2,0.6)</f>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>3.8541666666666669E-2</v>
+        <v>3.9016203703703706E-2</v>
       </c>
       <c r="I21" s="8">
         <f>IF(H21/$I$2&lt;=1.001,H21/$I$2,0.6)</f>
-        <v>0.96886819901076515</v>
+        <v>0.98079720686645322</v>
       </c>
       <c r="J21" s="3">
-        <v>3.3229166666666664E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K21" s="8">
         <f>IF(J21/$K$2&lt;=1.001,J21/$K$2,0.6)</f>
-        <v>0.92433998712169996</v>
+        <v>1.00032195750161</v>
       </c>
       <c r="L21" s="3">
-        <v>5.115740740740741E-3</v>
+        <v>2.2650462962962963E-2</v>
       </c>
       <c r="M21" s="8">
         <f>IF(L21/$M$2&lt;=1.001,L21/$M$2,0.6)</f>
-        <v>0.22505091649694503</v>
+        <v>0.99643584521384931</v>
       </c>
       <c r="N21" s="1">
-        <v>4.4849537037037035E-2</v>
+        <v>0</v>
       </c>
       <c r="O21" s="8">
         <f>IF(N21/$O$2&lt;=1.001,N21/$O$2,0.6)</f>
-        <v>0.9612999255767799</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>3.9386574074074074E-2</v>
+        <v>7.8240740740740736E-3</v>
       </c>
       <c r="Q21" s="8">
         <f>IF(P21/$Q$2&lt;=1.001,P21/$Q$2,0.6)</f>
-        <v>0.91159924993302976</v>
+        <v>0.18108759710688452</v>
       </c>
       <c r="R21" s="4">
         <f>AVERAGE(G21,I21,K21,M21,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.8259652317826838</v>
+        <v>2.6322021722406648</v>
       </c>
       <c r="S21" s="13">
-        <v>5</v>
-      </c>
-      <c r="T21" s="4" t="str" cm="1">
+        <v>8</v>
+      </c>
+      <c r="T21" s="4" t="e" cm="1">
         <f t="array" ref="T21">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+        <v>#N/A</v>
       </c>
       <c r="U21" s="29">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="V21" s="29">
-        <v>4.0999999999999996</v>
+        <v>2.7</v>
       </c>
       <c r="W21" s="29">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="X21" s="29">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.2137895695348053</v>
+        <v>1.3916606516721994</v>
       </c>
       <c r="AB21" s="1">
-        <v>3.8101851851851852E-2</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="8">
         <f>IF(AB21/$AC$2&lt;=1.01,AB21/$AC$2,0.6)</f>
-        <v>0.92575928008998876</v>
-      </c>
-      <c r="AD21" s="4"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D22">
-        <v>1105366146</v>
+        <v>1058932076</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F22" s="3">
-        <v>3.8437499999999999E-2</v>
+        <v>3.6388888888888887E-2</v>
       </c>
       <c r="G22" s="8">
         <f>IF(F22/$G$2&lt;=1.001,F22/$G$2,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>3.9282407407407405E-2</v>
       </c>
       <c r="I22" s="8">
         <f>IF(H22/$I$2&lt;=1.001,H22/$I$2,0.6)</f>
-        <v>0</v>
+        <v>0.98748908932208301</v>
       </c>
       <c r="J22" s="3">
-        <v>1.3148148148148148E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K22" s="8">
         <f>IF(J22/$K$2&lt;=1.001,J22/$K$2,0.6)</f>
-        <v>0.36574372182871867</v>
+        <v>1.00032195750161</v>
       </c>
       <c r="L22" s="3">
-        <v>7.6620370370370366E-3</v>
+        <v>2.2395833333333334E-2</v>
       </c>
       <c r="M22" s="8">
         <f>IF(L22/$M$2&lt;=1.001,L22/$M$2,0.6)</f>
-        <v>0.33706720977596738</v>
+        <v>0.98523421588594706</v>
       </c>
       <c r="N22" s="1">
-        <v>4.6215277777777779E-2</v>
+        <v>4.6608796296296294E-2</v>
       </c>
       <c r="O22" s="8">
         <f>IF(N22/$O$2&lt;=1.001,N22/$O$2,0.6)</f>
-        <v>0.99057305879434376</v>
+        <v>0.99900769039940451</v>
       </c>
       <c r="P22" s="1">
         <v>4.3206018518518519E-2</v>
@@ -3947,26 +4097,26 @@
       </c>
       <c r="R22" s="4">
         <f>AVERAGE(G22,I22,K22,M22,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.7444866586658585</v>
+        <v>4.6433774609242038</v>
       </c>
       <c r="S22" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T22" s="4" t="str" cm="1">
         <f t="array" ref="T22">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U22" s="29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="V22" s="29">
         <v>4.5</v>
       </c>
-      <c r="V22" s="29">
-        <v>4</v>
-      </c>
       <c r="W22" s="29">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="X22" s="29">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="Y22" s="29">
         <v>5</v>
@@ -3976,178 +4126,192 @@
       </c>
       <c r="AA22" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.8753459975997577</v>
+        <v>4.263013238277261</v>
       </c>
       <c r="AB22" s="1">
-        <v>3.3819444444444444E-2</v>
+        <v>3.6574074074074071E-2</v>
       </c>
       <c r="AC22" s="8">
         <f>IF(AB22/$AC$2&lt;=1.01,AB22/$AC$2,0.6)</f>
-        <v>0.82170978627671543</v>
-      </c>
-      <c r="AD22" s="4"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.88863892013498313</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>3.6747685185185182E-2</v>
+      </c>
+      <c r="AE22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.979031760715387</v>
+      </c>
+      <c r="AF22" s="4"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D23">
-        <v>1112041894</v>
+        <v>1113362057</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3">
-        <v>3.7592592592592594E-2</v>
+        <v>1.7326388888888888E-2</v>
       </c>
       <c r="G23" s="8">
         <f>IF(F23/$G$2&lt;=1.001,F23/$G$2,0.6)</f>
-        <v>0.6</v>
+        <v>0.99336429993364284</v>
       </c>
       <c r="H23" s="3">
-        <v>2.7164351851851853E-2</v>
+        <v>3.9212962962962963E-2</v>
       </c>
       <c r="I23" s="8">
         <f>IF(H23/$I$2&lt;=1.001,H23/$I$2,0.6)</f>
-        <v>0.68286296188536511</v>
+        <v>0.98574338085539703</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K23" s="8">
         <f>IF(J23/$K$2&lt;=1.001,J23/$K$2,0.6)</f>
-        <v>0</v>
+        <v>1.00032195750161</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>2.2268518518518517E-2</v>
       </c>
       <c r="M23" s="8">
         <f>IF(L23/$M$2&lt;=1.001,L23/$M$2,0.6)</f>
-        <v>0</v>
+        <v>0.97963340122199594</v>
       </c>
       <c r="N23" s="1">
-        <v>4.1226851851851855E-2</v>
+        <v>4.6527777777777779E-2</v>
       </c>
       <c r="O23" s="8">
         <f>IF(N23/$O$2&lt;=1.001,N23/$O$2,0.6)</f>
-        <v>0.88365169933019105</v>
+        <v>0.99727114859836263</v>
       </c>
       <c r="P23" s="1">
-        <v>4.2858796296296298E-2</v>
+        <v>3.2187500000000001E-2</v>
       </c>
       <c r="Q23" s="8">
         <f>IF(P23/$Q$2&lt;=1.001,P23/$Q$2,0.6)</f>
-        <v>0.99196356817573006</v>
+        <v>0.7449772301098313</v>
       </c>
       <c r="R23" s="4">
         <f>AVERAGE(G23,I23,K23,M23,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.6320651911594055</v>
+        <v>4.7510928485173665</v>
       </c>
       <c r="S23" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T23" s="4" t="str" cm="1">
         <f t="array" ref="T23">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U23" s="29">
-        <v>1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V23" s="29">
-        <v>2.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W23" s="29">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="X23" s="29">
         <v>3.3</v>
       </c>
       <c r="Y23" s="29">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="Z23" s="29">
         <v>4.5</v>
       </c>
       <c r="AA23" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>2.6236195573478214</v>
+        <v>4.4773278545552095</v>
       </c>
       <c r="AB23" s="1">
-        <v>4.0208333333333332E-2</v>
+        <v>3.8055555555555558E-2</v>
       </c>
       <c r="AC23" s="8">
         <f>IF(AB23/$AC$2&lt;=1.01,AB23/$AC$2,0.6)</f>
-        <v>0.9769403824521935</v>
-      </c>
-      <c r="AD23" s="4"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.92463442069741286</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>1.3356481481481481E-2</v>
+      </c>
+      <c r="AE23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.35584335491828556</v>
+      </c>
+      <c r="AF23" s="4"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24">
-        <v>1076904274</v>
+        <v>1112389849</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F24" s="3">
-        <v>1.7430555555555557E-2</v>
+        <v>4.3043981481481482E-2</v>
       </c>
       <c r="G24" s="8">
         <f>IF(F24/$G$2&lt;=1.001,F24/$G$2,0.6)</f>
-        <v>0.99933642999336436</v>
+        <v>0.6</v>
       </c>
       <c r="H24" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>3.923611111111111E-2</v>
       </c>
       <c r="I24" s="8">
         <f>IF(H24/$I$2&lt;=1.001,H24/$I$2,0.6)</f>
-        <v>1.0008728542333429</v>
+        <v>0.98632528367762573</v>
       </c>
       <c r="J24" s="3">
-        <v>3.5451388888888886E-2</v>
+        <v>3.591435185185185E-2</v>
       </c>
       <c r="K24" s="8">
         <f>IF(J24/$K$2&lt;=1.001,J24/$K$2,0.6)</f>
-        <v>0.98615582743077912</v>
+        <v>0.99903412749517073</v>
       </c>
       <c r="L24" s="3">
-        <v>1.4166666666666666E-2</v>
+        <v>2.2731481481481481E-2</v>
       </c>
       <c r="M24" s="8">
         <f>IF(L24/$M$2&lt;=1.001,L24/$M$2,0.6)</f>
-        <v>0.62321792260692466</v>
+        <v>1</v>
       </c>
       <c r="N24" s="1">
-        <v>4.6666666666666669E-2</v>
+        <v>4.659722222222222E-2</v>
       </c>
       <c r="O24" s="8">
         <f>IF(N24/$O$2&lt;=1.001,N24/$O$2,0.6)</f>
-        <v>1.0002480774001488</v>
+        <v>0.99875961299925564</v>
       </c>
       <c r="P24" s="1">
-        <v>4.3159722222222224E-2</v>
+        <v>4.189814814814815E-2</v>
       </c>
       <c r="Q24" s="8">
         <f>IF(P24/$Q$2&lt;=1.001,P24/$Q$2,0.6)</f>
-        <v>0.99892847575676402</v>
+        <v>0.96972944012858298</v>
       </c>
       <c r="R24" s="4">
         <f>AVERAGE(G24,I24,K24,M24,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6739663228511033</v>
+        <v>4.6282070535838633</v>
       </c>
       <c r="S24" s="13">
         <v>6</v>
@@ -4157,213 +4321,227 @@
         <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U24" s="29">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V24" s="29">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W24" s="29">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="X24" s="29">
         <v>3.3</v>
       </c>
       <c r="Y24" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z24" s="29">
         <v>3.5</v>
       </c>
       <c r="AA24" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.7541898968553307</v>
+        <v>4.3564621160751589</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>3.7615740740740741E-2</v>
       </c>
       <c r="AC24" s="8">
         <f>IF(AB24/$AC$2&lt;=1.01,AB24/$AC$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="4"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.91394825646794153</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>3.5624999999999997E-2</v>
+      </c>
+      <c r="AE24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.94912118408880664</v>
+      </c>
+      <c r="AF24" s="4"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D25">
-        <v>1107839506</v>
+        <v>1036925847</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F25" s="3">
-        <v>1.744212962962963E-2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="8">
         <f>IF(F25/$G$2&lt;=1.001,F25/$G$2,0.6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
-        <v>3.9270833333333331E-2</v>
+        <v>3.9178240740740743E-2</v>
       </c>
       <c r="I25" s="8">
         <f>IF(H25/$I$2&lt;=1.001,H25/$I$2,0.6)</f>
-        <v>0.98719813791096878</v>
+        <v>0.9848705266220541</v>
       </c>
       <c r="J25" s="3">
-        <v>3.591435185185185E-2</v>
+        <v>3.5844907407407409E-2</v>
       </c>
       <c r="K25" s="8">
         <f>IF(J25/$K$2&lt;=1.001,J25/$K$2,0.6)</f>
-        <v>0.99903412749517073</v>
+        <v>0.99710238248551208</v>
       </c>
       <c r="L25" s="3">
-        <v>1.9351851851851853E-2</v>
+        <v>0</v>
       </c>
       <c r="M25" s="8">
         <f>IF(L25/$M$2&lt;=1.001,L25/$M$2,0.6)</f>
-        <v>0.85132382892057035</v>
+        <v>0</v>
       </c>
       <c r="N25" s="1">
-        <v>4.2256944444444444E-2</v>
+        <v>3.7858796296296293E-2</v>
       </c>
       <c r="O25" s="8">
         <f>IF(N25/$O$2&lt;=1.001,N25/$O$2,0.6)</f>
-        <v>0.9057305879434383</v>
+        <v>0.81146117588687661</v>
       </c>
       <c r="P25" s="1">
-        <v>3.9687500000000001E-2</v>
+        <v>3.1886574074074074E-2</v>
       </c>
       <c r="Q25" s="8">
         <f>IF(P25/$Q$2&lt;=1.001,P25/$Q$2,0.6)</f>
-        <v>0.91856415751406373</v>
+        <v>0.73801232252879723</v>
       </c>
       <c r="R25" s="4">
         <f>AVERAGE(G25,I25,K25,M25,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.71820903315351</v>
+        <v>2.9428720062693667</v>
       </c>
       <c r="S25" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T25" s="4" t="str" cm="1">
         <f t="array" ref="T25">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U25" s="29">
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="V25" s="29">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="W25" s="29">
-        <v>4.4000000000000004</v>
+        <v>1.8</v>
       </c>
       <c r="X25" s="29">
-        <v>3.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y25" s="29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z25" s="29">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="AA25" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.341462709946053</v>
+        <v>2.0728616018808097</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>4.1157407407407406E-2</v>
       </c>
       <c r="AC25" s="8">
         <f>IF(AB25/$AC$2&lt;=1.01,AB25/$AC$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="4"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>3.7291666666666667E-2</v>
+      </c>
+      <c r="AE25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.99352451433857547</v>
+      </c>
+      <c r="AF25" s="4"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D26">
-        <v>1112389849</v>
+        <v>1107837413</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F26" s="3">
-        <v>4.3043981481481482E-2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="8">
         <f>IF(F26/$G$2&lt;=1.001,F26/$G$2,0.6)</f>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>3.923611111111111E-2</v>
+        <v>3.7743055555555557E-2</v>
       </c>
       <c r="I26" s="8">
         <f>IF(H26/$I$2&lt;=1.001,H26/$I$2,0.6)</f>
-        <v>0.98632528367762573</v>
+        <v>0.94879255164387544</v>
       </c>
       <c r="J26" s="3">
-        <v>3.591435185185185E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="K26" s="8">
         <f>IF(J26/$K$2&lt;=1.001,J26/$K$2,0.6)</f>
-        <v>0.99903412749517073</v>
+        <v>0.99935608499678041</v>
       </c>
       <c r="L26" s="3">
-        <v>2.2731481481481481E-2</v>
+        <v>2.0636574074074075E-2</v>
       </c>
       <c r="M26" s="8">
         <f>IF(L26/$M$2&lt;=1.001,L26/$M$2,0.6)</f>
-        <v>1</v>
+        <v>0.90784114052953158</v>
       </c>
       <c r="N26" s="1">
-        <v>4.659722222222222E-2</v>
+        <v>0</v>
       </c>
       <c r="O26" s="8">
         <f>IF(N26/$O$2&lt;=1.001,N26/$O$2,0.6)</f>
-        <v>0.99875961299925564</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>4.189814814814815E-2</v>
+        <v>3.9016203703703706E-2</v>
       </c>
       <c r="Q26" s="8">
         <f>IF(P26/$Q$2&lt;=1.001,P26/$Q$2,0.6)</f>
-        <v>0.96972944012858298</v>
+        <v>0.90302705598714172</v>
       </c>
       <c r="R26" s="4">
         <f>AVERAGE(G26,I26,K26,M26,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6282070535838633</v>
+        <v>3.1325140276311076</v>
       </c>
       <c r="S26" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T26" s="4" t="str" cm="1">
         <f t="array" ref="T26">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U26" s="29">
+        <v>0</v>
+      </c>
+      <c r="V26" s="29">
+        <v>3.9</v>
+      </c>
+      <c r="W26" s="29">
         <v>5</v>
-      </c>
-      <c r="V26" s="29">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="W26" s="29">
-        <v>4.8</v>
       </c>
       <c r="X26" s="29">
         <v>3.3</v>
@@ -4372,150 +4550,162 @@
         <v>5</v>
       </c>
       <c r="Z26" s="29">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AA26" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.3564621160751589</v>
+        <v>3.977754208289332</v>
       </c>
       <c r="AB26" s="1">
-        <v>3.7615740740740741E-2</v>
+        <v>3.8090277777777778E-2</v>
       </c>
       <c r="AC26" s="8">
         <f>IF(AB26/$AC$2&lt;=1.01,AB26/$AC$2,0.6)</f>
-        <v>0.91394825646794153</v>
-      </c>
-      <c r="AD26" s="4"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.92547806524184484</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>3.7384259259259256E-2</v>
+      </c>
+      <c r="AE26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.99599136601911809</v>
+      </c>
+      <c r="AF26" s="4"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
+        <v>29</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="D27">
-        <v>1058932076</v>
+        <v>1234198199</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F27" s="3">
-        <v>3.6388888888888887E-2</v>
+        <v>1.7337962962962961E-2</v>
       </c>
       <c r="G27" s="8">
         <f>IF(F27/$G$2&lt;=1.001,F27/$G$2,0.6)</f>
-        <v>0.6</v>
+        <v>0.99402786994027859</v>
       </c>
       <c r="H27" s="3">
-        <v>3.9282407407407405E-2</v>
+        <v>3.8796296296296294E-2</v>
       </c>
       <c r="I27" s="8">
         <f>IF(H27/$I$2&lt;=1.001,H27/$I$2,0.6)</f>
-        <v>0.98748908932208301</v>
+        <v>0.9752691300552806</v>
       </c>
       <c r="J27" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>2.2928240740740742E-2</v>
       </c>
       <c r="K27" s="8">
         <f>IF(J27/$K$2&lt;=1.001,J27/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
+        <v>0.63779781068898911</v>
       </c>
       <c r="L27" s="3">
-        <v>2.2395833333333334E-2</v>
+        <v>7.1296296296296299E-3</v>
       </c>
       <c r="M27" s="8">
         <f>IF(L27/$M$2&lt;=1.001,L27/$M$2,0.6)</f>
-        <v>0.98523421588594706</v>
+        <v>0.31364562118126277</v>
       </c>
       <c r="N27" s="1">
-        <v>4.6608796296296294E-2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="8">
         <f>IF(N27/$O$2&lt;=1.001,N27/$O$2,0.6)</f>
-        <v>0.99900769039940451</v>
+        <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="8">
         <f>IF(P27/$Q$2&lt;=1.001,P27/$Q$2,0.6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="4">
         <f>AVERAGE(G27,I27,K27,M27,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6433774609242038</v>
-      </c>
-      <c r="S27" s="13">
-        <v>7</v>
-      </c>
+        <v>2.433950359888176</v>
+      </c>
+      <c r="S27" s="13"/>
       <c r="T27" s="4" t="str" cm="1">
         <f t="array" ref="T27">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+        <v>--</v>
       </c>
       <c r="U27" s="29">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="V27" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="W27" s="29">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="X27" s="29">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.263013238277261</v>
+        <v>0.73018510796645275</v>
       </c>
       <c r="AB27" s="1">
-        <v>3.6574074074074071E-2</v>
+        <v>3.8101851851851852E-2</v>
       </c>
       <c r="AC27" s="8">
         <f>IF(AB27/$AC$2&lt;=1.01,AB27/$AC$2,0.6)</f>
-        <v>0.88863892013498313</v>
-      </c>
-      <c r="AD27" s="4"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.92575928008998876</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="4"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D28">
-        <v>1002886235</v>
+        <v>1005892878</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F28" s="3">
-        <v>1.7395833333333333E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G28" s="8">
         <f>IF(F28/$G$2&lt;=1.001,F28/$G$2,0.6)</f>
-        <v>0.99734571997345711</v>
+        <v>1</v>
       </c>
       <c r="H28" s="3">
-        <v>3.8217592592592595E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I28" s="8">
         <f>IF(H28/$I$2&lt;=1.001,H28/$I$2,0.6)</f>
-        <v>0.9607215594995635</v>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J28" s="3">
         <v>3.5960648148148151E-2</v>
@@ -4525,297 +4715,318 @@
         <v>1.00032195750161</v>
       </c>
       <c r="L28" s="3">
-        <v>2.2662037037037036E-2</v>
+        <v>1.8935185185185187E-2</v>
       </c>
       <c r="M28" s="8">
         <f>IF(L28/$M$2&lt;=1.001,L28/$M$2,0.6)</f>
-        <v>0.9969450101832994</v>
+        <v>0.83299389002036672</v>
       </c>
       <c r="N28" s="1">
-        <v>4.6666666666666669E-2</v>
+        <v>4.5497685185185183E-2</v>
       </c>
       <c r="O28" s="8">
         <f>IF(N28/$O$2&lt;=1.001,N28/$O$2,0.6)</f>
-        <v>1.0002480774001488</v>
+        <v>0.97519225998511527</v>
       </c>
       <c r="P28" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>4.1145833333333333E-2</v>
       </c>
       <c r="Q28" s="8">
         <f>IF(P28/$Q$2&lt;=1.001,P28/$Q$2,0.6)</f>
-        <v>1</v>
+        <v>0.95231717117599779</v>
       </c>
       <c r="R28" s="4">
         <f>AVERAGE(G28,I28,K28,M28,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9629852704650652</v>
+        <v>4.8014151107636938</v>
       </c>
       <c r="S28" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T28" s="4" t="str" cm="1">
         <f t="array" ref="T28">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U28" s="29">
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="V28" s="29">
         <v>4.5</v>
       </c>
       <c r="W28" s="29">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X28" s="29">
         <v>3.3</v>
       </c>
       <c r="Y28" s="29">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Z28" s="29">
         <v>4.5</v>
       </c>
       <c r="AA28" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.5548955811395198</v>
+        <v>4.562424533229108</v>
       </c>
       <c r="AB28" s="1">
-        <v>4.1157407407407406E-2</v>
+        <v>3.9305555555555559E-2</v>
       </c>
       <c r="AC28" s="8">
         <f>IF(AB28/$AC$2&lt;=1.01,AB28/$AC$2,0.6)</f>
-        <v>1</v>
-      </c>
-      <c r="AD28" s="4"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.95500562429696301</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>3.7384259259259256E-2</v>
+      </c>
+      <c r="AE28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.99599136601911809</v>
+      </c>
+      <c r="AF28" s="4"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D29">
-        <v>1113362057</v>
+        <v>1104804719</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="F29" s="3">
-        <v>1.7326388888888888E-2</v>
+        <v>3.4641203703703702E-2</v>
       </c>
       <c r="G29" s="8">
         <f>IF(F29/$G$2&lt;=1.001,F29/$G$2,0.6)</f>
-        <v>0.99336429993364284</v>
+        <v>0.6</v>
       </c>
       <c r="H29" s="3">
-        <v>3.9212962962962963E-2</v>
+        <v>3.9178240740740743E-2</v>
       </c>
       <c r="I29" s="8">
         <f>IF(H29/$I$2&lt;=1.001,H29/$I$2,0.6)</f>
-        <v>0.98574338085539703</v>
+        <v>0.9848705266220541</v>
       </c>
       <c r="J29" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>3.5856481481481482E-2</v>
       </c>
       <c r="K29" s="8">
         <f>IF(J29/$K$2&lt;=1.001,J29/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
+        <v>0.99742433998712177</v>
       </c>
       <c r="L29" s="3">
-        <v>2.2268518518518517E-2</v>
+        <v>1.9652777777777779E-2</v>
       </c>
       <c r="M29" s="8">
         <f>IF(L29/$M$2&lt;=1.001,L29/$M$2,0.6)</f>
-        <v>0.97963340122199594</v>
+        <v>0.86456211812627304</v>
       </c>
       <c r="N29" s="1">
-        <v>4.6527777777777779E-2</v>
+        <v>0</v>
       </c>
       <c r="O29" s="8">
         <f>IF(N29/$O$2&lt;=1.001,N29/$O$2,0.6)</f>
-        <v>0.99727114859836263</v>
+        <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>3.2187500000000001E-2</v>
+        <v>3.9768518518518516E-2</v>
       </c>
       <c r="Q29" s="8">
         <f>IF(P29/$Q$2&lt;=1.001,P29/$Q$2,0.6)</f>
-        <v>0.7449772301098313</v>
+        <v>0.92043932493972669</v>
       </c>
       <c r="R29" s="4">
         <f>AVERAGE(G29,I29,K29,M29,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.7510928485173665</v>
+        <v>3.6394135913959795</v>
       </c>
       <c r="S29" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T29" s="4" t="str" cm="1">
         <f t="array" ref="T29">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U29" s="29">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="V29" s="29">
         <v>4.9000000000000004</v>
       </c>
       <c r="W29" s="29">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X29" s="29">
         <v>3.3</v>
       </c>
       <c r="Y29" s="29">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="Z29" s="29">
         <v>4.5</v>
       </c>
       <c r="AA29" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.4773278545552095</v>
+        <v>4.2698240774187939</v>
       </c>
       <c r="AB29" s="1">
-        <v>3.8055555555555558E-2</v>
+        <v>4.0914351851851855E-2</v>
       </c>
       <c r="AC29" s="8">
         <f>IF(AB29/$AC$2&lt;=1.01,AB29/$AC$2,0.6)</f>
-        <v>0.92463442069741286</v>
-      </c>
-      <c r="AD29" s="4"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.9940944881889765</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>1.6608796296296295E-2</v>
+      </c>
+      <c r="AE29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.44249152019734816</v>
+      </c>
+      <c r="AF29" s="4"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D30">
-        <v>1061688602</v>
+        <v>1005832925</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F30" s="3">
-        <v>1.7303240740740741E-2</v>
+        <v>1.7314814814814814E-2</v>
       </c>
       <c r="G30" s="8">
         <f>IF(F30/$G$2&lt;=1.001,F30/$G$2,0.6)</f>
-        <v>0.99203715992037156</v>
+        <v>0.9927007299270072</v>
       </c>
       <c r="H30" s="3">
-        <v>3.9247685185185184E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I30" s="8">
         <f>IF(H30/$I$2&lt;=1.001,H30/$I$2,0.6)</f>
-        <v>0.98661623508874008</v>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J30" s="3">
-        <v>3.5891203703703703E-2</v>
+        <v>3.5868055555555556E-2</v>
       </c>
       <c r="K30" s="8">
         <f>IF(J30/$K$2&lt;=1.001,J30/$K$2,0.6)</f>
-        <v>0.99839021249195115</v>
+        <v>0.99774629748873156</v>
       </c>
       <c r="L30" s="3">
-        <v>2.162037037037037E-2</v>
+        <v>2.1909722222222223E-2</v>
       </c>
       <c r="M30" s="8">
         <f>IF(L30/$M$2&lt;=1.001,L30/$M$2,0.6)</f>
-        <v>0.95112016293279023</v>
+        <v>0.96384928716904283</v>
       </c>
       <c r="N30" s="1">
-        <v>4.6122685185185183E-2</v>
+        <v>4.6631944444444441E-2</v>
       </c>
       <c r="O30" s="8">
         <f>IF(N30/$O$2&lt;=1.001,N30/$O$2,0.6)</f>
-        <v>0.98858843959315301</v>
+        <v>0.99950384519970215</v>
       </c>
       <c r="P30" s="1">
-        <v>0</v>
+        <v>4.2488425925925923E-2</v>
       </c>
       <c r="Q30" s="8">
         <f>IF(P30/$Q$2&lt;=1.001,P30/$Q$2,0.6)</f>
-        <v>0</v>
+        <v>0.98339137422984191</v>
       </c>
       <c r="R30" s="4">
         <f>AVERAGE(G30,I30,K30,M30,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.0972935083558388</v>
+        <v>4.9483869902063908</v>
       </c>
       <c r="S30" s="13">
-        <v>8</v>
-      </c>
-      <c r="T30" s="4" t="e" cm="1">
+        <v>3</v>
+      </c>
+      <c r="T30" s="4" t="str" cm="1">
         <f t="array" ref="T30">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>#N/A</v>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U30" s="29">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="V30" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W30" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X30" s="29">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Y30" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z30" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA30" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>1.6911880525067515</v>
+        <v>4.9145160970619175</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>3.8379629629629632E-2</v>
       </c>
       <c r="AC30" s="8">
         <f>IF(AB30/$AC$2&lt;=1.01,AB30/$AC$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="4"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.93250843644544434</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>3.3958333333333333E-2</v>
+      </c>
+      <c r="AE30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.90471785383903802</v>
+      </c>
+      <c r="AF30" s="4"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D31">
-        <v>1062276579</v>
+        <v>1006343564</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="F31" s="3">
-        <v>0</v>
+        <v>1.7337962962962961E-2</v>
       </c>
       <c r="G31" s="8">
         <f>IF(F31/$G$2&lt;=1.001,F31/$G$2,0.6)</f>
-        <v>0</v>
+        <v>0.99402786994027859</v>
       </c>
       <c r="H31" s="3">
-        <v>3.9016203703703706E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I31" s="8">
         <f>IF(H31/$I$2&lt;=1.001,H31/$I$2,0.6)</f>
-        <v>0.98079720686645322</v>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J31" s="3">
         <v>3.5960648148148151E-2</v>
@@ -4824,274 +5035,299 @@
         <f>IF(J31/$K$2&lt;=1.001,J31/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
-      <c r="L31" s="3">
-        <v>2.2650462962962963E-2</v>
-      </c>
-      <c r="M31" s="8">
+      <c r="L31" s="9">
+        <v>2.2731481481481481E-2</v>
+      </c>
+      <c r="M31" s="10">
         <f>IF(L31/$M$2&lt;=1.001,L31/$M$2,0.6)</f>
-        <v>0.99643584521384931</v>
+        <v>1</v>
       </c>
       <c r="N31" s="1">
-        <v>0</v>
+        <v>2.9768518518518517E-2</v>
       </c>
       <c r="O31" s="8">
         <f>IF(N31/$O$2&lt;=1.001,N31/$O$2,0.6)</f>
-        <v>0</v>
+        <v>0.63805507318283294</v>
       </c>
       <c r="P31" s="1">
-        <v>7.8240740740740736E-3</v>
+        <v>4.1909722222222223E-2</v>
       </c>
       <c r="Q31" s="8">
         <f>IF(P31/$Q$2&lt;=1.001,P31/$Q$2,0.6)</f>
-        <v>0.18108759710688452</v>
+        <v>0.96999732118939197</v>
       </c>
       <c r="R31" s="4">
         <f>AVERAGE(G31,I31,K31,M31,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.6322021722406648</v>
+        <v>4.6693958967062139</v>
       </c>
       <c r="S31" s="13">
-        <v>8</v>
-      </c>
-      <c r="T31" s="4" t="e" cm="1">
+        <v>3</v>
+      </c>
+      <c r="T31" s="4" t="str" cm="1">
         <f t="array" ref="T31">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>#N/A</v>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U31" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V31" s="29">
-        <v>2.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W31" s="29">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="X31" s="29">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Y31" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z31" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA31" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>1.3916606516721994</v>
+        <v>4.3968187690118636</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>3.8124999999999999E-2</v>
       </c>
       <c r="AC31" s="8">
         <f>IF(AB31/$AC$2&lt;=1.01,AB31/$AC$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="4"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.9263217097862767</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>3.5486111111111114E-2</v>
+      </c>
+      <c r="AE31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.94542090656799271</v>
+      </c>
+      <c r="AF31" s="4"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>89</v>
+        <v>30</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="D32">
-        <v>1193276119</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
+        <v>73265790</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F32" s="3">
-        <v>1.7349537037037038E-2</v>
+        <v>4.3611111111111114E-2</v>
       </c>
       <c r="G32" s="8">
         <f>IF(F32/$G$2&lt;=1.001,F32/$G$2,0.6)</f>
-        <v>0.99469143994691445</v>
+        <v>0.6</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>3.9641203703703706E-2</v>
       </c>
       <c r="I32" s="8">
         <f>IF(H32/$I$2&lt;=1.001,H32/$I$2,0.6)</f>
-        <v>0</v>
+        <v>0.99650858306662782</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>3.5879629629629629E-2</v>
       </c>
       <c r="K32" s="8">
         <f>IF(J32/$K$2&lt;=1.001,J32/$K$2,0.6)</f>
-        <v>0</v>
+        <v>0.99806825499034135</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>2.1238425925925924E-2</v>
       </c>
       <c r="M32" s="8">
         <f>IF(L32/$M$2&lt;=1.001,L32/$M$2,0.6)</f>
-        <v>0</v>
+        <v>0.93431771894093685</v>
       </c>
       <c r="N32" s="1">
-        <v>1.5972222222222223E-3</v>
+        <v>4.659722222222222E-2</v>
       </c>
       <c r="O32" s="8">
         <f>IF(N32/$O$2&lt;=1.001,N32/$O$2,0.6)</f>
-        <v>3.4234681220540811E-2</v>
+        <v>0.99875961299925564</v>
       </c>
       <c r="P32" s="1">
-        <v>0</v>
+        <v>4.1886574074074076E-2</v>
       </c>
       <c r="Q32" s="8">
         <f>IF(P32/$Q$2&lt;=1.001,P32/$Q$2,0.6)</f>
-        <v>0</v>
+        <v>0.96946155906777398</v>
       </c>
       <c r="R32" s="4">
         <f>AVERAGE(G32,I32,K32,M32,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>0.85743843430621258</v>
-      </c>
-      <c r="S32" s="13"/>
+        <v>4.5809297742207793</v>
+      </c>
+      <c r="S32" s="13">
+        <v>3</v>
+      </c>
       <c r="T32" s="4" t="str" cm="1">
         <f t="array" ref="T32">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U32" s="29">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V32" s="29">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="W32" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="X32" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y32" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z32" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA32" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0.25723153029186374</v>
+        <v>4.5802789322662338</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>3.8425925925925926E-2</v>
       </c>
       <c r="AC32" s="8">
         <f>IF(AB32/$AC$2&lt;=1.01,AB32/$AC$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="4"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.93363329583802024</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>3.7256944444444447E-2</v>
+      </c>
+      <c r="AE32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.99259944495837205</v>
+      </c>
+      <c r="AF32" s="4"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>92</v>
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
       </c>
       <c r="D33">
-        <v>1004189893</v>
+        <v>1004217163</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>4.1458333333333333E-2</v>
       </c>
       <c r="G33" s="8">
         <f>IF(F33/$G$2&lt;=1.001,F33/$G$2,0.6)</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I33" s="8">
         <f>IF(H33/$I$2&lt;=1.001,H33/$I$2,0.6)</f>
-        <v>0</v>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K33" s="8">
         <f>IF(J33/$K$2&lt;=1.001,J33/$K$2,0.6)</f>
-        <v>0</v>
+        <v>1.00032195750161</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>2.0798611111111111E-2</v>
       </c>
       <c r="M33" s="8">
         <f>IF(L33/$M$2&lt;=1.001,L33/$M$2,0.6)</f>
-        <v>0</v>
+        <v>0.91496945010183306</v>
       </c>
       <c r="N33" s="1">
-        <v>0</v>
+        <v>4.2013888888888892E-2</v>
       </c>
       <c r="O33" s="8">
         <f>IF(N33/$O$2&lt;=1.001,N33/$O$2,0.6)</f>
-        <v>0</v>
+        <v>0.90052096254031255</v>
       </c>
       <c r="P33" s="1">
-        <v>0</v>
+        <v>3.8773148148148147E-2</v>
       </c>
       <c r="Q33" s="8">
         <f>IF(P33/$Q$2&lt;=1.001,P33/$Q$2,0.6)</f>
-        <v>0</v>
+        <v>0.89740155371015262</v>
       </c>
       <c r="R33" s="4">
         <f>AVERAGE(G33,I33,K33,M33,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="13"/>
+        <v>4.4284056484060423</v>
+      </c>
+      <c r="S33" s="13">
+        <v>4</v>
+      </c>
       <c r="T33" s="4" t="str" cm="1">
         <f t="array" ref="T33">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U33" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V33" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W33" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X33" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y33" s="29">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="Z33" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA33" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0</v>
+        <v>4.6605216945218126</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>4.1076388888888891E-2</v>
       </c>
       <c r="AC33" s="8">
         <f>IF(AB33/$AC$2&lt;=1.01,AB33/$AC$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="4"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+        <v>0.99803149606299224</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>3.5995370370370372E-2</v>
+      </c>
+      <c r="AE33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.95898859081097765</v>
+      </c>
+      <c r="AF33" s="4"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>18</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D34">
         <v>1094883894</v>
@@ -5179,96 +5415,105 @@
         <f>IF(AB34/$AC$2&lt;=1.01,AB34/$AC$2,0.6)</f>
         <v>0</v>
       </c>
-      <c r="AD34" s="4"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD34" s="1">
+        <v>3.7384259259259256E-2</v>
+      </c>
+      <c r="AE34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.99599136601911809</v>
+      </c>
+      <c r="AF34" s="4"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>23</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>109</v>
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
       </c>
       <c r="D35">
-        <v>1143992171</v>
+        <v>1076904274</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F35" s="3">
-        <v>3.4791666666666665E-2</v>
+        <v>1.7430555555555557E-2</v>
       </c>
       <c r="G35" s="8">
         <f>IF(F35/$G$2&lt;=1.001,F35/$G$2,0.6)</f>
-        <v>0.6</v>
+        <v>0.99933642999336436</v>
       </c>
       <c r="H35" s="3">
-        <v>7.1990740740740739E-3</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I35" s="8">
         <f>IF(H35/$I$2&lt;=1.001,H35/$I$2,0.6)</f>
-        <v>0.1809717777131219</v>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J35" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>3.5451388888888886E-2</v>
       </c>
       <c r="K35" s="8">
         <f>IF(J35/$K$2&lt;=1.001,J35/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
+        <v>0.98615582743077912</v>
       </c>
       <c r="L35" s="3">
-        <v>1.9398148148148147E-2</v>
+        <v>1.4166666666666666E-2</v>
       </c>
       <c r="M35" s="8">
         <f>IF(L35/$M$2&lt;=1.001,L35/$M$2,0.6)</f>
-        <v>0.85336048879837068</v>
+        <v>0.62321792260692466</v>
       </c>
       <c r="N35" s="1">
-        <v>4.5810185185185183E-2</v>
+        <v>4.6666666666666669E-2</v>
       </c>
       <c r="O35" s="8">
         <f>IF(N35/$O$2&lt;=1.001,N35/$O$2,0.6)</f>
-        <v>0.98189034978913414</v>
+        <v>1.0002480774001488</v>
       </c>
       <c r="P35" s="1">
-        <v>0</v>
+        <v>4.3159722222222224E-2</v>
       </c>
       <c r="Q35" s="8">
         <f>IF(P35/$Q$2&lt;=1.001,P35/$Q$2,0.6)</f>
-        <v>0</v>
+        <v>0.99892847575676402</v>
       </c>
       <c r="R35" s="4">
         <f>AVERAGE(G35,I35,K35,M35,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.0137871448351969</v>
-      </c>
-      <c r="S35" s="13"/>
+        <v>4.6739663228511033</v>
+      </c>
+      <c r="S35" s="13">
+        <v>6</v>
+      </c>
       <c r="T35" s="4" t="str" cm="1">
         <f t="array" ref="T35">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
+        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U35" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="V35" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X35" s="29">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Y35" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="29">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AA35" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0.90413614345055904</v>
+        <v>3.7541898968553307</v>
       </c>
       <c r="AB35" s="1">
         <v>0</v>
@@ -5277,119 +5522,135 @@
         <f>IF(AB35/$AC$2&lt;=1.01,AB35/$AC$2,0.6)</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="4"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="4"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>29</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>114</v>
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
       </c>
       <c r="D36">
-        <v>1234198199</v>
+        <v>1002886235</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F36" s="3">
-        <v>1.7337962962962961E-2</v>
+        <v>1.7395833333333333E-2</v>
       </c>
       <c r="G36" s="8">
         <f>IF(F36/$G$2&lt;=1.001,F36/$G$2,0.6)</f>
-        <v>0.99402786994027859</v>
+        <v>0.99734571997345711</v>
       </c>
       <c r="H36" s="3">
-        <v>3.8796296296296294E-2</v>
+        <v>3.8217592592592595E-2</v>
       </c>
       <c r="I36" s="8">
         <f>IF(H36/$I$2&lt;=1.001,H36/$I$2,0.6)</f>
-        <v>0.9752691300552806</v>
+        <v>0.9607215594995635</v>
       </c>
       <c r="J36" s="3">
-        <v>2.2928240740740742E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K36" s="8">
         <f>IF(J36/$K$2&lt;=1.001,J36/$K$2,0.6)</f>
-        <v>0.63779781068898911</v>
+        <v>1.00032195750161</v>
       </c>
       <c r="L36" s="3">
-        <v>7.1296296296296299E-3</v>
+        <v>2.2662037037037036E-2</v>
       </c>
       <c r="M36" s="8">
         <f>IF(L36/$M$2&lt;=1.001,L36/$M$2,0.6)</f>
-        <v>0.31364562118126277</v>
+        <v>0.9969450101832994</v>
       </c>
       <c r="N36" s="1">
-        <v>0</v>
+        <v>4.6666666666666669E-2</v>
       </c>
       <c r="O36" s="8">
         <f>IF(N36/$O$2&lt;=1.001,N36/$O$2,0.6)</f>
-        <v>0</v>
+        <v>1.0002480774001488</v>
       </c>
       <c r="P36" s="1">
-        <v>0</v>
+        <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q36" s="8">
         <f>IF(P36/$Q$2&lt;=1.001,P36/$Q$2,0.6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="4">
         <f>AVERAGE(G36,I36,K36,M36,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.433950359888176</v>
-      </c>
-      <c r="S36" s="13"/>
+        <v>4.9629852704650652</v>
+      </c>
+      <c r="S36" s="13">
+        <v>7</v>
+      </c>
       <c r="T36" s="4" t="str" cm="1">
         <f t="array" ref="T36">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U36" s="29">
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="V36" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="W36" s="29">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="X36" s="29">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Y36" s="29">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Z36" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA36" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0.73018510796645275</v>
+        <v>4.5548955811395198</v>
       </c>
       <c r="AB36" s="1">
-        <v>3.8101851851851852E-2</v>
+        <v>4.1157407407407406E-2</v>
       </c>
       <c r="AC36" s="8">
         <f>IF(AB36/$AC$2&lt;=1.01,AB36/$AC$2,0.6)</f>
-        <v>0.92575928008998876</v>
-      </c>
-      <c r="AD36" s="4"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="4"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="Z39" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1" xr:uid="{6ABD49C4-C1FA-45A2-AD96-9D7E301F893E}"/>
+    <hyperlink ref="E32" r:id="rId1" xr:uid="{6ABD49C4-C1FA-45A2-AD96-9D7E301F893E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5407,44 +5668,44 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="75.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5457,10 +5718,10 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B34"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -5469,10 +5730,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5480,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>47</v>
@@ -5491,10 +5752,10 @@
         <v>66</v>
       </c>
       <c r="B3" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>3.7314814814814815E-2</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>27</v>
@@ -5505,24 +5766,21 @@
         <v>67</v>
       </c>
       <c r="B4" s="1">
-        <v>3.8391203703703705E-2</v>
+        <v>2.2129629629629631E-2</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
       <c r="B5" s="1">
-        <v>3.9861111111111111E-2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>43</v>
@@ -5533,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>7</v>
@@ -5544,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>39</v>
@@ -5552,13 +5810,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1">
-        <v>4.1863425925925929E-2</v>
+        <v>3.7303240740740741E-2</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>21</v>
@@ -5566,27 +5824,24 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1">
-        <v>4.1805555555555554E-2</v>
+        <v>3.2986111111111112E-2</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>122</v>
-      </c>
       <c r="B10" s="1">
-        <v>4.3182870370370371E-2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>31</v>
@@ -5594,13 +5849,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B11" s="1">
-        <v>3.9386574074074074E-2</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>25</v>
@@ -5608,13 +5863,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B12" s="1">
-        <v>3.3252314814814818E-2</v>
+        <v>2.9525462962962962E-2</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>51</v>
@@ -5622,13 +5877,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1">
-        <v>3.9687500000000001E-2</v>
+        <v>3.712962962962963E-2</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>11</v>
@@ -5636,13 +5891,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B14" s="1">
-        <v>4.2858796296296298E-2</v>
+        <v>3.6712962962962961E-2</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>17</v>
@@ -5650,13 +5905,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B15" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>37</v>
@@ -5664,13 +5919,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>15</v>
@@ -5678,13 +5933,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>49</v>
@@ -5695,35 +5950,32 @@
         <v>0</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>192</v>
-      </c>
       <c r="B19" s="1">
-        <v>7.8240740740740736E-3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>3.6747685185185182E-2</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>35</v>
@@ -5731,13 +5983,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1">
-        <v>3.2187500000000001E-2</v>
+        <v>1.3356481481481481E-2</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>5</v>
@@ -5745,13 +5997,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="B22" s="1">
-        <v>4.189814814814815E-2</v>
+        <v>3.5624999999999997E-2</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>53</v>
@@ -5759,30 +6011,30 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B23" s="1">
-        <v>3.1886574074074074E-2</v>
+        <v>3.7291666666666667E-2</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B24" s="1">
-        <v>3.9016203703703706E-2</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -5790,41 +6042,47 @@
         <v>0</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="I25" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>3.7534722222222219E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1">
-        <v>4.1145833333333333E-2</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>13</v>
       </c>
+      <c r="H26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3.7372685185185182E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1">
-        <v>3.9768518518518516E-2</v>
+        <v>1.6608796296296295E-2</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>45</v>
@@ -5833,13 +6091,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1">
-        <v>4.2488425925925923E-2</v>
+        <v>3.3958333333333333E-2</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>23</v>
@@ -5847,13 +6105,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B29" s="1">
-        <v>4.1909722222222223E-2</v>
+        <v>3.5486111111111114E-2</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>19</v>
@@ -5861,13 +6119,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B30" s="1">
-        <v>4.1886574074074076E-2</v>
+        <v>3.7256944444444447E-2</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>57</v>
@@ -5875,55 +6133,52 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1">
-        <v>3.8773148148148147E-2</v>
+        <v>3.5995370370370372E-2</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>82</v>
-      </c>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
-        <v>4.3159722222222224E-2</v>
+        <v>0</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>83</v>
-      </c>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>0</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5945,7 +6200,7 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
@@ -5959,18 +6214,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -5979,12 +6234,12 @@
         <v>8</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -5993,12 +6248,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -6007,12 +6262,12 @@
         <v>2</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
@@ -6021,12 +6276,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -6035,12 +6290,12 @@
         <v>2</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -6049,12 +6304,12 @@
         <v>3</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -6063,12 +6318,12 @@
         <v>4</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -6077,12 +6332,12 @@
         <v>5</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
@@ -6091,12 +6346,12 @@
         <v>4</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -6105,12 +6360,12 @@
         <v>6</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -6119,12 +6374,12 @@
         <v>5</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -6133,12 +6388,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -6147,12 +6402,12 @@
         <v>4</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
@@ -6161,26 +6416,26 @@
         <v>5</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D16" s="20">
         <v>8</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -6189,12 +6444,12 @@
         <v>7</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -6203,12 +6458,12 @@
         <v>7</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
         <v>53</v>
@@ -6217,40 +6472,40 @@
         <v>6</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D20" s="19">
         <v>1</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D21" s="19">
         <v>2</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -6259,12 +6514,12 @@
         <v>5</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
@@ -6273,12 +6528,12 @@
         <v>4</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -6287,12 +6542,12 @@
         <v>3</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
@@ -6301,12 +6556,12 @@
         <v>3</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
         <v>57</v>
@@ -6315,12 +6570,12 @@
         <v>3</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
@@ -6329,12 +6584,12 @@
         <v>4</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -6343,21 +6598,21 @@
         <v>6</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D29" s="20">
         <v>7</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -6366,7 +6621,7 @@
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="24"/>
@@ -6377,7 +6632,7 @@
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="14"/>
@@ -6388,7 +6643,7 @@
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D32" s="19"/>
     </row>
@@ -6398,17 +6653,17 @@
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D34" s="19"/>
     </row>

--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1B5EE6-1CE4-4BFD-BBBD-3A18B292B808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5F4ACB-2B44-479A-9DC3-1A8FDA65649D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="209">
   <si>
     <t>Num</t>
   </si>
@@ -273,9 +273,6 @@
   </si>
   <si>
     <t>FERNANDO ENRIQUE CORREA SEGURA</t>
-  </si>
-  <si>
-    <t>ISABELLA ROMERO PENA</t>
   </si>
   <si>
     <t>JUAN MANUEL CASTILLO SALAZAR</t>
@@ -668,10 +665,34 @@
     <t>T.Conexión8</t>
   </si>
   <si>
-    <t>Maria Ruiz</t>
-  </si>
-  <si>
-    <t>Oscar Campo</t>
+    <t xml:space="preserve">Semana 8: </t>
+  </si>
+  <si>
+    <t>%Conexión9</t>
+  </si>
+  <si>
+    <t>ALEJANDRA MUÑOZ BECOCHE</t>
+  </si>
+  <si>
+    <t>ANDRES FELIPE CALVO ARCE</t>
+  </si>
+  <si>
+    <t>HARRISON GARCIA GARCIA</t>
+  </si>
+  <si>
+    <t>MARIA GRACIELA RUIZ LEDESMA</t>
+  </si>
+  <si>
+    <t>MAYLIN SANCHEZ SOLANO</t>
+  </si>
+  <si>
+    <t>SANTIAGO GUERRA CALVACHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana 9: </t>
+  </si>
+  <si>
+    <t>%Conexión92</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1387,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="32">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1377,6 +1398,14 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1498,64 +1527,68 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:AF36" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A3:AF36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AF36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:AH36" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A3:AH36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AH36">
     <sortCondition ref="C3:C36"/>
   </sortState>
-  <tableColumns count="32">
+  <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{2951ACD3-7E7C-4B15-8969-BBEC77220F09}" name="Num"/>
     <tableColumn id="2" xr3:uid="{41C291F5-DA77-4B55-A49C-CDE28AB05F1C}" name="Apellidos"/>
     <tableColumn id="3" xr3:uid="{4EF9A0E0-8B64-4D77-BF58-1466EBFC70F8}" name="Nombres"/>
-    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="29"/>
     <tableColumn id="5" xr3:uid="{E5E637F3-98DE-4C48-8975-E4FF30179C84}" name="email"/>
-    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="25">
+    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="27">
       <calculatedColumnFormula>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión2" dataDxfId="23">
+    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión2" dataDxfId="25">
       <calculatedColumnFormula>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión3" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión3" dataDxfId="21">
+    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión3" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión3" dataDxfId="23">
       <calculatedColumnFormula>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión4" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión4" dataDxfId="19">
+    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión4" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión4" dataDxfId="21">
       <calculatedColumnFormula>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión5" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión5" dataDxfId="17">
+    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión5" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión5" dataDxfId="19">
       <calculatedColumnFormula>IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión6" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión6" dataDxfId="15">
+    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión6" dataDxfId="18"/>
+    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión6" dataDxfId="17">
       <calculatedColumnFormula>IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{5430F0E6-F861-44B2-B1CA-6E2A24842801}" name="Asistencia" dataDxfId="14">
+    <tableColumn id="21" xr3:uid="{5430F0E6-F861-44B2-B1CA-6E2A24842801}" name="Asistencia" dataDxfId="16">
       <calculatedColumnFormula>AVERAGE(G4,I4,K4,M4,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{5E18873E-0421-4811-A7ED-EFE7A5B09CB1}" name="Grupo" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Gesto Asignado" dataDxfId="12">
+    <tableColumn id="22" xr3:uid="{5E18873E-0421-4811-A7ED-EFE7A5B09CB1}" name="Grupo" dataDxfId="15"/>
+    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Gesto Asignado" dataDxfId="14">
       <calculatedColumnFormula array="1">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{9680D2F4-FF61-42C8-B8B8-A6D565F1061F}" name="Conceptos fundamentales (Semana 1) " dataDxfId="11"/>
-    <tableColumn id="29" xr3:uid="{2C8549F9-6C7C-4C18-8BD8-913F1238E3A1}" name="Operaciones sobre piezas (Semana 2) " dataDxfId="10"/>
-    <tableColumn id="28" xr3:uid="{01B7F4FF-718E-4142-B28F-3C5C6E213A9D}" name="Operaciones básicas para Modelado de Superficies _x000a_(Semana 3) " dataDxfId="9"/>
-    <tableColumn id="27" xr3:uid="{FB3D7617-43A2-4406-8A1B-342CC431D360}" name="Modelado avanzado y reparación de Superficies _x000a_(Semana 4) " dataDxfId="8"/>
-    <tableColumn id="26" xr3:uid="{15CC947B-1D11-40C4-BDF3-E97BFC12F776}" name="Modelado a partir de datos de scanner _x000a_(Semana 5) " dataDxfId="7"/>
-    <tableColumn id="25" xr3:uid="{7ECFE038-AA59-4517-90E9-2B3566EA5DBF}" name="Escaneo de partes anatómicas (Semana 6) " dataDxfId="6"/>
-    <tableColumn id="24" xr3:uid="{D2AC9EBA-9E21-4D91-B98D-BEC9F52C6380}" name="Nota 1er Corte" dataDxfId="5">
+    <tableColumn id="30" xr3:uid="{9680D2F4-FF61-42C8-B8B8-A6D565F1061F}" name="Conceptos fundamentales (Semana 1) " dataDxfId="13"/>
+    <tableColumn id="29" xr3:uid="{2C8549F9-6C7C-4C18-8BD8-913F1238E3A1}" name="Operaciones sobre piezas (Semana 2) " dataDxfId="12"/>
+    <tableColumn id="28" xr3:uid="{01B7F4FF-718E-4142-B28F-3C5C6E213A9D}" name="Operaciones básicas para Modelado de Superficies _x000a_(Semana 3) " dataDxfId="11"/>
+    <tableColumn id="27" xr3:uid="{FB3D7617-43A2-4406-8A1B-342CC431D360}" name="Modelado avanzado y reparación de Superficies _x000a_(Semana 4) " dataDxfId="10"/>
+    <tableColumn id="26" xr3:uid="{15CC947B-1D11-40C4-BDF3-E97BFC12F776}" name="Modelado a partir de datos de scanner _x000a_(Semana 5) " dataDxfId="9"/>
+    <tableColumn id="25" xr3:uid="{7ECFE038-AA59-4517-90E9-2B3566EA5DBF}" name="Escaneo de partes anatómicas (Semana 6) " dataDxfId="8"/>
+    <tableColumn id="24" xr3:uid="{D2AC9EBA-9E21-4D91-B98D-BEC9F52C6380}" name="Nota 1er Corte" dataDxfId="7">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{85803527-97A7-4D57-A5D2-AF49B49DFBB6}" name="T.Conexión7" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{3C385566-1188-4AA7-B618-44B1F28F2C3E}" name="%Conexión7" dataDxfId="3">
+    <tableColumn id="23" xr3:uid="{85803527-97A7-4D57-A5D2-AF49B49DFBB6}" name="T.Conexión7" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{3C385566-1188-4AA7-B618-44B1F28F2C3E}" name="%Conexión7" dataDxfId="5">
       <calculatedColumnFormula>IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{DA39C125-36F8-4764-B8CE-ED2AA2E45580}" name="T.Conexión8" dataDxfId="1"/>
-    <tableColumn id="31" xr3:uid="{16616376-8A06-4C29-A128-6431F97D4DD9}" name="%Conexión8" dataDxfId="0">
+    <tableColumn id="32" xr3:uid="{DA39C125-36F8-4764-B8CE-ED2AA2E45580}" name="T.Conexión8" dataDxfId="4"/>
+    <tableColumn id="31" xr3:uid="{16616376-8A06-4C29-A128-6431F97D4DD9}" name="%Conexión8" dataDxfId="3">
       <calculatedColumnFormula>IF(AD4/$AE$2&lt;=1.01,AD4/$AE$2,0.6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="34" xr3:uid="{C72915B1-C70C-4096-837F-1AC0F6176851}" name="%Conexión9" dataDxfId="1"/>
+    <tableColumn id="33" xr3:uid="{64BD73A0-6AB2-41EA-80B2-E94CA28F1896}" name="%Conexión92" dataDxfId="0">
+      <calculatedColumnFormula>IF(AF4/$AG$2&lt;=1.01,AF4/$AG$2,0.6)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="DICOM craneal" dataDxfId="2"/>
   </tableColumns>
@@ -1880,10 +1913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD2CE0-6169-477F-B8E1-2987D9E7C726}">
-  <dimension ref="A1:AF39"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AG29" sqref="AG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,43 +1938,43 @@
     <col min="25" max="25" width="21.28515625" style="27" customWidth="1"/>
     <col min="26" max="26" width="15.85546875" style="27" customWidth="1"/>
     <col min="27" max="27" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="16.85546875" style="2" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" customWidth="1"/>
+    <col min="28" max="33" width="16.85546875" style="2" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="F1" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G1" s="6">
         <v>45867</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I1" s="6">
         <v>45874</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K1" s="6">
         <v>45881</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M1" s="6">
         <v>45888</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O1" s="6">
         <v>45895</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q1" s="6">
         <v>45902</v>
@@ -1949,54 +1982,60 @@
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="AA1" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AC1" s="6">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AE1" s="6">
-        <v>45902</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+        <v>45916</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG1" s="6">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="F2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="7">
         <v>1.744212962962963E-2</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I2" s="7">
         <v>3.9780092592592596E-2</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K2" s="7">
         <v>3.5949074074074071E-2</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M2" s="7">
         <v>2.2731481481481481E-2</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O2" s="1">
         <v>4.6655092592592595E-2</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q2" s="1">
         <v>4.3206018518518519E-2</v>
@@ -2004,22 +2043,28 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="AA2" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AC2" s="1">
         <v>4.1157407407407406E-2</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AE2" s="1">
         <v>3.7534722222222219E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="AF2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>3.7534722222222219E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
@@ -2036,88 +2081,94 @@
         <v>65</v>
       </c>
       <c r="F3" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="I3" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="J3" s="31" t="s">
+      <c r="L3" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="K3" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="31" t="s">
+      <c r="N3" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="O3" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="N3" s="31" t="s">
+      <c r="P3" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="O3" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="P3" s="31" t="s">
+      <c r="R3" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="T3" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="U3" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="X3" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y3" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z3" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA3" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB3" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC3" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="Q3" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="T3" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="U3" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="V3" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="W3" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="X3" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y3" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z3" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA3" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB3" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC3" s="32" t="s">
-        <v>128</v>
-      </c>
       <c r="AD3" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AE3" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF3" s="32" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="AG3" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH3" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -2125,7 +2176,7 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4">
         <v>1061688602</v>
@@ -2137,42 +2188,42 @@
         <v>1.7303240740740741E-2</v>
       </c>
       <c r="G4" s="8">
-        <f>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
+        <f t="shared" ref="G4:G36" si="0">IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
         <v>0.99203715992037156</v>
       </c>
       <c r="H4" s="3">
         <v>3.9247685185185184E-2</v>
       </c>
       <c r="I4" s="8">
-        <f>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
+        <f t="shared" ref="I4:I36" si="1">IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
         <v>0.98661623508874008</v>
       </c>
       <c r="J4" s="3">
         <v>3.5891203703703703E-2</v>
       </c>
       <c r="K4" s="8">
-        <f>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
+        <f t="shared" ref="K4:K36" si="2">IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
         <v>0.99839021249195115</v>
       </c>
       <c r="L4" s="3">
         <v>2.162037037037037E-2</v>
       </c>
       <c r="M4" s="8">
-        <f>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
+        <f t="shared" ref="M4:M36" si="3">IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
         <v>0.95112016293279023</v>
       </c>
       <c r="N4" s="1">
         <v>4.6122685185185183E-2</v>
       </c>
       <c r="O4" s="8">
-        <f>IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</f>
+        <f t="shared" ref="O4:O36" si="4">IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</f>
         <v>0.98858843959315301</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
       </c>
       <c r="Q4" s="8">
-        <f>IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</f>
+        <f t="shared" ref="Q4:Q36" si="5">IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="R4" s="4">
@@ -2212,19 +2263,25 @@
         <v>0</v>
       </c>
       <c r="AC4" s="8">
-        <f>IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</f>
+        <f t="shared" ref="AC4:AC36" si="6">IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="AD4" s="1">
         <v>0</v>
       </c>
       <c r="AE4" s="8">
-        <f t="shared" ref="AE4:AE36" si="0">IF(AD4/$AE$2&lt;=1.01,AD4/$AE$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="4"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AE4:AG36" si="7">IF(AD4/$AE$2&lt;=1.01,AD4/$AE$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>3.8368055555555558E-2</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>17</v>
       </c>
@@ -2232,7 +2289,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5">
         <v>1110286885</v>
@@ -2244,42 +2301,42 @@
         <v>1.7349537037037038E-2</v>
       </c>
       <c r="G5" s="8">
-        <f>IF(F5/$G$2&lt;=1.001,F5/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99469143994691445</v>
       </c>
       <c r="H5" s="3">
         <v>3.9293981481481478E-2</v>
       </c>
       <c r="I5" s="8">
-        <f>IF(H5/$I$2&lt;=1.001,H5/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98778004073319736</v>
       </c>
       <c r="J5" s="3">
         <v>3.5925925925925924E-2</v>
       </c>
       <c r="K5" s="8">
-        <f>IF(J5/$K$2&lt;=1.001,J5/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99935608499678041</v>
       </c>
       <c r="L5" s="3">
         <v>2.2129629629629631E-2</v>
       </c>
       <c r="M5" s="8">
-        <f>IF(L5/$M$2&lt;=1.001,L5/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.97352342158859484</v>
       </c>
       <c r="N5" s="1">
         <v>4.5590277777777778E-2</v>
       </c>
       <c r="O5" s="8">
-        <f>IF(N5/$O$2&lt;=1.001,N5/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.97717687918630614</v>
       </c>
       <c r="P5" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q5" s="8">
-        <f>IF(P5/$Q$2&lt;=1.001,P5/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R5" s="4">
@@ -2319,19 +2376,25 @@
         <v>4.1203703703703701E-2</v>
       </c>
       <c r="AC5" s="8">
-        <f>IF(AB5/$AC$2&lt;=1.01,AB5/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>1.0011248593925759</v>
       </c>
       <c r="AD5" s="1">
         <v>3.7314814814814815E-2</v>
       </c>
       <c r="AE5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.99414122725871112</v>
       </c>
-      <c r="AF5" s="4"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF5" s="1">
+        <v>3.8368055555555558E-2</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
@@ -2339,7 +2402,7 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6">
         <v>1112388246</v>
@@ -2351,42 +2414,42 @@
         <v>1.744212962962963E-2</v>
       </c>
       <c r="G6" s="8">
-        <f>IF(F6/$G$2&lt;=1.001,F6/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H6" s="3">
         <v>3.8506944444444448E-2</v>
       </c>
       <c r="I6" s="8">
-        <f>IF(H6/$I$2&lt;=1.001,H6/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.96799534477742222</v>
       </c>
       <c r="J6" s="3">
         <v>1.0486111111111111E-2</v>
       </c>
       <c r="K6" s="8">
-        <f>IF(J6/$K$2&lt;=1.001,J6/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.29169349645846748</v>
       </c>
       <c r="L6" s="3">
         <v>2.2592592592592591E-2</v>
       </c>
       <c r="M6" s="8">
-        <f>IF(L6/$M$2&lt;=1.001,L6/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.99389002036659879</v>
       </c>
       <c r="N6" s="1">
         <v>3.7476851851851851E-2</v>
       </c>
       <c r="O6" s="8">
-        <f>IF(N6/$O$2&lt;=1.001,N6/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.80327462168196473</v>
       </c>
       <c r="P6" s="1">
         <v>3.8391203703703705E-2</v>
       </c>
       <c r="Q6" s="8">
-        <f>IF(P6/$Q$2&lt;=1.001,P6/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.8885614787034557</v>
       </c>
       <c r="R6" s="4">
@@ -2426,19 +2489,26 @@
         <v>3.2685185185185185E-2</v>
       </c>
       <c r="AC6" s="8">
-        <f>IF(AB6/$AC$2&lt;=1.01,AB6/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.79415073115860524</v>
       </c>
       <c r="AD6" s="1">
         <v>2.2129629629629631E-2</v>
       </c>
       <c r="AE6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.58957755164970715</v>
       </c>
-      <c r="AF6" s="4"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF6" s="1">
+        <v>1.8831018518518518E-2</v>
+      </c>
+      <c r="AG6" s="8">
+        <f t="shared" ref="AG4:AG36" si="8">IF(AF6/$AG$2&lt;=1.01,AF6/$AG$2,0.6)</f>
+        <v>0.50169596053037313</v>
+      </c>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2446,7 +2516,7 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7">
         <v>1109542109</v>
@@ -2458,42 +2528,42 @@
         <v>1.6481481481481482E-2</v>
       </c>
       <c r="G7" s="8">
-        <f>IF(F7/$G$2&lt;=1.001,F7/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.94492368944923688</v>
       </c>
       <c r="H7" s="3">
         <v>3.8530092592592595E-2</v>
       </c>
       <c r="I7" s="8">
-        <f>IF(H7/$I$2&lt;=1.001,H7/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.9685772475996508</v>
       </c>
       <c r="J7" s="3">
         <v>3.5821759259259262E-2</v>
       </c>
       <c r="K7" s="8">
-        <f>IF(J7/$K$2&lt;=1.001,J7/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.9964584674822925</v>
       </c>
       <c r="L7" s="3">
         <v>1.0648148148148149E-3</v>
       </c>
       <c r="M7" s="8">
-        <f>IF(L7/$M$2&lt;=1.001,L7/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>4.684317718940937E-2</v>
       </c>
       <c r="N7" s="1">
         <v>4.4270833333333336E-2</v>
       </c>
       <c r="O7" s="8">
-        <f>IF(N7/$O$2&lt;=1.001,N7/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.94889605556933765</v>
       </c>
       <c r="P7" s="1">
         <v>3.9861111111111111E-2</v>
       </c>
       <c r="Q7" s="8">
-        <f>IF(P7/$Q$2&lt;=1.001,P7/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.92258237342619875</v>
       </c>
       <c r="R7" s="4">
@@ -2533,19 +2603,26 @@
         <v>3.8101851851851852E-2</v>
       </c>
       <c r="AC7" s="8">
-        <f>IF(AB7/$AC$2&lt;=1.01,AB7/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.92575928008998876</v>
       </c>
       <c r="AD7" s="1">
         <v>0</v>
       </c>
       <c r="AE7" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="4"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>3.7245370370370373E-2</v>
+      </c>
+      <c r="AG7" s="8">
+        <f t="shared" si="8"/>
+        <v>0.99229108849830416</v>
+      </c>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2553,7 +2630,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <v>1193276119</v>
@@ -2565,42 +2642,42 @@
         <v>1.7349537037037038E-2</v>
       </c>
       <c r="G8" s="8">
-        <f>IF(F8/$G$2&lt;=1.001,F8/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99469143994691445</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <f>IF(H8/$I$2&lt;=1.001,H8/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="8">
-        <f>IF(J8/$K$2&lt;=1.001,J8/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="8">
-        <f>IF(L8/$M$2&lt;=1.001,L8/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N8" s="1">
         <v>1.5972222222222223E-3</v>
       </c>
       <c r="O8" s="8">
-        <f>IF(N8/$O$2&lt;=1.001,N8/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>3.4234681220540811E-2</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
       </c>
       <c r="Q8" s="8">
-        <f>IF(P8/$Q$2&lt;=1.001,P8/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R8" s="4">
@@ -2638,19 +2715,26 @@
         <v>0</v>
       </c>
       <c r="AC8" s="8">
-        <f>IF(AB8/$AC$2&lt;=1.01,AB8/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD8" s="1">
         <v>0</v>
       </c>
       <c r="AE8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>23</v>
       </c>
@@ -2658,7 +2742,7 @@
         <v>39</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9">
         <v>1143992171</v>
@@ -2670,42 +2754,42 @@
         <v>3.4791666666666665E-2</v>
       </c>
       <c r="G9" s="8">
-        <f>IF(F9/$G$2&lt;=1.001,F9/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H9" s="3">
         <v>7.1990740740740739E-3</v>
       </c>
       <c r="I9" s="8">
-        <f>IF(H9/$I$2&lt;=1.001,H9/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.1809717777131219</v>
       </c>
       <c r="J9" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K9" s="8">
-        <f>IF(J9/$K$2&lt;=1.001,J9/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L9" s="3">
         <v>1.9398148148148147E-2</v>
       </c>
       <c r="M9" s="8">
-        <f>IF(L9/$M$2&lt;=1.001,L9/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.85336048879837068</v>
       </c>
       <c r="N9" s="1">
         <v>4.5810185185185183E-2</v>
       </c>
       <c r="O9" s="8">
-        <f>IF(N9/$O$2&lt;=1.001,N9/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.98189034978913414</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
       </c>
       <c r="Q9" s="8">
-        <f>IF(P9/$Q$2&lt;=1.001,P9/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R9" s="4">
@@ -2743,19 +2827,26 @@
         <v>0</v>
       </c>
       <c r="AC9" s="8">
-        <f>IF(AB9/$AC$2&lt;=1.01,AB9/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD9" s="1">
         <v>0</v>
       </c>
       <c r="AE9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -2763,7 +2854,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10">
         <v>1000940688</v>
@@ -2775,42 +2866,42 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="G10" s="8">
-        <f>IF(F10/$G$2&lt;=1.001,F10/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99535500995355009</v>
       </c>
       <c r="H10" s="3">
         <v>3.9259259259259258E-2</v>
       </c>
       <c r="I10" s="8">
-        <f>IF(H10/$I$2&lt;=1.001,H10/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98690718649985443</v>
       </c>
       <c r="J10" s="3">
         <v>3.5949074074074071E-2</v>
       </c>
       <c r="K10" s="8">
-        <f>IF(J10/$K$2&lt;=1.001,J10/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L10" s="3">
         <v>2.2638888888888889E-2</v>
       </c>
       <c r="M10" s="8">
-        <f>IF(L10/$M$2&lt;=1.001,L10/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.99592668024439923</v>
       </c>
       <c r="N10" s="1">
         <v>4.4965277777777778E-2</v>
       </c>
       <c r="O10" s="8">
-        <f>IF(N10/$O$2&lt;=1.001,N10/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.9637806995782684</v>
       </c>
       <c r="P10" s="1">
         <v>4.1863425925925929E-2</v>
       </c>
       <c r="Q10" s="8">
-        <f>IF(P10/$Q$2&lt;=1.001,P10/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.96892579694615599</v>
       </c>
       <c r="R10" s="4">
@@ -2850,19 +2941,26 @@
         <v>3.8182870370370367E-2</v>
       </c>
       <c r="AC10" s="8">
-        <f>IF(AB10/$AC$2&lt;=1.01,AB10/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.92772778402699652</v>
       </c>
       <c r="AD10" s="1">
         <v>3.7303240740740741E-2</v>
       </c>
       <c r="AE10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.99383287079864335</v>
       </c>
-      <c r="AF10" s="4"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF10" s="1">
+        <v>3.215277777777778E-2</v>
+      </c>
+      <c r="AG10" s="8">
+        <f t="shared" si="8"/>
+        <v>0.85661424606845527</v>
+      </c>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2870,7 +2968,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>1007560675</v>
@@ -2882,42 +2980,42 @@
         <v>5.2083333333333333E-4</v>
       </c>
       <c r="G11" s="8">
-        <f>IF(F11/$G$2&lt;=1.001,F11/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>2.98606502986065E-2</v>
       </c>
       <c r="H11" s="3">
         <v>3.9074074074074074E-2</v>
       </c>
       <c r="I11" s="8">
-        <f>IF(H11/$I$2&lt;=1.001,H11/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98225196392202496</v>
       </c>
       <c r="J11" s="3">
         <v>3.5763888888888887E-2</v>
       </c>
       <c r="K11" s="8">
-        <f>IF(J11/$K$2&lt;=1.001,J11/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99484867997424342</v>
       </c>
       <c r="L11" s="3">
         <v>1.8090277777777778E-2</v>
       </c>
       <c r="M11" s="8">
-        <f>IF(L11/$M$2&lt;=1.001,L11/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.79582484725050917</v>
       </c>
       <c r="N11" s="1">
         <v>4.6388888888888889E-2</v>
       </c>
       <c r="O11" s="8">
-        <f>IF(N11/$O$2&lt;=1.001,N11/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.99429421979657651</v>
       </c>
       <c r="P11" s="1">
         <v>4.1805555555555554E-2</v>
       </c>
       <c r="Q11" s="8">
-        <f>IF(P11/$Q$2&lt;=1.001,P11/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.96758639164211091</v>
       </c>
       <c r="R11" s="4">
@@ -2957,19 +3055,26 @@
         <v>3.6736111111111108E-2</v>
       </c>
       <c r="AC11" s="8">
-        <f>IF(AB11/$AC$2&lt;=1.01,AB11/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.89257592800899888</v>
       </c>
       <c r="AD11" s="1">
         <v>3.2986111111111112E-2</v>
       </c>
       <c r="AE11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.87881591119333957</v>
       </c>
-      <c r="AF11" s="4"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF11" s="1">
+        <v>3.6724537037037035E-2</v>
+      </c>
+      <c r="AG11" s="8">
+        <f t="shared" si="8"/>
+        <v>0.97841504779525135</v>
+      </c>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2977,7 +3082,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12">
         <v>1110285503</v>
@@ -2989,42 +3094,42 @@
         <v>1.7314814814814814E-2</v>
       </c>
       <c r="G12" s="8">
-        <f>IF(F12/$G$2&lt;=1.001,F12/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.9927007299270072</v>
       </c>
       <c r="H12" s="3">
         <v>3.9189814814814816E-2</v>
       </c>
       <c r="I12" s="8">
-        <f>IF(H12/$I$2&lt;=1.001,H12/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98516147803316845</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="8">
-        <f>IF(J12/$K$2&lt;=1.001,J12/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="8">
-        <f>IF(L12/$M$2&lt;=1.001,L12/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N12" s="1">
         <v>4.327546296296296E-2</v>
       </c>
       <c r="O12" s="8">
-        <f>IF(N12/$O$2&lt;=1.001,N12/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.92756139915653668</v>
       </c>
       <c r="P12" s="1">
         <v>4.3182870370370371E-2</v>
       </c>
       <c r="Q12" s="8">
-        <f>IF(P12/$Q$2&lt;=1.001,P12/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.99946423787838201</v>
       </c>
       <c r="R12" s="4">
@@ -3064,19 +3169,25 @@
         <v>3.7256944444444447E-2</v>
       </c>
       <c r="AC12" s="8">
-        <f>IF(AB12/$AC$2&lt;=1.01,AB12/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.90523059617547819</v>
       </c>
       <c r="AD12" s="1">
         <v>0</v>
       </c>
       <c r="AE12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="4"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>3.8368055555555558E-2</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3084,7 +3195,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13">
         <v>1107837304</v>
@@ -3096,42 +3207,42 @@
         <v>3.8090277777777778E-2</v>
       </c>
       <c r="G13" s="8">
-        <f>IF(F13/$G$2&lt;=1.001,F13/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H13" s="3">
         <v>3.8541666666666669E-2</v>
       </c>
       <c r="I13" s="8">
-        <f>IF(H13/$I$2&lt;=1.001,H13/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.96886819901076515</v>
       </c>
       <c r="J13" s="3">
         <v>3.3229166666666664E-2</v>
       </c>
       <c r="K13" s="8">
-        <f>IF(J13/$K$2&lt;=1.001,J13/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.92433998712169996</v>
       </c>
       <c r="L13" s="3">
         <v>5.115740740740741E-3</v>
       </c>
       <c r="M13" s="8">
-        <f>IF(L13/$M$2&lt;=1.001,L13/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.22505091649694503</v>
       </c>
       <c r="N13" s="1">
         <v>4.4849537037037035E-2</v>
       </c>
       <c r="O13" s="8">
-        <f>IF(N13/$O$2&lt;=1.001,N13/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.9612999255767799</v>
       </c>
       <c r="P13" s="1">
         <v>3.9386574074074074E-2</v>
       </c>
       <c r="Q13" s="8">
-        <f>IF(P13/$Q$2&lt;=1.001,P13/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.91159924993302976</v>
       </c>
       <c r="R13" s="4">
@@ -3171,19 +3282,25 @@
         <v>3.8101851851851852E-2</v>
       </c>
       <c r="AC13" s="8">
-        <f>IF(AB13/$AC$2&lt;=1.01,AB13/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.92575928008998876</v>
       </c>
       <c r="AD13" s="1">
         <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.99599136601911809</v>
       </c>
-      <c r="AF13" s="4"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF13" s="1">
+        <v>3.8368055555555558E-2</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
@@ -3191,7 +3308,7 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14">
         <v>1112388822</v>
@@ -3203,42 +3320,42 @@
         <v>1.7337962962962961E-2</v>
       </c>
       <c r="G14" s="8">
-        <f>IF(F14/$G$2&lt;=1.001,F14/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99402786994027859</v>
       </c>
       <c r="H14" s="3">
         <v>3.9224537037037037E-2</v>
       </c>
       <c r="I14" s="8">
-        <f>IF(H14/$I$2&lt;=1.001,H14/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98603433226651138</v>
       </c>
       <c r="J14" s="3">
         <v>3.5879629629629629E-2</v>
       </c>
       <c r="K14" s="8">
-        <f>IF(J14/$K$2&lt;=1.001,J14/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99806825499034135</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="8">
-        <f>IF(L14/$M$2&lt;=1.001,L14/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N14" s="1">
         <v>3.2685185185185185E-2</v>
       </c>
       <c r="O14" s="8">
-        <f>IF(N14/$O$2&lt;=1.001,N14/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.70057057802034228</v>
       </c>
       <c r="P14" s="1">
         <v>3.3252314814814818E-2</v>
       </c>
       <c r="Q14" s="8">
-        <f>IF(P14/$Q$2&lt;=1.001,P14/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.76962228770425933</v>
       </c>
       <c r="R14" s="4">
@@ -3278,19 +3395,26 @@
         <v>3.2615740740740744E-2</v>
       </c>
       <c r="AC14" s="8">
-        <f>IF(AB14/$AC$2&lt;=1.01,AB14/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.7924634420697414</v>
       </c>
       <c r="AD14" s="1">
         <v>2.9525462962962962E-2</v>
       </c>
       <c r="AE14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.78661732963305586</v>
       </c>
-      <c r="AF14" s="4"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF14" s="1">
+        <v>3.7488425925925925E-2</v>
+      </c>
+      <c r="AG14" s="8">
+        <f t="shared" si="8"/>
+        <v>0.99876657415972869</v>
+      </c>
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>27</v>
       </c>
@@ -3298,7 +3422,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15">
         <v>1107839506</v>
@@ -3310,42 +3434,42 @@
         <v>1.744212962962963E-2</v>
       </c>
       <c r="G15" s="8">
-        <f>IF(F15/$G$2&lt;=1.001,F15/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H15" s="3">
         <v>3.9270833333333331E-2</v>
       </c>
       <c r="I15" s="8">
-        <f>IF(H15/$I$2&lt;=1.001,H15/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98719813791096878</v>
       </c>
       <c r="J15" s="3">
         <v>3.591435185185185E-2</v>
       </c>
       <c r="K15" s="8">
-        <f>IF(J15/$K$2&lt;=1.001,J15/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99903412749517073</v>
       </c>
       <c r="L15" s="3">
         <v>1.9351851851851853E-2</v>
       </c>
       <c r="M15" s="8">
-        <f>IF(L15/$M$2&lt;=1.001,L15/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.85132382892057035</v>
       </c>
       <c r="N15" s="1">
         <v>4.2256944444444444E-2</v>
       </c>
       <c r="O15" s="8">
-        <f>IF(N15/$O$2&lt;=1.001,N15/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.9057305879434383</v>
       </c>
       <c r="P15" s="1">
         <v>3.9687500000000001E-2</v>
       </c>
       <c r="Q15" s="8">
-        <f>IF(P15/$Q$2&lt;=1.001,P15/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.91856415751406373</v>
       </c>
       <c r="R15" s="4">
@@ -3385,19 +3509,26 @@
         <v>0</v>
       </c>
       <c r="AC15" s="8">
-        <f>IF(AB15/$AC$2&lt;=1.01,AB15/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD15" s="1">
         <v>3.712962962962963E-2</v>
       </c>
       <c r="AE15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.98920752389762578</v>
       </c>
-      <c r="AF15" s="4"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24</v>
       </c>
@@ -3405,7 +3536,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16">
         <v>1112041894</v>
@@ -3417,42 +3548,42 @@
         <v>3.7592592592592594E-2</v>
       </c>
       <c r="G16" s="8">
-        <f>IF(F16/$G$2&lt;=1.001,F16/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H16" s="3">
         <v>2.7164351851851853E-2</v>
       </c>
       <c r="I16" s="8">
-        <f>IF(H16/$I$2&lt;=1.001,H16/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.68286296188536511</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
       </c>
       <c r="K16" s="8">
-        <f>IF(J16/$K$2&lt;=1.001,J16/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
       </c>
       <c r="M16" s="8">
-        <f>IF(L16/$M$2&lt;=1.001,L16/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N16" s="1">
         <v>4.1226851851851855E-2</v>
       </c>
       <c r="O16" s="8">
-        <f>IF(N16/$O$2&lt;=1.001,N16/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.88365169933019105</v>
       </c>
       <c r="P16" s="1">
         <v>4.2858796296296298E-2</v>
       </c>
       <c r="Q16" s="8">
-        <f>IF(P16/$Q$2&lt;=1.001,P16/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.99196356817573006</v>
       </c>
       <c r="R16" s="4">
@@ -3492,19 +3623,26 @@
         <v>4.0208333333333332E-2</v>
       </c>
       <c r="AC16" s="8">
-        <f>IF(AB16/$AC$2&lt;=1.01,AB16/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.9769403824521935</v>
       </c>
       <c r="AD16" s="1">
         <v>3.6712962962962961E-2</v>
       </c>
       <c r="AE16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.97810669133518346</v>
       </c>
-      <c r="AF16" s="4"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF16" s="1">
+        <v>3.7557870370370373E-2</v>
+      </c>
+      <c r="AG16" s="8">
+        <f t="shared" si="8"/>
+        <v>1.0006167129201358</v>
+      </c>
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3512,7 +3650,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17">
         <v>1005785665</v>
@@ -3524,42 +3662,42 @@
         <v>0</v>
       </c>
       <c r="G17" s="8">
-        <f>IF(F17/$G$2&lt;=1.001,F17/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>3.9085648148148147E-2</v>
       </c>
       <c r="I17" s="8">
-        <f>IF(H17/$I$2&lt;=1.001,H17/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.9825429153331392</v>
       </c>
       <c r="J17" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K17" s="8">
-        <f>IF(J17/$K$2&lt;=1.001,J17/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L17" s="3">
         <v>2.3148148148148149E-4</v>
       </c>
       <c r="M17" s="8">
-        <f>IF(L17/$M$2&lt;=1.001,L17/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>1.0183299389002037E-2</v>
       </c>
       <c r="N17" s="1">
         <v>4.6527777777777779E-2</v>
       </c>
       <c r="O17" s="8">
-        <f>IF(N17/$O$2&lt;=1.001,N17/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.99727114859836263</v>
       </c>
       <c r="P17" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q17" s="8">
-        <f>IF(P17/$Q$2&lt;=1.001,P17/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R17" s="4">
@@ -3599,19 +3737,25 @@
         <v>4.1157407407407406E-2</v>
       </c>
       <c r="AC17" s="8">
-        <f>IF(AB17/$AC$2&lt;=1.01,AB17/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD17" s="1">
         <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.99599136601911809</v>
       </c>
-      <c r="AF17" s="4"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF17" s="1">
+        <v>3.8368055555555558E-2</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -3619,7 +3763,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18">
         <v>1113978874</v>
@@ -3631,42 +3775,42 @@
         <v>1.744212962962963E-2</v>
       </c>
       <c r="G18" s="8">
-        <f>IF(F18/$G$2&lt;=1.001,F18/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H18" s="3">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I18" s="8">
-        <f>IF(H18/$I$2&lt;=1.001,H18/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
       <c r="J18" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K18" s="8">
-        <f>IF(J18/$K$2&lt;=1.001,J18/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L18" s="3">
         <v>2.1203703703703704E-2</v>
       </c>
       <c r="M18" s="8">
-        <f>IF(L18/$M$2&lt;=1.001,L18/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.9327902240325866</v>
       </c>
       <c r="N18" s="1">
         <v>4.6666666666666669E-2</v>
       </c>
       <c r="O18" s="8">
-        <f>IF(N18/$O$2&lt;=1.001,N18/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>1.0002480774001488</v>
       </c>
       <c r="P18" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q18" s="8">
-        <f>IF(P18/$Q$2&lt;=1.001,P18/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R18" s="4">
@@ -3706,19 +3850,25 @@
         <v>3.9328703703703706E-2</v>
       </c>
       <c r="AC18" s="8">
-        <f>IF(AB18/$AC$2&lt;=1.01,AB18/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.95556805399325095</v>
       </c>
       <c r="AD18" s="1">
         <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.99599136601911809</v>
       </c>
-      <c r="AF18" s="4"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF18" s="1">
+        <v>3.8368055555555558E-2</v>
+      </c>
+      <c r="AG18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -3726,7 +3876,7 @@
         <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19">
         <v>1105366146</v>
@@ -3738,42 +3888,42 @@
         <v>3.8437499999999999E-2</v>
       </c>
       <c r="G19" s="8">
-        <f>IF(F19/$G$2&lt;=1.001,F19/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <f>IF(H19/$I$2&lt;=1.001,H19/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="3">
         <v>1.3148148148148148E-2</v>
       </c>
       <c r="K19" s="8">
-        <f>IF(J19/$K$2&lt;=1.001,J19/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.36574372182871867</v>
       </c>
       <c r="L19" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
       <c r="M19" s="8">
-        <f>IF(L19/$M$2&lt;=1.001,L19/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.33706720977596738</v>
       </c>
       <c r="N19" s="1">
         <v>4.6215277777777779E-2</v>
       </c>
       <c r="O19" s="8">
-        <f>IF(N19/$O$2&lt;=1.001,N19/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.99057305879434376</v>
       </c>
       <c r="P19" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q19" s="8">
-        <f>IF(P19/$Q$2&lt;=1.001,P19/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R19" s="4">
@@ -3813,19 +3963,26 @@
         <v>3.3819444444444444E-2</v>
       </c>
       <c r="AC19" s="8">
-        <f>IF(AB19/$AC$2&lt;=1.01,AB19/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.82170978627671543</v>
       </c>
       <c r="AD19" s="1">
         <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.99599136601911809</v>
       </c>
-      <c r="AF19" s="4"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF19" s="1">
+        <v>3.8368055555555558E-2</v>
+      </c>
+      <c r="AG19" s="8">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="AH19" s="4"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -3833,7 +3990,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20">
         <v>1004189893</v>
@@ -3845,42 +4002,42 @@
         <v>0</v>
       </c>
       <c r="G20" s="8">
-        <f>IF(F20/$G$2&lt;=1.001,F20/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="8">
-        <f>IF(H20/$I$2&lt;=1.001,H20/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="8">
-        <f>IF(J20/$K$2&lt;=1.001,J20/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="8">
-        <f>IF(L20/$M$2&lt;=1.001,L20/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
       </c>
       <c r="O20" s="8">
-        <f>IF(N20/$O$2&lt;=1.001,N20/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>0</v>
       </c>
       <c r="Q20" s="8">
-        <f>IF(P20/$Q$2&lt;=1.001,P20/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R20" s="4">
@@ -3918,27 +4075,34 @@
         <v>0</v>
       </c>
       <c r="AC20" s="8">
-        <f>IF(AB20/$AC$2&lt;=1.01,AB20/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD20" s="1">
         <v>0</v>
       </c>
       <c r="AE20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="4"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="4"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>33</v>
       </c>
       <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
         <v>115</v>
-      </c>
-      <c r="C21" t="s">
-        <v>116</v>
       </c>
       <c r="D21">
         <v>1062276579</v>
@@ -3950,42 +4114,42 @@
         <v>0</v>
       </c>
       <c r="G21" s="8">
-        <f>IF(F21/$G$2&lt;=1.001,F21/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>3.9016203703703706E-2</v>
       </c>
       <c r="I21" s="8">
-        <f>IF(H21/$I$2&lt;=1.001,H21/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98079720686645322</v>
       </c>
       <c r="J21" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K21" s="8">
-        <f>IF(J21/$K$2&lt;=1.001,J21/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L21" s="3">
         <v>2.2650462962962963E-2</v>
       </c>
       <c r="M21" s="8">
-        <f>IF(L21/$M$2&lt;=1.001,L21/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.99643584521384931</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
       </c>
       <c r="O21" s="8">
-        <f>IF(N21/$O$2&lt;=1.001,N21/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>7.8240740740740736E-3</v>
       </c>
       <c r="Q21" s="8">
-        <f>IF(P21/$Q$2&lt;=1.001,P21/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.18108759710688452</v>
       </c>
       <c r="R21" s="4">
@@ -4025,19 +4189,26 @@
         <v>0</v>
       </c>
       <c r="AC21" s="8">
-        <f>IF(AB21/$AC$2&lt;=1.01,AB21/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD21" s="1">
         <v>0</v>
       </c>
       <c r="AE21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="4"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="4"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -4045,7 +4216,7 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22">
         <v>1058932076</v>
@@ -4057,42 +4228,42 @@
         <v>3.6388888888888887E-2</v>
       </c>
       <c r="G22" s="8">
-        <f>IF(F22/$G$2&lt;=1.001,F22/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H22" s="3">
         <v>3.9282407407407405E-2</v>
       </c>
       <c r="I22" s="8">
-        <f>IF(H22/$I$2&lt;=1.001,H22/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98748908932208301</v>
       </c>
       <c r="J22" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K22" s="8">
-        <f>IF(J22/$K$2&lt;=1.001,J22/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L22" s="3">
         <v>2.2395833333333334E-2</v>
       </c>
       <c r="M22" s="8">
-        <f>IF(L22/$M$2&lt;=1.001,L22/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.98523421588594706</v>
       </c>
       <c r="N22" s="1">
         <v>4.6608796296296294E-2</v>
       </c>
       <c r="O22" s="8">
-        <f>IF(N22/$O$2&lt;=1.001,N22/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.99900769039940451</v>
       </c>
       <c r="P22" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q22" s="8">
-        <f>IF(P22/$Q$2&lt;=1.001,P22/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R22" s="4">
@@ -4132,19 +4303,26 @@
         <v>3.6574074074074071E-2</v>
       </c>
       <c r="AC22" s="8">
-        <f>IF(AB22/$AC$2&lt;=1.01,AB22/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.88863892013498313</v>
       </c>
       <c r="AD22" s="1">
         <v>3.6747685185185182E-2</v>
       </c>
       <c r="AE22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.979031760715387</v>
       </c>
-      <c r="AF22" s="4"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF22" s="1">
+        <v>8.1134259259259267E-3</v>
+      </c>
+      <c r="AG22" s="8">
+        <f t="shared" si="8"/>
+        <v>0.21615787850755477</v>
+      </c>
+      <c r="AH22" s="4"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>31</v>
       </c>
@@ -4152,7 +4330,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23">
         <v>1113362057</v>
@@ -4164,42 +4342,42 @@
         <v>1.7326388888888888E-2</v>
       </c>
       <c r="G23" s="8">
-        <f>IF(F23/$G$2&lt;=1.001,F23/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99336429993364284</v>
       </c>
       <c r="H23" s="3">
         <v>3.9212962962962963E-2</v>
       </c>
       <c r="I23" s="8">
-        <f>IF(H23/$I$2&lt;=1.001,H23/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98574338085539703</v>
       </c>
       <c r="J23" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K23" s="8">
-        <f>IF(J23/$K$2&lt;=1.001,J23/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L23" s="3">
         <v>2.2268518518518517E-2</v>
       </c>
       <c r="M23" s="8">
-        <f>IF(L23/$M$2&lt;=1.001,L23/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.97963340122199594</v>
       </c>
       <c r="N23" s="1">
         <v>4.6527777777777779E-2</v>
       </c>
       <c r="O23" s="8">
-        <f>IF(N23/$O$2&lt;=1.001,N23/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.99727114859836263</v>
       </c>
       <c r="P23" s="1">
         <v>3.2187500000000001E-2</v>
       </c>
       <c r="Q23" s="8">
-        <f>IF(P23/$Q$2&lt;=1.001,P23/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.7449772301098313</v>
       </c>
       <c r="R23" s="4">
@@ -4239,19 +4417,26 @@
         <v>3.8055555555555558E-2</v>
       </c>
       <c r="AC23" s="8">
-        <f>IF(AB23/$AC$2&lt;=1.01,AB23/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.92463442069741286</v>
       </c>
       <c r="AD23" s="1">
         <v>1.3356481481481481E-2</v>
       </c>
       <c r="AE23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.35584335491828556</v>
       </c>
-      <c r="AF23" s="4"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF23" s="1">
+        <v>2.5115740740740741E-2</v>
+      </c>
+      <c r="AG23" s="8">
+        <f t="shared" si="8"/>
+        <v>0.66913351834720947</v>
+      </c>
+      <c r="AH23" s="4"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>28</v>
       </c>
@@ -4259,7 +4444,7 @@
         <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24">
         <v>1112389849</v>
@@ -4271,42 +4456,42 @@
         <v>4.3043981481481482E-2</v>
       </c>
       <c r="G24" s="8">
-        <f>IF(F24/$G$2&lt;=1.001,F24/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H24" s="3">
         <v>3.923611111111111E-2</v>
       </c>
       <c r="I24" s="8">
-        <f>IF(H24/$I$2&lt;=1.001,H24/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.98632528367762573</v>
       </c>
       <c r="J24" s="3">
         <v>3.591435185185185E-2</v>
       </c>
       <c r="K24" s="8">
-        <f>IF(J24/$K$2&lt;=1.001,J24/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99903412749517073</v>
       </c>
       <c r="L24" s="3">
         <v>2.2731481481481481E-2</v>
       </c>
       <c r="M24" s="8">
-        <f>IF(L24/$M$2&lt;=1.001,L24/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N24" s="1">
         <v>4.659722222222222E-2</v>
       </c>
       <c r="O24" s="8">
-        <f>IF(N24/$O$2&lt;=1.001,N24/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.99875961299925564</v>
       </c>
       <c r="P24" s="1">
         <v>4.189814814814815E-2</v>
       </c>
       <c r="Q24" s="8">
-        <f>IF(P24/$Q$2&lt;=1.001,P24/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.96972944012858298</v>
       </c>
       <c r="R24" s="4">
@@ -4346,27 +4531,34 @@
         <v>3.7615740740740741E-2</v>
       </c>
       <c r="AC24" s="8">
-        <f>IF(AB24/$AC$2&lt;=1.01,AB24/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.91394825646794153</v>
       </c>
       <c r="AD24" s="1">
         <v>3.5624999999999997E-2</v>
       </c>
       <c r="AE24" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.94912118408880664</v>
       </c>
-      <c r="AF24" s="4"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF24" s="1">
+        <v>3.6076388888888887E-2</v>
+      </c>
+      <c r="AG24" s="8">
+        <f t="shared" si="8"/>
+        <v>0.96114708603145238</v>
+      </c>
+      <c r="AH24" s="4"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25">
         <v>1036925847</v>
@@ -4378,42 +4570,42 @@
         <v>0</v>
       </c>
       <c r="G25" s="8">
-        <f>IF(F25/$G$2&lt;=1.001,F25/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="3">
         <v>3.9178240740740743E-2</v>
       </c>
       <c r="I25" s="8">
-        <f>IF(H25/$I$2&lt;=1.001,H25/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.9848705266220541</v>
       </c>
       <c r="J25" s="3">
         <v>3.5844907407407409E-2</v>
       </c>
       <c r="K25" s="8">
-        <f>IF(J25/$K$2&lt;=1.001,J25/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99710238248551208</v>
       </c>
       <c r="L25" s="3">
         <v>0</v>
       </c>
       <c r="M25" s="8">
-        <f>IF(L25/$M$2&lt;=1.001,L25/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N25" s="1">
         <v>3.7858796296296293E-2</v>
       </c>
       <c r="O25" s="8">
-        <f>IF(N25/$O$2&lt;=1.001,N25/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.81146117588687661</v>
       </c>
       <c r="P25" s="1">
         <v>3.1886574074074074E-2</v>
       </c>
       <c r="Q25" s="8">
-        <f>IF(P25/$Q$2&lt;=1.001,P25/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.73801232252879723</v>
       </c>
       <c r="R25" s="4">
@@ -4453,27 +4645,33 @@
         <v>4.1157407407407406E-2</v>
       </c>
       <c r="AC25" s="8">
-        <f>IF(AB25/$AC$2&lt;=1.01,AB25/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD25" s="1">
         <v>3.7291666666666667E-2</v>
       </c>
       <c r="AE25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.99352451433857547</v>
       </c>
-      <c r="AF25" s="4"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF25" s="1">
+        <v>3.8368055555555558E-2</v>
+      </c>
+      <c r="AG25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="4"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
       <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
         <v>94</v>
-      </c>
-      <c r="C26" t="s">
-        <v>95</v>
       </c>
       <c r="D26">
         <v>1107837413</v>
@@ -4485,42 +4683,42 @@
         <v>0</v>
       </c>
       <c r="G26" s="8">
-        <f>IF(F26/$G$2&lt;=1.001,F26/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>3.7743055555555557E-2</v>
       </c>
       <c r="I26" s="8">
-        <f>IF(H26/$I$2&lt;=1.001,H26/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.94879255164387544</v>
       </c>
       <c r="J26" s="3">
         <v>3.5925925925925924E-2</v>
       </c>
       <c r="K26" s="8">
-        <f>IF(J26/$K$2&lt;=1.001,J26/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99935608499678041</v>
       </c>
       <c r="L26" s="3">
         <v>2.0636574074074075E-2</v>
       </c>
       <c r="M26" s="8">
-        <f>IF(L26/$M$2&lt;=1.001,L26/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.90784114052953158</v>
       </c>
       <c r="N26" s="1">
         <v>0</v>
       </c>
       <c r="O26" s="8">
-        <f>IF(N26/$O$2&lt;=1.001,N26/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>3.9016203703703706E-2</v>
       </c>
       <c r="Q26" s="8">
-        <f>IF(P26/$Q$2&lt;=1.001,P26/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.90302705598714172</v>
       </c>
       <c r="R26" s="4">
@@ -4560,19 +4758,26 @@
         <v>3.8090277777777778E-2</v>
       </c>
       <c r="AC26" s="8">
-        <f>IF(AB26/$AC$2&lt;=1.01,AB26/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.92547806524184484</v>
       </c>
       <c r="AD26" s="1">
         <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.99599136601911809</v>
       </c>
-      <c r="AF26" s="4"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF26" s="1">
+        <v>2.8125000000000001E-2</v>
+      </c>
+      <c r="AG26" s="8">
+        <f t="shared" si="8"/>
+        <v>0.74930619796484743</v>
+      </c>
+      <c r="AH26" s="4"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>29</v>
       </c>
@@ -4580,7 +4785,7 @@
         <v>41</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27">
         <v>1234198199</v>
@@ -4592,42 +4797,42 @@
         <v>1.7337962962962961E-2</v>
       </c>
       <c r="G27" s="8">
-        <f>IF(F27/$G$2&lt;=1.001,F27/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99402786994027859</v>
       </c>
       <c r="H27" s="3">
         <v>3.8796296296296294E-2</v>
       </c>
       <c r="I27" s="8">
-        <f>IF(H27/$I$2&lt;=1.001,H27/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.9752691300552806</v>
       </c>
       <c r="J27" s="3">
         <v>2.2928240740740742E-2</v>
       </c>
       <c r="K27" s="8">
-        <f>IF(J27/$K$2&lt;=1.001,J27/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.63779781068898911</v>
       </c>
       <c r="L27" s="3">
         <v>7.1296296296296299E-3</v>
       </c>
       <c r="M27" s="8">
-        <f>IF(L27/$M$2&lt;=1.001,L27/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.31364562118126277</v>
       </c>
       <c r="N27" s="1">
         <v>0</v>
       </c>
       <c r="O27" s="8">
-        <f>IF(N27/$O$2&lt;=1.001,N27/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P27" s="1">
         <v>0</v>
       </c>
       <c r="Q27" s="8">
-        <f>IF(P27/$Q$2&lt;=1.001,P27/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R27" s="4">
@@ -4665,19 +4870,26 @@
         <v>3.8101851851851852E-2</v>
       </c>
       <c r="AC27" s="8">
-        <f>IF(AB27/$AC$2&lt;=1.01,AB27/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.92575928008998876</v>
       </c>
       <c r="AD27" s="1">
         <v>0</v>
       </c>
       <c r="AE27" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="4"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>1.4351851851851852E-3</v>
+      </c>
+      <c r="AG27" s="8">
+        <f t="shared" si="8"/>
+        <v>3.8236201048411966E-2</v>
+      </c>
+      <c r="AH27" s="4"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -4685,7 +4897,7 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28">
         <v>1005892878</v>
@@ -4697,42 +4909,42 @@
         <v>1.744212962962963E-2</v>
       </c>
       <c r="G28" s="8">
-        <f>IF(F28/$G$2&lt;=1.001,F28/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H28" s="3">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I28" s="8">
-        <f>IF(H28/$I$2&lt;=1.001,H28/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
       <c r="J28" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K28" s="8">
-        <f>IF(J28/$K$2&lt;=1.001,J28/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L28" s="3">
         <v>1.8935185185185187E-2</v>
       </c>
       <c r="M28" s="8">
-        <f>IF(L28/$M$2&lt;=1.001,L28/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.83299389002036672</v>
       </c>
       <c r="N28" s="1">
         <v>4.5497685185185183E-2</v>
       </c>
       <c r="O28" s="8">
-        <f>IF(N28/$O$2&lt;=1.001,N28/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.97519225998511527</v>
       </c>
       <c r="P28" s="1">
         <v>4.1145833333333333E-2</v>
       </c>
       <c r="Q28" s="8">
-        <f>IF(P28/$Q$2&lt;=1.001,P28/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.95231717117599779</v>
       </c>
       <c r="R28" s="4">
@@ -4772,19 +4984,26 @@
         <v>3.9305555555555559E-2</v>
       </c>
       <c r="AC28" s="8">
-        <f>IF(AB28/$AC$2&lt;=1.01,AB28/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.95500562429696301</v>
       </c>
       <c r="AD28" s="1">
         <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.99599136601911809</v>
       </c>
-      <c r="AF28" s="4"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF28" s="1">
+        <v>2.9363425925925925E-2</v>
+      </c>
+      <c r="AG28" s="8">
+        <f t="shared" si="8"/>
+        <v>0.78230033919210606</v>
+      </c>
+      <c r="AH28" s="4"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -4792,7 +5011,7 @@
         <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29">
         <v>1104804719</v>
@@ -4804,42 +5023,42 @@
         <v>3.4641203703703702E-2</v>
       </c>
       <c r="G29" s="8">
-        <f>IF(F29/$G$2&lt;=1.001,F29/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H29" s="3">
         <v>3.9178240740740743E-2</v>
       </c>
       <c r="I29" s="8">
-        <f>IF(H29/$I$2&lt;=1.001,H29/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.9848705266220541</v>
       </c>
       <c r="J29" s="3">
         <v>3.5856481481481482E-2</v>
       </c>
       <c r="K29" s="8">
-        <f>IF(J29/$K$2&lt;=1.001,J29/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99742433998712177</v>
       </c>
       <c r="L29" s="3">
         <v>1.9652777777777779E-2</v>
       </c>
       <c r="M29" s="8">
-        <f>IF(L29/$M$2&lt;=1.001,L29/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.86456211812627304</v>
       </c>
       <c r="N29" s="1">
         <v>0</v>
       </c>
       <c r="O29" s="8">
-        <f>IF(N29/$O$2&lt;=1.001,N29/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P29" s="1">
         <v>3.9768518518518516E-2</v>
       </c>
       <c r="Q29" s="8">
-        <f>IF(P29/$Q$2&lt;=1.001,P29/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.92043932493972669</v>
       </c>
       <c r="R29" s="4">
@@ -4879,19 +5098,26 @@
         <v>4.0914351851851855E-2</v>
       </c>
       <c r="AC29" s="8">
-        <f>IF(AB29/$AC$2&lt;=1.01,AB29/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.9940944881889765</v>
       </c>
       <c r="AD29" s="1">
         <v>1.6608796296296295E-2</v>
       </c>
       <c r="AE29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.44249152019734816</v>
       </c>
-      <c r="AF29" s="4"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF29" s="1">
+        <v>3.4942129629629629E-2</v>
+      </c>
+      <c r="AG29" s="8">
+        <f t="shared" si="8"/>
+        <v>0.93092815294480424</v>
+      </c>
+      <c r="AH29" s="4"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19</v>
       </c>
@@ -4899,7 +5125,7 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30">
         <v>1005832925</v>
@@ -4911,42 +5137,42 @@
         <v>1.7314814814814814E-2</v>
       </c>
       <c r="G30" s="8">
-        <f>IF(F30/$G$2&lt;=1.001,F30/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.9927007299270072</v>
       </c>
       <c r="H30" s="3">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I30" s="8">
-        <f>IF(H30/$I$2&lt;=1.001,H30/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
       <c r="J30" s="3">
         <v>3.5868055555555556E-2</v>
       </c>
       <c r="K30" s="8">
-        <f>IF(J30/$K$2&lt;=1.001,J30/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99774629748873156</v>
       </c>
       <c r="L30" s="3">
         <v>2.1909722222222223E-2</v>
       </c>
       <c r="M30" s="8">
-        <f>IF(L30/$M$2&lt;=1.001,L30/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.96384928716904283</v>
       </c>
       <c r="N30" s="1">
         <v>4.6631944444444441E-2</v>
       </c>
       <c r="O30" s="8">
-        <f>IF(N30/$O$2&lt;=1.001,N30/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.99950384519970215</v>
       </c>
       <c r="P30" s="1">
         <v>4.2488425925925923E-2</v>
       </c>
       <c r="Q30" s="8">
-        <f>IF(P30/$Q$2&lt;=1.001,P30/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.98339137422984191</v>
       </c>
       <c r="R30" s="4">
@@ -4986,19 +5212,25 @@
         <v>3.8379629629629632E-2</v>
       </c>
       <c r="AC30" s="8">
-        <f>IF(AB30/$AC$2&lt;=1.01,AB30/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.93250843644544434</v>
       </c>
       <c r="AD30" s="1">
         <v>3.3958333333333333E-2</v>
       </c>
       <c r="AE30" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.90471785383903802</v>
       </c>
-      <c r="AF30" s="4"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF30" s="1">
+        <v>3.8368055555555558E-2</v>
+      </c>
+      <c r="AG30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="4"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -5006,7 +5238,7 @@
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D31">
         <v>1006343564</v>
@@ -5018,42 +5250,42 @@
         <v>1.7337962962962961E-2</v>
       </c>
       <c r="G31" s="8">
-        <f>IF(F31/$G$2&lt;=1.001,F31/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99402786994027859</v>
       </c>
       <c r="H31" s="3">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I31" s="8">
-        <f>IF(H31/$I$2&lt;=1.001,H31/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
       <c r="J31" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K31" s="8">
-        <f>IF(J31/$K$2&lt;=1.001,J31/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L31" s="9">
         <v>2.2731481481481481E-2</v>
       </c>
       <c r="M31" s="10">
-        <f>IF(L31/$M$2&lt;=1.001,L31/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N31" s="1">
         <v>2.9768518518518517E-2</v>
       </c>
       <c r="O31" s="8">
-        <f>IF(N31/$O$2&lt;=1.001,N31/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.63805507318283294</v>
       </c>
       <c r="P31" s="1">
         <v>4.1909722222222223E-2</v>
       </c>
       <c r="Q31" s="8">
-        <f>IF(P31/$Q$2&lt;=1.001,P31/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.96999732118939197</v>
       </c>
       <c r="R31" s="4">
@@ -5093,19 +5325,25 @@
         <v>3.8124999999999999E-2</v>
       </c>
       <c r="AC31" s="8">
-        <f>IF(AB31/$AC$2&lt;=1.01,AB31/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.9263217097862767</v>
       </c>
       <c r="AD31" s="1">
         <v>3.5486111111111114E-2</v>
       </c>
       <c r="AE31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.94542090656799271</v>
       </c>
-      <c r="AF31" s="4"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF31" s="1">
+        <v>3.8368055555555558E-2</v>
+      </c>
+      <c r="AG31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="4"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5113,7 +5351,7 @@
         <v>57</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32">
         <v>73265790</v>
@@ -5125,42 +5363,42 @@
         <v>4.3611111111111114E-2</v>
       </c>
       <c r="G32" s="8">
-        <f>IF(F32/$G$2&lt;=1.001,F32/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H32" s="3">
         <v>3.9641203703703706E-2</v>
       </c>
       <c r="I32" s="8">
-        <f>IF(H32/$I$2&lt;=1.001,H32/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.99650858306662782</v>
       </c>
       <c r="J32" s="3">
         <v>3.5879629629629629E-2</v>
       </c>
       <c r="K32" s="8">
-        <f>IF(J32/$K$2&lt;=1.001,J32/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.99806825499034135</v>
       </c>
       <c r="L32" s="3">
         <v>2.1238425925925924E-2</v>
       </c>
       <c r="M32" s="8">
-        <f>IF(L32/$M$2&lt;=1.001,L32/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.93431771894093685</v>
       </c>
       <c r="N32" s="1">
         <v>4.659722222222222E-2</v>
       </c>
       <c r="O32" s="8">
-        <f>IF(N32/$O$2&lt;=1.001,N32/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.99875961299925564</v>
       </c>
       <c r="P32" s="1">
         <v>4.1886574074074076E-2</v>
       </c>
       <c r="Q32" s="8">
-        <f>IF(P32/$Q$2&lt;=1.001,P32/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.96946155906777398</v>
       </c>
       <c r="R32" s="4">
@@ -5200,19 +5438,25 @@
         <v>3.8425925925925926E-2</v>
       </c>
       <c r="AC32" s="8">
-        <f>IF(AB32/$AC$2&lt;=1.01,AB32/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.93363329583802024</v>
       </c>
       <c r="AD32" s="1">
         <v>3.7256944444444447E-2</v>
       </c>
       <c r="AE32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.99259944495837205</v>
       </c>
-      <c r="AF32" s="4"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF32" s="1">
+        <v>3.8368055555555558E-2</v>
+      </c>
+      <c r="AG32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="4"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13</v>
       </c>
@@ -5220,7 +5464,7 @@
         <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33">
         <v>1004217163</v>
@@ -5232,42 +5476,42 @@
         <v>4.1458333333333333E-2</v>
       </c>
       <c r="G33" s="8">
-        <f>IF(F33/$G$2&lt;=1.001,F33/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="H33" s="3">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I33" s="8">
-        <f>IF(H33/$I$2&lt;=1.001,H33/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
       <c r="J33" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K33" s="8">
-        <f>IF(J33/$K$2&lt;=1.001,J33/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L33" s="3">
         <v>2.0798611111111111E-2</v>
       </c>
       <c r="M33" s="8">
-        <f>IF(L33/$M$2&lt;=1.001,L33/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.91496945010183306</v>
       </c>
       <c r="N33" s="1">
         <v>4.2013888888888892E-2</v>
       </c>
       <c r="O33" s="8">
-        <f>IF(N33/$O$2&lt;=1.001,N33/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0.90052096254031255</v>
       </c>
       <c r="P33" s="1">
         <v>3.8773148148148147E-2</v>
       </c>
       <c r="Q33" s="8">
-        <f>IF(P33/$Q$2&lt;=1.001,P33/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.89740155371015262</v>
       </c>
       <c r="R33" s="4">
@@ -5307,27 +5551,34 @@
         <v>4.1076388888888891E-2</v>
       </c>
       <c r="AC33" s="8">
-        <f>IF(AB33/$AC$2&lt;=1.01,AB33/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0.99803149606299224</v>
       </c>
       <c r="AD33" s="1">
         <v>3.5995370370370372E-2</v>
       </c>
       <c r="AE33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.95898859081097765</v>
       </c>
-      <c r="AF33" s="4"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF33" s="1">
+        <v>2.7118055555555555E-2</v>
+      </c>
+      <c r="AG33" s="8">
+        <f t="shared" si="8"/>
+        <v>0.72247918593894545</v>
+      </c>
+      <c r="AH33" s="4"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>18</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34">
         <v>1094883894</v>
@@ -5339,42 +5590,42 @@
         <v>0</v>
       </c>
       <c r="G34" s="8">
-        <f>IF(F34/$G$2&lt;=1.001,F34/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H34" s="3">
         <v>3.7743055555555557E-2</v>
       </c>
       <c r="I34" s="8">
-        <f>IF(H34/$I$2&lt;=1.001,H34/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.94879255164387544</v>
       </c>
       <c r="J34" s="3">
         <v>2.8715277777777777E-2</v>
       </c>
       <c r="K34" s="8">
-        <f>IF(J34/$K$2&lt;=1.001,J34/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.79877656149388288</v>
       </c>
       <c r="L34" s="3">
         <v>1.9212962962962963E-2</v>
       </c>
       <c r="M34" s="8">
-        <f>IF(L34/$M$2&lt;=1.001,L34/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.84521384928716903</v>
       </c>
       <c r="N34" s="1">
         <v>0</v>
       </c>
       <c r="O34" s="8">
-        <f>IF(N34/$O$2&lt;=1.001,N34/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P34" s="1">
         <v>0</v>
       </c>
       <c r="Q34" s="8">
-        <f>IF(P34/$Q$2&lt;=1.001,P34/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R34" s="4">
@@ -5412,19 +5663,26 @@
         <v>0</v>
       </c>
       <c r="AC34" s="8">
-        <f>IF(AB34/$AC$2&lt;=1.01,AB34/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD34" s="1">
         <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE34" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.99599136601911809</v>
       </c>
-      <c r="AF34" s="4"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="4"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>25</v>
       </c>
@@ -5432,7 +5690,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35">
         <v>1076904274</v>
@@ -5444,42 +5702,42 @@
         <v>1.7430555555555557E-2</v>
       </c>
       <c r="G35" s="8">
-        <f>IF(F35/$G$2&lt;=1.001,F35/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99933642999336436</v>
       </c>
       <c r="H35" s="3">
         <v>3.9814814814814817E-2</v>
       </c>
       <c r="I35" s="8">
-        <f>IF(H35/$I$2&lt;=1.001,H35/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>1.0008728542333429</v>
       </c>
       <c r="J35" s="3">
         <v>3.5451388888888886E-2</v>
       </c>
       <c r="K35" s="8">
-        <f>IF(J35/$K$2&lt;=1.001,J35/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>0.98615582743077912</v>
       </c>
       <c r="L35" s="3">
         <v>1.4166666666666666E-2</v>
       </c>
       <c r="M35" s="8">
-        <f>IF(L35/$M$2&lt;=1.001,L35/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.62321792260692466</v>
       </c>
       <c r="N35" s="1">
         <v>4.6666666666666669E-2</v>
       </c>
       <c r="O35" s="8">
-        <f>IF(N35/$O$2&lt;=1.001,N35/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>1.0002480774001488</v>
       </c>
       <c r="P35" s="1">
         <v>4.3159722222222224E-2</v>
       </c>
       <c r="Q35" s="8">
-        <f>IF(P35/$Q$2&lt;=1.001,P35/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>0.99892847575676402</v>
       </c>
       <c r="R35" s="4">
@@ -5519,27 +5777,33 @@
         <v>0</v>
       </c>
       <c r="AC35" s="8">
-        <f>IF(AB35/$AC$2&lt;=1.01,AB35/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD35" s="1">
         <v>0</v>
       </c>
       <c r="AE35" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="4"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>3.8368055555555558E-2</v>
+      </c>
+      <c r="AG35" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="4"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20</v>
       </c>
       <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
         <v>102</v>
-      </c>
-      <c r="C36" t="s">
-        <v>103</v>
       </c>
       <c r="D36">
         <v>1002886235</v>
@@ -5551,42 +5815,42 @@
         <v>1.7395833333333333E-2</v>
       </c>
       <c r="G36" s="8">
-        <f>IF(F36/$G$2&lt;=1.001,F36/$G$2,0.6)</f>
+        <f t="shared" si="0"/>
         <v>0.99734571997345711</v>
       </c>
       <c r="H36" s="3">
         <v>3.8217592592592595E-2</v>
       </c>
       <c r="I36" s="8">
-        <f>IF(H36/$I$2&lt;=1.001,H36/$I$2,0.6)</f>
+        <f t="shared" si="1"/>
         <v>0.9607215594995635</v>
       </c>
       <c r="J36" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K36" s="8">
-        <f>IF(J36/$K$2&lt;=1.001,J36/$K$2,0.6)</f>
+        <f t="shared" si="2"/>
         <v>1.00032195750161</v>
       </c>
       <c r="L36" s="3">
         <v>2.2662037037037036E-2</v>
       </c>
       <c r="M36" s="8">
-        <f>IF(L36/$M$2&lt;=1.001,L36/$M$2,0.6)</f>
+        <f t="shared" si="3"/>
         <v>0.9969450101832994</v>
       </c>
       <c r="N36" s="1">
         <v>4.6666666666666669E-2</v>
       </c>
       <c r="O36" s="8">
-        <f>IF(N36/$O$2&lt;=1.001,N36/$O$2,0.6)</f>
+        <f t="shared" si="4"/>
         <v>1.0002480774001488</v>
       </c>
       <c r="P36" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q36" s="8">
-        <f>IF(P36/$Q$2&lt;=1.001,P36/$Q$2,0.6)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R36" s="4">
@@ -5626,25 +5890,31 @@
         <v>4.1157407407407406E-2</v>
       </c>
       <c r="AC36" s="8">
-        <f>IF(AB36/$AC$2&lt;=1.01,AB36/$AC$2,0.6)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD36" s="1">
         <v>0</v>
       </c>
       <c r="AE36" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF36" s="4"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>3.8368055555555558E-2</v>
+      </c>
+      <c r="AG36" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="4"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Z39" s="34"/>
     </row>
   </sheetData>
@@ -5675,37 +5945,37 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5718,7 +5988,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="B2" sqref="B2:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5730,18 +6000,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>47</v>
@@ -5752,10 +6025,10 @@
         <v>66</v>
       </c>
       <c r="B3" s="1">
-        <v>3.7314814814814815E-2</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>27</v>
@@ -5766,21 +6039,24 @@
         <v>67</v>
       </c>
       <c r="B4" s="1">
-        <v>2.2129629629629631E-2</v>
+        <v>1.8831018518518518E-2</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>3.7245370370370373E-2</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>43</v>
@@ -5791,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>7</v>
@@ -5802,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>39</v>
@@ -5813,10 +6089,10 @@
         <v>68</v>
       </c>
       <c r="B8" s="1">
-        <v>3.7303240740740741E-2</v>
+        <v>3.215277777777778E-2</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>21</v>
@@ -5827,21 +6103,24 @@
         <v>69</v>
       </c>
       <c r="B9" s="1">
-        <v>3.2986111111111112E-2</v>
+        <v>3.6724537037037035E-2</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>31</v>
@@ -5849,13 +6128,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>25</v>
@@ -5863,27 +6142,24 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="1">
-        <v>2.9525462962962962E-2</v>
+        <v>3.7488425925925925E-2</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
       <c r="B13" s="1">
-        <v>3.712962962962963E-2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>11</v>
@@ -5891,13 +6167,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="1">
-        <v>3.6712962962962961E-2</v>
+        <v>3.7557870370370373E-2</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>17</v>
@@ -5905,13 +6181,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>37</v>
@@ -5919,13 +6195,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>15</v>
@@ -5933,13 +6209,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>49</v>
@@ -5950,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>9</v>
@@ -5961,21 +6237,21 @@
         <v>0</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1">
-        <v>3.6747685185185182E-2</v>
+        <v>8.1134259259259267E-3</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>35</v>
@@ -5983,13 +6259,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="1">
-        <v>1.3356481481481481E-2</v>
+        <v>2.5115740740740741E-2</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>5</v>
@@ -5997,13 +6273,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B22" s="1">
-        <v>3.5624999999999997E-2</v>
+        <v>3.6076388888888887E-2</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>53</v>
@@ -6011,78 +6287,77 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B23" s="1">
-        <v>3.7291666666666667E-2</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="H23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3.8368055555555558E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B24" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>2.8125000000000001E-2</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>205</v>
+      </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>1.4351851851851852E-3</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H25" t="s">
-        <v>201</v>
-      </c>
-      <c r="I25" s="1">
-        <v>3.7534722222222219E-2</v>
-      </c>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>2.9363425925925925E-2</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H26" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="1">
-        <v>3.7372685185185182E-2</v>
-      </c>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1">
-        <v>1.6608796296296295E-2</v>
+        <v>3.4942129629629629E-2</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>45</v>
@@ -6091,13 +6366,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1">
-        <v>3.3958333333333333E-2</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>23</v>
@@ -6105,13 +6380,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" s="1">
-        <v>3.5486111111111114E-2</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>19</v>
@@ -6119,13 +6394,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B30" s="1">
-        <v>3.7256944444444447E-2</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>57</v>
@@ -6133,52 +6408,55 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="B31" s="1">
-        <v>3.5995370370370372E-2</v>
+        <v>2.7118055555555555E-2</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>80</v>
-      </c>
       <c r="B32" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>0</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -6214,18 +6492,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -6234,12 +6512,12 @@
         <v>8</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -6248,12 +6526,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -6262,12 +6540,12 @@
         <v>2</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
@@ -6276,12 +6554,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -6290,12 +6568,12 @@
         <v>2</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -6304,12 +6582,12 @@
         <v>3</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -6318,12 +6596,12 @@
         <v>4</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -6332,12 +6610,12 @@
         <v>5</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
@@ -6346,12 +6624,12 @@
         <v>4</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -6360,12 +6638,12 @@
         <v>6</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -6374,12 +6652,12 @@
         <v>5</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -6388,12 +6666,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -6402,12 +6680,12 @@
         <v>4</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
@@ -6416,26 +6694,26 @@
         <v>5</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="20">
         <v>8</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -6444,12 +6722,12 @@
         <v>7</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -6458,12 +6736,12 @@
         <v>7</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
         <v>53</v>
@@ -6472,40 +6750,40 @@
         <v>6</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" s="19">
         <v>1</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="19">
         <v>2</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -6514,12 +6792,12 @@
         <v>5</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
@@ -6528,12 +6806,12 @@
         <v>4</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -6542,12 +6820,12 @@
         <v>3</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
@@ -6556,12 +6834,12 @@
         <v>3</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
         <v>57</v>
@@ -6570,12 +6848,12 @@
         <v>3</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
@@ -6584,12 +6862,12 @@
         <v>4</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -6598,21 +6876,21 @@
         <v>6</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="20">
         <v>7</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -6621,7 +6899,7 @@
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="24"/>
@@ -6632,7 +6910,7 @@
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="14"/>
@@ -6643,7 +6921,7 @@
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="19"/>
     </row>
@@ -6653,17 +6931,17 @@
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="19"/>
     </row>

--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5F4ACB-2B44-479A-9DC3-1A8FDA65649D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA161C4B-2FC4-4ED3-A67B-E2FFA67F4FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-2" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="226">
   <si>
     <t>Num</t>
   </si>
@@ -693,6 +693,57 @@
   </si>
   <si>
     <t>%Conexión92</t>
+  </si>
+  <si>
+    <t>Órganos Asignados</t>
+  </si>
+  <si>
+    <t>bazo</t>
+  </si>
+  <si>
+    <t>riñón derecho</t>
+  </si>
+  <si>
+    <t>riñón izquierdo</t>
+  </si>
+  <si>
+    <t>vesícula biliar</t>
+  </si>
+  <si>
+    <t>hígado</t>
+  </si>
+  <si>
+    <t>estómago</t>
+  </si>
+  <si>
+    <t>páncreas</t>
+  </si>
+  <si>
+    <t>pulmón izquierdo</t>
+  </si>
+  <si>
+    <t>pulmón derecho</t>
+  </si>
+  <si>
+    <t>esófago</t>
+  </si>
+  <si>
+    <t>intestino delgado</t>
+  </si>
+  <si>
+    <t>duodeno</t>
+  </si>
+  <si>
+    <t>colon</t>
+  </si>
+  <si>
+    <t>vejiga urinaria</t>
+  </si>
+  <si>
+    <t>próstata</t>
+  </si>
+  <si>
+    <t>Próstata</t>
   </si>
 </sst>
 </file>
@@ -703,7 +754,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,6 +907,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1054,7 +1112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1215,6 +1273,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1261,7 +1371,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1341,63 +1451,79 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="32">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="26" formatCode="h:mm:ss"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1586,18 +1712,18 @@
     <tableColumn id="31" xr3:uid="{16616376-8A06-4C29-A128-6431F97D4DD9}" name="%Conexión8" dataDxfId="3">
       <calculatedColumnFormula>IF(AD4/$AE$2&lt;=1.01,AD4/$AE$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{C72915B1-C70C-4096-837F-1AC0F6176851}" name="%Conexión9" dataDxfId="1"/>
-    <tableColumn id="33" xr3:uid="{64BD73A0-6AB2-41EA-80B2-E94CA28F1896}" name="%Conexión92" dataDxfId="0">
+    <tableColumn id="34" xr3:uid="{C72915B1-C70C-4096-837F-1AC0F6176851}" name="%Conexión9" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{64BD73A0-6AB2-41EA-80B2-E94CA28F1896}" name="%Conexión92" dataDxfId="1">
       <calculatedColumnFormula>IF(AF4/$AG$2&lt;=1.01,AF4/$AG$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="DICOM craneal" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="DICOM craneal" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1915,11 +2041,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD2CE0-6169-477F-B8E1-2987D9E7C726}">
   <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AG29" sqref="AG29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
@@ -2270,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="8">
-        <f t="shared" ref="AE4:AG36" si="7">IF(AD4/$AE$2&lt;=1.01,AD4/$AE$2,0.6)</f>
+        <f t="shared" ref="AE4:AE36" si="7">IF(AD4/$AE$2&lt;=1.01,AD4/$AE$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="AF4" s="1">
@@ -2503,7 +2629,7 @@
         <v>1.8831018518518518E-2</v>
       </c>
       <c r="AG6" s="8">
-        <f t="shared" ref="AG4:AG36" si="8">IF(AF6/$AG$2&lt;=1.01,AF6/$AG$2,0.6)</f>
+        <f t="shared" ref="AG6:AG34" si="8">IF(AF6/$AG$2&lt;=1.01,AF6/$AG$2,0.6)</f>
         <v>0.50169596053037313</v>
       </c>
       <c r="AH6" s="4"/>
@@ -5938,7 +6064,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="75.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -5991,7 +6117,7 @@
       <selection activeCell="B2" sqref="B2:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -6472,22 +6598,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1633F340-5B77-4BB3-B5D5-C1FFFC050A5C}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
@@ -6500,8 +6628,16 @@
       <c r="E1" s="25" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>104</v>
       </c>
@@ -6514,8 +6650,20 @@
       <c r="E2" s="21" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="41">
+        <v>1061688602</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>98</v>
       </c>
@@ -6528,8 +6676,20 @@
       <c r="E3" s="21" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="42">
+        <v>1110286885</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>97</v>
       </c>
@@ -6542,8 +6702,20 @@
       <c r="E4" s="21" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="41">
+        <v>1112388246</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>84</v>
       </c>
@@ -6556,8 +6728,20 @@
       <c r="E5" s="21" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="42">
+        <v>1109542109</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>96</v>
       </c>
@@ -6570,8 +6754,20 @@
       <c r="E6" s="21" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="41">
+        <v>1193276119</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>87</v>
       </c>
@@ -6584,8 +6780,20 @@
       <c r="E7" s="21" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="42">
+        <v>1143992171</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>92</v>
       </c>
@@ -6598,8 +6806,20 @@
       <c r="E8" s="21" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="41">
+        <v>1000940688</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -6612,8 +6832,20 @@
       <c r="E9" s="21" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="42">
+        <v>1007560675</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>103</v>
       </c>
@@ -6626,8 +6858,20 @@
       <c r="E10" s="21" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="41">
+        <v>1110285503</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>103</v>
       </c>
@@ -6640,8 +6884,20 @@
       <c r="E11" s="21" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="42">
+        <v>1107837304</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>106</v>
       </c>
@@ -6654,8 +6910,20 @@
       <c r="E12" s="21" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="41">
+        <v>1112388822</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>82</v>
       </c>
@@ -6668,8 +6936,20 @@
       <c r="E13" s="21" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="42">
+        <v>1107839506</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>86</v>
       </c>
@@ -6682,8 +6962,20 @@
       <c r="E14" s="21" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="41">
+        <v>1112041894</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -6696,8 +6988,20 @@
       <c r="E15" s="21" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="42">
+        <v>1005785665</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>115</v>
       </c>
@@ -6710,8 +7014,20 @@
       <c r="E16" s="21" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="41">
+        <v>1113978874</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>91</v>
       </c>
@@ -6724,8 +7040,20 @@
       <c r="E17" s="21" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="42">
+        <v>1105366146</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>112</v>
       </c>
@@ -6738,8 +7066,20 @@
       <c r="E18" s="21" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="41">
+        <v>1004189893</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>109</v>
       </c>
@@ -6752,8 +7092,20 @@
       <c r="E19" s="21" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="42">
+        <v>1062276579</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>94</v>
       </c>
@@ -6766,8 +7118,20 @@
       <c r="E20" s="21" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="41">
+        <v>1058932076</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>94</v>
       </c>
@@ -6780,8 +7144,20 @@
       <c r="E21" s="21" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="42">
+        <v>1113362057</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>89</v>
       </c>
@@ -6794,8 +7170,20 @@
       <c r="E22" s="21" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="41">
+        <v>1112389849</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>83</v>
       </c>
@@ -6808,8 +7196,20 @@
       <c r="E23" s="21" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="42">
+        <v>1036925847</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>100</v>
       </c>
@@ -6822,8 +7222,20 @@
       <c r="E24" s="21" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="41">
+        <v>1107837413</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>108</v>
       </c>
@@ -6836,8 +7248,20 @@
       <c r="E25" s="21" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="42">
+        <v>1234198199</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>111</v>
       </c>
@@ -6850,8 +7274,20 @@
       <c r="E26" s="21" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="41">
+        <v>1005892878</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="I26" s="41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>95</v>
       </c>
@@ -6864,8 +7300,20 @@
       <c r="E27" s="21" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="42">
+        <v>1104804719</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>107</v>
       </c>
@@ -6878,8 +7326,20 @@
       <c r="E28" s="21" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="41">
+        <v>1005832925</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>102</v>
       </c>
@@ -6892,8 +7352,20 @@
       <c r="E29" s="21" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="42">
+        <v>1006343564</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>7</v>
       </c>
@@ -6903,8 +7375,20 @@
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="41">
+        <v>73265790</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
@@ -6914,8 +7398,20 @@
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="42">
+        <v>1004217163</v>
+      </c>
+      <c r="G31" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>9</v>
       </c>
@@ -6924,8 +7420,11 @@
         <v>88</v>
       </c>
       <c r="D32" s="19"/>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="41">
+        <v>1094883894</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>41</v>
       </c>
@@ -6934,8 +7433,11 @@
         <v>110</v>
       </c>
       <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="42">
+        <v>1076904274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>99</v>
       </c>
@@ -6944,6 +7446,9 @@
         <v>95</v>
       </c>
       <c r="D34" s="19"/>
+      <c r="F34" s="41">
+        <v>1002886235</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E34" xr:uid="{1633F340-5B77-4BB3-B5D5-C1FFFC050A5C}">
@@ -6956,6 +7461,9 @@
       <sortCondition ref="C1:C34"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{830FA8C8-0B69-41E9-93D8-38F9CCECCAE8}"/>
     <hyperlink ref="E5" r:id="rId2" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/EaIWo7YFVYlAuN93clEL44gBAXKbjKXNfPryYCfZL6L4MQ?e=7ImTKy" xr:uid="{E29BB367-97C0-4920-BBFA-46523E5A3E30}"/>

--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA161C4B-2FC4-4ED3-A67B-E2FFA67F4FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04498B3-DA7B-4341-A7F9-A63AD5EFCF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-2" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="226">
   <si>
     <t>Num</t>
   </si>
@@ -413,9 +413,6 @@
     <t xml:space="preserve"> JULIANA</t>
   </si>
   <si>
-    <t>ILSE FERNANDEZ VELASCO</t>
-  </si>
-  <si>
     <t>ROSA CATHERINE ROJAS ROJAS</t>
   </si>
   <si>
@@ -591,9 +588,6 @@
   </si>
   <si>
     <t>CRANEAL 28.zip</t>
-  </si>
-  <si>
-    <t>ISABELLA MUNOZ BECERRA</t>
   </si>
   <si>
     <t>JUAN ESTEBAN BERMUDEZ DIAZ</t>
@@ -683,18 +677,12 @@
     <t>MARIA GRACIELA RUIZ LEDESMA</t>
   </si>
   <si>
-    <t>MAYLIN SANCHEZ SOLANO</t>
-  </si>
-  <si>
     <t>SANTIAGO GUERRA CALVACHI</t>
   </si>
   <si>
     <t xml:space="preserve">Semana 9: </t>
   </si>
   <si>
-    <t>%Conexión92</t>
-  </si>
-  <si>
     <t>Órganos Asignados</t>
   </si>
   <si>
@@ -744,6 +732,18 @@
   </si>
   <si>
     <t>Próstata</t>
+  </si>
+  <si>
+    <t>ISABELLA ROMERO PENA</t>
+  </si>
+  <si>
+    <t>T.Conexión9</t>
+  </si>
+  <si>
+    <t>T.Conexión10</t>
+  </si>
+  <si>
+    <t>%Conexión10</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1371,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1454,6 +1454,8 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1463,57 +1465,61 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="34">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1653,77 +1659,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:AH36" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A3:AH36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AH36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:AJ36" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A3:AJ36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AJ36">
     <sortCondition ref="C3:C36"/>
   </sortState>
-  <tableColumns count="34">
+  <tableColumns count="36">
     <tableColumn id="1" xr3:uid="{2951ACD3-7E7C-4B15-8969-BBEC77220F09}" name="Num"/>
     <tableColumn id="2" xr3:uid="{41C291F5-DA77-4B55-A49C-CDE28AB05F1C}" name="Apellidos"/>
     <tableColumn id="3" xr3:uid="{4EF9A0E0-8B64-4D77-BF58-1466EBFC70F8}" name="Nombres"/>
-    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="31"/>
     <tableColumn id="5" xr3:uid="{E5E637F3-98DE-4C48-8975-E4FF30179C84}" name="email"/>
-    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="27">
+    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="29">
       <calculatedColumnFormula>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión2" dataDxfId="25">
+    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión2" dataDxfId="27">
       <calculatedColumnFormula>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión3" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión3" dataDxfId="23">
+    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión3" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión3" dataDxfId="25">
       <calculatedColumnFormula>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión4" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión4" dataDxfId="21">
+    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión4" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión4" dataDxfId="23">
       <calculatedColumnFormula>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión5" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión5" dataDxfId="19">
+    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión5" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión5" dataDxfId="21">
       <calculatedColumnFormula>IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión6" dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión6" dataDxfId="17">
+    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión6" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión6" dataDxfId="19">
       <calculatedColumnFormula>IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{5430F0E6-F861-44B2-B1CA-6E2A24842801}" name="Asistencia" dataDxfId="16">
+    <tableColumn id="21" xr3:uid="{5430F0E6-F861-44B2-B1CA-6E2A24842801}" name="Asistencia" dataDxfId="18">
       <calculatedColumnFormula>AVERAGE(G4,I4,K4,M4,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{5E18873E-0421-4811-A7ED-EFE7A5B09CB1}" name="Grupo" dataDxfId="15"/>
-    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Gesto Asignado" dataDxfId="14">
+    <tableColumn id="22" xr3:uid="{5E18873E-0421-4811-A7ED-EFE7A5B09CB1}" name="Grupo" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Gesto Asignado" dataDxfId="16">
       <calculatedColumnFormula array="1">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{9680D2F4-FF61-42C8-B8B8-A6D565F1061F}" name="Conceptos fundamentales (Semana 1) " dataDxfId="13"/>
-    <tableColumn id="29" xr3:uid="{2C8549F9-6C7C-4C18-8BD8-913F1238E3A1}" name="Operaciones sobre piezas (Semana 2) " dataDxfId="12"/>
-    <tableColumn id="28" xr3:uid="{01B7F4FF-718E-4142-B28F-3C5C6E213A9D}" name="Operaciones básicas para Modelado de Superficies _x000a_(Semana 3) " dataDxfId="11"/>
-    <tableColumn id="27" xr3:uid="{FB3D7617-43A2-4406-8A1B-342CC431D360}" name="Modelado avanzado y reparación de Superficies _x000a_(Semana 4) " dataDxfId="10"/>
-    <tableColumn id="26" xr3:uid="{15CC947B-1D11-40C4-BDF3-E97BFC12F776}" name="Modelado a partir de datos de scanner _x000a_(Semana 5) " dataDxfId="9"/>
-    <tableColumn id="25" xr3:uid="{7ECFE038-AA59-4517-90E9-2B3566EA5DBF}" name="Escaneo de partes anatómicas (Semana 6) " dataDxfId="8"/>
-    <tableColumn id="24" xr3:uid="{D2AC9EBA-9E21-4D91-B98D-BEC9F52C6380}" name="Nota 1er Corte" dataDxfId="7">
+    <tableColumn id="30" xr3:uid="{9680D2F4-FF61-42C8-B8B8-A6D565F1061F}" name="Conceptos fundamentales (Semana 1) " dataDxfId="15"/>
+    <tableColumn id="29" xr3:uid="{2C8549F9-6C7C-4C18-8BD8-913F1238E3A1}" name="Operaciones sobre piezas (Semana 2) " dataDxfId="14"/>
+    <tableColumn id="28" xr3:uid="{01B7F4FF-718E-4142-B28F-3C5C6E213A9D}" name="Operaciones básicas para Modelado de Superficies _x000a_(Semana 3) " dataDxfId="13"/>
+    <tableColumn id="27" xr3:uid="{FB3D7617-43A2-4406-8A1B-342CC431D360}" name="Modelado avanzado y reparación de Superficies _x000a_(Semana 4) " dataDxfId="12"/>
+    <tableColumn id="26" xr3:uid="{15CC947B-1D11-40C4-BDF3-E97BFC12F776}" name="Modelado a partir de datos de scanner _x000a_(Semana 5) " dataDxfId="11"/>
+    <tableColumn id="25" xr3:uid="{7ECFE038-AA59-4517-90E9-2B3566EA5DBF}" name="Escaneo de partes anatómicas (Semana 6) " dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{D2AC9EBA-9E21-4D91-B98D-BEC9F52C6380}" name="Nota 1er Corte" dataDxfId="9">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{85803527-97A7-4D57-A5D2-AF49B49DFBB6}" name="T.Conexión7" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{3C385566-1188-4AA7-B618-44B1F28F2C3E}" name="%Conexión7" dataDxfId="5">
+    <tableColumn id="23" xr3:uid="{85803527-97A7-4D57-A5D2-AF49B49DFBB6}" name="T.Conexión7" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{3C385566-1188-4AA7-B618-44B1F28F2C3E}" name="%Conexión7" dataDxfId="7">
       <calculatedColumnFormula>IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{DA39C125-36F8-4764-B8CE-ED2AA2E45580}" name="T.Conexión8" dataDxfId="4"/>
-    <tableColumn id="31" xr3:uid="{16616376-8A06-4C29-A128-6431F97D4DD9}" name="%Conexión8" dataDxfId="3">
+    <tableColumn id="32" xr3:uid="{DA39C125-36F8-4764-B8CE-ED2AA2E45580}" name="T.Conexión8" dataDxfId="6"/>
+    <tableColumn id="31" xr3:uid="{16616376-8A06-4C29-A128-6431F97D4DD9}" name="%Conexión8" dataDxfId="5">
       <calculatedColumnFormula>IF(AD4/$AE$2&lt;=1.01,AD4/$AE$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{C72915B1-C70C-4096-837F-1AC0F6176851}" name="%Conexión9" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{64BD73A0-6AB2-41EA-80B2-E94CA28F1896}" name="%Conexión92" dataDxfId="1">
+    <tableColumn id="34" xr3:uid="{C72915B1-C70C-4096-837F-1AC0F6176851}" name="T.Conexión9" dataDxfId="4"/>
+    <tableColumn id="33" xr3:uid="{64BD73A0-6AB2-41EA-80B2-E94CA28F1896}" name="%Conexión9" dataDxfId="3">
       <calculatedColumnFormula>IF(AF4/$AG$2&lt;=1.01,AF4/$AG$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="DICOM craneal" dataDxfId="0"/>
+    <tableColumn id="36" xr3:uid="{F0830AFA-8C17-4DB9-A373-A75CC7DF2F83}" name="T.Conexión10" dataDxfId="1"/>
+    <tableColumn id="35" xr3:uid="{4D72883D-7062-4769-91FF-E8347DDDF8EA}" name="%Conexión10" dataDxfId="0">
+      <calculatedColumnFormula>IF(AH4/$AI$2&lt;=1.01,AH4/$AI$2,0.6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="DICOM craneal" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2039,13 +2049,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD2CE0-6169-477F-B8E1-2987D9E7C726}">
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E36"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AI33" sqref="AI33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
@@ -2064,43 +2074,43 @@
     <col min="25" max="25" width="21.28515625" style="27" customWidth="1"/>
     <col min="26" max="26" width="15.85546875" style="27" customWidth="1"/>
     <col min="27" max="27" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="33" width="16.85546875" style="2" customWidth="1"/>
-    <col min="34" max="34" width="11.42578125" customWidth="1"/>
+    <col min="28" max="35" width="16.85546875" style="2" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="F1" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G1" s="6">
         <v>45867</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I1" s="6">
         <v>45874</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K1" s="6">
         <v>45881</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M1" s="6">
         <v>45888</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O1" s="6">
         <v>45895</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q1" s="6">
         <v>45902</v>
@@ -2108,60 +2118,66 @@
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="AA1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="AC1" s="6">
         <v>45909</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AE1" s="6">
         <v>45916</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AG1" s="6">
         <v>45923</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI1" s="6">
+        <v>45930</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="F2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" s="7">
         <v>1.744212962962963E-2</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I2" s="7">
         <v>3.9780092592592596E-2</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K2" s="7">
         <v>3.5949074074074071E-2</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M2" s="7">
         <v>2.2731481481481481E-2</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O2" s="1">
         <v>4.6655092592592595E-2</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q2" s="1">
         <v>4.3206018518518519E-2</v>
@@ -2169,28 +2185,34 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="AA2" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC2" s="1">
         <v>4.1157407407407406E-2</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE2" s="1">
         <v>3.7534722222222219E-2</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG2" s="1">
         <v>3.7534722222222219E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="AH2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
@@ -2207,94 +2229,100 @@
         <v>65</v>
       </c>
       <c r="F3" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="I3" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="L3" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="N3" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="K3" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="31" t="s">
+      <c r="O3" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="P3" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="R3" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="T3" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="U3" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="X3" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y3" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z3" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA3" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB3" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="O3" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="P3" s="31" t="s">
+      <c r="AC3" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="Q3" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="T3" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="U3" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="V3" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="W3" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="X3" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y3" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z3" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA3" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB3" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC3" s="32" t="s">
-        <v>127</v>
-      </c>
       <c r="AD3" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE3" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF3" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG3" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AE3" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF3" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="AG3" s="32" t="s">
-        <v>208</v>
-      </c>
       <c r="AH3" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="AI3" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ3" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -2405,9 +2433,16 @@
       <c r="AG4" s="8">
         <v>1</v>
       </c>
-      <c r="AH4" s="4"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH4" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI4" s="8">
+        <f t="shared" ref="AI4:AI36" si="8">IF(AH4/$AI$2&lt;=1.01,AH4/$AI$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="4"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>17</v>
       </c>
@@ -2518,9 +2553,16 @@
       <c r="AG5" s="8">
         <v>1</v>
       </c>
-      <c r="AH5" s="4"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH5" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI5" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="4"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
@@ -2629,12 +2671,19 @@
         <v>1.8831018518518518E-2</v>
       </c>
       <c r="AG6" s="8">
-        <f t="shared" ref="AG6:AG34" si="8">IF(AF6/$AG$2&lt;=1.01,AF6/$AG$2,0.6)</f>
+        <f t="shared" ref="AG6:AG34" si="9">IF(AF6/$AG$2&lt;=1.01,AF6/$AG$2,0.6)</f>
         <v>0.50169596053037313</v>
       </c>
-      <c r="AH6" s="4"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH6" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI6" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="4"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2743,12 +2792,19 @@
         <v>3.7245370370370373E-2</v>
       </c>
       <c r="AG7" s="8">
+        <f t="shared" si="9"/>
+        <v>0.99229108849830416</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI7" s="8">
         <f t="shared" si="8"/>
-        <v>0.99229108849830416</v>
-      </c>
-      <c r="AH7" s="4"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="4"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2855,12 +2911,19 @@
         <v>0</v>
       </c>
       <c r="AG8" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH8" s="4"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="4"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>23</v>
       </c>
@@ -2967,12 +3030,19 @@
         <v>0</v>
       </c>
       <c r="AG9" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH9" s="4"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="4"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -3081,12 +3151,19 @@
         <v>3.215277777777778E-2</v>
       </c>
       <c r="AG10" s="8">
+        <f t="shared" si="9"/>
+        <v>0.85661424606845527</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI10" s="8">
         <f t="shared" si="8"/>
-        <v>0.85661424606845527</v>
-      </c>
-      <c r="AH10" s="4"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="4"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3195,12 +3272,19 @@
         <v>3.6724537037037035E-2</v>
       </c>
       <c r="AG11" s="8">
+        <f t="shared" si="9"/>
+        <v>0.97841504779525135</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI11" s="8">
         <f t="shared" si="8"/>
-        <v>0.97841504779525135</v>
-      </c>
-      <c r="AH11" s="4"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="4"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3311,9 +3395,16 @@
       <c r="AG12" s="8">
         <v>1</v>
       </c>
-      <c r="AH12" s="4"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH12" s="1">
+        <v>1.412037037037037E-2</v>
+      </c>
+      <c r="AI12" s="8">
+        <f t="shared" si="8"/>
+        <v>0.95911949685534592</v>
+      </c>
+      <c r="AJ12" s="4"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3424,9 +3515,16 @@
       <c r="AG13" s="8">
         <v>1</v>
       </c>
-      <c r="AH13" s="4"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH13" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI13" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="4"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
@@ -3535,12 +3633,19 @@
         <v>3.7488425925925925E-2</v>
       </c>
       <c r="AG14" s="8">
+        <f t="shared" si="9"/>
+        <v>0.99876657415972869</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="8">
         <f t="shared" si="8"/>
-        <v>0.99876657415972869</v>
-      </c>
-      <c r="AH14" s="4"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="4"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>27</v>
       </c>
@@ -3649,12 +3754,19 @@
         <v>0</v>
       </c>
       <c r="AG15" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI15" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="4"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="4"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24</v>
       </c>
@@ -3763,12 +3875,19 @@
         <v>3.7557870370370373E-2</v>
       </c>
       <c r="AG16" s="8">
+        <f t="shared" si="9"/>
+        <v>1.0006167129201358</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI16" s="8">
         <f t="shared" si="8"/>
-        <v>1.0006167129201358</v>
-      </c>
-      <c r="AH16" s="4"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="4"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3879,9 +3998,16 @@
       <c r="AG17" s="8">
         <v>1</v>
       </c>
-      <c r="AH17" s="4"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH17" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI17" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="4"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -3992,9 +4118,16 @@
       <c r="AG18" s="8">
         <v>1</v>
       </c>
-      <c r="AH18" s="4"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH18" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI18" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="4"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -4103,12 +4236,19 @@
         <v>3.8368055555555558E-2</v>
       </c>
       <c r="AG19" s="8">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI19" s="8">
         <f t="shared" si="8"/>
-        <v>0.6</v>
-      </c>
-      <c r="AH19" s="4"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="4"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -4215,12 +4355,19 @@
         <v>0</v>
       </c>
       <c r="AG20" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH20" s="4"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ20" s="4"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>33</v>
       </c>
@@ -4329,12 +4476,19 @@
         <v>0</v>
       </c>
       <c r="AG21" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH21" s="4"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ21" s="4"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -4443,12 +4597,19 @@
         <v>8.1134259259259267E-3</v>
       </c>
       <c r="AG22" s="8">
+        <f t="shared" si="9"/>
+        <v>0.21615787850755477</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI22" s="8">
         <f t="shared" si="8"/>
-        <v>0.21615787850755477</v>
-      </c>
-      <c r="AH22" s="4"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="4"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>31</v>
       </c>
@@ -4557,12 +4718,19 @@
         <v>2.5115740740740741E-2</v>
       </c>
       <c r="AG23" s="8">
+        <f t="shared" si="9"/>
+        <v>0.66913351834720947</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>1.2256944444444445E-2</v>
+      </c>
+      <c r="AI23" s="8">
         <f t="shared" si="8"/>
-        <v>0.66913351834720947</v>
-      </c>
-      <c r="AH23" s="4"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+        <v>0.83254716981132082</v>
+      </c>
+      <c r="AJ23" s="4"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>28</v>
       </c>
@@ -4671,12 +4839,19 @@
         <v>3.6076388888888887E-2</v>
       </c>
       <c r="AG24" s="8">
+        <f t="shared" si="9"/>
+        <v>0.96114708603145238</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI24" s="8">
         <f t="shared" si="8"/>
-        <v>0.96114708603145238</v>
-      </c>
-      <c r="AH24" s="4"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="4"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>32</v>
       </c>
@@ -4787,9 +4962,16 @@
       <c r="AG25" s="8">
         <v>1</v>
       </c>
-      <c r="AH25" s="4"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH25" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI25" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="4"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -4898,12 +5080,19 @@
         <v>2.8125000000000001E-2</v>
       </c>
       <c r="AG26" s="8">
+        <f t="shared" si="9"/>
+        <v>0.74930619796484743</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI26" s="8">
         <f t="shared" si="8"/>
-        <v>0.74930619796484743</v>
-      </c>
-      <c r="AH26" s="4"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="4"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>29</v>
       </c>
@@ -5010,12 +5199,19 @@
         <v>1.4351851851851852E-3</v>
       </c>
       <c r="AG27" s="8">
+        <f t="shared" si="9"/>
+        <v>3.8236201048411966E-2</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="8">
         <f t="shared" si="8"/>
-        <v>3.8236201048411966E-2</v>
-      </c>
-      <c r="AH27" s="4"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="4"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -5124,12 +5320,19 @@
         <v>2.9363425925925925E-2</v>
       </c>
       <c r="AG28" s="8">
+        <f t="shared" si="9"/>
+        <v>0.78230033919210606</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI28" s="8">
         <f t="shared" si="8"/>
-        <v>0.78230033919210606</v>
-      </c>
-      <c r="AH28" s="4"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="4"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -5238,12 +5441,19 @@
         <v>3.4942129629629629E-2</v>
       </c>
       <c r="AG29" s="8">
+        <f t="shared" si="9"/>
+        <v>0.93092815294480424</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI29" s="8">
         <f t="shared" si="8"/>
-        <v>0.93092815294480424</v>
-      </c>
-      <c r="AH29" s="4"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="4"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19</v>
       </c>
@@ -5354,9 +5564,16 @@
       <c r="AG30" s="8">
         <v>1</v>
       </c>
-      <c r="AH30" s="4"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH30" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI30" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="4"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -5467,9 +5684,16 @@
       <c r="AG31" s="8">
         <v>1</v>
       </c>
-      <c r="AH31" s="4"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH31" s="1">
+        <v>1.4386574074074074E-2</v>
+      </c>
+      <c r="AI31" s="8">
+        <f t="shared" si="8"/>
+        <v>0.97720125786163525</v>
+      </c>
+      <c r="AJ31" s="4"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5580,9 +5804,15 @@
       <c r="AG32" s="8">
         <v>1</v>
       </c>
-      <c r="AH32" s="4"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH32" s="1">
+        <v>2.855324074074074E-2</v>
+      </c>
+      <c r="AI32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="4"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13</v>
       </c>
@@ -5691,12 +5921,19 @@
         <v>2.7118055555555555E-2</v>
       </c>
       <c r="AG33" s="8">
+        <f t="shared" si="9"/>
+        <v>0.72247918593894545</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI33" s="8">
         <f t="shared" si="8"/>
-        <v>0.72247918593894545</v>
-      </c>
-      <c r="AH33" s="4"/>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="4"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>18</v>
       </c>
@@ -5803,12 +6040,19 @@
         <v>0</v>
       </c>
       <c r="AG34" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH34" s="4"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ34" s="4"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>25</v>
       </c>
@@ -5919,9 +6163,16 @@
       <c r="AG35" s="8">
         <v>1</v>
       </c>
-      <c r="AH35" s="4"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH35" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI35" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="4"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20</v>
       </c>
@@ -6032,15 +6283,22 @@
       <c r="AG36" s="8">
         <v>1</v>
       </c>
-      <c r="AH36" s="4"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH36" s="1">
+        <v>1.4722222222222222E-2</v>
+      </c>
+      <c r="AI36" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="4"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Z39" s="34"/>
     </row>
   </sheetData>
@@ -6064,44 +6322,44 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="75.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6114,10 +6372,10 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B34"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -6134,10 +6392,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -6151,7 +6409,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>98</v>
@@ -6165,7 +6423,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="1">
-        <v>1.8831018518518518E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>97</v>
@@ -6176,10 +6434,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B5" s="1">
-        <v>3.7245370370370373E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>84</v>
@@ -6215,7 +6473,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="1">
-        <v>3.215277777777778E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>96</v>
@@ -6229,7 +6487,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="1">
-        <v>3.6724537037037035E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>87</v>
@@ -6240,10 +6498,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B10" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>1.412037037037037E-2</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>92</v>
@@ -6253,11 +6511,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>116</v>
-      </c>
       <c r="B11" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>90</v>
@@ -6267,11 +6522,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>176</v>
-      </c>
       <c r="B12" s="1">
-        <v>3.7488425925925925E-2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>103</v>
@@ -6281,8 +6533,11 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>103</v>
@@ -6293,10 +6548,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1">
-        <v>3.7557870370370373E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>106</v>
@@ -6307,10 +6562,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B15" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>82</v>
@@ -6324,7 +6579,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>86</v>
@@ -6338,7 +6593,7 @@
         <v>71</v>
       </c>
       <c r="B17" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>86</v>
@@ -6374,7 +6629,7 @@
         <v>72</v>
       </c>
       <c r="B20" s="1">
-        <v>8.1134259259259267E-3</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>91</v>
@@ -6388,7 +6643,7 @@
         <v>73</v>
       </c>
       <c r="B21" s="1">
-        <v>2.5115740740740741E-2</v>
+        <v>1.2256944444444445E-2</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>112</v>
@@ -6399,10 +6654,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B22" s="1">
-        <v>3.6076388888888887E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>109</v>
@@ -6413,10 +6668,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B23" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>94</v>
@@ -6428,15 +6683,15 @@
         <v>77</v>
       </c>
       <c r="I23" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" s="1">
-        <v>2.8125000000000001E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>94</v>
@@ -6446,11 +6701,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>205</v>
-      </c>
       <c r="B25" s="1">
-        <v>1.4351851851851852E-3</v>
+        <v>0</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>110</v>
@@ -6465,7 +6717,7 @@
         <v>74</v>
       </c>
       <c r="B26" s="1">
-        <v>2.9363425925925925E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>89</v>
@@ -6480,7 +6732,7 @@
         <v>75</v>
       </c>
       <c r="B27" s="1">
-        <v>3.4942129629629629E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>83</v>
@@ -6495,7 +6747,7 @@
         <v>76</v>
       </c>
       <c r="B28" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>100</v>
@@ -6506,10 +6758,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>1.4386574074074074E-2</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>108</v>
@@ -6520,10 +6772,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B30" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>2.855324074074074E-2</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>111</v>
@@ -6534,10 +6786,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B31" s="1">
-        <v>2.7118055555555555E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>95</v>
@@ -6562,7 +6814,7 @@
         <v>78</v>
       </c>
       <c r="B33" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>107</v>
@@ -6576,7 +6828,7 @@
         <v>79</v>
       </c>
       <c r="B34" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>102</v>
@@ -6604,7 +6856,7 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
@@ -6620,22 +6872,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>146</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>147</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
+      <c r="G1" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -6648,19 +6900,19 @@
         <v>8</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="41">
+        <v>147</v>
+      </c>
+      <c r="F2" s="16">
         <v>1061688602</v>
       </c>
-      <c r="G2" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>212</v>
+      <c r="G2" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -6674,19 +6926,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="42">
+        <v>148</v>
+      </c>
+      <c r="F3" s="15">
         <v>1110286885</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>213</v>
+      <c r="G3" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -6700,19 +6952,19 @@
         <v>2</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="41">
+        <v>149</v>
+      </c>
+      <c r="F4" s="16">
         <v>1112388246</v>
       </c>
-      <c r="G4" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>214</v>
+      <c r="G4" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -6726,19 +6978,19 @@
         <v>1</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="42">
+        <v>150</v>
+      </c>
+      <c r="F5" s="15">
         <v>1109542109</v>
       </c>
-      <c r="G5" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>215</v>
+      <c r="G5" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -6752,19 +7004,19 @@
         <v>2</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" s="41">
+        <v>151</v>
+      </c>
+      <c r="F6" s="16">
         <v>1193276119</v>
       </c>
-      <c r="G6" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>216</v>
+      <c r="G6" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -6778,19 +7030,19 @@
         <v>3</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="42">
+        <v>152</v>
+      </c>
+      <c r="F7" s="15">
         <v>1143992171</v>
       </c>
-      <c r="G7" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>217</v>
+      <c r="G7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -6804,19 +7056,19 @@
         <v>4</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" s="41">
+        <v>153</v>
+      </c>
+      <c r="F8" s="16">
         <v>1000940688</v>
       </c>
-      <c r="G8" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>218</v>
+      <c r="G8" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -6830,19 +7082,19 @@
         <v>5</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="42">
+        <v>154</v>
+      </c>
+      <c r="F9" s="15">
         <v>1007560675</v>
       </c>
-      <c r="G9" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>219</v>
+      <c r="G9" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -6856,19 +7108,19 @@
         <v>4</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="41">
+        <v>155</v>
+      </c>
+      <c r="F10" s="16">
         <v>1110285503</v>
       </c>
-      <c r="G10" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>220</v>
+      <c r="G10" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -6882,19 +7134,19 @@
         <v>6</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="42">
+        <v>156</v>
+      </c>
+      <c r="F11" s="15">
         <v>1107837304</v>
       </c>
-      <c r="G11" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>221</v>
+      <c r="G11" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -6908,19 +7160,19 @@
         <v>5</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="41">
+        <v>157</v>
+      </c>
+      <c r="F12" s="16">
         <v>1112388822</v>
       </c>
-      <c r="G12" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="I12" s="41" t="s">
-        <v>222</v>
+      <c r="G12" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -6934,19 +7186,19 @@
         <v>1</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F13" s="42">
+        <v>158</v>
+      </c>
+      <c r="F13" s="15">
         <v>1107839506</v>
       </c>
-      <c r="G13" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>223</v>
+      <c r="G13" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -6960,19 +7212,19 @@
         <v>4</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="41">
+        <v>159</v>
+      </c>
+      <c r="F14" s="16">
         <v>1112041894</v>
       </c>
-      <c r="G14" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="I14" s="41" t="s">
-        <v>224</v>
+      <c r="G14" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -6986,19 +7238,19 @@
         <v>5</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="42">
+        <v>161</v>
+      </c>
+      <c r="F15" s="15">
         <v>1005785665</v>
       </c>
-      <c r="G15" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>210</v>
+      <c r="G15" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -7012,19 +7264,19 @@
         <v>8</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="41">
+        <v>160</v>
+      </c>
+      <c r="F16" s="16">
         <v>1113978874</v>
       </c>
-      <c r="G16" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="I16" s="41" t="s">
-        <v>211</v>
+      <c r="G16" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -7038,19 +7290,19 @@
         <v>7</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" s="42">
+        <v>162</v>
+      </c>
+      <c r="F17" s="15">
         <v>1105366146</v>
       </c>
-      <c r="G17" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>212</v>
+      <c r="G17" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -7064,19 +7316,19 @@
         <v>7</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" s="41">
+        <v>163</v>
+      </c>
+      <c r="F18" s="16">
         <v>1004189893</v>
       </c>
-      <c r="G18" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>213</v>
+      <c r="G18" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -7090,19 +7342,19 @@
         <v>6</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="F19" s="42">
+        <v>164</v>
+      </c>
+      <c r="F19" s="15">
         <v>1062276579</v>
       </c>
-      <c r="G19" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>214</v>
+      <c r="G19" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -7116,19 +7368,19 @@
         <v>1</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F20" s="41">
+        <v>165</v>
+      </c>
+      <c r="F20" s="16">
         <v>1058932076</v>
       </c>
-      <c r="G20" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="I20" s="41" t="s">
-        <v>215</v>
+      <c r="G20" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -7142,19 +7394,19 @@
         <v>2</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" s="42">
+        <v>166</v>
+      </c>
+      <c r="F21" s="15">
         <v>1113362057</v>
       </c>
-      <c r="G21" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>216</v>
+      <c r="G21" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -7168,19 +7420,19 @@
         <v>5</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="41">
+        <v>167</v>
+      </c>
+      <c r="F22" s="16">
         <v>1112389849</v>
       </c>
-      <c r="G22" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>217</v>
+      <c r="G22" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -7194,19 +7446,19 @@
         <v>4</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" s="42">
+        <v>168</v>
+      </c>
+      <c r="F23" s="15">
         <v>1036925847</v>
       </c>
-      <c r="G23" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>218</v>
+      <c r="G23" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -7220,19 +7472,19 @@
         <v>3</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F24" s="41">
+        <v>169</v>
+      </c>
+      <c r="F24" s="16">
         <v>1107837413</v>
       </c>
-      <c r="G24" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="I24" s="41" t="s">
-        <v>219</v>
+      <c r="G24" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -7246,19 +7498,19 @@
         <v>3</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="F25" s="42">
+        <v>170</v>
+      </c>
+      <c r="F25" s="15">
         <v>1234198199</v>
       </c>
-      <c r="G25" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="I25" s="42" t="s">
-        <v>220</v>
+      <c r="G25" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -7272,19 +7524,19 @@
         <v>3</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" s="41">
+        <v>171</v>
+      </c>
+      <c r="F26" s="16">
         <v>1005892878</v>
       </c>
-      <c r="G26" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="I26" s="41" t="s">
-        <v>221</v>
+      <c r="G26" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -7298,19 +7550,19 @@
         <v>4</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="F27" s="42">
+        <v>172</v>
+      </c>
+      <c r="F27" s="15">
         <v>1104804719</v>
       </c>
-      <c r="G27" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="H27" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="I27" s="42" t="s">
-        <v>222</v>
+      <c r="G27" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -7324,19 +7576,19 @@
         <v>6</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F28" s="41">
+        <v>173</v>
+      </c>
+      <c r="F28" s="16">
         <v>1005832925</v>
       </c>
-      <c r="G28" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="I28" s="41" t="s">
-        <v>223</v>
+      <c r="G28" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -7350,19 +7602,19 @@
         <v>7</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="F29" s="42">
+        <v>174</v>
+      </c>
+      <c r="F29" s="15">
         <v>1006343564</v>
       </c>
-      <c r="G29" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="H29" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="I29" s="42" t="s">
-        <v>224</v>
+      <c r="G29" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -7375,17 +7627,17 @@
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="24"/>
-      <c r="F30" s="41">
+      <c r="F30" s="16">
         <v>73265790</v>
       </c>
-      <c r="G30" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="I30" s="40" t="s">
-        <v>210</v>
+      <c r="G30" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -7398,17 +7650,17 @@
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="42">
+      <c r="F31" s="15">
         <v>1004217163</v>
       </c>
-      <c r="G31" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="I31" s="40" t="s">
-        <v>211</v>
+      <c r="G31" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -7420,7 +7672,7 @@
         <v>88</v>
       </c>
       <c r="D32" s="19"/>
-      <c r="F32" s="41">
+      <c r="F32" s="16">
         <v>1094883894</v>
       </c>
     </row>
@@ -7433,7 +7685,7 @@
         <v>110</v>
       </c>
       <c r="D33" s="20"/>
-      <c r="F33" s="42">
+      <c r="F33" s="15">
         <v>1076904274</v>
       </c>
     </row>
@@ -7446,7 +7698,7 @@
         <v>95</v>
       </c>
       <c r="D34" s="19"/>
-      <c r="F34" s="41">
+      <c r="F34" s="16">
         <v>1002886235</v>
       </c>
     </row>

--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04498B3-DA7B-4341-A7F9-A63AD5EFCF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C130C8-55A8-4389-A2E6-D9B70247D201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-2" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="279">
   <si>
     <t>Num</t>
   </si>
@@ -744,6 +744,165 @@
   </si>
   <si>
     <t>%Conexión10</t>
+  </si>
+  <si>
+    <t>Tejido óseo asignado</t>
+  </si>
+  <si>
+    <t>sacro</t>
+  </si>
+  <si>
+    <t>fémur izquierdo</t>
+  </si>
+  <si>
+    <t>Diente 11</t>
+  </si>
+  <si>
+    <t>Diente 37</t>
+  </si>
+  <si>
+    <t>Maxilar</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>fémur derecho</t>
+  </si>
+  <si>
+    <t>Diente 12</t>
+  </si>
+  <si>
+    <t>Diente 35</t>
+  </si>
+  <si>
+    <t>Mandíbula</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>Hueso Ilíaco izquierdo</t>
+  </si>
+  <si>
+    <t>Diente 13</t>
+  </si>
+  <si>
+    <t>Diente 34</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>Hueso Ilíaco derecho</t>
+  </si>
+  <si>
+    <t>Diente 14</t>
+  </si>
+  <si>
+    <t>Diente 33</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>costilla izquierda 6</t>
+  </si>
+  <si>
+    <t>Diente 15</t>
+  </si>
+  <si>
+    <t>Diente 32</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>costilla izquierda 7</t>
+  </si>
+  <si>
+    <t>Diente 16</t>
+  </si>
+  <si>
+    <t>Diente 31</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>costilla izquierda 8</t>
+  </si>
+  <si>
+    <t>Diente 17</t>
+  </si>
+  <si>
+    <t>Diente 47</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>costilla izquierda 9</t>
+  </si>
+  <si>
+    <t>Diente 21</t>
+  </si>
+  <si>
+    <t>Diente 46</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>costilla izquierda 10</t>
+  </si>
+  <si>
+    <t>Diente 22</t>
+  </si>
+  <si>
+    <t>Diente 45</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>costilla izquierda 11</t>
+  </si>
+  <si>
+    <t>Diente 23</t>
+  </si>
+  <si>
+    <t>Diente 44</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>costilla izquierda 12</t>
+  </si>
+  <si>
+    <t>Diente 24</t>
+  </si>
+  <si>
+    <t>Diente 43</t>
+  </si>
+  <si>
+    <t>CONVENCIONES</t>
+  </si>
+  <si>
+    <t>Enmascaramiento</t>
+  </si>
+  <si>
+    <t>Zona de Corte</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Técnica</t>
+  </si>
+  <si>
+    <t>Libre</t>
   </si>
 </sst>
 </file>
@@ -754,7 +913,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -918,8 +1077,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1111,8 +1278,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1325,6 +1504,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1371,7 +1565,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1451,20 +1645,42 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1513,15 +1729,15 @@
   </cellStyles>
   <dxfs count="34">
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="26" formatCode="h:mm:ss"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1722,11 +1938,11 @@
     <tableColumn id="33" xr3:uid="{64BD73A0-6AB2-41EA-80B2-E94CA28F1896}" name="%Conexión9" dataDxfId="3">
       <calculatedColumnFormula>IF(AF4/$AG$2&lt;=1.01,AF4/$AG$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{F0830AFA-8C17-4DB9-A373-A75CC7DF2F83}" name="T.Conexión10" dataDxfId="1"/>
-    <tableColumn id="35" xr3:uid="{4D72883D-7062-4769-91FF-E8347DDDF8EA}" name="%Conexión10" dataDxfId="0">
+    <tableColumn id="36" xr3:uid="{F0830AFA-8C17-4DB9-A373-A75CC7DF2F83}" name="T.Conexión10" dataDxfId="2"/>
+    <tableColumn id="35" xr3:uid="{4D72883D-7062-4769-91FF-E8347DDDF8EA}" name="%Conexión10" dataDxfId="1">
       <calculatedColumnFormula>IF(AH4/$AI$2&lt;=1.01,AH4/$AI$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="DICOM craneal" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="DICOM craneal" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2051,8 +2267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD2CE0-6169-477F-B8E1-2987D9E7C726}">
   <dimension ref="A1:AJ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AI33" sqref="AI33"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6849,11 +7065,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1633F340-5B77-4BB3-B5D5-C1FFFC050A5C}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6864,10 +7079,17 @@
     <col min="4" max="4" width="6.5703125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
@@ -6880,16 +7102,23 @@
       <c r="E1" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>104</v>
       </c>
@@ -6902,7 +7131,7 @@
       <c r="E2" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="53">
         <v>1061688602</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -6914,8 +7143,32 @@
       <c r="I2" s="16" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="P2" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" s="55">
+        <v>1061688602</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>98</v>
       </c>
@@ -6928,7 +7181,7 @@
       <c r="E3" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="53">
         <v>1110286885</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -6940,8 +7193,32 @@
       <c r="I3" s="15" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="56">
+        <v>1110286885</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>97</v>
       </c>
@@ -6954,7 +7231,7 @@
       <c r="E4" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="53">
         <v>1112388246</v>
       </c>
       <c r="G4" s="16" t="s">
@@ -6966,8 +7243,32 @@
       <c r="I4" s="16" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="P4" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" s="55">
+        <v>1112388246</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>84</v>
       </c>
@@ -6980,7 +7281,7 @@
       <c r="E5" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="53">
         <v>1109542109</v>
       </c>
       <c r="G5" s="15" t="s">
@@ -6992,8 +7293,32 @@
       <c r="I5" s="15" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="P5" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" s="56">
+        <v>1109542109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>96</v>
       </c>
@@ -7006,7 +7331,7 @@
       <c r="E6" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="53">
         <v>1193276119</v>
       </c>
       <c r="G6" s="16" t="s">
@@ -7018,8 +7343,32 @@
       <c r="I6" s="16" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" s="55">
+        <v>1193276119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>87</v>
       </c>
@@ -7032,7 +7381,7 @@
       <c r="E7" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="53">
         <v>1143992171</v>
       </c>
       <c r="G7" s="15" t="s">
@@ -7044,8 +7393,32 @@
       <c r="I7" s="15" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" s="56">
+        <v>1143992171</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>92</v>
       </c>
@@ -7058,7 +7431,7 @@
       <c r="E8" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="53">
         <v>1000940688</v>
       </c>
       <c r="G8" s="16" t="s">
@@ -7070,8 +7443,32 @@
       <c r="I8" s="16" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="P8" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="55">
+        <v>1000940688</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -7084,7 +7481,7 @@
       <c r="E9" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="53">
         <v>1007560675</v>
       </c>
       <c r="G9" s="15" t="s">
@@ -7096,8 +7493,32 @@
       <c r="I9" s="15" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="P9" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="R9" s="56">
+        <v>1007560675</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>103</v>
       </c>
@@ -7110,7 +7531,7 @@
       <c r="E10" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="53">
         <v>1110285503</v>
       </c>
       <c r="G10" s="16" t="s">
@@ -7122,8 +7543,32 @@
       <c r="I10" s="16" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="M10" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="P10" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" s="55">
+        <v>1110285503</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>103</v>
       </c>
@@ -7136,7 +7581,7 @@
       <c r="E11" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="53">
         <v>1107837304</v>
       </c>
       <c r="G11" s="15" t="s">
@@ -7148,8 +7593,32 @@
       <c r="I11" s="15" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="P11" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="56">
+        <v>1107837304</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>106</v>
       </c>
@@ -7162,7 +7631,7 @@
       <c r="E12" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="53">
         <v>1112388822</v>
       </c>
       <c r="G12" s="16" t="s">
@@ -7174,8 +7643,32 @@
       <c r="I12" s="16" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="M12" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="N12" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="P12" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="R12" s="55">
+        <v>1112388822</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>82</v>
       </c>
@@ -7188,7 +7681,7 @@
       <c r="E13" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="53">
         <v>1107839506</v>
       </c>
       <c r="G13" s="15" t="s">
@@ -7200,8 +7693,32 @@
       <c r="I13" s="15" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="L13" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="M13" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="N13" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="P13" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="56">
+        <v>1107839506</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>86</v>
       </c>
@@ -7214,7 +7731,7 @@
       <c r="E14" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="53">
         <v>1112041894</v>
       </c>
       <c r="G14" s="16" t="s">
@@ -7226,8 +7743,32 @@
       <c r="I14" s="16" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="M14" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="N14" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="P14" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="R14" s="55">
+        <v>1112041894</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -7240,7 +7781,7 @@
       <c r="E15" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="53">
         <v>1005785665</v>
       </c>
       <c r="G15" s="15" t="s">
@@ -7252,8 +7793,32 @@
       <c r="I15" s="15" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="P15" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="R15" s="56">
+        <v>1005785665</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>115</v>
       </c>
@@ -7266,7 +7831,7 @@
       <c r="E16" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="53">
         <v>1113978874</v>
       </c>
       <c r="G16" s="16" t="s">
@@ -7278,8 +7843,32 @@
       <c r="I16" s="16" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="N16" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="P16" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="R16" s="55">
+        <v>1113978874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>91</v>
       </c>
@@ -7292,7 +7881,7 @@
       <c r="E17" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="53">
         <v>1105366146</v>
       </c>
       <c r="G17" s="15" t="s">
@@ -7304,8 +7893,32 @@
       <c r="I17" s="15" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="N17" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q17" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="R17" s="56">
+        <v>1105366146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>112</v>
       </c>
@@ -7318,7 +7931,7 @@
       <c r="E18" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="53">
         <v>1004189893</v>
       </c>
       <c r="G18" s="16" t="s">
@@ -7330,8 +7943,32 @@
       <c r="I18" s="16" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="N18" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="R18" s="55">
+        <v>1004189893</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>109</v>
       </c>
@@ -7344,7 +7981,7 @@
       <c r="E19" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="53">
         <v>1062276579</v>
       </c>
       <c r="G19" s="15" t="s">
@@ -7356,8 +7993,32 @@
       <c r="I19" s="15" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="M19" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="N19" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="P19" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q19" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="R19" s="56">
+        <v>1062276579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>94</v>
       </c>
@@ -7370,7 +8031,7 @@
       <c r="E20" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="53">
         <v>1058932076</v>
       </c>
       <c r="G20" s="16" t="s">
@@ -7382,8 +8043,32 @@
       <c r="I20" s="16" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="M20" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="N20" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="P20" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="R20" s="55">
+        <v>1058932076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>94</v>
       </c>
@@ -7396,7 +8081,7 @@
       <c r="E21" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="53">
         <v>1113362057</v>
       </c>
       <c r="G21" s="15" t="s">
@@ -7408,8 +8093,32 @@
       <c r="I21" s="15" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="M21" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="N21" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="P21" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="R21" s="56">
+        <v>1113362057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>89</v>
       </c>
@@ -7422,7 +8131,7 @@
       <c r="E22" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="53">
         <v>1112389849</v>
       </c>
       <c r="G22" s="16" t="s">
@@ -7434,8 +8143,32 @@
       <c r="I22" s="16" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="L22" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="M22" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="N22" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="P22" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="R22" s="55">
+        <v>1112389849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>83</v>
       </c>
@@ -7448,7 +8181,7 @@
       <c r="E23" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="53">
         <v>1036925847</v>
       </c>
       <c r="G23" s="15" t="s">
@@ -7460,8 +8193,32 @@
       <c r="I23" s="15" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="M23" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="N23" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="P23" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q23" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="R23" s="56">
+        <v>1036925847</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>100</v>
       </c>
@@ -7474,7 +8231,7 @@
       <c r="E24" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="53">
         <v>1107837413</v>
       </c>
       <c r="G24" s="16" t="s">
@@ -7486,8 +8243,32 @@
       <c r="I24" s="16" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="M24" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="N24" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="P24" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q24" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="R24" s="55">
+        <v>1107837413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>108</v>
       </c>
@@ -7500,7 +8281,7 @@
       <c r="E25" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="53">
         <v>1234198199</v>
       </c>
       <c r="G25" s="15" t="s">
@@ -7512,8 +8293,32 @@
       <c r="I25" s="15" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="M25" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="N25" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="R25" s="56">
+        <v>1234198199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>111</v>
       </c>
@@ -7526,7 +8331,7 @@
       <c r="E26" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="53">
         <v>1005892878</v>
       </c>
       <c r="G26" s="16" t="s">
@@ -7538,8 +8343,32 @@
       <c r="I26" s="16" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="M26" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="N26" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="P26" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q26" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="R26" s="55">
+        <v>1005892878</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>95</v>
       </c>
@@ -7552,7 +8381,7 @@
       <c r="E27" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="53">
         <v>1104804719</v>
       </c>
       <c r="G27" s="15" t="s">
@@ -7564,8 +8393,32 @@
       <c r="I27" s="15" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="L27" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="M27" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="N27" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="P27" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q27" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="R27" s="56">
+        <v>1104804719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>107</v>
       </c>
@@ -7578,7 +8431,7 @@
       <c r="E28" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="53">
         <v>1005832925</v>
       </c>
       <c r="G28" s="16" t="s">
@@ -7590,8 +8443,32 @@
       <c r="I28" s="16" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="L28" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="M28" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="N28" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="P28" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="R28" s="55">
+        <v>1005832925</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>102</v>
       </c>
@@ -7604,7 +8481,7 @@
       <c r="E29" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="53">
         <v>1006343564</v>
       </c>
       <c r="G29" s="15" t="s">
@@ -7616,8 +8493,32 @@
       <c r="I29" s="15" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="L29" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="N29" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="P29" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="R29" s="56">
+        <v>1006343564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>7</v>
       </c>
@@ -7627,20 +8528,44 @@
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="24"/>
-      <c r="F30" s="16">
+      <c r="F30" s="50">
         <v>73265790</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="I30" s="37" t="s">
+      <c r="I30" s="36" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="K30" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="M30" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="N30" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="P30" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q30" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="R30" s="55">
+        <v>73265790</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
@@ -7653,17 +8578,41 @@
       <c r="F31" s="15">
         <v>1004217163</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H31" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="I31" s="37" t="s">
+      <c r="I31" s="36" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="K31" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="N31" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="P31" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q31" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="R31" s="56">
+        <v>1004217163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>9</v>
       </c>
@@ -7675,8 +8624,23 @@
       <c r="F32" s="16">
         <v>1094883894</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="K32" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="P32" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q32" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="R32" s="55">
+        <v>1094883894</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>41</v>
       </c>
@@ -7688,8 +8652,23 @@
       <c r="F33" s="15">
         <v>1076904274</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="K33" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="P33" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="R33" s="56">
+        <v>1076904274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>99</v>
       </c>
@@ -7701,20 +8680,57 @@
       <c r="F34" s="16">
         <v>1002886235</v>
       </c>
+      <c r="J34" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="P34" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q34" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="R34" s="55">
+        <v>1002886235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J36" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="K36" s="47"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J37" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="K37" s="49" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J38" s="44"/>
+      <c r="K38" s="43" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J39" s="45"/>
+      <c r="K39" s="43" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J40" s="46"/>
+      <c r="K40" s="43" t="s">
+        <v>278</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E34" xr:uid="{1633F340-5B77-4BB3-B5D5-C1FFFC050A5C}">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E29">
-      <sortCondition ref="C1:C34"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="1">
+  <autoFilter ref="A1:E34" xr:uid="{1633F340-5B77-4BB3-B5D5-C1FFFC050A5C}"/>
+  <mergeCells count="3">
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="J36:K36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{830FA8C8-0B69-41E9-93D8-38F9CCECCAE8}"/>

--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C130C8-55A8-4389-A2E6-D9B70247D201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C96EBE2-D373-4CEC-8F54-E934651090C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="279">
   <si>
     <t>Num</t>
   </si>
@@ -1647,40 +1647,42 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7065,10 +7067,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1633F340-5B77-4BB3-B5D5-C1FFFC050A5C}">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7102,21 +7104,21 @@
       <c r="E1" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="54" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -7131,7 +7133,7 @@
       <c r="E2" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="47">
         <v>1061688602</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -7143,28 +7145,28 @@
       <c r="I2" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="55">
+      <c r="R2" s="16">
         <v>1061688602</v>
       </c>
     </row>
@@ -7181,7 +7183,7 @@
       <c r="E3" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="47">
         <v>1110286885</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -7193,28 +7195,28 @@
       <c r="I3" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="P3" s="56" t="s">
+      <c r="P3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="56" t="s">
+      <c r="Q3" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="56">
+      <c r="R3" s="15">
         <v>1110286885</v>
       </c>
     </row>
@@ -7231,7 +7233,7 @@
       <c r="E4" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="47">
         <v>1112388246</v>
       </c>
       <c r="G4" s="16" t="s">
@@ -7243,28 +7245,28 @@
       <c r="I4" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="55">
+      <c r="R4" s="16">
         <v>1112388246</v>
       </c>
     </row>
@@ -7281,7 +7283,7 @@
       <c r="E5" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="47">
         <v>1109542109</v>
       </c>
       <c r="G5" s="15" t="s">
@@ -7293,28 +7295,28 @@
       <c r="I5" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="N5" s="42" t="s">
+      <c r="N5" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="P5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="56" t="s">
+      <c r="Q5" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="R5" s="56">
+      <c r="R5" s="15">
         <v>1109542109</v>
       </c>
     </row>
@@ -7331,7 +7333,7 @@
       <c r="E6" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="47">
         <v>1193276119</v>
       </c>
       <c r="G6" s="16" t="s">
@@ -7343,19 +7345,19 @@
       <c r="I6" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="40" t="s">
         <v>231</v>
       </c>
       <c r="P6" s="18" t="s">
@@ -7364,7 +7366,7 @@
       <c r="Q6" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="R6" s="55">
+      <c r="R6" s="16">
         <v>1193276119</v>
       </c>
     </row>
@@ -7381,7 +7383,7 @@
       <c r="E7" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="47">
         <v>1143992171</v>
       </c>
       <c r="G7" s="15" t="s">
@@ -7393,19 +7395,19 @@
       <c r="I7" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="N7" s="40" t="s">
         <v>236</v>
       </c>
       <c r="P7" s="17" t="s">
@@ -7414,7 +7416,7 @@
       <c r="Q7" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="R7" s="56">
+      <c r="R7" s="15">
         <v>1143992171</v>
       </c>
     </row>
@@ -7431,7 +7433,7 @@
       <c r="E8" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="47">
         <v>1000940688</v>
       </c>
       <c r="G8" s="16" t="s">
@@ -7443,28 +7445,28 @@
       <c r="I8" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="P8" s="55" t="s">
+      <c r="P8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="55" t="s">
+      <c r="Q8" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="55">
+      <c r="R8" s="16">
         <v>1000940688</v>
       </c>
     </row>
@@ -7481,7 +7483,7 @@
       <c r="E9" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="47">
         <v>1007560675</v>
       </c>
       <c r="G9" s="15" t="s">
@@ -7493,28 +7495,28 @@
       <c r="I9" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="L9" s="42" t="s">
+      <c r="L9" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="M9" s="42" t="s">
+      <c r="M9" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="N9" s="42" t="s">
+      <c r="N9" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="P9" s="56" t="s">
+      <c r="P9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="56" t="s">
+      <c r="Q9" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="R9" s="56">
+      <c r="R9" s="15">
         <v>1007560675</v>
       </c>
     </row>
@@ -7531,7 +7533,7 @@
       <c r="E10" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="47">
         <v>1110285503</v>
       </c>
       <c r="G10" s="16" t="s">
@@ -7543,28 +7545,28 @@
       <c r="I10" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="L10" s="42" t="s">
+      <c r="L10" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="M10" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="N10" s="42" t="s">
+      <c r="N10" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="P10" s="55" t="s">
+      <c r="P10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" s="55" t="s">
+      <c r="Q10" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="R10" s="55">
+      <c r="R10" s="16">
         <v>1110285503</v>
       </c>
     </row>
@@ -7581,7 +7583,7 @@
       <c r="E11" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="47">
         <v>1107837304</v>
       </c>
       <c r="G11" s="15" t="s">
@@ -7593,28 +7595,28 @@
       <c r="I11" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="K11" s="41" t="s">
+      <c r="K11" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="M11" s="42" t="s">
+      <c r="M11" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="N11" s="42" t="s">
+      <c r="N11" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="P11" s="56" t="s">
+      <c r="P11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="56" t="s">
+      <c r="Q11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="R11" s="56">
+      <c r="R11" s="15">
         <v>1107837304</v>
       </c>
     </row>
@@ -7631,7 +7633,7 @@
       <c r="E12" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="47">
         <v>1112388822</v>
       </c>
       <c r="G12" s="16" t="s">
@@ -7643,28 +7645,28 @@
       <c r="I12" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="K12" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="L12" s="42" t="s">
+      <c r="L12" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="M12" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="N12" s="42" t="s">
+      <c r="N12" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="P12" s="55" t="s">
+      <c r="P12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Q12" s="55" t="s">
+      <c r="Q12" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="R12" s="55">
+      <c r="R12" s="16">
         <v>1112388822</v>
       </c>
     </row>
@@ -7681,7 +7683,7 @@
       <c r="E13" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="47">
         <v>1107839506</v>
       </c>
       <c r="G13" s="15" t="s">
@@ -7693,28 +7695,28 @@
       <c r="I13" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="K13" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="L13" s="42" t="s">
+      <c r="L13" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="M13" s="42" t="s">
+      <c r="M13" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="N13" s="42" t="s">
+      <c r="N13" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="P13" s="56" t="s">
+      <c r="P13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q13" s="56" t="s">
+      <c r="Q13" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="R13" s="56">
+      <c r="R13" s="15">
         <v>1107839506</v>
       </c>
     </row>
@@ -7731,7 +7733,7 @@
       <c r="E14" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="47">
         <v>1112041894</v>
       </c>
       <c r="G14" s="16" t="s">
@@ -7743,28 +7745,28 @@
       <c r="I14" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K14" s="41" t="s">
+      <c r="K14" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="L14" s="42" t="s">
+      <c r="L14" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="M14" s="42" t="s">
+      <c r="M14" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="N14" s="42" t="s">
+      <c r="N14" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="P14" s="55" t="s">
+      <c r="P14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="55" t="s">
+      <c r="Q14" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="R14" s="55">
+      <c r="R14" s="16">
         <v>1112041894</v>
       </c>
     </row>
@@ -7781,7 +7783,7 @@
       <c r="E15" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="47">
         <v>1005785665</v>
       </c>
       <c r="G15" s="15" t="s">
@@ -7793,28 +7795,28 @@
       <c r="I15" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="K15" s="41" t="s">
+      <c r="K15" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="L15" s="42" t="s">
+      <c r="L15" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="N15" s="42" t="s">
+      <c r="N15" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="P15" s="56" t="s">
+      <c r="P15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="56" t="s">
+      <c r="Q15" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="56">
+      <c r="R15" s="15">
         <v>1005785665</v>
       </c>
     </row>
@@ -7831,7 +7833,7 @@
       <c r="E16" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="47">
         <v>1113978874</v>
       </c>
       <c r="G16" s="16" t="s">
@@ -7843,28 +7845,28 @@
       <c r="I16" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="J16" s="40" t="s">
+      <c r="J16" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="K16" s="41" t="s">
+      <c r="K16" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="L16" s="42" t="s">
+      <c r="L16" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="M16" s="42" t="s">
+      <c r="M16" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="N16" s="42" t="s">
+      <c r="N16" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="P16" s="55" t="s">
+      <c r="P16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="55" t="s">
+      <c r="Q16" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="R16" s="55">
+      <c r="R16" s="16">
         <v>1113978874</v>
       </c>
     </row>
@@ -7881,7 +7883,7 @@
       <c r="E17" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="47">
         <v>1105366146</v>
       </c>
       <c r="G17" s="15" t="s">
@@ -7893,28 +7895,28 @@
       <c r="I17" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="J17" s="40" t="s">
+      <c r="J17" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="K17" s="41" t="s">
+      <c r="K17" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="L17" s="42" t="s">
+      <c r="L17" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="M17" s="42" t="s">
+      <c r="M17" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="N17" s="42" t="s">
+      <c r="N17" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="P17" s="56" t="s">
+      <c r="P17" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="56" t="s">
+      <c r="Q17" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="R17" s="56">
+      <c r="R17" s="15">
         <v>1105366146</v>
       </c>
     </row>
@@ -7931,7 +7933,7 @@
       <c r="E18" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="47">
         <v>1004189893</v>
       </c>
       <c r="G18" s="16" t="s">
@@ -7943,19 +7945,19 @@
       <c r="I18" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="J18" s="40" t="s">
+      <c r="J18" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="K18" s="41" t="s">
+      <c r="K18" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="L18" s="42" t="s">
+      <c r="L18" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="N18" s="42" t="s">
+      <c r="N18" s="40" t="s">
         <v>236</v>
       </c>
       <c r="P18" s="18" t="s">
@@ -7964,7 +7966,7 @@
       <c r="Q18" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="R18" s="55">
+      <c r="R18" s="16">
         <v>1004189893</v>
       </c>
     </row>
@@ -7981,7 +7983,7 @@
       <c r="E19" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="47">
         <v>1062276579</v>
       </c>
       <c r="G19" s="15" t="s">
@@ -7993,28 +7995,28 @@
       <c r="I19" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="K19" s="41" t="s">
+      <c r="K19" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="L19" s="42" t="s">
+      <c r="L19" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="M19" s="42" t="s">
+      <c r="M19" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="N19" s="42" t="s">
+      <c r="N19" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="P19" s="56" t="s">
+      <c r="P19" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="Q19" s="56" t="s">
+      <c r="Q19" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="R19" s="56">
+      <c r="R19" s="15">
         <v>1062276579</v>
       </c>
     </row>
@@ -8031,7 +8033,7 @@
       <c r="E20" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="47">
         <v>1058932076</v>
       </c>
       <c r="G20" s="16" t="s">
@@ -8043,28 +8045,28 @@
       <c r="I20" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="J20" s="40" t="s">
+      <c r="J20" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="K20" s="41" t="s">
+      <c r="K20" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="L20" s="42" t="s">
+      <c r="L20" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="P20" s="55" t="s">
+      <c r="P20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q20" s="55" t="s">
+      <c r="Q20" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="R20" s="55">
+      <c r="R20" s="16">
         <v>1058932076</v>
       </c>
     </row>
@@ -8081,7 +8083,7 @@
       <c r="E21" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="47">
         <v>1113362057</v>
       </c>
       <c r="G21" s="15" t="s">
@@ -8093,28 +8095,28 @@
       <c r="I21" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="J21" s="40" t="s">
+      <c r="J21" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="K21" s="41" t="s">
+      <c r="K21" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="L21" s="42" t="s">
+      <c r="L21" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="M21" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="N21" s="42" t="s">
+      <c r="N21" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="P21" s="56" t="s">
+      <c r="P21" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="56" t="s">
+      <c r="Q21" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="R21" s="56">
+      <c r="R21" s="15">
         <v>1113362057</v>
       </c>
     </row>
@@ -8131,7 +8133,7 @@
       <c r="E22" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="47">
         <v>1112389849</v>
       </c>
       <c r="G22" s="16" t="s">
@@ -8143,28 +8145,28 @@
       <c r="I22" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="J22" s="40" t="s">
+      <c r="J22" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="K22" s="41" t="s">
+      <c r="K22" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="L22" s="42" t="s">
+      <c r="L22" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="M22" s="42" t="s">
+      <c r="M22" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="N22" s="42" t="s">
+      <c r="N22" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="P22" s="55" t="s">
+      <c r="P22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="55" t="s">
+      <c r="Q22" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="R22" s="55">
+      <c r="R22" s="16">
         <v>1112389849</v>
       </c>
     </row>
@@ -8181,7 +8183,7 @@
       <c r="E23" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="47">
         <v>1036925847</v>
       </c>
       <c r="G23" s="15" t="s">
@@ -8193,28 +8195,28 @@
       <c r="I23" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="K23" s="41" t="s">
+      <c r="K23" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="M23" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="N23" s="42" t="s">
+      <c r="N23" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="P23" s="56" t="s">
+      <c r="P23" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="Q23" s="56" t="s">
+      <c r="Q23" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="R23" s="56">
+      <c r="R23" s="15">
         <v>1036925847</v>
       </c>
     </row>
@@ -8231,7 +8233,7 @@
       <c r="E24" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="53">
+      <c r="F24" s="47">
         <v>1107837413</v>
       </c>
       <c r="G24" s="16" t="s">
@@ -8243,28 +8245,28 @@
       <c r="I24" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="J24" s="40" t="s">
+      <c r="J24" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="K24" s="41" t="s">
+      <c r="K24" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="L24" s="42" t="s">
+      <c r="L24" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="M24" s="42" t="s">
+      <c r="M24" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="N24" s="42" t="s">
+      <c r="N24" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="P24" s="55" t="s">
+      <c r="P24" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="Q24" s="55" t="s">
+      <c r="Q24" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="R24" s="55">
+      <c r="R24" s="16">
         <v>1107837413</v>
       </c>
     </row>
@@ -8281,7 +8283,7 @@
       <c r="E25" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="53">
+      <c r="F25" s="47">
         <v>1234198199</v>
       </c>
       <c r="G25" s="15" t="s">
@@ -8293,19 +8295,19 @@
       <c r="I25" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="J25" s="40" t="s">
+      <c r="J25" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K25" s="41" t="s">
+      <c r="K25" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="L25" s="42" t="s">
+      <c r="L25" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="M25" s="42" t="s">
+      <c r="M25" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="N25" s="42" t="s">
+      <c r="N25" s="40" t="s">
         <v>231</v>
       </c>
       <c r="P25" s="17" t="s">
@@ -8314,7 +8316,7 @@
       <c r="Q25" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="R25" s="56">
+      <c r="R25" s="15">
         <v>1234198199</v>
       </c>
     </row>
@@ -8331,7 +8333,7 @@
       <c r="E26" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="47">
         <v>1005892878</v>
       </c>
       <c r="G26" s="16" t="s">
@@ -8343,28 +8345,28 @@
       <c r="I26" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="J26" s="40" t="s">
+      <c r="J26" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="K26" s="41" t="s">
+      <c r="K26" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="L26" s="42" t="s">
+      <c r="L26" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="M26" s="42" t="s">
+      <c r="M26" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="N26" s="42" t="s">
+      <c r="N26" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="P26" s="55" t="s">
+      <c r="P26" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q26" s="55" t="s">
+      <c r="Q26" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="R26" s="55">
+      <c r="R26" s="16">
         <v>1005892878</v>
       </c>
     </row>
@@ -8381,7 +8383,7 @@
       <c r="E27" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F27" s="47">
         <v>1104804719</v>
       </c>
       <c r="G27" s="15" t="s">
@@ -8393,28 +8395,28 @@
       <c r="I27" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="J27" s="40" t="s">
+      <c r="J27" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="K27" s="41" t="s">
+      <c r="K27" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="L27" s="42" t="s">
+      <c r="L27" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="M27" s="42" t="s">
+      <c r="M27" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="N27" s="42" t="s">
+      <c r="N27" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="P27" s="56" t="s">
+      <c r="P27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="Q27" s="56" t="s">
+      <c r="Q27" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="R27" s="56">
+      <c r="R27" s="15">
         <v>1104804719</v>
       </c>
     </row>
@@ -8431,7 +8433,7 @@
       <c r="E28" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F28" s="53">
+      <c r="F28" s="47">
         <v>1005832925</v>
       </c>
       <c r="G28" s="16" t="s">
@@ -8443,28 +8445,28 @@
       <c r="I28" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="J28" s="40" t="s">
+      <c r="J28" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="K28" s="41" t="s">
+      <c r="K28" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="L28" s="42" t="s">
+      <c r="L28" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="M28" s="42" t="s">
+      <c r="M28" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="N28" s="42" t="s">
+      <c r="N28" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="P28" s="55" t="s">
+      <c r="P28" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Q28" s="55" t="s">
+      <c r="Q28" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="R28" s="55">
+      <c r="R28" s="16">
         <v>1005832925</v>
       </c>
     </row>
@@ -8481,7 +8483,7 @@
       <c r="E29" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="47">
         <v>1006343564</v>
       </c>
       <c r="G29" s="15" t="s">
@@ -8493,28 +8495,28 @@
       <c r="I29" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="J29" s="40" t="s">
+      <c r="J29" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="K29" s="41" t="s">
+      <c r="K29" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="L29" s="42" t="s">
+      <c r="L29" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="M29" s="42" t="s">
+      <c r="M29" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="N29" s="42" t="s">
+      <c r="N29" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="P29" s="56" t="s">
+      <c r="P29" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="56" t="s">
+      <c r="Q29" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="R29" s="56">
+      <c r="R29" s="15">
         <v>1006343564</v>
       </c>
     </row>
@@ -8528,7 +8530,7 @@
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="24"/>
-      <c r="F30" s="50">
+      <c r="F30" s="47">
         <v>73265790</v>
       </c>
       <c r="G30" s="36" t="s">
@@ -8540,19 +8542,19 @@
       <c r="I30" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="J30" s="51" t="s">
+      <c r="J30" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="K30" s="51" t="s">
+      <c r="K30" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="L30" s="51" t="s">
+      <c r="L30" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="M30" s="51" t="s">
+      <c r="M30" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="N30" s="51" t="s">
+      <c r="N30" s="40" t="s">
         <v>231</v>
       </c>
       <c r="P30" s="26" t="s">
@@ -8561,7 +8563,7 @@
       <c r="Q30" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="R30" s="55">
+      <c r="R30" s="16">
         <v>73265790</v>
       </c>
     </row>
@@ -8575,7 +8577,7 @@
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="15">
+      <c r="F31" s="47">
         <v>1004217163</v>
       </c>
       <c r="G31" s="36" t="s">
@@ -8587,28 +8589,28 @@
       <c r="I31" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="J31" s="39" t="s">
+      <c r="J31" s="38" t="s">
         <v>257</v>
       </c>
       <c r="K31" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="L31" s="39" t="s">
+      <c r="L31" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="M31" s="39" t="s">
+      <c r="M31" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="N31" s="39" t="s">
+      <c r="N31" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="P31" s="56" t="s">
+      <c r="P31" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="Q31" s="56" t="s">
+      <c r="Q31" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="R31" s="56">
+      <c r="R31" s="15">
         <v>1004217163</v>
       </c>
     </row>
@@ -8621,22 +8623,31 @@
         <v>88</v>
       </c>
       <c r="D32" s="19"/>
-      <c r="F32" s="16">
+      <c r="F32" s="47">
         <v>1094883894</v>
       </c>
-      <c r="J32" s="39" t="s">
+      <c r="J32" s="38" t="s">
         <v>261</v>
       </c>
       <c r="K32" s="39" t="s">
         <v>266</v>
       </c>
+      <c r="L32" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="M32" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="N32" s="40" t="s">
+        <v>231</v>
+      </c>
       <c r="P32" s="18" t="s">
         <v>99</v>
       </c>
       <c r="Q32" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="R32" s="55">
+      <c r="R32" s="16">
         <v>1094883894</v>
       </c>
     </row>
@@ -8649,22 +8660,31 @@
         <v>110</v>
       </c>
       <c r="D33" s="20"/>
-      <c r="F33" s="15">
+      <c r="F33" s="47">
         <v>1076904274</v>
       </c>
-      <c r="J33" s="39" t="s">
+      <c r="J33" s="38" t="s">
         <v>265</v>
       </c>
       <c r="K33" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="P33" s="56" t="s">
+      <c r="L33" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="M33" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="N33" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="P33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="Q33" s="56" t="s">
+      <c r="Q33" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="R33" s="56">
+      <c r="R33" s="15">
         <v>1076904274</v>
       </c>
     </row>
@@ -8677,51 +8697,83 @@
         <v>95</v>
       </c>
       <c r="D34" s="19"/>
-      <c r="F34" s="16">
+      <c r="F34" s="47">
         <v>1002886235</v>
       </c>
-      <c r="J34" s="39" t="s">
+      <c r="J34" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="P34" s="55" t="s">
+      <c r="K34" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="L34" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="M34" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="N34" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="P34" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="Q34" s="55" t="s">
+      <c r="Q34" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="R34" s="55">
+      <c r="R34" s="16">
         <v>1002886235</v>
       </c>
     </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="53"/>
+      <c r="J35" s="55"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+    </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J36" s="47" t="s">
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="53"/>
+      <c r="J36" s="55"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J38" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="K36" s="47"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J37" s="48" t="s">
+      <c r="K38" s="51"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J39" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="K37" s="49" t="s">
+      <c r="K39" s="45" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J38" s="44"/>
-      <c r="K38" s="43" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J40" s="41"/>
+      <c r="K40" s="37" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J39" s="45"/>
-      <c r="K39" s="43" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J41" s="42"/>
+      <c r="K41" s="37" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J40" s="46"/>
-      <c r="K40" s="43" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J42" s="43"/>
+      <c r="K42" s="37" t="s">
         <v>278</v>
       </c>
     </row>
@@ -8730,7 +8782,7 @@
   <mergeCells count="3">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:N1"/>
-    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J38:K38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="https://uao-my.sharepoint.com/:u:/g/personal/oicampo_uao_edu_co/Ef39u63j2jNNlr41x60ySkMBgKTOE726blos_Q8zT6HnYg?e=w7b0aC" xr:uid="{830FA8C8-0B69-41E9-93D8-38F9CCECCAE8}"/>

--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA161C4B-2FC4-4ED3-A67B-E2FFA67F4FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1520403E-7016-451F-AD88-38E3505EDD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CABD 2025-2'!$A$3:$T$3</definedName>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="226">
   <si>
     <t>Num</t>
   </si>
@@ -919,7 +920,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1109,6 +1110,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
       </patternFill>
     </fill>
   </fills>
@@ -1371,7 +1378,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1454,6 +1461,8 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1463,10 +1472,17 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2041,7 +2057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD2CE0-6169-477F-B8E1-2987D9E7C726}">
   <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E36"/>
     </sheetView>
   </sheetViews>
@@ -6598,10 +6614,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1633F340-5B77-4BB3-B5D5-C1FFFC050A5C}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G1" sqref="G1:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6615,7 +6631,7 @@
     <col min="7" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
@@ -6631,13 +6647,13 @@
       <c r="F1" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>104</v>
       </c>
@@ -6650,20 +6666,26 @@
       <c r="E2" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="16">
         <v>1061688602</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="16" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>98</v>
       </c>
@@ -6676,20 +6698,26 @@
       <c r="E3" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="15">
         <v>1110286885</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="15" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>97</v>
       </c>
@@ -6702,20 +6730,26 @@
       <c r="E4" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="16">
         <v>1112388246</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="16" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>84</v>
       </c>
@@ -6728,20 +6762,26 @@
       <c r="E5" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="15">
         <v>1109542109</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="15" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>96</v>
       </c>
@@ -6754,20 +6794,26 @@
       <c r="E6" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="16">
         <v>1193276119</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="16" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>87</v>
       </c>
@@ -6780,20 +6826,26 @@
       <c r="E7" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="15">
         <v>1143992171</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="15" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>92</v>
       </c>
@@ -6806,20 +6858,26 @@
       <c r="E8" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="16">
         <v>1000940688</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="16" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -6832,20 +6890,26 @@
       <c r="E9" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="15">
         <v>1007560675</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="15" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>103</v>
       </c>
@@ -6858,20 +6922,26 @@
       <c r="E10" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="16">
         <v>1110285503</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="16" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>103</v>
       </c>
@@ -6884,20 +6954,26 @@
       <c r="E11" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="15">
         <v>1107837304</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="15" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>106</v>
       </c>
@@ -6910,20 +6986,26 @@
       <c r="E12" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="16">
         <v>1112388822</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="16" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>82</v>
       </c>
@@ -6936,20 +7018,26 @@
       <c r="E13" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="15">
         <v>1107839506</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="15" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>86</v>
       </c>
@@ -6962,20 +7050,26 @@
       <c r="E14" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="16">
         <v>1112041894</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="16" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K14" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -6988,20 +7082,26 @@
       <c r="E15" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="15">
         <v>1005785665</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="15" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K15" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>115</v>
       </c>
@@ -7014,20 +7114,26 @@
       <c r="E16" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="16">
         <v>1113978874</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="16" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>91</v>
       </c>
@@ -7040,20 +7146,26 @@
       <c r="E17" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="15">
         <v>1105366146</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="15" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>112</v>
       </c>
@@ -7066,20 +7178,26 @@
       <c r="E18" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="16">
         <v>1004189893</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="H18" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="16" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>109</v>
       </c>
@@ -7092,20 +7210,26 @@
       <c r="E19" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="15">
         <v>1062276579</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="15" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" s="41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>94</v>
       </c>
@@ -7118,20 +7242,26 @@
       <c r="E20" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="16">
         <v>1058932076</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="16" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>94</v>
       </c>
@@ -7144,20 +7274,26 @@
       <c r="E21" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="15">
         <v>1113362057</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="H21" s="42" t="s">
+      <c r="H21" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="15" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>89</v>
       </c>
@@ -7170,20 +7306,26 @@
       <c r="E22" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="16">
         <v>1112389849</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="H22" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="16" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>83</v>
       </c>
@@ -7196,20 +7338,26 @@
       <c r="E23" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="15">
         <v>1036925847</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="H23" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="15" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="L23" s="41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>100</v>
       </c>
@@ -7222,20 +7370,26 @@
       <c r="E24" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="16">
         <v>1107837413</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H24" s="41" t="s">
+      <c r="H24" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="16" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="L24" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>108</v>
       </c>
@@ -7248,20 +7402,26 @@
       <c r="E25" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="15">
         <v>1234198199</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="H25" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="I25" s="42" t="s">
+      <c r="I25" s="15" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>111</v>
       </c>
@@ -7274,20 +7434,26 @@
       <c r="E26" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="16">
         <v>1005892878</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="16" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>95</v>
       </c>
@@ -7300,20 +7466,26 @@
       <c r="E27" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="15">
         <v>1104804719</v>
       </c>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="H27" s="42" t="s">
+      <c r="H27" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="I27" s="42" t="s">
+      <c r="I27" s="15" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K27" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>107</v>
       </c>
@@ -7326,20 +7498,26 @@
       <c r="E28" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="16">
         <v>1005832925</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="16" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>102</v>
       </c>
@@ -7352,20 +7530,26 @@
       <c r="E29" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="15">
         <v>1006343564</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="H29" s="42" t="s">
+      <c r="H29" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="I29" s="42" t="s">
+      <c r="I29" s="15" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>7</v>
       </c>
@@ -7375,20 +7559,26 @@
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="24"/>
-      <c r="F30" s="41">
+      <c r="F30" s="16">
         <v>73265790</v>
       </c>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="H30" s="40" t="s">
+      <c r="H30" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="I30" s="40" t="s">
+      <c r="I30" s="37" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
@@ -7398,20 +7588,26 @@
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="42">
+      <c r="F31" s="15">
         <v>1004217163</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="H31" s="39" t="s">
+      <c r="H31" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="I31" s="37" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>9</v>
       </c>
@@ -7420,11 +7616,17 @@
         <v>88</v>
       </c>
       <c r="D32" s="19"/>
-      <c r="F32" s="41">
+      <c r="F32" s="16">
         <v>1094883894</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>41</v>
       </c>
@@ -7433,11 +7635,17 @@
         <v>110</v>
       </c>
       <c r="D33" s="20"/>
-      <c r="F33" s="42">
+      <c r="F33" s="15">
         <v>1076904274</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>99</v>
       </c>
@@ -7446,8 +7654,14 @@
         <v>95</v>
       </c>
       <c r="D34" s="19"/>
-      <c r="F34" s="41">
+      <c r="F34" s="16">
         <v>1002886235</v>
+      </c>
+      <c r="K34" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="L34" s="42" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -7496,4 +7710,703 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F86A461-A11C-4600-9FAD-4AF6AFFD6068}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="42">
+        <v>1061688602</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="41">
+        <v>1110286885</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="42">
+        <v>1112388246</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="41">
+        <v>1109542109</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="42">
+        <v>1193276119</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="41">
+        <v>1143992171</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="42">
+        <v>1000940688</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="41">
+        <v>1007560675</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="42">
+        <v>1110285503</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="41">
+        <v>1107837304</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="42">
+        <v>1112388822</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="41">
+        <v>1107839506</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="42">
+        <v>1112041894</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="41">
+        <v>1005785665</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="42">
+        <v>1113978874</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="41">
+        <v>1105366146</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="42">
+        <v>1004189893</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="41">
+        <v>1062276579</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="42">
+        <v>1058932076</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="41">
+        <v>1113362057</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="42">
+        <v>1112389849</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="41">
+        <v>1036925847</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="42">
+        <v>1107837413</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="41">
+        <v>1234198199</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="42">
+        <v>1005892878</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="41">
+        <v>1104804719</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="42">
+        <v>1005832925</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="41">
+        <v>1006343564</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="42">
+        <v>73265790</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="41">
+        <v>1004217163</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="42">
+        <v>1094883894</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="41">
+        <v>1076904274</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="42">
+        <v>1002886235</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C96EBE2-D373-4CEC-8F54-E934651090C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9238AB2E-8689-4FC7-8627-215286445DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-2" sheetId="1" r:id="rId1"/>
@@ -1664,6 +1664,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1676,58 +1683,51 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
@@ -1951,7 +1951,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2273,7 +2273,7 @@
       <selection activeCell="B4" sqref="B4:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
@@ -6540,7 +6540,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="75.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -6593,7 +6593,7 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -7070,10 +7070,10 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
@@ -7107,18 +7107,18 @@
       <c r="F1" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -8542,7 +8542,7 @@
       <c r="I30" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="J30" s="56" t="s">
+      <c r="J30" s="52" t="s">
         <v>253</v>
       </c>
       <c r="K30" s="39" t="s">
@@ -8726,30 +8726,30 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="53"/>
-      <c r="J35" s="55"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="J35" s="51"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53"/>
-      <c r="J36" s="55"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="J36" s="51"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J38" s="51" t="s">
+      <c r="J38" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="K38" s="51"/>
+      <c r="K38" s="56"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J39" s="44" t="s">

--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9238AB2E-8689-4FC7-8627-215286445DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD568DE-189E-4CA4-8D2E-C5BC5F2E73DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-2" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="286">
   <si>
     <t>Num</t>
   </si>
@@ -903,6 +903,27 @@
   </si>
   <si>
     <t>Libre</t>
+  </si>
+  <si>
+    <t>Uso de métricas</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>CT Liver: Segmentación automática y comparar con segmentación manual de 3 órganos</t>
+  </si>
+  <si>
+    <t>CT Abdomen: Segmentación automática y comparar con segmentación manual de 3 órganos</t>
+  </si>
+  <si>
+    <t>CT Cardio: Segmentación automática y comparar con segmentación manual de 3 órganos</t>
+  </si>
+  <si>
+    <t>CT Abdomen (panoramix): Segmentación automática y comparar con segmentación manual de 3 órganos</t>
+  </si>
+  <si>
+    <t>CT Chest: Segmentación automática y comparar con segmentación manual de 3 órganos o tejidos</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +1750,11 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="35">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1877,74 +1902,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:AJ36" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A3:AJ36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AJ36">
-    <sortCondition ref="C3:C36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:AK36" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A3:AK36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AK36">
+    <sortCondition ref="S3:S36"/>
   </sortState>
-  <tableColumns count="36">
+  <tableColumns count="37">
     <tableColumn id="1" xr3:uid="{2951ACD3-7E7C-4B15-8969-BBEC77220F09}" name="Num"/>
     <tableColumn id="2" xr3:uid="{41C291F5-DA77-4B55-A49C-CDE28AB05F1C}" name="Apellidos"/>
     <tableColumn id="3" xr3:uid="{4EF9A0E0-8B64-4D77-BF58-1466EBFC70F8}" name="Nombres"/>
-    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="32"/>
     <tableColumn id="5" xr3:uid="{E5E637F3-98DE-4C48-8975-E4FF30179C84}" name="email"/>
-    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="30">
       <calculatedColumnFormula>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión2" dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión2" dataDxfId="28">
       <calculatedColumnFormula>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión3" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión3" dataDxfId="25">
+    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión3" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión3" dataDxfId="26">
       <calculatedColumnFormula>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión4" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión4" dataDxfId="23">
+    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión4" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión4" dataDxfId="24">
       <calculatedColumnFormula>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión5" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión5" dataDxfId="21">
+    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión5" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión5" dataDxfId="22">
       <calculatedColumnFormula>IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión6" dataDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión6" dataDxfId="19">
+    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión6" dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión6" dataDxfId="20">
       <calculatedColumnFormula>IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{5430F0E6-F861-44B2-B1CA-6E2A24842801}" name="Asistencia" dataDxfId="18">
+    <tableColumn id="21" xr3:uid="{5430F0E6-F861-44B2-B1CA-6E2A24842801}" name="Asistencia" dataDxfId="19">
       <calculatedColumnFormula>AVERAGE(G4,I4,K4,M4,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{5E18873E-0421-4811-A7ED-EFE7A5B09CB1}" name="Grupo" dataDxfId="17"/>
-    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Gesto Asignado" dataDxfId="16">
+    <tableColumn id="22" xr3:uid="{5E18873E-0421-4811-A7ED-EFE7A5B09CB1}" name="Grupo" dataDxfId="18"/>
+    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Gesto Asignado" dataDxfId="17">
       <calculatedColumnFormula array="1">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{9680D2F4-FF61-42C8-B8B8-A6D565F1061F}" name="Conceptos fundamentales (Semana 1) " dataDxfId="15"/>
-    <tableColumn id="29" xr3:uid="{2C8549F9-6C7C-4C18-8BD8-913F1238E3A1}" name="Operaciones sobre piezas (Semana 2) " dataDxfId="14"/>
-    <tableColumn id="28" xr3:uid="{01B7F4FF-718E-4142-B28F-3C5C6E213A9D}" name="Operaciones básicas para Modelado de Superficies _x000a_(Semana 3) " dataDxfId="13"/>
-    <tableColumn id="27" xr3:uid="{FB3D7617-43A2-4406-8A1B-342CC431D360}" name="Modelado avanzado y reparación de Superficies _x000a_(Semana 4) " dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{15CC947B-1D11-40C4-BDF3-E97BFC12F776}" name="Modelado a partir de datos de scanner _x000a_(Semana 5) " dataDxfId="11"/>
-    <tableColumn id="25" xr3:uid="{7ECFE038-AA59-4517-90E9-2B3566EA5DBF}" name="Escaneo de partes anatómicas (Semana 6) " dataDxfId="10"/>
-    <tableColumn id="24" xr3:uid="{D2AC9EBA-9E21-4D91-B98D-BEC9F52C6380}" name="Nota 1er Corte" dataDxfId="9">
+    <tableColumn id="30" xr3:uid="{9680D2F4-FF61-42C8-B8B8-A6D565F1061F}" name="Conceptos fundamentales (Semana 1) " dataDxfId="16"/>
+    <tableColumn id="29" xr3:uid="{2C8549F9-6C7C-4C18-8BD8-913F1238E3A1}" name="Operaciones sobre piezas (Semana 2) " dataDxfId="15"/>
+    <tableColumn id="28" xr3:uid="{01B7F4FF-718E-4142-B28F-3C5C6E213A9D}" name="Operaciones básicas para Modelado de Superficies _x000a_(Semana 3) " dataDxfId="14"/>
+    <tableColumn id="27" xr3:uid="{FB3D7617-43A2-4406-8A1B-342CC431D360}" name="Modelado avanzado y reparación de Superficies _x000a_(Semana 4) " dataDxfId="13"/>
+    <tableColumn id="26" xr3:uid="{15CC947B-1D11-40C4-BDF3-E97BFC12F776}" name="Modelado a partir de datos de scanner _x000a_(Semana 5) " dataDxfId="12"/>
+    <tableColumn id="25" xr3:uid="{7ECFE038-AA59-4517-90E9-2B3566EA5DBF}" name="Escaneo de partes anatómicas (Semana 6) " dataDxfId="11"/>
+    <tableColumn id="24" xr3:uid="{D2AC9EBA-9E21-4D91-B98D-BEC9F52C6380}" name="Nota 1er Corte" dataDxfId="10">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{85803527-97A7-4D57-A5D2-AF49B49DFBB6}" name="T.Conexión7" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{3C385566-1188-4AA7-B618-44B1F28F2C3E}" name="%Conexión7" dataDxfId="7">
+    <tableColumn id="23" xr3:uid="{85803527-97A7-4D57-A5D2-AF49B49DFBB6}" name="T.Conexión7" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{3C385566-1188-4AA7-B618-44B1F28F2C3E}" name="%Conexión7" dataDxfId="8">
       <calculatedColumnFormula>IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{DA39C125-36F8-4764-B8CE-ED2AA2E45580}" name="T.Conexión8" dataDxfId="6"/>
-    <tableColumn id="31" xr3:uid="{16616376-8A06-4C29-A128-6431F97D4DD9}" name="%Conexión8" dataDxfId="5">
+    <tableColumn id="32" xr3:uid="{DA39C125-36F8-4764-B8CE-ED2AA2E45580}" name="T.Conexión8" dataDxfId="7"/>
+    <tableColumn id="31" xr3:uid="{16616376-8A06-4C29-A128-6431F97D4DD9}" name="%Conexión8" dataDxfId="6">
       <calculatedColumnFormula>IF(AD4/$AE$2&lt;=1.01,AD4/$AE$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{C72915B1-C70C-4096-837F-1AC0F6176851}" name="T.Conexión9" dataDxfId="4"/>
-    <tableColumn id="33" xr3:uid="{64BD73A0-6AB2-41EA-80B2-E94CA28F1896}" name="%Conexión9" dataDxfId="3">
+    <tableColumn id="34" xr3:uid="{C72915B1-C70C-4096-837F-1AC0F6176851}" name="T.Conexión9" dataDxfId="5"/>
+    <tableColumn id="33" xr3:uid="{64BD73A0-6AB2-41EA-80B2-E94CA28F1896}" name="%Conexión9" dataDxfId="4">
       <calculatedColumnFormula>IF(AF4/$AG$2&lt;=1.01,AF4/$AG$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{F0830AFA-8C17-4DB9-A373-A75CC7DF2F83}" name="T.Conexión10" dataDxfId="2"/>
-    <tableColumn id="35" xr3:uid="{4D72883D-7062-4769-91FF-E8347DDDF8EA}" name="%Conexión10" dataDxfId="1">
+    <tableColumn id="36" xr3:uid="{F0830AFA-8C17-4DB9-A373-A75CC7DF2F83}" name="T.Conexión10" dataDxfId="3"/>
+    <tableColumn id="35" xr3:uid="{4D72883D-7062-4769-91FF-E8347DDDF8EA}" name="%Conexión10" dataDxfId="2">
       <calculatedColumnFormula>IF(AH4/$AI$2&lt;=1.01,AH4/$AI$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="DICOM craneal" dataDxfId="0"/>
+    <tableColumn id="37" xr3:uid="{2A0CC0F0-1011-46C8-A0F9-65A542FE9188}" name="DICOM craneal" dataDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="Uso de métricas" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2267,10 +2293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD2CE0-6169-477F-B8E1-2987D9E7C726}">
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AK39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AN17" sqref="AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,25 +2304,26 @@
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="17" width="16.85546875" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="17" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="11.140625" customWidth="1"/>
-    <col min="20" max="20" width="75.5703125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" style="27" customWidth="1"/>
-    <col min="22" max="22" width="17" style="27" customWidth="1"/>
-    <col min="23" max="23" width="28.85546875" style="27" customWidth="1"/>
-    <col min="24" max="24" width="29" style="27" customWidth="1"/>
-    <col min="25" max="25" width="21.28515625" style="27" customWidth="1"/>
-    <col min="26" max="26" width="15.85546875" style="27" customWidth="1"/>
-    <col min="27" max="27" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="35" width="16.85546875" style="2" customWidth="1"/>
-    <col min="36" max="36" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="75.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" style="27" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="17" style="27" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="28.85546875" style="27" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="29" style="27" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="21.28515625" style="27" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" style="27" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="20.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="28" max="35" width="16.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="95.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="F1" s="5" t="s">
         <v>129</v>
       </c>
@@ -2363,7 +2390,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="F2" s="5" t="s">
         <v>128</v>
       </c>
@@ -2430,7 +2457,7 @@
         <v>1.4722222222222222E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
@@ -2539,111 +2566,114 @@
       <c r="AJ3" s="32" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK3" s="32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>1061688602</v>
+        <v>1110286885</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3">
-        <v>1.7303240740740741E-2</v>
+        <v>1.7349537037037038E-2</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" ref="G4:G36" si="0">IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
-        <v>0.99203715992037156</v>
+        <f>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
+        <v>0.99469143994691445</v>
       </c>
       <c r="H4" s="3">
-        <v>3.9247685185185184E-2</v>
+        <v>3.9293981481481478E-2</v>
       </c>
       <c r="I4" s="8">
-        <f t="shared" ref="I4:I36" si="1">IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
-        <v>0.98661623508874008</v>
+        <f>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
+        <v>0.98778004073319736</v>
       </c>
       <c r="J4" s="3">
-        <v>3.5891203703703703E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:K36" si="2">IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
-        <v>0.99839021249195115</v>
+        <f>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
+        <v>0.99935608499678041</v>
       </c>
       <c r="L4" s="3">
-        <v>2.162037037037037E-2</v>
+        <v>2.2129629629629631E-2</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" ref="M4:M36" si="3">IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
-        <v>0.95112016293279023</v>
+        <f>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
+        <v>0.97352342158859484</v>
       </c>
       <c r="N4" s="1">
-        <v>4.6122685185185183E-2</v>
+        <v>4.5590277777777778E-2</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" ref="O4:O36" si="4">IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</f>
-        <v>0.98858843959315301</v>
+        <f>IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</f>
+        <v>0.97717687918630614</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q4" s="8">
-        <f t="shared" ref="Q4:Q36" si="5">IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</f>
-        <v>0</v>
+        <f>IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="R4" s="4">
         <f>AVERAGE(G4,I4,K4,M4,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.0972935083558388</v>
+        <v>4.9437732220431609</v>
       </c>
       <c r="S4" s="13">
-        <v>8</v>
-      </c>
-      <c r="T4" s="4" t="e" cm="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="4" t="str" cm="1">
         <f t="array" ref="T4">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>#N/A</v>
+        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U4" s="29">
-        <v>4.9000000000000004</v>
+        <v>4</v>
       </c>
       <c r="V4" s="29">
         <v>0</v>
       </c>
       <c r="W4" s="29">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X4" s="29">
-        <v>3.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y4" s="29">
         <v>0</v>
       </c>
       <c r="Z4" s="29">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AA4" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>1.6911880525067515</v>
+        <v>2.1691319666129485</v>
       </c>
       <c r="AB4" s="1">
-        <v>0</v>
+        <v>4.1203703703703701E-2</v>
       </c>
       <c r="AC4" s="8">
-        <f t="shared" ref="AC4:AC36" si="6">IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</f>
-        <v>0</v>
+        <f>IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</f>
+        <v>1.0011248593925759</v>
       </c>
       <c r="AD4" s="1">
-        <v>0</v>
+        <v>3.7314814814814815E-2</v>
       </c>
       <c r="AE4" s="8">
-        <f t="shared" ref="AE4:AE36" si="7">IF(AD4/$AE$2&lt;=1.01,AD4/$AE$2,0.6)</f>
-        <v>0</v>
+        <f>IF(AD4/$AE$2&lt;=1.01,AD4/$AE$2,0.6)</f>
+        <v>0.99414122725871112</v>
       </c>
       <c r="AF4" s="1">
         <v>3.8368055555555558E-2</v>
@@ -2655,72 +2685,75 @@
         <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI4" s="8">
-        <f t="shared" ref="AI4:AI36" si="8">IF(AH4/$AI$2&lt;=1.01,AH4/$AI$2,0.6)</f>
+        <f>IF(AH4/$AI$2&lt;=1.01,AH4/$AI$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="AJ4" s="4"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK4" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>1110286885</v>
+        <v>1109542109</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3">
-        <v>1.7349537037037038E-2</v>
+        <v>1.6481481481481482E-2</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99469143994691445</v>
+        <f>IF(F5/$G$2&lt;=1.001,F5/$G$2,0.6)</f>
+        <v>0.94492368944923688</v>
       </c>
       <c r="H5" s="3">
-        <v>3.9293981481481478E-2</v>
+        <v>3.8530092592592595E-2</v>
       </c>
       <c r="I5" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98778004073319736</v>
+        <f>IF(H5/$I$2&lt;=1.001,H5/$I$2,0.6)</f>
+        <v>0.9685772475996508</v>
       </c>
       <c r="J5" s="3">
-        <v>3.5925925925925924E-2</v>
+        <v>3.5821759259259262E-2</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="2"/>
-        <v>0.99935608499678041</v>
+        <f>IF(J5/$K$2&lt;=1.001,J5/$K$2,0.6)</f>
+        <v>0.9964584674822925</v>
       </c>
       <c r="L5" s="3">
-        <v>2.2129629629629631E-2</v>
+        <v>1.0648148148148149E-3</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" si="3"/>
-        <v>0.97352342158859484</v>
+        <f>IF(L5/$M$2&lt;=1.001,L5/$M$2,0.6)</f>
+        <v>4.684317718940937E-2</v>
       </c>
       <c r="N5" s="1">
-        <v>4.5590277777777778E-2</v>
+        <v>4.4270833333333336E-2</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" si="4"/>
-        <v>0.97717687918630614</v>
+        <f>IF(N5/$O$2&lt;=1.001,N5/$O$2,0.6)</f>
+        <v>0.94889605556933765</v>
       </c>
       <c r="P5" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>3.9861111111111111E-2</v>
       </c>
       <c r="Q5" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(P5/$Q$2&lt;=1.001,P5/$Q$2,0.6)</f>
+        <v>0.92258237342619875</v>
       </c>
       <c r="R5" s="4">
         <f>AVERAGE(G5,I5,K5,M5,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9437732220431609</v>
+        <v>4.0235675089301051</v>
       </c>
       <c r="S5" s="13">
         <v>1</v>
@@ -2730,238 +2763,240 @@
         <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U5" s="29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V5" s="29">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="W5" s="29">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="X5" s="29">
         <v>1.1000000000000001</v>
       </c>
       <c r="Y5" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z5" s="29">
         <v>1.7</v>
       </c>
       <c r="AA5" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>2.1691319666129485</v>
+        <v>3.097070252679031</v>
       </c>
       <c r="AB5" s="1">
-        <v>4.1203703703703701E-2</v>
+        <v>3.8101851851851852E-2</v>
       </c>
       <c r="AC5" s="8">
-        <f t="shared" si="6"/>
-        <v>1.0011248593925759</v>
+        <f>IF(AB5/$AC$2&lt;=1.01,AB5/$AC$2,0.6)</f>
+        <v>0.92575928008998876</v>
       </c>
       <c r="AD5" s="1">
-        <v>3.7314814814814815E-2</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="8">
-        <f t="shared" si="7"/>
-        <v>0.99414122725871112</v>
+        <f>IF(AD5/$AE$2&lt;=1.01,AD5/$AE$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>3.7245370370370373E-2</v>
       </c>
       <c r="AG5" s="8">
-        <v>1</v>
+        <f>IF(AF5/$AG$2&lt;=1.01,AF5/$AG$2,0.6)</f>
+        <v>0.99229108849830416</v>
       </c>
       <c r="AH5" s="1">
         <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI5" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(AH5/$AI$2&lt;=1.01,AH5/$AI$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="AJ5" s="4"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK5" s="4"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D6">
-        <v>1112388246</v>
+        <v>1005785665</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3">
-        <v>1.744212962962963E-2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(F6/$G$2&lt;=1.001,F6/$G$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3.9085648148148147E-2</v>
+      </c>
+      <c r="I6" s="8">
+        <f>IF(H6/$I$2&lt;=1.001,H6/$I$2,0.6)</f>
+        <v>0.9825429153331392</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K6" s="8">
+        <f>IF(J6/$K$2&lt;=1.001,J6/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2.3148148148148149E-4</v>
+      </c>
+      <c r="M6" s="8">
+        <f>IF(L6/$M$2&lt;=1.001,L6/$M$2,0.6)</f>
+        <v>1.0183299389002037E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="O6" s="8">
+        <f>IF(N6/$O$2&lt;=1.001,N6/$O$2,0.6)</f>
+        <v>0.99727114859836263</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4.3206018518518519E-2</v>
+      </c>
+      <c r="Q6" s="8">
+        <f>IF(P6/$Q$2&lt;=1.001,P6/$Q$2,0.6)</f>
         <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3.8506944444444448E-2</v>
-      </c>
-      <c r="I6" s="8">
-        <f t="shared" si="1"/>
-        <v>0.96799534477742222</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1.0486111111111111E-2</v>
-      </c>
-      <c r="K6" s="8">
-        <f t="shared" si="2"/>
-        <v>0.29169349645846748</v>
-      </c>
-      <c r="L6" s="3">
-        <v>2.2592592592592591E-2</v>
-      </c>
-      <c r="M6" s="8">
-        <f t="shared" si="3"/>
-        <v>0.99389002036659879</v>
-      </c>
-      <c r="N6" s="1">
-        <v>3.7476851851851851E-2</v>
-      </c>
-      <c r="O6" s="8">
-        <f t="shared" si="4"/>
-        <v>0.80327462168196473</v>
-      </c>
-      <c r="P6" s="1">
-        <v>3.8391203703703705E-2</v>
-      </c>
-      <c r="Q6" s="8">
-        <f t="shared" si="5"/>
-        <v>0.8885614787034557</v>
       </c>
       <c r="R6" s="4">
         <f>AVERAGE(G6,I6,K6,M6,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.1211791349899247</v>
+        <v>3.325266100685095</v>
       </c>
       <c r="S6" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" s="4" t="str" cm="1">
         <f t="array" ref="T6">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U6" s="29">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V6" s="29">
+        <v>3.6</v>
+      </c>
+      <c r="W6" s="29">
+        <v>3</v>
+      </c>
+      <c r="X6" s="29">
         <v>3.3</v>
       </c>
-      <c r="W6" s="29">
-        <v>5</v>
-      </c>
-      <c r="X6" s="29">
-        <v>5</v>
-      </c>
       <c r="Y6" s="29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="29">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="AA6" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.4283537404969771</v>
+        <v>2.7615798302055281</v>
       </c>
       <c r="AB6" s="1">
-        <v>3.2685185185185185E-2</v>
+        <v>4.1157407407407406E-2</v>
       </c>
       <c r="AC6" s="8">
-        <f t="shared" si="6"/>
-        <v>0.79415073115860524</v>
+        <f>IF(AB6/$AC$2&lt;=1.01,AB6/$AC$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="AD6" s="1">
-        <v>2.2129629629629631E-2</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE6" s="8">
-        <f t="shared" si="7"/>
-        <v>0.58957755164970715</v>
+        <f>IF(AD6/$AE$2&lt;=1.01,AD6/$AE$2,0.6)</f>
+        <v>0.99599136601911809</v>
       </c>
       <c r="AF6" s="1">
-        <v>1.8831018518518518E-2</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="AG6" s="8">
-        <f t="shared" ref="AG6:AG34" si="9">IF(AF6/$AG$2&lt;=1.01,AF6/$AG$2,0.6)</f>
-        <v>0.50169596053037313</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="1">
         <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI6" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(AH6/$AI$2&lt;=1.01,AH6/$AI$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="AJ6" s="4"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK6" s="4"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D7">
-        <v>1109542109</v>
+        <v>1036925847</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3">
-        <v>1.6481481481481482E-2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.94492368944923688</v>
+        <f>IF(F7/$G$2&lt;=1.001,F7/$G$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>3.8530092592592595E-2</v>
+        <v>3.9178240740740743E-2</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" si="1"/>
-        <v>0.9685772475996508</v>
+        <f>IF(H7/$I$2&lt;=1.001,H7/$I$2,0.6)</f>
+        <v>0.9848705266220541</v>
       </c>
       <c r="J7" s="3">
-        <v>3.5821759259259262E-2</v>
+        <v>3.5844907407407409E-2</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="2"/>
-        <v>0.9964584674822925</v>
+        <f>IF(J7/$K$2&lt;=1.001,J7/$K$2,0.6)</f>
+        <v>0.99710238248551208</v>
       </c>
       <c r="L7" s="3">
-        <v>1.0648148148148149E-3</v>
+        <v>0</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="3"/>
-        <v>4.684317718940937E-2</v>
+        <f>IF(L7/$M$2&lt;=1.001,L7/$M$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>4.4270833333333336E-2</v>
+        <v>3.7858796296296293E-2</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="4"/>
-        <v>0.94889605556933765</v>
+        <f>IF(N7/$O$2&lt;=1.001,N7/$O$2,0.6)</f>
+        <v>0.81146117588687661</v>
       </c>
       <c r="P7" s="1">
-        <v>3.9861111111111111E-2</v>
+        <v>3.1886574074074074E-2</v>
       </c>
       <c r="Q7" s="8">
-        <f t="shared" si="5"/>
-        <v>0.92258237342619875</v>
+        <f>IF(P7/$Q$2&lt;=1.001,P7/$Q$2,0.6)</f>
+        <v>0.73801232252879723</v>
       </c>
       <c r="R7" s="4">
         <f>AVERAGE(G7,I7,K7,M7,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.0235675089301051</v>
+        <v>2.9428720062693667</v>
       </c>
       <c r="S7" s="13">
         <v>1</v>
@@ -2974,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V7" s="29">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="W7" s="29">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="X7" s="29">
         <v>1.1000000000000001</v>
@@ -2990,337 +3025,345 @@
       </c>
       <c r="AA7" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.097070252679031</v>
+        <v>2.0728616018808097</v>
       </c>
       <c r="AB7" s="1">
-        <v>3.8101851851851852E-2</v>
+        <v>4.1157407407407406E-2</v>
       </c>
       <c r="AC7" s="8">
-        <f t="shared" si="6"/>
-        <v>0.92575928008998876</v>
+        <f>IF(AB7/$AC$2&lt;=1.01,AB7/$AC$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="AD7" s="1">
-        <v>0</v>
+        <v>3.7291666666666667E-2</v>
       </c>
       <c r="AE7" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>IF(AD7/$AE$2&lt;=1.01,AD7/$AE$2,0.6)</f>
+        <v>0.99352451433857547</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.7245370370370373E-2</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="AG7" s="8">
-        <f t="shared" si="9"/>
-        <v>0.99229108849830416</v>
+        <v>1</v>
       </c>
       <c r="AH7" s="1">
         <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI7" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(AH7/$AI$2&lt;=1.01,AH7/$AI$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="AJ7" s="4"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK7" s="4"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>85</v>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
       </c>
       <c r="D8">
-        <v>1193276119</v>
+        <v>1112388246</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3">
-        <v>1.7349537037037038E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99469143994691445</v>
+        <f>IF(F8/$G$2&lt;=1.001,F8/$G$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>3.8506944444444448E-2</v>
       </c>
       <c r="I8" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(H8/$I$2&lt;=1.001,H8/$I$2,0.6)</f>
+        <v>0.96799534477742222</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>1.0486111111111111E-2</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(J8/$K$2&lt;=1.001,J8/$K$2,0.6)</f>
+        <v>0.29169349645846748</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>2.2592592592592591E-2</v>
       </c>
       <c r="M8" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(L8/$M$2&lt;=1.001,L8/$M$2,0.6)</f>
+        <v>0.99389002036659879</v>
       </c>
       <c r="N8" s="1">
-        <v>1.5972222222222223E-3</v>
+        <v>3.7476851851851851E-2</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" si="4"/>
-        <v>3.4234681220540811E-2</v>
+        <f>IF(N8/$O$2&lt;=1.001,N8/$O$2,0.6)</f>
+        <v>0.80327462168196473</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>3.8391203703703705E-2</v>
       </c>
       <c r="Q8" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(P8/$Q$2&lt;=1.001,P8/$Q$2,0.6)</f>
+        <v>0.8885614787034557</v>
       </c>
       <c r="R8" s="4">
         <f>AVERAGE(G8,I8,K8,M8,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>0.85743843430621258</v>
-      </c>
-      <c r="S8" s="13"/>
+        <v>4.1211791349899247</v>
+      </c>
+      <c r="S8" s="13">
+        <v>2</v>
+      </c>
       <c r="T8" s="4" t="str" cm="1">
         <f t="array" ref="T8">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
+        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U8" s="29">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="V8" s="29">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="W8" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X8" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y8" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z8" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA8" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0.25723153029186374</v>
+        <v>4.4283537404969771</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>3.2685185185185185E-2</v>
       </c>
       <c r="AC8" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(AB8/$AC$2&lt;=1.01,AB8/$AC$2,0.6)</f>
+        <v>0.79415073115860524</v>
       </c>
       <c r="AD8" s="1">
-        <v>0</v>
+        <v>2.2129629629629631E-2</v>
       </c>
       <c r="AE8" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>IF(AD8/$AE$2&lt;=1.01,AD8/$AE$2,0.6)</f>
+        <v>0.58957755164970715</v>
       </c>
       <c r="AF8" s="1">
-        <v>0</v>
+        <v>1.8831018518518518E-2</v>
       </c>
       <c r="AG8" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>IF(AF8/$AG$2&lt;=1.01,AF8/$AG$2,0.6)</f>
+        <v>0.50169596053037313</v>
       </c>
       <c r="AH8" s="1">
-        <v>0</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI8" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(AH8/$AI$2&lt;=1.01,AH8/$AI$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="AJ8" s="4"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK8" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>23</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>105</v>
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
       </c>
       <c r="D9">
-        <v>1143992171</v>
+        <v>1000940688</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3">
-        <v>3.4791666666666665E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F9/$G$2&lt;=1.001,F9/$G$2,0.6)</f>
+        <v>0.99535500995355009</v>
       </c>
       <c r="H9" s="3">
-        <v>7.1990740740740739E-3</v>
+        <v>3.9259259259259258E-2</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" si="1"/>
-        <v>0.1809717777131219</v>
+        <f>IF(H9/$I$2&lt;=1.001,H9/$I$2,0.6)</f>
+        <v>0.98690718649985443</v>
       </c>
       <c r="J9" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>3.5949074074074071E-2</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
+        <f>IF(J9/$K$2&lt;=1.001,J9/$K$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="L9" s="3">
-        <v>1.9398148148148147E-2</v>
+        <v>2.2638888888888889E-2</v>
       </c>
       <c r="M9" s="8">
-        <f t="shared" si="3"/>
-        <v>0.85336048879837068</v>
+        <f>IF(L9/$M$2&lt;=1.001,L9/$M$2,0.6)</f>
+        <v>0.99592668024439923</v>
       </c>
       <c r="N9" s="1">
-        <v>4.5810185185185183E-2</v>
+        <v>4.4965277777777778E-2</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="4"/>
-        <v>0.98189034978913414</v>
+        <f>IF(N9/$O$2&lt;=1.001,N9/$O$2,0.6)</f>
+        <v>0.9637806995782684</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>4.1863425925925929E-2</v>
       </c>
       <c r="Q9" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(P9/$Q$2&lt;=1.001,P9/$Q$2,0.6)</f>
+        <v>0.96892579694615599</v>
       </c>
       <c r="R9" s="4">
         <f>AVERAGE(G9,I9,K9,M9,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.0137871448351969</v>
-      </c>
-      <c r="S9" s="13"/>
+        <v>4.9257461443518569</v>
+      </c>
+      <c r="S9" s="13">
+        <v>2</v>
+      </c>
       <c r="T9" s="4" t="str" cm="1">
         <f t="array" ref="T9">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
+        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U9" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V9" s="29">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W9" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X9" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y9" s="29">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="Z9" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA9" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0.90413614345055904</v>
+        <v>4.7957238433055576</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>3.8182870370370367E-2</v>
       </c>
       <c r="AC9" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(AB9/$AC$2&lt;=1.01,AB9/$AC$2,0.6)</f>
+        <v>0.92772778402699652</v>
       </c>
       <c r="AD9" s="1">
-        <v>0</v>
+        <v>3.7303240740740741E-2</v>
       </c>
       <c r="AE9" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>IF(AD9/$AE$2&lt;=1.01,AD9/$AE$2,0.6)</f>
+        <v>0.99383287079864335</v>
       </c>
       <c r="AF9" s="1">
-        <v>0</v>
+        <v>3.215277777777778E-2</v>
       </c>
       <c r="AG9" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>IF(AF9/$AG$2&lt;=1.01,AF9/$AG$2,0.6)</f>
+        <v>0.85661424606845527</v>
       </c>
       <c r="AH9" s="1">
-        <v>0</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI9" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(AH9/$AI$2&lt;=1.01,AH9/$AI$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="AJ9" s="4"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK9" s="4"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10">
-        <v>1000940688</v>
+        <v>1107837413</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3">
-        <v>1.7361111111111112E-2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99535500995355009</v>
+        <f>IF(F10/$G$2&lt;=1.001,F10/$G$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>3.9259259259259258E-2</v>
+        <v>3.7743055555555557E-2</v>
       </c>
       <c r="I10" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98690718649985443</v>
+        <f>IF(H10/$I$2&lt;=1.001,H10/$I$2,0.6)</f>
+        <v>0.94879255164387544</v>
       </c>
       <c r="J10" s="3">
-        <v>3.5949074074074071E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(J10/$K$2&lt;=1.001,J10/$K$2,0.6)</f>
+        <v>0.99935608499678041</v>
       </c>
       <c r="L10" s="3">
-        <v>2.2638888888888889E-2</v>
+        <v>2.0636574074074075E-2</v>
       </c>
       <c r="M10" s="8">
-        <f t="shared" si="3"/>
-        <v>0.99592668024439923</v>
+        <f>IF(L10/$M$2&lt;=1.001,L10/$M$2,0.6)</f>
+        <v>0.90784114052953158</v>
       </c>
       <c r="N10" s="1">
-        <v>4.4965277777777778E-2</v>
+        <v>0</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="4"/>
-        <v>0.9637806995782684</v>
+        <f>IF(N10/$O$2&lt;=1.001,N10/$O$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>4.1863425925925929E-2</v>
+        <v>3.9016203703703706E-2</v>
       </c>
       <c r="Q10" s="8">
-        <f t="shared" si="5"/>
-        <v>0.96892579694615599</v>
+        <f>IF(P10/$Q$2&lt;=1.001,P10/$Q$2,0.6)</f>
+        <v>0.90302705598714172</v>
       </c>
       <c r="R10" s="4">
         <f>AVERAGE(G10,I10,K10,M10,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9257461443518569</v>
+        <v>3.1325140276311076</v>
       </c>
       <c r="S10" s="13">
         <v>2</v>
@@ -3330,58 +3373,59 @@
         <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U10" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V10" s="29">
-        <v>4.9000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="W10" s="29">
         <v>5</v>
       </c>
       <c r="X10" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="Y10" s="29">
         <v>5</v>
-      </c>
-      <c r="Y10" s="29">
-        <v>4.3</v>
       </c>
       <c r="Z10" s="29">
         <v>4.5</v>
       </c>
       <c r="AA10" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.7957238433055576</v>
+        <v>3.977754208289332</v>
       </c>
       <c r="AB10" s="1">
-        <v>3.8182870370370367E-2</v>
+        <v>3.8090277777777778E-2</v>
       </c>
       <c r="AC10" s="8">
-        <f t="shared" si="6"/>
-        <v>0.92772778402699652</v>
+        <f>IF(AB10/$AC$2&lt;=1.01,AB10/$AC$2,0.6)</f>
+        <v>0.92547806524184484</v>
       </c>
       <c r="AD10" s="1">
-        <v>3.7303240740740741E-2</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE10" s="8">
-        <f t="shared" si="7"/>
-        <v>0.99383287079864335</v>
+        <f>IF(AD10/$AE$2&lt;=1.01,AD10/$AE$2,0.6)</f>
+        <v>0.99599136601911809</v>
       </c>
       <c r="AF10" s="1">
-        <v>3.215277777777778E-2</v>
+        <v>2.8125000000000001E-2</v>
       </c>
       <c r="AG10" s="8">
-        <f t="shared" si="9"/>
-        <v>0.85661424606845527</v>
+        <f>IF(AF10/$AG$2&lt;=1.01,AF10/$AG$2,0.6)</f>
+        <v>0.74930619796484743</v>
       </c>
       <c r="AH10" s="1">
         <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI10" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(AH10/$AI$2&lt;=1.01,AH10/$AI$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="AJ10" s="4"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK10" s="4"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3401,42 +3445,42 @@
         <v>5.2083333333333333E-4</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(F11/$G$2&lt;=1.001,F11/$G$2,0.6)</f>
         <v>2.98606502986065E-2</v>
       </c>
       <c r="H11" s="3">
         <v>3.9074074074074074E-2</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(H11/$I$2&lt;=1.001,H11/$I$2,0.6)</f>
         <v>0.98225196392202496</v>
       </c>
       <c r="J11" s="3">
         <v>3.5763888888888887E-2</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(J11/$K$2&lt;=1.001,J11/$K$2,0.6)</f>
         <v>0.99484867997424342</v>
       </c>
       <c r="L11" s="3">
         <v>1.8090277777777778E-2</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(L11/$M$2&lt;=1.001,L11/$M$2,0.6)</f>
         <v>0.79582484725050917</v>
       </c>
       <c r="N11" s="1">
         <v>4.6388888888888889E-2</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(N11/$O$2&lt;=1.001,N11/$O$2,0.6)</f>
         <v>0.99429421979657651</v>
       </c>
       <c r="P11" s="1">
         <v>4.1805555555555554E-2</v>
       </c>
       <c r="Q11" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(P11/$Q$2&lt;=1.001,P11/$Q$2,0.6)</f>
         <v>0.96758639164211091</v>
       </c>
       <c r="R11" s="4">
@@ -3476,109 +3520,112 @@
         <v>3.6736111111111108E-2</v>
       </c>
       <c r="AC11" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(AB11/$AC$2&lt;=1.01,AB11/$AC$2,0.6)</f>
         <v>0.89257592800899888</v>
       </c>
       <c r="AD11" s="1">
         <v>3.2986111111111112E-2</v>
       </c>
       <c r="AE11" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(AD11/$AE$2&lt;=1.01,AD11/$AE$2,0.6)</f>
         <v>0.87881591119333957</v>
       </c>
       <c r="AF11" s="1">
         <v>3.6724537037037035E-2</v>
       </c>
       <c r="AG11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(AF11/$AG$2&lt;=1.01,AF11/$AG$2,0.6)</f>
         <v>0.97841504779525135</v>
       </c>
       <c r="AH11" s="1">
         <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(AH11/$AI$2&lt;=1.01,AH11/$AI$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="AJ11" s="4"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK11" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>1110285503</v>
+        <v>1005832925</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F12" s="3">
         <v>1.7314814814814814E-2</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(F12/$G$2&lt;=1.001,F12/$G$2,0.6)</f>
         <v>0.9927007299270072</v>
       </c>
       <c r="H12" s="3">
-        <v>3.9189814814814816E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I12" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98516147803316845</v>
+        <f>IF(H12/$I$2&lt;=1.001,H12/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>3.5868055555555556E-2</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(J12/$K$2&lt;=1.001,J12/$K$2,0.6)</f>
+        <v>0.99774629748873156</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>2.1909722222222223E-2</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(L12/$M$2&lt;=1.001,L12/$M$2,0.6)</f>
+        <v>0.96384928716904283</v>
       </c>
       <c r="N12" s="1">
-        <v>4.327546296296296E-2</v>
+        <v>4.6631944444444441E-2</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" si="4"/>
-        <v>0.92756139915653668</v>
+        <f>IF(N12/$O$2&lt;=1.001,N12/$O$2,0.6)</f>
+        <v>0.99950384519970215</v>
       </c>
       <c r="P12" s="1">
-        <v>4.3182870370370371E-2</v>
+        <v>4.2488425925925923E-2</v>
       </c>
       <c r="Q12" s="8">
-        <f t="shared" si="5"/>
-        <v>0.99946423787838201</v>
+        <f>IF(P12/$Q$2&lt;=1.001,P12/$Q$2,0.6)</f>
+        <v>0.98339137422984191</v>
       </c>
       <c r="R12" s="4">
         <f>AVERAGE(G12,I12,K12,M12,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.2540732041625784</v>
+        <v>4.9483869902063908</v>
       </c>
       <c r="S12" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T12" s="4" t="str" cm="1">
         <f t="array" ref="T12">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U12" s="29">
         <v>5</v>
       </c>
       <c r="V12" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W12" s="29">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="X12" s="29">
         <v>5</v>
@@ -3591,21 +3638,21 @@
       </c>
       <c r="AA12" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.6502219612487732</v>
+        <v>4.9145160970619175</v>
       </c>
       <c r="AB12" s="1">
-        <v>3.7256944444444447E-2</v>
+        <v>3.8379629629629632E-2</v>
       </c>
       <c r="AC12" s="8">
-        <f t="shared" si="6"/>
-        <v>0.90523059617547819</v>
+        <f>IF(AB12/$AC$2&lt;=1.01,AB12/$AC$2,0.6)</f>
+        <v>0.93250843644544434</v>
       </c>
       <c r="AD12" s="1">
-        <v>0</v>
+        <v>3.3958333333333333E-2</v>
       </c>
       <c r="AE12" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>IF(AD12/$AE$2&lt;=1.01,AD12/$AE$2,0.6)</f>
+        <v>0.90471785383903802</v>
       </c>
       <c r="AF12" s="1">
         <v>3.8368055555555558E-2</v>
@@ -3614,91 +3661,92 @@
         <v>1</v>
       </c>
       <c r="AH12" s="1">
-        <v>1.412037037037037E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI12" s="8">
-        <f t="shared" si="8"/>
-        <v>0.95911949685534592</v>
+        <f>IF(AH12/$AI$2&lt;=1.01,AH12/$AI$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="AJ12" s="4"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK12" s="4"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D13">
-        <v>1107837304</v>
+        <v>1006343564</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3">
-        <v>3.8090277777777778E-2</v>
+        <v>1.7337962962962961E-2</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F13/$G$2&lt;=1.001,F13/$G$2,0.6)</f>
+        <v>0.99402786994027859</v>
       </c>
       <c r="H13" s="3">
-        <v>3.8541666666666669E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" si="1"/>
-        <v>0.96886819901076515</v>
+        <f>IF(H13/$I$2&lt;=1.001,H13/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J13" s="3">
-        <v>3.3229166666666664E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="2"/>
-        <v>0.92433998712169996</v>
-      </c>
-      <c r="L13" s="3">
-        <v>5.115740740740741E-3</v>
-      </c>
-      <c r="M13" s="8">
-        <f t="shared" si="3"/>
-        <v>0.22505091649694503</v>
+        <f>IF(J13/$K$2&lt;=1.001,J13/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L13" s="9">
+        <v>2.2731481481481481E-2</v>
+      </c>
+      <c r="M13" s="10">
+        <f>IF(L13/$M$2&lt;=1.001,L13/$M$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>4.4849537037037035E-2</v>
+        <v>2.9768518518518517E-2</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" si="4"/>
-        <v>0.9612999255767799</v>
+        <f>IF(N13/$O$2&lt;=1.001,N13/$O$2,0.6)</f>
+        <v>0.63805507318283294</v>
       </c>
       <c r="P13" s="1">
-        <v>3.9386574074074074E-2</v>
+        <v>4.1909722222222223E-2</v>
       </c>
       <c r="Q13" s="8">
-        <f t="shared" si="5"/>
-        <v>0.91159924993302976</v>
+        <f>IF(P13/$Q$2&lt;=1.001,P13/$Q$2,0.6)</f>
+        <v>0.96999732118939197</v>
       </c>
       <c r="R13" s="4">
         <f>AVERAGE(G13,I13,K13,M13,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.8259652317826838</v>
+        <v>4.6693958967062139</v>
       </c>
       <c r="S13" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T13" s="4" t="str" cm="1">
         <f t="array" ref="T13">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U13" s="29">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="V13" s="29">
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W13" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X13" s="29">
         <v>3.3</v>
@@ -3711,21 +3759,21 @@
       </c>
       <c r="AA13" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.2137895695348053</v>
+        <v>4.3968187690118636</v>
       </c>
       <c r="AB13" s="1">
-        <v>3.8101851851851852E-2</v>
+        <v>3.8124999999999999E-2</v>
       </c>
       <c r="AC13" s="8">
-        <f t="shared" si="6"/>
-        <v>0.92575928008998876</v>
+        <f>IF(AB13/$AC$2&lt;=1.01,AB13/$AC$2,0.6)</f>
+        <v>0.9263217097862767</v>
       </c>
       <c r="AD13" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>3.5486111111111114E-2</v>
       </c>
       <c r="AE13" s="8">
-        <f t="shared" si="7"/>
-        <v>0.99599136601911809</v>
+        <f>IF(AD13/$AE$2&lt;=1.01,AD13/$AE$2,0.6)</f>
+        <v>0.94542090656799271</v>
       </c>
       <c r="AF13" s="1">
         <v>3.8368055555555558E-2</v>
@@ -3734,94 +3782,95 @@
         <v>1</v>
       </c>
       <c r="AH13" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>1.4386574074074074E-2</v>
       </c>
       <c r="AI13" s="8">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IF(AH13/$AI$2&lt;=1.01,AH13/$AI$2,0.6)</f>
+        <v>0.97720125786163525</v>
       </c>
       <c r="AJ13" s="4"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK13" s="4"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>103</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="D14">
-        <v>1112388822</v>
-      </c>
-      <c r="E14" t="s">
-        <v>52</v>
+        <v>73265790</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F14" s="3">
-        <v>1.7337962962962961E-2</v>
+        <v>4.3611111111111114E-2</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99402786994027859</v>
+        <f>IF(F14/$G$2&lt;=1.001,F14/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H14" s="3">
-        <v>3.9224537037037037E-2</v>
+        <v>3.9641203703703706E-2</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98603433226651138</v>
+        <f>IF(H14/$I$2&lt;=1.001,H14/$I$2,0.6)</f>
+        <v>0.99650858306662782</v>
       </c>
       <c r="J14" s="3">
         <v>3.5879629629629629E-2</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(J14/$K$2&lt;=1.001,J14/$K$2,0.6)</f>
         <v>0.99806825499034135</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>2.1238425925925924E-2</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(L14/$M$2&lt;=1.001,L14/$M$2,0.6)</f>
+        <v>0.93431771894093685</v>
       </c>
       <c r="N14" s="1">
-        <v>3.2685185185185185E-2</v>
+        <v>4.659722222222222E-2</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" si="4"/>
-        <v>0.70057057802034228</v>
+        <f>IF(N14/$O$2&lt;=1.001,N14/$O$2,0.6)</f>
+        <v>0.99875961299925564</v>
       </c>
       <c r="P14" s="1">
-        <v>3.3252314814814818E-2</v>
+        <v>4.1886574074074076E-2</v>
       </c>
       <c r="Q14" s="8">
-        <f t="shared" si="5"/>
-        <v>0.76962228770425933</v>
+        <f>IF(P14/$Q$2&lt;=1.001,P14/$Q$2,0.6)</f>
+        <v>0.96946155906777398</v>
       </c>
       <c r="R14" s="4">
         <f>AVERAGE(G14,I14,K14,M14,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.7069361024347773</v>
+        <v>4.5809297742207793</v>
       </c>
       <c r="S14" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T14" s="4" t="str" cm="1">
         <f t="array" ref="T14">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U14" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V14" s="29">
+        <v>3.9</v>
+      </c>
+      <c r="W14" s="29">
         <v>4.5</v>
       </c>
-      <c r="V14" s="29">
-        <v>4.8</v>
-      </c>
-      <c r="W14" s="29">
-        <v>4</v>
-      </c>
       <c r="X14" s="29">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Y14" s="29">
         <v>5</v>
@@ -3831,383 +3880,385 @@
       </c>
       <c r="AA14" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.1360808307304335</v>
+        <v>4.5802789322662338</v>
       </c>
       <c r="AB14" s="1">
-        <v>3.2615740740740744E-2</v>
+        <v>3.8425925925925926E-2</v>
       </c>
       <c r="AC14" s="8">
-        <f t="shared" si="6"/>
-        <v>0.7924634420697414</v>
+        <f>IF(AB14/$AC$2&lt;=1.01,AB14/$AC$2,0.6)</f>
+        <v>0.93363329583802024</v>
       </c>
       <c r="AD14" s="1">
-        <v>2.9525462962962962E-2</v>
+        <v>3.7256944444444447E-2</v>
       </c>
       <c r="AE14" s="8">
-        <f t="shared" si="7"/>
-        <v>0.78661732963305586</v>
+        <f>IF(AD14/$AE$2&lt;=1.01,AD14/$AE$2,0.6)</f>
+        <v>0.99259944495837205</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.7488425925925925E-2</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="AG14" s="8">
-        <f t="shared" si="9"/>
-        <v>0.99876657415972869</v>
+        <v>1</v>
       </c>
       <c r="AH14" s="1">
-        <v>0</v>
+        <v>2.855324074074074E-2</v>
       </c>
       <c r="AI14" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="4"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK14" s="4"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D15">
-        <v>1107839506</v>
+        <v>1110285503</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F15" s="3">
-        <v>1.744212962962963E-2</v>
+        <v>1.7314814814814814E-2</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(F15/$G$2&lt;=1.001,F15/$G$2,0.6)</f>
+        <v>0.9927007299270072</v>
       </c>
       <c r="H15" s="3">
-        <v>3.9270833333333331E-2</v>
+        <v>3.9189814814814816E-2</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98719813791096878</v>
+        <f>IF(H15/$I$2&lt;=1.001,H15/$I$2,0.6)</f>
+        <v>0.98516147803316845</v>
       </c>
       <c r="J15" s="3">
-        <v>3.591435185185185E-2</v>
+        <v>0</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="2"/>
-        <v>0.99903412749517073</v>
+        <f>IF(J15/$K$2&lt;=1.001,J15/$K$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>1.9351851851851853E-2</v>
+        <v>0</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="3"/>
-        <v>0.85132382892057035</v>
+        <f>IF(L15/$M$2&lt;=1.001,L15/$M$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
-        <v>4.2256944444444444E-2</v>
+        <v>4.327546296296296E-2</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" si="4"/>
-        <v>0.9057305879434383</v>
+        <f>IF(N15/$O$2&lt;=1.001,N15/$O$2,0.6)</f>
+        <v>0.92756139915653668</v>
       </c>
       <c r="P15" s="1">
-        <v>3.9687500000000001E-2</v>
+        <v>4.3182870370370371E-2</v>
       </c>
       <c r="Q15" s="8">
-        <f t="shared" si="5"/>
-        <v>0.91856415751406373</v>
+        <f>IF(P15/$Q$2&lt;=1.001,P15/$Q$2,0.6)</f>
+        <v>0.99946423787838201</v>
       </c>
       <c r="R15" s="4">
         <f>AVERAGE(G15,I15,K15,M15,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.71820903315351</v>
+        <v>3.2540732041625784</v>
       </c>
       <c r="S15" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T15" s="4" t="str" cm="1">
         <f t="array" ref="T15">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U15" s="29">
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="V15" s="29">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="W15" s="29">
-        <v>4.4000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="X15" s="29">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Y15" s="29">
         <v>5</v>
       </c>
       <c r="Z15" s="29">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AA15" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.341462709946053</v>
+        <v>3.6502219612487732</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>3.7256944444444447E-2</v>
       </c>
       <c r="AC15" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(AB15/$AC$2&lt;=1.01,AB15/$AC$2,0.6)</f>
+        <v>0.90523059617547819</v>
       </c>
       <c r="AD15" s="1">
-        <v>3.712962962962963E-2</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="8">
-        <f t="shared" si="7"/>
-        <v>0.98920752389762578</v>
+        <f>IF(AD15/$AE$2&lt;=1.01,AD15/$AE$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>0</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="AG15" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>1.412037037037037E-2</v>
       </c>
       <c r="AI15" s="8">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IF(AH15/$AI$2&lt;=1.01,AH15/$AI$2,0.6)</f>
+        <v>0.95911949685534592</v>
       </c>
       <c r="AJ15" s="4"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>24</v>
+      <c r="AK15" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>280</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D16">
-        <v>1112041894</v>
+        <v>1112388822</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F16" s="3">
-        <v>3.7592592592592594E-2</v>
+        <v>1.7337962962962961E-2</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F16/$G$2&lt;=1.001,F16/$G$2,0.6)</f>
+        <v>0.99402786994027859</v>
       </c>
       <c r="H16" s="3">
-        <v>2.7164351851851853E-2</v>
+        <v>3.9224537037037037E-2</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="1"/>
-        <v>0.68286296188536511</v>
+        <f>IF(H16/$I$2&lt;=1.001,H16/$I$2,0.6)</f>
+        <v>0.98603433226651138</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>3.5879629629629629E-2</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(J16/$K$2&lt;=1.001,J16/$K$2,0.6)</f>
+        <v>0.99806825499034135</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(L16/$M$2&lt;=1.001,L16/$M$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>4.1226851851851855E-2</v>
+        <v>3.2685185185185185E-2</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" si="4"/>
-        <v>0.88365169933019105</v>
+        <f>IF(N16/$O$2&lt;=1.001,N16/$O$2,0.6)</f>
+        <v>0.70057057802034228</v>
       </c>
       <c r="P16" s="1">
-        <v>4.2858796296296298E-2</v>
+        <v>3.3252314814814818E-2</v>
       </c>
       <c r="Q16" s="8">
-        <f t="shared" si="5"/>
-        <v>0.99196356817573006</v>
+        <f>IF(P16/$Q$2&lt;=1.001,P16/$Q$2,0.6)</f>
+        <v>0.76962228770425933</v>
       </c>
       <c r="R16" s="4">
         <f>AVERAGE(G16,I16,K16,M16,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.6320651911594055</v>
+        <v>3.7069361024347773</v>
       </c>
       <c r="S16" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T16" s="4" t="str" cm="1">
         <f t="array" ref="T16">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U16" s="29">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="V16" s="29">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="W16" s="29">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="X16" s="29">
         <v>3.3</v>
       </c>
       <c r="Y16" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z16" s="29">
         <v>4.5</v>
       </c>
       <c r="AA16" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>2.6236195573478214</v>
+        <v>4.1360808307304335</v>
       </c>
       <c r="AB16" s="1">
-        <v>4.0208333333333332E-2</v>
+        <v>3.2615740740740744E-2</v>
       </c>
       <c r="AC16" s="8">
-        <f t="shared" si="6"/>
-        <v>0.9769403824521935</v>
+        <f>IF(AB16/$AC$2&lt;=1.01,AB16/$AC$2,0.6)</f>
+        <v>0.7924634420697414</v>
       </c>
       <c r="AD16" s="1">
-        <v>3.6712962962962961E-2</v>
+        <v>2.9525462962962962E-2</v>
       </c>
       <c r="AE16" s="8">
-        <f t="shared" si="7"/>
-        <v>0.97810669133518346</v>
+        <f>IF(AD16/$AE$2&lt;=1.01,AD16/$AE$2,0.6)</f>
+        <v>0.78661732963305586</v>
       </c>
       <c r="AF16" s="1">
-        <v>3.7557870370370373E-2</v>
+        <v>3.7488425925925925E-2</v>
       </c>
       <c r="AG16" s="8">
-        <f t="shared" si="9"/>
-        <v>1.0006167129201358</v>
+        <f>IF(AF16/$AG$2&lt;=1.01,AF16/$AG$2,0.6)</f>
+        <v>0.99876657415972869</v>
       </c>
       <c r="AH16" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(AH16/$AI$2&lt;=1.01,AH16/$AI$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17">
+        <v>1113978874</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1.744212962962963E-2</v>
+      </c>
+      <c r="G17" s="8">
+        <f>IF(F17/$G$2&lt;=1.001,F17/$G$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="AJ16" s="4"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17">
-        <v>1005785665</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
-        <v>3.9085648148148147E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="1"/>
-        <v>0.9825429153331392</v>
+        <f>IF(H17/$I$2&lt;=1.001,H17/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J17" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(J17/$K$2&lt;=1.001,J17/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
       <c r="L17" s="3">
-        <v>2.3148148148148149E-4</v>
+        <v>2.1203703703703704E-2</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="3"/>
-        <v>1.0183299389002037E-2</v>
+        <f>IF(L17/$M$2&lt;=1.001,L17/$M$2,0.6)</f>
+        <v>0.9327902240325866</v>
       </c>
       <c r="N17" s="1">
-        <v>4.6527777777777779E-2</v>
+        <v>4.6666666666666669E-2</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="4"/>
-        <v>0.99727114859836263</v>
+        <f>IF(N17/$O$2&lt;=1.001,N17/$O$2,0.6)</f>
+        <v>1.0002480774001488</v>
       </c>
       <c r="P17" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q17" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(P17/$Q$2&lt;=1.001,P17/$Q$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="R17" s="4">
         <f>AVERAGE(G17,I17,K17,M17,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.325266100685095</v>
+        <v>4.9451942609730732</v>
       </c>
       <c r="S17" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T17" s="4" t="str" cm="1">
         <f t="array" ref="T17">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U17" s="29">
+        <v>5</v>
+      </c>
+      <c r="V17" s="29">
         <v>4.9000000000000004</v>
       </c>
-      <c r="V17" s="29">
-        <v>3.6</v>
-      </c>
       <c r="W17" s="29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X17" s="29">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Y17" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z17" s="29">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="AA17" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>2.7615798302055281</v>
+        <v>4.8995582782919218</v>
       </c>
       <c r="AB17" s="1">
-        <v>4.1157407407407406E-2</v>
+        <v>3.9328703703703706E-2</v>
       </c>
       <c r="AC17" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>IF(AB17/$AC$2&lt;=1.01,AB17/$AC$2,0.6)</f>
+        <v>0.95556805399325095</v>
       </c>
       <c r="AD17" s="1">
         <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE17" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(AD17/$AE$2&lt;=1.01,AD17/$AE$2,0.6)</f>
         <v>0.99599136601911809</v>
       </c>
       <c r="AF17" s="1">
@@ -4220,72 +4271,73 @@
         <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI17" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(AH17/$AI$2&lt;=1.01,AH17/$AI$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="AJ17" s="4"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK17" s="4"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D18">
-        <v>1113978874</v>
+        <v>1104804719</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F18" s="3">
-        <v>1.744212962962963E-2</v>
+        <v>3.4641203703703702E-2</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(F18/$G$2&lt;=1.001,F18/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H18" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>3.9178240740740743E-2</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
+        <f>IF(H18/$I$2&lt;=1.001,H18/$I$2,0.6)</f>
+        <v>0.9848705266220541</v>
       </c>
       <c r="J18" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>3.5856481481481482E-2</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
+        <f>IF(J18/$K$2&lt;=1.001,J18/$K$2,0.6)</f>
+        <v>0.99742433998712177</v>
       </c>
       <c r="L18" s="3">
-        <v>2.1203703703703704E-2</v>
+        <v>1.9652777777777779E-2</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="3"/>
-        <v>0.9327902240325866</v>
+        <f>IF(L18/$M$2&lt;=1.001,L18/$M$2,0.6)</f>
+        <v>0.86456211812627304</v>
       </c>
       <c r="N18" s="1">
-        <v>4.6666666666666669E-2</v>
+        <v>0</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="4"/>
-        <v>1.0002480774001488</v>
+        <f>IF(N18/$O$2&lt;=1.001,N18/$O$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>3.9768518518518516E-2</v>
       </c>
       <c r="Q18" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(P18/$Q$2&lt;=1.001,P18/$Q$2,0.6)</f>
+        <v>0.92043932493972669</v>
       </c>
       <c r="R18" s="4">
         <f>AVERAGE(G18,I18,K18,M18,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9451942609730732</v>
+        <v>3.6394135913959795</v>
       </c>
       <c r="S18" s="13">
         <v>4</v>
@@ -4304,7 +4356,7 @@
         <v>5</v>
       </c>
       <c r="X18" s="29">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Y18" s="29">
         <v>5</v>
@@ -4314,478 +4366,486 @@
       </c>
       <c r="AA18" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.8995582782919218</v>
+        <v>4.2698240774187939</v>
       </c>
       <c r="AB18" s="1">
-        <v>3.9328703703703706E-2</v>
+        <v>4.0914351851851855E-2</v>
       </c>
       <c r="AC18" s="8">
-        <f t="shared" si="6"/>
-        <v>0.95556805399325095</v>
+        <f>IF(AB18/$AC$2&lt;=1.01,AB18/$AC$2,0.6)</f>
+        <v>0.9940944881889765</v>
       </c>
       <c r="AD18" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>1.6608796296296295E-2</v>
       </c>
       <c r="AE18" s="8">
-        <f t="shared" si="7"/>
-        <v>0.99599136601911809</v>
+        <f>IF(AD18/$AE$2&lt;=1.01,AD18/$AE$2,0.6)</f>
+        <v>0.44249152019734816</v>
       </c>
       <c r="AF18" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>3.4942129629629629E-2</v>
       </c>
       <c r="AG18" s="8">
-        <v>1</v>
+        <f>IF(AF18/$AG$2&lt;=1.01,AF18/$AG$2,0.6)</f>
+        <v>0.93092815294480424</v>
       </c>
       <c r="AH18" s="1">
         <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI18" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(AH18/$AI$2&lt;=1.01,AH18/$AI$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="AJ18" s="4"/>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK18" s="4"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D19">
-        <v>1105366146</v>
+        <v>1004217163</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F19" s="3">
-        <v>3.8437499999999999E-2</v>
+        <v>4.1458333333333333E-2</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(F19/$G$2&lt;=1.001,F19/$G$2,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(H19/$I$2&lt;=1.001,H19/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J19" s="3">
-        <v>1.3148148148148148E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="2"/>
-        <v>0.36574372182871867</v>
+        <f>IF(J19/$K$2&lt;=1.001,J19/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
       </c>
       <c r="L19" s="3">
-        <v>7.6620370370370366E-3</v>
+        <v>2.0798611111111111E-2</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="3"/>
-        <v>0.33706720977596738</v>
+        <f>IF(L19/$M$2&lt;=1.001,L19/$M$2,0.6)</f>
+        <v>0.91496945010183306</v>
       </c>
       <c r="N19" s="1">
-        <v>4.6215277777777779E-2</v>
+        <v>4.2013888888888892E-2</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="4"/>
-        <v>0.99057305879434376</v>
+        <f>IF(N19/$O$2&lt;=1.001,N19/$O$2,0.6)</f>
+        <v>0.90052096254031255</v>
       </c>
       <c r="P19" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>3.8773148148148147E-2</v>
       </c>
       <c r="Q19" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(P19/$Q$2&lt;=1.001,P19/$Q$2,0.6)</f>
+        <v>0.89740155371015262</v>
       </c>
       <c r="R19" s="4">
         <f>AVERAGE(G19,I19,K19,M19,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.7444866586658585</v>
+        <v>4.4284056484060423</v>
       </c>
       <c r="S19" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T19" s="4" t="str" cm="1">
         <f t="array" ref="T19">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U19" s="29">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V19" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W19" s="29">
         <v>5</v>
       </c>
       <c r="X19" s="29">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Y19" s="29">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="Z19" s="29">
         <v>4.5</v>
       </c>
       <c r="AA19" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.8753459975997577</v>
+        <v>4.6605216945218126</v>
       </c>
       <c r="AB19" s="1">
-        <v>3.3819444444444444E-2</v>
+        <v>4.1076388888888891E-2</v>
       </c>
       <c r="AC19" s="8">
-        <f t="shared" si="6"/>
-        <v>0.82170978627671543</v>
+        <f>IF(AB19/$AC$2&lt;=1.01,AB19/$AC$2,0.6)</f>
+        <v>0.99803149606299224</v>
       </c>
       <c r="AD19" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>3.5995370370370372E-2</v>
       </c>
       <c r="AE19" s="8">
-        <f t="shared" si="7"/>
-        <v>0.99599136601911809</v>
+        <f>IF(AD19/$AE$2&lt;=1.01,AD19/$AE$2,0.6)</f>
+        <v>0.95898859081097765</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>2.7118055555555555E-2</v>
       </c>
       <c r="AG19" s="8">
-        <f t="shared" si="9"/>
-        <v>0.6</v>
+        <f>IF(AF19/$AG$2&lt;=1.01,AF19/$AG$2,0.6)</f>
+        <v>0.72247918593894545</v>
       </c>
       <c r="AH19" s="1">
         <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI19" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(AH19/$AI$2&lt;=1.01,AH19/$AI$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="AJ19" s="4"/>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK19" s="4"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>88</v>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
       </c>
       <c r="D20">
-        <v>1004189893</v>
+        <v>1107837304</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>3.8090277777777778E-2</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(F20/$G$2&lt;=1.001,F20/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>3.8541666666666669E-2</v>
       </c>
       <c r="I20" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(H20/$I$2&lt;=1.001,H20/$I$2,0.6)</f>
+        <v>0.96886819901076515</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>3.3229166666666664E-2</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(J20/$K$2&lt;=1.001,J20/$K$2,0.6)</f>
+        <v>0.92433998712169996</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>5.115740740740741E-3</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(L20/$M$2&lt;=1.001,L20/$M$2,0.6)</f>
+        <v>0.22505091649694503</v>
       </c>
       <c r="N20" s="1">
-        <v>0</v>
+        <v>4.4849537037037035E-2</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(N20/$O$2&lt;=1.001,N20/$O$2,0.6)</f>
+        <v>0.9612999255767799</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>3.9386574074074074E-2</v>
       </c>
       <c r="Q20" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(P20/$Q$2&lt;=1.001,P20/$Q$2,0.6)</f>
+        <v>0.91159924993302976</v>
       </c>
       <c r="R20" s="4">
         <f>AVERAGE(G20,I20,K20,M20,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="13"/>
+        <v>3.8259652317826838</v>
+      </c>
+      <c r="S20" s="13">
+        <v>5</v>
+      </c>
       <c r="T20" s="4" t="str" cm="1">
         <f t="array" ref="T20">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U20" s="29">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="V20" s="29">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W20" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X20" s="29">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Y20" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z20" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA20" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0</v>
+        <v>4.2137895695348053</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>3.8101851851851852E-2</v>
       </c>
       <c r="AC20" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(AB20/$AC$2&lt;=1.01,AB20/$AC$2,0.6)</f>
+        <v>0.92575928008998876</v>
       </c>
       <c r="AD20" s="1">
-        <v>0</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE20" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>IF(AD20/$AE$2&lt;=1.01,AD20/$AE$2,0.6)</f>
+        <v>0.99599136601911809</v>
       </c>
       <c r="AF20" s="1">
-        <v>0</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="AG20" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20" s="1">
-        <v>0</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI20" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(AH20/$AI$2&lt;=1.01,AH20/$AI$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="AJ20" s="4"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK20" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D21">
-        <v>1062276579</v>
+        <v>1112041894</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>3.7592592592592594E-2</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(F21/$G$2&lt;=1.001,F21/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H21" s="3">
-        <v>3.9016203703703706E-2</v>
+        <v>2.7164351851851853E-2</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98079720686645322</v>
+        <f>IF(H21/$I$2&lt;=1.001,H21/$I$2,0.6)</f>
+        <v>0.68286296188536511</v>
       </c>
       <c r="J21" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
+        <f>IF(J21/$K$2&lt;=1.001,J21/$K$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>2.2650462962962963E-2</v>
+        <v>0</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="3"/>
-        <v>0.99643584521384931</v>
+        <f>IF(L21/$M$2&lt;=1.001,L21/$M$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="N21" s="1">
-        <v>0</v>
+        <v>4.1226851851851855E-2</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(N21/$O$2&lt;=1.001,N21/$O$2,0.6)</f>
+        <v>0.88365169933019105</v>
       </c>
       <c r="P21" s="1">
-        <v>7.8240740740740736E-3</v>
+        <v>4.2858796296296298E-2</v>
       </c>
       <c r="Q21" s="8">
-        <f t="shared" si="5"/>
-        <v>0.18108759710688452</v>
+        <f>IF(P21/$Q$2&lt;=1.001,P21/$Q$2,0.6)</f>
+        <v>0.99196356817573006</v>
       </c>
       <c r="R21" s="4">
         <f>AVERAGE(G21,I21,K21,M21,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.6322021722406648</v>
+        <v>2.6320651911594055</v>
       </c>
       <c r="S21" s="13">
-        <v>8</v>
-      </c>
-      <c r="T21" s="4" t="e" cm="1">
+        <v>5</v>
+      </c>
+      <c r="T21" s="4" t="str" cm="1">
         <f t="array" ref="T21">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>#N/A</v>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U21" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="29">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="W21" s="29">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="X21" s="29">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Y21" s="29">
         <v>0</v>
       </c>
       <c r="Z21" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA21" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>1.3916606516721994</v>
+        <v>2.6236195573478214</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>4.0208333333333332E-2</v>
       </c>
       <c r="AC21" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(AB21/$AC$2&lt;=1.01,AB21/$AC$2,0.6)</f>
+        <v>0.9769403824521935</v>
       </c>
       <c r="AD21" s="1">
-        <v>0</v>
+        <v>3.6712962962962961E-2</v>
       </c>
       <c r="AE21" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>IF(AD21/$AE$2&lt;=1.01,AD21/$AE$2,0.6)</f>
+        <v>0.97810669133518346</v>
       </c>
       <c r="AF21" s="1">
-        <v>0</v>
+        <v>3.7557870370370373E-2</v>
       </c>
       <c r="AG21" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>IF(AF21/$AG$2&lt;=1.01,AF21/$AG$2,0.6)</f>
+        <v>1.0006167129201358</v>
       </c>
       <c r="AH21" s="1">
-        <v>0</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI21" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(AH21/$AI$2&lt;=1.01,AH21/$AI$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="AJ21" s="4"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK21" s="4"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D22">
-        <v>1058932076</v>
+        <v>1105366146</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F22" s="3">
-        <v>3.6388888888888887E-2</v>
+        <v>3.8437499999999999E-2</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(F22/$G$2&lt;=1.001,F22/$G$2,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="H22" s="3">
-        <v>3.9282407407407405E-2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98748908932208301</v>
+        <f>IF(H22/$I$2&lt;=1.001,H22/$I$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>1.3148148148148148E-2</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
+        <f>IF(J22/$K$2&lt;=1.001,J22/$K$2,0.6)</f>
+        <v>0.36574372182871867</v>
       </c>
       <c r="L22" s="3">
-        <v>2.2395833333333334E-2</v>
+        <v>7.6620370370370366E-3</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="3"/>
-        <v>0.98523421588594706</v>
+        <f>IF(L22/$M$2&lt;=1.001,L22/$M$2,0.6)</f>
+        <v>0.33706720977596738</v>
       </c>
       <c r="N22" s="1">
-        <v>4.6608796296296294E-2</v>
+        <v>4.6215277777777779E-2</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="4"/>
-        <v>0.99900769039940451</v>
+        <f>IF(N22/$O$2&lt;=1.001,N22/$O$2,0.6)</f>
+        <v>0.99057305879434376</v>
       </c>
       <c r="P22" s="1">
         <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(P22/$Q$2&lt;=1.001,P22/$Q$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="R22" s="4">
         <f>AVERAGE(G22,I22,K22,M22,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6433774609242038</v>
+        <v>2.7444866586658585</v>
       </c>
       <c r="S22" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T22" s="4" t="str" cm="1">
         <f t="array" ref="T22">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U22" s="29">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="V22" s="29">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="W22" s="29">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X22" s="29">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="Y22" s="29">
         <v>5</v>
@@ -4795,220 +4855,222 @@
       </c>
       <c r="AA22" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.263013238277261</v>
+        <v>3.8753459975997577</v>
       </c>
       <c r="AB22" s="1">
-        <v>3.6574074074074071E-2</v>
+        <v>3.3819444444444444E-2</v>
       </c>
       <c r="AC22" s="8">
-        <f t="shared" si="6"/>
-        <v>0.88863892013498313</v>
+        <f>IF(AB22/$AC$2&lt;=1.01,AB22/$AC$2,0.6)</f>
+        <v>0.82170978627671543</v>
       </c>
       <c r="AD22" s="1">
-        <v>3.6747685185185182E-2</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE22" s="8">
-        <f t="shared" si="7"/>
-        <v>0.979031760715387</v>
+        <f>IF(AD22/$AE$2&lt;=1.01,AD22/$AE$2,0.6)</f>
+        <v>0.99599136601911809</v>
       </c>
       <c r="AF22" s="1">
-        <v>8.1134259259259267E-3</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="AG22" s="8">
-        <f t="shared" si="9"/>
-        <v>0.21615787850755477</v>
+        <f>IF(AF22/$AG$2&lt;=1.01,AF22/$AG$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="AH22" s="1">
         <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI22" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(AH22/$AI$2&lt;=1.01,AH22/$AI$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="AJ22" s="4"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK22" s="4"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D23">
-        <v>1113362057</v>
+        <v>1005892878</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F23" s="3">
-        <v>1.7326388888888888E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99336429993364284</v>
+        <f>IF(F23/$G$2&lt;=1.001,F23/$G$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="H23" s="3">
-        <v>3.9212962962962963E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98574338085539703</v>
+        <f>IF(H23/$I$2&lt;=1.001,H23/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J23" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(J23/$K$2&lt;=1.001,J23/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
       <c r="L23" s="3">
-        <v>2.2268518518518517E-2</v>
+        <v>1.8935185185185187E-2</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="3"/>
-        <v>0.97963340122199594</v>
+        <f>IF(L23/$M$2&lt;=1.001,L23/$M$2,0.6)</f>
+        <v>0.83299389002036672</v>
       </c>
       <c r="N23" s="1">
-        <v>4.6527777777777779E-2</v>
+        <v>4.5497685185185183E-2</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="4"/>
-        <v>0.99727114859836263</v>
+        <f>IF(N23/$O$2&lt;=1.001,N23/$O$2,0.6)</f>
+        <v>0.97519225998511527</v>
       </c>
       <c r="P23" s="1">
-        <v>3.2187500000000001E-2</v>
+        <v>4.1145833333333333E-2</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" si="5"/>
-        <v>0.7449772301098313</v>
+        <f>IF(P23/$Q$2&lt;=1.001,P23/$Q$2,0.6)</f>
+        <v>0.95231717117599779</v>
       </c>
       <c r="R23" s="4">
         <f>AVERAGE(G23,I23,K23,M23,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.7510928485173665</v>
+        <v>4.8014151107636938</v>
       </c>
       <c r="S23" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T23" s="4" t="str" cm="1">
         <f t="array" ref="T23">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U23" s="29">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="V23" s="29">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="W23" s="29">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X23" s="29">
         <v>3.3</v>
       </c>
       <c r="Y23" s="29">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="Z23" s="29">
         <v>4.5</v>
       </c>
       <c r="AA23" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.4773278545552095</v>
+        <v>4.562424533229108</v>
       </c>
       <c r="AB23" s="1">
-        <v>3.8055555555555558E-2</v>
+        <v>3.9305555555555559E-2</v>
       </c>
       <c r="AC23" s="8">
-        <f t="shared" si="6"/>
-        <v>0.92463442069741286</v>
+        <f>IF(AB23/$AC$2&lt;=1.01,AB23/$AC$2,0.6)</f>
+        <v>0.95500562429696301</v>
       </c>
       <c r="AD23" s="1">
-        <v>1.3356481481481481E-2</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE23" s="8">
-        <f t="shared" si="7"/>
-        <v>0.35584335491828556</v>
+        <f>IF(AD23/$AE$2&lt;=1.01,AD23/$AE$2,0.6)</f>
+        <v>0.99599136601911809</v>
       </c>
       <c r="AF23" s="1">
-        <v>2.5115740740740741E-2</v>
+        <v>2.9363425925925925E-2</v>
       </c>
       <c r="AG23" s="8">
-        <f t="shared" si="9"/>
-        <v>0.66913351834720947</v>
+        <f>IF(AF23/$AG$2&lt;=1.01,AF23/$AG$2,0.6)</f>
+        <v>0.78230033919210606</v>
       </c>
       <c r="AH23" s="1">
-        <v>1.2256944444444445E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI23" s="8">
-        <f t="shared" si="8"/>
-        <v>0.83254716981132082</v>
+        <f>IF(AH23/$AI$2&lt;=1.01,AH23/$AI$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="AJ23" s="4"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK23" s="4"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D24">
-        <v>1112389849</v>
+        <v>1107839506</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="F24" s="3">
-        <v>4.3043981481481482E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F24/$G$2&lt;=1.001,F24/$G$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
-        <v>3.923611111111111E-2</v>
+        <v>3.9270833333333331E-2</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="1"/>
-        <v>0.98632528367762573</v>
+        <f>IF(H24/$I$2&lt;=1.001,H24/$I$2,0.6)</f>
+        <v>0.98719813791096878</v>
       </c>
       <c r="J24" s="3">
         <v>3.591435185185185E-2</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(J24/$K$2&lt;=1.001,J24/$K$2,0.6)</f>
         <v>0.99903412749517073</v>
       </c>
       <c r="L24" s="3">
-        <v>2.2731481481481481E-2</v>
+        <v>1.9351851851851853E-2</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>IF(L24/$M$2&lt;=1.001,L24/$M$2,0.6)</f>
+        <v>0.85132382892057035</v>
       </c>
       <c r="N24" s="1">
-        <v>4.659722222222222E-2</v>
+        <v>4.2256944444444444E-2</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="4"/>
-        <v>0.99875961299925564</v>
+        <f>IF(N24/$O$2&lt;=1.001,N24/$O$2,0.6)</f>
+        <v>0.9057305879434383</v>
       </c>
       <c r="P24" s="1">
-        <v>4.189814814814815E-2</v>
+        <v>3.9687500000000001E-2</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" si="5"/>
-        <v>0.96972944012858298</v>
+        <f>IF(P24/$Q$2&lt;=1.001,P24/$Q$2,0.6)</f>
+        <v>0.91856415751406373</v>
       </c>
       <c r="R24" s="4">
         <f>AVERAGE(G24,I24,K24,M24,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6282070535838633</v>
+        <v>4.71820903315351</v>
       </c>
       <c r="S24" s="13">
         <v>6</v>
@@ -5018,13 +5080,13 @@
         <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U24" s="29">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="V24" s="29">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="W24" s="29">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X24" s="29">
         <v>3.3</v>
@@ -5037,232 +5099,237 @@
       </c>
       <c r="AA24" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.3564621160751589</v>
+        <v>4.341462709946053</v>
       </c>
       <c r="AB24" s="1">
-        <v>3.7615740740740741E-2</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="8">
-        <f t="shared" si="6"/>
-        <v>0.91394825646794153</v>
+        <f>IF(AB24/$AC$2&lt;=1.01,AB24/$AC$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AD24" s="1">
-        <v>3.5624999999999997E-2</v>
+        <v>3.712962962962963E-2</v>
       </c>
       <c r="AE24" s="8">
-        <f t="shared" si="7"/>
-        <v>0.94912118408880664</v>
+        <f>IF(AD24/$AE$2&lt;=1.01,AD24/$AE$2,0.6)</f>
+        <v>0.98920752389762578</v>
       </c>
       <c r="AF24" s="1">
-        <v>3.6076388888888887E-2</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="8">
-        <f t="shared" si="9"/>
-        <v>0.96114708603145238</v>
+        <f>IF(AF24/$AG$2&lt;=1.01,AF24/$AG$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AH24" s="1">
         <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI24" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(AH24/$AI$2&lt;=1.01,AH24/$AI$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="AJ24" s="4"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK24" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D25">
-        <v>1036925847</v>
+        <v>1112389849</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>4.3043981481481482E-2</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(F25/$G$2&lt;=1.001,F25/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H25" s="3">
-        <v>3.9178240740740743E-2</v>
+        <v>3.923611111111111E-2</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="1"/>
-        <v>0.9848705266220541</v>
+        <f>IF(H25/$I$2&lt;=1.001,H25/$I$2,0.6)</f>
+        <v>0.98632528367762573</v>
       </c>
       <c r="J25" s="3">
-        <v>3.5844907407407409E-2</v>
+        <v>3.591435185185185E-2</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="2"/>
-        <v>0.99710238248551208</v>
+        <f>IF(J25/$K$2&lt;=1.001,J25/$K$2,0.6)</f>
+        <v>0.99903412749517073</v>
       </c>
       <c r="L25" s="3">
-        <v>0</v>
+        <v>2.2731481481481481E-2</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(L25/$M$2&lt;=1.001,L25/$M$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="N25" s="1">
-        <v>3.7858796296296293E-2</v>
+        <v>4.659722222222222E-2</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="4"/>
-        <v>0.81146117588687661</v>
+        <f>IF(N25/$O$2&lt;=1.001,N25/$O$2,0.6)</f>
+        <v>0.99875961299925564</v>
       </c>
       <c r="P25" s="1">
-        <v>3.1886574074074074E-2</v>
+        <v>4.189814814814815E-2</v>
       </c>
       <c r="Q25" s="8">
-        <f t="shared" si="5"/>
-        <v>0.73801232252879723</v>
+        <f>IF(P25/$Q$2&lt;=1.001,P25/$Q$2,0.6)</f>
+        <v>0.96972944012858298</v>
       </c>
       <c r="R25" s="4">
         <f>AVERAGE(G25,I25,K25,M25,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.9428720062693667</v>
+        <v>4.6282070535838633</v>
       </c>
       <c r="S25" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T25" s="4" t="str" cm="1">
         <f t="array" ref="T25">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U25" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V25" s="29">
-        <v>1.9</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W25" s="29">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="X25" s="29">
-        <v>1.1000000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="Y25" s="29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z25" s="29">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="AA25" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>2.0728616018808097</v>
+        <v>4.3564621160751589</v>
       </c>
       <c r="AB25" s="1">
-        <v>4.1157407407407406E-2</v>
+        <v>3.7615740740740741E-2</v>
       </c>
       <c r="AC25" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>IF(AB25/$AC$2&lt;=1.01,AB25/$AC$2,0.6)</f>
+        <v>0.91394825646794153</v>
       </c>
       <c r="AD25" s="1">
-        <v>3.7291666666666667E-2</v>
+        <v>3.5624999999999997E-2</v>
       </c>
       <c r="AE25" s="8">
-        <f t="shared" si="7"/>
-        <v>0.99352451433857547</v>
+        <f>IF(AD25/$AE$2&lt;=1.01,AD25/$AE$2,0.6)</f>
+        <v>0.94912118408880664</v>
       </c>
       <c r="AF25" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>3.6076388888888887E-2</v>
       </c>
       <c r="AG25" s="8">
-        <v>1</v>
+        <f>IF(AF25/$AG$2&lt;=1.01,AF25/$AG$2,0.6)</f>
+        <v>0.96114708603145238</v>
       </c>
       <c r="AH25" s="1">
         <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI25" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(AH25/$AI$2&lt;=1.01,AH25/$AI$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="AJ25" s="4"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK25" s="4"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D26">
-        <v>1107837413</v>
+        <v>1076904274</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>1.7430555555555557E-2</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(F26/$G$2&lt;=1.001,F26/$G$2,0.6)</f>
+        <v>0.99933642999336436</v>
       </c>
       <c r="H26" s="3">
-        <v>3.7743055555555557E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="1"/>
-        <v>0.94879255164387544</v>
+        <f>IF(H26/$I$2&lt;=1.001,H26/$I$2,0.6)</f>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J26" s="3">
-        <v>3.5925925925925924E-2</v>
+        <v>3.5451388888888886E-2</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="2"/>
-        <v>0.99935608499678041</v>
+        <f>IF(J26/$K$2&lt;=1.001,J26/$K$2,0.6)</f>
+        <v>0.98615582743077912</v>
       </c>
       <c r="L26" s="3">
-        <v>2.0636574074074075E-2</v>
+        <v>1.4166666666666666E-2</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" si="3"/>
-        <v>0.90784114052953158</v>
+        <f>IF(L26/$M$2&lt;=1.001,L26/$M$2,0.6)</f>
+        <v>0.62321792260692466</v>
       </c>
       <c r="N26" s="1">
-        <v>0</v>
+        <v>4.6666666666666669E-2</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(N26/$O$2&lt;=1.001,N26/$O$2,0.6)</f>
+        <v>1.0002480774001488</v>
       </c>
       <c r="P26" s="1">
-        <v>3.9016203703703706E-2</v>
+        <v>4.3159722222222224E-2</v>
       </c>
       <c r="Q26" s="8">
-        <f t="shared" si="5"/>
-        <v>0.90302705598714172</v>
+        <f>IF(P26/$Q$2&lt;=1.001,P26/$Q$2,0.6)</f>
+        <v>0.99892847575676402</v>
       </c>
       <c r="R26" s="4">
         <f>AVERAGE(G26,I26,K26,M26,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.1325140276311076</v>
+        <v>4.6739663228511033</v>
       </c>
       <c r="S26" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T26" s="4" t="str" cm="1">
         <f t="array" ref="T26">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U26" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="V26" s="29">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="W26" s="29">
         <v>5</v>
@@ -5271,510 +5338,516 @@
         <v>3.3</v>
       </c>
       <c r="Y26" s="29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="29">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="AA26" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.977754208289332</v>
+        <v>3.7541898968553307</v>
       </c>
       <c r="AB26" s="1">
-        <v>3.8090277777777778E-2</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="8">
-        <f t="shared" si="6"/>
-        <v>0.92547806524184484</v>
+        <f>IF(AB26/$AC$2&lt;=1.01,AB26/$AC$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AD26" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="8">
-        <f t="shared" si="7"/>
-        <v>0.99599136601911809</v>
+        <f>IF(AD26/$AE$2&lt;=1.01,AD26/$AE$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AF26" s="1">
-        <v>2.8125000000000001E-2</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="AG26" s="8">
-        <f t="shared" si="9"/>
-        <v>0.74930619796484743</v>
+        <v>1</v>
       </c>
       <c r="AH26" s="1">
         <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI26" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(AH26/$AI$2&lt;=1.01,AH26/$AI$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="AJ26" s="4"/>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK26" s="4"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>29</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
       </c>
       <c r="D27">
-        <v>1234198199</v>
+        <v>1058932076</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F27" s="3">
-        <v>1.7337962962962961E-2</v>
+        <v>3.6388888888888887E-2</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99402786994027859</v>
+        <f>IF(F27/$G$2&lt;=1.001,F27/$G$2,0.6)</f>
+        <v>0.6</v>
       </c>
       <c r="H27" s="3">
-        <v>3.8796296296296294E-2</v>
+        <v>3.9282407407407405E-2</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" si="1"/>
-        <v>0.9752691300552806</v>
+        <f>IF(H27/$I$2&lt;=1.001,H27/$I$2,0.6)</f>
+        <v>0.98748908932208301</v>
       </c>
       <c r="J27" s="3">
-        <v>2.2928240740740742E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="2"/>
-        <v>0.63779781068898911</v>
+        <f>IF(J27/$K$2&lt;=1.001,J27/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
       </c>
       <c r="L27" s="3">
-        <v>7.1296296296296299E-3</v>
+        <v>2.2395833333333334E-2</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" si="3"/>
-        <v>0.31364562118126277</v>
+        <f>IF(L27/$M$2&lt;=1.001,L27/$M$2,0.6)</f>
+        <v>0.98523421588594706</v>
       </c>
       <c r="N27" s="1">
-        <v>0</v>
+        <v>4.6608796296296294E-2</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(N27/$O$2&lt;=1.001,N27/$O$2,0.6)</f>
+        <v>0.99900769039940451</v>
       </c>
       <c r="P27" s="1">
-        <v>0</v>
+        <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q27" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(P27/$Q$2&lt;=1.001,P27/$Q$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="R27" s="4">
         <f>AVERAGE(G27,I27,K27,M27,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.433950359888176</v>
-      </c>
-      <c r="S27" s="13"/>
+        <v>4.6433774609242038</v>
+      </c>
+      <c r="S27" s="13">
+        <v>7</v>
+      </c>
       <c r="T27" s="4" t="str" cm="1">
         <f t="array" ref="T27">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U27" s="29">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="V27" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="W27" s="29">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="X27" s="29">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Y27" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z27" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA27" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0.73018510796645275</v>
+        <v>4.263013238277261</v>
       </c>
       <c r="AB27" s="1">
-        <v>3.8101851851851852E-2</v>
+        <v>3.6574074074074071E-2</v>
       </c>
       <c r="AC27" s="8">
-        <f t="shared" si="6"/>
-        <v>0.92575928008998876</v>
+        <f>IF(AB27/$AC$2&lt;=1.01,AB27/$AC$2,0.6)</f>
+        <v>0.88863892013498313</v>
       </c>
       <c r="AD27" s="1">
-        <v>0</v>
+        <v>3.6747685185185182E-2</v>
       </c>
       <c r="AE27" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>IF(AD27/$AE$2&lt;=1.01,AD27/$AE$2,0.6)</f>
+        <v>0.979031760715387</v>
       </c>
       <c r="AF27" s="1">
-        <v>1.4351851851851852E-3</v>
+        <v>8.1134259259259267E-3</v>
       </c>
       <c r="AG27" s="8">
-        <f t="shared" si="9"/>
-        <v>3.8236201048411966E-2</v>
+        <f>IF(AF27/$AG$2&lt;=1.01,AF27/$AG$2,0.6)</f>
+        <v>0.21615787850755477</v>
       </c>
       <c r="AH27" s="1">
-        <v>0</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI27" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(AH27/$AI$2&lt;=1.01,AH27/$AI$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="AJ27" s="4"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK27" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D28">
-        <v>1005892878</v>
+        <v>1113362057</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F28" s="3">
-        <v>1.744212962962963E-2</v>
+        <v>1.7326388888888888E-2</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(F28/$G$2&lt;=1.001,F28/$G$2,0.6)</f>
+        <v>0.99336429993364284</v>
       </c>
       <c r="H28" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>3.9212962962962963E-2</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
+        <f>IF(H28/$I$2&lt;=1.001,H28/$I$2,0.6)</f>
+        <v>0.98574338085539703</v>
       </c>
       <c r="J28" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K28" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(J28/$K$2&lt;=1.001,J28/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
       <c r="L28" s="3">
-        <v>1.8935185185185187E-2</v>
+        <v>2.2268518518518517E-2</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" si="3"/>
-        <v>0.83299389002036672</v>
+        <f>IF(L28/$M$2&lt;=1.001,L28/$M$2,0.6)</f>
+        <v>0.97963340122199594</v>
       </c>
       <c r="N28" s="1">
-        <v>4.5497685185185183E-2</v>
+        <v>4.6527777777777779E-2</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="4"/>
-        <v>0.97519225998511527</v>
+        <f>IF(N28/$O$2&lt;=1.001,N28/$O$2,0.6)</f>
+        <v>0.99727114859836263</v>
       </c>
       <c r="P28" s="1">
-        <v>4.1145833333333333E-2</v>
+        <v>3.2187500000000001E-2</v>
       </c>
       <c r="Q28" s="8">
-        <f t="shared" si="5"/>
-        <v>0.95231717117599779</v>
+        <f>IF(P28/$Q$2&lt;=1.001,P28/$Q$2,0.6)</f>
+        <v>0.7449772301098313</v>
       </c>
       <c r="R28" s="4">
         <f>AVERAGE(G28,I28,K28,M28,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.8014151107636938</v>
+        <v>4.7510928485173665</v>
       </c>
       <c r="S28" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T28" s="4" t="str" cm="1">
         <f t="array" ref="T28">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U28" s="29">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V28" s="29">
-        <v>4.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W28" s="29">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="X28" s="29">
         <v>3.3</v>
       </c>
       <c r="Y28" s="29">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="Z28" s="29">
         <v>4.5</v>
       </c>
       <c r="AA28" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.562424533229108</v>
+        <v>4.4773278545552095</v>
       </c>
       <c r="AB28" s="1">
-        <v>3.9305555555555559E-2</v>
+        <v>3.8055555555555558E-2</v>
       </c>
       <c r="AC28" s="8">
-        <f t="shared" si="6"/>
-        <v>0.95500562429696301</v>
+        <f>IF(AB28/$AC$2&lt;=1.01,AB28/$AC$2,0.6)</f>
+        <v>0.92463442069741286</v>
       </c>
       <c r="AD28" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>1.3356481481481481E-2</v>
       </c>
       <c r="AE28" s="8">
-        <f t="shared" si="7"/>
-        <v>0.99599136601911809</v>
+        <f>IF(AD28/$AE$2&lt;=1.01,AD28/$AE$2,0.6)</f>
+        <v>0.35584335491828556</v>
       </c>
       <c r="AF28" s="1">
-        <v>2.9363425925925925E-2</v>
+        <v>2.5115740740740741E-2</v>
       </c>
       <c r="AG28" s="8">
-        <f t="shared" si="9"/>
-        <v>0.78230033919210606</v>
+        <f>IF(AF28/$AG$2&lt;=1.01,AF28/$AG$2,0.6)</f>
+        <v>0.66913351834720947</v>
       </c>
       <c r="AH28" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>1.2256944444444445E-2</v>
       </c>
       <c r="AI28" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(AH28/$AI$2&lt;=1.01,AH28/$AI$2,0.6)</f>
+        <v>0.83254716981132082</v>
+      </c>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29">
+        <v>1002886235</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1.7395833333333333E-2</v>
+      </c>
+      <c r="G29" s="8">
+        <f>IF(F29/$G$2&lt;=1.001,F29/$G$2,0.6)</f>
+        <v>0.99734571997345711</v>
+      </c>
+      <c r="H29" s="3">
+        <v>3.8217592592592595E-2</v>
+      </c>
+      <c r="I29" s="8">
+        <f>IF(H29/$I$2&lt;=1.001,H29/$I$2,0.6)</f>
+        <v>0.9607215594995635</v>
+      </c>
+      <c r="J29" s="3">
+        <v>3.5960648148148151E-2</v>
+      </c>
+      <c r="K29" s="8">
+        <f>IF(J29/$K$2&lt;=1.001,J29/$K$2,0.6)</f>
+        <v>1.00032195750161</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2.2662037037037036E-2</v>
+      </c>
+      <c r="M29" s="8">
+        <f>IF(L29/$M$2&lt;=1.001,L29/$M$2,0.6)</f>
+        <v>0.9969450101832994</v>
+      </c>
+      <c r="N29" s="1">
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="O29" s="8">
+        <f>IF(N29/$O$2&lt;=1.001,N29/$O$2,0.6)</f>
+        <v>1.0002480774001488</v>
+      </c>
+      <c r="P29" s="1">
+        <v>4.3206018518518519E-2</v>
+      </c>
+      <c r="Q29" s="8">
+        <f>IF(P29/$Q$2&lt;=1.001,P29/$Q$2,0.6)</f>
         <v>1</v>
-      </c>
-      <c r="AJ28" s="4"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29">
-        <v>1104804719</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="3">
-        <v>3.4641203703703702E-2</v>
-      </c>
-      <c r="G29" s="8">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="H29" s="3">
-        <v>3.9178240740740743E-2</v>
-      </c>
-      <c r="I29" s="8">
-        <f t="shared" si="1"/>
-        <v>0.9848705266220541</v>
-      </c>
-      <c r="J29" s="3">
-        <v>3.5856481481481482E-2</v>
-      </c>
-      <c r="K29" s="8">
-        <f t="shared" si="2"/>
-        <v>0.99742433998712177</v>
-      </c>
-      <c r="L29" s="3">
-        <v>1.9652777777777779E-2</v>
-      </c>
-      <c r="M29" s="8">
-        <f t="shared" si="3"/>
-        <v>0.86456211812627304</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0</v>
-      </c>
-      <c r="O29" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="1">
-        <v>3.9768518518518516E-2</v>
-      </c>
-      <c r="Q29" s="8">
-        <f t="shared" si="5"/>
-        <v>0.92043932493972669</v>
       </c>
       <c r="R29" s="4">
         <f>AVERAGE(G29,I29,K29,M29,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.6394135913959795</v>
+        <v>4.9629852704650652</v>
       </c>
       <c r="S29" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T29" s="4" t="str" cm="1">
         <f t="array" ref="T29">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U29" s="29">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="V29" s="29">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="W29" s="29">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="X29" s="29">
         <v>3.3</v>
       </c>
       <c r="Y29" s="29">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Z29" s="29">
         <v>4.5</v>
       </c>
       <c r="AA29" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.2698240774187939</v>
+        <v>4.5548955811395198</v>
       </c>
       <c r="AB29" s="1">
-        <v>4.0914351851851855E-2</v>
+        <v>4.1157407407407406E-2</v>
       </c>
       <c r="AC29" s="8">
-        <f t="shared" si="6"/>
-        <v>0.9940944881889765</v>
+        <f>IF(AB29/$AC$2&lt;=1.01,AB29/$AC$2,0.6)</f>
+        <v>1</v>
       </c>
       <c r="AD29" s="1">
-        <v>1.6608796296296295E-2</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="8">
-        <f t="shared" si="7"/>
-        <v>0.44249152019734816</v>
+        <f>IF(AD29/$AE$2&lt;=1.01,AD29/$AE$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>3.4942129629629629E-2</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="AG29" s="8">
-        <f t="shared" si="9"/>
-        <v>0.93092815294480424</v>
+        <v>1</v>
       </c>
       <c r="AH29" s="1">
         <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI29" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(AH29/$AI$2&lt;=1.01,AH29/$AI$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="AJ29" s="4"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK29" s="4"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D30">
-        <v>1005832925</v>
+        <v>1061688602</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F30" s="3">
-        <v>1.7314814814814814E-2</v>
+        <v>1.7303240740740741E-2</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="0"/>
-        <v>0.9927007299270072</v>
+        <f>IF(F30/$G$2&lt;=1.001,F30/$G$2,0.6)</f>
+        <v>0.99203715992037156</v>
       </c>
       <c r="H30" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>3.9247685185185184E-2</v>
       </c>
       <c r="I30" s="8">
-        <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
+        <f>IF(H30/$I$2&lt;=1.001,H30/$I$2,0.6)</f>
+        <v>0.98661623508874008</v>
       </c>
       <c r="J30" s="3">
-        <v>3.5868055555555556E-2</v>
+        <v>3.5891203703703703E-2</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" si="2"/>
-        <v>0.99774629748873156</v>
+        <f>IF(J30/$K$2&lt;=1.001,J30/$K$2,0.6)</f>
+        <v>0.99839021249195115</v>
       </c>
       <c r="L30" s="3">
-        <v>2.1909722222222223E-2</v>
+        <v>2.162037037037037E-2</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="3"/>
-        <v>0.96384928716904283</v>
+        <f>IF(L30/$M$2&lt;=1.001,L30/$M$2,0.6)</f>
+        <v>0.95112016293279023</v>
       </c>
       <c r="N30" s="1">
-        <v>4.6631944444444441E-2</v>
+        <v>4.6122685185185183E-2</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="4"/>
-        <v>0.99950384519970215</v>
+        <f>IF(N30/$O$2&lt;=1.001,N30/$O$2,0.6)</f>
+        <v>0.98858843959315301</v>
       </c>
       <c r="P30" s="1">
-        <v>4.2488425925925923E-2</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="8">
-        <f t="shared" si="5"/>
-        <v>0.98339137422984191</v>
+        <f>IF(P30/$Q$2&lt;=1.001,P30/$Q$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="R30" s="4">
         <f>AVERAGE(G30,I30,K30,M30,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9483869902063908</v>
+        <v>4.0972935083558388</v>
       </c>
       <c r="S30" s="13">
-        <v>3</v>
-      </c>
-      <c r="T30" s="4" t="str" cm="1">
+        <v>8</v>
+      </c>
+      <c r="T30" s="4" t="e" cm="1">
         <f t="array" ref="T30">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+        <v>#N/A</v>
       </c>
       <c r="U30" s="29">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V30" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W30" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X30" s="29">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Y30" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.9145160970619175</v>
+        <v>1.6911880525067515</v>
       </c>
       <c r="AB30" s="1">
-        <v>3.8379629629629632E-2</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="8">
-        <f t="shared" si="6"/>
-        <v>0.93250843644544434</v>
+        <f>IF(AB30/$AC$2&lt;=1.01,AB30/$AC$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AD30" s="1">
-        <v>3.3958333333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="8">
-        <f t="shared" si="7"/>
-        <v>0.90471785383903802</v>
+        <f>IF(AD30/$AE$2&lt;=1.01,AD30/$AE$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AF30" s="1">
         <v>3.8368055555555558E-2</v>
@@ -5786,432 +5859,437 @@
         <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI30" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(AH30/$AI$2&lt;=1.01,AH30/$AI$2,0.6)</f>
         <v>1</v>
       </c>
       <c r="AJ30" s="4"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK30" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D31">
-        <v>1006343564</v>
+        <v>1062276579</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F31" s="3">
-        <v>1.7337962962962961E-2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99402786994027859</v>
+        <f>IF(F31/$G$2&lt;=1.001,F31/$G$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="H31" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>3.9016203703703706E-2</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
+        <f>IF(H31/$I$2&lt;=1.001,H31/$I$2,0.6)</f>
+        <v>0.98079720686645322</v>
       </c>
       <c r="J31" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(J31/$K$2&lt;=1.001,J31/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
-      <c r="L31" s="9">
-        <v>2.2731481481481481E-2</v>
-      </c>
-      <c r="M31" s="10">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="L31" s="3">
+        <v>2.2650462962962963E-2</v>
+      </c>
+      <c r="M31" s="8">
+        <f>IF(L31/$M$2&lt;=1.001,L31/$M$2,0.6)</f>
+        <v>0.99643584521384931</v>
       </c>
       <c r="N31" s="1">
-        <v>2.9768518518518517E-2</v>
+        <v>0</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="4"/>
-        <v>0.63805507318283294</v>
+        <f>IF(N31/$O$2&lt;=1.001,N31/$O$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>4.1909722222222223E-2</v>
+        <v>7.8240740740740736E-3</v>
       </c>
       <c r="Q31" s="8">
-        <f t="shared" si="5"/>
-        <v>0.96999732118939197</v>
+        <f>IF(P31/$Q$2&lt;=1.001,P31/$Q$2,0.6)</f>
+        <v>0.18108759710688452</v>
       </c>
       <c r="R31" s="4">
         <f>AVERAGE(G31,I31,K31,M31,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6693958967062139</v>
+        <v>2.6322021722406648</v>
       </c>
       <c r="S31" s="13">
-        <v>3</v>
-      </c>
-      <c r="T31" s="4" t="str" cm="1">
+        <v>8</v>
+      </c>
+      <c r="T31" s="4" t="e" cm="1">
         <f t="array" ref="T31">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+        <v>#N/A</v>
       </c>
       <c r="U31" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V31" s="29">
-        <v>4.5999999999999996</v>
+        <v>2.7</v>
       </c>
       <c r="W31" s="29">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="X31" s="29">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.3968187690118636</v>
+        <v>1.3916606516721994</v>
       </c>
       <c r="AB31" s="1">
-        <v>3.8124999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="8">
-        <f t="shared" si="6"/>
-        <v>0.9263217097862767</v>
+        <f>IF(AB31/$AC$2&lt;=1.01,AB31/$AC$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AD31" s="1">
-        <v>3.5486111111111114E-2</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="8">
-        <f t="shared" si="7"/>
-        <v>0.94542090656799271</v>
+        <f>IF(AD31/$AE$2&lt;=1.01,AD31/$AE$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AF31" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="8">
-        <v>1</v>
+        <f>IF(AF31/$AG$2&lt;=1.01,AF31/$AG$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AH31" s="1">
-        <v>1.4386574074074074E-2</v>
+        <v>0</v>
       </c>
       <c r="AI31" s="8">
-        <f t="shared" si="8"/>
-        <v>0.97720125786163525</v>
+        <f>IF(AH31/$AI$2&lt;=1.01,AH31/$AI$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AJ31" s="4"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK31" s="4"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>111</v>
+        <v>4</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D32">
-        <v>73265790</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>61</v>
+        <v>1193276119</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
       </c>
       <c r="F32" s="3">
-        <v>4.3611111111111114E-2</v>
+        <v>1.7349537037037038E-2</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f>IF(F32/$G$2&lt;=1.001,F32/$G$2,0.6)</f>
+        <v>0.99469143994691445</v>
       </c>
       <c r="H32" s="3">
-        <v>3.9641203703703706E-2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="1"/>
-        <v>0.99650858306662782</v>
+        <f>IF(H32/$I$2&lt;=1.001,H32/$I$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>3.5879629629629629E-2</v>
+        <v>0</v>
       </c>
       <c r="K32" s="8">
-        <f t="shared" si="2"/>
-        <v>0.99806825499034135</v>
+        <f>IF(J32/$K$2&lt;=1.001,J32/$K$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>2.1238425925925924E-2</v>
+        <v>0</v>
       </c>
       <c r="M32" s="8">
-        <f t="shared" si="3"/>
-        <v>0.93431771894093685</v>
+        <f>IF(L32/$M$2&lt;=1.001,L32/$M$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="N32" s="1">
-        <v>4.659722222222222E-2</v>
+        <v>1.5972222222222223E-3</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" si="4"/>
-        <v>0.99875961299925564</v>
+        <f>IF(N32/$O$2&lt;=1.001,N32/$O$2,0.6)</f>
+        <v>3.4234681220540811E-2</v>
       </c>
       <c r="P32" s="1">
-        <v>4.1886574074074076E-2</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="8">
-        <f t="shared" si="5"/>
-        <v>0.96946155906777398</v>
+        <f>IF(P32/$Q$2&lt;=1.001,P32/$Q$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="R32" s="4">
         <f>AVERAGE(G32,I32,K32,M32,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.5809297742207793</v>
-      </c>
-      <c r="S32" s="13">
-        <v>3</v>
-      </c>
+        <v>0.85743843430621258</v>
+      </c>
+      <c r="S32" s="13"/>
       <c r="T32" s="4" t="str" cm="1">
         <f t="array" ref="T32">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+        <v>--</v>
       </c>
       <c r="U32" s="29">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="V32" s="29">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="W32" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="X32" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.5802789322662338</v>
+        <v>0.25723153029186374</v>
       </c>
       <c r="AB32" s="1">
-        <v>3.8425925925925926E-2</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="8">
-        <f t="shared" si="6"/>
-        <v>0.93363329583802024</v>
+        <f>IF(AB32/$AC$2&lt;=1.01,AB32/$AC$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AD32" s="1">
-        <v>3.7256944444444447E-2</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="8">
-        <f t="shared" si="7"/>
-        <v>0.99259944495837205</v>
+        <f>IF(AD32/$AE$2&lt;=1.01,AD32/$AE$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="8">
-        <v>1</v>
+        <f>IF(AF32/$AG$2&lt;=1.01,AF32/$AG$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AH32" s="1">
-        <v>2.855324074074074E-2</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="8">
-        <v>1</v>
+        <f>IF(AH32/$AI$2&lt;=1.01,AH32/$AI$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AJ32" s="4"/>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK32" s="4"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
+        <v>23</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="D33">
-        <v>1004217163</v>
+        <v>1143992171</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F33" s="3">
-        <v>4.1458333333333333E-2</v>
+        <v>3.4791666666666665E-2</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(F33/$G$2&lt;=1.001,F33/$G$2,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="H33" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>7.1990740740740739E-3</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
+        <f>IF(H33/$I$2&lt;=1.001,H33/$I$2,0.6)</f>
+        <v>0.1809717777131219</v>
       </c>
       <c r="J33" s="3">
         <v>3.5960648148148151E-2</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(J33/$K$2&lt;=1.001,J33/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
       <c r="L33" s="3">
-        <v>2.0798611111111111E-2</v>
+        <v>1.9398148148148147E-2</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" si="3"/>
-        <v>0.91496945010183306</v>
+        <f>IF(L33/$M$2&lt;=1.001,L33/$M$2,0.6)</f>
+        <v>0.85336048879837068</v>
       </c>
       <c r="N33" s="1">
-        <v>4.2013888888888892E-2</v>
+        <v>4.5810185185185183E-2</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="4"/>
-        <v>0.90052096254031255</v>
+        <f>IF(N33/$O$2&lt;=1.001,N33/$O$2,0.6)</f>
+        <v>0.98189034978913414</v>
       </c>
       <c r="P33" s="1">
-        <v>3.8773148148148147E-2</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="8">
-        <f t="shared" si="5"/>
-        <v>0.89740155371015262</v>
+        <f>IF(P33/$Q$2&lt;=1.001,P33/$Q$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="R33" s="4">
         <f>AVERAGE(G33,I33,K33,M33,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.4284056484060423</v>
-      </c>
-      <c r="S33" s="13">
-        <v>4</v>
-      </c>
+        <v>3.0137871448351969</v>
+      </c>
+      <c r="S33" s="13"/>
       <c r="T33" s="4" t="str" cm="1">
         <f t="array" ref="T33">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+        <v>--</v>
       </c>
       <c r="U33" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V33" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W33" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X33" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="29">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.6605216945218126</v>
+        <v>0.90413614345055904</v>
       </c>
       <c r="AB33" s="1">
-        <v>4.1076388888888891E-2</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="8">
-        <f t="shared" si="6"/>
-        <v>0.99803149606299224</v>
+        <f>IF(AB33/$AC$2&lt;=1.01,AB33/$AC$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AD33" s="1">
-        <v>3.5995370370370372E-2</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="8">
-        <f t="shared" si="7"/>
-        <v>0.95898859081097765</v>
+        <f>IF(AD33/$AE$2&lt;=1.01,AD33/$AE$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AF33" s="1">
-        <v>2.7118055555555555E-2</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="8">
-        <f t="shared" si="9"/>
-        <v>0.72247918593894545</v>
+        <f>IF(AF33/$AG$2&lt;=1.01,AF33/$AG$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AH33" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="8">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IF(AH33/$AI$2&lt;=1.01,AH33/$AI$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AJ33" s="4"/>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK33" s="4"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D34">
-        <v>1094883894</v>
+        <v>1004189893</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(F34/$G$2&lt;=1.001,F34/$G$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="H34" s="3">
-        <v>3.7743055555555557E-2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" si="1"/>
-        <v>0.94879255164387544</v>
+        <f>IF(H34/$I$2&lt;=1.001,H34/$I$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="J34" s="3">
-        <v>2.8715277777777777E-2</v>
+        <v>0</v>
       </c>
       <c r="K34" s="8">
-        <f t="shared" si="2"/>
-        <v>0.79877656149388288</v>
+        <f>IF(J34/$K$2&lt;=1.001,J34/$K$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="L34" s="3">
-        <v>1.9212962962962963E-2</v>
+        <v>0</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" si="3"/>
-        <v>0.84521384928716903</v>
+        <f>IF(L34/$M$2&lt;=1.001,L34/$M$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="N34" s="1">
         <v>0</v>
       </c>
       <c r="O34" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(N34/$O$2&lt;=1.001,N34/$O$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="P34" s="1">
         <v>0</v>
       </c>
       <c r="Q34" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(P34/$Q$2&lt;=1.001,P34/$Q$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="R34" s="4">
         <f>AVERAGE(G34,I34,K34,M34,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.1606524686874393</v>
+        <v>0</v>
       </c>
       <c r="S34" s="13"/>
       <c r="T34" s="4" t="str" cm="1">
@@ -6238,291 +6316,292 @@
       </c>
       <c r="AA34" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0.64819574060623175</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="1">
         <v>0</v>
       </c>
       <c r="AC34" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(AB34/$AC$2&lt;=1.01,AB34/$AC$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="AD34" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="8">
-        <f t="shared" si="7"/>
-        <v>0.99599136601911809</v>
+        <f>IF(AD34/$AE$2&lt;=1.01,AD34/$AE$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AF34" s="1">
         <v>0</v>
       </c>
       <c r="AG34" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(AF34/$AG$2&lt;=1.01,AF34/$AG$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="AH34" s="1">
         <v>0</v>
       </c>
       <c r="AI34" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(AH34/$AI$2&lt;=1.01,AH34/$AI$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="AJ34" s="4"/>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK34" s="4"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="D35">
-        <v>1076904274</v>
+        <v>1234198199</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F35" s="3">
-        <v>1.7430555555555557E-2</v>
+        <v>1.7337962962962961E-2</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99933642999336436</v>
+        <f>IF(F35/$G$2&lt;=1.001,F35/$G$2,0.6)</f>
+        <v>0.99402786994027859</v>
       </c>
       <c r="H35" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>3.8796296296296294E-2</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="1"/>
-        <v>1.0008728542333429</v>
+        <f>IF(H35/$I$2&lt;=1.001,H35/$I$2,0.6)</f>
+        <v>0.9752691300552806</v>
       </c>
       <c r="J35" s="3">
-        <v>3.5451388888888886E-2</v>
+        <v>2.2928240740740742E-2</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="2"/>
-        <v>0.98615582743077912</v>
+        <f>IF(J35/$K$2&lt;=1.001,J35/$K$2,0.6)</f>
+        <v>0.63779781068898911</v>
       </c>
       <c r="L35" s="3">
-        <v>1.4166666666666666E-2</v>
+        <v>7.1296296296296299E-3</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="3"/>
-        <v>0.62321792260692466</v>
+        <f>IF(L35/$M$2&lt;=1.001,L35/$M$2,0.6)</f>
+        <v>0.31364562118126277</v>
       </c>
       <c r="N35" s="1">
-        <v>4.6666666666666669E-2</v>
+        <v>0</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" si="4"/>
-        <v>1.0002480774001488</v>
+        <f>IF(N35/$O$2&lt;=1.001,N35/$O$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>4.3159722222222224E-2</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="8">
-        <f t="shared" si="5"/>
-        <v>0.99892847575676402</v>
+        <f>IF(P35/$Q$2&lt;=1.001,P35/$Q$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="R35" s="4">
         <f>AVERAGE(G35,I35,K35,M35,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6739663228511033</v>
-      </c>
-      <c r="S35" s="13">
-        <v>6</v>
-      </c>
+        <v>2.433950359888176</v>
+      </c>
+      <c r="S35" s="13"/>
       <c r="T35" s="4" t="str" cm="1">
         <f t="array" ref="T35">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
+        <v>--</v>
       </c>
       <c r="U35" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="V35" s="29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W35" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X35" s="29">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="29">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.7541898968553307</v>
+        <v>0.73018510796645275</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>3.8101851851851852E-2</v>
       </c>
       <c r="AC35" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(AB35/$AC$2&lt;=1.01,AB35/$AC$2,0.6)</f>
+        <v>0.92575928008998876</v>
       </c>
       <c r="AD35" s="1">
         <v>0</v>
       </c>
       <c r="AE35" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(AD35/$AE$2&lt;=1.01,AD35/$AE$2,0.6)</f>
         <v>0</v>
       </c>
       <c r="AF35" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>1.4351851851851852E-3</v>
       </c>
       <c r="AG35" s="8">
-        <v>1</v>
+        <f>IF(AF35/$AG$2&lt;=1.01,AF35/$AG$2,0.6)</f>
+        <v>3.8236201048411966E-2</v>
       </c>
       <c r="AH35" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="8">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IF(AH35/$AI$2&lt;=1.01,AH35/$AI$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AJ35" s="4"/>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK35" s="4"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>20</v>
-      </c>
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" t="s">
-        <v>102</v>
+        <v>18</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="D36">
-        <v>1002886235</v>
+        <v>1094883894</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F36" s="3">
-        <v>1.7395833333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="0"/>
-        <v>0.99734571997345711</v>
+        <f>IF(F36/$G$2&lt;=1.001,F36/$G$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="H36" s="3">
-        <v>3.8217592592592595E-2</v>
+        <v>3.7743055555555557E-2</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" si="1"/>
-        <v>0.9607215594995635</v>
+        <f>IF(H36/$I$2&lt;=1.001,H36/$I$2,0.6)</f>
+        <v>0.94879255164387544</v>
       </c>
       <c r="J36" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>2.8715277777777777E-2</v>
       </c>
       <c r="K36" s="8">
-        <f t="shared" si="2"/>
-        <v>1.00032195750161</v>
+        <f>IF(J36/$K$2&lt;=1.001,J36/$K$2,0.6)</f>
+        <v>0.79877656149388288</v>
       </c>
       <c r="L36" s="3">
-        <v>2.2662037037037036E-2</v>
+        <v>1.9212962962962963E-2</v>
       </c>
       <c r="M36" s="8">
-        <f t="shared" si="3"/>
-        <v>0.9969450101832994</v>
+        <f>IF(L36/$M$2&lt;=1.001,L36/$M$2,0.6)</f>
+        <v>0.84521384928716903</v>
       </c>
       <c r="N36" s="1">
-        <v>4.6666666666666669E-2</v>
+        <v>0</v>
       </c>
       <c r="O36" s="8">
-        <f t="shared" si="4"/>
-        <v>1.0002480774001488</v>
+        <f>IF(N36/$O$2&lt;=1.001,N36/$O$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(P36/$Q$2&lt;=1.001,P36/$Q$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="R36" s="4">
         <f>AVERAGE(G36,I36,K36,M36,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9629852704650652</v>
-      </c>
-      <c r="S36" s="13">
-        <v>7</v>
-      </c>
+        <v>2.1606524686874393</v>
+      </c>
+      <c r="S36" s="13"/>
       <c r="T36" s="4" t="str" cm="1">
         <f t="array" ref="T36">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+        <v>--</v>
       </c>
       <c r="U36" s="29">
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="V36" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="W36" s="29">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="X36" s="29">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="29">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.5548955811395198</v>
+        <v>0.64819574060623175</v>
       </c>
       <c r="AB36" s="1">
-        <v>4.1157407407407406E-2</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>IF(AB36/$AC$2&lt;=1.01,AB36/$AC$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AD36" s="1">
-        <v>0</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE36" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>IF(AD36/$AE$2&lt;=1.01,AD36/$AE$2,0.6)</f>
+        <v>0.99599136601911809</v>
       </c>
       <c r="AF36" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="8">
-        <v>1</v>
+        <f>IF(AF36/$AG$2&lt;=1.01,AF36/$AG$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AH36" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="8">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IF(AH36/$AI$2&lt;=1.01,AH36/$AI$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AJ36" s="4"/>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK36" s="4"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Z39" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E32" r:id="rId1" xr:uid="{6ABD49C4-C1FA-45A2-AD96-9D7E301F893E}"/>
+    <hyperlink ref="E14" r:id="rId1" xr:uid="{6ABD49C4-C1FA-45A2-AD96-9D7E301F893E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7069,7 +7148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1633F340-5B77-4BB3-B5D5-C1FFFC050A5C}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>

--- a/academics/CABD/2025-2/CABD 2025-2.xlsx
+++ b/academics/CABD/2025-2/CABD 2025-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\CABD\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\CABD\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD568DE-189E-4CA4-8D2E-C5BC5F2E73DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5896BD9-51EA-4D0D-B1EF-55D89BC97C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6706BE5-6C63-4BDD-8165-A67704DFB86B}"/>
   </bookViews>
   <sheets>
     <sheet name="CABD 2025-2" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="291">
   <si>
     <t>Num</t>
   </si>
@@ -275,9 +275,6 @@
     <t>FERNANDO ENRIQUE CORREA SEGURA</t>
   </si>
   <si>
-    <t>JUAN MANUEL CASTILLO SALAZAR</t>
-  </si>
-  <si>
     <t>JUAN MANUEL GUERRERO GIL</t>
   </si>
   <si>
@@ -591,9 +588,6 @@
   </si>
   <si>
     <t>JUAN ESTEBAN BERMUDEZ DIAZ</t>
-  </si>
-  <si>
-    <t>MARIA PAULA GONZALEZ PARRA</t>
   </si>
   <si>
     <t>MARIA PAULA VELASQUEZ YEPES</t>
@@ -924,6 +918,27 @@
   </si>
   <si>
     <t>CT Chest: Segmentación automática y comparar con segmentación manual de 3 órganos o tejidos</t>
+  </si>
+  <si>
+    <t>ILSE FERNANDEZ VELASCO</t>
+  </si>
+  <si>
+    <t>ISABELLA MUNOZ BECERRA</t>
+  </si>
+  <si>
+    <t>JUAN MANUEL CASTILLO</t>
+  </si>
+  <si>
+    <t>%Conexión11</t>
+  </si>
+  <si>
+    <t>T.Conexión11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana 10: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana 11: </t>
   </si>
 </sst>
 </file>
@@ -1706,51 +1721,59 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="37">
+    <dxf>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1902,82 +1925,86 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:AK36" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A3:AK36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AK36">
-    <sortCondition ref="S3:S36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}" name="Table1" displayName="Table1" ref="A3:AM36" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A3:AM36" xr:uid="{78DD38B4-65BC-4CC2-BB4F-95F8C3F2B637}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AM36">
+    <sortCondition ref="C3:C36"/>
   </sortState>
-  <tableColumns count="37">
+  <tableColumns count="39">
     <tableColumn id="1" xr3:uid="{2951ACD3-7E7C-4B15-8969-BBEC77220F09}" name="Num"/>
     <tableColumn id="2" xr3:uid="{41C291F5-DA77-4B55-A49C-CDE28AB05F1C}" name="Apellidos"/>
     <tableColumn id="3" xr3:uid="{4EF9A0E0-8B64-4D77-BF58-1466EBFC70F8}" name="Nombres"/>
-    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{5086180F-E4FF-44EE-9934-6E185E113D63}" name="id" dataDxfId="34"/>
     <tableColumn id="5" xr3:uid="{E5E637F3-98DE-4C48-8975-E4FF30179C84}" name="email"/>
-    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="30">
+    <tableColumn id="6" xr3:uid="{CF0D999D-D30E-44A9-8182-47006516BC48}" name="T.Conexión" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{E8E1A327-3852-4B72-8C7D-9092BB724734}" name="%Conexión" dataDxfId="32">
       <calculatedColumnFormula>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión2" dataDxfId="28">
+    <tableColumn id="8" xr3:uid="{14E35789-86AC-4945-A73E-D99A35E10EB9}" name="T.Conexión2" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{6BA91324-9574-4B74-B3ED-388FC74FE8D3}" name="%Conexión2" dataDxfId="30">
       <calculatedColumnFormula>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión3" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión3" dataDxfId="26">
+    <tableColumn id="10" xr3:uid="{9802FEF2-2187-471C-ACAA-73D940E65473}" name="T.Conexión3" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{B8476BAF-0DE0-4C8C-AEEE-2117E3957865}" name="%Conexión3" dataDxfId="28">
       <calculatedColumnFormula>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión4" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión4" dataDxfId="24">
+    <tableColumn id="12" xr3:uid="{03C4B276-91D7-41F6-911F-0CB84EF47FFD}" name="T.Conexión4" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{A51298E4-4EBE-4781-AAF9-34F463969B6B}" name="%Conexión4" dataDxfId="26">
       <calculatedColumnFormula>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión5" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión5" dataDxfId="22">
+    <tableColumn id="14" xr3:uid="{2F7283ED-1E7B-4330-A5CE-F92DE2091445}" name="T.Conexión5" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{ABDEB556-A3C7-496C-BEE2-2B0A3386DBE3}" name="%Conexión5" dataDxfId="24">
       <calculatedColumnFormula>IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión6" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión6" dataDxfId="20">
+    <tableColumn id="16" xr3:uid="{5A12C48D-EFA1-49AF-BB79-7F5EEBD636A1}" name="T.Conexión6" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{C4B07EEB-4CD0-4E3B-A360-8C4335B132B2}" name="%Conexión6" dataDxfId="22">
       <calculatedColumnFormula>IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{5430F0E6-F861-44B2-B1CA-6E2A24842801}" name="Asistencia" dataDxfId="19">
+    <tableColumn id="21" xr3:uid="{5430F0E6-F861-44B2-B1CA-6E2A24842801}" name="Asistencia" dataDxfId="21">
       <calculatedColumnFormula>AVERAGE(G4,I4,K4,M4,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{5E18873E-0421-4811-A7ED-EFE7A5B09CB1}" name="Grupo" dataDxfId="18"/>
-    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Gesto Asignado" dataDxfId="17">
+    <tableColumn id="22" xr3:uid="{5E18873E-0421-4811-A7ED-EFE7A5B09CB1}" name="Grupo" dataDxfId="20"/>
+    <tableColumn id="18" xr3:uid="{01BD22FA-FAB3-4A7D-BEA4-C6E859E91567}" name="Gesto Asignado" dataDxfId="19">
       <calculatedColumnFormula array="1">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{9680D2F4-FF61-42C8-B8B8-A6D565F1061F}" name="Conceptos fundamentales (Semana 1) " dataDxfId="16"/>
-    <tableColumn id="29" xr3:uid="{2C8549F9-6C7C-4C18-8BD8-913F1238E3A1}" name="Operaciones sobre piezas (Semana 2) " dataDxfId="15"/>
-    <tableColumn id="28" xr3:uid="{01B7F4FF-718E-4142-B28F-3C5C6E213A9D}" name="Operaciones básicas para Modelado de Superficies _x000a_(Semana 3) " dataDxfId="14"/>
-    <tableColumn id="27" xr3:uid="{FB3D7617-43A2-4406-8A1B-342CC431D360}" name="Modelado avanzado y reparación de Superficies _x000a_(Semana 4) " dataDxfId="13"/>
-    <tableColumn id="26" xr3:uid="{15CC947B-1D11-40C4-BDF3-E97BFC12F776}" name="Modelado a partir de datos de scanner _x000a_(Semana 5) " dataDxfId="12"/>
-    <tableColumn id="25" xr3:uid="{7ECFE038-AA59-4517-90E9-2B3566EA5DBF}" name="Escaneo de partes anatómicas (Semana 6) " dataDxfId="11"/>
-    <tableColumn id="24" xr3:uid="{D2AC9EBA-9E21-4D91-B98D-BEC9F52C6380}" name="Nota 1er Corte" dataDxfId="10">
+    <tableColumn id="30" xr3:uid="{9680D2F4-FF61-42C8-B8B8-A6D565F1061F}" name="Conceptos fundamentales (Semana 1) " dataDxfId="18"/>
+    <tableColumn id="29" xr3:uid="{2C8549F9-6C7C-4C18-8BD8-913F1238E3A1}" name="Operaciones sobre piezas (Semana 2) " dataDxfId="17"/>
+    <tableColumn id="28" xr3:uid="{01B7F4FF-718E-4142-B28F-3C5C6E213A9D}" name="Operaciones básicas para Modelado de Superficies _x000a_(Semana 3) " dataDxfId="16"/>
+    <tableColumn id="27" xr3:uid="{FB3D7617-43A2-4406-8A1B-342CC431D360}" name="Modelado avanzado y reparación de Superficies _x000a_(Semana 4) " dataDxfId="15"/>
+    <tableColumn id="26" xr3:uid="{15CC947B-1D11-40C4-BDF3-E97BFC12F776}" name="Modelado a partir de datos de scanner _x000a_(Semana 5) " dataDxfId="14"/>
+    <tableColumn id="25" xr3:uid="{7ECFE038-AA59-4517-90E9-2B3566EA5DBF}" name="Escaneo de partes anatómicas (Semana 6) " dataDxfId="13"/>
+    <tableColumn id="24" xr3:uid="{D2AC9EBA-9E21-4D91-B98D-BEC9F52C6380}" name="Nota 1er Corte" dataDxfId="12">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{85803527-97A7-4D57-A5D2-AF49B49DFBB6}" name="T.Conexión7" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{3C385566-1188-4AA7-B618-44B1F28F2C3E}" name="%Conexión7" dataDxfId="8">
+    <tableColumn id="23" xr3:uid="{85803527-97A7-4D57-A5D2-AF49B49DFBB6}" name="T.Conexión7" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{3C385566-1188-4AA7-B618-44B1F28F2C3E}" name="%Conexión7" dataDxfId="10">
       <calculatedColumnFormula>IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{DA39C125-36F8-4764-B8CE-ED2AA2E45580}" name="T.Conexión8" dataDxfId="7"/>
-    <tableColumn id="31" xr3:uid="{16616376-8A06-4C29-A128-6431F97D4DD9}" name="%Conexión8" dataDxfId="6">
+    <tableColumn id="32" xr3:uid="{DA39C125-36F8-4764-B8CE-ED2AA2E45580}" name="T.Conexión8" dataDxfId="9"/>
+    <tableColumn id="31" xr3:uid="{16616376-8A06-4C29-A128-6431F97D4DD9}" name="%Conexión8" dataDxfId="8">
       <calculatedColumnFormula>IF(AD4/$AE$2&lt;=1.01,AD4/$AE$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{C72915B1-C70C-4096-837F-1AC0F6176851}" name="T.Conexión9" dataDxfId="5"/>
-    <tableColumn id="33" xr3:uid="{64BD73A0-6AB2-41EA-80B2-E94CA28F1896}" name="%Conexión9" dataDxfId="4">
+    <tableColumn id="34" xr3:uid="{C72915B1-C70C-4096-837F-1AC0F6176851}" name="T.Conexión9" dataDxfId="7"/>
+    <tableColumn id="33" xr3:uid="{64BD73A0-6AB2-41EA-80B2-E94CA28F1896}" name="%Conexión9" dataDxfId="6">
       <calculatedColumnFormula>IF(AF4/$AG$2&lt;=1.01,AF4/$AG$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{F0830AFA-8C17-4DB9-A373-A75CC7DF2F83}" name="T.Conexión10" dataDxfId="3"/>
-    <tableColumn id="35" xr3:uid="{4D72883D-7062-4769-91FF-E8347DDDF8EA}" name="%Conexión10" dataDxfId="2">
+    <tableColumn id="36" xr3:uid="{F0830AFA-8C17-4DB9-A373-A75CC7DF2F83}" name="T.Conexión10" dataDxfId="5"/>
+    <tableColumn id="35" xr3:uid="{4D72883D-7062-4769-91FF-E8347DDDF8EA}" name="%Conexión10" dataDxfId="4">
       <calculatedColumnFormula>IF(AH4/$AI$2&lt;=1.01,AH4/$AI$2,0.6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{2A0CC0F0-1011-46C8-A0F9-65A542FE9188}" name="DICOM craneal" dataDxfId="0"/>
-    <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="Uso de métricas" dataDxfId="1"/>
+    <tableColumn id="38" xr3:uid="{07C7A6E1-EADF-417F-BBB9-696A87EE03ED}" name="T.Conexión11" dataDxfId="0"/>
+    <tableColumn id="39" xr3:uid="{B3C76DB4-CD2E-4D13-BBC5-38A53EAA07D7}" name="%Conexión11" dataDxfId="1">
+      <calculatedColumnFormula>IF(AJ4/$AK$2&lt;=1.01,AJ4/$AK$2,0.6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="37" xr3:uid="{2A0CC0F0-1011-46C8-A0F9-65A542FE9188}" name="DICOM craneal" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{A45FF6DC-328F-4C5F-A205-1FEF9642344D}" name="Uso de métricas" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2293,69 +2320,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD2CE0-6169-477F-B8E1-2987D9E7C726}">
-  <dimension ref="A1:AK39"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AN17" sqref="AN17"/>
+    <sheetView tabSelected="1" topLeftCell="AC7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="17" width="16.85546875" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="17" width="16.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1"/>
     <col min="19" max="19" width="11.140625" customWidth="1"/>
-    <col min="20" max="20" width="75.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" style="27" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="17" style="27" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="28.85546875" style="27" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="29" style="27" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="21.28515625" style="27" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="15.85546875" style="27" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="20.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="28" max="35" width="16.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="95.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="75.5703125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" style="27" customWidth="1"/>
+    <col min="22" max="22" width="17" style="27" customWidth="1"/>
+    <col min="23" max="23" width="28.85546875" style="27" customWidth="1"/>
+    <col min="24" max="24" width="29" style="27" customWidth="1"/>
+    <col min="25" max="25" width="21.28515625" style="27" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" style="27" customWidth="1"/>
+    <col min="27" max="27" width="20.42578125" style="2" customWidth="1"/>
+    <col min="28" max="37" width="16.85546875" style="2" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" customWidth="1"/>
+    <col min="39" max="39" width="95.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F1" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G1" s="6">
         <v>45867</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I1" s="6">
         <v>45874</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K1" s="6">
         <v>45881</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M1" s="6">
         <v>45888</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O1" s="6">
         <v>45895</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="6">
         <v>45902</v>
@@ -2363,66 +2390,72 @@
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="AA1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="AC1" s="6">
         <v>45909</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AE1" s="6">
         <v>45916</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG1" s="6">
         <v>45923</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="AI1" s="6">
         <v>45930</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ1" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="AK1" s="6">
+        <v>45930</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G2" s="7">
         <v>1.744212962962963E-2</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I2" s="7">
         <v>3.9780092592592596E-2</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K2" s="7">
         <v>3.5949074074074071E-2</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M2" s="7">
         <v>2.2731481481481481E-2</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O2" s="1">
         <v>4.6655092592592595E-2</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q2" s="1">
         <v>4.3206018518518519E-2</v>
@@ -2430,34 +2463,40 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="AA2" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC2" s="1">
         <v>4.1157407407407406E-2</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE2" s="1">
         <v>3.7534722222222219E-2</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG2" s="1">
         <v>3.7534722222222219E-2</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI2" s="1">
         <v>1.4722222222222222E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>3.5925925925925924E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
@@ -2474,206 +2513,212 @@
         <v>65</v>
       </c>
       <c r="F3" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="I3" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="K3" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="L3" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="N3" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="K3" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" s="31" t="s">
+      <c r="O3" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="P3" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="R3" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="T3" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="X3" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y3" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z3" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA3" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB3" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="O3" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3" s="31" t="s">
+      <c r="AC3" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="Q3" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="T3" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="U3" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="V3" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="W3" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="X3" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y3" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z3" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA3" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB3" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC3" s="32" t="s">
-        <v>126</v>
-      </c>
       <c r="AD3" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE3" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF3" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG3" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="AE3" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF3" s="32" t="s">
+      <c r="AH3" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI3" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AG3" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH3" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI3" s="32" t="s">
-        <v>225</v>
-      </c>
       <c r="AJ3" s="32" t="s">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="AK3" s="32" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="AL3" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM3" s="32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D4">
-        <v>1110286885</v>
+        <v>1061688602</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F4" s="3">
-        <v>1.7349537037037038E-2</v>
+        <v>1.7303240740740741E-2</v>
       </c>
       <c r="G4" s="8">
         <f>IF(F4/$G$2&lt;=1.001,F4/$G$2,0.6)</f>
-        <v>0.99469143994691445</v>
+        <v>0.99203715992037156</v>
       </c>
       <c r="H4" s="3">
-        <v>3.9293981481481478E-2</v>
+        <v>3.9247685185185184E-2</v>
       </c>
       <c r="I4" s="8">
         <f>IF(H4/$I$2&lt;=1.001,H4/$I$2,0.6)</f>
-        <v>0.98778004073319736</v>
+        <v>0.98661623508874008</v>
       </c>
       <c r="J4" s="3">
-        <v>3.5925925925925924E-2</v>
+        <v>3.5891203703703703E-2</v>
       </c>
       <c r="K4" s="8">
         <f>IF(J4/$K$2&lt;=1.001,J4/$K$2,0.6)</f>
-        <v>0.99935608499678041</v>
+        <v>0.99839021249195115</v>
       </c>
       <c r="L4" s="3">
-        <v>2.2129629629629631E-2</v>
+        <v>2.162037037037037E-2</v>
       </c>
       <c r="M4" s="8">
         <f>IF(L4/$M$2&lt;=1.001,L4/$M$2,0.6)</f>
-        <v>0.97352342158859484</v>
+        <v>0.95112016293279023</v>
       </c>
       <c r="N4" s="1">
-        <v>4.5590277777777778E-2</v>
+        <v>4.6122685185185183E-2</v>
       </c>
       <c r="O4" s="8">
         <f>IF(N4/$O$2&lt;=1.001,N4/$O$2,0.6)</f>
-        <v>0.97717687918630614</v>
+        <v>0.98858843959315301</v>
       </c>
       <c r="P4" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="8">
         <f>IF(P4/$Q$2&lt;=1.001,P4/$Q$2,0.6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4">
         <f>AVERAGE(G4,I4,K4,M4,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9437732220431609</v>
+        <v>4.0972935083558388</v>
       </c>
       <c r="S4" s="13">
-        <v>1</v>
-      </c>
-      <c r="T4" s="4" t="str" cm="1">
+        <v>8</v>
+      </c>
+      <c r="T4" s="4" t="e" cm="1">
         <f t="array" ref="T4">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
+        <v>#N/A</v>
       </c>
       <c r="U4" s="29">
-        <v>4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V4" s="29">
         <v>0</v>
       </c>
       <c r="W4" s="29">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="29">
-        <v>1.1000000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="Y4" s="29">
         <v>0</v>
       </c>
       <c r="Z4" s="29">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>2.1691319666129485</v>
+        <v>1.6911880525067515</v>
       </c>
       <c r="AB4" s="1">
-        <v>4.1203703703703701E-2</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="8">
         <f>IF(AB4/$AC$2&lt;=1.01,AB4/$AC$2,0.6)</f>
-        <v>1.0011248593925759</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>3.7314814814814815E-2</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="8">
         <f>IF(AD4/$AE$2&lt;=1.01,AD4/$AE$2,0.6)</f>
-        <v>0.99414122725871112</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1">
         <v>3.8368055555555558E-2</v>
@@ -2688,72 +2733,79 @@
         <f>IF(AH4/$AI$2&lt;=1.01,AH4/$AI$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="1">
+        <v>3.5925925925925924E-2</v>
+      </c>
+      <c r="AK4" s="8">
+        <f>IF(AJ4/$AK$2&lt;=1.01,AJ4/$AK$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>1109542109</v>
+        <v>1110286885</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3">
-        <v>1.6481481481481482E-2</v>
+        <v>1.7349537037037038E-2</v>
       </c>
       <c r="G5" s="8">
         <f>IF(F5/$G$2&lt;=1.001,F5/$G$2,0.6)</f>
-        <v>0.94492368944923688</v>
+        <v>0.99469143994691445</v>
       </c>
       <c r="H5" s="3">
-        <v>3.8530092592592595E-2</v>
+        <v>3.9293981481481478E-2</v>
       </c>
       <c r="I5" s="8">
         <f>IF(H5/$I$2&lt;=1.001,H5/$I$2,0.6)</f>
-        <v>0.9685772475996508</v>
+        <v>0.98778004073319736</v>
       </c>
       <c r="J5" s="3">
-        <v>3.5821759259259262E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="K5" s="8">
         <f>IF(J5/$K$2&lt;=1.001,J5/$K$2,0.6)</f>
-        <v>0.9964584674822925</v>
+        <v>0.99935608499678041</v>
       </c>
       <c r="L5" s="3">
-        <v>1.0648148148148149E-3</v>
+        <v>2.2129629629629631E-2</v>
       </c>
       <c r="M5" s="8">
         <f>IF(L5/$M$2&lt;=1.001,L5/$M$2,0.6)</f>
-        <v>4.684317718940937E-2</v>
+        <v>0.97352342158859484</v>
       </c>
       <c r="N5" s="1">
-        <v>4.4270833333333336E-2</v>
+        <v>4.5590277777777778E-2</v>
       </c>
       <c r="O5" s="8">
         <f>IF(N5/$O$2&lt;=1.001,N5/$O$2,0.6)</f>
-        <v>0.94889605556933765</v>
+        <v>0.97717687918630614</v>
       </c>
       <c r="P5" s="1">
-        <v>3.9861111111111111E-2</v>
+        <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q5" s="8">
         <f>IF(P5/$Q$2&lt;=1.001,P5/$Q$2,0.6)</f>
-        <v>0.92258237342619875</v>
+        <v>1</v>
       </c>
       <c r="R5" s="4">
         <f>AVERAGE(G5,I5,K5,M5,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.0235675089301051</v>
+        <v>4.9437732220431609</v>
       </c>
       <c r="S5" s="13">
         <v>1</v>
@@ -2763,47 +2815,46 @@
         <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U5" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V5" s="29">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="W5" s="29">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="X5" s="29">
         <v>1.1000000000000001</v>
       </c>
       <c r="Y5" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="29">
         <v>1.7</v>
       </c>
       <c r="AA5" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.097070252679031</v>
+        <v>2.1691319666129485</v>
       </c>
       <c r="AB5" s="1">
-        <v>3.8101851851851852E-2</v>
+        <v>4.1203703703703701E-2</v>
       </c>
       <c r="AC5" s="8">
         <f>IF(AB5/$AC$2&lt;=1.01,AB5/$AC$2,0.6)</f>
-        <v>0.92575928008998876</v>
+        <v>1.0011248593925759</v>
       </c>
       <c r="AD5" s="1">
-        <v>0</v>
+        <v>3.7314814814814815E-2</v>
       </c>
       <c r="AE5" s="8">
         <f>IF(AD5/$AE$2&lt;=1.01,AD5/$AE$2,0.6)</f>
-        <v>0</v>
+        <v>0.99414122725871112</v>
       </c>
       <c r="AF5" s="1">
-        <v>3.7245370370370373E-2</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="AG5" s="8">
-        <f>IF(AF5/$AG$2&lt;=1.01,AF5/$AG$2,0.6)</f>
-        <v>0.99229108849830416</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="1">
         <v>1.4722222222222222E-2</v>
@@ -2812,119 +2863,129 @@
         <f>IF(AH5/$AI$2&lt;=1.01,AH5/$AI$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="1">
+        <v>2.6469907407407407E-2</v>
+      </c>
+      <c r="AK5" s="8">
+        <f>IF(AJ5/$AK$2&lt;=1.01,AJ5/$AK$2,0.6)</f>
+        <v>0.73679123711340211</v>
+      </c>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>1005785665</v>
+        <v>1112388246</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G6" s="8">
         <f>IF(F6/$G$2&lt;=1.001,F6/$G$2,0.6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
-        <v>3.9085648148148147E-2</v>
+        <v>3.8506944444444448E-2</v>
       </c>
       <c r="I6" s="8">
         <f>IF(H6/$I$2&lt;=1.001,H6/$I$2,0.6)</f>
-        <v>0.9825429153331392</v>
+        <v>0.96799534477742222</v>
       </c>
       <c r="J6" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>1.0486111111111111E-2</v>
       </c>
       <c r="K6" s="8">
         <f>IF(J6/$K$2&lt;=1.001,J6/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
+        <v>0.29169349645846748</v>
       </c>
       <c r="L6" s="3">
-        <v>2.3148148148148149E-4</v>
+        <v>2.2592592592592591E-2</v>
       </c>
       <c r="M6" s="8">
         <f>IF(L6/$M$2&lt;=1.001,L6/$M$2,0.6)</f>
-        <v>1.0183299389002037E-2</v>
+        <v>0.99389002036659879</v>
       </c>
       <c r="N6" s="1">
-        <v>4.6527777777777779E-2</v>
+        <v>3.7476851851851851E-2</v>
       </c>
       <c r="O6" s="8">
         <f>IF(N6/$O$2&lt;=1.001,N6/$O$2,0.6)</f>
-        <v>0.99727114859836263</v>
+        <v>0.80327462168196473</v>
       </c>
       <c r="P6" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>3.8391203703703705E-2</v>
       </c>
       <c r="Q6" s="8">
         <f>IF(P6/$Q$2&lt;=1.001,P6/$Q$2,0.6)</f>
-        <v>1</v>
+        <v>0.8885614787034557</v>
       </c>
       <c r="R6" s="4">
         <f>AVERAGE(G6,I6,K6,M6,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.325266100685095</v>
+        <v>4.1211791349899247</v>
       </c>
       <c r="S6" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" s="4" t="str" cm="1">
         <f t="array" ref="T6">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U6" s="29">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="V6" s="29">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="W6" s="29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X6" s="29">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Y6" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z6" s="29">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="AA6" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>2.7615798302055281</v>
+        <v>4.4283537404969771</v>
       </c>
       <c r="AB6" s="1">
-        <v>4.1157407407407406E-2</v>
+        <v>3.2685185185185185E-2</v>
       </c>
       <c r="AC6" s="8">
         <f>IF(AB6/$AC$2&lt;=1.01,AB6/$AC$2,0.6)</f>
-        <v>1</v>
+        <v>0.79415073115860524</v>
       </c>
       <c r="AD6" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>2.2129629629629631E-2</v>
       </c>
       <c r="AE6" s="8">
         <f>IF(AD6/$AE$2&lt;=1.01,AD6/$AE$2,0.6)</f>
-        <v>0.99599136601911809</v>
+        <v>0.58957755164970715</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>1.8831018518518518E-2</v>
       </c>
       <c r="AG6" s="8">
-        <v>1</v>
+        <f>IF(AF6/$AG$2&lt;=1.01,AF6/$AG$2,0.6)</f>
+        <v>0.50169596053037313</v>
       </c>
       <c r="AH6" s="1">
         <v>1.4722222222222222E-2</v>
@@ -2933,70 +2994,79 @@
         <f>IF(AH6/$AI$2&lt;=1.01,AH6/$AI$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="1">
+        <v>3.3402777777777781E-2</v>
+      </c>
+      <c r="AK6" s="8">
+        <f>IF(AJ6/$AK$2&lt;=1.01,AJ6/$AK$2,0.6)</f>
+        <v>0.92976804123711354</v>
+      </c>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D7">
-        <v>1036925847</v>
+        <v>1109542109</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>1.6481481481481482E-2</v>
       </c>
       <c r="G7" s="8">
         <f>IF(F7/$G$2&lt;=1.001,F7/$G$2,0.6)</f>
-        <v>0</v>
+        <v>0.94492368944923688</v>
       </c>
       <c r="H7" s="3">
-        <v>3.9178240740740743E-2</v>
+        <v>3.8530092592592595E-2</v>
       </c>
       <c r="I7" s="8">
         <f>IF(H7/$I$2&lt;=1.001,H7/$I$2,0.6)</f>
-        <v>0.9848705266220541</v>
+        <v>0.9685772475996508</v>
       </c>
       <c r="J7" s="3">
-        <v>3.5844907407407409E-2</v>
+        <v>3.5821759259259262E-2</v>
       </c>
       <c r="K7" s="8">
         <f>IF(J7/$K$2&lt;=1.001,J7/$K$2,0.6)</f>
-        <v>0.99710238248551208</v>
+        <v>0.9964584674822925</v>
       </c>
       <c r="L7" s="3">
-        <v>0</v>
+        <v>1.0648148148148149E-3</v>
       </c>
       <c r="M7" s="8">
         <f>IF(L7/$M$2&lt;=1.001,L7/$M$2,0.6)</f>
-        <v>0</v>
+        <v>4.684317718940937E-2</v>
       </c>
       <c r="N7" s="1">
-        <v>3.7858796296296293E-2</v>
+        <v>4.4270833333333336E-2</v>
       </c>
       <c r="O7" s="8">
         <f>IF(N7/$O$2&lt;=1.001,N7/$O$2,0.6)</f>
-        <v>0.81146117588687661</v>
+        <v>0.94889605556933765</v>
       </c>
       <c r="P7" s="1">
-        <v>3.1886574074074074E-2</v>
+        <v>3.9861111111111111E-2</v>
       </c>
       <c r="Q7" s="8">
         <f>IF(P7/$Q$2&lt;=1.001,P7/$Q$2,0.6)</f>
-        <v>0.73801232252879723</v>
+        <v>0.92258237342619875</v>
       </c>
       <c r="R7" s="4">
         <f>AVERAGE(G7,I7,K7,M7,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.9428720062693667</v>
+        <v>4.0235675089301051</v>
       </c>
       <c r="S7" s="13">
         <v>1</v>
@@ -3009,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="V7" s="29">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="W7" s="29">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="X7" s="29">
         <v>1.1000000000000001</v>
@@ -3025,27 +3095,28 @@
       </c>
       <c r="AA7" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>2.0728616018808097</v>
+        <v>3.097070252679031</v>
       </c>
       <c r="AB7" s="1">
-        <v>4.1157407407407406E-2</v>
+        <v>3.8101851851851852E-2</v>
       </c>
       <c r="AC7" s="8">
         <f>IF(AB7/$AC$2&lt;=1.01,AB7/$AC$2,0.6)</f>
-        <v>1</v>
+        <v>0.92575928008998876</v>
       </c>
       <c r="AD7" s="1">
-        <v>3.7291666666666667E-2</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="8">
         <f>IF(AD7/$AE$2&lt;=1.01,AD7/$AE$2,0.6)</f>
-        <v>0.99352451433857547</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>3.7245370370370373E-2</v>
       </c>
       <c r="AG7" s="8">
-        <v>1</v>
+        <f>IF(AF7/$AG$2&lt;=1.01,AF7/$AG$2,0.6)</f>
+        <v>0.99229108849830416</v>
       </c>
       <c r="AH7" s="1">
         <v>1.4722222222222222E-2</v>
@@ -3054,316 +3125,331 @@
         <f>IF(AH7/$AI$2&lt;=1.01,AH7/$AI$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="1">
+        <v>3.5925925925925924E-2</v>
+      </c>
+      <c r="AK7" s="8">
+        <f>IF(AJ7/$AK$2&lt;=1.01,AJ7/$AK$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D8">
-        <v>1112388246</v>
+        <v>1193276119</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3">
-        <v>1.744212962962963E-2</v>
+        <v>1.7349537037037038E-2</v>
       </c>
       <c r="G8" s="8">
         <f>IF(F8/$G$2&lt;=1.001,F8/$G$2,0.6)</f>
-        <v>1</v>
+        <v>0.99469143994691445</v>
       </c>
       <c r="H8" s="3">
-        <v>3.8506944444444448E-2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="8">
         <f>IF(H8/$I$2&lt;=1.001,H8/$I$2,0.6)</f>
-        <v>0.96799534477742222</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>1.0486111111111111E-2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="8">
         <f>IF(J8/$K$2&lt;=1.001,J8/$K$2,0.6)</f>
-        <v>0.29169349645846748</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>2.2592592592592591E-2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="8">
         <f>IF(L8/$M$2&lt;=1.001,L8/$M$2,0.6)</f>
-        <v>0.99389002036659879</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>3.7476851851851851E-2</v>
+        <v>1.5972222222222223E-3</v>
       </c>
       <c r="O8" s="8">
         <f>IF(N8/$O$2&lt;=1.001,N8/$O$2,0.6)</f>
-        <v>0.80327462168196473</v>
+        <v>3.4234681220540811E-2</v>
       </c>
       <c r="P8" s="1">
-        <v>3.8391203703703705E-2</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="8">
         <f>IF(P8/$Q$2&lt;=1.001,P8/$Q$2,0.6)</f>
-        <v>0.8885614787034557</v>
+        <v>0</v>
       </c>
       <c r="R8" s="4">
         <f>AVERAGE(G8,I8,K8,M8,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.1211791349899247</v>
-      </c>
-      <c r="S8" s="13">
-        <v>2</v>
-      </c>
+        <v>0.85743843430621258</v>
+      </c>
+      <c r="S8" s="13"/>
       <c r="T8" s="4" t="str" cm="1">
         <f t="array" ref="T8">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
+        <v>--</v>
       </c>
       <c r="U8" s="29">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="V8" s="29">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="W8" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X8" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.4283537404969771</v>
+        <v>0.25723153029186374</v>
       </c>
       <c r="AB8" s="1">
-        <v>3.2685185185185185E-2</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="8">
         <f>IF(AB8/$AC$2&lt;=1.01,AB8/$AC$2,0.6)</f>
-        <v>0.79415073115860524</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <v>2.2129629629629631E-2</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="8">
         <f>IF(AD8/$AE$2&lt;=1.01,AD8/$AE$2,0.6)</f>
-        <v>0.58957755164970715</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>1.8831018518518518E-2</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="8">
         <f>IF(AF8/$AG$2&lt;=1.01,AF8/$AG$2,0.6)</f>
-        <v>0.50169596053037313</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="8">
         <f>IF(AH8/$AI$2&lt;=1.01,AH8/$AI$2,0.6)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="8">
+        <f>IF(AJ8/$AK$2&lt;=1.01,AJ8/$AK$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D9">
-        <v>1000940688</v>
+        <v>1143992171</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F9" s="3">
-        <v>1.7361111111111112E-2</v>
+        <v>3.4791666666666665E-2</v>
       </c>
       <c r="G9" s="8">
         <f>IF(F9/$G$2&lt;=1.001,F9/$G$2,0.6)</f>
-        <v>0.99535500995355009</v>
+        <v>0.6</v>
       </c>
       <c r="H9" s="3">
-        <v>3.9259259259259258E-2</v>
+        <v>7.1990740740740739E-3</v>
       </c>
       <c r="I9" s="8">
         <f>IF(H9/$I$2&lt;=1.001,H9/$I$2,0.6)</f>
-        <v>0.98690718649985443</v>
+        <v>0.1809717777131219</v>
       </c>
       <c r="J9" s="3">
-        <v>3.5949074074074071E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K9" s="8">
         <f>IF(J9/$K$2&lt;=1.001,J9/$K$2,0.6)</f>
-        <v>1</v>
+        <v>1.00032195750161</v>
       </c>
       <c r="L9" s="3">
-        <v>2.2638888888888889E-2</v>
+        <v>1.9398148148148147E-2</v>
       </c>
       <c r="M9" s="8">
         <f>IF(L9/$M$2&lt;=1.001,L9/$M$2,0.6)</f>
-        <v>0.99592668024439923</v>
+        <v>0.85336048879837068</v>
       </c>
       <c r="N9" s="1">
-        <v>4.4965277777777778E-2</v>
+        <v>4.5810185185185183E-2</v>
       </c>
       <c r="O9" s="8">
         <f>IF(N9/$O$2&lt;=1.001,N9/$O$2,0.6)</f>
-        <v>0.9637806995782684</v>
+        <v>0.98189034978913414</v>
       </c>
       <c r="P9" s="1">
-        <v>4.1863425925925929E-2</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="8">
         <f>IF(P9/$Q$2&lt;=1.001,P9/$Q$2,0.6)</f>
-        <v>0.96892579694615599</v>
+        <v>0</v>
       </c>
       <c r="R9" s="4">
         <f>AVERAGE(G9,I9,K9,M9,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9257461443518569</v>
-      </c>
-      <c r="S9" s="13">
-        <v>2</v>
-      </c>
+        <v>3.0137871448351969</v>
+      </c>
+      <c r="S9" s="13"/>
       <c r="T9" s="4" t="str" cm="1">
         <f t="array" ref="T9">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
+        <v>--</v>
       </c>
       <c r="U9" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V9" s="29">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="W9" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X9" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="29">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.7957238433055576</v>
+        <v>0.90413614345055904</v>
       </c>
       <c r="AB9" s="1">
-        <v>3.8182870370370367E-2</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="8">
         <f>IF(AB9/$AC$2&lt;=1.01,AB9/$AC$2,0.6)</f>
-        <v>0.92772778402699652</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="1">
-        <v>3.7303240740740741E-2</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="8">
         <f>IF(AD9/$AE$2&lt;=1.01,AD9/$AE$2,0.6)</f>
-        <v>0.99383287079864335</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>3.215277777777778E-2</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="8">
         <f>IF(AF9/$AG$2&lt;=1.01,AF9/$AG$2,0.6)</f>
-        <v>0.85661424606845527</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="8">
         <f>IF(AH9/$AI$2&lt;=1.01,AH9/$AI$2,0.6)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="8">
+        <f>IF(AJ9/$AK$2&lt;=1.01,AJ9/$AK$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10">
-        <v>1107837413</v>
+        <v>1000940688</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="G10" s="8">
         <f>IF(F10/$G$2&lt;=1.001,F10/$G$2,0.6)</f>
-        <v>0</v>
+        <v>0.99535500995355009</v>
       </c>
       <c r="H10" s="3">
-        <v>3.7743055555555557E-2</v>
+        <v>3.9259259259259258E-2</v>
       </c>
       <c r="I10" s="8">
         <f>IF(H10/$I$2&lt;=1.001,H10/$I$2,0.6)</f>
-        <v>0.94879255164387544</v>
+        <v>0.98690718649985443</v>
       </c>
       <c r="J10" s="3">
-        <v>3.5925925925925924E-2</v>
+        <v>3.5949074074074071E-2</v>
       </c>
       <c r="K10" s="8">
         <f>IF(J10/$K$2&lt;=1.001,J10/$K$2,0.6)</f>
-        <v>0.99935608499678041</v>
+        <v>1</v>
       </c>
       <c r="L10" s="3">
-        <v>2.0636574074074075E-2</v>
+        <v>2.2638888888888889E-2</v>
       </c>
       <c r="M10" s="8">
         <f>IF(L10/$M$2&lt;=1.001,L10/$M$2,0.6)</f>
-        <v>0.90784114052953158</v>
+        <v>0.99592668024439923</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>4.4965277777777778E-2</v>
       </c>
       <c r="O10" s="8">
         <f>IF(N10/$O$2&lt;=1.001,N10/$O$2,0.6)</f>
-        <v>0</v>
+        <v>0.9637806995782684</v>
       </c>
       <c r="P10" s="1">
-        <v>3.9016203703703706E-2</v>
+        <v>4.1863425925925929E-2</v>
       </c>
       <c r="Q10" s="8">
         <f>IF(P10/$Q$2&lt;=1.001,P10/$Q$2,0.6)</f>
-        <v>0.90302705598714172</v>
+        <v>0.96892579694615599</v>
       </c>
       <c r="R10" s="4">
         <f>AVERAGE(G10,I10,K10,M10,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.1325140276311076</v>
+        <v>4.9257461443518569</v>
       </c>
       <c r="S10" s="13">
         <v>2</v>
@@ -3373,47 +3459,47 @@
         <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U10" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V10" s="29">
-        <v>3.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W10" s="29">
         <v>5</v>
       </c>
       <c r="X10" s="29">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Y10" s="29">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="Z10" s="29">
         <v>4.5</v>
       </c>
       <c r="AA10" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.977754208289332</v>
+        <v>4.7957238433055576</v>
       </c>
       <c r="AB10" s="1">
-        <v>3.8090277777777778E-2</v>
+        <v>3.8182870370370367E-2</v>
       </c>
       <c r="AC10" s="8">
         <f>IF(AB10/$AC$2&lt;=1.01,AB10/$AC$2,0.6)</f>
-        <v>0.92547806524184484</v>
+        <v>0.92772778402699652</v>
       </c>
       <c r="AD10" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>3.7303240740740741E-2</v>
       </c>
       <c r="AE10" s="8">
         <f>IF(AD10/$AE$2&lt;=1.01,AD10/$AE$2,0.6)</f>
-        <v>0.99599136601911809</v>
+        <v>0.99383287079864335</v>
       </c>
       <c r="AF10" s="1">
-        <v>2.8125000000000001E-2</v>
+        <v>3.215277777777778E-2</v>
       </c>
       <c r="AG10" s="8">
         <f>IF(AF10/$AG$2&lt;=1.01,AF10/$AG$2,0.6)</f>
-        <v>0.74930619796484743</v>
+        <v>0.85661424606845527</v>
       </c>
       <c r="AH10" s="1">
         <v>1.4722222222222222E-2</v>
@@ -3422,10 +3508,17 @@
         <f>IF(AH10/$AI$2&lt;=1.01,AH10/$AI$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="1">
+        <v>3.5821759259259262E-2</v>
+      </c>
+      <c r="AK10" s="8">
+        <f>IF(AJ10/$AK$2&lt;=1.01,AJ10/$AK$2,0.6)</f>
+        <v>0.99710051546391765</v>
+      </c>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3433,7 +3526,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11">
         <v>1007560675</v>
@@ -3544,26 +3637,33 @@
         <f>IF(AH11/$AI$2&lt;=1.01,AH11/$AI$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="1">
+        <v>3.5925925925925924E-2</v>
+      </c>
+      <c r="AK11" s="8">
+        <f>IF(AJ11/$AK$2&lt;=1.01,AJ11/$AK$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D12">
-        <v>1005832925</v>
+        <v>1110285503</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3">
         <v>1.7314814814814814E-2</v>
@@ -3573,59 +3673,59 @@
         <v>0.9927007299270072</v>
       </c>
       <c r="H12" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>3.9189814814814816E-2</v>
       </c>
       <c r="I12" s="8">
         <f>IF(H12/$I$2&lt;=1.001,H12/$I$2,0.6)</f>
-        <v>1.0008728542333429</v>
+        <v>0.98516147803316845</v>
       </c>
       <c r="J12" s="3">
-        <v>3.5868055555555556E-2</v>
+        <v>0</v>
       </c>
       <c r="K12" s="8">
         <f>IF(J12/$K$2&lt;=1.001,J12/$K$2,0.6)</f>
-        <v>0.99774629748873156</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>2.1909722222222223E-2</v>
+        <v>0</v>
       </c>
       <c r="M12" s="8">
         <f>IF(L12/$M$2&lt;=1.001,L12/$M$2,0.6)</f>
-        <v>0.96384928716904283</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>4.6631944444444441E-2</v>
+        <v>4.327546296296296E-2</v>
       </c>
       <c r="O12" s="8">
         <f>IF(N12/$O$2&lt;=1.001,N12/$O$2,0.6)</f>
-        <v>0.99950384519970215</v>
+        <v>0.92756139915653668</v>
       </c>
       <c r="P12" s="1">
-        <v>4.2488425925925923E-2</v>
+        <v>4.3182870370370371E-2</v>
       </c>
       <c r="Q12" s="8">
         <f>IF(P12/$Q$2&lt;=1.001,P12/$Q$2,0.6)</f>
-        <v>0.98339137422984191</v>
+        <v>0.99946423787838201</v>
       </c>
       <c r="R12" s="4">
         <f>AVERAGE(G12,I12,K12,M12,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9483869902063908</v>
+        <v>3.2540732041625784</v>
       </c>
       <c r="S12" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T12" s="4" t="str" cm="1">
         <f t="array" ref="T12">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U12" s="29">
         <v>5</v>
       </c>
       <c r="V12" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W12" s="29">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="X12" s="29">
         <v>5</v>
@@ -3638,21 +3738,21 @@
       </c>
       <c r="AA12" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.9145160970619175</v>
+        <v>3.6502219612487732</v>
       </c>
       <c r="AB12" s="1">
-        <v>3.8379629629629632E-2</v>
+        <v>3.7256944444444447E-2</v>
       </c>
       <c r="AC12" s="8">
         <f>IF(AB12/$AC$2&lt;=1.01,AB12/$AC$2,0.6)</f>
-        <v>0.93250843644544434</v>
+        <v>0.90523059617547819</v>
       </c>
       <c r="AD12" s="1">
-        <v>3.3958333333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="8">
         <f>IF(AD12/$AE$2&lt;=1.01,AD12/$AE$2,0.6)</f>
-        <v>0.90471785383903802</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="1">
         <v>3.8368055555555558E-2</v>
@@ -3661,92 +3761,101 @@
         <v>1</v>
       </c>
       <c r="AH12" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>1.412037037037037E-2</v>
       </c>
       <c r="AI12" s="8">
         <f>IF(AH12/$AI$2&lt;=1.01,AH12/$AI$2,0.6)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0.95911949685534592</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>2.2407407407407407E-2</v>
+      </c>
+      <c r="AK12" s="8">
+        <f>IF(AJ12/$AK$2&lt;=1.01,AJ12/$AK$2,0.6)</f>
+        <v>0.62371134020618557</v>
+      </c>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13">
+        <v>1107837304</v>
+      </c>
+      <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13">
-        <v>1006343564</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
       <c r="F13" s="3">
-        <v>1.7337962962962961E-2</v>
+        <v>3.8090277777777778E-2</v>
       </c>
       <c r="G13" s="8">
         <f>IF(F13/$G$2&lt;=1.001,F13/$G$2,0.6)</f>
-        <v>0.99402786994027859</v>
+        <v>0.6</v>
       </c>
       <c r="H13" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>3.8541666666666669E-2</v>
       </c>
       <c r="I13" s="8">
         <f>IF(H13/$I$2&lt;=1.001,H13/$I$2,0.6)</f>
-        <v>1.0008728542333429</v>
+        <v>0.96886819901076515</v>
       </c>
       <c r="J13" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>3.3229166666666664E-2</v>
       </c>
       <c r="K13" s="8">
         <f>IF(J13/$K$2&lt;=1.001,J13/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
-      </c>
-      <c r="L13" s="9">
-        <v>2.2731481481481481E-2</v>
-      </c>
-      <c r="M13" s="10">
+        <v>0.92433998712169996</v>
+      </c>
+      <c r="L13" s="3">
+        <v>5.115740740740741E-3</v>
+      </c>
+      <c r="M13" s="8">
         <f>IF(L13/$M$2&lt;=1.001,L13/$M$2,0.6)</f>
-        <v>1</v>
+        <v>0.22505091649694503</v>
       </c>
       <c r="N13" s="1">
-        <v>2.9768518518518517E-2</v>
+        <v>4.4849537037037035E-2</v>
       </c>
       <c r="O13" s="8">
         <f>IF(N13/$O$2&lt;=1.001,N13/$O$2,0.6)</f>
-        <v>0.63805507318283294</v>
+        <v>0.9612999255767799</v>
       </c>
       <c r="P13" s="1">
-        <v>4.1909722222222223E-2</v>
+        <v>3.9386574074074074E-2</v>
       </c>
       <c r="Q13" s="8">
         <f>IF(P13/$Q$2&lt;=1.001,P13/$Q$2,0.6)</f>
-        <v>0.96999732118939197</v>
+        <v>0.91159924993302976</v>
       </c>
       <c r="R13" s="4">
         <f>AVERAGE(G13,I13,K13,M13,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6693958967062139</v>
+        <v>3.8259652317826838</v>
       </c>
       <c r="S13" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T13" s="4" t="str" cm="1">
         <f t="array" ref="T13">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U13" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="V13" s="29">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W13" s="29">
         <v>5</v>
-      </c>
-      <c r="V13" s="29">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="W13" s="29">
-        <v>4</v>
       </c>
       <c r="X13" s="29">
         <v>3.3</v>
@@ -3759,21 +3868,21 @@
       </c>
       <c r="AA13" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.3968187690118636</v>
+        <v>4.2137895695348053</v>
       </c>
       <c r="AB13" s="1">
-        <v>3.8124999999999999E-2</v>
+        <v>3.8101851851851852E-2</v>
       </c>
       <c r="AC13" s="8">
         <f>IF(AB13/$AC$2&lt;=1.01,AB13/$AC$2,0.6)</f>
-        <v>0.9263217097862767</v>
+        <v>0.92575928008998876</v>
       </c>
       <c r="AD13" s="1">
-        <v>3.5486111111111114E-2</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE13" s="8">
         <f>IF(AD13/$AE$2&lt;=1.01,AD13/$AE$2,0.6)</f>
-        <v>0.94542090656799271</v>
+        <v>0.99599136601911809</v>
       </c>
       <c r="AF13" s="1">
         <v>3.8368055555555558E-2</v>
@@ -3782,44 +3891,53 @@
         <v>1</v>
       </c>
       <c r="AH13" s="1">
-        <v>1.4386574074074074E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI13" s="8">
         <f>IF(AH13/$AI$2&lt;=1.01,AH13/$AI$2,0.6)</f>
-        <v>0.97720125786163525</v>
-      </c>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>30</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>111</v>
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>3.5752314814814813E-2</v>
+      </c>
+      <c r="AK13" s="8">
+        <f>IF(AJ13/$AK$2&lt;=1.01,AJ13/$AK$2,0.6)</f>
+        <v>0.99516752577319589</v>
+      </c>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
       </c>
       <c r="D14">
-        <v>73265790</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>61</v>
+        <v>1112388822</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
       </c>
       <c r="F14" s="3">
-        <v>4.3611111111111114E-2</v>
+        <v>1.7337962962962961E-2</v>
       </c>
       <c r="G14" s="8">
         <f>IF(F14/$G$2&lt;=1.001,F14/$G$2,0.6)</f>
-        <v>0.6</v>
+        <v>0.99402786994027859</v>
       </c>
       <c r="H14" s="3">
-        <v>3.9641203703703706E-2</v>
+        <v>3.9224537037037037E-2</v>
       </c>
       <c r="I14" s="8">
         <f>IF(H14/$I$2&lt;=1.001,H14/$I$2,0.6)</f>
-        <v>0.99650858306662782</v>
+        <v>0.98603433226651138</v>
       </c>
       <c r="J14" s="3">
         <v>3.5879629629629629E-2</v>
@@ -3829,48 +3947,48 @@
         <v>0.99806825499034135</v>
       </c>
       <c r="L14" s="3">
-        <v>2.1238425925925924E-2</v>
+        <v>0</v>
       </c>
       <c r="M14" s="8">
         <f>IF(L14/$M$2&lt;=1.001,L14/$M$2,0.6)</f>
-        <v>0.93431771894093685</v>
+        <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>4.659722222222222E-2</v>
+        <v>3.2685185185185185E-2</v>
       </c>
       <c r="O14" s="8">
         <f>IF(N14/$O$2&lt;=1.001,N14/$O$2,0.6)</f>
-        <v>0.99875961299925564</v>
+        <v>0.70057057802034228</v>
       </c>
       <c r="P14" s="1">
-        <v>4.1886574074074076E-2</v>
+        <v>3.3252314814814818E-2</v>
       </c>
       <c r="Q14" s="8">
         <f>IF(P14/$Q$2&lt;=1.001,P14/$Q$2,0.6)</f>
-        <v>0.96946155906777398</v>
+        <v>0.76962228770425933</v>
       </c>
       <c r="R14" s="4">
         <f>AVERAGE(G14,I14,K14,M14,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.5809297742207793</v>
+        <v>3.7069361024347773</v>
       </c>
       <c r="S14" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T14" s="4" t="str" cm="1">
         <f t="array" ref="T14">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U14" s="29">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="V14" s="29">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="W14" s="29">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="X14" s="29">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Y14" s="29">
         <v>5</v>
@@ -3880,196 +3998,213 @@
       </c>
       <c r="AA14" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.5802789322662338</v>
+        <v>4.1360808307304335</v>
       </c>
       <c r="AB14" s="1">
-        <v>3.8425925925925926E-2</v>
+        <v>3.2615740740740744E-2</v>
       </c>
       <c r="AC14" s="8">
         <f>IF(AB14/$AC$2&lt;=1.01,AB14/$AC$2,0.6)</f>
-        <v>0.93363329583802024</v>
+        <v>0.7924634420697414</v>
       </c>
       <c r="AD14" s="1">
-        <v>3.7256944444444447E-2</v>
+        <v>2.9525462962962962E-2</v>
       </c>
       <c r="AE14" s="8">
         <f>IF(AD14/$AE$2&lt;=1.01,AD14/$AE$2,0.6)</f>
-        <v>0.99259944495837205</v>
+        <v>0.78661732963305586</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>3.7488425925925925E-2</v>
       </c>
       <c r="AG14" s="8">
-        <v>1</v>
+        <f>IF(AF14/$AG$2&lt;=1.01,AF14/$AG$2,0.6)</f>
+        <v>0.99876657415972869</v>
       </c>
       <c r="AH14" s="1">
-        <v>2.855324074074074E-2</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+        <f>IF(AH14/$AI$2&lt;=1.01,AH14/$AI$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>4.0162037037037041E-3</v>
+      </c>
+      <c r="AK14" s="8">
+        <f>IF(AJ14/$AK$2&lt;=1.01,AJ14/$AK$2,0.6)</f>
+        <v>0.11179123711340208</v>
+      </c>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D15">
-        <v>1110285503</v>
+        <v>1107839506</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F15" s="3">
-        <v>1.7314814814814814E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G15" s="8">
         <f>IF(F15/$G$2&lt;=1.001,F15/$G$2,0.6)</f>
-        <v>0.9927007299270072</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3">
-        <v>3.9189814814814816E-2</v>
+        <v>3.9270833333333331E-2</v>
       </c>
       <c r="I15" s="8">
         <f>IF(H15/$I$2&lt;=1.001,H15/$I$2,0.6)</f>
-        <v>0.98516147803316845</v>
+        <v>0.98719813791096878</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>3.591435185185185E-2</v>
       </c>
       <c r="K15" s="8">
         <f>IF(J15/$K$2&lt;=1.001,J15/$K$2,0.6)</f>
-        <v>0</v>
+        <v>0.99903412749517073</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>1.9351851851851853E-2</v>
       </c>
       <c r="M15" s="8">
         <f>IF(L15/$M$2&lt;=1.001,L15/$M$2,0.6)</f>
-        <v>0</v>
+        <v>0.85132382892057035</v>
       </c>
       <c r="N15" s="1">
-        <v>4.327546296296296E-2</v>
+        <v>4.2256944444444444E-2</v>
       </c>
       <c r="O15" s="8">
         <f>IF(N15/$O$2&lt;=1.001,N15/$O$2,0.6)</f>
-        <v>0.92756139915653668</v>
+        <v>0.9057305879434383</v>
       </c>
       <c r="P15" s="1">
-        <v>4.3182870370370371E-2</v>
+        <v>3.9687500000000001E-2</v>
       </c>
       <c r="Q15" s="8">
         <f>IF(P15/$Q$2&lt;=1.001,P15/$Q$2,0.6)</f>
-        <v>0.99946423787838201</v>
+        <v>0.91856415751406373</v>
       </c>
       <c r="R15" s="4">
         <f>AVERAGE(G15,I15,K15,M15,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.2540732041625784</v>
+        <v>4.71820903315351</v>
       </c>
       <c r="S15" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T15" s="4" t="str" cm="1">
         <f t="array" ref="T15">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U15" s="29">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="V15" s="29">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="W15" s="29">
-        <v>0.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X15" s="29">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Y15" s="29">
         <v>5</v>
       </c>
       <c r="Z15" s="29">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="AA15" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.6502219612487732</v>
+        <v>4.341462709946053</v>
       </c>
       <c r="AB15" s="1">
-        <v>3.7256944444444447E-2</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="8">
         <f>IF(AB15/$AC$2&lt;=1.01,AB15/$AC$2,0.6)</f>
-        <v>0.90523059617547819</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="1">
-        <v>0</v>
+        <v>3.712962962962963E-2</v>
       </c>
       <c r="AE15" s="8">
         <f>IF(AD15/$AE$2&lt;=1.01,AD15/$AE$2,0.6)</f>
-        <v>0</v>
+        <v>0.98920752389762578</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="8">
-        <v>1</v>
+        <f>IF(AF15/$AG$2&lt;=1.01,AF15/$AG$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AH15" s="1">
-        <v>1.412037037037037E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI15" s="8">
         <f>IF(AH15/$AI$2&lt;=1.01,AH15/$AI$2,0.6)</f>
-        <v>0.95911949685534592</v>
-      </c>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>3.4907407407407408E-2</v>
+      </c>
+      <c r="AK15" s="8">
+        <f>IF(AJ15/$AK$2&lt;=1.01,AJ15/$AK$2,0.6)</f>
+        <v>0.97164948453608257</v>
+      </c>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>280</v>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D16">
-        <v>1112388822</v>
+        <v>1112041894</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F16" s="3">
-        <v>1.7337962962962961E-2</v>
+        <v>3.7592592592592594E-2</v>
       </c>
       <c r="G16" s="8">
         <f>IF(F16/$G$2&lt;=1.001,F16/$G$2,0.6)</f>
-        <v>0.99402786994027859</v>
+        <v>0.6</v>
       </c>
       <c r="H16" s="3">
-        <v>3.9224537037037037E-2</v>
+        <v>2.7164351851851853E-2</v>
       </c>
       <c r="I16" s="8">
         <f>IF(H16/$I$2&lt;=1.001,H16/$I$2,0.6)</f>
-        <v>0.98603433226651138</v>
+        <v>0.68286296188536511</v>
       </c>
       <c r="J16" s="3">
-        <v>3.5879629629629629E-2</v>
+        <v>0</v>
       </c>
       <c r="K16" s="8">
         <f>IF(J16/$K$2&lt;=1.001,J16/$K$2,0.6)</f>
-        <v>0.99806825499034135</v>
+        <v>0</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
@@ -4079,112 +4214,119 @@
         <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>3.2685185185185185E-2</v>
+        <v>4.1226851851851855E-2</v>
       </c>
       <c r="O16" s="8">
         <f>IF(N16/$O$2&lt;=1.001,N16/$O$2,0.6)</f>
-        <v>0.70057057802034228</v>
+        <v>0.88365169933019105</v>
       </c>
       <c r="P16" s="1">
-        <v>3.3252314814814818E-2</v>
+        <v>4.2858796296296298E-2</v>
       </c>
       <c r="Q16" s="8">
         <f>IF(P16/$Q$2&lt;=1.001,P16/$Q$2,0.6)</f>
-        <v>0.76962228770425933</v>
+        <v>0.99196356817573006</v>
       </c>
       <c r="R16" s="4">
         <f>AVERAGE(G16,I16,K16,M16,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.7069361024347773</v>
+        <v>2.6320651911594055</v>
       </c>
       <c r="S16" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16" s="4" t="str" cm="1">
         <f t="array" ref="T16">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U16" s="29">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="V16" s="29">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="W16" s="29">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="X16" s="29">
         <v>3.3</v>
       </c>
       <c r="Y16" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="29">
         <v>4.5</v>
       </c>
       <c r="AA16" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.1360808307304335</v>
+        <v>2.6236195573478214</v>
       </c>
       <c r="AB16" s="1">
-        <v>3.2615740740740744E-2</v>
+        <v>4.0208333333333332E-2</v>
       </c>
       <c r="AC16" s="8">
         <f>IF(AB16/$AC$2&lt;=1.01,AB16/$AC$2,0.6)</f>
-        <v>0.7924634420697414</v>
+        <v>0.9769403824521935</v>
       </c>
       <c r="AD16" s="1">
-        <v>2.9525462962962962E-2</v>
+        <v>3.6712962962962961E-2</v>
       </c>
       <c r="AE16" s="8">
         <f>IF(AD16/$AE$2&lt;=1.01,AD16/$AE$2,0.6)</f>
-        <v>0.78661732963305586</v>
+        <v>0.97810669133518346</v>
       </c>
       <c r="AF16" s="1">
-        <v>3.7488425925925925E-2</v>
+        <v>3.7557870370370373E-2</v>
       </c>
       <c r="AG16" s="8">
         <f>IF(AF16/$AG$2&lt;=1.01,AF16/$AG$2,0.6)</f>
-        <v>0.99876657415972869</v>
+        <v>1.0006167129201358</v>
       </c>
       <c r="AH16" s="1">
-        <v>0</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI16" s="8">
         <f>IF(AH16/$AI$2&lt;=1.01,AH16/$AI$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>3.4872685185185187E-2</v>
+      </c>
+      <c r="AK16" s="8">
+        <f>IF(AJ16/$AK$2&lt;=1.01,AJ16/$AK$2,0.6)</f>
+        <v>0.97068298969072175</v>
+      </c>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D17">
-        <v>1113978874</v>
+        <v>1005785665</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F17" s="3">
-        <v>1.744212962962963E-2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8">
         <f>IF(F17/$G$2&lt;=1.001,F17/$G$2,0.6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>3.9085648148148147E-2</v>
       </c>
       <c r="I17" s="8">
         <f>IF(H17/$I$2&lt;=1.001,H17/$I$2,0.6)</f>
-        <v>1.0008728542333429</v>
+        <v>0.9825429153331392</v>
       </c>
       <c r="J17" s="3">
         <v>3.5960648148148151E-2</v>
@@ -4194,18 +4336,18 @@
         <v>1.00032195750161</v>
       </c>
       <c r="L17" s="3">
-        <v>2.1203703703703704E-2</v>
+        <v>2.3148148148148149E-4</v>
       </c>
       <c r="M17" s="8">
         <f>IF(L17/$M$2&lt;=1.001,L17/$M$2,0.6)</f>
-        <v>0.9327902240325866</v>
+        <v>1.0183299389002037E-2</v>
       </c>
       <c r="N17" s="1">
-        <v>4.6666666666666669E-2</v>
+        <v>4.6527777777777779E-2</v>
       </c>
       <c r="O17" s="8">
         <f>IF(N17/$O$2&lt;=1.001,N17/$O$2,0.6)</f>
-        <v>1.0002480774001488</v>
+        <v>0.99727114859836263</v>
       </c>
       <c r="P17" s="1">
         <v>4.3206018518518519E-2</v>
@@ -4216,43 +4358,43 @@
       </c>
       <c r="R17" s="4">
         <f>AVERAGE(G17,I17,K17,M17,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9451942609730732</v>
+        <v>3.325266100685095</v>
       </c>
       <c r="S17" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T17" s="4" t="str" cm="1">
         <f t="array" ref="T17">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U17" s="29">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V17" s="29">
-        <v>4.9000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="W17" s="29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X17" s="29">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Y17" s="29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="29">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="AA17" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.8995582782919218</v>
+        <v>2.7615798302055281</v>
       </c>
       <c r="AB17" s="1">
-        <v>3.9328703703703706E-2</v>
+        <v>4.1157407407407406E-2</v>
       </c>
       <c r="AC17" s="8">
         <f>IF(AB17/$AC$2&lt;=1.01,AB17/$AC$2,0.6)</f>
-        <v>0.95556805399325095</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="1">
         <v>3.7384259259259256E-2</v>
@@ -4274,70 +4416,77 @@
         <f>IF(AH17/$AI$2&lt;=1.01,AH17/$AI$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="1">
+        <v>3.5925925925925924E-2</v>
+      </c>
+      <c r="AK17" s="8">
+        <f>IF(AJ17/$AK$2&lt;=1.01,AJ17/$AK$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D18">
-        <v>1104804719</v>
+        <v>1113978874</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F18" s="3">
-        <v>3.4641203703703702E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G18" s="8">
         <f>IF(F18/$G$2&lt;=1.001,F18/$G$2,0.6)</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
-        <v>3.9178240740740743E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I18" s="8">
         <f>IF(H18/$I$2&lt;=1.001,H18/$I$2,0.6)</f>
-        <v>0.9848705266220541</v>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J18" s="3">
-        <v>3.5856481481481482E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K18" s="8">
         <f>IF(J18/$K$2&lt;=1.001,J18/$K$2,0.6)</f>
-        <v>0.99742433998712177</v>
+        <v>1.00032195750161</v>
       </c>
       <c r="L18" s="3">
-        <v>1.9652777777777779E-2</v>
+        <v>2.1203703703703704E-2</v>
       </c>
       <c r="M18" s="8">
         <f>IF(L18/$M$2&lt;=1.001,L18/$M$2,0.6)</f>
-        <v>0.86456211812627304</v>
+        <v>0.9327902240325866</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>4.6666666666666669E-2</v>
       </c>
       <c r="O18" s="8">
         <f>IF(N18/$O$2&lt;=1.001,N18/$O$2,0.6)</f>
-        <v>0</v>
+        <v>1.0002480774001488</v>
       </c>
       <c r="P18" s="1">
-        <v>3.9768518518518516E-2</v>
+        <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q18" s="8">
         <f>IF(P18/$Q$2&lt;=1.001,P18/$Q$2,0.6)</f>
-        <v>0.92043932493972669</v>
+        <v>1</v>
       </c>
       <c r="R18" s="4">
         <f>AVERAGE(G18,I18,K18,M18,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.6394135913959795</v>
+        <v>4.9451942609730732</v>
       </c>
       <c r="S18" s="13">
         <v>4</v>
@@ -4356,7 +4505,7 @@
         <v>5</v>
       </c>
       <c r="X18" s="29">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Y18" s="29">
         <v>5</v>
@@ -4366,28 +4515,27 @@
       </c>
       <c r="AA18" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.2698240774187939</v>
+        <v>4.8995582782919218</v>
       </c>
       <c r="AB18" s="1">
-        <v>4.0914351851851855E-2</v>
+        <v>3.9328703703703706E-2</v>
       </c>
       <c r="AC18" s="8">
         <f>IF(AB18/$AC$2&lt;=1.01,AB18/$AC$2,0.6)</f>
-        <v>0.9940944881889765</v>
+        <v>0.95556805399325095</v>
       </c>
       <c r="AD18" s="1">
-        <v>1.6608796296296295E-2</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE18" s="8">
         <f>IF(AD18/$AE$2&lt;=1.01,AD18/$AE$2,0.6)</f>
-        <v>0.44249152019734816</v>
+        <v>0.99599136601911809</v>
       </c>
       <c r="AF18" s="1">
-        <v>3.4942129629629629E-2</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="AG18" s="8">
-        <f>IF(AF18/$AG$2&lt;=1.01,AF18/$AG$2,0.6)</f>
-        <v>0.93092815294480424</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="1">
         <v>1.4722222222222222E-2</v>
@@ -4396,120 +4544,127 @@
         <f>IF(AH18/$AI$2&lt;=1.01,AH18/$AI$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="1">
+        <v>3.5509259259259261E-2</v>
+      </c>
+      <c r="AK18" s="8">
+        <f>IF(AJ18/$AK$2&lt;=1.01,AJ18/$AK$2,0.6)</f>
+        <v>0.98840206185567026</v>
+      </c>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D19">
-        <v>1004217163</v>
+        <v>1105366146</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F19" s="3">
-        <v>4.1458333333333333E-2</v>
+        <v>3.8437499999999999E-2</v>
       </c>
       <c r="G19" s="8">
         <f>IF(F19/$G$2&lt;=1.001,F19/$G$2,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="H19" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="8">
         <f>IF(H19/$I$2&lt;=1.001,H19/$I$2,0.6)</f>
-        <v>1.0008728542333429</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>1.3148148148148148E-2</v>
       </c>
       <c r="K19" s="8">
         <f>IF(J19/$K$2&lt;=1.001,J19/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
+        <v>0.36574372182871867</v>
       </c>
       <c r="L19" s="3">
-        <v>2.0798611111111111E-2</v>
+        <v>7.6620370370370366E-3</v>
       </c>
       <c r="M19" s="8">
         <f>IF(L19/$M$2&lt;=1.001,L19/$M$2,0.6)</f>
-        <v>0.91496945010183306</v>
+        <v>0.33706720977596738</v>
       </c>
       <c r="N19" s="1">
-        <v>4.2013888888888892E-2</v>
+        <v>4.6215277777777779E-2</v>
       </c>
       <c r="O19" s="8">
         <f>IF(N19/$O$2&lt;=1.001,N19/$O$2,0.6)</f>
-        <v>0.90052096254031255</v>
+        <v>0.99057305879434376</v>
       </c>
       <c r="P19" s="1">
-        <v>3.8773148148148147E-2</v>
+        <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q19" s="8">
         <f>IF(P19/$Q$2&lt;=1.001,P19/$Q$2,0.6)</f>
-        <v>0.89740155371015262</v>
+        <v>1</v>
       </c>
       <c r="R19" s="4">
         <f>AVERAGE(G19,I19,K19,M19,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.4284056484060423</v>
+        <v>2.7444866586658585</v>
       </c>
       <c r="S19" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19" s="4" t="str" cm="1">
         <f t="array" ref="T19">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U19" s="29">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V19" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W19" s="29">
         <v>5</v>
       </c>
       <c r="X19" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="Y19" s="29">
         <v>5</v>
-      </c>
-      <c r="Y19" s="29">
-        <v>4.3</v>
       </c>
       <c r="Z19" s="29">
         <v>4.5</v>
       </c>
       <c r="AA19" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.6605216945218126</v>
+        <v>3.8753459975997577</v>
       </c>
       <c r="AB19" s="1">
-        <v>4.1076388888888891E-2</v>
+        <v>3.3819444444444444E-2</v>
       </c>
       <c r="AC19" s="8">
         <f>IF(AB19/$AC$2&lt;=1.01,AB19/$AC$2,0.6)</f>
-        <v>0.99803149606299224</v>
+        <v>0.82170978627671543</v>
       </c>
       <c r="AD19" s="1">
-        <v>3.5995370370370372E-2</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE19" s="8">
         <f>IF(AD19/$AE$2&lt;=1.01,AD19/$AE$2,0.6)</f>
-        <v>0.95898859081097765</v>
+        <v>0.99599136601911809</v>
       </c>
       <c r="AF19" s="1">
-        <v>2.7118055555555555E-2</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="AG19" s="8">
         <f>IF(AF19/$AG$2&lt;=1.01,AF19/$AG$2,0.6)</f>
-        <v>0.72247918593894545</v>
+        <v>0.6</v>
       </c>
       <c r="AH19" s="1">
         <v>1.4722222222222222E-2</v>
@@ -4518,304 +4673,322 @@
         <f>IF(AH19/$AI$2&lt;=1.01,AH19/$AI$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ19" s="1">
+        <v>9.479166666666667E-3</v>
+      </c>
+      <c r="AK19" s="8">
+        <f>IF(AJ19/$AK$2&lt;=1.01,AJ19/$AK$2,0.6)</f>
+        <v>0.26385309278350516</v>
+      </c>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>90</v>
+      <c r="C20" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D20">
-        <v>1107837304</v>
+        <v>1004189893</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F20" s="3">
-        <v>3.8090277777777778E-2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="8">
         <f>IF(F20/$G$2&lt;=1.001,F20/$G$2,0.6)</f>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>3.8541666666666669E-2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="8">
         <f>IF(H20/$I$2&lt;=1.001,H20/$I$2,0.6)</f>
-        <v>0.96886819901076515</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>3.3229166666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="8">
         <f>IF(J20/$K$2&lt;=1.001,J20/$K$2,0.6)</f>
-        <v>0.92433998712169996</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>5.115740740740741E-3</v>
+        <v>0</v>
       </c>
       <c r="M20" s="8">
         <f>IF(L20/$M$2&lt;=1.001,L20/$M$2,0.6)</f>
-        <v>0.22505091649694503</v>
+        <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>4.4849537037037035E-2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="8">
         <f>IF(N20/$O$2&lt;=1.001,N20/$O$2,0.6)</f>
-        <v>0.9612999255767799</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>3.9386574074074074E-2</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="8">
         <f>IF(P20/$Q$2&lt;=1.001,P20/$Q$2,0.6)</f>
-        <v>0.91159924993302976</v>
+        <v>0</v>
       </c>
       <c r="R20" s="4">
         <f>AVERAGE(G20,I20,K20,M20,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.8259652317826838</v>
-      </c>
-      <c r="S20" s="13">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S20" s="13"/>
       <c r="T20" s="4" t="str" cm="1">
         <f t="array" ref="T20">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+        <v>--</v>
       </c>
       <c r="U20" s="29">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="V20" s="29">
-        <v>4.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="W20" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X20" s="29">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.2137895695348053</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="1">
-        <v>3.8101851851851852E-2</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="8">
         <f>IF(AB20/$AC$2&lt;=1.01,AB20/$AC$2,0.6)</f>
-        <v>0.92575928008998876</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="8">
         <f>IF(AD20/$AE$2&lt;=1.01,AD20/$AE$2,0.6)</f>
-        <v>0.99599136601911809</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="8">
-        <v>1</v>
+        <f>IF(AF20/$AG$2&lt;=1.01,AF20/$AG$2,0.6)</f>
+        <v>0</v>
       </c>
       <c r="AH20" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="8">
         <f>IF(AH20/$AI$2&lt;=1.01,AH20/$AI$2,0.6)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="8">
+        <f>IF(AJ20/$AK$2&lt;=1.01,AJ20/$AK$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>1112041894</v>
+        <v>1062276579</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F21" s="3">
-        <v>3.7592592592592594E-2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="8">
         <f>IF(F21/$G$2&lt;=1.001,F21/$G$2,0.6)</f>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>2.7164351851851853E-2</v>
+        <v>3.9016203703703706E-2</v>
       </c>
       <c r="I21" s="8">
         <f>IF(H21/$I$2&lt;=1.001,H21/$I$2,0.6)</f>
-        <v>0.68286296188536511</v>
+        <v>0.98079720686645322</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K21" s="8">
         <f>IF(J21/$K$2&lt;=1.001,J21/$K$2,0.6)</f>
-        <v>0</v>
+        <v>1.00032195750161</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>2.2650462962962963E-2</v>
       </c>
       <c r="M21" s="8">
         <f>IF(L21/$M$2&lt;=1.001,L21/$M$2,0.6)</f>
-        <v>0</v>
+        <v>0.99643584521384931</v>
       </c>
       <c r="N21" s="1">
-        <v>4.1226851851851855E-2</v>
+        <v>0</v>
       </c>
       <c r="O21" s="8">
         <f>IF(N21/$O$2&lt;=1.001,N21/$O$2,0.6)</f>
-        <v>0.88365169933019105</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>4.2858796296296298E-2</v>
+        <v>7.8240740740740736E-3</v>
       </c>
       <c r="Q21" s="8">
         <f>IF(P21/$Q$2&lt;=1.001,P21/$Q$2,0.6)</f>
-        <v>0.99196356817573006</v>
+        <v>0.18108759710688452</v>
       </c>
       <c r="R21" s="4">
         <f>AVERAGE(G21,I21,K21,M21,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.6320651911594055</v>
+        <v>2.6322021722406648</v>
       </c>
       <c r="S21" s="13">
-        <v>5</v>
-      </c>
-      <c r="T21" s="4" t="str" cm="1">
+        <v>8</v>
+      </c>
+      <c r="T21" s="4" t="e" cm="1">
         <f t="array" ref="T21">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+        <v>#N/A</v>
       </c>
       <c r="U21" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="29">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="W21" s="29">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="X21" s="29">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="29">
         <v>0</v>
       </c>
       <c r="Z21" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>2.6236195573478214</v>
+        <v>1.3916606516721994</v>
       </c>
       <c r="AB21" s="1">
-        <v>4.0208333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="8">
         <f>IF(AB21/$AC$2&lt;=1.01,AB21/$AC$2,0.6)</f>
-        <v>0.9769403824521935</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="1">
-        <v>3.6712962962962961E-2</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="8">
         <f>IF(AD21/$AE$2&lt;=1.01,AD21/$AE$2,0.6)</f>
-        <v>0.97810669133518346</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="1">
-        <v>3.7557870370370373E-2</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="8">
         <f>IF(AF21/$AG$2&lt;=1.01,AF21/$AG$2,0.6)</f>
-        <v>1.0006167129201358</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="8">
         <f>IF(AH21/$AI$2&lt;=1.01,AH21/$AI$2,0.6)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="8">
+        <f>IF(AJ21/$AK$2&lt;=1.01,AJ21/$AK$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D22">
-        <v>1105366146</v>
+        <v>1058932076</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F22" s="3">
-        <v>3.8437499999999999E-2</v>
+        <v>3.6388888888888887E-2</v>
       </c>
       <c r="G22" s="8">
         <f>IF(F22/$G$2&lt;=1.001,F22/$G$2,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>3.9282407407407405E-2</v>
       </c>
       <c r="I22" s="8">
         <f>IF(H22/$I$2&lt;=1.001,H22/$I$2,0.6)</f>
-        <v>0</v>
+        <v>0.98748908932208301</v>
       </c>
       <c r="J22" s="3">
-        <v>1.3148148148148148E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K22" s="8">
         <f>IF(J22/$K$2&lt;=1.001,J22/$K$2,0.6)</f>
-        <v>0.36574372182871867</v>
+        <v>1.00032195750161</v>
       </c>
       <c r="L22" s="3">
-        <v>7.6620370370370366E-3</v>
+        <v>2.2395833333333334E-2</v>
       </c>
       <c r="M22" s="8">
         <f>IF(L22/$M$2&lt;=1.001,L22/$M$2,0.6)</f>
-        <v>0.33706720977596738</v>
+        <v>0.98523421588594706</v>
       </c>
       <c r="N22" s="1">
-        <v>4.6215277777777779E-2</v>
+        <v>4.6608796296296294E-2</v>
       </c>
       <c r="O22" s="8">
         <f>IF(N22/$O$2&lt;=1.001,N22/$O$2,0.6)</f>
-        <v>0.99057305879434376</v>
+        <v>0.99900769039940451</v>
       </c>
       <c r="P22" s="1">
         <v>4.3206018518518519E-2</v>
@@ -4826,26 +4999,26 @@
       </c>
       <c r="R22" s="4">
         <f>AVERAGE(G22,I22,K22,M22,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.7444866586658585</v>
+        <v>4.6433774609242038</v>
       </c>
       <c r="S22" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T22" s="4" t="str" cm="1">
         <f t="array" ref="T22">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U22" s="29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="V22" s="29">
         <v>4.5</v>
       </c>
-      <c r="V22" s="29">
-        <v>4</v>
-      </c>
       <c r="W22" s="29">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="X22" s="29">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="Y22" s="29">
         <v>5</v>
@@ -4855,28 +5028,28 @@
       </c>
       <c r="AA22" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.8753459975997577</v>
+        <v>4.263013238277261</v>
       </c>
       <c r="AB22" s="1">
-        <v>3.3819444444444444E-2</v>
+        <v>3.6574074074074071E-2</v>
       </c>
       <c r="AC22" s="8">
         <f>IF(AB22/$AC$2&lt;=1.01,AB22/$AC$2,0.6)</f>
-        <v>0.82170978627671543</v>
+        <v>0.88863892013498313</v>
       </c>
       <c r="AD22" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>3.6747685185185182E-2</v>
       </c>
       <c r="AE22" s="8">
         <f>IF(AD22/$AE$2&lt;=1.01,AD22/$AE$2,0.6)</f>
-        <v>0.99599136601911809</v>
+        <v>0.979031760715387</v>
       </c>
       <c r="AF22" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>8.1134259259259267E-3</v>
       </c>
       <c r="AG22" s="8">
         <f>IF(AF22/$AG$2&lt;=1.01,AF22/$AG$2,0.6)</f>
-        <v>0.6</v>
+        <v>0.21615787850755477</v>
       </c>
       <c r="AH22" s="1">
         <v>1.4722222222222222E-2</v>
@@ -4885,38 +5058,47 @@
         <f>IF(AH22/$AI$2&lt;=1.01,AH22/$AI$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ22" s="1">
+        <v>2.6562499999999999E-2</v>
+      </c>
+      <c r="AK22" s="8">
+        <f>IF(AJ22/$AK$2&lt;=1.01,AJ22/$AK$2,0.6)</f>
+        <v>0.73936855670103097</v>
+      </c>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D23">
-        <v>1005892878</v>
+        <v>1113362057</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3">
-        <v>1.744212962962963E-2</v>
+        <v>1.7326388888888888E-2</v>
       </c>
       <c r="G23" s="8">
         <f>IF(F23/$G$2&lt;=1.001,F23/$G$2,0.6)</f>
-        <v>1</v>
+        <v>0.99336429993364284</v>
       </c>
       <c r="H23" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>3.9212962962962963E-2</v>
       </c>
       <c r="I23" s="8">
         <f>IF(H23/$I$2&lt;=1.001,H23/$I$2,0.6)</f>
-        <v>1.0008728542333429</v>
+        <v>0.98574338085539703</v>
       </c>
       <c r="J23" s="3">
         <v>3.5960648148148151E-2</v>
@@ -4926,119 +5108,126 @@
         <v>1.00032195750161</v>
       </c>
       <c r="L23" s="3">
-        <v>1.8935185185185187E-2</v>
+        <v>2.2268518518518517E-2</v>
       </c>
       <c r="M23" s="8">
         <f>IF(L23/$M$2&lt;=1.001,L23/$M$2,0.6)</f>
-        <v>0.83299389002036672</v>
+        <v>0.97963340122199594</v>
       </c>
       <c r="N23" s="1">
-        <v>4.5497685185185183E-2</v>
+        <v>4.6527777777777779E-2</v>
       </c>
       <c r="O23" s="8">
         <f>IF(N23/$O$2&lt;=1.001,N23/$O$2,0.6)</f>
-        <v>0.97519225998511527</v>
+        <v>0.99727114859836263</v>
       </c>
       <c r="P23" s="1">
-        <v>4.1145833333333333E-2</v>
+        <v>3.2187500000000001E-2</v>
       </c>
       <c r="Q23" s="8">
         <f>IF(P23/$Q$2&lt;=1.001,P23/$Q$2,0.6)</f>
-        <v>0.95231717117599779</v>
+        <v>0.7449772301098313</v>
       </c>
       <c r="R23" s="4">
         <f>AVERAGE(G23,I23,K23,M23,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.8014151107636938</v>
+        <v>4.7510928485173665</v>
       </c>
       <c r="S23" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T23" s="4" t="str" cm="1">
         <f t="array" ref="T23">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U23" s="29">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V23" s="29">
-        <v>4.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W23" s="29">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="X23" s="29">
         <v>3.3</v>
       </c>
       <c r="Y23" s="29">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="Z23" s="29">
         <v>4.5</v>
       </c>
       <c r="AA23" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.562424533229108</v>
+        <v>4.4773278545552095</v>
       </c>
       <c r="AB23" s="1">
-        <v>3.9305555555555559E-2</v>
+        <v>3.8055555555555558E-2</v>
       </c>
       <c r="AC23" s="8">
         <f>IF(AB23/$AC$2&lt;=1.01,AB23/$AC$2,0.6)</f>
-        <v>0.95500562429696301</v>
+        <v>0.92463442069741286</v>
       </c>
       <c r="AD23" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>1.3356481481481481E-2</v>
       </c>
       <c r="AE23" s="8">
         <f>IF(AD23/$AE$2&lt;=1.01,AD23/$AE$2,0.6)</f>
-        <v>0.99599136601911809</v>
+        <v>0.35584335491828556</v>
       </c>
       <c r="AF23" s="1">
-        <v>2.9363425925925925E-2</v>
+        <v>2.5115740740740741E-2</v>
       </c>
       <c r="AG23" s="8">
         <f>IF(AF23/$AG$2&lt;=1.01,AF23/$AG$2,0.6)</f>
-        <v>0.78230033919210606</v>
+        <v>0.66913351834720947</v>
       </c>
       <c r="AH23" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>1.2256944444444445E-2</v>
       </c>
       <c r="AI23" s="8">
         <f>IF(AH23/$AI$2&lt;=1.01,AH23/$AI$2,0.6)</f>
+        <v>0.83254716981132082</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>3.5925925925925924E-2</v>
+      </c>
+      <c r="AK23" s="8">
+        <f>IF(AJ23/$AK$2&lt;=1.01,AJ23/$AK$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D24">
-        <v>1107839506</v>
+        <v>1112389849</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F24" s="3">
-        <v>1.744212962962963E-2</v>
+        <v>4.3043981481481482E-2</v>
       </c>
       <c r="G24" s="8">
         <f>IF(F24/$G$2&lt;=1.001,F24/$G$2,0.6)</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H24" s="3">
-        <v>3.9270833333333331E-2</v>
+        <v>3.923611111111111E-2</v>
       </c>
       <c r="I24" s="8">
         <f>IF(H24/$I$2&lt;=1.001,H24/$I$2,0.6)</f>
-        <v>0.98719813791096878</v>
+        <v>0.98632528367762573</v>
       </c>
       <c r="J24" s="3">
         <v>3.591435185185185E-2</v>
@@ -5048,29 +5237,29 @@
         <v>0.99903412749517073</v>
       </c>
       <c r="L24" s="3">
-        <v>1.9351851851851853E-2</v>
+        <v>2.2731481481481481E-2</v>
       </c>
       <c r="M24" s="8">
         <f>IF(L24/$M$2&lt;=1.001,L24/$M$2,0.6)</f>
-        <v>0.85132382892057035</v>
+        <v>1</v>
       </c>
       <c r="N24" s="1">
-        <v>4.2256944444444444E-2</v>
+        <v>4.659722222222222E-2</v>
       </c>
       <c r="O24" s="8">
         <f>IF(N24/$O$2&lt;=1.001,N24/$O$2,0.6)</f>
-        <v>0.9057305879434383</v>
+        <v>0.99875961299925564</v>
       </c>
       <c r="P24" s="1">
-        <v>3.9687500000000001E-2</v>
+        <v>4.189814814814815E-2</v>
       </c>
       <c r="Q24" s="8">
         <f>IF(P24/$Q$2&lt;=1.001,P24/$Q$2,0.6)</f>
-        <v>0.91856415751406373</v>
+        <v>0.96972944012858298</v>
       </c>
       <c r="R24" s="4">
         <f>AVERAGE(G24,I24,K24,M24,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.71820903315351</v>
+        <v>4.6282070535838633</v>
       </c>
       <c r="S24" s="13">
         <v>6</v>
@@ -5080,13 +5269,13 @@
         <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U24" s="29">
+        <v>5</v>
+      </c>
+      <c r="V24" s="29">
         <v>4.5999999999999996</v>
       </c>
-      <c r="V24" s="29">
-        <v>4.7</v>
-      </c>
       <c r="W24" s="29">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="X24" s="29">
         <v>3.3</v>
@@ -5099,28 +5288,28 @@
       </c>
       <c r="AA24" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.341462709946053</v>
+        <v>4.3564621160751589</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>3.7615740740740741E-2</v>
       </c>
       <c r="AC24" s="8">
         <f>IF(AB24/$AC$2&lt;=1.01,AB24/$AC$2,0.6)</f>
-        <v>0</v>
+        <v>0.91394825646794153</v>
       </c>
       <c r="AD24" s="1">
-        <v>3.712962962962963E-2</v>
+        <v>3.5624999999999997E-2</v>
       </c>
       <c r="AE24" s="8">
         <f>IF(AD24/$AE$2&lt;=1.01,AD24/$AE$2,0.6)</f>
-        <v>0.98920752389762578</v>
+        <v>0.94912118408880664</v>
       </c>
       <c r="AF24" s="1">
-        <v>0</v>
+        <v>3.6076388888888887E-2</v>
       </c>
       <c r="AG24" s="8">
         <f>IF(AF24/$AG$2&lt;=1.01,AF24/$AG$2,0.6)</f>
-        <v>0</v>
+        <v>0.96114708603145238</v>
       </c>
       <c r="AH24" s="1">
         <v>1.4722222222222222E-2</v>
@@ -5129,122 +5318,126 @@
         <f>IF(AH24/$AI$2&lt;=1.01,AH24/$AI$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ24" s="1">
+        <v>3.1932870370370368E-2</v>
+      </c>
+      <c r="AK24" s="8">
+        <f>IF(AJ24/$AK$2&lt;=1.01,AJ24/$AK$2,0.6)</f>
+        <v>0.88885309278350511</v>
+      </c>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D25">
-        <v>1112389849</v>
+        <v>1036925847</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F25" s="3">
-        <v>4.3043981481481482E-2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="8">
         <f>IF(F25/$G$2&lt;=1.001,F25/$G$2,0.6)</f>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
-        <v>3.923611111111111E-2</v>
+        <v>3.9178240740740743E-2</v>
       </c>
       <c r="I25" s="8">
         <f>IF(H25/$I$2&lt;=1.001,H25/$I$2,0.6)</f>
-        <v>0.98632528367762573</v>
+        <v>0.9848705266220541</v>
       </c>
       <c r="J25" s="3">
-        <v>3.591435185185185E-2</v>
+        <v>3.5844907407407409E-2</v>
       </c>
       <c r="K25" s="8">
         <f>IF(J25/$K$2&lt;=1.001,J25/$K$2,0.6)</f>
-        <v>0.99903412749517073</v>
+        <v>0.99710238248551208</v>
       </c>
       <c r="L25" s="3">
-        <v>2.2731481481481481E-2</v>
+        <v>0</v>
       </c>
       <c r="M25" s="8">
         <f>IF(L25/$M$2&lt;=1.001,L25/$M$2,0.6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="1">
-        <v>4.659722222222222E-2</v>
+        <v>3.7858796296296293E-2</v>
       </c>
       <c r="O25" s="8">
         <f>IF(N25/$O$2&lt;=1.001,N25/$O$2,0.6)</f>
-        <v>0.99875961299925564</v>
+        <v>0.81146117588687661</v>
       </c>
       <c r="P25" s="1">
-        <v>4.189814814814815E-2</v>
+        <v>3.1886574074074074E-2</v>
       </c>
       <c r="Q25" s="8">
         <f>IF(P25/$Q$2&lt;=1.001,P25/$Q$2,0.6)</f>
-        <v>0.96972944012858298</v>
+        <v>0.73801232252879723</v>
       </c>
       <c r="R25" s="4">
         <f>AVERAGE(G25,I25,K25,M25,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6282070535838633</v>
+        <v>2.9428720062693667</v>
       </c>
       <c r="S25" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T25" s="4" t="str" cm="1">
         <f t="array" ref="T25">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Tortuga" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U25" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V25" s="29">
-        <v>4.5999999999999996</v>
+        <v>1.9</v>
       </c>
       <c r="W25" s="29">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="X25" s="29">
-        <v>3.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y25" s="29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z25" s="29">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="AA25" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.3564621160751589</v>
+        <v>2.0728616018808097</v>
       </c>
       <c r="AB25" s="1">
-        <v>3.7615740740740741E-2</v>
+        <v>4.1157407407407406E-2</v>
       </c>
       <c r="AC25" s="8">
         <f>IF(AB25/$AC$2&lt;=1.01,AB25/$AC$2,0.6)</f>
-        <v>0.91394825646794153</v>
+        <v>1</v>
       </c>
       <c r="AD25" s="1">
-        <v>3.5624999999999997E-2</v>
+        <v>3.7291666666666667E-2</v>
       </c>
       <c r="AE25" s="8">
         <f>IF(AD25/$AE$2&lt;=1.01,AD25/$AE$2,0.6)</f>
-        <v>0.94912118408880664</v>
+        <v>0.99352451433857547</v>
       </c>
       <c r="AF25" s="1">
-        <v>3.6076388888888887E-2</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="AG25" s="8">
-        <f>IF(AF25/$AG$2&lt;=1.01,AF25/$AG$2,0.6)</f>
-        <v>0.96114708603145238</v>
+        <v>1</v>
       </c>
       <c r="AH25" s="1">
         <v>1.4722222222222222E-2</v>
@@ -5253,83 +5446,90 @@
         <f>IF(AH25/$AI$2&lt;=1.01,AH25/$AI$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="AJ25" s="4"/>
-      <c r="AK25" s="4"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ25" s="1">
+        <v>3.3252314814814818E-2</v>
+      </c>
+      <c r="AK25" s="8">
+        <f>IF(AJ25/$AK$2&lt;=1.01,AJ25/$AK$2,0.6)</f>
+        <v>0.92557989690721665</v>
+      </c>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D26">
-        <v>1076904274</v>
+        <v>1107837413</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F26" s="3">
-        <v>1.7430555555555557E-2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="8">
         <f>IF(F26/$G$2&lt;=1.001,F26/$G$2,0.6)</f>
-        <v>0.99933642999336436</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>3.9814814814814817E-2</v>
+        <v>3.7743055555555557E-2</v>
       </c>
       <c r="I26" s="8">
         <f>IF(H26/$I$2&lt;=1.001,H26/$I$2,0.6)</f>
-        <v>1.0008728542333429</v>
+        <v>0.94879255164387544</v>
       </c>
       <c r="J26" s="3">
-        <v>3.5451388888888886E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="K26" s="8">
         <f>IF(J26/$K$2&lt;=1.001,J26/$K$2,0.6)</f>
-        <v>0.98615582743077912</v>
+        <v>0.99935608499678041</v>
       </c>
       <c r="L26" s="3">
-        <v>1.4166666666666666E-2</v>
+        <v>2.0636574074074075E-2</v>
       </c>
       <c r="M26" s="8">
         <f>IF(L26/$M$2&lt;=1.001,L26/$M$2,0.6)</f>
-        <v>0.62321792260692466</v>
+        <v>0.90784114052953158</v>
       </c>
       <c r="N26" s="1">
-        <v>4.6666666666666669E-2</v>
+        <v>0</v>
       </c>
       <c r="O26" s="8">
         <f>IF(N26/$O$2&lt;=1.001,N26/$O$2,0.6)</f>
-        <v>1.0002480774001488</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>4.3159722222222224E-2</v>
+        <v>3.9016203703703706E-2</v>
       </c>
       <c r="Q26" s="8">
         <f>IF(P26/$Q$2&lt;=1.001,P26/$Q$2,0.6)</f>
-        <v>0.99892847575676402</v>
+        <v>0.90302705598714172</v>
       </c>
       <c r="R26" s="4">
         <f>AVERAGE(G26,I26,K26,M26,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6739663228511033</v>
+        <v>3.1325140276311076</v>
       </c>
       <c r="S26" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T26" s="4" t="str" cm="1">
         <f t="array" ref="T26">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Ratón" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U26" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="V26" s="29">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="W26" s="29">
         <v>5</v>
@@ -5338,34 +5538,35 @@
         <v>3.3</v>
       </c>
       <c r="Y26" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z26" s="29">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AA26" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>3.7541898968553307</v>
+        <v>3.977754208289332</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>3.8090277777777778E-2</v>
       </c>
       <c r="AC26" s="8">
         <f>IF(AB26/$AC$2&lt;=1.01,AB26/$AC$2,0.6)</f>
-        <v>0</v>
+        <v>0.92547806524184484</v>
       </c>
       <c r="AD26" s="1">
-        <v>0</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE26" s="8">
         <f>IF(AD26/$AE$2&lt;=1.01,AD26/$AE$2,0.6)</f>
-        <v>0</v>
+        <v>0.99599136601911809</v>
       </c>
       <c r="AF26" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>2.8125000000000001E-2</v>
       </c>
       <c r="AG26" s="8">
-        <v>1</v>
+        <f>IF(AF26/$AG$2&lt;=1.01,AF26/$AG$2,0.6)</f>
+        <v>0.74930619796484743</v>
       </c>
       <c r="AH26" s="1">
         <v>1.4722222222222222E-2</v>
@@ -5374,162 +5575,172 @@
         <f>IF(AH26/$AI$2&lt;=1.01,AH26/$AI$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="8">
+        <f>IF(AJ26/$AK$2&lt;=1.01,AJ26/$AK$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>91</v>
+        <v>29</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="D27">
-        <v>1058932076</v>
+        <v>1234198199</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F27" s="3">
-        <v>3.6388888888888887E-2</v>
+        <v>1.7337962962962961E-2</v>
       </c>
       <c r="G27" s="8">
         <f>IF(F27/$G$2&lt;=1.001,F27/$G$2,0.6)</f>
-        <v>0.6</v>
+        <v>0.99402786994027859</v>
       </c>
       <c r="H27" s="3">
-        <v>3.9282407407407405E-2</v>
+        <v>3.8796296296296294E-2</v>
       </c>
       <c r="I27" s="8">
         <f>IF(H27/$I$2&lt;=1.001,H27/$I$2,0.6)</f>
-        <v>0.98748908932208301</v>
+        <v>0.9752691300552806</v>
       </c>
       <c r="J27" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>2.2928240740740742E-2</v>
       </c>
       <c r="K27" s="8">
         <f>IF(J27/$K$2&lt;=1.001,J27/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
+        <v>0.63779781068898911</v>
       </c>
       <c r="L27" s="3">
-        <v>2.2395833333333334E-2</v>
+        <v>7.1296296296296299E-3</v>
       </c>
       <c r="M27" s="8">
         <f>IF(L27/$M$2&lt;=1.001,L27/$M$2,0.6)</f>
-        <v>0.98523421588594706</v>
+        <v>0.31364562118126277</v>
       </c>
       <c r="N27" s="1">
-        <v>4.6608796296296294E-2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="8">
         <f>IF(N27/$O$2&lt;=1.001,N27/$O$2,0.6)</f>
-        <v>0.99900769039940451</v>
+        <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="8">
         <f>IF(P27/$Q$2&lt;=1.001,P27/$Q$2,0.6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="4">
         <f>AVERAGE(G27,I27,K27,M27,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.6433774609242038</v>
-      </c>
-      <c r="S27" s="13">
-        <v>7</v>
-      </c>
+        <v>2.433950359888176</v>
+      </c>
+      <c r="S27" s="13"/>
       <c r="T27" s="4" t="str" cm="1">
         <f t="array" ref="T27">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+        <v>--</v>
       </c>
       <c r="U27" s="29">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="V27" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="W27" s="29">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="X27" s="29">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="29">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.263013238277261</v>
+        <v>0.73018510796645275</v>
       </c>
       <c r="AB27" s="1">
-        <v>3.6574074074074071E-2</v>
+        <v>3.8101851851851852E-2</v>
       </c>
       <c r="AC27" s="8">
         <f>IF(AB27/$AC$2&lt;=1.01,AB27/$AC$2,0.6)</f>
-        <v>0.88863892013498313</v>
+        <v>0.92575928008998876</v>
       </c>
       <c r="AD27" s="1">
-        <v>3.6747685185185182E-2</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="8">
         <f>IF(AD27/$AE$2&lt;=1.01,AD27/$AE$2,0.6)</f>
-        <v>0.979031760715387</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>8.1134259259259267E-3</v>
+        <v>1.4351851851851852E-3</v>
       </c>
       <c r="AG27" s="8">
         <f>IF(AF27/$AG$2&lt;=1.01,AF27/$AG$2,0.6)</f>
-        <v>0.21615787850755477</v>
+        <v>3.8236201048411966E-2</v>
       </c>
       <c r="AH27" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="8">
         <f>IF(AH27/$AI$2&lt;=1.01,AH27/$AI$2,0.6)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="8">
+        <f>IF(AJ27/$AK$2&lt;=1.01,AJ27/$AK$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D28">
-        <v>1113362057</v>
+        <v>1005892878</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F28" s="3">
-        <v>1.7326388888888888E-2</v>
+        <v>1.744212962962963E-2</v>
       </c>
       <c r="G28" s="8">
         <f>IF(F28/$G$2&lt;=1.001,F28/$G$2,0.6)</f>
-        <v>0.99336429993364284</v>
+        <v>1</v>
       </c>
       <c r="H28" s="3">
-        <v>3.9212962962962963E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I28" s="8">
         <f>IF(H28/$I$2&lt;=1.001,H28/$I$2,0.6)</f>
-        <v>0.98574338085539703</v>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J28" s="3">
         <v>3.5960648148148151E-2</v>
@@ -5539,200 +5750,208 @@
         <v>1.00032195750161</v>
       </c>
       <c r="L28" s="3">
-        <v>2.2268518518518517E-2</v>
+        <v>1.8935185185185187E-2</v>
       </c>
       <c r="M28" s="8">
         <f>IF(L28/$M$2&lt;=1.001,L28/$M$2,0.6)</f>
-        <v>0.97963340122199594</v>
+        <v>0.83299389002036672</v>
       </c>
       <c r="N28" s="1">
-        <v>4.6527777777777779E-2</v>
+        <v>4.5497685185185183E-2</v>
       </c>
       <c r="O28" s="8">
         <f>IF(N28/$O$2&lt;=1.001,N28/$O$2,0.6)</f>
-        <v>0.99727114859836263</v>
+        <v>0.97519225998511527</v>
       </c>
       <c r="P28" s="1">
-        <v>3.2187500000000001E-2</v>
+        <v>4.1145833333333333E-2</v>
       </c>
       <c r="Q28" s="8">
         <f>IF(P28/$Q$2&lt;=1.001,P28/$Q$2,0.6)</f>
-        <v>0.7449772301098313</v>
+        <v>0.95231717117599779</v>
       </c>
       <c r="R28" s="4">
         <f>AVERAGE(G28,I28,K28,M28,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.7510928485173665</v>
+        <v>4.8014151107636938</v>
       </c>
       <c r="S28" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T28" s="4" t="str" cm="1">
         <f t="array" ref="T28">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Caracol" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U28" s="29">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="V28" s="29">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="W28" s="29">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X28" s="29">
         <v>3.3</v>
       </c>
       <c r="Y28" s="29">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="Z28" s="29">
         <v>4.5</v>
       </c>
       <c r="AA28" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.4773278545552095</v>
+        <v>4.562424533229108</v>
       </c>
       <c r="AB28" s="1">
-        <v>3.8055555555555558E-2</v>
+        <v>3.9305555555555559E-2</v>
       </c>
       <c r="AC28" s="8">
         <f>IF(AB28/$AC$2&lt;=1.01,AB28/$AC$2,0.6)</f>
-        <v>0.92463442069741286</v>
+        <v>0.95500562429696301</v>
       </c>
       <c r="AD28" s="1">
-        <v>1.3356481481481481E-2</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE28" s="8">
         <f>IF(AD28/$AE$2&lt;=1.01,AD28/$AE$2,0.6)</f>
-        <v>0.35584335491828556</v>
+        <v>0.99599136601911809</v>
       </c>
       <c r="AF28" s="1">
-        <v>2.5115740740740741E-2</v>
+        <v>2.9363425925925925E-2</v>
       </c>
       <c r="AG28" s="8">
         <f>IF(AF28/$AG$2&lt;=1.01,AF28/$AG$2,0.6)</f>
-        <v>0.66913351834720947</v>
+        <v>0.78230033919210606</v>
       </c>
       <c r="AH28" s="1">
-        <v>1.2256944444444445E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI28" s="8">
         <f>IF(AH28/$AI$2&lt;=1.01,AH28/$AI$2,0.6)</f>
-        <v>0.83254716981132082</v>
-      </c>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>3.5925925925925924E-2</v>
+      </c>
+      <c r="AK28" s="8">
+        <f>IF(AJ28/$AK$2&lt;=1.01,AJ28/$AK$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="D29">
-        <v>1002886235</v>
+        <v>1104804719</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F29" s="3">
-        <v>1.7395833333333333E-2</v>
+        <v>3.4641203703703702E-2</v>
       </c>
       <c r="G29" s="8">
         <f>IF(F29/$G$2&lt;=1.001,F29/$G$2,0.6)</f>
-        <v>0.99734571997345711</v>
+        <v>0.6</v>
       </c>
       <c r="H29" s="3">
-        <v>3.8217592592592595E-2</v>
+        <v>3.9178240740740743E-2</v>
       </c>
       <c r="I29" s="8">
         <f>IF(H29/$I$2&lt;=1.001,H29/$I$2,0.6)</f>
-        <v>0.9607215594995635</v>
+        <v>0.9848705266220541</v>
       </c>
       <c r="J29" s="3">
-        <v>3.5960648148148151E-2</v>
+        <v>3.5856481481481482E-2</v>
       </c>
       <c r="K29" s="8">
         <f>IF(J29/$K$2&lt;=1.001,J29/$K$2,0.6)</f>
-        <v>1.00032195750161</v>
+        <v>0.99742433998712177</v>
       </c>
       <c r="L29" s="3">
-        <v>2.2662037037037036E-2</v>
+        <v>1.9652777777777779E-2</v>
       </c>
       <c r="M29" s="8">
         <f>IF(L29/$M$2&lt;=1.001,L29/$M$2,0.6)</f>
-        <v>0.9969450101832994</v>
+        <v>0.86456211812627304</v>
       </c>
       <c r="N29" s="1">
-        <v>4.6666666666666669E-2</v>
+        <v>0</v>
       </c>
       <c r="O29" s="8">
         <f>IF(N29/$O$2&lt;=1.001,N29/$O$2,0.6)</f>
-        <v>1.0002480774001488</v>
+        <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>4.3206018518518519E-2</v>
+        <v>3.9768518518518516E-2</v>
       </c>
       <c r="Q29" s="8">
         <f>IF(P29/$Q$2&lt;=1.001,P29/$Q$2,0.6)</f>
-        <v>1</v>
+        <v>0.92043932493972669</v>
       </c>
       <c r="R29" s="4">
         <f>AVERAGE(G29,I29,K29,M29,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.9629852704650652</v>
+        <v>3.6394135913959795</v>
       </c>
       <c r="S29" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T29" s="4" t="str" cm="1">
         <f t="array" ref="T29">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U29" s="29">
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="V29" s="29">
-        <v>4.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W29" s="29">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X29" s="29">
         <v>3.3</v>
       </c>
       <c r="Y29" s="29">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Z29" s="29">
         <v>4.5</v>
       </c>
       <c r="AA29" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>4.5548955811395198</v>
+        <v>4.2698240774187939</v>
       </c>
       <c r="AB29" s="1">
-        <v>4.1157407407407406E-2</v>
+        <v>4.0914351851851855E-2</v>
       </c>
       <c r="AC29" s="8">
         <f>IF(AB29/$AC$2&lt;=1.01,AB29/$AC$2,0.6)</f>
-        <v>1</v>
+        <v>0.9940944881889765</v>
       </c>
       <c r="AD29" s="1">
-        <v>0</v>
+        <v>1.6608796296296295E-2</v>
       </c>
       <c r="AE29" s="8">
         <f>IF(AD29/$AE$2&lt;=1.01,AD29/$AE$2,0.6)</f>
-        <v>0</v>
+        <v>0.44249152019734816</v>
       </c>
       <c r="AF29" s="1">
-        <v>3.8368055555555558E-2</v>
+        <v>3.4942129629629629E-2</v>
       </c>
       <c r="AG29" s="8">
-        <v>1</v>
+        <f>IF(AF29/$AG$2&lt;=1.01,AF29/$AG$2,0.6)</f>
+        <v>0.93092815294480424</v>
       </c>
       <c r="AH29" s="1">
         <v>1.4722222222222222E-2</v>
@@ -5741,113 +5960,120 @@
         <f>IF(AH29/$AI$2&lt;=1.01,AH29/$AI$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ29" s="1">
+        <v>1.3819444444444445E-2</v>
+      </c>
+      <c r="AK29" s="8">
+        <f>IF(AJ29/$AK$2&lt;=1.01,AJ29/$AK$2,0.6)</f>
+        <v>0.38466494845360827</v>
+      </c>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D30">
-        <v>1061688602</v>
+        <v>1005832925</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F30" s="3">
-        <v>1.7303240740740741E-2</v>
+        <v>1.7314814814814814E-2</v>
       </c>
       <c r="G30" s="8">
         <f>IF(F30/$G$2&lt;=1.001,F30/$G$2,0.6)</f>
-        <v>0.99203715992037156</v>
+        <v>0.9927007299270072</v>
       </c>
       <c r="H30" s="3">
-        <v>3.9247685185185184E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I30" s="8">
         <f>IF(H30/$I$2&lt;=1.001,H30/$I$2,0.6)</f>
-        <v>0.98661623508874008</v>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J30" s="3">
-        <v>3.5891203703703703E-2</v>
+        <v>3.5868055555555556E-2</v>
       </c>
       <c r="K30" s="8">
         <f>IF(J30/$K$2&lt;=1.001,J30/$K$2,0.6)</f>
-        <v>0.99839021249195115</v>
+        <v>0.99774629748873156</v>
       </c>
       <c r="L30" s="3">
-        <v>2.162037037037037E-2</v>
+        <v>2.1909722222222223E-2</v>
       </c>
       <c r="M30" s="8">
         <f>IF(L30/$M$2&lt;=1.001,L30/$M$2,0.6)</f>
-        <v>0.95112016293279023</v>
+        <v>0.96384928716904283</v>
       </c>
       <c r="N30" s="1">
-        <v>4.6122685185185183E-2</v>
+        <v>4.6631944444444441E-2</v>
       </c>
       <c r="O30" s="8">
         <f>IF(N30/$O$2&lt;=1.001,N30/$O$2,0.6)</f>
-        <v>0.98858843959315301</v>
+        <v>0.99950384519970215</v>
       </c>
       <c r="P30" s="1">
-        <v>0</v>
+        <v>4.2488425925925923E-2</v>
       </c>
       <c r="Q30" s="8">
         <f>IF(P30/$Q$2&lt;=1.001,P30/$Q$2,0.6)</f>
-        <v>0</v>
+        <v>0.98339137422984191</v>
       </c>
       <c r="R30" s="4">
         <f>AVERAGE(G30,I30,K30,M30,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>4.0972935083558388</v>
+        <v>4.9483869902063908</v>
       </c>
       <c r="S30" s="13">
-        <v>8</v>
-      </c>
-      <c r="T30" s="4" t="e" cm="1">
+        <v>3</v>
+      </c>
+      <c r="T30" s="4" t="str" cm="1">
         <f t="array" ref="T30">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>#N/A</v>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U30" s="29">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="V30" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W30" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X30" s="29">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Y30" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z30" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA30" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>1.6911880525067515</v>
+        <v>4.9145160970619175</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>3.8379629629629632E-2</v>
       </c>
       <c r="AC30" s="8">
         <f>IF(AB30/$AC$2&lt;=1.01,AB30/$AC$2,0.6)</f>
-        <v>0</v>
+        <v>0.93250843644544434</v>
       </c>
       <c r="AD30" s="1">
-        <v>0</v>
+        <v>3.3958333333333333E-2</v>
       </c>
       <c r="AE30" s="8">
         <f>IF(AD30/$AE$2&lt;=1.01,AD30/$AE$2,0.6)</f>
-        <v>0</v>
+        <v>0.90471785383903802</v>
       </c>
       <c r="AF30" s="1">
         <v>3.8368055555555558E-2</v>
@@ -5862,40 +6088,45 @@
         <f>IF(AH30/$AI$2&lt;=1.01,AH30/$AI$2,0.6)</f>
         <v>1</v>
       </c>
-      <c r="AJ30" s="4"/>
-      <c r="AK30" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ30" s="1">
+        <v>3.5925925925925924E-2</v>
+      </c>
+      <c r="AK30" s="8">
+        <f>IF(AJ30/$AK$2&lt;=1.01,AJ30/$AK$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D31">
-        <v>1062276579</v>
+        <v>1006343564</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="F31" s="3">
-        <v>0</v>
+        <v>1.7337962962962961E-2</v>
       </c>
       <c r="G31" s="8">
         <f>IF(F31/$G$2&lt;=1.001,F31/$G$2,0.6)</f>
-        <v>0</v>
+        <v>0.99402786994027859</v>
       </c>
       <c r="H31" s="3">
-        <v>3.9016203703703706E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I31" s="8">
         <f>IF(H31/$I$2&lt;=1.001,H31/$I$2,0.6)</f>
-        <v>0.98079720686645322</v>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J31" s="3">
         <v>3.5960648148148151E-2</v>
@@ -5904,240 +6135,253 @@
         <f>IF(J31/$K$2&lt;=1.001,J31/$K$2,0.6)</f>
         <v>1.00032195750161</v>
       </c>
-      <c r="L31" s="3">
-        <v>2.2650462962962963E-2</v>
-      </c>
-      <c r="M31" s="8">
+      <c r="L31" s="9">
+        <v>2.2731481481481481E-2</v>
+      </c>
+      <c r="M31" s="10">
         <f>IF(L31/$M$2&lt;=1.001,L31/$M$2,0.6)</f>
-        <v>0.99643584521384931</v>
+        <v>1</v>
       </c>
       <c r="N31" s="1">
-        <v>0</v>
+        <v>2.9768518518518517E-2</v>
       </c>
       <c r="O31" s="8">
         <f>IF(N31/$O$2&lt;=1.001,N31/$O$2,0.6)</f>
-        <v>0</v>
+        <v>0.63805507318283294</v>
       </c>
       <c r="P31" s="1">
-        <v>7.8240740740740736E-3</v>
+        <v>4.1909722222222223E-2</v>
       </c>
       <c r="Q31" s="8">
         <f>IF(P31/$Q$2&lt;=1.001,P31/$Q$2,0.6)</f>
-        <v>0.18108759710688452</v>
+        <v>0.96999732118939197</v>
       </c>
       <c r="R31" s="4">
         <f>AVERAGE(G31,I31,K31,M31,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.6322021722406648</v>
+        <v>4.6693958967062139</v>
       </c>
       <c r="S31" s="13">
-        <v>8</v>
-      </c>
-      <c r="T31" s="4" t="e" cm="1">
+        <v>3</v>
+      </c>
+      <c r="T31" s="4" t="str" cm="1">
         <f t="array" ref="T31">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>#N/A</v>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U31" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V31" s="29">
-        <v>2.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W31" s="29">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="X31" s="29">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Y31" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z31" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA31" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>1.3916606516721994</v>
+        <v>4.3968187690118636</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>3.8124999999999999E-2</v>
       </c>
       <c r="AC31" s="8">
         <f>IF(AB31/$AC$2&lt;=1.01,AB31/$AC$2,0.6)</f>
-        <v>0</v>
+        <v>0.9263217097862767</v>
       </c>
       <c r="AD31" s="1">
-        <v>0</v>
+        <v>3.5486111111111114E-2</v>
       </c>
       <c r="AE31" s="8">
         <f>IF(AD31/$AE$2&lt;=1.01,AD31/$AE$2,0.6)</f>
-        <v>0</v>
+        <v>0.94542090656799271</v>
       </c>
       <c r="AF31" s="1">
-        <v>0</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="AG31" s="8">
-        <f>IF(AF31/$AG$2&lt;=1.01,AF31/$AG$2,0.6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH31" s="1">
-        <v>0</v>
+        <v>1.4386574074074074E-2</v>
       </c>
       <c r="AI31" s="8">
         <f>IF(AH31/$AI$2&lt;=1.01,AH31/$AI$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="4"/>
-      <c r="AK31" s="4"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0.97720125786163525</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>3.5925925925925924E-2</v>
+      </c>
+      <c r="AK31" s="8">
+        <f>IF(AJ31/$AK$2&lt;=1.01,AJ31/$AK$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>85</v>
+        <v>30</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="D32">
-        <v>1193276119</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
+        <v>73265790</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F32" s="3">
-        <v>1.7349537037037038E-2</v>
+        <v>4.3611111111111114E-2</v>
       </c>
       <c r="G32" s="8">
         <f>IF(F32/$G$2&lt;=1.001,F32/$G$2,0.6)</f>
-        <v>0.99469143994691445</v>
+        <v>0.6</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>3.9641203703703706E-2</v>
       </c>
       <c r="I32" s="8">
         <f>IF(H32/$I$2&lt;=1.001,H32/$I$2,0.6)</f>
-        <v>0</v>
+        <v>0.99650858306662782</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>3.5879629629629629E-2</v>
       </c>
       <c r="K32" s="8">
         <f>IF(J32/$K$2&lt;=1.001,J32/$K$2,0.6)</f>
-        <v>0</v>
+        <v>0.99806825499034135</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>2.1238425925925924E-2</v>
       </c>
       <c r="M32" s="8">
         <f>IF(L32/$M$2&lt;=1.001,L32/$M$2,0.6)</f>
-        <v>0</v>
+        <v>0.93431771894093685</v>
       </c>
       <c r="N32" s="1">
-        <v>1.5972222222222223E-3</v>
+        <v>4.659722222222222E-2</v>
       </c>
       <c r="O32" s="8">
         <f>IF(N32/$O$2&lt;=1.001,N32/$O$2,0.6)</f>
-        <v>3.4234681220540811E-2</v>
+        <v>0.99875961299925564</v>
       </c>
       <c r="P32" s="1">
-        <v>0</v>
+        <v>4.1886574074074076E-2</v>
       </c>
       <c r="Q32" s="8">
         <f>IF(P32/$Q$2&lt;=1.001,P32/$Q$2,0.6)</f>
-        <v>0</v>
+        <v>0.96946155906777398</v>
       </c>
       <c r="R32" s="4">
         <f>AVERAGE(G32,I32,K32,M32,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>0.85743843430621258</v>
-      </c>
-      <c r="S32" s="13"/>
+        <v>4.5809297742207793</v>
+      </c>
+      <c r="S32" s="13">
+        <v>3</v>
+      </c>
       <c r="T32" s="4" t="str" cm="1">
         <f t="array" ref="T32">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
+        <v>Gesto correspondiente a la palabra "Oveja" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U32" s="29">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V32" s="29">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="W32" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="X32" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y32" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z32" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA32" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0.25723153029186374</v>
+        <v>4.5802789322662338</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>3.8425925925925926E-2</v>
       </c>
       <c r="AC32" s="8">
         <f>IF(AB32/$AC$2&lt;=1.01,AB32/$AC$2,0.6)</f>
-        <v>0</v>
+        <v>0.93363329583802024</v>
       </c>
       <c r="AD32" s="1">
-        <v>0</v>
+        <v>3.7256944444444447E-2</v>
       </c>
       <c r="AE32" s="8">
         <f>IF(AD32/$AE$2&lt;=1.01,AD32/$AE$2,0.6)</f>
-        <v>0</v>
+        <v>0.99259944495837205</v>
       </c>
       <c r="AF32" s="1">
-        <v>0</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="AG32" s="8">
-        <f>IF(AF32/$AG$2&lt;=1.01,AF32/$AG$2,0.6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32" s="1">
-        <v>0</v>
+        <v>2.855324074074074E-2</v>
       </c>
       <c r="AI32" s="8">
-        <f>IF(AH32/$AI$2&lt;=1.01,AH32/$AI$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>1.4675925925925926E-2</v>
+      </c>
+      <c r="AK32" s="8">
+        <f>IF(AJ32/$AK$2&lt;=1.01,AJ32/$AK$2,0.6)</f>
+        <v>0.40850515463917525</v>
+      </c>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>23</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
       </c>
       <c r="D33">
-        <v>1143992171</v>
+        <v>1004217163</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F33" s="3">
-        <v>3.4791666666666665E-2</v>
+        <v>4.1458333333333333E-2</v>
       </c>
       <c r="G33" s="8">
         <f>IF(F33/$G$2&lt;=1.001,F33/$G$2,0.6)</f>
         <v>0.6</v>
       </c>
       <c r="H33" s="3">
-        <v>7.1990740740740739E-3</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I33" s="8">
         <f>IF(H33/$I$2&lt;=1.001,H33/$I$2,0.6)</f>
-        <v>0.1809717777131219</v>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J33" s="3">
         <v>3.5960648148148151E-2</v>
@@ -6147,103 +6391,112 @@
         <v>1.00032195750161</v>
       </c>
       <c r="L33" s="3">
-        <v>1.9398148148148147E-2</v>
+        <v>2.0798611111111111E-2</v>
       </c>
       <c r="M33" s="8">
         <f>IF(L33/$M$2&lt;=1.001,L33/$M$2,0.6)</f>
-        <v>0.85336048879837068</v>
+        <v>0.91496945010183306</v>
       </c>
       <c r="N33" s="1">
-        <v>4.5810185185185183E-2</v>
+        <v>4.2013888888888892E-2</v>
       </c>
       <c r="O33" s="8">
         <f>IF(N33/$O$2&lt;=1.001,N33/$O$2,0.6)</f>
-        <v>0.98189034978913414</v>
+        <v>0.90052096254031255</v>
       </c>
       <c r="P33" s="1">
-        <v>0</v>
+        <v>3.8773148148148147E-2</v>
       </c>
       <c r="Q33" s="8">
         <f>IF(P33/$Q$2&lt;=1.001,P33/$Q$2,0.6)</f>
-        <v>0</v>
+        <v>0.89740155371015262</v>
       </c>
       <c r="R33" s="4">
         <f>AVERAGE(G33,I33,K33,M33,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>3.0137871448351969</v>
-      </c>
-      <c r="S33" s="13"/>
+        <v>4.4284056484060423</v>
+      </c>
+      <c r="S33" s="13">
+        <v>4</v>
+      </c>
       <c r="T33" s="4" t="str" cm="1">
         <f t="array" ref="T33">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
+        <v>Gesto correspondiente a la palabra "Durazno" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U33" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V33" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W33" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X33" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y33" s="29">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="Z33" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA33" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0.90413614345055904</v>
+        <v>4.6605216945218126</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>4.1076388888888891E-2</v>
       </c>
       <c r="AC33" s="8">
         <f>IF(AB33/$AC$2&lt;=1.01,AB33/$AC$2,0.6)</f>
-        <v>0</v>
+        <v>0.99803149606299224</v>
       </c>
       <c r="AD33" s="1">
-        <v>0</v>
+        <v>3.5995370370370372E-2</v>
       </c>
       <c r="AE33" s="8">
         <f>IF(AD33/$AE$2&lt;=1.01,AD33/$AE$2,0.6)</f>
-        <v>0</v>
+        <v>0.95898859081097765</v>
       </c>
       <c r="AF33" s="1">
-        <v>0</v>
+        <v>2.7118055555555555E-2</v>
       </c>
       <c r="AG33" s="8">
         <f>IF(AF33/$AG$2&lt;=1.01,AF33/$AG$2,0.6)</f>
-        <v>0</v>
+        <v>0.72247918593894545</v>
       </c>
       <c r="AH33" s="1">
-        <v>0</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI33" s="8">
         <f>IF(AH33/$AI$2&lt;=1.01,AH33/$AI$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>3.4756944444444444E-2</v>
+      </c>
+      <c r="AK33" s="8">
+        <f>IF(AJ33/$AK$2&lt;=1.01,AJ33/$AK$2,0.6)</f>
+        <v>0.96746134020618568</v>
+      </c>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D34">
-        <v>1004189893</v>
+        <v>1094883894</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -6253,25 +6506,25 @@
         <v>0</v>
       </c>
       <c r="H34" s="3">
-        <v>0</v>
+        <v>3.7743055555555557E-2</v>
       </c>
       <c r="I34" s="8">
         <f>IF(H34/$I$2&lt;=1.001,H34/$I$2,0.6)</f>
-        <v>0</v>
+        <v>0.94879255164387544</v>
       </c>
       <c r="J34" s="3">
-        <v>0</v>
+        <v>2.8715277777777777E-2</v>
       </c>
       <c r="K34" s="8">
         <f>IF(J34/$K$2&lt;=1.001,J34/$K$2,0.6)</f>
-        <v>0</v>
+        <v>0.79877656149388288</v>
       </c>
       <c r="L34" s="3">
-        <v>0</v>
+        <v>1.9212962962962963E-2</v>
       </c>
       <c r="M34" s="8">
         <f>IF(L34/$M$2&lt;=1.001,L34/$M$2,0.6)</f>
-        <v>0</v>
+        <v>0.84521384928716903</v>
       </c>
       <c r="N34" s="1">
         <v>0</v>
@@ -6289,7 +6542,7 @@
       </c>
       <c r="R34" s="4">
         <f>AVERAGE(G34,I34,K34,M34,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>0</v>
+        <v>2.1606524686874393</v>
       </c>
       <c r="S34" s="13"/>
       <c r="T34" s="4" t="str" cm="1">
@@ -6316,7 +6569,7 @@
       </c>
       <c r="AA34" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0</v>
+        <v>0.64819574060623175</v>
       </c>
       <c r="AB34" s="1">
         <v>0</v>
@@ -6326,11 +6579,11 @@
         <v>0</v>
       </c>
       <c r="AD34" s="1">
-        <v>0</v>
+        <v>3.7384259259259256E-2</v>
       </c>
       <c r="AE34" s="8">
         <f>IF(AD34/$AE$2&lt;=1.01,AD34/$AE$2,0.6)</f>
-        <v>0</v>
+        <v>0.99599136601911809</v>
       </c>
       <c r="AF34" s="1">
         <v>0</v>
@@ -6346,104 +6599,113 @@
         <f>IF(AH34/$AI$2&lt;=1.01,AH34/$AI$2,0.6)</f>
         <v>0</v>
       </c>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="4"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="8">
+        <f>IF(AJ34/$AK$2&lt;=1.01,AJ34/$AK$2,0.6)</f>
+        <v>0</v>
+      </c>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>29</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>110</v>
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
       </c>
       <c r="D35">
-        <v>1234198199</v>
+        <v>1076904274</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F35" s="3">
-        <v>1.7337962962962961E-2</v>
+        <v>1.7430555555555557E-2</v>
       </c>
       <c r="G35" s="8">
         <f>IF(F35/$G$2&lt;=1.001,F35/$G$2,0.6)</f>
-        <v>0.99402786994027859</v>
+        <v>0.99933642999336436</v>
       </c>
       <c r="H35" s="3">
-        <v>3.8796296296296294E-2</v>
+        <v>3.9814814814814817E-2</v>
       </c>
       <c r="I35" s="8">
         <f>IF(H35/$I$2&lt;=1.001,H35/$I$2,0.6)</f>
-        <v>0.9752691300552806</v>
+        <v>1.0008728542333429</v>
       </c>
       <c r="J35" s="3">
-        <v>2.2928240740740742E-2</v>
+        <v>3.5451388888888886E-2</v>
       </c>
       <c r="K35" s="8">
         <f>IF(J35/$K$2&lt;=1.001,J35/$K$2,0.6)</f>
-        <v>0.63779781068898911</v>
+        <v>0.98615582743077912</v>
       </c>
       <c r="L35" s="3">
-        <v>7.1296296296296299E-3</v>
+        <v>1.4166666666666666E-2</v>
       </c>
       <c r="M35" s="8">
         <f>IF(L35/$M$2&lt;=1.001,L35/$M$2,0.6)</f>
-        <v>0.31364562118126277</v>
+        <v>0.62321792260692466</v>
       </c>
       <c r="N35" s="1">
-        <v>0</v>
+        <v>4.6666666666666669E-2</v>
       </c>
       <c r="O35" s="8">
         <f>IF(N35/$O$2&lt;=1.001,N35/$O$2,0.6)</f>
-        <v>0</v>
+        <v>1.0002480774001488</v>
       </c>
       <c r="P35" s="1">
-        <v>0</v>
+        <v>4.3159722222222224E-2</v>
       </c>
       <c r="Q35" s="8">
         <f>IF(P35/$Q$2&lt;=1.001,P35/$Q$2,0.6)</f>
-        <v>0</v>
+        <v>0.99892847575676402</v>
       </c>
       <c r="R35" s="4">
         <f>AVERAGE(G35,I35,K35,M35,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.433950359888176</v>
-      </c>
-      <c r="S35" s="13"/>
+        <v>4.6739663228511033</v>
+      </c>
+      <c r="S35" s="13">
+        <v>6</v>
+      </c>
       <c r="T35" s="4" t="str" cm="1">
         <f t="array" ref="T35">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
+        <v>Gesto correspondiente a la palabra "Caballo" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U35" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="V35" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X35" s="29">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Y35" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="29">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AA35" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0.73018510796645275</v>
+        <v>3.7541898968553307</v>
       </c>
       <c r="AB35" s="1">
-        <v>3.8101851851851852E-2</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="8">
         <f>IF(AB35/$AC$2&lt;=1.01,AB35/$AC$2,0.6)</f>
-        <v>0.92575928008998876</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="1">
         <v>0</v>
@@ -6453,155 +6715,169 @@
         <v>0</v>
       </c>
       <c r="AF35" s="1">
-        <v>1.4351851851851852E-3</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="AG35" s="8">
-        <f>IF(AF35/$AG$2&lt;=1.01,AF35/$AG$2,0.6)</f>
-        <v>3.8236201048411966E-2</v>
+        <v>1</v>
       </c>
       <c r="AH35" s="1">
-        <v>0</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI35" s="8">
         <f>IF(AH35/$AI$2&lt;=1.01,AH35/$AI$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>3.5543981481481482E-2</v>
+      </c>
+      <c r="AK35" s="8">
+        <f>IF(AJ35/$AK$2&lt;=1.01,AJ35/$AK$2,0.6)</f>
+        <v>0.98936855670103097</v>
+      </c>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>18</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>95</v>
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
       </c>
       <c r="D36">
-        <v>1094883894</v>
+        <v>1002886235</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F36" s="3">
-        <v>0</v>
+        <v>1.7395833333333333E-2</v>
       </c>
       <c r="G36" s="8">
         <f>IF(F36/$G$2&lt;=1.001,F36/$G$2,0.6)</f>
-        <v>0</v>
+        <v>0.99734571997345711</v>
       </c>
       <c r="H36" s="3">
-        <v>3.7743055555555557E-2</v>
+        <v>3.8217592592592595E-2</v>
       </c>
       <c r="I36" s="8">
         <f>IF(H36/$I$2&lt;=1.001,H36/$I$2,0.6)</f>
-        <v>0.94879255164387544</v>
+        <v>0.9607215594995635</v>
       </c>
       <c r="J36" s="3">
-        <v>2.8715277777777777E-2</v>
+        <v>3.5960648148148151E-2</v>
       </c>
       <c r="K36" s="8">
         <f>IF(J36/$K$2&lt;=1.001,J36/$K$2,0.6)</f>
-        <v>0.79877656149388288</v>
+        <v>1.00032195750161</v>
       </c>
       <c r="L36" s="3">
-        <v>1.9212962962962963E-2</v>
+        <v>2.2662037037037036E-2</v>
       </c>
       <c r="M36" s="8">
         <f>IF(L36/$M$2&lt;=1.001,L36/$M$2,0.6)</f>
-        <v>0.84521384928716903</v>
+        <v>0.9969450101832994</v>
       </c>
       <c r="N36" s="1">
-        <v>0</v>
+        <v>4.6666666666666669E-2</v>
       </c>
       <c r="O36" s="8">
         <f>IF(N36/$O$2&lt;=1.001,N36/$O$2,0.6)</f>
-        <v>0</v>
+        <v>1.0002480774001488</v>
       </c>
       <c r="P36" s="1">
-        <v>0</v>
+        <v>4.3206018518518519E-2</v>
       </c>
       <c r="Q36" s="8">
         <f>IF(P36/$Q$2&lt;=1.001,P36/$Q$2,0.6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="4">
         <f>AVERAGE(G36,I36,K36,M36,Table1[[#This Row],[%Conexión5]],Table1[[#This Row],[%Conexión6]])*5</f>
-        <v>2.1606524686874393</v>
-      </c>
-      <c r="S36" s="13"/>
+        <v>4.9629852704650652</v>
+      </c>
+      <c r="S36" s="13">
+        <v>7</v>
+      </c>
       <c r="T36" s="4" t="str" cm="1">
         <f t="array" ref="T36">_xlfn.IFS(Table1[[#This Row],[Grupo]]=1,Sheet2!$B$1,Table1[[#This Row],[Grupo]]=2,Sheet2!$B$2,Table1[[#This Row],[Grupo]]=3,Sheet2!$B$3,Table1[[#This Row],[Grupo]]=4,Sheet2!$B$4,Table1[[#This Row],[Grupo]]=5,Sheet2!$B$5,Table1[[#This Row],[Grupo]]=6,Sheet2!$B$6,Table1[[#This Row],[Grupo]]=7,Sheet2!$B$7,Table1[[#This Row],[Grupo]]="","--")</f>
-        <v>--</v>
+        <v>Gesto correspondiente a la palabra "Flor" en el lenguaje de señas colombiano</v>
       </c>
       <c r="U36" s="29">
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="V36" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="W36" s="29">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="X36" s="29">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Y36" s="29">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Z36" s="29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AA36" s="33">
         <f>AVERAGE(Table1[[#This Row],[Operaciones sobre piezas (Semana 2) ]:[Escaneo de partes anatómicas (Semana 6) ]])*0.7+Table1[[#This Row],[Asistencia]]*0.3</f>
-        <v>0.64819574060623175</v>
+        <v>4.5548955811395198</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>4.1157407407407406E-2</v>
       </c>
       <c r="AC36" s="8">
         <f>IF(AB36/$AC$2&lt;=1.01,AB36/$AC$2,0.6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="1">
-        <v>3.7384259259259256E-2</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="8">
         <f>IF(AD36/$AE$2&lt;=1.01,AD36/$AE$2,0.6)</f>
-        <v>0.99599136601911809</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="1">
-        <v>0</v>
+        <v>3.8368055555555558E-2</v>
       </c>
       <c r="AG36" s="8">
-        <f>IF(AF36/$AG$2&lt;=1.01,AF36/$AG$2,0.6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH36" s="1">
-        <v>0</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="AI36" s="8">
         <f>IF(AH36/$AI$2&lt;=1.01,AH36/$AI$2,0.6)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>3.5925925925925924E-2</v>
+      </c>
+      <c r="AK36" s="8">
+        <f>IF(AJ36/$AK$2&lt;=1.01,AJ36/$AK$2,0.6)</f>
+        <v>1</v>
+      </c>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Z39" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1" xr:uid="{6ABD49C4-C1FA-45A2-AD96-9D7E301F893E}"/>
+    <hyperlink ref="E32" r:id="rId1" xr:uid="{6ABD49C4-C1FA-45A2-AD96-9D7E301F893E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -6619,44 +6895,44 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="75.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -6668,11 +6944,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356CA008-BCEA-4A99-A79F-FCC884D6E8C1}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -6681,21 +6957,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
         <v>80</v>
-      </c>
-      <c r="B1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>47</v>
@@ -6706,10 +6982,10 @@
         <v>66</v>
       </c>
       <c r="B3" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>2.6469907407407407E-2</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>27</v>
@@ -6720,10 +6996,10 @@
         <v>67</v>
       </c>
       <c r="B4" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>3.3402777777777781E-2</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>33</v>
@@ -6731,13 +7007,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B5" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>43</v>
@@ -6748,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>7</v>
@@ -6759,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>39</v>
@@ -6770,10 +7046,10 @@
         <v>68</v>
       </c>
       <c r="B8" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>3.5821759259259262E-2</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>21</v>
@@ -6784,10 +7060,10 @@
         <v>69</v>
       </c>
       <c r="B9" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>29</v>
@@ -6795,35 +7071,41 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B10" s="1">
-        <v>1.412037037037037E-2</v>
+        <v>2.2407407407407407E-2</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>284</v>
+      </c>
       <c r="B11" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>3.5752314814814813E-2</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>285</v>
+      </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>4.0162037037037041E-3</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>51</v>
@@ -6831,13 +7113,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B13" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>3.4907407407407408E-2</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>11</v>
@@ -6845,13 +7127,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>3.4872685185185187E-2</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>17</v>
@@ -6859,13 +7141,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>37</v>
@@ -6873,13 +7155,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>286</v>
       </c>
       <c r="B16" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>3.5509259259259261E-2</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>15</v>
@@ -6887,13 +7169,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>9.479166666666667E-3</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>49</v>
@@ -6904,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>9</v>
@@ -6915,21 +7197,21 @@
         <v>0</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>2.6562499999999999E-2</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>35</v>
@@ -6937,13 +7219,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1">
-        <v>1.2256944444444445E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>5</v>
@@ -6951,13 +7233,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B22" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>3.1932870370370368E-2</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>53</v>
@@ -6965,36 +7247,33 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B23" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>3.3252314814814818E-2</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>176</v>
-      </c>
       <c r="B24" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -7002,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>41</v>
@@ -7011,13 +7290,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>13</v>
@@ -7026,13 +7305,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>1.3819444444444445E-2</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>45</v>
@@ -7041,13 +7320,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>23</v>
@@ -7055,13 +7334,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="1">
-        <v>1.4386574074074074E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>19</v>
@@ -7069,13 +7348,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B30" s="1">
-        <v>2.855324074074074E-2</v>
+        <v>1.4675925925925926E-2</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>57</v>
@@ -7083,13 +7362,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B31" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>3.4756944444444444E-2</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>55</v>
@@ -7100,21 +7379,21 @@
         <v>0</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>3.5543981481481482E-2</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>3</v>
@@ -7122,16 +7401,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1">
-        <v>1.4722222222222222E-2</v>
+        <v>3.5925925925925924E-2</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7152,7 +7431,7 @@
       <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
@@ -7175,24 +7454,24 @@
         <v>2</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>145</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>146</v>
       </c>
       <c r="F1" s="46" t="s">
         <v>64</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H1" s="53"/>
       <c r="I1" s="54"/>
       <c r="J1" s="55" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K1" s="55"/>
       <c r="L1" s="55"/>
@@ -7201,7 +7480,7 @@
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -7210,40 +7489,40 @@
         <v>8</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" s="47">
         <v>1061688602</v>
       </c>
       <c r="G2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>208</v>
-      </c>
       <c r="J2" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="L2" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="M2" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="N2" s="40" t="s">
         <v>229</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>231</v>
       </c>
       <c r="P2" s="16" t="s">
         <v>47</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R2" s="16">
         <v>1061688602</v>
@@ -7251,7 +7530,7 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -7260,40 +7539,40 @@
         <v>1</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" s="47">
         <v>1110286885</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>209</v>
-      </c>
       <c r="J3" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="L3" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="M3" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="N3" s="40" t="s">
         <v>234</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>236</v>
       </c>
       <c r="P3" s="15" t="s">
         <v>27</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R3" s="15">
         <v>1110286885</v>
@@ -7301,7 +7580,7 @@
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -7310,40 +7589,40 @@
         <v>2</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F4" s="47">
         <v>1112388246</v>
       </c>
       <c r="G4" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>210</v>
-      </c>
       <c r="J4" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="M4" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="L4" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>240</v>
-      </c>
       <c r="N4" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>33</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R4" s="16">
         <v>1112388246</v>
@@ -7351,7 +7630,7 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
@@ -7360,40 +7639,40 @@
         <v>1</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" s="47">
         <v>1109542109</v>
       </c>
       <c r="G5" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>211</v>
-      </c>
       <c r="J5" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="M5" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="L5" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>244</v>
-      </c>
       <c r="N5" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P5" s="15" t="s">
         <v>43</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R5" s="15">
         <v>1109542109</v>
@@ -7401,7 +7680,7 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -7410,40 +7689,40 @@
         <v>2</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F6" s="47">
         <v>1193276119</v>
       </c>
       <c r="G6" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>212</v>
-      </c>
       <c r="J6" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="L6" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="M6" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="L6" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>248</v>
-      </c>
       <c r="N6" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R6" s="16">
         <v>1193276119</v>
@@ -7451,7 +7730,7 @@
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -7460,40 +7739,40 @@
         <v>3</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F7" s="47">
         <v>1143992171</v>
       </c>
       <c r="G7" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>213</v>
-      </c>
       <c r="J7" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L7" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="M7" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="L7" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>252</v>
-      </c>
       <c r="N7" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P7" s="17" t="s">
         <v>39</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R7" s="15">
         <v>1143992171</v>
@@ -7501,7 +7780,7 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -7510,40 +7789,40 @@
         <v>4</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F8" s="47">
         <v>1000940688</v>
       </c>
       <c r="G8" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>214</v>
-      </c>
       <c r="J8" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="L8" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="M8" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="L8" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>256</v>
-      </c>
       <c r="N8" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P8" s="16" t="s">
         <v>21</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R8" s="16">
         <v>1000940688</v>
@@ -7551,7 +7830,7 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -7560,40 +7839,40 @@
         <v>5</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F9" s="47">
         <v>1007560675</v>
       </c>
       <c r="G9" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>215</v>
-      </c>
       <c r="J9" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="L9" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="M9" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="L9" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="M9" s="40" t="s">
-        <v>260</v>
-      </c>
       <c r="N9" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P9" s="15" t="s">
         <v>29</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R9" s="15">
         <v>1007560675</v>
@@ -7601,7 +7880,7 @@
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
@@ -7610,40 +7889,40 @@
         <v>4</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10" s="47">
         <v>1110285503</v>
       </c>
       <c r="G10" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>216</v>
-      </c>
       <c r="J10" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="L10" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="M10" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="L10" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="M10" s="40" t="s">
-        <v>264</v>
-      </c>
       <c r="N10" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P10" s="16" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="16">
         <v>1110285503</v>
@@ -7651,7 +7930,7 @@
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -7660,40 +7939,40 @@
         <v>6</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F11" s="47">
         <v>1107837304</v>
       </c>
       <c r="G11" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="J11" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="L11" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="M11" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="L11" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>268</v>
-      </c>
       <c r="N11" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>25</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R11" s="15">
         <v>1107837304</v>
@@ -7701,7 +7980,7 @@
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -7710,40 +7989,40 @@
         <v>5</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F12" s="47">
         <v>1112388822</v>
       </c>
       <c r="G12" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="H12" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>218</v>
-      </c>
       <c r="J12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="L12" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="M12" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="L12" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>272</v>
-      </c>
       <c r="N12" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P12" s="16" t="s">
         <v>51</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R12" s="16">
         <v>1112388822</v>
@@ -7751,7 +8030,7 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -7760,40 +8039,40 @@
         <v>1</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F13" s="47">
         <v>1107839506</v>
       </c>
       <c r="G13" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>219</v>
-      </c>
       <c r="J13" s="38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L13" s="40" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M13" s="40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N13" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P13" s="15" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R13" s="15">
         <v>1107839506</v>
@@ -7801,7 +8080,7 @@
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -7810,40 +8089,40 @@
         <v>4</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14" s="47">
         <v>1112041894</v>
       </c>
       <c r="G14" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>220</v>
-      </c>
       <c r="J14" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L14" s="40" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M14" s="40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N14" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P14" s="16" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R14" s="16">
         <v>1112041894</v>
@@ -7851,7 +8130,7 @@
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
@@ -7860,40 +8139,40 @@
         <v>5</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F15" s="47">
         <v>1005785665</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K15" s="39" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M15" s="40" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P15" s="15" t="s">
         <v>37</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R15" s="15">
         <v>1005785665</v>
@@ -7901,49 +8180,49 @@
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="20">
         <v>8</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" s="47">
         <v>1113978874</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K16" s="39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L16" s="40" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M16" s="40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N16" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P16" s="16" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R16" s="16">
         <v>1113978874</v>
@@ -7951,7 +8230,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -7960,40 +8239,40 @@
         <v>7</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F17" s="47">
         <v>1105366146</v>
       </c>
       <c r="G17" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>208</v>
-      </c>
       <c r="J17" s="38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L17" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="N17" s="40" t="s">
         <v>229</v>
-      </c>
-      <c r="M17" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="N17" s="40" t="s">
-        <v>231</v>
       </c>
       <c r="P17" s="15" t="s">
         <v>49</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R17" s="15">
         <v>1105366146</v>
@@ -8001,7 +8280,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -8010,40 +8289,40 @@
         <v>7</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F18" s="47">
         <v>1004189893</v>
       </c>
       <c r="G18" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="I18" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H18" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>209</v>
-      </c>
       <c r="J18" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L18" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="N18" s="40" t="s">
         <v>234</v>
-      </c>
-      <c r="M18" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="N18" s="40" t="s">
-        <v>236</v>
       </c>
       <c r="P18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R18" s="16">
         <v>1004189893</v>
@@ -8051,7 +8330,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
         <v>53</v>
@@ -8060,40 +8339,40 @@
         <v>6</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F19" s="47">
         <v>1062276579</v>
       </c>
       <c r="G19" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="H19" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>210</v>
-      </c>
       <c r="J19" s="38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L19" s="40" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M19" s="40" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N19" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P19" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="15" t="s">
-        <v>115</v>
       </c>
       <c r="R19" s="15">
         <v>1062276579</v>
@@ -8101,49 +8380,49 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="19">
         <v>1</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F20" s="47">
         <v>1058932076</v>
       </c>
       <c r="G20" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I20" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>211</v>
-      </c>
       <c r="J20" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L20" s="40" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M20" s="40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N20" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R20" s="16">
         <v>1058932076</v>
@@ -8151,49 +8430,49 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="19">
         <v>2</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F21" s="47">
         <v>1113362057</v>
       </c>
       <c r="G21" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="I21" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>212</v>
-      </c>
       <c r="J21" s="38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K21" s="39" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M21" s="40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N21" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>5</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R21" s="15">
         <v>1113362057</v>
@@ -8201,7 +8480,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -8210,40 +8489,40 @@
         <v>5</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F22" s="47">
         <v>1112389849</v>
       </c>
       <c r="G22" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="I22" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="H22" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>213</v>
-      </c>
       <c r="J22" s="38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K22" s="39" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M22" s="40" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N22" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P22" s="16" t="s">
         <v>53</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R22" s="16">
         <v>1112389849</v>
@@ -8251,7 +8530,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
@@ -8260,40 +8539,40 @@
         <v>4</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F23" s="47">
         <v>1036925847</v>
       </c>
       <c r="G23" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="I23" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="H23" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>214</v>
-      </c>
       <c r="J23" s="38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K23" s="39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M23" s="40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N23" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q23" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R23" s="15">
         <v>1036925847</v>
@@ -8301,7 +8580,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -8310,40 +8589,40 @@
         <v>3</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F24" s="47">
         <v>1107837413</v>
       </c>
       <c r="G24" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="I24" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="H24" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>215</v>
-      </c>
       <c r="J24" s="38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K24" s="39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M24" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N24" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P24" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q24" s="16" t="s">
         <v>93</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>94</v>
       </c>
       <c r="R24" s="16">
         <v>1107837413</v>
@@ -8351,7 +8630,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
@@ -8360,40 +8639,40 @@
         <v>3</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F25" s="47">
         <v>1234198199</v>
       </c>
       <c r="G25" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="I25" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="H25" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>216</v>
-      </c>
       <c r="J25" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L25" s="40" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M25" s="40" t="s">
-       